--- a/Assets/06.Table/ByeolhoTower.xlsx
+++ b/Assets/06.Table/ByeolhoTower.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26806079-8607-447B-9C4C-C6E3B1455265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE5C33C-7E2E-4EE8-8C56-AD7743A2CA92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="76">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -335,10 +335,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>절</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -350,6 +346,18 @@
   </si>
   <si>
     <t>1일 소탕 보상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -942,11 +950,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M97"/>
+  <dimension ref="A1:M105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E102" sqref="E102"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F109" sqref="F109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -996,10 +1004,10 @@
         <v>8</v>
       </c>
       <c r="L1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M1" t="s">
         <v>71</v>
-      </c>
-      <c r="M1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -4312,7 +4320,7 @@
         <v>17000</v>
       </c>
       <c r="E68">
-        <f t="shared" ref="E68:E97" si="10">E67</f>
+        <f t="shared" ref="E68:E105" si="10">E67</f>
         <v>1</v>
       </c>
       <c r="F68" s="2">
@@ -4334,7 +4342,7 @@
         <v>57</v>
       </c>
       <c r="K68">
-        <f t="shared" ref="K68:K97" si="12">K67+200</f>
+        <f t="shared" ref="K68:K105" si="12">K67+200</f>
         <v>15200</v>
       </c>
       <c r="L68">
@@ -5766,6 +5774,7 @@
         <v>1</v>
       </c>
       <c r="F97" s="2">
+        <f>F96*10</f>
         <v>9.9999999999999995E+170</v>
       </c>
       <c r="G97">
@@ -5795,9 +5804,417 @@
         <v>9750</v>
       </c>
     </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98" s="1" t="str">
+        <f t="shared" ref="B98:C98" si="43">B97</f>
+        <v>1-1</v>
+      </c>
+      <c r="C98">
+        <f t="shared" si="43"/>
+        <v>9054</v>
+      </c>
+      <c r="D98">
+        <f>VLOOKUP(A98,Balance!E:K,7,FALSE)</f>
+        <v>25000</v>
+      </c>
+      <c r="E98">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="F98" s="2">
+        <f t="shared" ref="F98:F105" si="44">F97*10</f>
+        <v>9.9999999999999991E+171</v>
+      </c>
+      <c r="G98">
+        <f t="shared" ref="G98:I98" si="45">G97</f>
+        <v>1000</v>
+      </c>
+      <c r="H98">
+        <f t="shared" si="45"/>
+        <v>8</v>
+      </c>
+      <c r="I98">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="J98" t="s">
+        <v>57</v>
+      </c>
+      <c r="K98">
+        <f t="shared" si="12"/>
+        <v>21200</v>
+      </c>
+      <c r="L98">
+        <v>9054</v>
+      </c>
+      <c r="M98">
+        <f>VLOOKUP(A98,Balance!E:L,8,FALSE)/2</f>
+        <v>9800</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>97</v>
+      </c>
+      <c r="B99" s="1" t="str">
+        <f t="shared" ref="B99:C99" si="46">B98</f>
+        <v>1-1</v>
+      </c>
+      <c r="C99">
+        <f t="shared" si="46"/>
+        <v>9054</v>
+      </c>
+      <c r="D99">
+        <f>VLOOKUP(A99,Balance!E:K,7,FALSE)</f>
+        <v>25000</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="F99" s="2">
+        <f t="shared" si="44"/>
+        <v>9.9999999999999988E+172</v>
+      </c>
+      <c r="G99">
+        <f t="shared" ref="G99:I99" si="47">G98</f>
+        <v>1000</v>
+      </c>
+      <c r="H99">
+        <f t="shared" si="47"/>
+        <v>8</v>
+      </c>
+      <c r="I99">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="J99" t="s">
+        <v>57</v>
+      </c>
+      <c r="K99">
+        <f t="shared" si="12"/>
+        <v>21400</v>
+      </c>
+      <c r="L99">
+        <v>9054</v>
+      </c>
+      <c r="M99">
+        <f>VLOOKUP(A99,Balance!E:L,8,FALSE)/2</f>
+        <v>9850</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>98</v>
+      </c>
+      <c r="B100" s="1" t="str">
+        <f t="shared" ref="B100:C100" si="48">B99</f>
+        <v>1-1</v>
+      </c>
+      <c r="C100">
+        <f t="shared" si="48"/>
+        <v>9054</v>
+      </c>
+      <c r="D100">
+        <f>VLOOKUP(A100,Balance!E:K,7,FALSE)</f>
+        <v>25000</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="F100" s="2">
+        <f t="shared" si="44"/>
+        <v>9.9999999999999985E+173</v>
+      </c>
+      <c r="G100">
+        <f t="shared" ref="G100:I100" si="49">G99</f>
+        <v>1000</v>
+      </c>
+      <c r="H100">
+        <f t="shared" si="49"/>
+        <v>8</v>
+      </c>
+      <c r="I100">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="J100" t="s">
+        <v>57</v>
+      </c>
+      <c r="K100">
+        <f t="shared" si="12"/>
+        <v>21600</v>
+      </c>
+      <c r="L100">
+        <v>9054</v>
+      </c>
+      <c r="M100">
+        <f>VLOOKUP(A100,Balance!E:L,8,FALSE)/2</f>
+        <v>9900</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101" s="1" t="str">
+        <f t="shared" ref="B101:C101" si="50">B100</f>
+        <v>1-1</v>
+      </c>
+      <c r="C101">
+        <f t="shared" si="50"/>
+        <v>9054</v>
+      </c>
+      <c r="D101">
+        <f>VLOOKUP(A101,Balance!E:K,7,FALSE)</f>
+        <v>25000</v>
+      </c>
+      <c r="E101">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="F101" s="2">
+        <f t="shared" si="44"/>
+        <v>9.9999999999999994E+174</v>
+      </c>
+      <c r="G101">
+        <f t="shared" ref="G101:I101" si="51">G100</f>
+        <v>1000</v>
+      </c>
+      <c r="H101">
+        <f t="shared" si="51"/>
+        <v>8</v>
+      </c>
+      <c r="I101">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="J101" t="s">
+        <v>57</v>
+      </c>
+      <c r="K101">
+        <f t="shared" si="12"/>
+        <v>21800</v>
+      </c>
+      <c r="L101">
+        <v>9054</v>
+      </c>
+      <c r="M101">
+        <f>VLOOKUP(A101,Balance!E:L,8,FALSE)/2</f>
+        <v>9950</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>100</v>
+      </c>
+      <c r="B102" s="1" t="str">
+        <f t="shared" ref="B102:C102" si="52">B101</f>
+        <v>1-1</v>
+      </c>
+      <c r="C102">
+        <f t="shared" si="52"/>
+        <v>9054</v>
+      </c>
+      <c r="D102">
+        <f>VLOOKUP(A102,Balance!E:K,7,FALSE)</f>
+        <v>26000</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="F102" s="2">
+        <f t="shared" si="44"/>
+        <v>1E+176</v>
+      </c>
+      <c r="G102">
+        <f t="shared" ref="G102:I102" si="53">G101</f>
+        <v>1000</v>
+      </c>
+      <c r="H102">
+        <f t="shared" si="53"/>
+        <v>8</v>
+      </c>
+      <c r="I102">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="J102" t="s">
+        <v>57</v>
+      </c>
+      <c r="K102">
+        <f t="shared" si="12"/>
+        <v>22000</v>
+      </c>
+      <c r="L102">
+        <v>9054</v>
+      </c>
+      <c r="M102">
+        <f>VLOOKUP(A102,Balance!E:L,8,FALSE)/2</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>101</v>
+      </c>
+      <c r="B103" s="1" t="str">
+        <f t="shared" ref="B103:C103" si="54">B102</f>
+        <v>1-1</v>
+      </c>
+      <c r="C103">
+        <f t="shared" si="54"/>
+        <v>9054</v>
+      </c>
+      <c r="D103">
+        <f>VLOOKUP(A103,Balance!E:K,7,FALSE)</f>
+        <v>26000</v>
+      </c>
+      <c r="E103">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="F103" s="2">
+        <f t="shared" si="44"/>
+        <v>1E+177</v>
+      </c>
+      <c r="G103">
+        <f t="shared" ref="G103:I103" si="55">G102</f>
+        <v>1000</v>
+      </c>
+      <c r="H103">
+        <f t="shared" si="55"/>
+        <v>8</v>
+      </c>
+      <c r="I103">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="J103" t="s">
+        <v>57</v>
+      </c>
+      <c r="K103">
+        <f t="shared" si="12"/>
+        <v>22200</v>
+      </c>
+      <c r="L103">
+        <v>9054</v>
+      </c>
+      <c r="M103">
+        <f>VLOOKUP(A103,Balance!E:L,8,FALSE)/2</f>
+        <v>10100</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>102</v>
+      </c>
+      <c r="B104" s="1" t="str">
+        <f t="shared" ref="B104:C104" si="56">B103</f>
+        <v>1-1</v>
+      </c>
+      <c r="C104">
+        <f t="shared" si="56"/>
+        <v>9054</v>
+      </c>
+      <c r="D104">
+        <f>VLOOKUP(A104,Balance!E:K,7,FALSE)</f>
+        <v>26000</v>
+      </c>
+      <c r="E104">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="F104" s="2">
+        <f t="shared" si="44"/>
+        <v>1.0000000000000001E+178</v>
+      </c>
+      <c r="G104">
+        <f t="shared" ref="G104:I104" si="57">G103</f>
+        <v>1000</v>
+      </c>
+      <c r="H104">
+        <f t="shared" si="57"/>
+        <v>8</v>
+      </c>
+      <c r="I104">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="J104" t="s">
+        <v>57</v>
+      </c>
+      <c r="K104">
+        <f t="shared" si="12"/>
+        <v>22400</v>
+      </c>
+      <c r="L104">
+        <v>9054</v>
+      </c>
+      <c r="M104">
+        <f>VLOOKUP(A104,Balance!E:L,8,FALSE)/2</f>
+        <v>10200</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>103</v>
+      </c>
+      <c r="B105" s="1" t="str">
+        <f t="shared" ref="B105:C105" si="58">B104</f>
+        <v>1-1</v>
+      </c>
+      <c r="C105">
+        <f t="shared" si="58"/>
+        <v>9054</v>
+      </c>
+      <c r="D105">
+        <f>VLOOKUP(A105,Balance!E:K,7,FALSE)</f>
+        <v>26000</v>
+      </c>
+      <c r="E105">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="F105" s="2">
+        <f t="shared" si="44"/>
+        <v>1.0000000000000001E+179</v>
+      </c>
+      <c r="G105">
+        <f t="shared" ref="G105:I105" si="59">G104</f>
+        <v>1000</v>
+      </c>
+      <c r="H105">
+        <f t="shared" si="59"/>
+        <v>8</v>
+      </c>
+      <c r="I105">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="J105" t="s">
+        <v>57</v>
+      </c>
+      <c r="K105">
+        <f t="shared" si="12"/>
+        <v>22600</v>
+      </c>
+      <c r="L105">
+        <v>9054</v>
+      </c>
+      <c r="M105">
+        <f>VLOOKUP(A105,Balance!E:L,8,FALSE)/2</f>
+        <v>10300</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:K97">
+  <conditionalFormatting sqref="A2:K105">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
@@ -5809,10 +6226,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4C63F0-02E4-48AB-8F58-B57B021B5DE4}">
-  <dimension ref="A1:Z104"/>
+  <dimension ref="A1:Z112"/>
   <sheetViews>
-    <sheetView topLeftCell="G30" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="L110" sqref="L110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5908,7 +6325,7 @@
         <v>58</v>
       </c>
       <c r="L7" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M7" s="22"/>
       <c r="N7" s="21" t="s">
@@ -5981,7 +6398,7 @@
         <v>38</v>
       </c>
       <c r="J9" s="16" t="str">
-        <f t="shared" ref="J9:J40" si="0">VLOOKUP(I9,N:Q,4,FALSE)</f>
+        <f>VLOOKUP(I9,N:Q,4,FALSE)</f>
         <v>1E+76</v>
       </c>
       <c r="K9" s="22">
@@ -5998,7 +6415,7 @@
         <v>8</v>
       </c>
       <c r="P9" s="17">
-        <f t="shared" ref="P9:P38" si="1">POWER(10,O9)</f>
+        <f t="shared" ref="P9:P38" si="0">POWER(10,O9)</f>
         <v>100000000</v>
       </c>
       <c r="Q9" s="17" t="str">
@@ -6027,7 +6444,7 @@
         <v>겁</v>
       </c>
       <c r="J10" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I10,N:Q,4,FALSE)</f>
         <v>1E+76</v>
       </c>
       <c r="K10" s="22">
@@ -6044,7 +6461,7 @@
         <v>12</v>
       </c>
       <c r="P10" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1000000000000</v>
       </c>
       <c r="Q10" s="17" t="str">
@@ -6058,11 +6475,11 @@
         <v>2</v>
       </c>
       <c r="F11" s="17" t="str">
-        <f t="shared" ref="F11:F29" si="2">H11&amp;I11</f>
+        <f t="shared" ref="F11:F29" si="1">H11&amp;I11</f>
         <v>100겁</v>
       </c>
       <c r="G11" s="17">
-        <f t="shared" ref="G11:G73" si="3">H11*J11</f>
+        <f t="shared" ref="G11:G73" si="2">H11*J11</f>
         <v>1E+78</v>
       </c>
       <c r="H11" s="17">
@@ -6073,7 +6490,7 @@
         <v>겁</v>
       </c>
       <c r="J11" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I11,N:Q,4,FALSE)</f>
         <v>1E+76</v>
       </c>
       <c r="K11" s="22">
@@ -6090,7 +6507,7 @@
         <v>16</v>
       </c>
       <c r="P11" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1E+16</v>
       </c>
       <c r="Q11" s="17" t="str">
@@ -6104,11 +6521,11 @@
         <v>3</v>
       </c>
       <c r="F12" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1000겁</v>
       </c>
       <c r="G12" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999997E+78</v>
       </c>
       <c r="H12" s="17">
@@ -6119,7 +6536,7 @@
         <v>겁</v>
       </c>
       <c r="J12" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I12,N:Q,4,FALSE)</f>
         <v>1E+76</v>
       </c>
       <c r="K12" s="22">
@@ -6136,11 +6553,11 @@
         <v>20</v>
       </c>
       <c r="P12" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1E+20</v>
       </c>
       <c r="Q12" s="17" t="str">
-        <f t="shared" ref="Q12:Q38" si="4">RIGHT(P12,O12)</f>
+        <f t="shared" ref="Q12:Q38" si="3">RIGHT(P12,O12)</f>
         <v>1E+20</v>
       </c>
     </row>
@@ -6150,11 +6567,11 @@
         <v>4</v>
       </c>
       <c r="F13" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1업</v>
       </c>
       <c r="G13" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1E+80</v>
       </c>
       <c r="H13" s="17">
@@ -6166,7 +6583,7 @@
         <v>업</v>
       </c>
       <c r="J13" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I13,N:Q,4,FALSE)</f>
         <v>1E+80</v>
       </c>
       <c r="K13" s="22">
@@ -6183,11 +6600,11 @@
         <v>24</v>
       </c>
       <c r="P13" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9.9999999999999998E+23</v>
       </c>
       <c r="Q13" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1E+24</v>
       </c>
     </row>
@@ -6197,15 +6614,15 @@
         <v>5</v>
       </c>
       <c r="F14" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10업</v>
       </c>
       <c r="G14" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999992E+80</v>
       </c>
       <c r="H14" s="17">
-        <f t="shared" ref="H14:H77" si="5">H10</f>
+        <f t="shared" ref="H14:H77" si="4">H10</f>
         <v>10</v>
       </c>
       <c r="I14" s="16" t="str" cm="1">
@@ -6213,7 +6630,7 @@
         <v>업</v>
       </c>
       <c r="J14" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I14,N:Q,4,FALSE)</f>
         <v>1E+80</v>
       </c>
       <c r="K14" s="22">
@@ -6230,11 +6647,11 @@
         <v>28</v>
       </c>
       <c r="P14" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9.9999999999999996E+27</v>
       </c>
       <c r="Q14" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1E+28</v>
       </c>
     </row>
@@ -6252,7 +6669,7 @@
         <v>9.9999999999999996E+81</v>
       </c>
       <c r="H15" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="I15" s="16" t="str" cm="1">
@@ -6260,7 +6677,7 @@
         <v>업</v>
       </c>
       <c r="J15" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I15,N:Q,4,FALSE)</f>
         <v>1E+80</v>
       </c>
       <c r="K15" s="22">
@@ -6277,11 +6694,11 @@
         <v>32</v>
       </c>
       <c r="P15" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.0000000000000001E+32</v>
       </c>
       <c r="Q15" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1E+32</v>
       </c>
     </row>
@@ -6299,7 +6716,7 @@
         <v>1E+83</v>
       </c>
       <c r="H16" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="I16" s="16" t="str" cm="1">
@@ -6307,7 +6724,7 @@
         <v>업</v>
       </c>
       <c r="J16" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I16,N:Q,4,FALSE)</f>
         <v>1E+80</v>
       </c>
       <c r="K16" s="22">
@@ -6324,11 +6741,11 @@
         <v>36</v>
       </c>
       <c r="P16" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1E+36</v>
       </c>
       <c r="Q16" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1E+36</v>
       </c>
     </row>
@@ -6338,15 +6755,15 @@
         <v>8</v>
       </c>
       <c r="F17" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1긍</v>
       </c>
       <c r="G17" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.0000000000000001E+84</v>
       </c>
       <c r="H17" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I17" s="16" t="str" cm="1">
@@ -6354,7 +6771,7 @@
         <v>긍</v>
       </c>
       <c r="J17" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I17,N:Q,4,FALSE)</f>
         <v>1E+84</v>
       </c>
       <c r="K17" s="22">
@@ -6371,11 +6788,11 @@
         <v>40</v>
       </c>
       <c r="P17" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1E+40</v>
       </c>
       <c r="Q17" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1E+40</v>
       </c>
     </row>
@@ -6385,15 +6802,15 @@
         <v>9</v>
       </c>
       <c r="F18" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10긍</v>
       </c>
       <c r="G18" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1E+85</v>
       </c>
       <c r="H18" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="I18" s="16" t="str" cm="1">
@@ -6401,7 +6818,7 @@
         <v>긍</v>
       </c>
       <c r="J18" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I18,N:Q,4,FALSE)</f>
         <v>1E+84</v>
       </c>
       <c r="K18" s="22">
@@ -6418,11 +6835,11 @@
         <v>44</v>
       </c>
       <c r="P18" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.0000000000000001E+44</v>
       </c>
       <c r="Q18" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1E+44</v>
       </c>
     </row>
@@ -6432,15 +6849,15 @@
         <v>10</v>
       </c>
       <c r="F19" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>100긍</v>
       </c>
       <c r="G19" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1E+86</v>
       </c>
       <c r="H19" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="I19" s="16" t="str" cm="1">
@@ -6448,7 +6865,7 @@
         <v>긍</v>
       </c>
       <c r="J19" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I19,N:Q,4,FALSE)</f>
         <v>1E+84</v>
       </c>
       <c r="K19" s="22">
@@ -6465,11 +6882,11 @@
         <v>48</v>
       </c>
       <c r="P19" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1E+48</v>
       </c>
       <c r="Q19" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1E+48</v>
       </c>
     </row>
@@ -6479,15 +6896,15 @@
         <v>11</v>
       </c>
       <c r="F20" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1000긍</v>
       </c>
       <c r="G20" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999996E+86</v>
       </c>
       <c r="H20" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="I20" s="16" t="str" cm="1">
@@ -6495,7 +6912,7 @@
         <v>긍</v>
       </c>
       <c r="J20" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I20,N:Q,4,FALSE)</f>
         <v>1E+84</v>
       </c>
       <c r="K20" s="22">
@@ -6512,11 +6929,11 @@
         <v>52</v>
       </c>
       <c r="P20" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9.9999999999999999E+51</v>
       </c>
       <c r="Q20" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1E+52</v>
       </c>
     </row>
@@ -6526,15 +6943,15 @@
         <v>12</v>
       </c>
       <c r="F21" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1갈</v>
       </c>
       <c r="G21" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999996E+87</v>
       </c>
       <c r="H21" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I21" s="16" t="str" cm="1">
@@ -6542,7 +6959,7 @@
         <v>갈</v>
       </c>
       <c r="J21" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I21,N:Q,4,FALSE)</f>
         <v>1E+88</v>
       </c>
       <c r="K21" s="22">
@@ -6559,11 +6976,11 @@
         <v>56</v>
       </c>
       <c r="P21" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.0000000000000001E+56</v>
       </c>
       <c r="Q21" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1E+56</v>
       </c>
     </row>
@@ -6573,15 +6990,15 @@
         <v>13</v>
       </c>
       <c r="F22" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10갈</v>
       </c>
       <c r="G22" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999999E+88</v>
       </c>
       <c r="H22" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="I22" s="16" t="str" cm="1">
@@ -6589,7 +7006,7 @@
         <v>갈</v>
       </c>
       <c r="J22" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I22,N:Q,4,FALSE)</f>
         <v>1E+88</v>
       </c>
       <c r="K22" s="22">
@@ -6606,11 +7023,11 @@
         <v>60</v>
       </c>
       <c r="P22" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9.9999999999999995E+59</v>
       </c>
       <c r="Q22" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1E+60</v>
       </c>
     </row>
@@ -6619,15 +7036,15 @@
         <v>14</v>
       </c>
       <c r="F23" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>100갈</v>
       </c>
       <c r="G23" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999997E+89</v>
       </c>
       <c r="H23" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="I23" s="16" t="str" cm="1">
@@ -6635,7 +7052,7 @@
         <v>갈</v>
       </c>
       <c r="J23" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I23,N:Q,4,FALSE)</f>
         <v>1E+88</v>
       </c>
       <c r="K23" s="22">
@@ -6652,11 +7069,11 @@
         <v>64</v>
       </c>
       <c r="P23" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1E+64</v>
       </c>
       <c r="Q23" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1E+64</v>
       </c>
     </row>
@@ -6665,15 +7082,15 @@
         <v>15</v>
       </c>
       <c r="F24" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1000갈</v>
       </c>
       <c r="G24" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.999999999999999E+90</v>
       </c>
       <c r="H24" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="I24" s="16" t="str" cm="1">
@@ -6681,7 +7098,7 @@
         <v>갈</v>
       </c>
       <c r="J24" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I24,N:Q,4,FALSE)</f>
         <v>1E+88</v>
       </c>
       <c r="K24" s="22">
@@ -6698,11 +7115,11 @@
         <v>68</v>
       </c>
       <c r="P24" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9.9999999999999995E+67</v>
       </c>
       <c r="Q24" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1E+68</v>
       </c>
     </row>
@@ -6711,15 +7128,15 @@
         <v>16</v>
       </c>
       <c r="F25" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1라</v>
       </c>
       <c r="G25" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1E+92</v>
       </c>
       <c r="H25" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I25" s="16" t="str" cm="1">
@@ -6727,7 +7144,7 @@
         <v>라</v>
       </c>
       <c r="J25" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I25,N:Q,4,FALSE)</f>
         <v>1E+92</v>
       </c>
       <c r="K25" s="22">
@@ -6744,11 +7161,11 @@
         <v>72</v>
       </c>
       <c r="P25" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9.9999999999999994E+71</v>
       </c>
       <c r="Q25" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1E+72</v>
       </c>
     </row>
@@ -6757,15 +7174,15 @@
         <v>17</v>
       </c>
       <c r="F26" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10라</v>
       </c>
       <c r="G26" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1E+93</v>
       </c>
       <c r="H26" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="I26" s="16" t="str" cm="1">
@@ -6773,7 +7190,7 @@
         <v>라</v>
       </c>
       <c r="J26" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I26,N:Q,4,FALSE)</f>
         <v>1E+92</v>
       </c>
       <c r="K26" s="22">
@@ -6790,11 +7207,11 @@
         <v>76</v>
       </c>
       <c r="P26" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1E+76</v>
       </c>
       <c r="Q26" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1E+76</v>
       </c>
     </row>
@@ -6803,15 +7220,15 @@
         <v>18</v>
       </c>
       <c r="F27" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>100라</v>
       </c>
       <c r="G27" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1E+94</v>
       </c>
       <c r="H27" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="I27" s="16" t="str" cm="1">
@@ -6819,7 +7236,7 @@
         <v>라</v>
       </c>
       <c r="J27" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I27,N:Q,4,FALSE)</f>
         <v>1E+92</v>
       </c>
       <c r="K27" s="22">
@@ -6836,11 +7253,11 @@
         <v>80</v>
       </c>
       <c r="P27" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1E+80</v>
       </c>
       <c r="Q27" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1E+80</v>
       </c>
     </row>
@@ -6849,15 +7266,15 @@
         <v>19</v>
       </c>
       <c r="F28" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1000라</v>
       </c>
       <c r="G28" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1E+95</v>
       </c>
       <c r="H28" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="I28" s="16" t="str" cm="1">
@@ -6865,7 +7282,7 @@
         <v>라</v>
       </c>
       <c r="J28" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I28,N:Q,4,FALSE)</f>
         <v>1E+92</v>
       </c>
       <c r="K28" s="22">
@@ -6882,11 +7299,11 @@
         <v>84</v>
       </c>
       <c r="P28" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.0000000000000001E+84</v>
       </c>
       <c r="Q28" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1E+84</v>
       </c>
     </row>
@@ -6895,15 +7312,15 @@
         <v>20</v>
       </c>
       <c r="F29" s="17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1가</v>
       </c>
       <c r="G29" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1E+96</v>
       </c>
       <c r="H29" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I29" s="16" t="str" cm="1">
@@ -6911,7 +7328,7 @@
         <v>가</v>
       </c>
       <c r="J29" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I29,N:Q,4,FALSE)</f>
         <v>1E+96</v>
       </c>
       <c r="K29" s="22">
@@ -6928,11 +7345,11 @@
         <v>88</v>
       </c>
       <c r="P29" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9.9999999999999996E+87</v>
       </c>
       <c r="Q29" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1E+88</v>
       </c>
     </row>
@@ -6945,11 +7362,11 @@
         <v>10가</v>
       </c>
       <c r="G30" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.0000000000000001E+97</v>
       </c>
       <c r="H30" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="I30" s="16" t="str" cm="1">
@@ -6957,7 +7374,7 @@
         <v>가</v>
       </c>
       <c r="J30" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I30,N:Q,4,FALSE)</f>
         <v>1E+96</v>
       </c>
       <c r="K30" s="22">
@@ -6974,11 +7391,11 @@
         <v>92</v>
       </c>
       <c r="P30" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1E+92</v>
       </c>
       <c r="Q30" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1E+92</v>
       </c>
     </row>
@@ -6987,15 +7404,15 @@
         <v>22</v>
       </c>
       <c r="F31" s="17" t="str">
-        <f t="shared" ref="F31:F67" si="6">H31&amp;I31</f>
+        <f t="shared" ref="F31:F67" si="5">H31&amp;I31</f>
         <v>100가</v>
       </c>
       <c r="G31" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1E+98</v>
       </c>
       <c r="H31" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="I31" s="16" t="str" cm="1">
@@ -7003,7 +7420,7 @@
         <v>가</v>
       </c>
       <c r="J31" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I31,N:Q,4,FALSE)</f>
         <v>1E+96</v>
       </c>
       <c r="K31" s="22">
@@ -7020,11 +7437,11 @@
         <v>96</v>
       </c>
       <c r="P31" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1E+96</v>
       </c>
       <c r="Q31" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1E+96</v>
       </c>
     </row>
@@ -7033,15 +7450,15 @@
         <v>23</v>
       </c>
       <c r="F32" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1000가</v>
       </c>
       <c r="G32" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.0000000000000001E+99</v>
       </c>
       <c r="H32" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="I32" s="16" t="str" cm="1">
@@ -7049,7 +7466,7 @@
         <v>가</v>
       </c>
       <c r="J32" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I32,N:Q,4,FALSE)</f>
         <v>1E+96</v>
       </c>
       <c r="K32" s="22">
@@ -7066,11 +7483,11 @@
         <v>100</v>
       </c>
       <c r="P32" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1E+100</v>
       </c>
       <c r="Q32" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1E+100</v>
       </c>
     </row>
@@ -7079,15 +7496,15 @@
         <v>24</v>
       </c>
       <c r="F33" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1언</v>
       </c>
       <c r="G33" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1E+100</v>
       </c>
       <c r="H33" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I33" s="16" t="str" cm="1">
@@ -7095,7 +7512,7 @@
         <v>언</v>
       </c>
       <c r="J33" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I33,N:Q,4,FALSE)</f>
         <v>1E+100</v>
       </c>
       <c r="K33" s="22">
@@ -7112,11 +7529,11 @@
         <v>104</v>
       </c>
       <c r="P33" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1E+104</v>
       </c>
       <c r="Q33" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1E+104</v>
       </c>
       <c r="R33" s="11"/>
@@ -7134,15 +7551,15 @@
         <v>25</v>
       </c>
       <c r="F34" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>10언</v>
       </c>
       <c r="G34" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999998E+100</v>
       </c>
       <c r="H34" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="I34" s="16" t="str" cm="1">
@@ -7150,7 +7567,7 @@
         <v>언</v>
       </c>
       <c r="J34" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I34,N:Q,4,FALSE)</f>
         <v>1E+100</v>
       </c>
       <c r="K34" s="22">
@@ -7167,11 +7584,11 @@
         <v>108</v>
       </c>
       <c r="P34" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1E+108</v>
       </c>
       <c r="Q34" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1E+108</v>
       </c>
       <c r="R34" s="11"/>
@@ -7189,15 +7606,15 @@
         <v>26</v>
       </c>
       <c r="F35" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>100언</v>
       </c>
       <c r="G35" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999998E+101</v>
       </c>
       <c r="H35" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="I35" s="16" t="str" cm="1">
@@ -7205,7 +7622,7 @@
         <v>언</v>
       </c>
       <c r="J35" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I35,N:Q,4,FALSE)</f>
         <v>1E+100</v>
       </c>
       <c r="K35" s="22">
@@ -7222,11 +7639,11 @@
         <v>112</v>
       </c>
       <c r="P35" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9.9999999999999993E+111</v>
       </c>
       <c r="Q35" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1E+112</v>
       </c>
       <c r="R35" s="11"/>
@@ -7244,15 +7661,15 @@
         <v>27</v>
       </c>
       <c r="F36" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1000언</v>
       </c>
       <c r="G36" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1E+103</v>
       </c>
       <c r="H36" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="I36" s="16" t="str" cm="1">
@@ -7260,7 +7677,7 @@
         <v>언</v>
       </c>
       <c r="J36" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I36,N:Q,4,FALSE)</f>
         <v>1E+100</v>
       </c>
       <c r="K36" s="22">
@@ -7277,11 +7694,11 @@
         <v>116</v>
       </c>
       <c r="P36" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1E+116</v>
       </c>
       <c r="Q36" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1E+116</v>
       </c>
       <c r="R36" s="11"/>
@@ -7299,15 +7716,15 @@
         <v>28</v>
       </c>
       <c r="F37" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1승</v>
       </c>
       <c r="G37" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1E+104</v>
       </c>
       <c r="H37" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I37" s="16" t="str" cm="1">
@@ -7315,7 +7732,7 @@
         <v>승</v>
       </c>
       <c r="J37" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I37,N:Q,4,FALSE)</f>
         <v>1E+104</v>
       </c>
       <c r="K37" s="22">
@@ -7332,11 +7749,11 @@
         <v>120</v>
       </c>
       <c r="P37" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9.9999999999999998E+119</v>
       </c>
       <c r="Q37" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1E+120</v>
       </c>
       <c r="R37" s="11"/>
@@ -7354,15 +7771,15 @@
         <v>29</v>
       </c>
       <c r="F38" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>10승</v>
       </c>
       <c r="G38" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999994E+104</v>
       </c>
       <c r="H38" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="I38" s="16" t="str" cm="1">
@@ -7370,7 +7787,7 @@
         <v>승</v>
       </c>
       <c r="J38" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I38,N:Q,4,FALSE)</f>
         <v>1E+104</v>
       </c>
       <c r="K38" s="22">
@@ -7387,11 +7804,11 @@
         <v>124</v>
       </c>
       <c r="P38" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9.9999999999999995E+123</v>
       </c>
       <c r="Q38" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1E+124</v>
       </c>
       <c r="R38" s="11"/>
@@ -7409,15 +7826,15 @@
         <v>30</v>
       </c>
       <c r="F39" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>100승</v>
       </c>
       <c r="G39" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.0000000000000001E+106</v>
       </c>
       <c r="H39" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="I39" s="16" t="str" cm="1">
@@ -7425,7 +7842,7 @@
         <v>승</v>
       </c>
       <c r="J39" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I39,N:Q,4,FALSE)</f>
         <v>1E+104</v>
       </c>
       <c r="K39" s="22">
@@ -7442,11 +7859,11 @@
         <v>128</v>
       </c>
       <c r="P39" s="17">
-        <f t="shared" ref="P39" si="7">POWER(10,O39)</f>
+        <f t="shared" ref="P39" si="6">POWER(10,O39)</f>
         <v>1.0000000000000001E+128</v>
       </c>
       <c r="Q39" s="17" t="str">
-        <f t="shared" ref="Q39" si="8">RIGHT(P39,O39)</f>
+        <f t="shared" ref="Q39" si="7">RIGHT(P39,O39)</f>
         <v>1E+128</v>
       </c>
       <c r="R39" s="11"/>
@@ -7464,15 +7881,15 @@
         <v>31</v>
       </c>
       <c r="F40" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1000승</v>
       </c>
       <c r="G40" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999997E+106</v>
       </c>
       <c r="H40" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="I40" s="16" t="str" cm="1">
@@ -7480,7 +7897,7 @@
         <v>승</v>
       </c>
       <c r="J40" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I40,N:Q,4,FALSE)</f>
         <v>1E+104</v>
       </c>
       <c r="K40" s="22">
@@ -7497,11 +7914,11 @@
         <v>132</v>
       </c>
       <c r="P40" s="17">
-        <f t="shared" ref="P40:P41" si="9">POWER(10,O40)</f>
+        <f t="shared" ref="P40:P41" si="8">POWER(10,O40)</f>
         <v>9.9999999999999999E+131</v>
       </c>
       <c r="Q40" s="17" t="str">
-        <f t="shared" ref="Q40:Q41" si="10">RIGHT(P40,O40)</f>
+        <f t="shared" ref="Q40:Q41" si="9">RIGHT(P40,O40)</f>
         <v>1E+132</v>
       </c>
       <c r="R40" s="11"/>
@@ -7519,15 +7936,15 @@
         <v>32</v>
       </c>
       <c r="F41" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1마</v>
       </c>
       <c r="G41" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1E+108</v>
       </c>
       <c r="H41" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I41" s="16" t="str" cm="1">
@@ -7535,7 +7952,7 @@
         <v>마</v>
       </c>
       <c r="J41" s="16" t="str">
-        <f t="shared" ref="J41:J72" si="11">VLOOKUP(I41,N:Q,4,FALSE)</f>
+        <f>VLOOKUP(I41,N:Q,4,FALSE)</f>
         <v>1E+108</v>
       </c>
       <c r="K41" s="22">
@@ -7552,11 +7969,11 @@
         <v>136</v>
       </c>
       <c r="P41" s="17">
+        <f t="shared" si="8"/>
+        <v>1.0000000000000001E+136</v>
+      </c>
+      <c r="Q41" s="17" t="str">
         <f t="shared" si="9"/>
-        <v>1.0000000000000001E+136</v>
-      </c>
-      <c r="Q41" s="17" t="str">
-        <f t="shared" si="10"/>
         <v>1E+136</v>
       </c>
       <c r="R41" s="11"/>
@@ -7574,15 +7991,15 @@
         <v>33</v>
       </c>
       <c r="F42" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>10마</v>
       </c>
       <c r="G42" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999998E+108</v>
       </c>
       <c r="H42" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="I42" s="16" t="str" cm="1">
@@ -7590,7 +8007,7 @@
         <v>마</v>
       </c>
       <c r="J42" s="16" t="str">
-        <f t="shared" si="11"/>
+        <f>VLOOKUP(I42,N:Q,4,FALSE)</f>
         <v>1E+108</v>
       </c>
       <c r="K42" s="22">
@@ -7607,11 +8024,11 @@
         <v>140</v>
       </c>
       <c r="P42" s="17">
-        <f t="shared" ref="P42" si="12">POWER(10,O42)</f>
+        <f t="shared" ref="P42" si="10">POWER(10,O42)</f>
         <v>1.0000000000000001E+140</v>
       </c>
       <c r="Q42" s="17" t="str">
-        <f t="shared" ref="Q42" si="13">RIGHT(P42,O42)</f>
+        <f t="shared" ref="Q42" si="11">RIGHT(P42,O42)</f>
         <v>1E+140</v>
       </c>
       <c r="R42" s="11"/>
@@ -7629,15 +8046,15 @@
         <v>34</v>
       </c>
       <c r="F43" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>100마</v>
       </c>
       <c r="G43" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1E+110</v>
       </c>
       <c r="H43" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="I43" s="16" t="str" cm="1">
@@ -7645,7 +8062,7 @@
         <v>마</v>
       </c>
       <c r="J43" s="16" t="str">
-        <f t="shared" si="11"/>
+        <f>VLOOKUP(I43,N:Q,4,FALSE)</f>
         <v>1E+108</v>
       </c>
       <c r="K43" s="22">
@@ -7662,11 +8079,11 @@
         <v>144</v>
       </c>
       <c r="P43" s="17">
-        <f t="shared" ref="P43" si="14">POWER(10,O43)</f>
+        <f t="shared" ref="P43" si="12">POWER(10,O43)</f>
         <v>1E+144</v>
       </c>
       <c r="Q43" s="17" t="str">
-        <f t="shared" ref="Q43" si="15">RIGHT(P43,O43)</f>
+        <f t="shared" ref="Q43" si="13">RIGHT(P43,O43)</f>
         <v>1E+144</v>
       </c>
       <c r="R43" s="11"/>
@@ -7684,15 +8101,15 @@
         <v>35</v>
       </c>
       <c r="F44" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1000마</v>
       </c>
       <c r="G44" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.0000000000000001E+111</v>
       </c>
       <c r="H44" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="I44" s="16" t="str" cm="1">
@@ -7700,7 +8117,7 @@
         <v>마</v>
       </c>
       <c r="J44" s="16" t="str">
-        <f t="shared" si="11"/>
+        <f>VLOOKUP(I44,N:Q,4,FALSE)</f>
         <v>1E+108</v>
       </c>
       <c r="K44" s="22">
@@ -7717,11 +8134,11 @@
         <v>148</v>
       </c>
       <c r="P44" s="17">
-        <f t="shared" ref="P44" si="16">POWER(10,O44)</f>
+        <f t="shared" ref="P44" si="14">POWER(10,O44)</f>
         <v>1E+148</v>
       </c>
       <c r="Q44" s="17" t="str">
-        <f t="shared" ref="Q44" si="17">RIGHT(P44,O44)</f>
+        <f t="shared" ref="Q44" si="15">RIGHT(P44,O44)</f>
         <v>1E+148</v>
       </c>
       <c r="R44" s="11"/>
@@ -7739,15 +8156,15 @@
         <v>36</v>
       </c>
       <c r="F45" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1살</v>
       </c>
       <c r="G45" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999993E+111</v>
       </c>
       <c r="H45" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I45" s="16" t="str" cm="1">
@@ -7755,7 +8172,7 @@
         <v>살</v>
       </c>
       <c r="J45" s="16" t="str">
-        <f t="shared" si="11"/>
+        <f>VLOOKUP(I45,N:Q,4,FALSE)</f>
         <v>1E+112</v>
       </c>
       <c r="K45" s="22">
@@ -7772,11 +8189,11 @@
         <v>152</v>
       </c>
       <c r="P45" s="17">
-        <f t="shared" ref="P45" si="18">POWER(10,O45)</f>
+        <f t="shared" ref="P45" si="16">POWER(10,O45)</f>
         <v>1E+152</v>
       </c>
       <c r="Q45" s="17" t="str">
-        <f t="shared" ref="Q45" si="19">RIGHT(P45,O45)</f>
+        <f t="shared" ref="Q45" si="17">RIGHT(P45,O45)</f>
         <v>1E+152</v>
       </c>
       <c r="R45" s="11"/>
@@ -7794,15 +8211,15 @@
         <v>37</v>
       </c>
       <c r="F46" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>10살</v>
       </c>
       <c r="G46" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1E+113</v>
       </c>
       <c r="H46" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="I46" s="16" t="str" cm="1">
@@ -7810,7 +8227,7 @@
         <v>살</v>
       </c>
       <c r="J46" s="16" t="str">
-        <f t="shared" si="11"/>
+        <f>VLOOKUP(I46,N:Q,4,FALSE)</f>
         <v>1E+112</v>
       </c>
       <c r="K46" s="22">
@@ -7827,11 +8244,11 @@
         <v>156</v>
       </c>
       <c r="P46" s="17">
-        <f t="shared" ref="P46" si="20">POWER(10,O46)</f>
+        <f t="shared" ref="P46" si="18">POWER(10,O46)</f>
         <v>9.9999999999999998E+155</v>
       </c>
       <c r="Q46" s="17" t="str">
-        <f t="shared" ref="Q46" si="21">RIGHT(P46,O46)</f>
+        <f t="shared" ref="Q46" si="19">RIGHT(P46,O46)</f>
         <v>1E+156</v>
       </c>
       <c r="R46" s="11"/>
@@ -7849,15 +8266,15 @@
         <v>38</v>
       </c>
       <c r="F47" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>100살</v>
       </c>
       <c r="G47" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999988E+113</v>
       </c>
       <c r="H47" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="I47" s="16" t="str" cm="1">
@@ -7865,7 +8282,7 @@
         <v>살</v>
       </c>
       <c r="J47" s="16" t="str">
-        <f t="shared" si="11"/>
+        <f>VLOOKUP(I47,N:Q,4,FALSE)</f>
         <v>1E+112</v>
       </c>
       <c r="K47" s="22">
@@ -7882,11 +8299,11 @@
         <v>160</v>
       </c>
       <c r="P47" s="17">
-        <f t="shared" ref="P47:P48" si="22">POWER(10,O47)</f>
+        <f t="shared" ref="P47:P48" si="20">POWER(10,O47)</f>
         <v>1E+160</v>
       </c>
       <c r="Q47" s="17" t="str">
-        <f t="shared" ref="Q47:Q48" si="23">RIGHT(P47,O47)</f>
+        <f t="shared" ref="Q47:Q48" si="21">RIGHT(P47,O47)</f>
         <v>1E+160</v>
       </c>
       <c r="R47" s="11"/>
@@ -7904,15 +8321,15 @@
         <v>39</v>
       </c>
       <c r="F48" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1000살</v>
       </c>
       <c r="G48" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1E+115</v>
       </c>
       <c r="H48" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="I48" s="16" t="str" cm="1">
@@ -7920,7 +8337,7 @@
         <v>살</v>
       </c>
       <c r="J48" s="16" t="str">
-        <f t="shared" si="11"/>
+        <f>VLOOKUP(I48,N:Q,4,FALSE)</f>
         <v>1E+112</v>
       </c>
       <c r="K48" s="22">
@@ -7931,17 +8348,17 @@
       </c>
       <c r="M48" s="22"/>
       <c r="N48" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O48" s="16">
         <v>164</v>
       </c>
       <c r="P48" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>1E+164</v>
       </c>
       <c r="Q48" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>1E+164</v>
       </c>
       <c r="R48" s="11"/>
@@ -7959,15 +8376,15 @@
         <v>40</v>
       </c>
       <c r="F49" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1섬</v>
       </c>
       <c r="G49" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1E+116</v>
       </c>
       <c r="H49" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I49" s="16" t="str" cm="1">
@@ -7975,7 +8392,7 @@
         <v>섬</v>
       </c>
       <c r="J49" s="16" t="str">
-        <f t="shared" si="11"/>
+        <f>VLOOKUP(I49,N:Q,4,FALSE)</f>
         <v>1E+116</v>
       </c>
       <c r="K49" s="22">
@@ -7986,17 +8403,17 @@
       </c>
       <c r="M49" s="22"/>
       <c r="N49" s="16" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="O49" s="16">
         <v>168</v>
       </c>
       <c r="P49" s="17">
-        <f t="shared" ref="P49" si="24">POWER(10,O49)</f>
+        <f t="shared" ref="P49:P50" si="22">POWER(10,O49)</f>
         <v>9.9999999999999993E+167</v>
       </c>
       <c r="Q49" s="17" t="str">
-        <f t="shared" ref="Q49" si="25">RIGHT(P49,O49)</f>
+        <f t="shared" ref="Q49:Q50" si="23">RIGHT(P49,O49)</f>
         <v>1E+168</v>
       </c>
       <c r="R49" s="11"/>
@@ -8014,15 +8431,15 @@
         <v>41</v>
       </c>
       <c r="F50" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>10섬</v>
       </c>
       <c r="G50" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.0000000000000001E+117</v>
       </c>
       <c r="H50" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="I50" s="16" t="str" cm="1">
@@ -8030,7 +8447,7 @@
         <v>섬</v>
       </c>
       <c r="J50" s="16" t="str">
-        <f t="shared" si="11"/>
+        <f>VLOOKUP(I50,N:Q,4,FALSE)</f>
         <v>1E+116</v>
       </c>
       <c r="K50" s="22">
@@ -8040,8 +8457,20 @@
         <v>14100</v>
       </c>
       <c r="M50" s="22"/>
-      <c r="P50" s="11"/>
-      <c r="Q50" s="11"/>
+      <c r="N50" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="O50" s="16">
+        <v>172</v>
+      </c>
+      <c r="P50" s="17">
+        <f t="shared" si="22"/>
+        <v>1.0000000000000001E+172</v>
+      </c>
+      <c r="Q50" s="17" t="str">
+        <f t="shared" si="23"/>
+        <v>1E+172</v>
+      </c>
       <c r="R50" s="11"/>
       <c r="S50" s="11"/>
       <c r="T50" s="11"/>
@@ -8057,15 +8486,15 @@
         <v>42</v>
       </c>
       <c r="F51" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>100섬</v>
       </c>
       <c r="G51" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999997E+117</v>
       </c>
       <c r="H51" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="I51" s="16" t="str" cm="1">
@@ -8073,7 +8502,7 @@
         <v>섬</v>
       </c>
       <c r="J51" s="16" t="str">
-        <f t="shared" si="11"/>
+        <f>VLOOKUP(I51,N:Q,4,FALSE)</f>
         <v>1E+116</v>
       </c>
       <c r="K51" s="22">
@@ -8083,8 +8512,20 @@
         <v>14200</v>
       </c>
       <c r="M51" s="22"/>
-      <c r="P51" s="11"/>
-      <c r="Q51" s="11"/>
+      <c r="N51" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="O51" s="16">
+        <v>176</v>
+      </c>
+      <c r="P51" s="17">
+        <f t="shared" ref="P51" si="24">POWER(10,O51)</f>
+        <v>1E+176</v>
+      </c>
+      <c r="Q51" s="17" t="str">
+        <f t="shared" ref="Q51" si="25">RIGHT(P51,O51)</f>
+        <v>1E+176</v>
+      </c>
       <c r="R51" s="11"/>
       <c r="S51" s="11"/>
       <c r="T51" s="11"/>
@@ -8100,15 +8541,15 @@
         <v>43</v>
       </c>
       <c r="F52" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1000섬</v>
       </c>
       <c r="G52" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999994E+118</v>
       </c>
       <c r="H52" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="I52" s="16" t="str" cm="1">
@@ -8116,7 +8557,7 @@
         <v>섬</v>
       </c>
       <c r="J52" s="16" t="str">
-        <f t="shared" si="11"/>
+        <f>VLOOKUP(I52,N:Q,4,FALSE)</f>
         <v>1E+116</v>
       </c>
       <c r="K52" s="22">
@@ -8126,8 +8567,10 @@
         <v>14300</v>
       </c>
       <c r="M52" s="22"/>
-      <c r="P52" s="11"/>
-      <c r="Q52" s="11"/>
+      <c r="N52" s="16"/>
+      <c r="O52" s="16"/>
+      <c r="P52" s="17"/>
+      <c r="Q52" s="17"/>
       <c r="R52" s="11"/>
       <c r="S52" s="11"/>
       <c r="T52" s="11"/>
@@ -8143,15 +8586,15 @@
         <v>44</v>
       </c>
       <c r="F53" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1찰</v>
       </c>
       <c r="G53" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999998E+119</v>
       </c>
       <c r="H53" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I53" s="16" t="str" cm="1">
@@ -8159,7 +8602,7 @@
         <v>찰</v>
       </c>
       <c r="J53" s="16" t="str">
-        <f t="shared" si="11"/>
+        <f>VLOOKUP(I53,N:Q,4,FALSE)</f>
         <v>1E+120</v>
       </c>
       <c r="K53" s="22">
@@ -8169,8 +8612,10 @@
         <v>14400</v>
       </c>
       <c r="M53" s="22"/>
-      <c r="P53" s="11"/>
-      <c r="Q53" s="11"/>
+      <c r="N53" s="16"/>
+      <c r="O53" s="16"/>
+      <c r="P53" s="17"/>
+      <c r="Q53" s="17"/>
       <c r="R53" s="11"/>
       <c r="S53" s="11"/>
       <c r="T53" s="11"/>
@@ -8186,15 +8631,15 @@
         <v>45</v>
       </c>
       <c r="F54" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>10찰</v>
       </c>
       <c r="G54" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999992E+120</v>
       </c>
       <c r="H54" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="I54" s="16" t="str" cm="1">
@@ -8202,7 +8647,7 @@
         <v>찰</v>
       </c>
       <c r="J54" s="16" t="str">
-        <f t="shared" si="11"/>
+        <f>VLOOKUP(I54,N:Q,4,FALSE)</f>
         <v>1E+120</v>
       </c>
       <c r="K54" s="22">
@@ -8229,15 +8674,15 @@
         <v>46</v>
       </c>
       <c r="F55" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>100찰</v>
       </c>
       <c r="G55" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1E+122</v>
       </c>
       <c r="H55" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="I55" s="16" t="str" cm="1">
@@ -8245,7 +8690,7 @@
         <v>찰</v>
       </c>
       <c r="J55" s="16" t="str">
-        <f t="shared" si="11"/>
+        <f>VLOOKUP(I55,N:Q,4,FALSE)</f>
         <v>1E+120</v>
       </c>
       <c r="K55" s="22">
@@ -8272,15 +8717,15 @@
         <v>47</v>
       </c>
       <c r="F56" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1000찰</v>
       </c>
       <c r="G56" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999998E+122</v>
       </c>
       <c r="H56" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="I56" s="16" t="str" cm="1">
@@ -8288,7 +8733,7 @@
         <v>찰</v>
       </c>
       <c r="J56" s="16" t="str">
-        <f t="shared" si="11"/>
+        <f>VLOOKUP(I56,N:Q,4,FALSE)</f>
         <v>1E+120</v>
       </c>
       <c r="K56" s="22">
@@ -8315,15 +8760,15 @@
         <v>48</v>
       </c>
       <c r="F57" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1교</v>
       </c>
       <c r="G57" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999995E+123</v>
       </c>
       <c r="H57" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I57" s="16" t="str" cm="1">
@@ -8331,7 +8776,7 @@
         <v>교</v>
       </c>
       <c r="J57" s="16" t="str">
-        <f t="shared" si="11"/>
+        <f>VLOOKUP(I57,N:Q,4,FALSE)</f>
         <v>1E+124</v>
       </c>
       <c r="K57" s="22">
@@ -8358,15 +8803,15 @@
         <v>49</v>
       </c>
       <c r="F58" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>10교</v>
       </c>
       <c r="G58" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999992E+124</v>
       </c>
       <c r="H58" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="I58" s="16" t="str" cm="1">
@@ -8374,7 +8819,7 @@
         <v>교</v>
       </c>
       <c r="J58" s="16" t="str">
-        <f t="shared" si="11"/>
+        <f>VLOOKUP(I58,N:Q,4,FALSE)</f>
         <v>1E+124</v>
       </c>
       <c r="K58" s="22">
@@ -8401,15 +8846,15 @@
         <v>50</v>
       </c>
       <c r="F59" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>100교</v>
       </c>
       <c r="G59" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999992E+125</v>
       </c>
       <c r="H59" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="I59" s="16" t="str" cm="1">
@@ -8417,7 +8862,7 @@
         <v>교</v>
       </c>
       <c r="J59" s="16" t="str">
-        <f t="shared" si="11"/>
+        <f>VLOOKUP(I59,N:Q,4,FALSE)</f>
         <v>1E+124</v>
       </c>
       <c r="K59" s="22">
@@ -8444,15 +8889,15 @@
         <v>51</v>
       </c>
       <c r="F60" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1000교</v>
       </c>
       <c r="G60" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999995E+126</v>
       </c>
       <c r="H60" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="I60" s="16" t="str" cm="1">
@@ -8460,7 +8905,7 @@
         <v>교</v>
       </c>
       <c r="J60" s="16" t="str">
-        <f t="shared" si="11"/>
+        <f>VLOOKUP(I60,N:Q,4,FALSE)</f>
         <v>1E+124</v>
       </c>
       <c r="K60" s="22">
@@ -8487,15 +8932,15 @@
         <v>52</v>
       </c>
       <c r="F61" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1위</v>
       </c>
       <c r="G61" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.0000000000000001E+128</v>
       </c>
       <c r="H61" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I61" s="16" t="str" cm="1">
@@ -8503,7 +8948,7 @@
         <v>위</v>
       </c>
       <c r="J61" s="16" t="str">
-        <f t="shared" si="11"/>
+        <f>VLOOKUP(I61,N:Q,4,FALSE)</f>
         <v>1E+128</v>
       </c>
       <c r="K61" s="22">
@@ -8530,15 +8975,15 @@
         <v>53</v>
       </c>
       <c r="F62" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>10위</v>
       </c>
       <c r="G62" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1E+129</v>
       </c>
       <c r="H62" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="I62" s="16" t="str" cm="1">
@@ -8546,7 +8991,7 @@
         <v>위</v>
       </c>
       <c r="J62" s="16" t="str">
-        <f t="shared" si="11"/>
+        <f>VLOOKUP(I62,N:Q,4,FALSE)</f>
         <v>1E+128</v>
       </c>
       <c r="K62" s="22">
@@ -8573,15 +9018,15 @@
         <v>54</v>
       </c>
       <c r="F63" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>100위</v>
       </c>
       <c r="G63" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.0000000000000001E+130</v>
       </c>
       <c r="H63" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="I63" s="16" t="str" cm="1">
@@ -8589,7 +9034,7 @@
         <v>위</v>
       </c>
       <c r="J63" s="16" t="str">
-        <f t="shared" si="11"/>
+        <f>VLOOKUP(I63,N:Q,4,FALSE)</f>
         <v>1E+128</v>
       </c>
       <c r="K63" s="22">
@@ -8616,15 +9061,15 @@
         <v>55</v>
       </c>
       <c r="F64" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1000위</v>
       </c>
       <c r="G64" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.0000000000000001E+131</v>
       </c>
       <c r="H64" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="I64" s="16" t="str" cm="1">
@@ -8632,7 +9077,7 @@
         <v>위</v>
       </c>
       <c r="J64" s="16" t="str">
-        <f t="shared" si="11"/>
+        <f>VLOOKUP(I64,N:Q,4,FALSE)</f>
         <v>1E+128</v>
       </c>
       <c r="K64" s="22">
@@ -8659,15 +9104,15 @@
         <v>56</v>
       </c>
       <c r="F65" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1설</v>
       </c>
       <c r="G65" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999999E+131</v>
       </c>
       <c r="H65" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I65" s="16" t="str" cm="1">
@@ -8675,7 +9120,7 @@
         <v>설</v>
       </c>
       <c r="J65" s="16" t="str">
-        <f t="shared" si="11"/>
+        <f>VLOOKUP(I65,N:Q,4,FALSE)</f>
         <v>1E+132</v>
       </c>
       <c r="K65" s="22">
@@ -8702,15 +9147,15 @@
         <v>57</v>
       </c>
       <c r="F66" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>10설</v>
       </c>
       <c r="G66" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1E+133</v>
       </c>
       <c r="H66" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="I66" s="16" t="str" cm="1">
@@ -8718,7 +9163,7 @@
         <v>설</v>
       </c>
       <c r="J66" s="16" t="str">
-        <f t="shared" si="11"/>
+        <f>VLOOKUP(I66,N:Q,4,FALSE)</f>
         <v>1E+132</v>
       </c>
       <c r="K66" s="22">
@@ -8745,15 +9190,15 @@
         <v>58</v>
       </c>
       <c r="F67" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>100설</v>
       </c>
       <c r="G67" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999992E+133</v>
       </c>
       <c r="H67" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="I67" s="16" t="str" cm="1">
@@ -8761,7 +9206,7 @@
         <v>설</v>
       </c>
       <c r="J67" s="16" t="str">
-        <f t="shared" si="11"/>
+        <f>VLOOKUP(I67,N:Q,4,FALSE)</f>
         <v>1E+132</v>
       </c>
       <c r="K67" s="22">
@@ -8781,11 +9226,11 @@
         <v>1000설</v>
       </c>
       <c r="G68" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999996E+134</v>
       </c>
       <c r="H68" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="I68" s="16" t="str" cm="1">
@@ -8793,7 +9238,7 @@
         <v>설</v>
       </c>
       <c r="J68" s="16" t="str">
-        <f t="shared" si="11"/>
+        <f>VLOOKUP(I68,N:Q,4,FALSE)</f>
         <v>1E+132</v>
       </c>
       <c r="K68" s="22">
@@ -8813,11 +9258,11 @@
         <v>1적</v>
       </c>
       <c r="G69" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.0000000000000001E+136</v>
       </c>
       <c r="H69" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I69" s="16" t="str" cm="1">
@@ -8825,7 +9270,7 @@
         <v>적</v>
       </c>
       <c r="J69" s="16" t="str">
-        <f t="shared" si="11"/>
+        <f>VLOOKUP(I69,N:Q,4,FALSE)</f>
         <v>1E+136</v>
       </c>
       <c r="K69" s="22">
@@ -8845,11 +9290,11 @@
         <v>10적</v>
       </c>
       <c r="G70" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1E+137</v>
       </c>
       <c r="H70" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="I70" s="16" t="str" cm="1">
@@ -8857,7 +9302,7 @@
         <v>적</v>
       </c>
       <c r="J70" s="16" t="str">
-        <f t="shared" si="11"/>
+        <f>VLOOKUP(I70,N:Q,4,FALSE)</f>
         <v>1E+136</v>
       </c>
       <c r="K70" s="22">
@@ -8877,11 +9322,11 @@
         <v>100적</v>
       </c>
       <c r="G71" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1E+138</v>
       </c>
       <c r="H71" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="I71" s="16" t="str" cm="1">
@@ -8889,7 +9334,7 @@
         <v>적</v>
       </c>
       <c r="J71" s="16" t="str">
-        <f t="shared" si="11"/>
+        <f>VLOOKUP(I71,N:Q,4,FALSE)</f>
         <v>1E+136</v>
       </c>
       <c r="K71" s="22">
@@ -8909,11 +9354,11 @@
         <v>1000적</v>
       </c>
       <c r="G72" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1E+139</v>
       </c>
       <c r="H72" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="I72" s="16" t="str" cm="1">
@@ -8921,7 +9366,7 @@
         <v>적</v>
       </c>
       <c r="J72" s="16" t="str">
-        <f t="shared" si="11"/>
+        <f>VLOOKUP(I72,N:Q,4,FALSE)</f>
         <v>1E+136</v>
       </c>
       <c r="K72" s="22">
@@ -8941,11 +9386,11 @@
         <v>1고</v>
       </c>
       <c r="G73" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.0000000000000001E+140</v>
       </c>
       <c r="H73" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I73" s="16" t="str" cm="1">
@@ -8953,7 +9398,7 @@
         <v>고</v>
       </c>
       <c r="J73" s="16" t="str">
-        <f t="shared" ref="J73:J104" si="27">VLOOKUP(I73,N:Q,4,FALSE)</f>
+        <f>VLOOKUP(I73,N:Q,4,FALSE)</f>
         <v>1E+140</v>
       </c>
       <c r="K73" s="22">
@@ -8973,11 +9418,11 @@
         <v>10고</v>
       </c>
       <c r="G74" s="17">
-        <f t="shared" ref="G74:G104" si="28">H74*J74</f>
+        <f t="shared" ref="G74:G104" si="27">H74*J74</f>
         <v>1E+141</v>
       </c>
       <c r="H74" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="I74" s="16" t="str" cm="1">
@@ -8985,7 +9430,7 @@
         <v>고</v>
       </c>
       <c r="J74" s="16" t="str">
-        <f t="shared" si="27"/>
+        <f>VLOOKUP(I74,N:Q,4,FALSE)</f>
         <v>1E+140</v>
       </c>
       <c r="K74" s="22">
@@ -9005,11 +9450,11 @@
         <v>100고</v>
       </c>
       <c r="G75" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>1.0000000000000001E+142</v>
       </c>
       <c r="H75" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="I75" s="16" t="str" cm="1">
@@ -9017,7 +9462,7 @@
         <v>고</v>
       </c>
       <c r="J75" s="16" t="str">
-        <f t="shared" si="27"/>
+        <f>VLOOKUP(I75,N:Q,4,FALSE)</f>
         <v>1E+140</v>
       </c>
       <c r="K75" s="22">
@@ -9037,11 +9482,11 @@
         <v>1000고</v>
       </c>
       <c r="G76" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>1E+143</v>
       </c>
       <c r="H76" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="I76" s="16" t="str" cm="1">
@@ -9049,7 +9494,7 @@
         <v>고</v>
       </c>
       <c r="J76" s="16" t="str">
-        <f t="shared" si="27"/>
+        <f>VLOOKUP(I76,N:Q,4,FALSE)</f>
         <v>1E+140</v>
       </c>
       <c r="K76" s="22">
@@ -9069,11 +9514,11 @@
         <v>1화</v>
       </c>
       <c r="G77" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>1E+144</v>
       </c>
       <c r="H77" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I77" s="16" t="str" cm="1">
@@ -9081,7 +9526,7 @@
         <v>화</v>
       </c>
       <c r="J77" s="16" t="str">
-        <f t="shared" si="27"/>
+        <f>VLOOKUP(I77,N:Q,4,FALSE)</f>
         <v>1E+144</v>
       </c>
       <c r="K77" s="22">
@@ -9101,11 +9546,11 @@
         <v>10화</v>
       </c>
       <c r="G78" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>9.9999999999999999E+144</v>
       </c>
       <c r="H78" s="17">
-        <f t="shared" ref="H78:H104" si="29">H74</f>
+        <f t="shared" ref="H78:H112" si="28">H74</f>
         <v>10</v>
       </c>
       <c r="I78" s="16" t="str" cm="1">
@@ -9113,7 +9558,7 @@
         <v>화</v>
       </c>
       <c r="J78" s="16" t="str">
-        <f t="shared" si="27"/>
+        <f>VLOOKUP(I78,N:Q,4,FALSE)</f>
         <v>1E+144</v>
       </c>
       <c r="K78" s="22">
@@ -9133,11 +9578,11 @@
         <v>100화</v>
       </c>
       <c r="G79" s="17">
+        <f t="shared" si="27"/>
+        <v>9.9999999999999993E+145</v>
+      </c>
+      <c r="H79" s="17">
         <f t="shared" si="28"/>
-        <v>9.9999999999999993E+145</v>
-      </c>
-      <c r="H79" s="17">
-        <f t="shared" si="29"/>
         <v>100</v>
       </c>
       <c r="I79" s="16" t="str" cm="1">
@@ -9145,7 +9590,7 @@
         <v>화</v>
       </c>
       <c r="J79" s="16" t="str">
-        <f t="shared" si="27"/>
+        <f>VLOOKUP(I79,N:Q,4,FALSE)</f>
         <v>1E+144</v>
       </c>
       <c r="K79" s="22">
@@ -9165,11 +9610,11 @@
         <v>1000화</v>
       </c>
       <c r="G80" s="17">
+        <f t="shared" si="27"/>
+        <v>9.9999999999999998E+146</v>
+      </c>
+      <c r="H80" s="17">
         <f t="shared" si="28"/>
-        <v>9.9999999999999998E+146</v>
-      </c>
-      <c r="H80" s="17">
-        <f t="shared" si="29"/>
         <v>1000</v>
       </c>
       <c r="I80" s="16" t="str" cm="1">
@@ -9177,7 +9622,7 @@
         <v>화</v>
       </c>
       <c r="J80" s="16" t="str">
-        <f t="shared" si="27"/>
+        <f>VLOOKUP(I80,N:Q,4,FALSE)</f>
         <v>1E+144</v>
       </c>
       <c r="K80" s="22">
@@ -9197,11 +9642,11 @@
         <v>1명</v>
       </c>
       <c r="G81" s="17">
+        <f t="shared" si="27"/>
+        <v>1E+148</v>
+      </c>
+      <c r="H81" s="17">
         <f t="shared" si="28"/>
-        <v>1E+148</v>
-      </c>
-      <c r="H81" s="17">
-        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="I81" s="16" t="str" cm="1">
@@ -9209,7 +9654,7 @@
         <v>명</v>
       </c>
       <c r="J81" s="16" t="str">
-        <f t="shared" si="27"/>
+        <f>VLOOKUP(I81,N:Q,4,FALSE)</f>
         <v>1E+148</v>
       </c>
       <c r="K81" s="22">
@@ -9229,11 +9674,11 @@
         <v>10명</v>
       </c>
       <c r="G82" s="17">
+        <f t="shared" si="27"/>
+        <v>1E+149</v>
+      </c>
+      <c r="H82" s="17">
         <f t="shared" si="28"/>
-        <v>1E+149</v>
-      </c>
-      <c r="H82" s="17">
-        <f t="shared" si="29"/>
         <v>10</v>
       </c>
       <c r="I82" s="16" t="str" cm="1">
@@ -9241,7 +9686,7 @@
         <v>명</v>
       </c>
       <c r="J82" s="16" t="str">
-        <f t="shared" si="27"/>
+        <f>VLOOKUP(I82,N:Q,4,FALSE)</f>
         <v>1E+148</v>
       </c>
       <c r="K82" s="22">
@@ -9261,11 +9706,11 @@
         <v>100명</v>
       </c>
       <c r="G83" s="17">
+        <f t="shared" si="27"/>
+        <v>9.9999999999999998E+149</v>
+      </c>
+      <c r="H83" s="17">
         <f t="shared" si="28"/>
-        <v>9.9999999999999998E+149</v>
-      </c>
-      <c r="H83" s="17">
-        <f t="shared" si="29"/>
         <v>100</v>
       </c>
       <c r="I83" s="16" t="str" cm="1">
@@ -9273,7 +9718,7 @@
         <v>명</v>
       </c>
       <c r="J83" s="16" t="str">
-        <f t="shared" si="27"/>
+        <f>VLOOKUP(I83,N:Q,4,FALSE)</f>
         <v>1E+148</v>
       </c>
       <c r="K83" s="22">
@@ -9293,11 +9738,11 @@
         <v>1000명</v>
       </c>
       <c r="G84" s="17">
+        <f t="shared" si="27"/>
+        <v>1E+151</v>
+      </c>
+      <c r="H84" s="17">
         <f t="shared" si="28"/>
-        <v>1E+151</v>
-      </c>
-      <c r="H84" s="17">
-        <f t="shared" si="29"/>
         <v>1000</v>
       </c>
       <c r="I84" s="16" t="str" cm="1">
@@ -9305,7 +9750,7 @@
         <v>명</v>
       </c>
       <c r="J84" s="16" t="str">
-        <f t="shared" si="27"/>
+        <f>VLOOKUP(I84,N:Q,4,FALSE)</f>
         <v>1E+148</v>
       </c>
       <c r="K84" s="22">
@@ -9325,11 +9770,11 @@
         <v>1월</v>
       </c>
       <c r="G85" s="17">
+        <f t="shared" si="27"/>
+        <v>1E+152</v>
+      </c>
+      <c r="H85" s="17">
         <f t="shared" si="28"/>
-        <v>1E+152</v>
-      </c>
-      <c r="H85" s="17">
-        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="I85" s="16" t="str" cm="1">
@@ -9337,7 +9782,7 @@
         <v>월</v>
       </c>
       <c r="J85" s="16" t="str">
-        <f t="shared" si="27"/>
+        <f>VLOOKUP(I85,N:Q,4,FALSE)</f>
         <v>1E+152</v>
       </c>
       <c r="K85" s="22">
@@ -9357,11 +9802,11 @@
         <v>10월</v>
       </c>
       <c r="G86" s="17">
+        <f t="shared" si="27"/>
+        <v>1E+153</v>
+      </c>
+      <c r="H86" s="17">
         <f t="shared" si="28"/>
-        <v>1E+153</v>
-      </c>
-      <c r="H86" s="17">
-        <f t="shared" si="29"/>
         <v>10</v>
       </c>
       <c r="I86" s="16" t="str" cm="1">
@@ -9369,7 +9814,7 @@
         <v>월</v>
       </c>
       <c r="J86" s="16" t="str">
-        <f t="shared" si="27"/>
+        <f>VLOOKUP(I86,N:Q,4,FALSE)</f>
         <v>1E+152</v>
       </c>
       <c r="K86" s="22">
@@ -9389,11 +9834,11 @@
         <v>100월</v>
       </c>
       <c r="G87" s="17">
+        <f t="shared" si="27"/>
+        <v>1E+154</v>
+      </c>
+      <c r="H87" s="17">
         <f t="shared" si="28"/>
-        <v>1E+154</v>
-      </c>
-      <c r="H87" s="17">
-        <f t="shared" si="29"/>
         <v>100</v>
       </c>
       <c r="I87" s="16" t="str" cm="1">
@@ -9401,7 +9846,7 @@
         <v>월</v>
       </c>
       <c r="J87" s="16" t="str">
-        <f t="shared" si="27"/>
+        <f>VLOOKUP(I87,N:Q,4,FALSE)</f>
         <v>1E+152</v>
       </c>
       <c r="K87" s="22">
@@ -9421,11 +9866,11 @@
         <v>1000월</v>
       </c>
       <c r="G88" s="17">
+        <f t="shared" si="27"/>
+        <v>1E+155</v>
+      </c>
+      <c r="H88" s="17">
         <f t="shared" si="28"/>
-        <v>1E+155</v>
-      </c>
-      <c r="H88" s="17">
-        <f t="shared" si="29"/>
         <v>1000</v>
       </c>
       <c r="I88" s="16" t="str" cm="1">
@@ -9433,7 +9878,7 @@
         <v>월</v>
       </c>
       <c r="J88" s="16" t="str">
-        <f t="shared" si="27"/>
+        <f>VLOOKUP(I88,N:Q,4,FALSE)</f>
         <v>1E+152</v>
       </c>
       <c r="K88" s="22">
@@ -9453,11 +9898,11 @@
         <v>1후</v>
       </c>
       <c r="G89" s="17">
+        <f t="shared" si="27"/>
+        <v>9.9999999999999998E+155</v>
+      </c>
+      <c r="H89" s="17">
         <f t="shared" si="28"/>
-        <v>9.9999999999999998E+155</v>
-      </c>
-      <c r="H89" s="17">
-        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="I89" s="16" t="str" cm="1">
@@ -9465,7 +9910,7 @@
         <v>후</v>
       </c>
       <c r="J89" s="16" t="str">
-        <f t="shared" si="27"/>
+        <f>VLOOKUP(I89,N:Q,4,FALSE)</f>
         <v>1E+156</v>
       </c>
       <c r="K89" s="22">
@@ -9485,11 +9930,11 @@
         <v>10후</v>
       </c>
       <c r="G90" s="17">
+        <f t="shared" si="27"/>
+        <v>9.9999999999999998E+156</v>
+      </c>
+      <c r="H90" s="17">
         <f t="shared" si="28"/>
-        <v>9.9999999999999998E+156</v>
-      </c>
-      <c r="H90" s="17">
-        <f t="shared" si="29"/>
         <v>10</v>
       </c>
       <c r="I90" s="16" t="str" cm="1">
@@ -9497,7 +9942,7 @@
         <v>후</v>
       </c>
       <c r="J90" s="16" t="str">
-        <f t="shared" si="27"/>
+        <f>VLOOKUP(I90,N:Q,4,FALSE)</f>
         <v>1E+156</v>
       </c>
       <c r="K90" s="22">
@@ -9517,11 +9962,11 @@
         <v>100후</v>
       </c>
       <c r="G91" s="17">
+        <f t="shared" si="27"/>
+        <v>9.9999999999999995E+157</v>
+      </c>
+      <c r="H91" s="17">
         <f t="shared" si="28"/>
-        <v>9.9999999999999995E+157</v>
-      </c>
-      <c r="H91" s="17">
-        <f t="shared" si="29"/>
         <v>100</v>
       </c>
       <c r="I91" s="16" t="str" cm="1">
@@ -9529,7 +9974,7 @@
         <v>후</v>
       </c>
       <c r="J91" s="16" t="str">
-        <f t="shared" si="27"/>
+        <f>VLOOKUP(I91,N:Q,4,FALSE)</f>
         <v>1E+156</v>
       </c>
       <c r="K91" s="22">
@@ -9549,11 +9994,11 @@
         <v>1000후</v>
       </c>
       <c r="G92" s="17">
+        <f t="shared" si="27"/>
+        <v>9.9999999999999993E+158</v>
+      </c>
+      <c r="H92" s="17">
         <f t="shared" si="28"/>
-        <v>9.9999999999999993E+158</v>
-      </c>
-      <c r="H92" s="17">
-        <f t="shared" si="29"/>
         <v>1000</v>
       </c>
       <c r="I92" s="16" t="str" cm="1">
@@ -9561,7 +10006,7 @@
         <v>후</v>
       </c>
       <c r="J92" s="16" t="str">
-        <f t="shared" si="27"/>
+        <f>VLOOKUP(I92,N:Q,4,FALSE)</f>
         <v>1E+156</v>
       </c>
       <c r="K92" s="22">
@@ -9581,11 +10026,11 @@
         <v>1단</v>
       </c>
       <c r="G93" s="17">
+        <f t="shared" si="27"/>
+        <v>1E+160</v>
+      </c>
+      <c r="H93" s="17">
         <f t="shared" si="28"/>
-        <v>1E+160</v>
-      </c>
-      <c r="H93" s="17">
-        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="I93" s="16" t="str" cm="1">
@@ -9593,7 +10038,7 @@
         <v>단</v>
       </c>
       <c r="J93" s="16" t="str">
-        <f t="shared" si="27"/>
+        <f>VLOOKUP(I93,N:Q,4,FALSE)</f>
         <v>1E+160</v>
       </c>
       <c r="K93" s="22">
@@ -9613,11 +10058,11 @@
         <v>10단</v>
       </c>
       <c r="G94" s="17">
+        <f t="shared" si="27"/>
+        <v>1E+161</v>
+      </c>
+      <c r="H94" s="17">
         <f t="shared" si="28"/>
-        <v>1E+161</v>
-      </c>
-      <c r="H94" s="17">
-        <f t="shared" si="29"/>
         <v>10</v>
       </c>
       <c r="I94" s="16" t="str" cm="1">
@@ -9625,7 +10070,7 @@
         <v>단</v>
       </c>
       <c r="J94" s="16" t="str">
-        <f t="shared" si="27"/>
+        <f>VLOOKUP(I94,N:Q,4,FALSE)</f>
         <v>1E+160</v>
       </c>
       <c r="K94" s="22">
@@ -9645,11 +10090,11 @@
         <v>100단</v>
       </c>
       <c r="G95" s="17">
+        <f t="shared" si="27"/>
+        <v>9.9999999999999994E+161</v>
+      </c>
+      <c r="H95" s="17">
         <f t="shared" si="28"/>
-        <v>9.9999999999999994E+161</v>
-      </c>
-      <c r="H95" s="17">
-        <f t="shared" si="29"/>
         <v>100</v>
       </c>
       <c r="I95" s="16" t="str" cm="1">
@@ -9657,7 +10102,7 @@
         <v>단</v>
       </c>
       <c r="J95" s="16" t="str">
-        <f t="shared" si="27"/>
+        <f>VLOOKUP(I95,N:Q,4,FALSE)</f>
         <v>1E+160</v>
       </c>
       <c r="K95" s="22">
@@ -9677,11 +10122,11 @@
         <v>1000단</v>
       </c>
       <c r="G96" s="17">
+        <f t="shared" si="27"/>
+        <v>9.9999999999999994E+162</v>
+      </c>
+      <c r="H96" s="17">
         <f t="shared" si="28"/>
-        <v>9.9999999999999994E+162</v>
-      </c>
-      <c r="H96" s="17">
-        <f t="shared" si="29"/>
         <v>1000</v>
       </c>
       <c r="I96" s="16" t="str" cm="1">
@@ -9689,7 +10134,7 @@
         <v>단</v>
       </c>
       <c r="J96" s="16" t="str">
-        <f t="shared" si="27"/>
+        <f>VLOOKUP(I96,N:Q,4,FALSE)</f>
         <v>1E+160</v>
       </c>
       <c r="K96" s="22">
@@ -9709,11 +10154,11 @@
         <v>1절</v>
       </c>
       <c r="G97" s="17">
+        <f t="shared" si="27"/>
+        <v>1E+164</v>
+      </c>
+      <c r="H97" s="17">
         <f t="shared" si="28"/>
-        <v>1E+164</v>
-      </c>
-      <c r="H97" s="17">
-        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="I97" s="16" t="str" cm="1">
@@ -9721,7 +10166,7 @@
         <v>절</v>
       </c>
       <c r="J97" s="16" t="str">
-        <f t="shared" si="27"/>
+        <f>VLOOKUP(I97,N:Q,4,FALSE)</f>
         <v>1E+164</v>
       </c>
       <c r="K97" s="22">
@@ -9741,11 +10186,11 @@
         <v>10절</v>
       </c>
       <c r="G98" s="17">
+        <f t="shared" si="27"/>
+        <v>1.0000000000000001E+165</v>
+      </c>
+      <c r="H98" s="17">
         <f t="shared" si="28"/>
-        <v>1.0000000000000001E+165</v>
-      </c>
-      <c r="H98" s="17">
-        <f t="shared" si="29"/>
         <v>10</v>
       </c>
       <c r="I98" s="16" t="str" cm="1">
@@ -9753,7 +10198,7 @@
         <v>절</v>
       </c>
       <c r="J98" s="16" t="str">
-        <f t="shared" si="27"/>
+        <f>VLOOKUP(I98,N:Q,4,FALSE)</f>
         <v>1E+164</v>
       </c>
       <c r="K98" s="22">
@@ -9773,11 +10218,11 @@
         <v>100절</v>
       </c>
       <c r="G99" s="17">
+        <f t="shared" si="27"/>
+        <v>9.9999999999999994E+165</v>
+      </c>
+      <c r="H99" s="17">
         <f t="shared" si="28"/>
-        <v>9.9999999999999994E+165</v>
-      </c>
-      <c r="H99" s="17">
-        <f t="shared" si="29"/>
         <v>100</v>
       </c>
       <c r="I99" s="16" t="str" cm="1">
@@ -9785,7 +10230,7 @@
         <v>절</v>
       </c>
       <c r="J99" s="16" t="str">
-        <f t="shared" si="27"/>
+        <f>VLOOKUP(I99,N:Q,4,FALSE)</f>
         <v>1E+164</v>
       </c>
       <c r="K99" s="22">
@@ -9805,11 +10250,11 @@
         <v>1000절</v>
       </c>
       <c r="G100" s="17">
+        <f t="shared" si="27"/>
+        <v>1E+167</v>
+      </c>
+      <c r="H100" s="17">
         <f t="shared" si="28"/>
-        <v>1E+167</v>
-      </c>
-      <c r="H100" s="17">
-        <f t="shared" si="29"/>
         <v>1000</v>
       </c>
       <c r="I100" s="16" t="str" cm="1">
@@ -9817,7 +10262,7 @@
         <v>절</v>
       </c>
       <c r="J100" s="16" t="str">
-        <f t="shared" si="27"/>
+        <f>VLOOKUP(I100,N:Q,4,FALSE)</f>
         <v>1E+164</v>
       </c>
       <c r="K100" s="22">
@@ -9834,25 +10279,26 @@
       </c>
       <c r="F101" s="17" t="str">
         <f t="shared" si="26"/>
-        <v>1a</v>
+        <v>1격</v>
       </c>
       <c r="G101" s="17">
+        <f t="shared" si="27"/>
+        <v>9.9999999999999993E+167</v>
+      </c>
+      <c r="H101" s="17">
         <f t="shared" si="28"/>
-        <v>9.9999999999999993E+167</v>
-      </c>
-      <c r="H101" s="17">
-        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="I101" s="16" t="str" cm="1">
         <f t="array" ref="I101">IF(AND(H100&gt;=1000,H101&lt;2),INDEX(N:N,MATCH(I100,N:N,0)+1,0),I100)</f>
-        <v>a</v>
+        <v>격</v>
       </c>
       <c r="J101" s="16" t="str">
-        <f t="shared" si="27"/>
+        <f>VLOOKUP(I101,N:Q,4,FALSE)</f>
         <v>1E+168</v>
       </c>
       <c r="K101" s="22">
+        <f>K97+1000</f>
         <v>24000</v>
       </c>
       <c r="L101" s="22">
@@ -9866,25 +10312,26 @@
       </c>
       <c r="F102" s="17" t="str">
         <f t="shared" si="26"/>
-        <v>10a</v>
+        <v>10격</v>
       </c>
       <c r="G102" s="17">
+        <f t="shared" si="27"/>
+        <v>9.9999999999999993E+168</v>
+      </c>
+      <c r="H102" s="17">
         <f t="shared" si="28"/>
-        <v>9.9999999999999993E+168</v>
-      </c>
-      <c r="H102" s="17">
-        <f t="shared" si="29"/>
         <v>10</v>
       </c>
       <c r="I102" s="16" t="str" cm="1">
         <f t="array" ref="I102">IF(AND(H101&gt;=1000,H102&lt;2),INDEX(N:N,MATCH(I101,N:N,0)+1,0),I101)</f>
-        <v>a</v>
+        <v>격</v>
       </c>
       <c r="J102" s="16" t="str">
-        <f t="shared" si="27"/>
+        <f>VLOOKUP(I102,N:Q,4,FALSE)</f>
         <v>1E+168</v>
       </c>
       <c r="K102" s="22">
+        <f t="shared" ref="K102:K112" si="29">K98+1000</f>
         <v>24000</v>
       </c>
       <c r="L102" s="22">
@@ -9898,25 +10345,26 @@
       </c>
       <c r="F103" s="17" t="str">
         <f t="shared" si="26"/>
-        <v>100a</v>
+        <v>100격</v>
       </c>
       <c r="G103" s="17">
+        <f t="shared" si="27"/>
+        <v>9.999999999999999E+169</v>
+      </c>
+      <c r="H103" s="17">
         <f t="shared" si="28"/>
-        <v>9.999999999999999E+169</v>
-      </c>
-      <c r="H103" s="17">
-        <f t="shared" si="29"/>
         <v>100</v>
       </c>
       <c r="I103" s="16" t="str" cm="1">
         <f t="array" ref="I103">IF(AND(H102&gt;=1000,H103&lt;2),INDEX(N:N,MATCH(I102,N:N,0)+1,0),I102)</f>
-        <v>a</v>
+        <v>격</v>
       </c>
       <c r="J103" s="16" t="str">
-        <f t="shared" si="27"/>
+        <f>VLOOKUP(I103,N:Q,4,FALSE)</f>
         <v>1E+168</v>
       </c>
       <c r="K103" s="22">
+        <f t="shared" si="29"/>
         <v>24000</v>
       </c>
       <c r="L103" s="22">
@@ -9930,31 +10378,288 @@
       </c>
       <c r="F104" s="17" t="str">
         <f t="shared" si="26"/>
-        <v>1000a</v>
+        <v>1000격</v>
       </c>
       <c r="G104" s="17">
+        <f t="shared" si="27"/>
+        <v>9.9999999999999995E+170</v>
+      </c>
+      <c r="H104" s="17">
         <f t="shared" si="28"/>
-        <v>9.9999999999999995E+170</v>
-      </c>
-      <c r="H104" s="17">
-        <f t="shared" si="29"/>
         <v>1000</v>
       </c>
       <c r="I104" s="16" t="str" cm="1">
         <f t="array" ref="I104">IF(AND(H103&gt;=1000,H104&lt;2),INDEX(N:N,MATCH(I103,N:N,0)+1,0),I103)</f>
-        <v>a</v>
+        <v>격</v>
       </c>
       <c r="J104" s="16" t="str">
-        <f t="shared" si="27"/>
+        <f>VLOOKUP(I104,N:Q,4,FALSE)</f>
         <v>1E+168</v>
       </c>
       <c r="K104" s="22">
+        <f t="shared" si="29"/>
         <v>24000</v>
       </c>
       <c r="L104" s="22">
         <v>19500</v>
       </c>
       <c r="M104" s="22"/>
+    </row>
+    <row r="105" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E105" s="16">
+        <v>96</v>
+      </c>
+      <c r="F105" s="17" t="str">
+        <f t="shared" ref="F105:F112" si="30">H105&amp;I105</f>
+        <v>1창</v>
+      </c>
+      <c r="G105" s="17">
+        <f t="shared" ref="G105:G112" si="31">H105*J105</f>
+        <v>1.0000000000000001E+172</v>
+      </c>
+      <c r="H105" s="17">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="I105" s="16" t="str" cm="1">
+        <f t="array" ref="I105">IF(AND(H104&gt;=1000,H105&lt;2),INDEX(N:N,MATCH(I104,N:N,0)+1,0),I104)</f>
+        <v>창</v>
+      </c>
+      <c r="J105" s="16" t="str">
+        <f>VLOOKUP(I105,N:Q,4,FALSE)</f>
+        <v>1E+172</v>
+      </c>
+      <c r="K105" s="22">
+        <f t="shared" si="29"/>
+        <v>25000</v>
+      </c>
+      <c r="L105" s="22">
+        <v>19600</v>
+      </c>
+    </row>
+    <row r="106" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E106" s="16">
+        <v>97</v>
+      </c>
+      <c r="F106" s="17" t="str">
+        <f t="shared" si="30"/>
+        <v>10창</v>
+      </c>
+      <c r="G106" s="17">
+        <f t="shared" si="31"/>
+        <v>1E+173</v>
+      </c>
+      <c r="H106" s="17">
+        <f t="shared" si="28"/>
+        <v>10</v>
+      </c>
+      <c r="I106" s="16" t="str" cm="1">
+        <f t="array" ref="I106">IF(AND(H105&gt;=1000,H106&lt;2),INDEX(N:N,MATCH(I105,N:N,0)+1,0),I105)</f>
+        <v>창</v>
+      </c>
+      <c r="J106" s="16" t="str">
+        <f>VLOOKUP(I106,N:Q,4,FALSE)</f>
+        <v>1E+172</v>
+      </c>
+      <c r="K106" s="22">
+        <f t="shared" si="29"/>
+        <v>25000</v>
+      </c>
+      <c r="L106" s="22">
+        <v>19700</v>
+      </c>
+    </row>
+    <row r="107" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E107" s="16">
+        <v>98</v>
+      </c>
+      <c r="F107" s="17" t="str">
+        <f t="shared" si="30"/>
+        <v>100창</v>
+      </c>
+      <c r="G107" s="17">
+        <f t="shared" si="31"/>
+        <v>1.0000000000000001E+174</v>
+      </c>
+      <c r="H107" s="17">
+        <f t="shared" si="28"/>
+        <v>100</v>
+      </c>
+      <c r="I107" s="16" t="str" cm="1">
+        <f t="array" ref="I107">IF(AND(H106&gt;=1000,H107&lt;2),INDEX(N:N,MATCH(I106,N:N,0)+1,0),I106)</f>
+        <v>창</v>
+      </c>
+      <c r="J107" s="16" t="str">
+        <f>VLOOKUP(I107,N:Q,4,FALSE)</f>
+        <v>1E+172</v>
+      </c>
+      <c r="K107" s="22">
+        <f t="shared" si="29"/>
+        <v>25000</v>
+      </c>
+      <c r="L107" s="22">
+        <v>19800</v>
+      </c>
+    </row>
+    <row r="108" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E108" s="16">
+        <v>99</v>
+      </c>
+      <c r="F108" s="17" t="str">
+        <f t="shared" si="30"/>
+        <v>1000창</v>
+      </c>
+      <c r="G108" s="17">
+        <f t="shared" si="31"/>
+        <v>1.0000000000000001E+175</v>
+      </c>
+      <c r="H108" s="17">
+        <f t="shared" si="28"/>
+        <v>1000</v>
+      </c>
+      <c r="I108" s="16" t="str" cm="1">
+        <f t="array" ref="I108">IF(AND(H107&gt;=1000,H108&lt;2),INDEX(N:N,MATCH(I107,N:N,0)+1,0),I107)</f>
+        <v>창</v>
+      </c>
+      <c r="J108" s="16" t="str">
+        <f>VLOOKUP(I108,N:Q,4,FALSE)</f>
+        <v>1E+172</v>
+      </c>
+      <c r="K108" s="22">
+        <f t="shared" si="29"/>
+        <v>25000</v>
+      </c>
+      <c r="L108" s="22">
+        <v>19900</v>
+      </c>
+    </row>
+    <row r="109" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E109" s="16">
+        <v>100</v>
+      </c>
+      <c r="F109" s="17" t="str">
+        <f t="shared" si="30"/>
+        <v>1공</v>
+      </c>
+      <c r="G109" s="17">
+        <f t="shared" si="31"/>
+        <v>1E+176</v>
+      </c>
+      <c r="H109" s="17">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="I109" s="16" t="str" cm="1">
+        <f t="array" ref="I109">IF(AND(H108&gt;=1000,H109&lt;2),INDEX(N:N,MATCH(I108,N:N,0)+1,0),I108)</f>
+        <v>공</v>
+      </c>
+      <c r="J109" s="16" t="str">
+        <f>VLOOKUP(I109,N:Q,4,FALSE)</f>
+        <v>1E+176</v>
+      </c>
+      <c r="K109" s="22">
+        <f t="shared" si="29"/>
+        <v>26000</v>
+      </c>
+      <c r="L109" s="22">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="110" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E110" s="16">
+        <v>101</v>
+      </c>
+      <c r="F110" s="17" t="str">
+        <f t="shared" si="30"/>
+        <v>10공</v>
+      </c>
+      <c r="G110" s="17">
+        <f t="shared" si="31"/>
+        <v>1E+177</v>
+      </c>
+      <c r="H110" s="17">
+        <f t="shared" si="28"/>
+        <v>10</v>
+      </c>
+      <c r="I110" s="16" t="str" cm="1">
+        <f t="array" ref="I110">IF(AND(H109&gt;=1000,H110&lt;2),INDEX(N:N,MATCH(I109,N:N,0)+1,0),I109)</f>
+        <v>공</v>
+      </c>
+      <c r="J110" s="16" t="str">
+        <f>VLOOKUP(I110,N:Q,4,FALSE)</f>
+        <v>1E+176</v>
+      </c>
+      <c r="K110" s="22">
+        <f t="shared" si="29"/>
+        <v>26000</v>
+      </c>
+      <c r="L110" s="22">
+        <v>20200</v>
+      </c>
+    </row>
+    <row r="111" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E111" s="16">
+        <v>102</v>
+      </c>
+      <c r="F111" s="17" t="str">
+        <f t="shared" si="30"/>
+        <v>100공</v>
+      </c>
+      <c r="G111" s="17">
+        <f t="shared" si="31"/>
+        <v>1.0000000000000001E+178</v>
+      </c>
+      <c r="H111" s="17">
+        <f t="shared" si="28"/>
+        <v>100</v>
+      </c>
+      <c r="I111" s="16" t="str" cm="1">
+        <f t="array" ref="I111">IF(AND(H110&gt;=1000,H111&lt;2),INDEX(N:N,MATCH(I110,N:N,0)+1,0),I110)</f>
+        <v>공</v>
+      </c>
+      <c r="J111" s="16" t="str">
+        <f>VLOOKUP(I111,N:Q,4,FALSE)</f>
+        <v>1E+176</v>
+      </c>
+      <c r="K111" s="22">
+        <f t="shared" si="29"/>
+        <v>26000</v>
+      </c>
+      <c r="L111" s="22">
+        <v>20400</v>
+      </c>
+    </row>
+    <row r="112" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E112" s="16">
+        <v>103</v>
+      </c>
+      <c r="F112" s="17" t="str">
+        <f t="shared" si="30"/>
+        <v>1000공</v>
+      </c>
+      <c r="G112" s="17">
+        <f t="shared" si="31"/>
+        <v>9.9999999999999998E+178</v>
+      </c>
+      <c r="H112" s="17">
+        <f t="shared" si="28"/>
+        <v>1000</v>
+      </c>
+      <c r="I112" s="16" t="str" cm="1">
+        <f t="array" ref="I112">IF(AND(H111&gt;=1000,H112&lt;2),INDEX(N:N,MATCH(I111,N:N,0)+1,0),I111)</f>
+        <v>공</v>
+      </c>
+      <c r="J112" s="16" t="str">
+        <f>VLOOKUP(I112,N:Q,4,FALSE)</f>
+        <v>1E+176</v>
+      </c>
+      <c r="K112" s="22">
+        <f t="shared" si="29"/>
+        <v>26000</v>
+      </c>
+      <c r="L112" s="22">
+        <v>20600</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Assets/06.Table/ByeolhoTower.xlsx
+++ b/Assets/06.Table/ByeolhoTower.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE5C33C-7E2E-4EE8-8C56-AD7743A2CA92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{072871A3-3A06-41FE-8EEF-F051377F75EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="ByeolhoTower" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="78">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -358,6 +358,14 @@
   </si>
   <si>
     <t>공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -950,10 +958,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M105"/>
+  <dimension ref="A1:M113"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F109" sqref="F109"/>
     </sheetView>
   </sheetViews>
@@ -4320,7 +4328,7 @@
         <v>17000</v>
       </c>
       <c r="E68">
-        <f t="shared" ref="E68:E105" si="10">E67</f>
+        <f t="shared" ref="E68:E113" si="10">E67</f>
         <v>1</v>
       </c>
       <c r="F68" s="2">
@@ -4342,7 +4350,7 @@
         <v>57</v>
       </c>
       <c r="K68">
-        <f t="shared" ref="K68:K105" si="12">K67+200</f>
+        <f t="shared" ref="K68:K113" si="12">K67+200</f>
         <v>15200</v>
       </c>
       <c r="L68">
@@ -5825,7 +5833,7 @@
         <v>1</v>
       </c>
       <c r="F98" s="2">
-        <f t="shared" ref="F98:F105" si="44">F97*10</f>
+        <f t="shared" ref="F98:F113" si="44">F97*10</f>
         <v>9.9999999999999991E+171</v>
       </c>
       <c r="G98">
@@ -6212,9 +6220,417 @@
         <v>10300</v>
       </c>
     </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>104</v>
+      </c>
+      <c r="B106" s="1" t="str">
+        <f t="shared" ref="B106:C106" si="60">B105</f>
+        <v>1-1</v>
+      </c>
+      <c r="C106">
+        <f t="shared" si="60"/>
+        <v>9054</v>
+      </c>
+      <c r="D106">
+        <f>VLOOKUP(A106,Balance!E:K,7,FALSE)</f>
+        <v>27000</v>
+      </c>
+      <c r="E106">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="F106" s="2">
+        <f t="shared" si="44"/>
+        <v>1.0000000000000001E+180</v>
+      </c>
+      <c r="G106">
+        <f t="shared" ref="G106:I106" si="61">G105</f>
+        <v>1000</v>
+      </c>
+      <c r="H106">
+        <f t="shared" si="61"/>
+        <v>8</v>
+      </c>
+      <c r="I106">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="J106" t="s">
+        <v>57</v>
+      </c>
+      <c r="K106">
+        <f t="shared" si="12"/>
+        <v>22800</v>
+      </c>
+      <c r="L106">
+        <v>9054</v>
+      </c>
+      <c r="M106">
+        <f>VLOOKUP(A106,Balance!E:L,8,FALSE)/2</f>
+        <v>10400</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>105</v>
+      </c>
+      <c r="B107" s="1" t="str">
+        <f t="shared" ref="B107:C107" si="62">B106</f>
+        <v>1-1</v>
+      </c>
+      <c r="C107">
+        <f t="shared" si="62"/>
+        <v>9054</v>
+      </c>
+      <c r="D107">
+        <f>VLOOKUP(A107,Balance!E:K,7,FALSE)</f>
+        <v>27000</v>
+      </c>
+      <c r="E107">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="F107" s="2">
+        <f t="shared" si="44"/>
+        <v>1.0000000000000001E+181</v>
+      </c>
+      <c r="G107">
+        <f t="shared" ref="G107:I107" si="63">G106</f>
+        <v>1000</v>
+      </c>
+      <c r="H107">
+        <f t="shared" si="63"/>
+        <v>8</v>
+      </c>
+      <c r="I107">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="J107" t="s">
+        <v>57</v>
+      </c>
+      <c r="K107">
+        <f t="shared" si="12"/>
+        <v>23000</v>
+      </c>
+      <c r="L107">
+        <v>9054</v>
+      </c>
+      <c r="M107">
+        <f>VLOOKUP(A107,Balance!E:L,8,FALSE)/2</f>
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>106</v>
+      </c>
+      <c r="B108" s="1" t="str">
+        <f t="shared" ref="B108:C108" si="64">B107</f>
+        <v>1-1</v>
+      </c>
+      <c r="C108">
+        <f t="shared" si="64"/>
+        <v>9054</v>
+      </c>
+      <c r="D108">
+        <f>VLOOKUP(A108,Balance!E:K,7,FALSE)</f>
+        <v>27000</v>
+      </c>
+      <c r="E108">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="F108" s="2">
+        <f t="shared" si="44"/>
+        <v>1.0000000000000001E+182</v>
+      </c>
+      <c r="G108">
+        <f t="shared" ref="G108:I108" si="65">G107</f>
+        <v>1000</v>
+      </c>
+      <c r="H108">
+        <f t="shared" si="65"/>
+        <v>8</v>
+      </c>
+      <c r="I108">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="J108" t="s">
+        <v>57</v>
+      </c>
+      <c r="K108">
+        <f t="shared" si="12"/>
+        <v>23200</v>
+      </c>
+      <c r="L108">
+        <v>9054</v>
+      </c>
+      <c r="M108">
+        <f>VLOOKUP(A108,Balance!E:L,8,FALSE)/2</f>
+        <v>10600</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>107</v>
+      </c>
+      <c r="B109" s="1" t="str">
+        <f t="shared" ref="B109:C109" si="66">B108</f>
+        <v>1-1</v>
+      </c>
+      <c r="C109">
+        <f t="shared" si="66"/>
+        <v>9054</v>
+      </c>
+      <c r="D109">
+        <f>VLOOKUP(A109,Balance!E:K,7,FALSE)</f>
+        <v>27000</v>
+      </c>
+      <c r="E109">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="F109" s="2">
+        <f t="shared" si="44"/>
+        <v>1.0000000000000001E+183</v>
+      </c>
+      <c r="G109">
+        <f t="shared" ref="G109:I109" si="67">G108</f>
+        <v>1000</v>
+      </c>
+      <c r="H109">
+        <f t="shared" si="67"/>
+        <v>8</v>
+      </c>
+      <c r="I109">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="J109" t="s">
+        <v>57</v>
+      </c>
+      <c r="K109">
+        <f t="shared" si="12"/>
+        <v>23400</v>
+      </c>
+      <c r="L109">
+        <v>9054</v>
+      </c>
+      <c r="M109">
+        <f>VLOOKUP(A109,Balance!E:L,8,FALSE)/2</f>
+        <v>10700</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>108</v>
+      </c>
+      <c r="B110" s="1" t="str">
+        <f t="shared" ref="B110:C110" si="68">B109</f>
+        <v>1-1</v>
+      </c>
+      <c r="C110">
+        <f t="shared" si="68"/>
+        <v>9054</v>
+      </c>
+      <c r="D110">
+        <f>VLOOKUP(A110,Balance!E:K,7,FALSE)</f>
+        <v>28000</v>
+      </c>
+      <c r="E110">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="F110" s="2">
+        <f t="shared" si="44"/>
+        <v>1E+184</v>
+      </c>
+      <c r="G110">
+        <f t="shared" ref="G110:I110" si="69">G109</f>
+        <v>1000</v>
+      </c>
+      <c r="H110">
+        <f t="shared" si="69"/>
+        <v>8</v>
+      </c>
+      <c r="I110">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="J110" t="s">
+        <v>57</v>
+      </c>
+      <c r="K110">
+        <f t="shared" si="12"/>
+        <v>23600</v>
+      </c>
+      <c r="L110">
+        <v>9054</v>
+      </c>
+      <c r="M110">
+        <f>VLOOKUP(A110,Balance!E:L,8,FALSE)/2</f>
+        <v>10800</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>109</v>
+      </c>
+      <c r="B111" s="1" t="str">
+        <f t="shared" ref="B111:C111" si="70">B110</f>
+        <v>1-1</v>
+      </c>
+      <c r="C111">
+        <f t="shared" si="70"/>
+        <v>9054</v>
+      </c>
+      <c r="D111">
+        <f>VLOOKUP(A111,Balance!E:K,7,FALSE)</f>
+        <v>28000</v>
+      </c>
+      <c r="E111">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="F111" s="2">
+        <f t="shared" si="44"/>
+        <v>9.9999999999999998E+184</v>
+      </c>
+      <c r="G111">
+        <f t="shared" ref="G111:I111" si="71">G110</f>
+        <v>1000</v>
+      </c>
+      <c r="H111">
+        <f t="shared" si="71"/>
+        <v>8</v>
+      </c>
+      <c r="I111">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="J111" t="s">
+        <v>57</v>
+      </c>
+      <c r="K111">
+        <f t="shared" si="12"/>
+        <v>23800</v>
+      </c>
+      <c r="L111">
+        <v>9054</v>
+      </c>
+      <c r="M111">
+        <f>VLOOKUP(A111,Balance!E:L,8,FALSE)/2</f>
+        <v>10900</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>110</v>
+      </c>
+      <c r="B112" s="1" t="str">
+        <f t="shared" ref="B112:C112" si="72">B111</f>
+        <v>1-1</v>
+      </c>
+      <c r="C112">
+        <f t="shared" si="72"/>
+        <v>9054</v>
+      </c>
+      <c r="D112">
+        <f>VLOOKUP(A112,Balance!E:K,7,FALSE)</f>
+        <v>28000</v>
+      </c>
+      <c r="E112">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="F112" s="2">
+        <f t="shared" si="44"/>
+        <v>9.9999999999999998E+185</v>
+      </c>
+      <c r="G112">
+        <f t="shared" ref="G112:I112" si="73">G111</f>
+        <v>1000</v>
+      </c>
+      <c r="H112">
+        <f t="shared" si="73"/>
+        <v>8</v>
+      </c>
+      <c r="I112">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="J112" t="s">
+        <v>57</v>
+      </c>
+      <c r="K112">
+        <f t="shared" si="12"/>
+        <v>24000</v>
+      </c>
+      <c r="L112">
+        <v>9054</v>
+      </c>
+      <c r="M112">
+        <f>VLOOKUP(A112,Balance!E:L,8,FALSE)/2</f>
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>111</v>
+      </c>
+      <c r="B113" s="1" t="str">
+        <f t="shared" ref="B113:C113" si="74">B112</f>
+        <v>1-1</v>
+      </c>
+      <c r="C113">
+        <f t="shared" si="74"/>
+        <v>9054</v>
+      </c>
+      <c r="D113">
+        <f>VLOOKUP(A113,Balance!E:K,7,FALSE)</f>
+        <v>28000</v>
+      </c>
+      <c r="E113">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="F113" s="2">
+        <f t="shared" si="44"/>
+        <v>9.9999999999999991E+186</v>
+      </c>
+      <c r="G113">
+        <f t="shared" ref="G113:I113" si="75">G112</f>
+        <v>1000</v>
+      </c>
+      <c r="H113">
+        <f t="shared" si="75"/>
+        <v>8</v>
+      </c>
+      <c r="I113">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="J113" t="s">
+        <v>57</v>
+      </c>
+      <c r="K113">
+        <f t="shared" si="12"/>
+        <v>24200</v>
+      </c>
+      <c r="L113">
+        <v>9054</v>
+      </c>
+      <c r="M113">
+        <f>VLOOKUP(A113,Balance!E:L,8,FALSE)/2</f>
+        <v>11100</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:K105">
+  <conditionalFormatting sqref="A2:K113">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
@@ -6226,10 +6642,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4C63F0-02E4-48AB-8F58-B57B021B5DE4}">
-  <dimension ref="A1:Z112"/>
+  <dimension ref="A1:Z120"/>
   <sheetViews>
-    <sheetView topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="L110" sqref="L110"/>
+    <sheetView topLeftCell="B96" workbookViewId="0">
+      <selection activeCell="J114" sqref="J114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6398,7 +6814,7 @@
         <v>38</v>
       </c>
       <c r="J9" s="16" t="str">
-        <f>VLOOKUP(I9,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J9:J40" si="0">VLOOKUP(I9,N:Q,4,FALSE)</f>
         <v>1E+76</v>
       </c>
       <c r="K9" s="22">
@@ -6415,7 +6831,7 @@
         <v>8</v>
       </c>
       <c r="P9" s="17">
-        <f t="shared" ref="P9:P38" si="0">POWER(10,O9)</f>
+        <f t="shared" ref="P9:P38" si="1">POWER(10,O9)</f>
         <v>100000000</v>
       </c>
       <c r="Q9" s="17" t="str">
@@ -6444,7 +6860,7 @@
         <v>겁</v>
       </c>
       <c r="J10" s="16" t="str">
-        <f>VLOOKUP(I10,N:Q,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+76</v>
       </c>
       <c r="K10" s="22">
@@ -6461,7 +6877,7 @@
         <v>12</v>
       </c>
       <c r="P10" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1000000000000</v>
       </c>
       <c r="Q10" s="17" t="str">
@@ -6475,11 +6891,11 @@
         <v>2</v>
       </c>
       <c r="F11" s="17" t="str">
-        <f t="shared" ref="F11:F29" si="1">H11&amp;I11</f>
+        <f t="shared" ref="F11:F29" si="2">H11&amp;I11</f>
         <v>100겁</v>
       </c>
       <c r="G11" s="17">
-        <f t="shared" ref="G11:G73" si="2">H11*J11</f>
+        <f t="shared" ref="G11:G73" si="3">H11*J11</f>
         <v>1E+78</v>
       </c>
       <c r="H11" s="17">
@@ -6490,7 +6906,7 @@
         <v>겁</v>
       </c>
       <c r="J11" s="16" t="str">
-        <f>VLOOKUP(I11,N:Q,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+76</v>
       </c>
       <c r="K11" s="22">
@@ -6507,7 +6923,7 @@
         <v>16</v>
       </c>
       <c r="P11" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1E+16</v>
       </c>
       <c r="Q11" s="17" t="str">
@@ -6521,11 +6937,11 @@
         <v>3</v>
       </c>
       <c r="F12" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1000겁</v>
       </c>
       <c r="G12" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999997E+78</v>
       </c>
       <c r="H12" s="17">
@@ -6536,7 +6952,7 @@
         <v>겁</v>
       </c>
       <c r="J12" s="16" t="str">
-        <f>VLOOKUP(I12,N:Q,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+76</v>
       </c>
       <c r="K12" s="22">
@@ -6553,11 +6969,11 @@
         <v>20</v>
       </c>
       <c r="P12" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1E+20</v>
       </c>
       <c r="Q12" s="17" t="str">
-        <f t="shared" ref="Q12:Q38" si="3">RIGHT(P12,O12)</f>
+        <f t="shared" ref="Q12:Q38" si="4">RIGHT(P12,O12)</f>
         <v>1E+20</v>
       </c>
     </row>
@@ -6567,11 +6983,11 @@
         <v>4</v>
       </c>
       <c r="F13" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1업</v>
       </c>
       <c r="G13" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1E+80</v>
       </c>
       <c r="H13" s="17">
@@ -6583,7 +6999,7 @@
         <v>업</v>
       </c>
       <c r="J13" s="16" t="str">
-        <f>VLOOKUP(I13,N:Q,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+80</v>
       </c>
       <c r="K13" s="22">
@@ -6600,11 +7016,11 @@
         <v>24</v>
       </c>
       <c r="P13" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.9999999999999998E+23</v>
       </c>
       <c r="Q13" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1E+24</v>
       </c>
     </row>
@@ -6614,15 +7030,15 @@
         <v>5</v>
       </c>
       <c r="F14" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10업</v>
       </c>
       <c r="G14" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999992E+80</v>
       </c>
       <c r="H14" s="17">
-        <f t="shared" ref="H14:H77" si="4">H10</f>
+        <f t="shared" ref="H14:H77" si="5">H10</f>
         <v>10</v>
       </c>
       <c r="I14" s="16" t="str" cm="1">
@@ -6630,7 +7046,7 @@
         <v>업</v>
       </c>
       <c r="J14" s="16" t="str">
-        <f>VLOOKUP(I14,N:Q,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+80</v>
       </c>
       <c r="K14" s="22">
@@ -6647,11 +7063,11 @@
         <v>28</v>
       </c>
       <c r="P14" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.9999999999999996E+27</v>
       </c>
       <c r="Q14" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1E+28</v>
       </c>
     </row>
@@ -6669,7 +7085,7 @@
         <v>9.9999999999999996E+81</v>
       </c>
       <c r="H15" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="I15" s="16" t="str" cm="1">
@@ -6677,7 +7093,7 @@
         <v>업</v>
       </c>
       <c r="J15" s="16" t="str">
-        <f>VLOOKUP(I15,N:Q,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+80</v>
       </c>
       <c r="K15" s="22">
@@ -6694,11 +7110,11 @@
         <v>32</v>
       </c>
       <c r="P15" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0000000000000001E+32</v>
       </c>
       <c r="Q15" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1E+32</v>
       </c>
     </row>
@@ -6716,7 +7132,7 @@
         <v>1E+83</v>
       </c>
       <c r="H16" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
       <c r="I16" s="16" t="str" cm="1">
@@ -6724,7 +7140,7 @@
         <v>업</v>
       </c>
       <c r="J16" s="16" t="str">
-        <f>VLOOKUP(I16,N:Q,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+80</v>
       </c>
       <c r="K16" s="22">
@@ -6741,11 +7157,11 @@
         <v>36</v>
       </c>
       <c r="P16" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1E+36</v>
       </c>
       <c r="Q16" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1E+36</v>
       </c>
     </row>
@@ -6755,15 +7171,15 @@
         <v>8</v>
       </c>
       <c r="F17" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1긍</v>
       </c>
       <c r="G17" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0000000000000001E+84</v>
       </c>
       <c r="H17" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="I17" s="16" t="str" cm="1">
@@ -6771,7 +7187,7 @@
         <v>긍</v>
       </c>
       <c r="J17" s="16" t="str">
-        <f>VLOOKUP(I17,N:Q,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+84</v>
       </c>
       <c r="K17" s="22">
@@ -6788,11 +7204,11 @@
         <v>40</v>
       </c>
       <c r="P17" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1E+40</v>
       </c>
       <c r="Q17" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1E+40</v>
       </c>
     </row>
@@ -6802,15 +7218,15 @@
         <v>9</v>
       </c>
       <c r="F18" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10긍</v>
       </c>
       <c r="G18" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1E+85</v>
       </c>
       <c r="H18" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="I18" s="16" t="str" cm="1">
@@ -6818,7 +7234,7 @@
         <v>긍</v>
       </c>
       <c r="J18" s="16" t="str">
-        <f>VLOOKUP(I18,N:Q,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+84</v>
       </c>
       <c r="K18" s="22">
@@ -6835,11 +7251,11 @@
         <v>44</v>
       </c>
       <c r="P18" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0000000000000001E+44</v>
       </c>
       <c r="Q18" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1E+44</v>
       </c>
     </row>
@@ -6849,15 +7265,15 @@
         <v>10</v>
       </c>
       <c r="F19" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100긍</v>
       </c>
       <c r="G19" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1E+86</v>
       </c>
       <c r="H19" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="I19" s="16" t="str" cm="1">
@@ -6865,7 +7281,7 @@
         <v>긍</v>
       </c>
       <c r="J19" s="16" t="str">
-        <f>VLOOKUP(I19,N:Q,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+84</v>
       </c>
       <c r="K19" s="22">
@@ -6882,11 +7298,11 @@
         <v>48</v>
       </c>
       <c r="P19" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1E+48</v>
       </c>
       <c r="Q19" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1E+48</v>
       </c>
     </row>
@@ -6896,15 +7312,15 @@
         <v>11</v>
       </c>
       <c r="F20" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1000긍</v>
       </c>
       <c r="G20" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999996E+86</v>
       </c>
       <c r="H20" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
       <c r="I20" s="16" t="str" cm="1">
@@ -6912,7 +7328,7 @@
         <v>긍</v>
       </c>
       <c r="J20" s="16" t="str">
-        <f>VLOOKUP(I20,N:Q,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+84</v>
       </c>
       <c r="K20" s="22">
@@ -6929,11 +7345,11 @@
         <v>52</v>
       </c>
       <c r="P20" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.9999999999999999E+51</v>
       </c>
       <c r="Q20" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1E+52</v>
       </c>
     </row>
@@ -6943,15 +7359,15 @@
         <v>12</v>
       </c>
       <c r="F21" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1갈</v>
       </c>
       <c r="G21" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999996E+87</v>
       </c>
       <c r="H21" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="I21" s="16" t="str" cm="1">
@@ -6959,7 +7375,7 @@
         <v>갈</v>
       </c>
       <c r="J21" s="16" t="str">
-        <f>VLOOKUP(I21,N:Q,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+88</v>
       </c>
       <c r="K21" s="22">
@@ -6976,11 +7392,11 @@
         <v>56</v>
       </c>
       <c r="P21" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0000000000000001E+56</v>
       </c>
       <c r="Q21" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1E+56</v>
       </c>
     </row>
@@ -6990,15 +7406,15 @@
         <v>13</v>
       </c>
       <c r="F22" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10갈</v>
       </c>
       <c r="G22" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999999E+88</v>
       </c>
       <c r="H22" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="I22" s="16" t="str" cm="1">
@@ -7006,7 +7422,7 @@
         <v>갈</v>
       </c>
       <c r="J22" s="16" t="str">
-        <f>VLOOKUP(I22,N:Q,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+88</v>
       </c>
       <c r="K22" s="22">
@@ -7023,11 +7439,11 @@
         <v>60</v>
       </c>
       <c r="P22" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.9999999999999995E+59</v>
       </c>
       <c r="Q22" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1E+60</v>
       </c>
     </row>
@@ -7036,15 +7452,15 @@
         <v>14</v>
       </c>
       <c r="F23" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100갈</v>
       </c>
       <c r="G23" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999997E+89</v>
       </c>
       <c r="H23" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="I23" s="16" t="str" cm="1">
@@ -7052,7 +7468,7 @@
         <v>갈</v>
       </c>
       <c r="J23" s="16" t="str">
-        <f>VLOOKUP(I23,N:Q,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+88</v>
       </c>
       <c r="K23" s="22">
@@ -7069,11 +7485,11 @@
         <v>64</v>
       </c>
       <c r="P23" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1E+64</v>
       </c>
       <c r="Q23" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1E+64</v>
       </c>
     </row>
@@ -7082,15 +7498,15 @@
         <v>15</v>
       </c>
       <c r="F24" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1000갈</v>
       </c>
       <c r="G24" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.999999999999999E+90</v>
       </c>
       <c r="H24" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
       <c r="I24" s="16" t="str" cm="1">
@@ -7098,7 +7514,7 @@
         <v>갈</v>
       </c>
       <c r="J24" s="16" t="str">
-        <f>VLOOKUP(I24,N:Q,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+88</v>
       </c>
       <c r="K24" s="22">
@@ -7115,11 +7531,11 @@
         <v>68</v>
       </c>
       <c r="P24" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.9999999999999995E+67</v>
       </c>
       <c r="Q24" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1E+68</v>
       </c>
     </row>
@@ -7128,15 +7544,15 @@
         <v>16</v>
       </c>
       <c r="F25" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1라</v>
       </c>
       <c r="G25" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1E+92</v>
       </c>
       <c r="H25" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="I25" s="16" t="str" cm="1">
@@ -7144,7 +7560,7 @@
         <v>라</v>
       </c>
       <c r="J25" s="16" t="str">
-        <f>VLOOKUP(I25,N:Q,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+92</v>
       </c>
       <c r="K25" s="22">
@@ -7161,11 +7577,11 @@
         <v>72</v>
       </c>
       <c r="P25" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.9999999999999994E+71</v>
       </c>
       <c r="Q25" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1E+72</v>
       </c>
     </row>
@@ -7174,15 +7590,15 @@
         <v>17</v>
       </c>
       <c r="F26" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10라</v>
       </c>
       <c r="G26" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1E+93</v>
       </c>
       <c r="H26" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="I26" s="16" t="str" cm="1">
@@ -7190,7 +7606,7 @@
         <v>라</v>
       </c>
       <c r="J26" s="16" t="str">
-        <f>VLOOKUP(I26,N:Q,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+92</v>
       </c>
       <c r="K26" s="22">
@@ -7207,11 +7623,11 @@
         <v>76</v>
       </c>
       <c r="P26" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1E+76</v>
       </c>
       <c r="Q26" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1E+76</v>
       </c>
     </row>
@@ -7220,15 +7636,15 @@
         <v>18</v>
       </c>
       <c r="F27" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100라</v>
       </c>
       <c r="G27" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1E+94</v>
       </c>
       <c r="H27" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="I27" s="16" t="str" cm="1">
@@ -7236,7 +7652,7 @@
         <v>라</v>
       </c>
       <c r="J27" s="16" t="str">
-        <f>VLOOKUP(I27,N:Q,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+92</v>
       </c>
       <c r="K27" s="22">
@@ -7253,11 +7669,11 @@
         <v>80</v>
       </c>
       <c r="P27" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1E+80</v>
       </c>
       <c r="Q27" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1E+80</v>
       </c>
     </row>
@@ -7266,15 +7682,15 @@
         <v>19</v>
       </c>
       <c r="F28" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1000라</v>
       </c>
       <c r="G28" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1E+95</v>
       </c>
       <c r="H28" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
       <c r="I28" s="16" t="str" cm="1">
@@ -7282,7 +7698,7 @@
         <v>라</v>
       </c>
       <c r="J28" s="16" t="str">
-        <f>VLOOKUP(I28,N:Q,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+92</v>
       </c>
       <c r="K28" s="22">
@@ -7299,11 +7715,11 @@
         <v>84</v>
       </c>
       <c r="P28" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0000000000000001E+84</v>
       </c>
       <c r="Q28" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1E+84</v>
       </c>
     </row>
@@ -7312,15 +7728,15 @@
         <v>20</v>
       </c>
       <c r="F29" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1가</v>
       </c>
       <c r="G29" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1E+96</v>
       </c>
       <c r="H29" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="I29" s="16" t="str" cm="1">
@@ -7328,7 +7744,7 @@
         <v>가</v>
       </c>
       <c r="J29" s="16" t="str">
-        <f>VLOOKUP(I29,N:Q,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+96</v>
       </c>
       <c r="K29" s="22">
@@ -7345,11 +7761,11 @@
         <v>88</v>
       </c>
       <c r="P29" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.9999999999999996E+87</v>
       </c>
       <c r="Q29" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1E+88</v>
       </c>
     </row>
@@ -7362,11 +7778,11 @@
         <v>10가</v>
       </c>
       <c r="G30" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0000000000000001E+97</v>
       </c>
       <c r="H30" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="I30" s="16" t="str" cm="1">
@@ -7374,7 +7790,7 @@
         <v>가</v>
       </c>
       <c r="J30" s="16" t="str">
-        <f>VLOOKUP(I30,N:Q,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+96</v>
       </c>
       <c r="K30" s="22">
@@ -7391,11 +7807,11 @@
         <v>92</v>
       </c>
       <c r="P30" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1E+92</v>
       </c>
       <c r="Q30" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1E+92</v>
       </c>
     </row>
@@ -7404,15 +7820,15 @@
         <v>22</v>
       </c>
       <c r="F31" s="17" t="str">
-        <f t="shared" ref="F31:F67" si="5">H31&amp;I31</f>
+        <f t="shared" ref="F31:F67" si="6">H31&amp;I31</f>
         <v>100가</v>
       </c>
       <c r="G31" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1E+98</v>
       </c>
       <c r="H31" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="I31" s="16" t="str" cm="1">
@@ -7420,7 +7836,7 @@
         <v>가</v>
       </c>
       <c r="J31" s="16" t="str">
-        <f>VLOOKUP(I31,N:Q,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+96</v>
       </c>
       <c r="K31" s="22">
@@ -7437,11 +7853,11 @@
         <v>96</v>
       </c>
       <c r="P31" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1E+96</v>
       </c>
       <c r="Q31" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1E+96</v>
       </c>
     </row>
@@ -7450,15 +7866,15 @@
         <v>23</v>
       </c>
       <c r="F32" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1000가</v>
       </c>
       <c r="G32" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0000000000000001E+99</v>
       </c>
       <c r="H32" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
       <c r="I32" s="16" t="str" cm="1">
@@ -7466,7 +7882,7 @@
         <v>가</v>
       </c>
       <c r="J32" s="16" t="str">
-        <f>VLOOKUP(I32,N:Q,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+96</v>
       </c>
       <c r="K32" s="22">
@@ -7483,11 +7899,11 @@
         <v>100</v>
       </c>
       <c r="P32" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1E+100</v>
       </c>
       <c r="Q32" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1E+100</v>
       </c>
     </row>
@@ -7496,15 +7912,15 @@
         <v>24</v>
       </c>
       <c r="F33" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1언</v>
       </c>
       <c r="G33" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1E+100</v>
       </c>
       <c r="H33" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="I33" s="16" t="str" cm="1">
@@ -7512,7 +7928,7 @@
         <v>언</v>
       </c>
       <c r="J33" s="16" t="str">
-        <f>VLOOKUP(I33,N:Q,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+100</v>
       </c>
       <c r="K33" s="22">
@@ -7529,11 +7945,11 @@
         <v>104</v>
       </c>
       <c r="P33" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1E+104</v>
       </c>
       <c r="Q33" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1E+104</v>
       </c>
       <c r="R33" s="11"/>
@@ -7551,15 +7967,15 @@
         <v>25</v>
       </c>
       <c r="F34" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10언</v>
       </c>
       <c r="G34" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999998E+100</v>
       </c>
       <c r="H34" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="I34" s="16" t="str" cm="1">
@@ -7567,7 +7983,7 @@
         <v>언</v>
       </c>
       <c r="J34" s="16" t="str">
-        <f>VLOOKUP(I34,N:Q,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+100</v>
       </c>
       <c r="K34" s="22">
@@ -7584,11 +8000,11 @@
         <v>108</v>
       </c>
       <c r="P34" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1E+108</v>
       </c>
       <c r="Q34" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1E+108</v>
       </c>
       <c r="R34" s="11"/>
@@ -7606,15 +8022,15 @@
         <v>26</v>
       </c>
       <c r="F35" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100언</v>
       </c>
       <c r="G35" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999998E+101</v>
       </c>
       <c r="H35" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="I35" s="16" t="str" cm="1">
@@ -7622,7 +8038,7 @@
         <v>언</v>
       </c>
       <c r="J35" s="16" t="str">
-        <f>VLOOKUP(I35,N:Q,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+100</v>
       </c>
       <c r="K35" s="22">
@@ -7639,11 +8055,11 @@
         <v>112</v>
       </c>
       <c r="P35" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.9999999999999993E+111</v>
       </c>
       <c r="Q35" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1E+112</v>
       </c>
       <c r="R35" s="11"/>
@@ -7661,15 +8077,15 @@
         <v>27</v>
       </c>
       <c r="F36" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1000언</v>
       </c>
       <c r="G36" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1E+103</v>
       </c>
       <c r="H36" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
       <c r="I36" s="16" t="str" cm="1">
@@ -7677,7 +8093,7 @@
         <v>언</v>
       </c>
       <c r="J36" s="16" t="str">
-        <f>VLOOKUP(I36,N:Q,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+100</v>
       </c>
       <c r="K36" s="22">
@@ -7694,11 +8110,11 @@
         <v>116</v>
       </c>
       <c r="P36" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1E+116</v>
       </c>
       <c r="Q36" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1E+116</v>
       </c>
       <c r="R36" s="11"/>
@@ -7716,15 +8132,15 @@
         <v>28</v>
       </c>
       <c r="F37" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1승</v>
       </c>
       <c r="G37" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1E+104</v>
       </c>
       <c r="H37" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="I37" s="16" t="str" cm="1">
@@ -7732,7 +8148,7 @@
         <v>승</v>
       </c>
       <c r="J37" s="16" t="str">
-        <f>VLOOKUP(I37,N:Q,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+104</v>
       </c>
       <c r="K37" s="22">
@@ -7749,11 +8165,11 @@
         <v>120</v>
       </c>
       <c r="P37" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.9999999999999998E+119</v>
       </c>
       <c r="Q37" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1E+120</v>
       </c>
       <c r="R37" s="11"/>
@@ -7771,15 +8187,15 @@
         <v>29</v>
       </c>
       <c r="F38" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10승</v>
       </c>
       <c r="G38" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999994E+104</v>
       </c>
       <c r="H38" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="I38" s="16" t="str" cm="1">
@@ -7787,7 +8203,7 @@
         <v>승</v>
       </c>
       <c r="J38" s="16" t="str">
-        <f>VLOOKUP(I38,N:Q,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+104</v>
       </c>
       <c r="K38" s="22">
@@ -7804,11 +8220,11 @@
         <v>124</v>
       </c>
       <c r="P38" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.9999999999999995E+123</v>
       </c>
       <c r="Q38" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1E+124</v>
       </c>
       <c r="R38" s="11"/>
@@ -7826,15 +8242,15 @@
         <v>30</v>
       </c>
       <c r="F39" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100승</v>
       </c>
       <c r="G39" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0000000000000001E+106</v>
       </c>
       <c r="H39" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="I39" s="16" t="str" cm="1">
@@ -7842,7 +8258,7 @@
         <v>승</v>
       </c>
       <c r="J39" s="16" t="str">
-        <f>VLOOKUP(I39,N:Q,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+104</v>
       </c>
       <c r="K39" s="22">
@@ -7859,11 +8275,11 @@
         <v>128</v>
       </c>
       <c r="P39" s="17">
-        <f t="shared" ref="P39" si="6">POWER(10,O39)</f>
+        <f t="shared" ref="P39" si="7">POWER(10,O39)</f>
         <v>1.0000000000000001E+128</v>
       </c>
       <c r="Q39" s="17" t="str">
-        <f t="shared" ref="Q39" si="7">RIGHT(P39,O39)</f>
+        <f t="shared" ref="Q39" si="8">RIGHT(P39,O39)</f>
         <v>1E+128</v>
       </c>
       <c r="R39" s="11"/>
@@ -7881,15 +8297,15 @@
         <v>31</v>
       </c>
       <c r="F40" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1000승</v>
       </c>
       <c r="G40" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999997E+106</v>
       </c>
       <c r="H40" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
       <c r="I40" s="16" t="str" cm="1">
@@ -7897,7 +8313,7 @@
         <v>승</v>
       </c>
       <c r="J40" s="16" t="str">
-        <f>VLOOKUP(I40,N:Q,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+104</v>
       </c>
       <c r="K40" s="22">
@@ -7914,11 +8330,11 @@
         <v>132</v>
       </c>
       <c r="P40" s="17">
-        <f t="shared" ref="P40:P41" si="8">POWER(10,O40)</f>
+        <f t="shared" ref="P40:P41" si="9">POWER(10,O40)</f>
         <v>9.9999999999999999E+131</v>
       </c>
       <c r="Q40" s="17" t="str">
-        <f t="shared" ref="Q40:Q41" si="9">RIGHT(P40,O40)</f>
+        <f t="shared" ref="Q40:Q41" si="10">RIGHT(P40,O40)</f>
         <v>1E+132</v>
       </c>
       <c r="R40" s="11"/>
@@ -7936,15 +8352,15 @@
         <v>32</v>
       </c>
       <c r="F41" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1마</v>
       </c>
       <c r="G41" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1E+108</v>
       </c>
       <c r="H41" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="I41" s="16" t="str" cm="1">
@@ -7952,7 +8368,7 @@
         <v>마</v>
       </c>
       <c r="J41" s="16" t="str">
-        <f>VLOOKUP(I41,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J41:J72" si="11">VLOOKUP(I41,N:Q,4,FALSE)</f>
         <v>1E+108</v>
       </c>
       <c r="K41" s="22">
@@ -7969,11 +8385,11 @@
         <v>136</v>
       </c>
       <c r="P41" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.0000000000000001E+136</v>
       </c>
       <c r="Q41" s="17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1E+136</v>
       </c>
       <c r="R41" s="11"/>
@@ -7991,15 +8407,15 @@
         <v>33</v>
       </c>
       <c r="F42" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10마</v>
       </c>
       <c r="G42" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999998E+108</v>
       </c>
       <c r="H42" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="I42" s="16" t="str" cm="1">
@@ -8007,7 +8423,7 @@
         <v>마</v>
       </c>
       <c r="J42" s="16" t="str">
-        <f>VLOOKUP(I42,N:Q,4,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>1E+108</v>
       </c>
       <c r="K42" s="22">
@@ -8024,11 +8440,11 @@
         <v>140</v>
       </c>
       <c r="P42" s="17">
-        <f t="shared" ref="P42" si="10">POWER(10,O42)</f>
+        <f t="shared" ref="P42" si="12">POWER(10,O42)</f>
         <v>1.0000000000000001E+140</v>
       </c>
       <c r="Q42" s="17" t="str">
-        <f t="shared" ref="Q42" si="11">RIGHT(P42,O42)</f>
+        <f t="shared" ref="Q42" si="13">RIGHT(P42,O42)</f>
         <v>1E+140</v>
       </c>
       <c r="R42" s="11"/>
@@ -8046,15 +8462,15 @@
         <v>34</v>
       </c>
       <c r="F43" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100마</v>
       </c>
       <c r="G43" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1E+110</v>
       </c>
       <c r="H43" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="I43" s="16" t="str" cm="1">
@@ -8062,7 +8478,7 @@
         <v>마</v>
       </c>
       <c r="J43" s="16" t="str">
-        <f>VLOOKUP(I43,N:Q,4,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>1E+108</v>
       </c>
       <c r="K43" s="22">
@@ -8079,11 +8495,11 @@
         <v>144</v>
       </c>
       <c r="P43" s="17">
-        <f t="shared" ref="P43" si="12">POWER(10,O43)</f>
+        <f t="shared" ref="P43" si="14">POWER(10,O43)</f>
         <v>1E+144</v>
       </c>
       <c r="Q43" s="17" t="str">
-        <f t="shared" ref="Q43" si="13">RIGHT(P43,O43)</f>
+        <f t="shared" ref="Q43" si="15">RIGHT(P43,O43)</f>
         <v>1E+144</v>
       </c>
       <c r="R43" s="11"/>
@@ -8101,15 +8517,15 @@
         <v>35</v>
       </c>
       <c r="F44" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1000마</v>
       </c>
       <c r="G44" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0000000000000001E+111</v>
       </c>
       <c r="H44" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
       <c r="I44" s="16" t="str" cm="1">
@@ -8117,7 +8533,7 @@
         <v>마</v>
       </c>
       <c r="J44" s="16" t="str">
-        <f>VLOOKUP(I44,N:Q,4,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>1E+108</v>
       </c>
       <c r="K44" s="22">
@@ -8134,11 +8550,11 @@
         <v>148</v>
       </c>
       <c r="P44" s="17">
-        <f t="shared" ref="P44" si="14">POWER(10,O44)</f>
+        <f t="shared" ref="P44" si="16">POWER(10,O44)</f>
         <v>1E+148</v>
       </c>
       <c r="Q44" s="17" t="str">
-        <f t="shared" ref="Q44" si="15">RIGHT(P44,O44)</f>
+        <f t="shared" ref="Q44" si="17">RIGHT(P44,O44)</f>
         <v>1E+148</v>
       </c>
       <c r="R44" s="11"/>
@@ -8156,15 +8572,15 @@
         <v>36</v>
       </c>
       <c r="F45" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1살</v>
       </c>
       <c r="G45" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999993E+111</v>
       </c>
       <c r="H45" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="I45" s="16" t="str" cm="1">
@@ -8172,7 +8588,7 @@
         <v>살</v>
       </c>
       <c r="J45" s="16" t="str">
-        <f>VLOOKUP(I45,N:Q,4,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>1E+112</v>
       </c>
       <c r="K45" s="22">
@@ -8189,11 +8605,11 @@
         <v>152</v>
       </c>
       <c r="P45" s="17">
-        <f t="shared" ref="P45" si="16">POWER(10,O45)</f>
+        <f t="shared" ref="P45" si="18">POWER(10,O45)</f>
         <v>1E+152</v>
       </c>
       <c r="Q45" s="17" t="str">
-        <f t="shared" ref="Q45" si="17">RIGHT(P45,O45)</f>
+        <f t="shared" ref="Q45" si="19">RIGHT(P45,O45)</f>
         <v>1E+152</v>
       </c>
       <c r="R45" s="11"/>
@@ -8211,15 +8627,15 @@
         <v>37</v>
       </c>
       <c r="F46" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10살</v>
       </c>
       <c r="G46" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1E+113</v>
       </c>
       <c r="H46" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="I46" s="16" t="str" cm="1">
@@ -8227,7 +8643,7 @@
         <v>살</v>
       </c>
       <c r="J46" s="16" t="str">
-        <f>VLOOKUP(I46,N:Q,4,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>1E+112</v>
       </c>
       <c r="K46" s="22">
@@ -8244,11 +8660,11 @@
         <v>156</v>
       </c>
       <c r="P46" s="17">
-        <f t="shared" ref="P46" si="18">POWER(10,O46)</f>
+        <f t="shared" ref="P46" si="20">POWER(10,O46)</f>
         <v>9.9999999999999998E+155</v>
       </c>
       <c r="Q46" s="17" t="str">
-        <f t="shared" ref="Q46" si="19">RIGHT(P46,O46)</f>
+        <f t="shared" ref="Q46" si="21">RIGHT(P46,O46)</f>
         <v>1E+156</v>
       </c>
       <c r="R46" s="11"/>
@@ -8266,15 +8682,15 @@
         <v>38</v>
       </c>
       <c r="F47" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100살</v>
       </c>
       <c r="G47" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999988E+113</v>
       </c>
       <c r="H47" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="I47" s="16" t="str" cm="1">
@@ -8282,7 +8698,7 @@
         <v>살</v>
       </c>
       <c r="J47" s="16" t="str">
-        <f>VLOOKUP(I47,N:Q,4,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>1E+112</v>
       </c>
       <c r="K47" s="22">
@@ -8299,11 +8715,11 @@
         <v>160</v>
       </c>
       <c r="P47" s="17">
-        <f t="shared" ref="P47:P48" si="20">POWER(10,O47)</f>
+        <f t="shared" ref="P47:P48" si="22">POWER(10,O47)</f>
         <v>1E+160</v>
       </c>
       <c r="Q47" s="17" t="str">
-        <f t="shared" ref="Q47:Q48" si="21">RIGHT(P47,O47)</f>
+        <f t="shared" ref="Q47:Q48" si="23">RIGHT(P47,O47)</f>
         <v>1E+160</v>
       </c>
       <c r="R47" s="11"/>
@@ -8321,15 +8737,15 @@
         <v>39</v>
       </c>
       <c r="F48" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1000살</v>
       </c>
       <c r="G48" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1E+115</v>
       </c>
       <c r="H48" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
       <c r="I48" s="16" t="str" cm="1">
@@ -8337,7 +8753,7 @@
         <v>살</v>
       </c>
       <c r="J48" s="16" t="str">
-        <f>VLOOKUP(I48,N:Q,4,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>1E+112</v>
       </c>
       <c r="K48" s="22">
@@ -8354,11 +8770,11 @@
         <v>164</v>
       </c>
       <c r="P48" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1E+164</v>
       </c>
       <c r="Q48" s="17" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1E+164</v>
       </c>
       <c r="R48" s="11"/>
@@ -8376,15 +8792,15 @@
         <v>40</v>
       </c>
       <c r="F49" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1섬</v>
       </c>
       <c r="G49" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1E+116</v>
       </c>
       <c r="H49" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="I49" s="16" t="str" cm="1">
@@ -8392,7 +8808,7 @@
         <v>섬</v>
       </c>
       <c r="J49" s="16" t="str">
-        <f>VLOOKUP(I49,N:Q,4,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>1E+116</v>
       </c>
       <c r="K49" s="22">
@@ -8409,11 +8825,11 @@
         <v>168</v>
       </c>
       <c r="P49" s="17">
-        <f t="shared" ref="P49:P50" si="22">POWER(10,O49)</f>
+        <f t="shared" ref="P49:P50" si="24">POWER(10,O49)</f>
         <v>9.9999999999999993E+167</v>
       </c>
       <c r="Q49" s="17" t="str">
-        <f t="shared" ref="Q49:Q50" si="23">RIGHT(P49,O49)</f>
+        <f t="shared" ref="Q49:Q50" si="25">RIGHT(P49,O49)</f>
         <v>1E+168</v>
       </c>
       <c r="R49" s="11"/>
@@ -8431,15 +8847,15 @@
         <v>41</v>
       </c>
       <c r="F50" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10섬</v>
       </c>
       <c r="G50" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0000000000000001E+117</v>
       </c>
       <c r="H50" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="I50" s="16" t="str" cm="1">
@@ -8447,7 +8863,7 @@
         <v>섬</v>
       </c>
       <c r="J50" s="16" t="str">
-        <f>VLOOKUP(I50,N:Q,4,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>1E+116</v>
       </c>
       <c r="K50" s="22">
@@ -8464,11 +8880,11 @@
         <v>172</v>
       </c>
       <c r="P50" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1.0000000000000001E+172</v>
       </c>
       <c r="Q50" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1E+172</v>
       </c>
       <c r="R50" s="11"/>
@@ -8486,15 +8902,15 @@
         <v>42</v>
       </c>
       <c r="F51" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100섬</v>
       </c>
       <c r="G51" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999997E+117</v>
       </c>
       <c r="H51" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="I51" s="16" t="str" cm="1">
@@ -8502,7 +8918,7 @@
         <v>섬</v>
       </c>
       <c r="J51" s="16" t="str">
-        <f>VLOOKUP(I51,N:Q,4,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>1E+116</v>
       </c>
       <c r="K51" s="22">
@@ -8519,11 +8935,11 @@
         <v>176</v>
       </c>
       <c r="P51" s="17">
-        <f t="shared" ref="P51" si="24">POWER(10,O51)</f>
+        <f t="shared" ref="P51" si="26">POWER(10,O51)</f>
         <v>1E+176</v>
       </c>
       <c r="Q51" s="17" t="str">
-        <f t="shared" ref="Q51" si="25">RIGHT(P51,O51)</f>
+        <f t="shared" ref="Q51" si="27">RIGHT(P51,O51)</f>
         <v>1E+176</v>
       </c>
       <c r="R51" s="11"/>
@@ -8541,15 +8957,15 @@
         <v>43</v>
       </c>
       <c r="F52" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1000섬</v>
       </c>
       <c r="G52" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999994E+118</v>
       </c>
       <c r="H52" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
       <c r="I52" s="16" t="str" cm="1">
@@ -8557,7 +8973,7 @@
         <v>섬</v>
       </c>
       <c r="J52" s="16" t="str">
-        <f>VLOOKUP(I52,N:Q,4,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>1E+116</v>
       </c>
       <c r="K52" s="22">
@@ -8567,10 +8983,20 @@
         <v>14300</v>
       </c>
       <c r="M52" s="22"/>
-      <c r="N52" s="16"/>
-      <c r="O52" s="16"/>
-      <c r="P52" s="17"/>
-      <c r="Q52" s="17"/>
+      <c r="N52" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="O52" s="16">
+        <v>180</v>
+      </c>
+      <c r="P52" s="17">
+        <f t="shared" ref="P52:P53" si="28">POWER(10,O52)</f>
+        <v>1E+180</v>
+      </c>
+      <c r="Q52" s="17" t="str">
+        <f t="shared" ref="Q52:Q53" si="29">RIGHT(P52,O52)</f>
+        <v>1E+180</v>
+      </c>
       <c r="R52" s="11"/>
       <c r="S52" s="11"/>
       <c r="T52" s="11"/>
@@ -8586,15 +9012,15 @@
         <v>44</v>
       </c>
       <c r="F53" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1찰</v>
       </c>
       <c r="G53" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999998E+119</v>
       </c>
       <c r="H53" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="I53" s="16" t="str" cm="1">
@@ -8602,7 +9028,7 @@
         <v>찰</v>
       </c>
       <c r="J53" s="16" t="str">
-        <f>VLOOKUP(I53,N:Q,4,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>1E+120</v>
       </c>
       <c r="K53" s="22">
@@ -8612,10 +9038,20 @@
         <v>14400</v>
       </c>
       <c r="M53" s="22"/>
-      <c r="N53" s="16"/>
-      <c r="O53" s="16"/>
-      <c r="P53" s="17"/>
-      <c r="Q53" s="17"/>
+      <c r="N53" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="O53" s="16">
+        <v>184</v>
+      </c>
+      <c r="P53" s="17">
+        <f t="shared" si="28"/>
+        <v>1E+184</v>
+      </c>
+      <c r="Q53" s="17" t="str">
+        <f t="shared" si="29"/>
+        <v>1E+184</v>
+      </c>
       <c r="R53" s="11"/>
       <c r="S53" s="11"/>
       <c r="T53" s="11"/>
@@ -8631,15 +9067,15 @@
         <v>45</v>
       </c>
       <c r="F54" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10찰</v>
       </c>
       <c r="G54" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999992E+120</v>
       </c>
       <c r="H54" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="I54" s="16" t="str" cm="1">
@@ -8647,7 +9083,7 @@
         <v>찰</v>
       </c>
       <c r="J54" s="16" t="str">
-        <f>VLOOKUP(I54,N:Q,4,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>1E+120</v>
       </c>
       <c r="K54" s="22">
@@ -8674,15 +9110,15 @@
         <v>46</v>
       </c>
       <c r="F55" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100찰</v>
       </c>
       <c r="G55" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1E+122</v>
       </c>
       <c r="H55" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="I55" s="16" t="str" cm="1">
@@ -8690,7 +9126,7 @@
         <v>찰</v>
       </c>
       <c r="J55" s="16" t="str">
-        <f>VLOOKUP(I55,N:Q,4,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>1E+120</v>
       </c>
       <c r="K55" s="22">
@@ -8717,15 +9153,15 @@
         <v>47</v>
       </c>
       <c r="F56" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1000찰</v>
       </c>
       <c r="G56" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999998E+122</v>
       </c>
       <c r="H56" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
       <c r="I56" s="16" t="str" cm="1">
@@ -8733,7 +9169,7 @@
         <v>찰</v>
       </c>
       <c r="J56" s="16" t="str">
-        <f>VLOOKUP(I56,N:Q,4,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>1E+120</v>
       </c>
       <c r="K56" s="22">
@@ -8760,15 +9196,15 @@
         <v>48</v>
       </c>
       <c r="F57" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1교</v>
       </c>
       <c r="G57" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999995E+123</v>
       </c>
       <c r="H57" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="I57" s="16" t="str" cm="1">
@@ -8776,7 +9212,7 @@
         <v>교</v>
       </c>
       <c r="J57" s="16" t="str">
-        <f>VLOOKUP(I57,N:Q,4,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>1E+124</v>
       </c>
       <c r="K57" s="22">
@@ -8803,15 +9239,15 @@
         <v>49</v>
       </c>
       <c r="F58" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10교</v>
       </c>
       <c r="G58" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999992E+124</v>
       </c>
       <c r="H58" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="I58" s="16" t="str" cm="1">
@@ -8819,7 +9255,7 @@
         <v>교</v>
       </c>
       <c r="J58" s="16" t="str">
-        <f>VLOOKUP(I58,N:Q,4,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>1E+124</v>
       </c>
       <c r="K58" s="22">
@@ -8846,15 +9282,15 @@
         <v>50</v>
       </c>
       <c r="F59" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100교</v>
       </c>
       <c r="G59" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999992E+125</v>
       </c>
       <c r="H59" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="I59" s="16" t="str" cm="1">
@@ -8862,7 +9298,7 @@
         <v>교</v>
       </c>
       <c r="J59" s="16" t="str">
-        <f>VLOOKUP(I59,N:Q,4,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>1E+124</v>
       </c>
       <c r="K59" s="22">
@@ -8889,15 +9325,15 @@
         <v>51</v>
       </c>
       <c r="F60" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1000교</v>
       </c>
       <c r="G60" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999995E+126</v>
       </c>
       <c r="H60" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
       <c r="I60" s="16" t="str" cm="1">
@@ -8905,7 +9341,7 @@
         <v>교</v>
       </c>
       <c r="J60" s="16" t="str">
-        <f>VLOOKUP(I60,N:Q,4,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>1E+124</v>
       </c>
       <c r="K60" s="22">
@@ -8932,15 +9368,15 @@
         <v>52</v>
       </c>
       <c r="F61" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1위</v>
       </c>
       <c r="G61" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0000000000000001E+128</v>
       </c>
       <c r="H61" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="I61" s="16" t="str" cm="1">
@@ -8948,7 +9384,7 @@
         <v>위</v>
       </c>
       <c r="J61" s="16" t="str">
-        <f>VLOOKUP(I61,N:Q,4,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>1E+128</v>
       </c>
       <c r="K61" s="22">
@@ -8975,15 +9411,15 @@
         <v>53</v>
       </c>
       <c r="F62" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10위</v>
       </c>
       <c r="G62" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1E+129</v>
       </c>
       <c r="H62" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="I62" s="16" t="str" cm="1">
@@ -8991,7 +9427,7 @@
         <v>위</v>
       </c>
       <c r="J62" s="16" t="str">
-        <f>VLOOKUP(I62,N:Q,4,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>1E+128</v>
       </c>
       <c r="K62" s="22">
@@ -9018,15 +9454,15 @@
         <v>54</v>
       </c>
       <c r="F63" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100위</v>
       </c>
       <c r="G63" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0000000000000001E+130</v>
       </c>
       <c r="H63" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="I63" s="16" t="str" cm="1">
@@ -9034,7 +9470,7 @@
         <v>위</v>
       </c>
       <c r="J63" s="16" t="str">
-        <f>VLOOKUP(I63,N:Q,4,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>1E+128</v>
       </c>
       <c r="K63" s="22">
@@ -9061,15 +9497,15 @@
         <v>55</v>
       </c>
       <c r="F64" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1000위</v>
       </c>
       <c r="G64" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0000000000000001E+131</v>
       </c>
       <c r="H64" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
       <c r="I64" s="16" t="str" cm="1">
@@ -9077,7 +9513,7 @@
         <v>위</v>
       </c>
       <c r="J64" s="16" t="str">
-        <f>VLOOKUP(I64,N:Q,4,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>1E+128</v>
       </c>
       <c r="K64" s="22">
@@ -9104,15 +9540,15 @@
         <v>56</v>
       </c>
       <c r="F65" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1설</v>
       </c>
       <c r="G65" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999999E+131</v>
       </c>
       <c r="H65" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="I65" s="16" t="str" cm="1">
@@ -9120,7 +9556,7 @@
         <v>설</v>
       </c>
       <c r="J65" s="16" t="str">
-        <f>VLOOKUP(I65,N:Q,4,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>1E+132</v>
       </c>
       <c r="K65" s="22">
@@ -9147,15 +9583,15 @@
         <v>57</v>
       </c>
       <c r="F66" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10설</v>
       </c>
       <c r="G66" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1E+133</v>
       </c>
       <c r="H66" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="I66" s="16" t="str" cm="1">
@@ -9163,7 +9599,7 @@
         <v>설</v>
       </c>
       <c r="J66" s="16" t="str">
-        <f>VLOOKUP(I66,N:Q,4,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>1E+132</v>
       </c>
       <c r="K66" s="22">
@@ -9190,15 +9626,15 @@
         <v>58</v>
       </c>
       <c r="F67" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100설</v>
       </c>
       <c r="G67" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999992E+133</v>
       </c>
       <c r="H67" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="I67" s="16" t="str" cm="1">
@@ -9206,7 +9642,7 @@
         <v>설</v>
       </c>
       <c r="J67" s="16" t="str">
-        <f>VLOOKUP(I67,N:Q,4,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>1E+132</v>
       </c>
       <c r="K67" s="22">
@@ -9226,11 +9662,11 @@
         <v>1000설</v>
       </c>
       <c r="G68" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999996E+134</v>
       </c>
       <c r="H68" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
       <c r="I68" s="16" t="str" cm="1">
@@ -9238,7 +9674,7 @@
         <v>설</v>
       </c>
       <c r="J68" s="16" t="str">
-        <f>VLOOKUP(I68,N:Q,4,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>1E+132</v>
       </c>
       <c r="K68" s="22">
@@ -9254,15 +9690,15 @@
         <v>60</v>
       </c>
       <c r="F69" s="17" t="str">
-        <f t="shared" ref="F69:F104" si="26">H69&amp;I69</f>
+        <f t="shared" ref="F69:F104" si="30">H69&amp;I69</f>
         <v>1적</v>
       </c>
       <c r="G69" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0000000000000001E+136</v>
       </c>
       <c r="H69" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="I69" s="16" t="str" cm="1">
@@ -9270,7 +9706,7 @@
         <v>적</v>
       </c>
       <c r="J69" s="16" t="str">
-        <f>VLOOKUP(I69,N:Q,4,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>1E+136</v>
       </c>
       <c r="K69" s="22">
@@ -9286,15 +9722,15 @@
         <v>61</v>
       </c>
       <c r="F70" s="17" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>10적</v>
       </c>
       <c r="G70" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1E+137</v>
       </c>
       <c r="H70" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="I70" s="16" t="str" cm="1">
@@ -9302,7 +9738,7 @@
         <v>적</v>
       </c>
       <c r="J70" s="16" t="str">
-        <f>VLOOKUP(I70,N:Q,4,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>1E+136</v>
       </c>
       <c r="K70" s="22">
@@ -9318,15 +9754,15 @@
         <v>62</v>
       </c>
       <c r="F71" s="17" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>100적</v>
       </c>
       <c r="G71" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1E+138</v>
       </c>
       <c r="H71" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="I71" s="16" t="str" cm="1">
@@ -9334,7 +9770,7 @@
         <v>적</v>
       </c>
       <c r="J71" s="16" t="str">
-        <f>VLOOKUP(I71,N:Q,4,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>1E+136</v>
       </c>
       <c r="K71" s="22">
@@ -9350,15 +9786,15 @@
         <v>63</v>
       </c>
       <c r="F72" s="17" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1000적</v>
       </c>
       <c r="G72" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1E+139</v>
       </c>
       <c r="H72" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
       <c r="I72" s="16" t="str" cm="1">
@@ -9366,7 +9802,7 @@
         <v>적</v>
       </c>
       <c r="J72" s="16" t="str">
-        <f>VLOOKUP(I72,N:Q,4,FALSE)</f>
+        <f t="shared" si="11"/>
         <v>1E+136</v>
       </c>
       <c r="K72" s="22">
@@ -9382,15 +9818,15 @@
         <v>64</v>
       </c>
       <c r="F73" s="17" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1고</v>
       </c>
       <c r="G73" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0000000000000001E+140</v>
       </c>
       <c r="H73" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="I73" s="16" t="str" cm="1">
@@ -9398,7 +9834,7 @@
         <v>고</v>
       </c>
       <c r="J73" s="16" t="str">
-        <f>VLOOKUP(I73,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J73:J104" si="31">VLOOKUP(I73,N:Q,4,FALSE)</f>
         <v>1E+140</v>
       </c>
       <c r="K73" s="22">
@@ -9414,15 +9850,15 @@
         <v>65</v>
       </c>
       <c r="F74" s="17" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>10고</v>
       </c>
       <c r="G74" s="17">
-        <f t="shared" ref="G74:G104" si="27">H74*J74</f>
+        <f t="shared" ref="G74:G104" si="32">H74*J74</f>
         <v>1E+141</v>
       </c>
       <c r="H74" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="I74" s="16" t="str" cm="1">
@@ -9430,7 +9866,7 @@
         <v>고</v>
       </c>
       <c r="J74" s="16" t="str">
-        <f>VLOOKUP(I74,N:Q,4,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>1E+140</v>
       </c>
       <c r="K74" s="22">
@@ -9446,15 +9882,15 @@
         <v>66</v>
       </c>
       <c r="F75" s="17" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>100고</v>
       </c>
       <c r="G75" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>1.0000000000000001E+142</v>
       </c>
       <c r="H75" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="I75" s="16" t="str" cm="1">
@@ -9462,7 +9898,7 @@
         <v>고</v>
       </c>
       <c r="J75" s="16" t="str">
-        <f>VLOOKUP(I75,N:Q,4,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>1E+140</v>
       </c>
       <c r="K75" s="22">
@@ -9478,15 +9914,15 @@
         <v>67</v>
       </c>
       <c r="F76" s="17" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1000고</v>
       </c>
       <c r="G76" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>1E+143</v>
       </c>
       <c r="H76" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
       <c r="I76" s="16" t="str" cm="1">
@@ -9494,7 +9930,7 @@
         <v>고</v>
       </c>
       <c r="J76" s="16" t="str">
-        <f>VLOOKUP(I76,N:Q,4,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>1E+140</v>
       </c>
       <c r="K76" s="22">
@@ -9510,15 +9946,15 @@
         <v>68</v>
       </c>
       <c r="F77" s="17" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1화</v>
       </c>
       <c r="G77" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>1E+144</v>
       </c>
       <c r="H77" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="I77" s="16" t="str" cm="1">
@@ -9526,7 +9962,7 @@
         <v>화</v>
       </c>
       <c r="J77" s="16" t="str">
-        <f>VLOOKUP(I77,N:Q,4,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>1E+144</v>
       </c>
       <c r="K77" s="22">
@@ -9542,15 +9978,15 @@
         <v>69</v>
       </c>
       <c r="F78" s="17" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>10화</v>
       </c>
       <c r="G78" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>9.9999999999999999E+144</v>
       </c>
       <c r="H78" s="17">
-        <f t="shared" ref="H78:H112" si="28">H74</f>
+        <f t="shared" ref="H78:H120" si="33">H74</f>
         <v>10</v>
       </c>
       <c r="I78" s="16" t="str" cm="1">
@@ -9558,7 +9994,7 @@
         <v>화</v>
       </c>
       <c r="J78" s="16" t="str">
-        <f>VLOOKUP(I78,N:Q,4,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>1E+144</v>
       </c>
       <c r="K78" s="22">
@@ -9574,15 +10010,15 @@
         <v>70</v>
       </c>
       <c r="F79" s="17" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>100화</v>
       </c>
       <c r="G79" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>9.9999999999999993E+145</v>
       </c>
       <c r="H79" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>100</v>
       </c>
       <c r="I79" s="16" t="str" cm="1">
@@ -9590,7 +10026,7 @@
         <v>화</v>
       </c>
       <c r="J79" s="16" t="str">
-        <f>VLOOKUP(I79,N:Q,4,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>1E+144</v>
       </c>
       <c r="K79" s="22">
@@ -9606,15 +10042,15 @@
         <v>71</v>
       </c>
       <c r="F80" s="17" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1000화</v>
       </c>
       <c r="G80" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>9.9999999999999998E+146</v>
       </c>
       <c r="H80" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>1000</v>
       </c>
       <c r="I80" s="16" t="str" cm="1">
@@ -9622,7 +10058,7 @@
         <v>화</v>
       </c>
       <c r="J80" s="16" t="str">
-        <f>VLOOKUP(I80,N:Q,4,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>1E+144</v>
       </c>
       <c r="K80" s="22">
@@ -9638,15 +10074,15 @@
         <v>72</v>
       </c>
       <c r="F81" s="17" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1명</v>
       </c>
       <c r="G81" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>1E+148</v>
       </c>
       <c r="H81" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="I81" s="16" t="str" cm="1">
@@ -9654,7 +10090,7 @@
         <v>명</v>
       </c>
       <c r="J81" s="16" t="str">
-        <f>VLOOKUP(I81,N:Q,4,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>1E+148</v>
       </c>
       <c r="K81" s="22">
@@ -9670,15 +10106,15 @@
         <v>73</v>
       </c>
       <c r="F82" s="17" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>10명</v>
       </c>
       <c r="G82" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>1E+149</v>
       </c>
       <c r="H82" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>10</v>
       </c>
       <c r="I82" s="16" t="str" cm="1">
@@ -9686,7 +10122,7 @@
         <v>명</v>
       </c>
       <c r="J82" s="16" t="str">
-        <f>VLOOKUP(I82,N:Q,4,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>1E+148</v>
       </c>
       <c r="K82" s="22">
@@ -9702,15 +10138,15 @@
         <v>74</v>
       </c>
       <c r="F83" s="17" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>100명</v>
       </c>
       <c r="G83" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>9.9999999999999998E+149</v>
       </c>
       <c r="H83" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>100</v>
       </c>
       <c r="I83" s="16" t="str" cm="1">
@@ -9718,7 +10154,7 @@
         <v>명</v>
       </c>
       <c r="J83" s="16" t="str">
-        <f>VLOOKUP(I83,N:Q,4,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>1E+148</v>
       </c>
       <c r="K83" s="22">
@@ -9734,15 +10170,15 @@
         <v>75</v>
       </c>
       <c r="F84" s="17" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1000명</v>
       </c>
       <c r="G84" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>1E+151</v>
       </c>
       <c r="H84" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>1000</v>
       </c>
       <c r="I84" s="16" t="str" cm="1">
@@ -9750,7 +10186,7 @@
         <v>명</v>
       </c>
       <c r="J84" s="16" t="str">
-        <f>VLOOKUP(I84,N:Q,4,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>1E+148</v>
       </c>
       <c r="K84" s="22">
@@ -9766,15 +10202,15 @@
         <v>76</v>
       </c>
       <c r="F85" s="17" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1월</v>
       </c>
       <c r="G85" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>1E+152</v>
       </c>
       <c r="H85" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="I85" s="16" t="str" cm="1">
@@ -9782,7 +10218,7 @@
         <v>월</v>
       </c>
       <c r="J85" s="16" t="str">
-        <f>VLOOKUP(I85,N:Q,4,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>1E+152</v>
       </c>
       <c r="K85" s="22">
@@ -9798,15 +10234,15 @@
         <v>77</v>
       </c>
       <c r="F86" s="17" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>10월</v>
       </c>
       <c r="G86" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>1E+153</v>
       </c>
       <c r="H86" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>10</v>
       </c>
       <c r="I86" s="16" t="str" cm="1">
@@ -9814,7 +10250,7 @@
         <v>월</v>
       </c>
       <c r="J86" s="16" t="str">
-        <f>VLOOKUP(I86,N:Q,4,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>1E+152</v>
       </c>
       <c r="K86" s="22">
@@ -9830,15 +10266,15 @@
         <v>78</v>
       </c>
       <c r="F87" s="17" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>100월</v>
       </c>
       <c r="G87" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>1E+154</v>
       </c>
       <c r="H87" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>100</v>
       </c>
       <c r="I87" s="16" t="str" cm="1">
@@ -9846,7 +10282,7 @@
         <v>월</v>
       </c>
       <c r="J87" s="16" t="str">
-        <f>VLOOKUP(I87,N:Q,4,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>1E+152</v>
       </c>
       <c r="K87" s="22">
@@ -9862,15 +10298,15 @@
         <v>79</v>
       </c>
       <c r="F88" s="17" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1000월</v>
       </c>
       <c r="G88" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>1E+155</v>
       </c>
       <c r="H88" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>1000</v>
       </c>
       <c r="I88" s="16" t="str" cm="1">
@@ -9878,7 +10314,7 @@
         <v>월</v>
       </c>
       <c r="J88" s="16" t="str">
-        <f>VLOOKUP(I88,N:Q,4,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>1E+152</v>
       </c>
       <c r="K88" s="22">
@@ -9894,15 +10330,15 @@
         <v>80</v>
       </c>
       <c r="F89" s="17" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1후</v>
       </c>
       <c r="G89" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>9.9999999999999998E+155</v>
       </c>
       <c r="H89" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="I89" s="16" t="str" cm="1">
@@ -9910,7 +10346,7 @@
         <v>후</v>
       </c>
       <c r="J89" s="16" t="str">
-        <f>VLOOKUP(I89,N:Q,4,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>1E+156</v>
       </c>
       <c r="K89" s="22">
@@ -9926,15 +10362,15 @@
         <v>81</v>
       </c>
       <c r="F90" s="17" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>10후</v>
       </c>
       <c r="G90" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>9.9999999999999998E+156</v>
       </c>
       <c r="H90" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>10</v>
       </c>
       <c r="I90" s="16" t="str" cm="1">
@@ -9942,7 +10378,7 @@
         <v>후</v>
       </c>
       <c r="J90" s="16" t="str">
-        <f>VLOOKUP(I90,N:Q,4,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>1E+156</v>
       </c>
       <c r="K90" s="22">
@@ -9958,15 +10394,15 @@
         <v>82</v>
       </c>
       <c r="F91" s="17" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>100후</v>
       </c>
       <c r="G91" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>9.9999999999999995E+157</v>
       </c>
       <c r="H91" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>100</v>
       </c>
       <c r="I91" s="16" t="str" cm="1">
@@ -9974,7 +10410,7 @@
         <v>후</v>
       </c>
       <c r="J91" s="16" t="str">
-        <f>VLOOKUP(I91,N:Q,4,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>1E+156</v>
       </c>
       <c r="K91" s="22">
@@ -9990,15 +10426,15 @@
         <v>83</v>
       </c>
       <c r="F92" s="17" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1000후</v>
       </c>
       <c r="G92" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>9.9999999999999993E+158</v>
       </c>
       <c r="H92" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>1000</v>
       </c>
       <c r="I92" s="16" t="str" cm="1">
@@ -10006,7 +10442,7 @@
         <v>후</v>
       </c>
       <c r="J92" s="16" t="str">
-        <f>VLOOKUP(I92,N:Q,4,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>1E+156</v>
       </c>
       <c r="K92" s="22">
@@ -10022,15 +10458,15 @@
         <v>84</v>
       </c>
       <c r="F93" s="17" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1단</v>
       </c>
       <c r="G93" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>1E+160</v>
       </c>
       <c r="H93" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="I93" s="16" t="str" cm="1">
@@ -10038,7 +10474,7 @@
         <v>단</v>
       </c>
       <c r="J93" s="16" t="str">
-        <f>VLOOKUP(I93,N:Q,4,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>1E+160</v>
       </c>
       <c r="K93" s="22">
@@ -10054,15 +10490,15 @@
         <v>85</v>
       </c>
       <c r="F94" s="17" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>10단</v>
       </c>
       <c r="G94" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>1E+161</v>
       </c>
       <c r="H94" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>10</v>
       </c>
       <c r="I94" s="16" t="str" cm="1">
@@ -10070,7 +10506,7 @@
         <v>단</v>
       </c>
       <c r="J94" s="16" t="str">
-        <f>VLOOKUP(I94,N:Q,4,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>1E+160</v>
       </c>
       <c r="K94" s="22">
@@ -10086,15 +10522,15 @@
         <v>86</v>
       </c>
       <c r="F95" s="17" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>100단</v>
       </c>
       <c r="G95" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>9.9999999999999994E+161</v>
       </c>
       <c r="H95" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>100</v>
       </c>
       <c r="I95" s="16" t="str" cm="1">
@@ -10102,7 +10538,7 @@
         <v>단</v>
       </c>
       <c r="J95" s="16" t="str">
-        <f>VLOOKUP(I95,N:Q,4,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>1E+160</v>
       </c>
       <c r="K95" s="22">
@@ -10118,15 +10554,15 @@
         <v>87</v>
       </c>
       <c r="F96" s="17" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1000단</v>
       </c>
       <c r="G96" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>9.9999999999999994E+162</v>
       </c>
       <c r="H96" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>1000</v>
       </c>
       <c r="I96" s="16" t="str" cm="1">
@@ -10134,7 +10570,7 @@
         <v>단</v>
       </c>
       <c r="J96" s="16" t="str">
-        <f>VLOOKUP(I96,N:Q,4,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>1E+160</v>
       </c>
       <c r="K96" s="22">
@@ -10150,15 +10586,15 @@
         <v>88</v>
       </c>
       <c r="F97" s="17" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1절</v>
       </c>
       <c r="G97" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>1E+164</v>
       </c>
       <c r="H97" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="I97" s="16" t="str" cm="1">
@@ -10166,7 +10602,7 @@
         <v>절</v>
       </c>
       <c r="J97" s="16" t="str">
-        <f>VLOOKUP(I97,N:Q,4,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>1E+164</v>
       </c>
       <c r="K97" s="22">
@@ -10182,15 +10618,15 @@
         <v>89</v>
       </c>
       <c r="F98" s="17" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>10절</v>
       </c>
       <c r="G98" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>1.0000000000000001E+165</v>
       </c>
       <c r="H98" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>10</v>
       </c>
       <c r="I98" s="16" t="str" cm="1">
@@ -10198,7 +10634,7 @@
         <v>절</v>
       </c>
       <c r="J98" s="16" t="str">
-        <f>VLOOKUP(I98,N:Q,4,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>1E+164</v>
       </c>
       <c r="K98" s="22">
@@ -10214,15 +10650,15 @@
         <v>90</v>
       </c>
       <c r="F99" s="17" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>100절</v>
       </c>
       <c r="G99" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>9.9999999999999994E+165</v>
       </c>
       <c r="H99" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>100</v>
       </c>
       <c r="I99" s="16" t="str" cm="1">
@@ -10230,7 +10666,7 @@
         <v>절</v>
       </c>
       <c r="J99" s="16" t="str">
-        <f>VLOOKUP(I99,N:Q,4,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>1E+164</v>
       </c>
       <c r="K99" s="22">
@@ -10246,15 +10682,15 @@
         <v>91</v>
       </c>
       <c r="F100" s="17" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1000절</v>
       </c>
       <c r="G100" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>1E+167</v>
       </c>
       <c r="H100" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>1000</v>
       </c>
       <c r="I100" s="16" t="str" cm="1">
@@ -10262,7 +10698,7 @@
         <v>절</v>
       </c>
       <c r="J100" s="16" t="str">
-        <f>VLOOKUP(I100,N:Q,4,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>1E+164</v>
       </c>
       <c r="K100" s="22">
@@ -10278,15 +10714,15 @@
         <v>92</v>
       </c>
       <c r="F101" s="17" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1격</v>
       </c>
       <c r="G101" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>9.9999999999999993E+167</v>
       </c>
       <c r="H101" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="I101" s="16" t="str" cm="1">
@@ -10294,7 +10730,7 @@
         <v>격</v>
       </c>
       <c r="J101" s="16" t="str">
-        <f>VLOOKUP(I101,N:Q,4,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>1E+168</v>
       </c>
       <c r="K101" s="22">
@@ -10311,15 +10747,15 @@
         <v>93</v>
       </c>
       <c r="F102" s="17" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>10격</v>
       </c>
       <c r="G102" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>9.9999999999999993E+168</v>
       </c>
       <c r="H102" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>10</v>
       </c>
       <c r="I102" s="16" t="str" cm="1">
@@ -10327,11 +10763,11 @@
         <v>격</v>
       </c>
       <c r="J102" s="16" t="str">
-        <f>VLOOKUP(I102,N:Q,4,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>1E+168</v>
       </c>
       <c r="K102" s="22">
-        <f t="shared" ref="K102:K112" si="29">K98+1000</f>
+        <f t="shared" ref="K102:K120" si="34">K98+1000</f>
         <v>24000</v>
       </c>
       <c r="L102" s="22">
@@ -10344,15 +10780,15 @@
         <v>94</v>
       </c>
       <c r="F103" s="17" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>100격</v>
       </c>
       <c r="G103" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>9.999999999999999E+169</v>
       </c>
       <c r="H103" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>100</v>
       </c>
       <c r="I103" s="16" t="str" cm="1">
@@ -10360,11 +10796,11 @@
         <v>격</v>
       </c>
       <c r="J103" s="16" t="str">
-        <f>VLOOKUP(I103,N:Q,4,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>1E+168</v>
       </c>
       <c r="K103" s="22">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>24000</v>
       </c>
       <c r="L103" s="22">
@@ -10377,15 +10813,15 @@
         <v>95</v>
       </c>
       <c r="F104" s="17" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1000격</v>
       </c>
       <c r="G104" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>9.9999999999999995E+170</v>
       </c>
       <c r="H104" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>1000</v>
       </c>
       <c r="I104" s="16" t="str" cm="1">
@@ -10393,11 +10829,11 @@
         <v>격</v>
       </c>
       <c r="J104" s="16" t="str">
-        <f>VLOOKUP(I104,N:Q,4,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>1E+168</v>
       </c>
       <c r="K104" s="22">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>24000</v>
       </c>
       <c r="L104" s="22">
@@ -10410,15 +10846,15 @@
         <v>96</v>
       </c>
       <c r="F105" s="17" t="str">
-        <f t="shared" ref="F105:F112" si="30">H105&amp;I105</f>
+        <f t="shared" ref="F105:F112" si="35">H105&amp;I105</f>
         <v>1창</v>
       </c>
       <c r="G105" s="17">
-        <f t="shared" ref="G105:G112" si="31">H105*J105</f>
+        <f t="shared" ref="G105:G112" si="36">H105*J105</f>
         <v>1.0000000000000001E+172</v>
       </c>
       <c r="H105" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="I105" s="16" t="str" cm="1">
@@ -10426,11 +10862,11 @@
         <v>창</v>
       </c>
       <c r="J105" s="16" t="str">
-        <f>VLOOKUP(I105,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J105:J136" si="37">VLOOKUP(I105,N:Q,4,FALSE)</f>
         <v>1E+172</v>
       </c>
       <c r="K105" s="22">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>25000</v>
       </c>
       <c r="L105" s="22">
@@ -10442,15 +10878,15 @@
         <v>97</v>
       </c>
       <c r="F106" s="17" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>10창</v>
       </c>
       <c r="G106" s="17">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>1E+173</v>
       </c>
       <c r="H106" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>10</v>
       </c>
       <c r="I106" s="16" t="str" cm="1">
@@ -10458,11 +10894,11 @@
         <v>창</v>
       </c>
       <c r="J106" s="16" t="str">
-        <f>VLOOKUP(I106,N:Q,4,FALSE)</f>
+        <f t="shared" si="37"/>
         <v>1E+172</v>
       </c>
       <c r="K106" s="22">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>25000</v>
       </c>
       <c r="L106" s="22">
@@ -10474,15 +10910,15 @@
         <v>98</v>
       </c>
       <c r="F107" s="17" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>100창</v>
       </c>
       <c r="G107" s="17">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>1.0000000000000001E+174</v>
       </c>
       <c r="H107" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>100</v>
       </c>
       <c r="I107" s="16" t="str" cm="1">
@@ -10490,11 +10926,11 @@
         <v>창</v>
       </c>
       <c r="J107" s="16" t="str">
-        <f>VLOOKUP(I107,N:Q,4,FALSE)</f>
+        <f t="shared" si="37"/>
         <v>1E+172</v>
       </c>
       <c r="K107" s="22">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>25000</v>
       </c>
       <c r="L107" s="22">
@@ -10506,15 +10942,15 @@
         <v>99</v>
       </c>
       <c r="F108" s="17" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>1000창</v>
       </c>
       <c r="G108" s="17">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>1.0000000000000001E+175</v>
       </c>
       <c r="H108" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>1000</v>
       </c>
       <c r="I108" s="16" t="str" cm="1">
@@ -10522,11 +10958,11 @@
         <v>창</v>
       </c>
       <c r="J108" s="16" t="str">
-        <f>VLOOKUP(I108,N:Q,4,FALSE)</f>
+        <f t="shared" si="37"/>
         <v>1E+172</v>
       </c>
       <c r="K108" s="22">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>25000</v>
       </c>
       <c r="L108" s="22">
@@ -10538,15 +10974,15 @@
         <v>100</v>
       </c>
       <c r="F109" s="17" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>1공</v>
       </c>
       <c r="G109" s="17">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>1E+176</v>
       </c>
       <c r="H109" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="I109" s="16" t="str" cm="1">
@@ -10554,11 +10990,11 @@
         <v>공</v>
       </c>
       <c r="J109" s="16" t="str">
-        <f>VLOOKUP(I109,N:Q,4,FALSE)</f>
+        <f t="shared" si="37"/>
         <v>1E+176</v>
       </c>
       <c r="K109" s="22">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>26000</v>
       </c>
       <c r="L109" s="22">
@@ -10570,15 +11006,15 @@
         <v>101</v>
       </c>
       <c r="F110" s="17" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>10공</v>
       </c>
       <c r="G110" s="17">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>1E+177</v>
       </c>
       <c r="H110" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>10</v>
       </c>
       <c r="I110" s="16" t="str" cm="1">
@@ -10586,11 +11022,11 @@
         <v>공</v>
       </c>
       <c r="J110" s="16" t="str">
-        <f>VLOOKUP(I110,N:Q,4,FALSE)</f>
+        <f t="shared" si="37"/>
         <v>1E+176</v>
       </c>
       <c r="K110" s="22">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>26000</v>
       </c>
       <c r="L110" s="22">
@@ -10602,15 +11038,15 @@
         <v>102</v>
       </c>
       <c r="F111" s="17" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>100공</v>
       </c>
       <c r="G111" s="17">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>1.0000000000000001E+178</v>
       </c>
       <c r="H111" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>100</v>
       </c>
       <c r="I111" s="16" t="str" cm="1">
@@ -10618,11 +11054,11 @@
         <v>공</v>
       </c>
       <c r="J111" s="16" t="str">
-        <f>VLOOKUP(I111,N:Q,4,FALSE)</f>
+        <f t="shared" si="37"/>
         <v>1E+176</v>
       </c>
       <c r="K111" s="22">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>26000</v>
       </c>
       <c r="L111" s="22">
@@ -10634,15 +11070,15 @@
         <v>103</v>
       </c>
       <c r="F112" s="17" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>1000공</v>
       </c>
       <c r="G112" s="17">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>9.9999999999999998E+178</v>
       </c>
       <c r="H112" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>1000</v>
       </c>
       <c r="I112" s="16" t="str" cm="1">
@@ -10650,15 +11086,271 @@
         <v>공</v>
       </c>
       <c r="J112" s="16" t="str">
-        <f>VLOOKUP(I112,N:Q,4,FALSE)</f>
+        <f t="shared" si="37"/>
         <v>1E+176</v>
       </c>
       <c r="K112" s="22">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>26000</v>
       </c>
       <c r="L112" s="22">
         <v>20600</v>
+      </c>
+    </row>
+    <row r="113" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E113" s="16">
+        <v>104</v>
+      </c>
+      <c r="F113" s="17" t="str">
+        <f t="shared" ref="F113:F120" si="38">H113&amp;I113</f>
+        <v>1채</v>
+      </c>
+      <c r="G113" s="17">
+        <f t="shared" ref="G113:G120" si="39">H113*J113</f>
+        <v>1E+180</v>
+      </c>
+      <c r="H113" s="17">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="I113" s="16" t="str" cm="1">
+        <f t="array" ref="I113">IF(AND(H112&gt;=1000,H113&lt;2),INDEX(N:N,MATCH(I112,N:N,0)+1,0),I112)</f>
+        <v>채</v>
+      </c>
+      <c r="J113" s="16" t="str">
+        <f t="shared" ref="J113:J120" si="40">VLOOKUP(I113,N:Q,4,FALSE)</f>
+        <v>1E+180</v>
+      </c>
+      <c r="K113" s="22">
+        <f t="shared" si="34"/>
+        <v>27000</v>
+      </c>
+      <c r="L113" s="22">
+        <v>20800</v>
+      </c>
+    </row>
+    <row r="114" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E114" s="16">
+        <v>105</v>
+      </c>
+      <c r="F114" s="17" t="str">
+        <f t="shared" si="38"/>
+        <v>10채</v>
+      </c>
+      <c r="G114" s="17">
+        <f t="shared" si="39"/>
+        <v>9.9999999999999992E+180</v>
+      </c>
+      <c r="H114" s="17">
+        <f t="shared" si="33"/>
+        <v>10</v>
+      </c>
+      <c r="I114" s="16" t="str" cm="1">
+        <f t="array" ref="I114">IF(AND(H113&gt;=1000,H114&lt;2),INDEX(N:N,MATCH(I113,N:N,0)+1,0),I113)</f>
+        <v>채</v>
+      </c>
+      <c r="J114" s="16" t="str">
+        <f t="shared" si="40"/>
+        <v>1E+180</v>
+      </c>
+      <c r="K114" s="22">
+        <f t="shared" si="34"/>
+        <v>27000</v>
+      </c>
+      <c r="L114" s="22">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="115" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E115" s="16">
+        <v>106</v>
+      </c>
+      <c r="F115" s="17" t="str">
+        <f t="shared" si="38"/>
+        <v>100채</v>
+      </c>
+      <c r="G115" s="17">
+        <f t="shared" si="39"/>
+        <v>1.0000000000000001E+182</v>
+      </c>
+      <c r="H115" s="17">
+        <f t="shared" si="33"/>
+        <v>100</v>
+      </c>
+      <c r="I115" s="16" t="str" cm="1">
+        <f t="array" ref="I115">IF(AND(H114&gt;=1000,H115&lt;2),INDEX(N:N,MATCH(I114,N:N,0)+1,0),I114)</f>
+        <v>채</v>
+      </c>
+      <c r="J115" s="16" t="str">
+        <f t="shared" si="40"/>
+        <v>1E+180</v>
+      </c>
+      <c r="K115" s="22">
+        <f t="shared" si="34"/>
+        <v>27000</v>
+      </c>
+      <c r="L115" s="22">
+        <v>21200</v>
+      </c>
+    </row>
+    <row r="116" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E116" s="16">
+        <v>107</v>
+      </c>
+      <c r="F116" s="17" t="str">
+        <f t="shared" si="38"/>
+        <v>1000채</v>
+      </c>
+      <c r="G116" s="17">
+        <f t="shared" si="39"/>
+        <v>1.0000000000000001E+183</v>
+      </c>
+      <c r="H116" s="17">
+        <f t="shared" si="33"/>
+        <v>1000</v>
+      </c>
+      <c r="I116" s="16" t="str" cm="1">
+        <f t="array" ref="I116">IF(AND(H115&gt;=1000,H116&lt;2),INDEX(N:N,MATCH(I115,N:N,0)+1,0),I115)</f>
+        <v>채</v>
+      </c>
+      <c r="J116" s="16" t="str">
+        <f t="shared" si="40"/>
+        <v>1E+180</v>
+      </c>
+      <c r="K116" s="22">
+        <f t="shared" si="34"/>
+        <v>27000</v>
+      </c>
+      <c r="L116" s="22">
+        <v>21400</v>
+      </c>
+    </row>
+    <row r="117" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E117" s="16">
+        <v>108</v>
+      </c>
+      <c r="F117" s="17" t="str">
+        <f t="shared" si="38"/>
+        <v>1연</v>
+      </c>
+      <c r="G117" s="17">
+        <f t="shared" si="39"/>
+        <v>1E+184</v>
+      </c>
+      <c r="H117" s="17">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="I117" s="16" t="str" cm="1">
+        <f t="array" ref="I117">IF(AND(H116&gt;=1000,H117&lt;2),INDEX(N:N,MATCH(I116,N:N,0)+1,0),I116)</f>
+        <v>연</v>
+      </c>
+      <c r="J117" s="16" t="str">
+        <f t="shared" si="40"/>
+        <v>1E+184</v>
+      </c>
+      <c r="K117" s="22">
+        <f t="shared" si="34"/>
+        <v>28000</v>
+      </c>
+      <c r="L117" s="22">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="118" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E118" s="16">
+        <v>109</v>
+      </c>
+      <c r="F118" s="17" t="str">
+        <f t="shared" si="38"/>
+        <v>10연</v>
+      </c>
+      <c r="G118" s="17">
+        <f t="shared" si="39"/>
+        <v>9.9999999999999998E+184</v>
+      </c>
+      <c r="H118" s="17">
+        <f t="shared" si="33"/>
+        <v>10</v>
+      </c>
+      <c r="I118" s="16" t="str" cm="1">
+        <f t="array" ref="I118">IF(AND(H117&gt;=1000,H118&lt;2),INDEX(N:N,MATCH(I117,N:N,0)+1,0),I117)</f>
+        <v>연</v>
+      </c>
+      <c r="J118" s="16" t="str">
+        <f t="shared" si="40"/>
+        <v>1E+184</v>
+      </c>
+      <c r="K118" s="22">
+        <f t="shared" si="34"/>
+        <v>28000</v>
+      </c>
+      <c r="L118" s="22">
+        <v>21800</v>
+      </c>
+    </row>
+    <row r="119" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E119" s="16">
+        <v>110</v>
+      </c>
+      <c r="F119" s="17" t="str">
+        <f t="shared" si="38"/>
+        <v>100연</v>
+      </c>
+      <c r="G119" s="17">
+        <f t="shared" si="39"/>
+        <v>9.9999999999999998E+185</v>
+      </c>
+      <c r="H119" s="17">
+        <f t="shared" si="33"/>
+        <v>100</v>
+      </c>
+      <c r="I119" s="16" t="str" cm="1">
+        <f t="array" ref="I119">IF(AND(H118&gt;=1000,H119&lt;2),INDEX(N:N,MATCH(I118,N:N,0)+1,0),I118)</f>
+        <v>연</v>
+      </c>
+      <c r="J119" s="16" t="str">
+        <f t="shared" si="40"/>
+        <v>1E+184</v>
+      </c>
+      <c r="K119" s="22">
+        <f t="shared" si="34"/>
+        <v>28000</v>
+      </c>
+      <c r="L119" s="22">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="120" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E120" s="16">
+        <v>111</v>
+      </c>
+      <c r="F120" s="17" t="str">
+        <f t="shared" si="38"/>
+        <v>1000연</v>
+      </c>
+      <c r="G120" s="17">
+        <f t="shared" si="39"/>
+        <v>1.0000000000000001E+187</v>
+      </c>
+      <c r="H120" s="17">
+        <f t="shared" si="33"/>
+        <v>1000</v>
+      </c>
+      <c r="I120" s="16" t="str" cm="1">
+        <f t="array" ref="I120">IF(AND(H119&gt;=1000,H120&lt;2),INDEX(N:N,MATCH(I119,N:N,0)+1,0),I119)</f>
+        <v>연</v>
+      </c>
+      <c r="J120" s="16" t="str">
+        <f t="shared" si="40"/>
+        <v>1E+184</v>
+      </c>
+      <c r="K120" s="22">
+        <f t="shared" si="34"/>
+        <v>28000</v>
+      </c>
+      <c r="L120" s="22">
+        <v>22200</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/ByeolhoTower.xlsx
+++ b/Assets/06.Table/ByeolhoTower.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{072871A3-3A06-41FE-8EEF-F051377F75EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E9CC8D3-9A55-4FD3-BCAE-D4C14EEA8247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="79">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -365,7 +365,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>연</t>
+    <t>피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -958,11 +962,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M113"/>
+  <dimension ref="A1:M117"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F109" sqref="F109"/>
+      <selection pane="bottomLeft" activeCell="F115" sqref="F115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4328,7 +4332,7 @@
         <v>17000</v>
       </c>
       <c r="E68">
-        <f t="shared" ref="E68:E113" si="10">E67</f>
+        <f t="shared" ref="E68:E109" si="10">E67</f>
         <v>1</v>
       </c>
       <c r="F68" s="2">
@@ -4350,7 +4354,7 @@
         <v>57</v>
       </c>
       <c r="K68">
-        <f t="shared" ref="K68:K113" si="12">K67+200</f>
+        <f t="shared" ref="K68:K109" si="12">K67+200</f>
         <v>15200</v>
       </c>
       <c r="L68">
@@ -5833,7 +5837,7 @@
         <v>1</v>
       </c>
       <c r="F98" s="2">
-        <f t="shared" ref="F98:F113" si="44">F97*10</f>
+        <f t="shared" ref="F98:F109" si="44">F97*10</f>
         <v>9.9999999999999991E+171</v>
       </c>
       <c r="G98">
@@ -6429,11 +6433,11 @@
         <v>108</v>
       </c>
       <c r="B110" s="1" t="str">
-        <f t="shared" ref="B110:C110" si="68">B109</f>
+        <f>B109</f>
         <v>1-1</v>
       </c>
       <c r="C110">
-        <f t="shared" si="68"/>
+        <f>C109</f>
         <v>9054</v>
       </c>
       <c r="D110">
@@ -6441,30 +6445,30 @@
         <v>28000</v>
       </c>
       <c r="E110">
-        <f t="shared" si="10"/>
+        <f>E109</f>
         <v>1</v>
       </c>
       <c r="F110" s="2">
-        <f t="shared" si="44"/>
+        <f>F109*10</f>
         <v>1E+184</v>
       </c>
       <c r="G110">
-        <f t="shared" ref="G110:I110" si="69">G109</f>
+        <f>G109</f>
         <v>1000</v>
       </c>
       <c r="H110">
-        <f t="shared" si="69"/>
+        <f>H109</f>
         <v>8</v>
       </c>
       <c r="I110">
-        <f t="shared" si="69"/>
+        <f>I109</f>
         <v>0</v>
       </c>
       <c r="J110" t="s">
         <v>57</v>
       </c>
       <c r="K110">
-        <f t="shared" si="12"/>
+        <f>K109+200</f>
         <v>23600</v>
       </c>
       <c r="L110">
@@ -6480,11 +6484,11 @@
         <v>109</v>
       </c>
       <c r="B111" s="1" t="str">
-        <f t="shared" ref="B111:C111" si="70">B110</f>
+        <f t="shared" ref="B111:C111" si="68">B110</f>
         <v>1-1</v>
       </c>
       <c r="C111">
-        <f t="shared" si="70"/>
+        <f t="shared" si="68"/>
         <v>9054</v>
       </c>
       <c r="D111">
@@ -6492,30 +6496,30 @@
         <v>28000</v>
       </c>
       <c r="E111">
-        <f t="shared" si="10"/>
+        <f>E110</f>
         <v>1</v>
       </c>
       <c r="F111" s="2">
-        <f t="shared" si="44"/>
+        <f>F110*10</f>
         <v>9.9999999999999998E+184</v>
       </c>
       <c r="G111">
-        <f t="shared" ref="G111:I111" si="71">G110</f>
+        <f t="shared" ref="G111:I111" si="69">G110</f>
         <v>1000</v>
       </c>
       <c r="H111">
-        <f t="shared" si="71"/>
+        <f t="shared" si="69"/>
         <v>8</v>
       </c>
       <c r="I111">
-        <f t="shared" si="71"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="J111" t="s">
         <v>57</v>
       </c>
       <c r="K111">
-        <f t="shared" si="12"/>
+        <f>K110+200</f>
         <v>23800</v>
       </c>
       <c r="L111">
@@ -6531,11 +6535,11 @@
         <v>110</v>
       </c>
       <c r="B112" s="1" t="str">
-        <f t="shared" ref="B112:C112" si="72">B111</f>
+        <f t="shared" ref="B112:C112" si="70">B111</f>
         <v>1-1</v>
       </c>
       <c r="C112">
-        <f t="shared" si="72"/>
+        <f t="shared" si="70"/>
         <v>9054</v>
       </c>
       <c r="D112">
@@ -6543,30 +6547,30 @@
         <v>28000</v>
       </c>
       <c r="E112">
-        <f t="shared" si="10"/>
+        <f>E111</f>
         <v>1</v>
       </c>
       <c r="F112" s="2">
-        <f t="shared" si="44"/>
+        <f>F111*10</f>
         <v>9.9999999999999998E+185</v>
       </c>
       <c r="G112">
-        <f t="shared" ref="G112:I112" si="73">G111</f>
+        <f t="shared" ref="G112:I112" si="71">G111</f>
         <v>1000</v>
       </c>
       <c r="H112">
-        <f t="shared" si="73"/>
+        <f t="shared" si="71"/>
         <v>8</v>
       </c>
       <c r="I112">
-        <f t="shared" si="73"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="J112" t="s">
         <v>57</v>
       </c>
       <c r="K112">
-        <f t="shared" si="12"/>
+        <f>K111+200</f>
         <v>24000</v>
       </c>
       <c r="L112">
@@ -6582,11 +6586,11 @@
         <v>111</v>
       </c>
       <c r="B113" s="1" t="str">
-        <f t="shared" ref="B113:C113" si="74">B112</f>
+        <f t="shared" ref="B113:C113" si="72">B112</f>
         <v>1-1</v>
       </c>
       <c r="C113">
-        <f t="shared" si="74"/>
+        <f t="shared" si="72"/>
         <v>9054</v>
       </c>
       <c r="D113">
@@ -6594,30 +6598,30 @@
         <v>28000</v>
       </c>
       <c r="E113">
-        <f t="shared" si="10"/>
+        <f>E112</f>
         <v>1</v>
       </c>
       <c r="F113" s="2">
-        <f t="shared" si="44"/>
+        <f>F112*10</f>
         <v>9.9999999999999991E+186</v>
       </c>
       <c r="G113">
-        <f t="shared" ref="G113:I113" si="75">G112</f>
+        <f t="shared" ref="G113:I113" si="73">G112</f>
         <v>1000</v>
       </c>
       <c r="H113">
-        <f t="shared" si="75"/>
+        <f t="shared" si="73"/>
         <v>8</v>
       </c>
       <c r="I113">
-        <f t="shared" si="75"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="J113" t="s">
         <v>57</v>
       </c>
       <c r="K113">
-        <f t="shared" si="12"/>
+        <f>K112+200</f>
         <v>24200</v>
       </c>
       <c r="L113">
@@ -6628,9 +6632,213 @@
         <v>11100</v>
       </c>
     </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>112</v>
+      </c>
+      <c r="B114" s="1" t="str">
+        <f t="shared" ref="B114:C114" si="74">B113</f>
+        <v>1-1</v>
+      </c>
+      <c r="C114">
+        <f t="shared" si="74"/>
+        <v>9054</v>
+      </c>
+      <c r="D114">
+        <f>VLOOKUP(A114,Balance!E:K,7,FALSE)</f>
+        <v>29000</v>
+      </c>
+      <c r="E114">
+        <f>E113</f>
+        <v>1</v>
+      </c>
+      <c r="F114" s="2">
+        <f>F113*10</f>
+        <v>9.9999999999999987E+187</v>
+      </c>
+      <c r="G114">
+        <f t="shared" ref="G114:I114" si="75">G113</f>
+        <v>1000</v>
+      </c>
+      <c r="H114">
+        <f t="shared" si="75"/>
+        <v>8</v>
+      </c>
+      <c r="I114">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="J114" t="s">
+        <v>57</v>
+      </c>
+      <c r="K114">
+        <f>K113+200</f>
+        <v>24400</v>
+      </c>
+      <c r="L114">
+        <v>9054</v>
+      </c>
+      <c r="M114">
+        <f>VLOOKUP(A114,Balance!E:L,8,FALSE)/2</f>
+        <v>11200</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>113</v>
+      </c>
+      <c r="B115" s="1" t="str">
+        <f t="shared" ref="B115:C115" si="76">B114</f>
+        <v>1-1</v>
+      </c>
+      <c r="C115">
+        <f t="shared" si="76"/>
+        <v>9054</v>
+      </c>
+      <c r="D115">
+        <f>VLOOKUP(A115,Balance!E:K,7,FALSE)</f>
+        <v>29000</v>
+      </c>
+      <c r="E115">
+        <f>E114</f>
+        <v>1</v>
+      </c>
+      <c r="F115" s="2">
+        <f>F114*10</f>
+        <v>9.999999999999999E+188</v>
+      </c>
+      <c r="G115">
+        <f t="shared" ref="G115:I115" si="77">G114</f>
+        <v>1000</v>
+      </c>
+      <c r="H115">
+        <f t="shared" si="77"/>
+        <v>8</v>
+      </c>
+      <c r="I115">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="J115" t="s">
+        <v>57</v>
+      </c>
+      <c r="K115">
+        <f>K114+200</f>
+        <v>24600</v>
+      </c>
+      <c r="L115">
+        <v>9054</v>
+      </c>
+      <c r="M115">
+        <f>VLOOKUP(A115,Balance!E:L,8,FALSE)/2</f>
+        <v>11300</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>114</v>
+      </c>
+      <c r="B116" s="1" t="str">
+        <f t="shared" ref="B116:C116" si="78">B115</f>
+        <v>1-1</v>
+      </c>
+      <c r="C116">
+        <f t="shared" si="78"/>
+        <v>9054</v>
+      </c>
+      <c r="D116">
+        <f>VLOOKUP(A116,Balance!E:K,7,FALSE)</f>
+        <v>29000</v>
+      </c>
+      <c r="E116">
+        <f>E115</f>
+        <v>1</v>
+      </c>
+      <c r="F116" s="2">
+        <f>F115*10</f>
+        <v>9.9999999999999987E+189</v>
+      </c>
+      <c r="G116">
+        <f t="shared" ref="G116:I116" si="79">G115</f>
+        <v>1000</v>
+      </c>
+      <c r="H116">
+        <f t="shared" si="79"/>
+        <v>8</v>
+      </c>
+      <c r="I116">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="J116" t="s">
+        <v>57</v>
+      </c>
+      <c r="K116">
+        <f>K115+200</f>
+        <v>24800</v>
+      </c>
+      <c r="L116">
+        <v>9054</v>
+      </c>
+      <c r="M116">
+        <f>VLOOKUP(A116,Balance!E:L,8,FALSE)/2</f>
+        <v>11400</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>115</v>
+      </c>
+      <c r="B117" s="1" t="str">
+        <f>B116</f>
+        <v>1-1</v>
+      </c>
+      <c r="C117">
+        <f>C116</f>
+        <v>9054</v>
+      </c>
+      <c r="D117">
+        <f>VLOOKUP(A117,Balance!E:K,7,FALSE)</f>
+        <v>29000</v>
+      </c>
+      <c r="E117">
+        <f>E116</f>
+        <v>1</v>
+      </c>
+      <c r="F117" s="2">
+        <f>F116*10</f>
+        <v>9.9999999999999991E+190</v>
+      </c>
+      <c r="G117">
+        <f>G116</f>
+        <v>1000</v>
+      </c>
+      <c r="H117">
+        <f>H116</f>
+        <v>8</v>
+      </c>
+      <c r="I117">
+        <f>I116</f>
+        <v>0</v>
+      </c>
+      <c r="J117" t="s">
+        <v>57</v>
+      </c>
+      <c r="K117">
+        <f>K116+200</f>
+        <v>25000</v>
+      </c>
+      <c r="L117">
+        <v>9054</v>
+      </c>
+      <c r="M117">
+        <f>VLOOKUP(A117,Balance!E:L,8,FALSE)/2</f>
+        <v>11500</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:K113">
+  <conditionalFormatting sqref="A2:K117">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
@@ -6642,10 +6850,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4C63F0-02E4-48AB-8F58-B57B021B5DE4}">
-  <dimension ref="A1:Z120"/>
+  <dimension ref="A1:Z124"/>
   <sheetViews>
-    <sheetView topLeftCell="B96" workbookViewId="0">
-      <selection activeCell="J114" sqref="J114"/>
+    <sheetView topLeftCell="B105" workbookViewId="0">
+      <selection activeCell="K118" sqref="K118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9093,8 +9301,20 @@
         <v>14500</v>
       </c>
       <c r="M54" s="22"/>
-      <c r="P54" s="11"/>
-      <c r="Q54" s="11"/>
+      <c r="N54" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="O54" s="16">
+        <v>188</v>
+      </c>
+      <c r="P54" s="17">
+        <f t="shared" ref="P54" si="30">POWER(10,O54)</f>
+        <v>1E+188</v>
+      </c>
+      <c r="Q54" s="17" t="str">
+        <f t="shared" ref="Q54" si="31">RIGHT(P54,O54)</f>
+        <v>1E+188</v>
+      </c>
       <c r="R54" s="11"/>
       <c r="S54" s="11"/>
       <c r="T54" s="11"/>
@@ -9690,7 +9910,7 @@
         <v>60</v>
       </c>
       <c r="F69" s="17" t="str">
-        <f t="shared" ref="F69:F104" si="30">H69&amp;I69</f>
+        <f t="shared" ref="F69:F104" si="32">H69&amp;I69</f>
         <v>1적</v>
       </c>
       <c r="G69" s="17">
@@ -9722,7 +9942,7 @@
         <v>61</v>
       </c>
       <c r="F70" s="17" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>10적</v>
       </c>
       <c r="G70" s="17">
@@ -9754,7 +9974,7 @@
         <v>62</v>
       </c>
       <c r="F71" s="17" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>100적</v>
       </c>
       <c r="G71" s="17">
@@ -9786,7 +10006,7 @@
         <v>63</v>
       </c>
       <c r="F72" s="17" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1000적</v>
       </c>
       <c r="G72" s="17">
@@ -9818,7 +10038,7 @@
         <v>64</v>
       </c>
       <c r="F73" s="17" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1고</v>
       </c>
       <c r="G73" s="17">
@@ -9834,7 +10054,7 @@
         <v>고</v>
       </c>
       <c r="J73" s="16" t="str">
-        <f t="shared" ref="J73:J104" si="31">VLOOKUP(I73,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J73:J104" si="33">VLOOKUP(I73,N:Q,4,FALSE)</f>
         <v>1E+140</v>
       </c>
       <c r="K73" s="22">
@@ -9850,11 +10070,11 @@
         <v>65</v>
       </c>
       <c r="F74" s="17" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>10고</v>
       </c>
       <c r="G74" s="17">
-        <f t="shared" ref="G74:G104" si="32">H74*J74</f>
+        <f t="shared" ref="G74:G104" si="34">H74*J74</f>
         <v>1E+141</v>
       </c>
       <c r="H74" s="17">
@@ -9866,7 +10086,7 @@
         <v>고</v>
       </c>
       <c r="J74" s="16" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+140</v>
       </c>
       <c r="K74" s="22">
@@ -9882,11 +10102,11 @@
         <v>66</v>
       </c>
       <c r="F75" s="17" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>100고</v>
       </c>
       <c r="G75" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1.0000000000000001E+142</v>
       </c>
       <c r="H75" s="17">
@@ -9898,7 +10118,7 @@
         <v>고</v>
       </c>
       <c r="J75" s="16" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+140</v>
       </c>
       <c r="K75" s="22">
@@ -9914,11 +10134,11 @@
         <v>67</v>
       </c>
       <c r="F76" s="17" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1000고</v>
       </c>
       <c r="G76" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1E+143</v>
       </c>
       <c r="H76" s="17">
@@ -9930,7 +10150,7 @@
         <v>고</v>
       </c>
       <c r="J76" s="16" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+140</v>
       </c>
       <c r="K76" s="22">
@@ -9946,11 +10166,11 @@
         <v>68</v>
       </c>
       <c r="F77" s="17" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1화</v>
       </c>
       <c r="G77" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1E+144</v>
       </c>
       <c r="H77" s="17">
@@ -9962,7 +10182,7 @@
         <v>화</v>
       </c>
       <c r="J77" s="16" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+144</v>
       </c>
       <c r="K77" s="22">
@@ -9978,15 +10198,15 @@
         <v>69</v>
       </c>
       <c r="F78" s="17" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>10화</v>
       </c>
       <c r="G78" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>9.9999999999999999E+144</v>
       </c>
       <c r="H78" s="17">
-        <f t="shared" ref="H78:H120" si="33">H74</f>
+        <f t="shared" ref="H78:H124" si="35">H74</f>
         <v>10</v>
       </c>
       <c r="I78" s="16" t="str" cm="1">
@@ -9994,7 +10214,7 @@
         <v>화</v>
       </c>
       <c r="J78" s="16" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+144</v>
       </c>
       <c r="K78" s="22">
@@ -10010,15 +10230,15 @@
         <v>70</v>
       </c>
       <c r="F79" s="17" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>100화</v>
       </c>
       <c r="G79" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>9.9999999999999993E+145</v>
       </c>
       <c r="H79" s="17">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>100</v>
       </c>
       <c r="I79" s="16" t="str" cm="1">
@@ -10026,7 +10246,7 @@
         <v>화</v>
       </c>
       <c r="J79" s="16" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+144</v>
       </c>
       <c r="K79" s="22">
@@ -10042,15 +10262,15 @@
         <v>71</v>
       </c>
       <c r="F80" s="17" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1000화</v>
       </c>
       <c r="G80" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>9.9999999999999998E+146</v>
       </c>
       <c r="H80" s="17">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1000</v>
       </c>
       <c r="I80" s="16" t="str" cm="1">
@@ -10058,7 +10278,7 @@
         <v>화</v>
       </c>
       <c r="J80" s="16" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+144</v>
       </c>
       <c r="K80" s="22">
@@ -10074,15 +10294,15 @@
         <v>72</v>
       </c>
       <c r="F81" s="17" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1명</v>
       </c>
       <c r="G81" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1E+148</v>
       </c>
       <c r="H81" s="17">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="I81" s="16" t="str" cm="1">
@@ -10090,7 +10310,7 @@
         <v>명</v>
       </c>
       <c r="J81" s="16" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+148</v>
       </c>
       <c r="K81" s="22">
@@ -10106,15 +10326,15 @@
         <v>73</v>
       </c>
       <c r="F82" s="17" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>10명</v>
       </c>
       <c r="G82" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1E+149</v>
       </c>
       <c r="H82" s="17">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>10</v>
       </c>
       <c r="I82" s="16" t="str" cm="1">
@@ -10122,7 +10342,7 @@
         <v>명</v>
       </c>
       <c r="J82" s="16" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+148</v>
       </c>
       <c r="K82" s="22">
@@ -10138,15 +10358,15 @@
         <v>74</v>
       </c>
       <c r="F83" s="17" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>100명</v>
       </c>
       <c r="G83" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>9.9999999999999998E+149</v>
       </c>
       <c r="H83" s="17">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>100</v>
       </c>
       <c r="I83" s="16" t="str" cm="1">
@@ -10154,7 +10374,7 @@
         <v>명</v>
       </c>
       <c r="J83" s="16" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+148</v>
       </c>
       <c r="K83" s="22">
@@ -10170,15 +10390,15 @@
         <v>75</v>
       </c>
       <c r="F84" s="17" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1000명</v>
       </c>
       <c r="G84" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1E+151</v>
       </c>
       <c r="H84" s="17">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1000</v>
       </c>
       <c r="I84" s="16" t="str" cm="1">
@@ -10186,7 +10406,7 @@
         <v>명</v>
       </c>
       <c r="J84" s="16" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+148</v>
       </c>
       <c r="K84" s="22">
@@ -10202,15 +10422,15 @@
         <v>76</v>
       </c>
       <c r="F85" s="17" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1월</v>
       </c>
       <c r="G85" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1E+152</v>
       </c>
       <c r="H85" s="17">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="I85" s="16" t="str" cm="1">
@@ -10218,7 +10438,7 @@
         <v>월</v>
       </c>
       <c r="J85" s="16" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+152</v>
       </c>
       <c r="K85" s="22">
@@ -10234,15 +10454,15 @@
         <v>77</v>
       </c>
       <c r="F86" s="17" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>10월</v>
       </c>
       <c r="G86" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1E+153</v>
       </c>
       <c r="H86" s="17">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>10</v>
       </c>
       <c r="I86" s="16" t="str" cm="1">
@@ -10250,7 +10470,7 @@
         <v>월</v>
       </c>
       <c r="J86" s="16" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+152</v>
       </c>
       <c r="K86" s="22">
@@ -10266,15 +10486,15 @@
         <v>78</v>
       </c>
       <c r="F87" s="17" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>100월</v>
       </c>
       <c r="G87" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1E+154</v>
       </c>
       <c r="H87" s="17">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>100</v>
       </c>
       <c r="I87" s="16" t="str" cm="1">
@@ -10282,7 +10502,7 @@
         <v>월</v>
       </c>
       <c r="J87" s="16" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+152</v>
       </c>
       <c r="K87" s="22">
@@ -10298,15 +10518,15 @@
         <v>79</v>
       </c>
       <c r="F88" s="17" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1000월</v>
       </c>
       <c r="G88" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1E+155</v>
       </c>
       <c r="H88" s="17">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1000</v>
       </c>
       <c r="I88" s="16" t="str" cm="1">
@@ -10314,7 +10534,7 @@
         <v>월</v>
       </c>
       <c r="J88" s="16" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+152</v>
       </c>
       <c r="K88" s="22">
@@ -10330,15 +10550,15 @@
         <v>80</v>
       </c>
       <c r="F89" s="17" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1후</v>
       </c>
       <c r="G89" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>9.9999999999999998E+155</v>
       </c>
       <c r="H89" s="17">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="I89" s="16" t="str" cm="1">
@@ -10346,7 +10566,7 @@
         <v>후</v>
       </c>
       <c r="J89" s="16" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+156</v>
       </c>
       <c r="K89" s="22">
@@ -10362,15 +10582,15 @@
         <v>81</v>
       </c>
       <c r="F90" s="17" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>10후</v>
       </c>
       <c r="G90" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>9.9999999999999998E+156</v>
       </c>
       <c r="H90" s="17">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>10</v>
       </c>
       <c r="I90" s="16" t="str" cm="1">
@@ -10378,7 +10598,7 @@
         <v>후</v>
       </c>
       <c r="J90" s="16" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+156</v>
       </c>
       <c r="K90" s="22">
@@ -10394,15 +10614,15 @@
         <v>82</v>
       </c>
       <c r="F91" s="17" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>100후</v>
       </c>
       <c r="G91" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>9.9999999999999995E+157</v>
       </c>
       <c r="H91" s="17">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>100</v>
       </c>
       <c r="I91" s="16" t="str" cm="1">
@@ -10410,7 +10630,7 @@
         <v>후</v>
       </c>
       <c r="J91" s="16" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+156</v>
       </c>
       <c r="K91" s="22">
@@ -10426,15 +10646,15 @@
         <v>83</v>
       </c>
       <c r="F92" s="17" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1000후</v>
       </c>
       <c r="G92" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>9.9999999999999993E+158</v>
       </c>
       <c r="H92" s="17">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1000</v>
       </c>
       <c r="I92" s="16" t="str" cm="1">
@@ -10442,7 +10662,7 @@
         <v>후</v>
       </c>
       <c r="J92" s="16" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+156</v>
       </c>
       <c r="K92" s="22">
@@ -10458,15 +10678,15 @@
         <v>84</v>
       </c>
       <c r="F93" s="17" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1단</v>
       </c>
       <c r="G93" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1E+160</v>
       </c>
       <c r="H93" s="17">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="I93" s="16" t="str" cm="1">
@@ -10474,7 +10694,7 @@
         <v>단</v>
       </c>
       <c r="J93" s="16" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+160</v>
       </c>
       <c r="K93" s="22">
@@ -10490,15 +10710,15 @@
         <v>85</v>
       </c>
       <c r="F94" s="17" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>10단</v>
       </c>
       <c r="G94" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1E+161</v>
       </c>
       <c r="H94" s="17">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>10</v>
       </c>
       <c r="I94" s="16" t="str" cm="1">
@@ -10506,7 +10726,7 @@
         <v>단</v>
       </c>
       <c r="J94" s="16" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+160</v>
       </c>
       <c r="K94" s="22">
@@ -10522,15 +10742,15 @@
         <v>86</v>
       </c>
       <c r="F95" s="17" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>100단</v>
       </c>
       <c r="G95" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>9.9999999999999994E+161</v>
       </c>
       <c r="H95" s="17">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>100</v>
       </c>
       <c r="I95" s="16" t="str" cm="1">
@@ -10538,7 +10758,7 @@
         <v>단</v>
       </c>
       <c r="J95" s="16" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+160</v>
       </c>
       <c r="K95" s="22">
@@ -10554,15 +10774,15 @@
         <v>87</v>
       </c>
       <c r="F96" s="17" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1000단</v>
       </c>
       <c r="G96" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>9.9999999999999994E+162</v>
       </c>
       <c r="H96" s="17">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1000</v>
       </c>
       <c r="I96" s="16" t="str" cm="1">
@@ -10570,7 +10790,7 @@
         <v>단</v>
       </c>
       <c r="J96" s="16" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+160</v>
       </c>
       <c r="K96" s="22">
@@ -10586,15 +10806,15 @@
         <v>88</v>
       </c>
       <c r="F97" s="17" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1절</v>
       </c>
       <c r="G97" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1E+164</v>
       </c>
       <c r="H97" s="17">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="I97" s="16" t="str" cm="1">
@@ -10602,7 +10822,7 @@
         <v>절</v>
       </c>
       <c r="J97" s="16" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+164</v>
       </c>
       <c r="K97" s="22">
@@ -10618,15 +10838,15 @@
         <v>89</v>
       </c>
       <c r="F98" s="17" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>10절</v>
       </c>
       <c r="G98" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1.0000000000000001E+165</v>
       </c>
       <c r="H98" s="17">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>10</v>
       </c>
       <c r="I98" s="16" t="str" cm="1">
@@ -10634,7 +10854,7 @@
         <v>절</v>
       </c>
       <c r="J98" s="16" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+164</v>
       </c>
       <c r="K98" s="22">
@@ -10650,15 +10870,15 @@
         <v>90</v>
       </c>
       <c r="F99" s="17" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>100절</v>
       </c>
       <c r="G99" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>9.9999999999999994E+165</v>
       </c>
       <c r="H99" s="17">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>100</v>
       </c>
       <c r="I99" s="16" t="str" cm="1">
@@ -10666,7 +10886,7 @@
         <v>절</v>
       </c>
       <c r="J99" s="16" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+164</v>
       </c>
       <c r="K99" s="22">
@@ -10682,15 +10902,15 @@
         <v>91</v>
       </c>
       <c r="F100" s="17" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1000절</v>
       </c>
       <c r="G100" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1E+167</v>
       </c>
       <c r="H100" s="17">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1000</v>
       </c>
       <c r="I100" s="16" t="str" cm="1">
@@ -10698,7 +10918,7 @@
         <v>절</v>
       </c>
       <c r="J100" s="16" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+164</v>
       </c>
       <c r="K100" s="22">
@@ -10714,15 +10934,15 @@
         <v>92</v>
       </c>
       <c r="F101" s="17" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1격</v>
       </c>
       <c r="G101" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>9.9999999999999993E+167</v>
       </c>
       <c r="H101" s="17">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="I101" s="16" t="str" cm="1">
@@ -10730,7 +10950,7 @@
         <v>격</v>
       </c>
       <c r="J101" s="16" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+168</v>
       </c>
       <c r="K101" s="22">
@@ -10747,15 +10967,15 @@
         <v>93</v>
       </c>
       <c r="F102" s="17" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>10격</v>
       </c>
       <c r="G102" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>9.9999999999999993E+168</v>
       </c>
       <c r="H102" s="17">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>10</v>
       </c>
       <c r="I102" s="16" t="str" cm="1">
@@ -10763,11 +10983,11 @@
         <v>격</v>
       </c>
       <c r="J102" s="16" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+168</v>
       </c>
       <c r="K102" s="22">
-        <f t="shared" ref="K102:K120" si="34">K98+1000</f>
+        <f t="shared" ref="K102:K124" si="36">K98+1000</f>
         <v>24000</v>
       </c>
       <c r="L102" s="22">
@@ -10780,15 +11000,15 @@
         <v>94</v>
       </c>
       <c r="F103" s="17" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>100격</v>
       </c>
       <c r="G103" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>9.999999999999999E+169</v>
       </c>
       <c r="H103" s="17">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>100</v>
       </c>
       <c r="I103" s="16" t="str" cm="1">
@@ -10796,11 +11016,11 @@
         <v>격</v>
       </c>
       <c r="J103" s="16" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+168</v>
       </c>
       <c r="K103" s="22">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>24000</v>
       </c>
       <c r="L103" s="22">
@@ -10813,15 +11033,15 @@
         <v>95</v>
       </c>
       <c r="F104" s="17" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1000격</v>
       </c>
       <c r="G104" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>9.9999999999999995E+170</v>
       </c>
       <c r="H104" s="17">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1000</v>
       </c>
       <c r="I104" s="16" t="str" cm="1">
@@ -10829,11 +11049,11 @@
         <v>격</v>
       </c>
       <c r="J104" s="16" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+168</v>
       </c>
       <c r="K104" s="22">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>24000</v>
       </c>
       <c r="L104" s="22">
@@ -10846,15 +11066,15 @@
         <v>96</v>
       </c>
       <c r="F105" s="17" t="str">
-        <f t="shared" ref="F105:F112" si="35">H105&amp;I105</f>
+        <f t="shared" ref="F105:F112" si="37">H105&amp;I105</f>
         <v>1창</v>
       </c>
       <c r="G105" s="17">
-        <f t="shared" ref="G105:G112" si="36">H105*J105</f>
+        <f t="shared" ref="G105:G112" si="38">H105*J105</f>
         <v>1.0000000000000001E+172</v>
       </c>
       <c r="H105" s="17">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="I105" s="16" t="str" cm="1">
@@ -10862,11 +11082,11 @@
         <v>창</v>
       </c>
       <c r="J105" s="16" t="str">
-        <f t="shared" ref="J105:J136" si="37">VLOOKUP(I105,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J105:J112" si="39">VLOOKUP(I105,N:Q,4,FALSE)</f>
         <v>1E+172</v>
       </c>
       <c r="K105" s="22">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>25000</v>
       </c>
       <c r="L105" s="22">
@@ -10878,15 +11098,15 @@
         <v>97</v>
       </c>
       <c r="F106" s="17" t="str">
+        <f t="shared" si="37"/>
+        <v>10창</v>
+      </c>
+      <c r="G106" s="17">
+        <f t="shared" si="38"/>
+        <v>1E+173</v>
+      </c>
+      <c r="H106" s="17">
         <f t="shared" si="35"/>
-        <v>10창</v>
-      </c>
-      <c r="G106" s="17">
-        <f t="shared" si="36"/>
-        <v>1E+173</v>
-      </c>
-      <c r="H106" s="17">
-        <f t="shared" si="33"/>
         <v>10</v>
       </c>
       <c r="I106" s="16" t="str" cm="1">
@@ -10894,11 +11114,11 @@
         <v>창</v>
       </c>
       <c r="J106" s="16" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+172</v>
       </c>
       <c r="K106" s="22">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>25000</v>
       </c>
       <c r="L106" s="22">
@@ -10910,15 +11130,15 @@
         <v>98</v>
       </c>
       <c r="F107" s="17" t="str">
+        <f t="shared" si="37"/>
+        <v>100창</v>
+      </c>
+      <c r="G107" s="17">
+        <f t="shared" si="38"/>
+        <v>1.0000000000000001E+174</v>
+      </c>
+      <c r="H107" s="17">
         <f t="shared" si="35"/>
-        <v>100창</v>
-      </c>
-      <c r="G107" s="17">
-        <f t="shared" si="36"/>
-        <v>1.0000000000000001E+174</v>
-      </c>
-      <c r="H107" s="17">
-        <f t="shared" si="33"/>
         <v>100</v>
       </c>
       <c r="I107" s="16" t="str" cm="1">
@@ -10926,11 +11146,11 @@
         <v>창</v>
       </c>
       <c r="J107" s="16" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+172</v>
       </c>
       <c r="K107" s="22">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>25000</v>
       </c>
       <c r="L107" s="22">
@@ -10942,15 +11162,15 @@
         <v>99</v>
       </c>
       <c r="F108" s="17" t="str">
+        <f t="shared" si="37"/>
+        <v>1000창</v>
+      </c>
+      <c r="G108" s="17">
+        <f t="shared" si="38"/>
+        <v>1.0000000000000001E+175</v>
+      </c>
+      <c r="H108" s="17">
         <f t="shared" si="35"/>
-        <v>1000창</v>
-      </c>
-      <c r="G108" s="17">
-        <f t="shared" si="36"/>
-        <v>1.0000000000000001E+175</v>
-      </c>
-      <c r="H108" s="17">
-        <f t="shared" si="33"/>
         <v>1000</v>
       </c>
       <c r="I108" s="16" t="str" cm="1">
@@ -10958,11 +11178,11 @@
         <v>창</v>
       </c>
       <c r="J108" s="16" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+172</v>
       </c>
       <c r="K108" s="22">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>25000</v>
       </c>
       <c r="L108" s="22">
@@ -10974,15 +11194,15 @@
         <v>100</v>
       </c>
       <c r="F109" s="17" t="str">
+        <f t="shared" si="37"/>
+        <v>1공</v>
+      </c>
+      <c r="G109" s="17">
+        <f t="shared" si="38"/>
+        <v>1E+176</v>
+      </c>
+      <c r="H109" s="17">
         <f t="shared" si="35"/>
-        <v>1공</v>
-      </c>
-      <c r="G109" s="17">
-        <f t="shared" si="36"/>
-        <v>1E+176</v>
-      </c>
-      <c r="H109" s="17">
-        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="I109" s="16" t="str" cm="1">
@@ -10990,11 +11210,11 @@
         <v>공</v>
       </c>
       <c r="J109" s="16" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+176</v>
       </c>
       <c r="K109" s="22">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>26000</v>
       </c>
       <c r="L109" s="22">
@@ -11006,15 +11226,15 @@
         <v>101</v>
       </c>
       <c r="F110" s="17" t="str">
+        <f t="shared" si="37"/>
+        <v>10공</v>
+      </c>
+      <c r="G110" s="17">
+        <f t="shared" si="38"/>
+        <v>1E+177</v>
+      </c>
+      <c r="H110" s="17">
         <f t="shared" si="35"/>
-        <v>10공</v>
-      </c>
-      <c r="G110" s="17">
-        <f t="shared" si="36"/>
-        <v>1E+177</v>
-      </c>
-      <c r="H110" s="17">
-        <f t="shared" si="33"/>
         <v>10</v>
       </c>
       <c r="I110" s="16" t="str" cm="1">
@@ -11022,11 +11242,11 @@
         <v>공</v>
       </c>
       <c r="J110" s="16" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+176</v>
       </c>
       <c r="K110" s="22">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>26000</v>
       </c>
       <c r="L110" s="22">
@@ -11038,15 +11258,15 @@
         <v>102</v>
       </c>
       <c r="F111" s="17" t="str">
+        <f t="shared" si="37"/>
+        <v>100공</v>
+      </c>
+      <c r="G111" s="17">
+        <f t="shared" si="38"/>
+        <v>1.0000000000000001E+178</v>
+      </c>
+      <c r="H111" s="17">
         <f t="shared" si="35"/>
-        <v>100공</v>
-      </c>
-      <c r="G111" s="17">
-        <f t="shared" si="36"/>
-        <v>1.0000000000000001E+178</v>
-      </c>
-      <c r="H111" s="17">
-        <f t="shared" si="33"/>
         <v>100</v>
       </c>
       <c r="I111" s="16" t="str" cm="1">
@@ -11054,11 +11274,11 @@
         <v>공</v>
       </c>
       <c r="J111" s="16" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+176</v>
       </c>
       <c r="K111" s="22">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>26000</v>
       </c>
       <c r="L111" s="22">
@@ -11070,15 +11290,15 @@
         <v>103</v>
       </c>
       <c r="F112" s="17" t="str">
+        <f t="shared" si="37"/>
+        <v>1000공</v>
+      </c>
+      <c r="G112" s="17">
+        <f t="shared" si="38"/>
+        <v>9.9999999999999998E+178</v>
+      </c>
+      <c r="H112" s="17">
         <f t="shared" si="35"/>
-        <v>1000공</v>
-      </c>
-      <c r="G112" s="17">
-        <f t="shared" si="36"/>
-        <v>9.9999999999999998E+178</v>
-      </c>
-      <c r="H112" s="17">
-        <f t="shared" si="33"/>
         <v>1000</v>
       </c>
       <c r="I112" s="16" t="str" cm="1">
@@ -11086,11 +11306,11 @@
         <v>공</v>
       </c>
       <c r="J112" s="16" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+176</v>
       </c>
       <c r="K112" s="22">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>26000</v>
       </c>
       <c r="L112" s="22">
@@ -11102,15 +11322,15 @@
         <v>104</v>
       </c>
       <c r="F113" s="17" t="str">
-        <f t="shared" ref="F113:F120" si="38">H113&amp;I113</f>
+        <f t="shared" ref="F113:F120" si="40">H113&amp;I113</f>
         <v>1채</v>
       </c>
       <c r="G113" s="17">
-        <f t="shared" ref="G113:G120" si="39">H113*J113</f>
+        <f t="shared" ref="G113:G120" si="41">H113*J113</f>
         <v>1E+180</v>
       </c>
       <c r="H113" s="17">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="I113" s="16" t="str" cm="1">
@@ -11118,11 +11338,11 @@
         <v>채</v>
       </c>
       <c r="J113" s="16" t="str">
-        <f t="shared" ref="J113:J120" si="40">VLOOKUP(I113,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J113:J120" si="42">VLOOKUP(I113,N:Q,4,FALSE)</f>
         <v>1E+180</v>
       </c>
       <c r="K113" s="22">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>27000</v>
       </c>
       <c r="L113" s="22">
@@ -11134,15 +11354,15 @@
         <v>105</v>
       </c>
       <c r="F114" s="17" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>10채</v>
       </c>
       <c r="G114" s="17">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>9.9999999999999992E+180</v>
       </c>
       <c r="H114" s="17">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>10</v>
       </c>
       <c r="I114" s="16" t="str" cm="1">
@@ -11150,11 +11370,11 @@
         <v>채</v>
       </c>
       <c r="J114" s="16" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1E+180</v>
       </c>
       <c r="K114" s="22">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>27000</v>
       </c>
       <c r="L114" s="22">
@@ -11166,15 +11386,15 @@
         <v>106</v>
       </c>
       <c r="F115" s="17" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>100채</v>
       </c>
       <c r="G115" s="17">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1.0000000000000001E+182</v>
       </c>
       <c r="H115" s="17">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>100</v>
       </c>
       <c r="I115" s="16" t="str" cm="1">
@@ -11182,11 +11402,11 @@
         <v>채</v>
       </c>
       <c r="J115" s="16" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1E+180</v>
       </c>
       <c r="K115" s="22">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>27000</v>
       </c>
       <c r="L115" s="22">
@@ -11198,15 +11418,15 @@
         <v>107</v>
       </c>
       <c r="F116" s="17" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1000채</v>
       </c>
       <c r="G116" s="17">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1.0000000000000001E+183</v>
       </c>
       <c r="H116" s="17">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1000</v>
       </c>
       <c r="I116" s="16" t="str" cm="1">
@@ -11214,11 +11434,11 @@
         <v>채</v>
       </c>
       <c r="J116" s="16" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1E+180</v>
       </c>
       <c r="K116" s="22">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>27000</v>
       </c>
       <c r="L116" s="22">
@@ -11230,27 +11450,27 @@
         <v>108</v>
       </c>
       <c r="F117" s="17" t="str">
-        <f t="shared" si="38"/>
-        <v>1연</v>
+        <f t="shared" si="40"/>
+        <v>1피</v>
       </c>
       <c r="G117" s="17">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+184</v>
       </c>
       <c r="H117" s="17">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="I117" s="16" t="str" cm="1">
         <f t="array" ref="I117">IF(AND(H116&gt;=1000,H117&lt;2),INDEX(N:N,MATCH(I116,N:N,0)+1,0),I116)</f>
-        <v>연</v>
+        <v>피</v>
       </c>
       <c r="J117" s="16" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1E+184</v>
       </c>
       <c r="K117" s="22">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>28000</v>
       </c>
       <c r="L117" s="22">
@@ -11262,27 +11482,27 @@
         <v>109</v>
       </c>
       <c r="F118" s="17" t="str">
-        <f t="shared" si="38"/>
-        <v>10연</v>
+        <f t="shared" si="40"/>
+        <v>10피</v>
       </c>
       <c r="G118" s="17">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>9.9999999999999998E+184</v>
       </c>
       <c r="H118" s="17">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>10</v>
       </c>
       <c r="I118" s="16" t="str" cm="1">
         <f t="array" ref="I118">IF(AND(H117&gt;=1000,H118&lt;2),INDEX(N:N,MATCH(I117,N:N,0)+1,0),I117)</f>
-        <v>연</v>
+        <v>피</v>
       </c>
       <c r="J118" s="16" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1E+184</v>
       </c>
       <c r="K118" s="22">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>28000</v>
       </c>
       <c r="L118" s="22">
@@ -11294,27 +11514,27 @@
         <v>110</v>
       </c>
       <c r="F119" s="17" t="str">
-        <f t="shared" si="38"/>
-        <v>100연</v>
+        <f t="shared" si="40"/>
+        <v>100피</v>
       </c>
       <c r="G119" s="17">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>9.9999999999999998E+185</v>
       </c>
       <c r="H119" s="17">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>100</v>
       </c>
       <c r="I119" s="16" t="str" cm="1">
         <f t="array" ref="I119">IF(AND(H118&gt;=1000,H119&lt;2),INDEX(N:N,MATCH(I118,N:N,0)+1,0),I118)</f>
-        <v>연</v>
+        <v>피</v>
       </c>
       <c r="J119" s="16" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1E+184</v>
       </c>
       <c r="K119" s="22">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>28000</v>
       </c>
       <c r="L119" s="22">
@@ -11326,31 +11546,159 @@
         <v>111</v>
       </c>
       <c r="F120" s="17" t="str">
-        <f t="shared" si="38"/>
-        <v>1000연</v>
+        <f t="shared" si="40"/>
+        <v>1000피</v>
       </c>
       <c r="G120" s="17">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1.0000000000000001E+187</v>
       </c>
       <c r="H120" s="17">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1000</v>
       </c>
       <c r="I120" s="16" t="str" cm="1">
         <f t="array" ref="I120">IF(AND(H119&gt;=1000,H120&lt;2),INDEX(N:N,MATCH(I119,N:N,0)+1,0),I119)</f>
-        <v>연</v>
+        <v>피</v>
       </c>
       <c r="J120" s="16" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1E+184</v>
       </c>
       <c r="K120" s="22">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>28000</v>
       </c>
       <c r="L120" s="22">
         <v>22200</v>
+      </c>
+    </row>
+    <row r="121" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E121" s="16">
+        <v>112</v>
+      </c>
+      <c r="F121" s="17" t="str">
+        <f t="shared" ref="F121:F124" si="43">H121&amp;I121</f>
+        <v>1동</v>
+      </c>
+      <c r="G121" s="17">
+        <f t="shared" ref="G121:G124" si="44">H121*J121</f>
+        <v>1E+188</v>
+      </c>
+      <c r="H121" s="17">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="I121" s="16" t="str" cm="1">
+        <f t="array" ref="I121">IF(AND(H120&gt;=1000,H121&lt;2),INDEX(N:N,MATCH(I120,N:N,0)+1,0),I120)</f>
+        <v>동</v>
+      </c>
+      <c r="J121" s="16" t="str">
+        <f t="shared" ref="J121:J124" si="45">VLOOKUP(I121,N:Q,4,FALSE)</f>
+        <v>1E+188</v>
+      </c>
+      <c r="K121" s="22">
+        <f t="shared" si="36"/>
+        <v>29000</v>
+      </c>
+      <c r="L121" s="22">
+        <v>22400</v>
+      </c>
+    </row>
+    <row r="122" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E122" s="16">
+        <v>113</v>
+      </c>
+      <c r="F122" s="17" t="str">
+        <f t="shared" si="43"/>
+        <v>10동</v>
+      </c>
+      <c r="G122" s="17">
+        <f t="shared" si="44"/>
+        <v>1E+189</v>
+      </c>
+      <c r="H122" s="17">
+        <f t="shared" si="35"/>
+        <v>10</v>
+      </c>
+      <c r="I122" s="16" t="str" cm="1">
+        <f t="array" ref="I122">IF(AND(H121&gt;=1000,H122&lt;2),INDEX(N:N,MATCH(I121,N:N,0)+1,0),I121)</f>
+        <v>동</v>
+      </c>
+      <c r="J122" s="16" t="str">
+        <f t="shared" si="45"/>
+        <v>1E+188</v>
+      </c>
+      <c r="K122" s="22">
+        <f t="shared" si="36"/>
+        <v>29000</v>
+      </c>
+      <c r="L122" s="22">
+        <v>22600</v>
+      </c>
+    </row>
+    <row r="123" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E123" s="16">
+        <v>114</v>
+      </c>
+      <c r="F123" s="17" t="str">
+        <f t="shared" si="43"/>
+        <v>100동</v>
+      </c>
+      <c r="G123" s="17">
+        <f t="shared" si="44"/>
+        <v>1.0000000000000001E+190</v>
+      </c>
+      <c r="H123" s="17">
+        <f t="shared" si="35"/>
+        <v>100</v>
+      </c>
+      <c r="I123" s="16" t="str" cm="1">
+        <f t="array" ref="I123">IF(AND(H122&gt;=1000,H123&lt;2),INDEX(N:N,MATCH(I122,N:N,0)+1,0),I122)</f>
+        <v>동</v>
+      </c>
+      <c r="J123" s="16" t="str">
+        <f t="shared" si="45"/>
+        <v>1E+188</v>
+      </c>
+      <c r="K123" s="22">
+        <f t="shared" si="36"/>
+        <v>29000</v>
+      </c>
+      <c r="L123" s="22">
+        <v>22800</v>
+      </c>
+    </row>
+    <row r="124" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E124" s="16">
+        <v>115</v>
+      </c>
+      <c r="F124" s="17" t="str">
+        <f t="shared" si="43"/>
+        <v>1000동</v>
+      </c>
+      <c r="G124" s="17">
+        <f t="shared" si="44"/>
+        <v>1.0000000000000001E+191</v>
+      </c>
+      <c r="H124" s="17">
+        <f t="shared" si="35"/>
+        <v>1000</v>
+      </c>
+      <c r="I124" s="16" t="str" cm="1">
+        <f t="array" ref="I124">IF(AND(H123&gt;=1000,H124&lt;2),INDEX(N:N,MATCH(I123,N:N,0)+1,0),I123)</f>
+        <v>동</v>
+      </c>
+      <c r="J124" s="16" t="str">
+        <f t="shared" si="45"/>
+        <v>1E+188</v>
+      </c>
+      <c r="K124" s="22">
+        <f t="shared" si="36"/>
+        <v>29000</v>
+      </c>
+      <c r="L124" s="22">
+        <v>23000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/ByeolhoTower.xlsx
+++ b/Assets/06.Table/ByeolhoTower.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E9CC8D3-9A55-4FD3-BCAE-D4C14EEA8247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5D45A65-26E6-4982-8FF8-BDFBB37F5BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="80">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -370,6 +370,10 @@
   </si>
   <si>
     <t>동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>멸</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -962,11 +966,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M117"/>
+  <dimension ref="A1:M121"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F115" sqref="F115"/>
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A119" sqref="A119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6445,11 +6449,11 @@
         <v>28000</v>
       </c>
       <c r="E110">
-        <f>E109</f>
+        <f t="shared" ref="E110:E117" si="68">E109</f>
         <v>1</v>
       </c>
       <c r="F110" s="2">
-        <f>F109*10</f>
+        <f t="shared" ref="F110:F117" si="69">F109*10</f>
         <v>1E+184</v>
       </c>
       <c r="G110">
@@ -6468,7 +6472,7 @@
         <v>57</v>
       </c>
       <c r="K110">
-        <f>K109+200</f>
+        <f t="shared" ref="K110:K117" si="70">K109+200</f>
         <v>23600</v>
       </c>
       <c r="L110">
@@ -6484,11 +6488,11 @@
         <v>109</v>
       </c>
       <c r="B111" s="1" t="str">
-        <f t="shared" ref="B111:C111" si="68">B110</f>
+        <f t="shared" ref="B111:C111" si="71">B110</f>
         <v>1-1</v>
       </c>
       <c r="C111">
-        <f t="shared" si="68"/>
+        <f t="shared" si="71"/>
         <v>9054</v>
       </c>
       <c r="D111">
@@ -6496,30 +6500,30 @@
         <v>28000</v>
       </c>
       <c r="E111">
-        <f>E110</f>
+        <f t="shared" si="68"/>
         <v>1</v>
       </c>
       <c r="F111" s="2">
-        <f>F110*10</f>
+        <f t="shared" si="69"/>
         <v>9.9999999999999998E+184</v>
       </c>
       <c r="G111">
-        <f t="shared" ref="G111:I111" si="69">G110</f>
+        <f t="shared" ref="G111:I111" si="72">G110</f>
         <v>1000</v>
       </c>
       <c r="H111">
-        <f t="shared" si="69"/>
+        <f t="shared" si="72"/>
         <v>8</v>
       </c>
       <c r="I111">
-        <f t="shared" si="69"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="J111" t="s">
         <v>57</v>
       </c>
       <c r="K111">
-        <f>K110+200</f>
+        <f t="shared" si="70"/>
         <v>23800</v>
       </c>
       <c r="L111">
@@ -6535,11 +6539,11 @@
         <v>110</v>
       </c>
       <c r="B112" s="1" t="str">
-        <f t="shared" ref="B112:C112" si="70">B111</f>
+        <f t="shared" ref="B112:C112" si="73">B111</f>
         <v>1-1</v>
       </c>
       <c r="C112">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>9054</v>
       </c>
       <c r="D112">
@@ -6547,30 +6551,30 @@
         <v>28000</v>
       </c>
       <c r="E112">
-        <f>E111</f>
+        <f t="shared" si="68"/>
         <v>1</v>
       </c>
       <c r="F112" s="2">
-        <f>F111*10</f>
+        <f t="shared" si="69"/>
         <v>9.9999999999999998E+185</v>
       </c>
       <c r="G112">
-        <f t="shared" ref="G112:I112" si="71">G111</f>
+        <f t="shared" ref="G112:I112" si="74">G111</f>
         <v>1000</v>
       </c>
       <c r="H112">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>8</v>
       </c>
       <c r="I112">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="J112" t="s">
         <v>57</v>
       </c>
       <c r="K112">
-        <f>K111+200</f>
+        <f t="shared" si="70"/>
         <v>24000</v>
       </c>
       <c r="L112">
@@ -6586,11 +6590,11 @@
         <v>111</v>
       </c>
       <c r="B113" s="1" t="str">
-        <f t="shared" ref="B113:C113" si="72">B112</f>
+        <f t="shared" ref="B113:C113" si="75">B112</f>
         <v>1-1</v>
       </c>
       <c r="C113">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>9054</v>
       </c>
       <c r="D113">
@@ -6598,30 +6602,30 @@
         <v>28000</v>
       </c>
       <c r="E113">
-        <f>E112</f>
+        <f t="shared" si="68"/>
         <v>1</v>
       </c>
       <c r="F113" s="2">
-        <f>F112*10</f>
+        <f t="shared" si="69"/>
         <v>9.9999999999999991E+186</v>
       </c>
       <c r="G113">
-        <f t="shared" ref="G113:I113" si="73">G112</f>
+        <f t="shared" ref="G113:I113" si="76">G112</f>
         <v>1000</v>
       </c>
       <c r="H113">
-        <f t="shared" si="73"/>
+        <f t="shared" si="76"/>
         <v>8</v>
       </c>
       <c r="I113">
-        <f t="shared" si="73"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="J113" t="s">
         <v>57</v>
       </c>
       <c r="K113">
-        <f>K112+200</f>
+        <f t="shared" si="70"/>
         <v>24200</v>
       </c>
       <c r="L113">
@@ -6637,11 +6641,11 @@
         <v>112</v>
       </c>
       <c r="B114" s="1" t="str">
-        <f t="shared" ref="B114:C114" si="74">B113</f>
+        <f t="shared" ref="B114:C114" si="77">B113</f>
         <v>1-1</v>
       </c>
       <c r="C114">
-        <f t="shared" si="74"/>
+        <f t="shared" si="77"/>
         <v>9054</v>
       </c>
       <c r="D114">
@@ -6649,30 +6653,30 @@
         <v>29000</v>
       </c>
       <c r="E114">
-        <f>E113</f>
+        <f t="shared" si="68"/>
         <v>1</v>
       </c>
       <c r="F114" s="2">
-        <f>F113*10</f>
+        <f t="shared" si="69"/>
         <v>9.9999999999999987E+187</v>
       </c>
       <c r="G114">
-        <f t="shared" ref="G114:I114" si="75">G113</f>
+        <f t="shared" ref="G114:I114" si="78">G113</f>
         <v>1000</v>
       </c>
       <c r="H114">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>8</v>
       </c>
       <c r="I114">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="J114" t="s">
         <v>57</v>
       </c>
       <c r="K114">
-        <f>K113+200</f>
+        <f t="shared" si="70"/>
         <v>24400</v>
       </c>
       <c r="L114">
@@ -6688,11 +6692,11 @@
         <v>113</v>
       </c>
       <c r="B115" s="1" t="str">
-        <f t="shared" ref="B115:C115" si="76">B114</f>
+        <f t="shared" ref="B115:C115" si="79">B114</f>
         <v>1-1</v>
       </c>
       <c r="C115">
-        <f t="shared" si="76"/>
+        <f t="shared" si="79"/>
         <v>9054</v>
       </c>
       <c r="D115">
@@ -6700,30 +6704,30 @@
         <v>29000</v>
       </c>
       <c r="E115">
-        <f>E114</f>
+        <f t="shared" si="68"/>
         <v>1</v>
       </c>
       <c r="F115" s="2">
-        <f>F114*10</f>
+        <f t="shared" si="69"/>
         <v>9.999999999999999E+188</v>
       </c>
       <c r="G115">
-        <f t="shared" ref="G115:I115" si="77">G114</f>
+        <f t="shared" ref="G115:I115" si="80">G114</f>
         <v>1000</v>
       </c>
       <c r="H115">
-        <f t="shared" si="77"/>
+        <f t="shared" si="80"/>
         <v>8</v>
       </c>
       <c r="I115">
-        <f t="shared" si="77"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="J115" t="s">
         <v>57</v>
       </c>
       <c r="K115">
-        <f>K114+200</f>
+        <f t="shared" si="70"/>
         <v>24600</v>
       </c>
       <c r="L115">
@@ -6739,11 +6743,11 @@
         <v>114</v>
       </c>
       <c r="B116" s="1" t="str">
-        <f t="shared" ref="B116:C116" si="78">B115</f>
+        <f t="shared" ref="B116:C116" si="81">B115</f>
         <v>1-1</v>
       </c>
       <c r="C116">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>9054</v>
       </c>
       <c r="D116">
@@ -6751,30 +6755,30 @@
         <v>29000</v>
       </c>
       <c r="E116">
-        <f>E115</f>
+        <f t="shared" si="68"/>
         <v>1</v>
       </c>
       <c r="F116" s="2">
-        <f>F115*10</f>
+        <f t="shared" si="69"/>
         <v>9.9999999999999987E+189</v>
       </c>
       <c r="G116">
-        <f t="shared" ref="G116:I116" si="79">G115</f>
+        <f t="shared" ref="G116:I116" si="82">G115</f>
         <v>1000</v>
       </c>
       <c r="H116">
-        <f t="shared" si="79"/>
+        <f t="shared" si="82"/>
         <v>8</v>
       </c>
       <c r="I116">
-        <f t="shared" si="79"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="J116" t="s">
         <v>57</v>
       </c>
       <c r="K116">
-        <f>K115+200</f>
+        <f t="shared" si="70"/>
         <v>24800</v>
       </c>
       <c r="L116">
@@ -6802,11 +6806,11 @@
         <v>29000</v>
       </c>
       <c r="E117">
-        <f>E116</f>
+        <f t="shared" si="68"/>
         <v>1</v>
       </c>
       <c r="F117" s="2">
-        <f>F116*10</f>
+        <f t="shared" si="69"/>
         <v>9.9999999999999991E+190</v>
       </c>
       <c r="G117">
@@ -6825,7 +6829,7 @@
         <v>57</v>
       </c>
       <c r="K117">
-        <f>K116+200</f>
+        <f t="shared" si="70"/>
         <v>25000</v>
       </c>
       <c r="L117">
@@ -6836,9 +6840,213 @@
         <v>11500</v>
       </c>
     </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>116</v>
+      </c>
+      <c r="B118" s="1" t="str">
+        <f t="shared" ref="B118:C118" si="83">B117</f>
+        <v>1-1</v>
+      </c>
+      <c r="C118">
+        <f t="shared" si="83"/>
+        <v>9054</v>
+      </c>
+      <c r="D118">
+        <f>VLOOKUP(A118,Balance!E:K,7,FALSE)</f>
+        <v>30000</v>
+      </c>
+      <c r="E118">
+        <f t="shared" ref="E118:E121" si="84">E117</f>
+        <v>1</v>
+      </c>
+      <c r="F118" s="2">
+        <f t="shared" ref="F118:F121" si="85">F117*10</f>
+        <v>9.9999999999999991E+191</v>
+      </c>
+      <c r="G118">
+        <f t="shared" ref="G118:I118" si="86">G117</f>
+        <v>1000</v>
+      </c>
+      <c r="H118">
+        <f t="shared" si="86"/>
+        <v>8</v>
+      </c>
+      <c r="I118">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="J118" t="s">
+        <v>57</v>
+      </c>
+      <c r="K118">
+        <f t="shared" ref="K118:K121" si="87">K117+200</f>
+        <v>25200</v>
+      </c>
+      <c r="L118">
+        <v>9054</v>
+      </c>
+      <c r="M118">
+        <f>VLOOKUP(A118,Balance!E:L,8,FALSE)/2</f>
+        <v>11600</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>117</v>
+      </c>
+      <c r="B119" s="1" t="str">
+        <f t="shared" ref="B119:C119" si="88">B118</f>
+        <v>1-1</v>
+      </c>
+      <c r="C119">
+        <f t="shared" si="88"/>
+        <v>9054</v>
+      </c>
+      <c r="D119">
+        <f>VLOOKUP(A119,Balance!E:K,7,FALSE)</f>
+        <v>30000</v>
+      </c>
+      <c r="E119">
+        <f t="shared" si="84"/>
+        <v>1</v>
+      </c>
+      <c r="F119" s="2">
+        <f t="shared" si="85"/>
+        <v>9.9999999999999986E+192</v>
+      </c>
+      <c r="G119">
+        <f t="shared" ref="G119:I119" si="89">G118</f>
+        <v>1000</v>
+      </c>
+      <c r="H119">
+        <f t="shared" si="89"/>
+        <v>8</v>
+      </c>
+      <c r="I119">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="J119" t="s">
+        <v>57</v>
+      </c>
+      <c r="K119">
+        <f t="shared" si="87"/>
+        <v>25400</v>
+      </c>
+      <c r="L119">
+        <v>9054</v>
+      </c>
+      <c r="M119">
+        <f>VLOOKUP(A119,Balance!E:L,8,FALSE)/2</f>
+        <v>11700</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>118</v>
+      </c>
+      <c r="B120" s="1" t="str">
+        <f t="shared" ref="B120:C120" si="90">B119</f>
+        <v>1-1</v>
+      </c>
+      <c r="C120">
+        <f t="shared" si="90"/>
+        <v>9054</v>
+      </c>
+      <c r="D120">
+        <f>VLOOKUP(A120,Balance!E:K,7,FALSE)</f>
+        <v>30000</v>
+      </c>
+      <c r="E120">
+        <f t="shared" si="84"/>
+        <v>1</v>
+      </c>
+      <c r="F120" s="2">
+        <f t="shared" si="85"/>
+        <v>9.9999999999999978E+193</v>
+      </c>
+      <c r="G120">
+        <f t="shared" ref="G120:I120" si="91">G119</f>
+        <v>1000</v>
+      </c>
+      <c r="H120">
+        <f t="shared" si="91"/>
+        <v>8</v>
+      </c>
+      <c r="I120">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="J120" t="s">
+        <v>57</v>
+      </c>
+      <c r="K120">
+        <f t="shared" si="87"/>
+        <v>25600</v>
+      </c>
+      <c r="L120">
+        <v>9054</v>
+      </c>
+      <c r="M120">
+        <f>VLOOKUP(A120,Balance!E:L,8,FALSE)/2</f>
+        <v>11800</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>119</v>
+      </c>
+      <c r="B121" s="1" t="str">
+        <f t="shared" ref="B121:C121" si="92">B120</f>
+        <v>1-1</v>
+      </c>
+      <c r="C121">
+        <f t="shared" si="92"/>
+        <v>9054</v>
+      </c>
+      <c r="D121">
+        <f>VLOOKUP(A121,Balance!E:K,7,FALSE)</f>
+        <v>30000</v>
+      </c>
+      <c r="E121">
+        <f t="shared" si="84"/>
+        <v>1</v>
+      </c>
+      <c r="F121" s="2">
+        <f t="shared" si="85"/>
+        <v>9.9999999999999985E+194</v>
+      </c>
+      <c r="G121">
+        <f t="shared" ref="G121:I121" si="93">G120</f>
+        <v>1000</v>
+      </c>
+      <c r="H121">
+        <f t="shared" si="93"/>
+        <v>8</v>
+      </c>
+      <c r="I121">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="J121" t="s">
+        <v>57</v>
+      </c>
+      <c r="K121">
+        <f t="shared" si="87"/>
+        <v>25800</v>
+      </c>
+      <c r="L121">
+        <v>9054</v>
+      </c>
+      <c r="M121">
+        <f>VLOOKUP(A121,Balance!E:L,8,FALSE)/2</f>
+        <v>11900</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:K117">
+  <conditionalFormatting sqref="A2:K121">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
@@ -6850,10 +7058,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4C63F0-02E4-48AB-8F58-B57B021B5DE4}">
-  <dimension ref="A1:Z124"/>
+  <dimension ref="A1:Z128"/>
   <sheetViews>
-    <sheetView topLeftCell="B105" workbookViewId="0">
-      <selection activeCell="K118" sqref="K118"/>
+    <sheetView topLeftCell="B110" workbookViewId="0">
+      <selection activeCell="H125" sqref="H125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9356,8 +9564,20 @@
         <v>14600</v>
       </c>
       <c r="M55" s="22"/>
-      <c r="P55" s="11"/>
-      <c r="Q55" s="11"/>
+      <c r="N55" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="O55" s="16">
+        <v>192</v>
+      </c>
+      <c r="P55" s="17">
+        <f t="shared" ref="P55" si="32">POWER(10,O55)</f>
+        <v>1E+192</v>
+      </c>
+      <c r="Q55" s="17" t="str">
+        <f t="shared" ref="Q55" si="33">RIGHT(P55,O55)</f>
+        <v>1E+192</v>
+      </c>
       <c r="R55" s="11"/>
       <c r="S55" s="11"/>
       <c r="T55" s="11"/>
@@ -9910,7 +10130,7 @@
         <v>60</v>
       </c>
       <c r="F69" s="17" t="str">
-        <f t="shared" ref="F69:F104" si="32">H69&amp;I69</f>
+        <f t="shared" ref="F69:F104" si="34">H69&amp;I69</f>
         <v>1적</v>
       </c>
       <c r="G69" s="17">
@@ -9942,7 +10162,7 @@
         <v>61</v>
       </c>
       <c r="F70" s="17" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>10적</v>
       </c>
       <c r="G70" s="17">
@@ -9974,7 +10194,7 @@
         <v>62</v>
       </c>
       <c r="F71" s="17" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>100적</v>
       </c>
       <c r="G71" s="17">
@@ -10006,7 +10226,7 @@
         <v>63</v>
       </c>
       <c r="F72" s="17" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1000적</v>
       </c>
       <c r="G72" s="17">
@@ -10038,7 +10258,7 @@
         <v>64</v>
       </c>
       <c r="F73" s="17" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1고</v>
       </c>
       <c r="G73" s="17">
@@ -10054,7 +10274,7 @@
         <v>고</v>
       </c>
       <c r="J73" s="16" t="str">
-        <f t="shared" ref="J73:J104" si="33">VLOOKUP(I73,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J73:J104" si="35">VLOOKUP(I73,N:Q,4,FALSE)</f>
         <v>1E+140</v>
       </c>
       <c r="K73" s="22">
@@ -10070,11 +10290,11 @@
         <v>65</v>
       </c>
       <c r="F74" s="17" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>10고</v>
       </c>
       <c r="G74" s="17">
-        <f t="shared" ref="G74:G104" si="34">H74*J74</f>
+        <f t="shared" ref="G74:G104" si="36">H74*J74</f>
         <v>1E+141</v>
       </c>
       <c r="H74" s="17">
@@ -10086,7 +10306,7 @@
         <v>고</v>
       </c>
       <c r="J74" s="16" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+140</v>
       </c>
       <c r="K74" s="22">
@@ -10102,11 +10322,11 @@
         <v>66</v>
       </c>
       <c r="F75" s="17" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>100고</v>
       </c>
       <c r="G75" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1.0000000000000001E+142</v>
       </c>
       <c r="H75" s="17">
@@ -10118,7 +10338,7 @@
         <v>고</v>
       </c>
       <c r="J75" s="16" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+140</v>
       </c>
       <c r="K75" s="22">
@@ -10134,11 +10354,11 @@
         <v>67</v>
       </c>
       <c r="F76" s="17" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1000고</v>
       </c>
       <c r="G76" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+143</v>
       </c>
       <c r="H76" s="17">
@@ -10150,7 +10370,7 @@
         <v>고</v>
       </c>
       <c r="J76" s="16" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+140</v>
       </c>
       <c r="K76" s="22">
@@ -10166,11 +10386,11 @@
         <v>68</v>
       </c>
       <c r="F77" s="17" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1화</v>
       </c>
       <c r="G77" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+144</v>
       </c>
       <c r="H77" s="17">
@@ -10182,7 +10402,7 @@
         <v>화</v>
       </c>
       <c r="J77" s="16" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+144</v>
       </c>
       <c r="K77" s="22">
@@ -10198,15 +10418,15 @@
         <v>69</v>
       </c>
       <c r="F78" s="17" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>10화</v>
       </c>
       <c r="G78" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>9.9999999999999999E+144</v>
       </c>
       <c r="H78" s="17">
-        <f t="shared" ref="H78:H124" si="35">H74</f>
+        <f t="shared" ref="H78:H128" si="37">H74</f>
         <v>10</v>
       </c>
       <c r="I78" s="16" t="str" cm="1">
@@ -10214,7 +10434,7 @@
         <v>화</v>
       </c>
       <c r="J78" s="16" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+144</v>
       </c>
       <c r="K78" s="22">
@@ -10230,15 +10450,15 @@
         <v>70</v>
       </c>
       <c r="F79" s="17" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>100화</v>
       </c>
       <c r="G79" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>9.9999999999999993E+145</v>
       </c>
       <c r="H79" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>100</v>
       </c>
       <c r="I79" s="16" t="str" cm="1">
@@ -10246,7 +10466,7 @@
         <v>화</v>
       </c>
       <c r="J79" s="16" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+144</v>
       </c>
       <c r="K79" s="22">
@@ -10262,15 +10482,15 @@
         <v>71</v>
       </c>
       <c r="F80" s="17" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1000화</v>
       </c>
       <c r="G80" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>9.9999999999999998E+146</v>
       </c>
       <c r="H80" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1000</v>
       </c>
       <c r="I80" s="16" t="str" cm="1">
@@ -10278,7 +10498,7 @@
         <v>화</v>
       </c>
       <c r="J80" s="16" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+144</v>
       </c>
       <c r="K80" s="22">
@@ -10294,15 +10514,15 @@
         <v>72</v>
       </c>
       <c r="F81" s="17" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1명</v>
       </c>
       <c r="G81" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+148</v>
       </c>
       <c r="H81" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="I81" s="16" t="str" cm="1">
@@ -10310,7 +10530,7 @@
         <v>명</v>
       </c>
       <c r="J81" s="16" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+148</v>
       </c>
       <c r="K81" s="22">
@@ -10326,15 +10546,15 @@
         <v>73</v>
       </c>
       <c r="F82" s="17" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>10명</v>
       </c>
       <c r="G82" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+149</v>
       </c>
       <c r="H82" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>10</v>
       </c>
       <c r="I82" s="16" t="str" cm="1">
@@ -10342,7 +10562,7 @@
         <v>명</v>
       </c>
       <c r="J82" s="16" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+148</v>
       </c>
       <c r="K82" s="22">
@@ -10358,15 +10578,15 @@
         <v>74</v>
       </c>
       <c r="F83" s="17" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>100명</v>
       </c>
       <c r="G83" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>9.9999999999999998E+149</v>
       </c>
       <c r="H83" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>100</v>
       </c>
       <c r="I83" s="16" t="str" cm="1">
@@ -10374,7 +10594,7 @@
         <v>명</v>
       </c>
       <c r="J83" s="16" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+148</v>
       </c>
       <c r="K83" s="22">
@@ -10390,15 +10610,15 @@
         <v>75</v>
       </c>
       <c r="F84" s="17" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1000명</v>
       </c>
       <c r="G84" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+151</v>
       </c>
       <c r="H84" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1000</v>
       </c>
       <c r="I84" s="16" t="str" cm="1">
@@ -10406,7 +10626,7 @@
         <v>명</v>
       </c>
       <c r="J84" s="16" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+148</v>
       </c>
       <c r="K84" s="22">
@@ -10422,15 +10642,15 @@
         <v>76</v>
       </c>
       <c r="F85" s="17" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1월</v>
       </c>
       <c r="G85" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+152</v>
       </c>
       <c r="H85" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="I85" s="16" t="str" cm="1">
@@ -10438,7 +10658,7 @@
         <v>월</v>
       </c>
       <c r="J85" s="16" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+152</v>
       </c>
       <c r="K85" s="22">
@@ -10454,15 +10674,15 @@
         <v>77</v>
       </c>
       <c r="F86" s="17" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>10월</v>
       </c>
       <c r="G86" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+153</v>
       </c>
       <c r="H86" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>10</v>
       </c>
       <c r="I86" s="16" t="str" cm="1">
@@ -10470,7 +10690,7 @@
         <v>월</v>
       </c>
       <c r="J86" s="16" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+152</v>
       </c>
       <c r="K86" s="22">
@@ -10486,15 +10706,15 @@
         <v>78</v>
       </c>
       <c r="F87" s="17" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>100월</v>
       </c>
       <c r="G87" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+154</v>
       </c>
       <c r="H87" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>100</v>
       </c>
       <c r="I87" s="16" t="str" cm="1">
@@ -10502,7 +10722,7 @@
         <v>월</v>
       </c>
       <c r="J87" s="16" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+152</v>
       </c>
       <c r="K87" s="22">
@@ -10518,15 +10738,15 @@
         <v>79</v>
       </c>
       <c r="F88" s="17" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1000월</v>
       </c>
       <c r="G88" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+155</v>
       </c>
       <c r="H88" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1000</v>
       </c>
       <c r="I88" s="16" t="str" cm="1">
@@ -10534,7 +10754,7 @@
         <v>월</v>
       </c>
       <c r="J88" s="16" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+152</v>
       </c>
       <c r="K88" s="22">
@@ -10550,15 +10770,15 @@
         <v>80</v>
       </c>
       <c r="F89" s="17" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1후</v>
       </c>
       <c r="G89" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>9.9999999999999998E+155</v>
       </c>
       <c r="H89" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="I89" s="16" t="str" cm="1">
@@ -10566,7 +10786,7 @@
         <v>후</v>
       </c>
       <c r="J89" s="16" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+156</v>
       </c>
       <c r="K89" s="22">
@@ -10582,15 +10802,15 @@
         <v>81</v>
       </c>
       <c r="F90" s="17" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>10후</v>
       </c>
       <c r="G90" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>9.9999999999999998E+156</v>
       </c>
       <c r="H90" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>10</v>
       </c>
       <c r="I90" s="16" t="str" cm="1">
@@ -10598,7 +10818,7 @@
         <v>후</v>
       </c>
       <c r="J90" s="16" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+156</v>
       </c>
       <c r="K90" s="22">
@@ -10614,15 +10834,15 @@
         <v>82</v>
       </c>
       <c r="F91" s="17" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>100후</v>
       </c>
       <c r="G91" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>9.9999999999999995E+157</v>
       </c>
       <c r="H91" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>100</v>
       </c>
       <c r="I91" s="16" t="str" cm="1">
@@ -10630,7 +10850,7 @@
         <v>후</v>
       </c>
       <c r="J91" s="16" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+156</v>
       </c>
       <c r="K91" s="22">
@@ -10646,15 +10866,15 @@
         <v>83</v>
       </c>
       <c r="F92" s="17" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1000후</v>
       </c>
       <c r="G92" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>9.9999999999999993E+158</v>
       </c>
       <c r="H92" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1000</v>
       </c>
       <c r="I92" s="16" t="str" cm="1">
@@ -10662,7 +10882,7 @@
         <v>후</v>
       </c>
       <c r="J92" s="16" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+156</v>
       </c>
       <c r="K92" s="22">
@@ -10678,15 +10898,15 @@
         <v>84</v>
       </c>
       <c r="F93" s="17" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1단</v>
       </c>
       <c r="G93" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+160</v>
       </c>
       <c r="H93" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="I93" s="16" t="str" cm="1">
@@ -10694,7 +10914,7 @@
         <v>단</v>
       </c>
       <c r="J93" s="16" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+160</v>
       </c>
       <c r="K93" s="22">
@@ -10710,15 +10930,15 @@
         <v>85</v>
       </c>
       <c r="F94" s="17" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>10단</v>
       </c>
       <c r="G94" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+161</v>
       </c>
       <c r="H94" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>10</v>
       </c>
       <c r="I94" s="16" t="str" cm="1">
@@ -10726,7 +10946,7 @@
         <v>단</v>
       </c>
       <c r="J94" s="16" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+160</v>
       </c>
       <c r="K94" s="22">
@@ -10742,15 +10962,15 @@
         <v>86</v>
       </c>
       <c r="F95" s="17" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>100단</v>
       </c>
       <c r="G95" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>9.9999999999999994E+161</v>
       </c>
       <c r="H95" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>100</v>
       </c>
       <c r="I95" s="16" t="str" cm="1">
@@ -10758,7 +10978,7 @@
         <v>단</v>
       </c>
       <c r="J95" s="16" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+160</v>
       </c>
       <c r="K95" s="22">
@@ -10774,15 +10994,15 @@
         <v>87</v>
       </c>
       <c r="F96" s="17" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1000단</v>
       </c>
       <c r="G96" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>9.9999999999999994E+162</v>
       </c>
       <c r="H96" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1000</v>
       </c>
       <c r="I96" s="16" t="str" cm="1">
@@ -10790,7 +11010,7 @@
         <v>단</v>
       </c>
       <c r="J96" s="16" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+160</v>
       </c>
       <c r="K96" s="22">
@@ -10806,15 +11026,15 @@
         <v>88</v>
       </c>
       <c r="F97" s="17" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1절</v>
       </c>
       <c r="G97" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+164</v>
       </c>
       <c r="H97" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="I97" s="16" t="str" cm="1">
@@ -10822,7 +11042,7 @@
         <v>절</v>
       </c>
       <c r="J97" s="16" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+164</v>
       </c>
       <c r="K97" s="22">
@@ -10838,15 +11058,15 @@
         <v>89</v>
       </c>
       <c r="F98" s="17" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>10절</v>
       </c>
       <c r="G98" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1.0000000000000001E+165</v>
       </c>
       <c r="H98" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>10</v>
       </c>
       <c r="I98" s="16" t="str" cm="1">
@@ -10854,7 +11074,7 @@
         <v>절</v>
       </c>
       <c r="J98" s="16" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+164</v>
       </c>
       <c r="K98" s="22">
@@ -10870,15 +11090,15 @@
         <v>90</v>
       </c>
       <c r="F99" s="17" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>100절</v>
       </c>
       <c r="G99" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>9.9999999999999994E+165</v>
       </c>
       <c r="H99" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>100</v>
       </c>
       <c r="I99" s="16" t="str" cm="1">
@@ -10886,7 +11106,7 @@
         <v>절</v>
       </c>
       <c r="J99" s="16" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+164</v>
       </c>
       <c r="K99" s="22">
@@ -10902,15 +11122,15 @@
         <v>91</v>
       </c>
       <c r="F100" s="17" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1000절</v>
       </c>
       <c r="G100" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+167</v>
       </c>
       <c r="H100" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1000</v>
       </c>
       <c r="I100" s="16" t="str" cm="1">
@@ -10918,7 +11138,7 @@
         <v>절</v>
       </c>
       <c r="J100" s="16" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+164</v>
       </c>
       <c r="K100" s="22">
@@ -10934,15 +11154,15 @@
         <v>92</v>
       </c>
       <c r="F101" s="17" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1격</v>
       </c>
       <c r="G101" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>9.9999999999999993E+167</v>
       </c>
       <c r="H101" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="I101" s="16" t="str" cm="1">
@@ -10950,7 +11170,7 @@
         <v>격</v>
       </c>
       <c r="J101" s="16" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+168</v>
       </c>
       <c r="K101" s="22">
@@ -10967,15 +11187,15 @@
         <v>93</v>
       </c>
       <c r="F102" s="17" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>10격</v>
       </c>
       <c r="G102" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>9.9999999999999993E+168</v>
       </c>
       <c r="H102" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>10</v>
       </c>
       <c r="I102" s="16" t="str" cm="1">
@@ -10983,11 +11203,11 @@
         <v>격</v>
       </c>
       <c r="J102" s="16" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+168</v>
       </c>
       <c r="K102" s="22">
-        <f t="shared" ref="K102:K124" si="36">K98+1000</f>
+        <f t="shared" ref="K102:K128" si="38">K98+1000</f>
         <v>24000</v>
       </c>
       <c r="L102" s="22">
@@ -11000,15 +11220,15 @@
         <v>94</v>
       </c>
       <c r="F103" s="17" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>100격</v>
       </c>
       <c r="G103" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>9.999999999999999E+169</v>
       </c>
       <c r="H103" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>100</v>
       </c>
       <c r="I103" s="16" t="str" cm="1">
@@ -11016,11 +11236,11 @@
         <v>격</v>
       </c>
       <c r="J103" s="16" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+168</v>
       </c>
       <c r="K103" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>24000</v>
       </c>
       <c r="L103" s="22">
@@ -11033,15 +11253,15 @@
         <v>95</v>
       </c>
       <c r="F104" s="17" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1000격</v>
       </c>
       <c r="G104" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>9.9999999999999995E+170</v>
       </c>
       <c r="H104" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1000</v>
       </c>
       <c r="I104" s="16" t="str" cm="1">
@@ -11049,11 +11269,11 @@
         <v>격</v>
       </c>
       <c r="J104" s="16" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+168</v>
       </c>
       <c r="K104" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>24000</v>
       </c>
       <c r="L104" s="22">
@@ -11066,15 +11286,15 @@
         <v>96</v>
       </c>
       <c r="F105" s="17" t="str">
-        <f t="shared" ref="F105:F112" si="37">H105&amp;I105</f>
+        <f t="shared" ref="F105:F112" si="39">H105&amp;I105</f>
         <v>1창</v>
       </c>
       <c r="G105" s="17">
-        <f t="shared" ref="G105:G112" si="38">H105*J105</f>
+        <f t="shared" ref="G105:G112" si="40">H105*J105</f>
         <v>1.0000000000000001E+172</v>
       </c>
       <c r="H105" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="I105" s="16" t="str" cm="1">
@@ -11082,11 +11302,11 @@
         <v>창</v>
       </c>
       <c r="J105" s="16" t="str">
-        <f t="shared" ref="J105:J112" si="39">VLOOKUP(I105,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J105:J112" si="41">VLOOKUP(I105,N:Q,4,FALSE)</f>
         <v>1E+172</v>
       </c>
       <c r="K105" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>25000</v>
       </c>
       <c r="L105" s="22">
@@ -11098,15 +11318,15 @@
         <v>97</v>
       </c>
       <c r="F106" s="17" t="str">
+        <f t="shared" si="39"/>
+        <v>10창</v>
+      </c>
+      <c r="G106" s="17">
+        <f t="shared" si="40"/>
+        <v>1E+173</v>
+      </c>
+      <c r="H106" s="17">
         <f t="shared" si="37"/>
-        <v>10창</v>
-      </c>
-      <c r="G106" s="17">
-        <f t="shared" si="38"/>
-        <v>1E+173</v>
-      </c>
-      <c r="H106" s="17">
-        <f t="shared" si="35"/>
         <v>10</v>
       </c>
       <c r="I106" s="16" t="str" cm="1">
@@ -11114,11 +11334,11 @@
         <v>창</v>
       </c>
       <c r="J106" s="16" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+172</v>
       </c>
       <c r="K106" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>25000</v>
       </c>
       <c r="L106" s="22">
@@ -11130,15 +11350,15 @@
         <v>98</v>
       </c>
       <c r="F107" s="17" t="str">
+        <f t="shared" si="39"/>
+        <v>100창</v>
+      </c>
+      <c r="G107" s="17">
+        <f t="shared" si="40"/>
+        <v>1.0000000000000001E+174</v>
+      </c>
+      <c r="H107" s="17">
         <f t="shared" si="37"/>
-        <v>100창</v>
-      </c>
-      <c r="G107" s="17">
-        <f t="shared" si="38"/>
-        <v>1.0000000000000001E+174</v>
-      </c>
-      <c r="H107" s="17">
-        <f t="shared" si="35"/>
         <v>100</v>
       </c>
       <c r="I107" s="16" t="str" cm="1">
@@ -11146,11 +11366,11 @@
         <v>창</v>
       </c>
       <c r="J107" s="16" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+172</v>
       </c>
       <c r="K107" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>25000</v>
       </c>
       <c r="L107" s="22">
@@ -11162,15 +11382,15 @@
         <v>99</v>
       </c>
       <c r="F108" s="17" t="str">
+        <f t="shared" si="39"/>
+        <v>1000창</v>
+      </c>
+      <c r="G108" s="17">
+        <f t="shared" si="40"/>
+        <v>1.0000000000000001E+175</v>
+      </c>
+      <c r="H108" s="17">
         <f t="shared" si="37"/>
-        <v>1000창</v>
-      </c>
-      <c r="G108" s="17">
-        <f t="shared" si="38"/>
-        <v>1.0000000000000001E+175</v>
-      </c>
-      <c r="H108" s="17">
-        <f t="shared" si="35"/>
         <v>1000</v>
       </c>
       <c r="I108" s="16" t="str" cm="1">
@@ -11178,11 +11398,11 @@
         <v>창</v>
       </c>
       <c r="J108" s="16" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+172</v>
       </c>
       <c r="K108" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>25000</v>
       </c>
       <c r="L108" s="22">
@@ -11194,15 +11414,15 @@
         <v>100</v>
       </c>
       <c r="F109" s="17" t="str">
+        <f t="shared" si="39"/>
+        <v>1공</v>
+      </c>
+      <c r="G109" s="17">
+        <f t="shared" si="40"/>
+        <v>1E+176</v>
+      </c>
+      <c r="H109" s="17">
         <f t="shared" si="37"/>
-        <v>1공</v>
-      </c>
-      <c r="G109" s="17">
-        <f t="shared" si="38"/>
-        <v>1E+176</v>
-      </c>
-      <c r="H109" s="17">
-        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="I109" s="16" t="str" cm="1">
@@ -11210,11 +11430,11 @@
         <v>공</v>
       </c>
       <c r="J109" s="16" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+176</v>
       </c>
       <c r="K109" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>26000</v>
       </c>
       <c r="L109" s="22">
@@ -11226,15 +11446,15 @@
         <v>101</v>
       </c>
       <c r="F110" s="17" t="str">
+        <f t="shared" si="39"/>
+        <v>10공</v>
+      </c>
+      <c r="G110" s="17">
+        <f t="shared" si="40"/>
+        <v>1E+177</v>
+      </c>
+      <c r="H110" s="17">
         <f t="shared" si="37"/>
-        <v>10공</v>
-      </c>
-      <c r="G110" s="17">
-        <f t="shared" si="38"/>
-        <v>1E+177</v>
-      </c>
-      <c r="H110" s="17">
-        <f t="shared" si="35"/>
         <v>10</v>
       </c>
       <c r="I110" s="16" t="str" cm="1">
@@ -11242,11 +11462,11 @@
         <v>공</v>
       </c>
       <c r="J110" s="16" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+176</v>
       </c>
       <c r="K110" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>26000</v>
       </c>
       <c r="L110" s="22">
@@ -11258,15 +11478,15 @@
         <v>102</v>
       </c>
       <c r="F111" s="17" t="str">
+        <f t="shared" si="39"/>
+        <v>100공</v>
+      </c>
+      <c r="G111" s="17">
+        <f t="shared" si="40"/>
+        <v>1.0000000000000001E+178</v>
+      </c>
+      <c r="H111" s="17">
         <f t="shared" si="37"/>
-        <v>100공</v>
-      </c>
-      <c r="G111" s="17">
-        <f t="shared" si="38"/>
-        <v>1.0000000000000001E+178</v>
-      </c>
-      <c r="H111" s="17">
-        <f t="shared" si="35"/>
         <v>100</v>
       </c>
       <c r="I111" s="16" t="str" cm="1">
@@ -11274,11 +11494,11 @@
         <v>공</v>
       </c>
       <c r="J111" s="16" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+176</v>
       </c>
       <c r="K111" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>26000</v>
       </c>
       <c r="L111" s="22">
@@ -11290,15 +11510,15 @@
         <v>103</v>
       </c>
       <c r="F112" s="17" t="str">
+        <f t="shared" si="39"/>
+        <v>1000공</v>
+      </c>
+      <c r="G112" s="17">
+        <f t="shared" si="40"/>
+        <v>9.9999999999999998E+178</v>
+      </c>
+      <c r="H112" s="17">
         <f t="shared" si="37"/>
-        <v>1000공</v>
-      </c>
-      <c r="G112" s="17">
-        <f t="shared" si="38"/>
-        <v>9.9999999999999998E+178</v>
-      </c>
-      <c r="H112" s="17">
-        <f t="shared" si="35"/>
         <v>1000</v>
       </c>
       <c r="I112" s="16" t="str" cm="1">
@@ -11306,11 +11526,11 @@
         <v>공</v>
       </c>
       <c r="J112" s="16" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+176</v>
       </c>
       <c r="K112" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>26000</v>
       </c>
       <c r="L112" s="22">
@@ -11322,15 +11542,15 @@
         <v>104</v>
       </c>
       <c r="F113" s="17" t="str">
-        <f t="shared" ref="F113:F120" si="40">H113&amp;I113</f>
+        <f t="shared" ref="F113:F120" si="42">H113&amp;I113</f>
         <v>1채</v>
       </c>
       <c r="G113" s="17">
-        <f t="shared" ref="G113:G120" si="41">H113*J113</f>
+        <f t="shared" ref="G113:G120" si="43">H113*J113</f>
         <v>1E+180</v>
       </c>
       <c r="H113" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="I113" s="16" t="str" cm="1">
@@ -11338,11 +11558,11 @@
         <v>채</v>
       </c>
       <c r="J113" s="16" t="str">
-        <f t="shared" ref="J113:J120" si="42">VLOOKUP(I113,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J113:J120" si="44">VLOOKUP(I113,N:Q,4,FALSE)</f>
         <v>1E+180</v>
       </c>
       <c r="K113" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>27000</v>
       </c>
       <c r="L113" s="22">
@@ -11354,15 +11574,15 @@
         <v>105</v>
       </c>
       <c r="F114" s="17" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>10채</v>
       </c>
       <c r="G114" s="17">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>9.9999999999999992E+180</v>
       </c>
       <c r="H114" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>10</v>
       </c>
       <c r="I114" s="16" t="str" cm="1">
@@ -11370,11 +11590,11 @@
         <v>채</v>
       </c>
       <c r="J114" s="16" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1E+180</v>
       </c>
       <c r="K114" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>27000</v>
       </c>
       <c r="L114" s="22">
@@ -11386,15 +11606,15 @@
         <v>106</v>
       </c>
       <c r="F115" s="17" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>100채</v>
       </c>
       <c r="G115" s="17">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1.0000000000000001E+182</v>
       </c>
       <c r="H115" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>100</v>
       </c>
       <c r="I115" s="16" t="str" cm="1">
@@ -11402,11 +11622,11 @@
         <v>채</v>
       </c>
       <c r="J115" s="16" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1E+180</v>
       </c>
       <c r="K115" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>27000</v>
       </c>
       <c r="L115" s="22">
@@ -11418,15 +11638,15 @@
         <v>107</v>
       </c>
       <c r="F116" s="17" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1000채</v>
       </c>
       <c r="G116" s="17">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1.0000000000000001E+183</v>
       </c>
       <c r="H116" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1000</v>
       </c>
       <c r="I116" s="16" t="str" cm="1">
@@ -11434,11 +11654,11 @@
         <v>채</v>
       </c>
       <c r="J116" s="16" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1E+180</v>
       </c>
       <c r="K116" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>27000</v>
       </c>
       <c r="L116" s="22">
@@ -11450,15 +11670,15 @@
         <v>108</v>
       </c>
       <c r="F117" s="17" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1피</v>
       </c>
       <c r="G117" s="17">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1E+184</v>
       </c>
       <c r="H117" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="I117" s="16" t="str" cm="1">
@@ -11466,11 +11686,11 @@
         <v>피</v>
       </c>
       <c r="J117" s="16" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1E+184</v>
       </c>
       <c r="K117" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>28000</v>
       </c>
       <c r="L117" s="22">
@@ -11482,15 +11702,15 @@
         <v>109</v>
       </c>
       <c r="F118" s="17" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>10피</v>
       </c>
       <c r="G118" s="17">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>9.9999999999999998E+184</v>
       </c>
       <c r="H118" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>10</v>
       </c>
       <c r="I118" s="16" t="str" cm="1">
@@ -11498,11 +11718,11 @@
         <v>피</v>
       </c>
       <c r="J118" s="16" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1E+184</v>
       </c>
       <c r="K118" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>28000</v>
       </c>
       <c r="L118" s="22">
@@ -11514,15 +11734,15 @@
         <v>110</v>
       </c>
       <c r="F119" s="17" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>100피</v>
       </c>
       <c r="G119" s="17">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>9.9999999999999998E+185</v>
       </c>
       <c r="H119" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>100</v>
       </c>
       <c r="I119" s="16" t="str" cm="1">
@@ -11530,11 +11750,11 @@
         <v>피</v>
       </c>
       <c r="J119" s="16" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1E+184</v>
       </c>
       <c r="K119" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>28000</v>
       </c>
       <c r="L119" s="22">
@@ -11546,15 +11766,15 @@
         <v>111</v>
       </c>
       <c r="F120" s="17" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1000피</v>
       </c>
       <c r="G120" s="17">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1.0000000000000001E+187</v>
       </c>
       <c r="H120" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1000</v>
       </c>
       <c r="I120" s="16" t="str" cm="1">
@@ -11562,11 +11782,11 @@
         <v>피</v>
       </c>
       <c r="J120" s="16" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1E+184</v>
       </c>
       <c r="K120" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>28000</v>
       </c>
       <c r="L120" s="22">
@@ -11578,15 +11798,15 @@
         <v>112</v>
       </c>
       <c r="F121" s="17" t="str">
-        <f t="shared" ref="F121:F124" si="43">H121&amp;I121</f>
+        <f t="shared" ref="F121:F124" si="45">H121&amp;I121</f>
         <v>1동</v>
       </c>
       <c r="G121" s="17">
-        <f t="shared" ref="G121:G124" si="44">H121*J121</f>
+        <f t="shared" ref="G121:G124" si="46">H121*J121</f>
         <v>1E+188</v>
       </c>
       <c r="H121" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="I121" s="16" t="str" cm="1">
@@ -11594,11 +11814,11 @@
         <v>동</v>
       </c>
       <c r="J121" s="16" t="str">
-        <f t="shared" ref="J121:J124" si="45">VLOOKUP(I121,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J121:J124" si="47">VLOOKUP(I121,N:Q,4,FALSE)</f>
         <v>1E+188</v>
       </c>
       <c r="K121" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>29000</v>
       </c>
       <c r="L121" s="22">
@@ -11610,15 +11830,15 @@
         <v>113</v>
       </c>
       <c r="F122" s="17" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>10동</v>
       </c>
       <c r="G122" s="17">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1E+189</v>
       </c>
       <c r="H122" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>10</v>
       </c>
       <c r="I122" s="16" t="str" cm="1">
@@ -11626,11 +11846,11 @@
         <v>동</v>
       </c>
       <c r="J122" s="16" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1E+188</v>
       </c>
       <c r="K122" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>29000</v>
       </c>
       <c r="L122" s="22">
@@ -11642,15 +11862,15 @@
         <v>114</v>
       </c>
       <c r="F123" s="17" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>100동</v>
       </c>
       <c r="G123" s="17">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1.0000000000000001E+190</v>
       </c>
       <c r="H123" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>100</v>
       </c>
       <c r="I123" s="16" t="str" cm="1">
@@ -11658,11 +11878,11 @@
         <v>동</v>
       </c>
       <c r="J123" s="16" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1E+188</v>
       </c>
       <c r="K123" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>29000</v>
       </c>
       <c r="L123" s="22">
@@ -11674,15 +11894,15 @@
         <v>115</v>
       </c>
       <c r="F124" s="17" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1000동</v>
       </c>
       <c r="G124" s="17">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1.0000000000000001E+191</v>
       </c>
       <c r="H124" s="17">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1000</v>
       </c>
       <c r="I124" s="16" t="str" cm="1">
@@ -11690,15 +11910,143 @@
         <v>동</v>
       </c>
       <c r="J124" s="16" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1E+188</v>
       </c>
       <c r="K124" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>29000</v>
       </c>
       <c r="L124" s="22">
         <v>23000</v>
+      </c>
+    </row>
+    <row r="125" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E125" s="16">
+        <v>116</v>
+      </c>
+      <c r="F125" s="17" t="str">
+        <f t="shared" ref="F125:F128" si="48">H125&amp;I125</f>
+        <v>1멸</v>
+      </c>
+      <c r="G125" s="17">
+        <f t="shared" ref="G125:G128" si="49">H125*J125</f>
+        <v>1E+192</v>
+      </c>
+      <c r="H125" s="17">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+      <c r="I125" s="16" t="str" cm="1">
+        <f t="array" ref="I125">IF(AND(H124&gt;=1000,H125&lt;2),INDEX(N:N,MATCH(I124,N:N,0)+1,0),I124)</f>
+        <v>멸</v>
+      </c>
+      <c r="J125" s="16" t="str">
+        <f t="shared" ref="J125:J128" si="50">VLOOKUP(I125,N:Q,4,FALSE)</f>
+        <v>1E+192</v>
+      </c>
+      <c r="K125" s="22">
+        <f t="shared" si="38"/>
+        <v>30000</v>
+      </c>
+      <c r="L125" s="22">
+        <v>23200</v>
+      </c>
+    </row>
+    <row r="126" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E126" s="16">
+        <v>117</v>
+      </c>
+      <c r="F126" s="17" t="str">
+        <f t="shared" si="48"/>
+        <v>10멸</v>
+      </c>
+      <c r="G126" s="17">
+        <f t="shared" si="49"/>
+        <v>1.0000000000000001E+193</v>
+      </c>
+      <c r="H126" s="17">
+        <f t="shared" si="37"/>
+        <v>10</v>
+      </c>
+      <c r="I126" s="16" t="str" cm="1">
+        <f t="array" ref="I126">IF(AND(H125&gt;=1000,H126&lt;2),INDEX(N:N,MATCH(I125,N:N,0)+1,0),I125)</f>
+        <v>멸</v>
+      </c>
+      <c r="J126" s="16" t="str">
+        <f t="shared" si="50"/>
+        <v>1E+192</v>
+      </c>
+      <c r="K126" s="22">
+        <f t="shared" si="38"/>
+        <v>30000</v>
+      </c>
+      <c r="L126" s="22">
+        <v>23400</v>
+      </c>
+    </row>
+    <row r="127" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E127" s="16">
+        <v>118</v>
+      </c>
+      <c r="F127" s="17" t="str">
+        <f t="shared" si="48"/>
+        <v>100멸</v>
+      </c>
+      <c r="G127" s="17">
+        <f t="shared" si="49"/>
+        <v>1.0000000000000001E+194</v>
+      </c>
+      <c r="H127" s="17">
+        <f t="shared" si="37"/>
+        <v>100</v>
+      </c>
+      <c r="I127" s="16" t="str" cm="1">
+        <f t="array" ref="I127">IF(AND(H126&gt;=1000,H127&lt;2),INDEX(N:N,MATCH(I126,N:N,0)+1,0),I126)</f>
+        <v>멸</v>
+      </c>
+      <c r="J127" s="16" t="str">
+        <f t="shared" si="50"/>
+        <v>1E+192</v>
+      </c>
+      <c r="K127" s="22">
+        <f t="shared" si="38"/>
+        <v>30000</v>
+      </c>
+      <c r="L127" s="22">
+        <v>23600</v>
+      </c>
+    </row>
+    <row r="128" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E128" s="16">
+        <v>119</v>
+      </c>
+      <c r="F128" s="17" t="str">
+        <f t="shared" si="48"/>
+        <v>1000멸</v>
+      </c>
+      <c r="G128" s="17">
+        <f t="shared" si="49"/>
+        <v>9.9999999999999998E+194</v>
+      </c>
+      <c r="H128" s="17">
+        <f t="shared" si="37"/>
+        <v>1000</v>
+      </c>
+      <c r="I128" s="16" t="str" cm="1">
+        <f t="array" ref="I128">IF(AND(H127&gt;=1000,H128&lt;2),INDEX(N:N,MATCH(I127,N:N,0)+1,0),I127)</f>
+        <v>멸</v>
+      </c>
+      <c r="J128" s="16" t="str">
+        <f t="shared" si="50"/>
+        <v>1E+192</v>
+      </c>
+      <c r="K128" s="22">
+        <f t="shared" si="38"/>
+        <v>30000</v>
+      </c>
+      <c r="L128" s="22">
+        <v>23800</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/ByeolhoTower.xlsx
+++ b/Assets/06.Table/ByeolhoTower.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5D45A65-26E6-4982-8FF8-BDFBB37F5BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B961F694-22A7-4350-B789-09DA8B03723B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="82">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -374,6 +374,14 @@
   </si>
   <si>
     <t>멸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>향</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>증</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -966,11 +974,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M121"/>
+  <dimension ref="A1:M129"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A119" sqref="A119"/>
+      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D123" sqref="D123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6857,11 +6865,11 @@
         <v>30000</v>
       </c>
       <c r="E118">
-        <f t="shared" ref="E118:E121" si="84">E117</f>
+        <f t="shared" ref="E118:E129" si="84">E117</f>
         <v>1</v>
       </c>
       <c r="F118" s="2">
-        <f t="shared" ref="F118:F121" si="85">F117*10</f>
+        <f t="shared" ref="F118:F129" si="85">F117*10</f>
         <v>9.9999999999999991E+191</v>
       </c>
       <c r="G118">
@@ -6880,7 +6888,7 @@
         <v>57</v>
       </c>
       <c r="K118">
-        <f t="shared" ref="K118:K121" si="87">K117+200</f>
+        <f t="shared" ref="K118:K129" si="87">K117+200</f>
         <v>25200</v>
       </c>
       <c r="L118">
@@ -7044,9 +7052,417 @@
         <v>11900</v>
       </c>
     </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>120</v>
+      </c>
+      <c r="B122" s="1" t="str">
+        <f t="shared" ref="B122:C122" si="94">B121</f>
+        <v>1-1</v>
+      </c>
+      <c r="C122">
+        <f t="shared" si="94"/>
+        <v>9054</v>
+      </c>
+      <c r="D122">
+        <f>VLOOKUP(A122,Balance!E:K,7,FALSE)</f>
+        <v>31000</v>
+      </c>
+      <c r="E122">
+        <f t="shared" si="84"/>
+        <v>1</v>
+      </c>
+      <c r="F122" s="2">
+        <f t="shared" si="85"/>
+        <v>9.9999999999999995E+195</v>
+      </c>
+      <c r="G122">
+        <f t="shared" ref="G122:I122" si="95">G121</f>
+        <v>1000</v>
+      </c>
+      <c r="H122">
+        <f t="shared" si="95"/>
+        <v>8</v>
+      </c>
+      <c r="I122">
+        <f t="shared" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="J122" t="s">
+        <v>57</v>
+      </c>
+      <c r="K122">
+        <f t="shared" si="87"/>
+        <v>26000</v>
+      </c>
+      <c r="L122">
+        <v>9054</v>
+      </c>
+      <c r="M122">
+        <f>VLOOKUP(A122,Balance!E:L,8,FALSE)/2</f>
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>121</v>
+      </c>
+      <c r="B123" s="1" t="str">
+        <f>B122</f>
+        <v>1-1</v>
+      </c>
+      <c r="C123">
+        <f>C122</f>
+        <v>9054</v>
+      </c>
+      <c r="D123">
+        <f>VLOOKUP(A123,Balance!E:K,7,FALSE)</f>
+        <v>31000</v>
+      </c>
+      <c r="E123">
+        <f t="shared" si="84"/>
+        <v>1</v>
+      </c>
+      <c r="F123" s="2">
+        <f t="shared" si="85"/>
+        <v>9.9999999999999995E+196</v>
+      </c>
+      <c r="G123">
+        <f>G122</f>
+        <v>1000</v>
+      </c>
+      <c r="H123">
+        <f>H122</f>
+        <v>8</v>
+      </c>
+      <c r="I123">
+        <f>I122</f>
+        <v>0</v>
+      </c>
+      <c r="J123" t="s">
+        <v>57</v>
+      </c>
+      <c r="K123">
+        <f t="shared" si="87"/>
+        <v>26200</v>
+      </c>
+      <c r="L123">
+        <v>9054</v>
+      </c>
+      <c r="M123">
+        <f>VLOOKUP(A123,Balance!E:L,8,FALSE)/2</f>
+        <v>12100</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>122</v>
+      </c>
+      <c r="B124" s="1" t="str">
+        <f t="shared" ref="B124:C124" si="96">B123</f>
+        <v>1-1</v>
+      </c>
+      <c r="C124">
+        <f t="shared" si="96"/>
+        <v>9054</v>
+      </c>
+      <c r="D124">
+        <f>VLOOKUP(A124,Balance!E:K,7,FALSE)</f>
+        <v>31000</v>
+      </c>
+      <c r="E124">
+        <f t="shared" si="84"/>
+        <v>1</v>
+      </c>
+      <c r="F124" s="2">
+        <f t="shared" si="85"/>
+        <v>9.9999999999999988E+197</v>
+      </c>
+      <c r="G124">
+        <f t="shared" ref="G124:I124" si="97">G123</f>
+        <v>1000</v>
+      </c>
+      <c r="H124">
+        <f t="shared" si="97"/>
+        <v>8</v>
+      </c>
+      <c r="I124">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="J124" t="s">
+        <v>57</v>
+      </c>
+      <c r="K124">
+        <f t="shared" si="87"/>
+        <v>26400</v>
+      </c>
+      <c r="L124">
+        <v>9054</v>
+      </c>
+      <c r="M124">
+        <f>VLOOKUP(A124,Balance!E:L,8,FALSE)/2</f>
+        <v>12200</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>123</v>
+      </c>
+      <c r="B125" s="1" t="str">
+        <f t="shared" ref="B125:C125" si="98">B124</f>
+        <v>1-1</v>
+      </c>
+      <c r="C125">
+        <f t="shared" si="98"/>
+        <v>9054</v>
+      </c>
+      <c r="D125">
+        <f>VLOOKUP(A125,Balance!E:K,7,FALSE)</f>
+        <v>31000</v>
+      </c>
+      <c r="E125">
+        <f t="shared" si="84"/>
+        <v>1</v>
+      </c>
+      <c r="F125" s="2">
+        <f t="shared" si="85"/>
+        <v>9.9999999999999988E+198</v>
+      </c>
+      <c r="G125">
+        <f t="shared" ref="G125:I125" si="99">G124</f>
+        <v>1000</v>
+      </c>
+      <c r="H125">
+        <f t="shared" si="99"/>
+        <v>8</v>
+      </c>
+      <c r="I125">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="J125" t="s">
+        <v>57</v>
+      </c>
+      <c r="K125">
+        <f t="shared" si="87"/>
+        <v>26600</v>
+      </c>
+      <c r="L125">
+        <v>9054</v>
+      </c>
+      <c r="M125">
+        <f>VLOOKUP(A125,Balance!E:L,8,FALSE)/2</f>
+        <v>12300</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>124</v>
+      </c>
+      <c r="B126" s="1" t="str">
+        <f t="shared" ref="B126:C126" si="100">B125</f>
+        <v>1-1</v>
+      </c>
+      <c r="C126">
+        <f t="shared" si="100"/>
+        <v>9054</v>
+      </c>
+      <c r="D126">
+        <f>VLOOKUP(A126,Balance!E:K,7,FALSE)</f>
+        <v>32000</v>
+      </c>
+      <c r="E126">
+        <f t="shared" si="84"/>
+        <v>1</v>
+      </c>
+      <c r="F126" s="2">
+        <f t="shared" si="85"/>
+        <v>9.9999999999999997E+199</v>
+      </c>
+      <c r="G126">
+        <f t="shared" ref="G126:I126" si="101">G125</f>
+        <v>1000</v>
+      </c>
+      <c r="H126">
+        <f t="shared" si="101"/>
+        <v>8</v>
+      </c>
+      <c r="I126">
+        <f t="shared" si="101"/>
+        <v>0</v>
+      </c>
+      <c r="J126" t="s">
+        <v>57</v>
+      </c>
+      <c r="K126">
+        <f t="shared" si="87"/>
+        <v>26800</v>
+      </c>
+      <c r="L126">
+        <v>9054</v>
+      </c>
+      <c r="M126">
+        <f>VLOOKUP(A126,Balance!E:L,8,FALSE)/2</f>
+        <v>12400</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>125</v>
+      </c>
+      <c r="B127" s="1" t="str">
+        <f>B126</f>
+        <v>1-1</v>
+      </c>
+      <c r="C127">
+        <f>C126</f>
+        <v>9054</v>
+      </c>
+      <c r="D127">
+        <f>VLOOKUP(A127,Balance!E:K,7,FALSE)</f>
+        <v>32000</v>
+      </c>
+      <c r="E127">
+        <f t="shared" si="84"/>
+        <v>1</v>
+      </c>
+      <c r="F127" s="2">
+        <f t="shared" si="85"/>
+        <v>9.999999999999999E+200</v>
+      </c>
+      <c r="G127">
+        <f>G126</f>
+        <v>1000</v>
+      </c>
+      <c r="H127">
+        <f>H126</f>
+        <v>8</v>
+      </c>
+      <c r="I127">
+        <f>I126</f>
+        <v>0</v>
+      </c>
+      <c r="J127" t="s">
+        <v>57</v>
+      </c>
+      <c r="K127">
+        <f t="shared" si="87"/>
+        <v>27000</v>
+      </c>
+      <c r="L127">
+        <v>9054</v>
+      </c>
+      <c r="M127">
+        <f>VLOOKUP(A127,Balance!E:L,8,FALSE)/2</f>
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>126</v>
+      </c>
+      <c r="B128" s="1" t="str">
+        <f t="shared" ref="B128:C128" si="102">B127</f>
+        <v>1-1</v>
+      </c>
+      <c r="C128">
+        <f t="shared" si="102"/>
+        <v>9054</v>
+      </c>
+      <c r="D128">
+        <f>VLOOKUP(A128,Balance!E:K,7,FALSE)</f>
+        <v>32000</v>
+      </c>
+      <c r="E128">
+        <f t="shared" si="84"/>
+        <v>1</v>
+      </c>
+      <c r="F128" s="2">
+        <f t="shared" si="85"/>
+        <v>9.999999999999999E+201</v>
+      </c>
+      <c r="G128">
+        <f t="shared" ref="G128:I128" si="103">G127</f>
+        <v>1000</v>
+      </c>
+      <c r="H128">
+        <f t="shared" si="103"/>
+        <v>8</v>
+      </c>
+      <c r="I128">
+        <f t="shared" si="103"/>
+        <v>0</v>
+      </c>
+      <c r="J128" t="s">
+        <v>57</v>
+      </c>
+      <c r="K128">
+        <f t="shared" si="87"/>
+        <v>27200</v>
+      </c>
+      <c r="L128">
+        <v>9054</v>
+      </c>
+      <c r="M128">
+        <f>VLOOKUP(A128,Balance!E:L,8,FALSE)/2</f>
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>127</v>
+      </c>
+      <c r="B129" s="1" t="str">
+        <f t="shared" ref="B129:C129" si="104">B128</f>
+        <v>1-1</v>
+      </c>
+      <c r="C129">
+        <f t="shared" si="104"/>
+        <v>9054</v>
+      </c>
+      <c r="D129">
+        <f>VLOOKUP(A129,Balance!E:K,7,FALSE)</f>
+        <v>32000</v>
+      </c>
+      <c r="E129">
+        <f t="shared" si="84"/>
+        <v>1</v>
+      </c>
+      <c r="F129" s="2">
+        <f t="shared" si="85"/>
+        <v>9.9999999999999999E+202</v>
+      </c>
+      <c r="G129">
+        <f t="shared" ref="G129:I129" si="105">G128</f>
+        <v>1000</v>
+      </c>
+      <c r="H129">
+        <f t="shared" si="105"/>
+        <v>8</v>
+      </c>
+      <c r="I129">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
+      <c r="J129" t="s">
+        <v>57</v>
+      </c>
+      <c r="K129">
+        <f t="shared" si="87"/>
+        <v>27400</v>
+      </c>
+      <c r="L129">
+        <v>9054</v>
+      </c>
+      <c r="M129">
+        <f>VLOOKUP(A129,Balance!E:L,8,FALSE)/2</f>
+        <v>12700</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:K121">
+  <conditionalFormatting sqref="A2:K129">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
@@ -7058,10 +7474,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4C63F0-02E4-48AB-8F58-B57B021B5DE4}">
-  <dimension ref="A1:Z128"/>
+  <dimension ref="A1:Z136"/>
   <sheetViews>
-    <sheetView topLeftCell="B110" workbookViewId="0">
-      <selection activeCell="H125" sqref="H125"/>
+    <sheetView topLeftCell="B116" workbookViewId="0">
+      <selection activeCell="L134" sqref="L134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9619,8 +10035,20 @@
         <v>14700</v>
       </c>
       <c r="M56" s="22"/>
-      <c r="P56" s="11"/>
-      <c r="Q56" s="11"/>
+      <c r="N56" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="O56" s="16">
+        <v>196</v>
+      </c>
+      <c r="P56" s="17">
+        <f t="shared" ref="P56:P57" si="34">POWER(10,O56)</f>
+        <v>9.9999999999999995E+195</v>
+      </c>
+      <c r="Q56" s="17" t="str">
+        <f t="shared" ref="Q56:Q57" si="35">RIGHT(P56,O56)</f>
+        <v>1E+196</v>
+      </c>
       <c r="R56" s="11"/>
       <c r="S56" s="11"/>
       <c r="T56" s="11"/>
@@ -9662,8 +10090,20 @@
         <v>14800</v>
       </c>
       <c r="M57" s="22"/>
-      <c r="P57" s="11"/>
-      <c r="Q57" s="11"/>
+      <c r="N57" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="O57" s="16">
+        <v>200</v>
+      </c>
+      <c r="P57" s="17">
+        <f t="shared" si="34"/>
+        <v>9.9999999999999997E+199</v>
+      </c>
+      <c r="Q57" s="17" t="str">
+        <f t="shared" si="35"/>
+        <v>1E+200</v>
+      </c>
       <c r="R57" s="11"/>
       <c r="S57" s="11"/>
       <c r="T57" s="11"/>
@@ -10130,7 +10570,7 @@
         <v>60</v>
       </c>
       <c r="F69" s="17" t="str">
-        <f t="shared" ref="F69:F104" si="34">H69&amp;I69</f>
+        <f t="shared" ref="F69:F104" si="36">H69&amp;I69</f>
         <v>1적</v>
       </c>
       <c r="G69" s="17">
@@ -10162,7 +10602,7 @@
         <v>61</v>
       </c>
       <c r="F70" s="17" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>10적</v>
       </c>
       <c r="G70" s="17">
@@ -10194,7 +10634,7 @@
         <v>62</v>
       </c>
       <c r="F71" s="17" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>100적</v>
       </c>
       <c r="G71" s="17">
@@ -10226,7 +10666,7 @@
         <v>63</v>
       </c>
       <c r="F72" s="17" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1000적</v>
       </c>
       <c r="G72" s="17">
@@ -10258,7 +10698,7 @@
         <v>64</v>
       </c>
       <c r="F73" s="17" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1고</v>
       </c>
       <c r="G73" s="17">
@@ -10274,7 +10714,7 @@
         <v>고</v>
       </c>
       <c r="J73" s="16" t="str">
-        <f t="shared" ref="J73:J104" si="35">VLOOKUP(I73,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J73:J104" si="37">VLOOKUP(I73,N:Q,4,FALSE)</f>
         <v>1E+140</v>
       </c>
       <c r="K73" s="22">
@@ -10290,11 +10730,11 @@
         <v>65</v>
       </c>
       <c r="F74" s="17" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>10고</v>
       </c>
       <c r="G74" s="17">
-        <f t="shared" ref="G74:G104" si="36">H74*J74</f>
+        <f t="shared" ref="G74:G104" si="38">H74*J74</f>
         <v>1E+141</v>
       </c>
       <c r="H74" s="17">
@@ -10306,7 +10746,7 @@
         <v>고</v>
       </c>
       <c r="J74" s="16" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+140</v>
       </c>
       <c r="K74" s="22">
@@ -10322,11 +10762,11 @@
         <v>66</v>
       </c>
       <c r="F75" s="17" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>100고</v>
       </c>
       <c r="G75" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1.0000000000000001E+142</v>
       </c>
       <c r="H75" s="17">
@@ -10338,7 +10778,7 @@
         <v>고</v>
       </c>
       <c r="J75" s="16" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+140</v>
       </c>
       <c r="K75" s="22">
@@ -10354,11 +10794,11 @@
         <v>67</v>
       </c>
       <c r="F76" s="17" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1000고</v>
       </c>
       <c r="G76" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1E+143</v>
       </c>
       <c r="H76" s="17">
@@ -10370,7 +10810,7 @@
         <v>고</v>
       </c>
       <c r="J76" s="16" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+140</v>
       </c>
       <c r="K76" s="22">
@@ -10386,11 +10826,11 @@
         <v>68</v>
       </c>
       <c r="F77" s="17" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1화</v>
       </c>
       <c r="G77" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1E+144</v>
       </c>
       <c r="H77" s="17">
@@ -10402,7 +10842,7 @@
         <v>화</v>
       </c>
       <c r="J77" s="16" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+144</v>
       </c>
       <c r="K77" s="22">
@@ -10418,15 +10858,15 @@
         <v>69</v>
       </c>
       <c r="F78" s="17" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>10화</v>
       </c>
       <c r="G78" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>9.9999999999999999E+144</v>
       </c>
       <c r="H78" s="17">
-        <f t="shared" ref="H78:H128" si="37">H74</f>
+        <f t="shared" ref="H78:H136" si="39">H74</f>
         <v>10</v>
       </c>
       <c r="I78" s="16" t="str" cm="1">
@@ -10434,7 +10874,7 @@
         <v>화</v>
       </c>
       <c r="J78" s="16" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+144</v>
       </c>
       <c r="K78" s="22">
@@ -10450,15 +10890,15 @@
         <v>70</v>
       </c>
       <c r="F79" s="17" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>100화</v>
       </c>
       <c r="G79" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>9.9999999999999993E+145</v>
       </c>
       <c r="H79" s="17">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>100</v>
       </c>
       <c r="I79" s="16" t="str" cm="1">
@@ -10466,7 +10906,7 @@
         <v>화</v>
       </c>
       <c r="J79" s="16" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+144</v>
       </c>
       <c r="K79" s="22">
@@ -10482,15 +10922,15 @@
         <v>71</v>
       </c>
       <c r="F80" s="17" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1000화</v>
       </c>
       <c r="G80" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>9.9999999999999998E+146</v>
       </c>
       <c r="H80" s="17">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1000</v>
       </c>
       <c r="I80" s="16" t="str" cm="1">
@@ -10498,7 +10938,7 @@
         <v>화</v>
       </c>
       <c r="J80" s="16" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+144</v>
       </c>
       <c r="K80" s="22">
@@ -10514,15 +10954,15 @@
         <v>72</v>
       </c>
       <c r="F81" s="17" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1명</v>
       </c>
       <c r="G81" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1E+148</v>
       </c>
       <c r="H81" s="17">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="I81" s="16" t="str" cm="1">
@@ -10530,7 +10970,7 @@
         <v>명</v>
       </c>
       <c r="J81" s="16" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+148</v>
       </c>
       <c r="K81" s="22">
@@ -10546,15 +10986,15 @@
         <v>73</v>
       </c>
       <c r="F82" s="17" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>10명</v>
       </c>
       <c r="G82" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1E+149</v>
       </c>
       <c r="H82" s="17">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>10</v>
       </c>
       <c r="I82" s="16" t="str" cm="1">
@@ -10562,7 +11002,7 @@
         <v>명</v>
       </c>
       <c r="J82" s="16" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+148</v>
       </c>
       <c r="K82" s="22">
@@ -10578,15 +11018,15 @@
         <v>74</v>
       </c>
       <c r="F83" s="17" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>100명</v>
       </c>
       <c r="G83" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>9.9999999999999998E+149</v>
       </c>
       <c r="H83" s="17">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>100</v>
       </c>
       <c r="I83" s="16" t="str" cm="1">
@@ -10594,7 +11034,7 @@
         <v>명</v>
       </c>
       <c r="J83" s="16" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+148</v>
       </c>
       <c r="K83" s="22">
@@ -10610,15 +11050,15 @@
         <v>75</v>
       </c>
       <c r="F84" s="17" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1000명</v>
       </c>
       <c r="G84" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1E+151</v>
       </c>
       <c r="H84" s="17">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1000</v>
       </c>
       <c r="I84" s="16" t="str" cm="1">
@@ -10626,7 +11066,7 @@
         <v>명</v>
       </c>
       <c r="J84" s="16" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+148</v>
       </c>
       <c r="K84" s="22">
@@ -10642,15 +11082,15 @@
         <v>76</v>
       </c>
       <c r="F85" s="17" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1월</v>
       </c>
       <c r="G85" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1E+152</v>
       </c>
       <c r="H85" s="17">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="I85" s="16" t="str" cm="1">
@@ -10658,7 +11098,7 @@
         <v>월</v>
       </c>
       <c r="J85" s="16" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+152</v>
       </c>
       <c r="K85" s="22">
@@ -10674,15 +11114,15 @@
         <v>77</v>
       </c>
       <c r="F86" s="17" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>10월</v>
       </c>
       <c r="G86" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1E+153</v>
       </c>
       <c r="H86" s="17">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>10</v>
       </c>
       <c r="I86" s="16" t="str" cm="1">
@@ -10690,7 +11130,7 @@
         <v>월</v>
       </c>
       <c r="J86" s="16" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+152</v>
       </c>
       <c r="K86" s="22">
@@ -10706,15 +11146,15 @@
         <v>78</v>
       </c>
       <c r="F87" s="17" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>100월</v>
       </c>
       <c r="G87" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1E+154</v>
       </c>
       <c r="H87" s="17">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>100</v>
       </c>
       <c r="I87" s="16" t="str" cm="1">
@@ -10722,7 +11162,7 @@
         <v>월</v>
       </c>
       <c r="J87" s="16" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+152</v>
       </c>
       <c r="K87" s="22">
@@ -10738,15 +11178,15 @@
         <v>79</v>
       </c>
       <c r="F88" s="17" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1000월</v>
       </c>
       <c r="G88" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1E+155</v>
       </c>
       <c r="H88" s="17">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1000</v>
       </c>
       <c r="I88" s="16" t="str" cm="1">
@@ -10754,7 +11194,7 @@
         <v>월</v>
       </c>
       <c r="J88" s="16" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+152</v>
       </c>
       <c r="K88" s="22">
@@ -10770,15 +11210,15 @@
         <v>80</v>
       </c>
       <c r="F89" s="17" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1후</v>
       </c>
       <c r="G89" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>9.9999999999999998E+155</v>
       </c>
       <c r="H89" s="17">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="I89" s="16" t="str" cm="1">
@@ -10786,7 +11226,7 @@
         <v>후</v>
       </c>
       <c r="J89" s="16" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+156</v>
       </c>
       <c r="K89" s="22">
@@ -10802,15 +11242,15 @@
         <v>81</v>
       </c>
       <c r="F90" s="17" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>10후</v>
       </c>
       <c r="G90" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>9.9999999999999998E+156</v>
       </c>
       <c r="H90" s="17">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>10</v>
       </c>
       <c r="I90" s="16" t="str" cm="1">
@@ -10818,7 +11258,7 @@
         <v>후</v>
       </c>
       <c r="J90" s="16" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+156</v>
       </c>
       <c r="K90" s="22">
@@ -10834,15 +11274,15 @@
         <v>82</v>
       </c>
       <c r="F91" s="17" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>100후</v>
       </c>
       <c r="G91" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>9.9999999999999995E+157</v>
       </c>
       <c r="H91" s="17">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>100</v>
       </c>
       <c r="I91" s="16" t="str" cm="1">
@@ -10850,7 +11290,7 @@
         <v>후</v>
       </c>
       <c r="J91" s="16" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+156</v>
       </c>
       <c r="K91" s="22">
@@ -10866,15 +11306,15 @@
         <v>83</v>
       </c>
       <c r="F92" s="17" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1000후</v>
       </c>
       <c r="G92" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>9.9999999999999993E+158</v>
       </c>
       <c r="H92" s="17">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1000</v>
       </c>
       <c r="I92" s="16" t="str" cm="1">
@@ -10882,7 +11322,7 @@
         <v>후</v>
       </c>
       <c r="J92" s="16" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+156</v>
       </c>
       <c r="K92" s="22">
@@ -10898,15 +11338,15 @@
         <v>84</v>
       </c>
       <c r="F93" s="17" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1단</v>
       </c>
       <c r="G93" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1E+160</v>
       </c>
       <c r="H93" s="17">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="I93" s="16" t="str" cm="1">
@@ -10914,7 +11354,7 @@
         <v>단</v>
       </c>
       <c r="J93" s="16" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+160</v>
       </c>
       <c r="K93" s="22">
@@ -10930,15 +11370,15 @@
         <v>85</v>
       </c>
       <c r="F94" s="17" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>10단</v>
       </c>
       <c r="G94" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1E+161</v>
       </c>
       <c r="H94" s="17">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>10</v>
       </c>
       <c r="I94" s="16" t="str" cm="1">
@@ -10946,7 +11386,7 @@
         <v>단</v>
       </c>
       <c r="J94" s="16" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+160</v>
       </c>
       <c r="K94" s="22">
@@ -10962,15 +11402,15 @@
         <v>86</v>
       </c>
       <c r="F95" s="17" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>100단</v>
       </c>
       <c r="G95" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>9.9999999999999994E+161</v>
       </c>
       <c r="H95" s="17">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>100</v>
       </c>
       <c r="I95" s="16" t="str" cm="1">
@@ -10978,7 +11418,7 @@
         <v>단</v>
       </c>
       <c r="J95" s="16" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+160</v>
       </c>
       <c r="K95" s="22">
@@ -10994,15 +11434,15 @@
         <v>87</v>
       </c>
       <c r="F96" s="17" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1000단</v>
       </c>
       <c r="G96" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>9.9999999999999994E+162</v>
       </c>
       <c r="H96" s="17">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1000</v>
       </c>
       <c r="I96" s="16" t="str" cm="1">
@@ -11010,7 +11450,7 @@
         <v>단</v>
       </c>
       <c r="J96" s="16" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+160</v>
       </c>
       <c r="K96" s="22">
@@ -11026,15 +11466,15 @@
         <v>88</v>
       </c>
       <c r="F97" s="17" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1절</v>
       </c>
       <c r="G97" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1E+164</v>
       </c>
       <c r="H97" s="17">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="I97" s="16" t="str" cm="1">
@@ -11042,7 +11482,7 @@
         <v>절</v>
       </c>
       <c r="J97" s="16" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+164</v>
       </c>
       <c r="K97" s="22">
@@ -11058,15 +11498,15 @@
         <v>89</v>
       </c>
       <c r="F98" s="17" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>10절</v>
       </c>
       <c r="G98" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1.0000000000000001E+165</v>
       </c>
       <c r="H98" s="17">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>10</v>
       </c>
       <c r="I98" s="16" t="str" cm="1">
@@ -11074,7 +11514,7 @@
         <v>절</v>
       </c>
       <c r="J98" s="16" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+164</v>
       </c>
       <c r="K98" s="22">
@@ -11090,15 +11530,15 @@
         <v>90</v>
       </c>
       <c r="F99" s="17" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>100절</v>
       </c>
       <c r="G99" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>9.9999999999999994E+165</v>
       </c>
       <c r="H99" s="17">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>100</v>
       </c>
       <c r="I99" s="16" t="str" cm="1">
@@ -11106,7 +11546,7 @@
         <v>절</v>
       </c>
       <c r="J99" s="16" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+164</v>
       </c>
       <c r="K99" s="22">
@@ -11122,15 +11562,15 @@
         <v>91</v>
       </c>
       <c r="F100" s="17" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1000절</v>
       </c>
       <c r="G100" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1E+167</v>
       </c>
       <c r="H100" s="17">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1000</v>
       </c>
       <c r="I100" s="16" t="str" cm="1">
@@ -11138,7 +11578,7 @@
         <v>절</v>
       </c>
       <c r="J100" s="16" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+164</v>
       </c>
       <c r="K100" s="22">
@@ -11154,15 +11594,15 @@
         <v>92</v>
       </c>
       <c r="F101" s="17" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1격</v>
       </c>
       <c r="G101" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>9.9999999999999993E+167</v>
       </c>
       <c r="H101" s="17">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="I101" s="16" t="str" cm="1">
@@ -11170,7 +11610,7 @@
         <v>격</v>
       </c>
       <c r="J101" s="16" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+168</v>
       </c>
       <c r="K101" s="22">
@@ -11187,15 +11627,15 @@
         <v>93</v>
       </c>
       <c r="F102" s="17" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>10격</v>
       </c>
       <c r="G102" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>9.9999999999999993E+168</v>
       </c>
       <c r="H102" s="17">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>10</v>
       </c>
       <c r="I102" s="16" t="str" cm="1">
@@ -11203,11 +11643,11 @@
         <v>격</v>
       </c>
       <c r="J102" s="16" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+168</v>
       </c>
       <c r="K102" s="22">
-        <f t="shared" ref="K102:K128" si="38">K98+1000</f>
+        <f t="shared" ref="K102:K136" si="40">K98+1000</f>
         <v>24000</v>
       </c>
       <c r="L102" s="22">
@@ -11220,15 +11660,15 @@
         <v>94</v>
       </c>
       <c r="F103" s="17" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>100격</v>
       </c>
       <c r="G103" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>9.999999999999999E+169</v>
       </c>
       <c r="H103" s="17">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>100</v>
       </c>
       <c r="I103" s="16" t="str" cm="1">
@@ -11236,11 +11676,11 @@
         <v>격</v>
       </c>
       <c r="J103" s="16" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+168</v>
       </c>
       <c r="K103" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>24000</v>
       </c>
       <c r="L103" s="22">
@@ -11253,15 +11693,15 @@
         <v>95</v>
       </c>
       <c r="F104" s="17" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1000격</v>
       </c>
       <c r="G104" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>9.9999999999999995E+170</v>
       </c>
       <c r="H104" s="17">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1000</v>
       </c>
       <c r="I104" s="16" t="str" cm="1">
@@ -11269,11 +11709,11 @@
         <v>격</v>
       </c>
       <c r="J104" s="16" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+168</v>
       </c>
       <c r="K104" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>24000</v>
       </c>
       <c r="L104" s="22">
@@ -11286,15 +11726,15 @@
         <v>96</v>
       </c>
       <c r="F105" s="17" t="str">
-        <f t="shared" ref="F105:F112" si="39">H105&amp;I105</f>
+        <f t="shared" ref="F105:F112" si="41">H105&amp;I105</f>
         <v>1창</v>
       </c>
       <c r="G105" s="17">
-        <f t="shared" ref="G105:G112" si="40">H105*J105</f>
+        <f t="shared" ref="G105:G112" si="42">H105*J105</f>
         <v>1.0000000000000001E+172</v>
       </c>
       <c r="H105" s="17">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="I105" s="16" t="str" cm="1">
@@ -11302,11 +11742,11 @@
         <v>창</v>
       </c>
       <c r="J105" s="16" t="str">
-        <f t="shared" ref="J105:J112" si="41">VLOOKUP(I105,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J105:J112" si="43">VLOOKUP(I105,N:Q,4,FALSE)</f>
         <v>1E+172</v>
       </c>
       <c r="K105" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>25000</v>
       </c>
       <c r="L105" s="22">
@@ -11318,15 +11758,15 @@
         <v>97</v>
       </c>
       <c r="F106" s="17" t="str">
+        <f t="shared" si="41"/>
+        <v>10창</v>
+      </c>
+      <c r="G106" s="17">
+        <f t="shared" si="42"/>
+        <v>1E+173</v>
+      </c>
+      <c r="H106" s="17">
         <f t="shared" si="39"/>
-        <v>10창</v>
-      </c>
-      <c r="G106" s="17">
-        <f t="shared" si="40"/>
-        <v>1E+173</v>
-      </c>
-      <c r="H106" s="17">
-        <f t="shared" si="37"/>
         <v>10</v>
       </c>
       <c r="I106" s="16" t="str" cm="1">
@@ -11334,11 +11774,11 @@
         <v>창</v>
       </c>
       <c r="J106" s="16" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1E+172</v>
       </c>
       <c r="K106" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>25000</v>
       </c>
       <c r="L106" s="22">
@@ -11350,15 +11790,15 @@
         <v>98</v>
       </c>
       <c r="F107" s="17" t="str">
+        <f t="shared" si="41"/>
+        <v>100창</v>
+      </c>
+      <c r="G107" s="17">
+        <f t="shared" si="42"/>
+        <v>1.0000000000000001E+174</v>
+      </c>
+      <c r="H107" s="17">
         <f t="shared" si="39"/>
-        <v>100창</v>
-      </c>
-      <c r="G107" s="17">
-        <f t="shared" si="40"/>
-        <v>1.0000000000000001E+174</v>
-      </c>
-      <c r="H107" s="17">
-        <f t="shared" si="37"/>
         <v>100</v>
       </c>
       <c r="I107" s="16" t="str" cm="1">
@@ -11366,11 +11806,11 @@
         <v>창</v>
       </c>
       <c r="J107" s="16" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1E+172</v>
       </c>
       <c r="K107" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>25000</v>
       </c>
       <c r="L107" s="22">
@@ -11382,15 +11822,15 @@
         <v>99</v>
       </c>
       <c r="F108" s="17" t="str">
+        <f t="shared" si="41"/>
+        <v>1000창</v>
+      </c>
+      <c r="G108" s="17">
+        <f t="shared" si="42"/>
+        <v>1.0000000000000001E+175</v>
+      </c>
+      <c r="H108" s="17">
         <f t="shared" si="39"/>
-        <v>1000창</v>
-      </c>
-      <c r="G108" s="17">
-        <f t="shared" si="40"/>
-        <v>1.0000000000000001E+175</v>
-      </c>
-      <c r="H108" s="17">
-        <f t="shared" si="37"/>
         <v>1000</v>
       </c>
       <c r="I108" s="16" t="str" cm="1">
@@ -11398,11 +11838,11 @@
         <v>창</v>
       </c>
       <c r="J108" s="16" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1E+172</v>
       </c>
       <c r="K108" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>25000</v>
       </c>
       <c r="L108" s="22">
@@ -11414,15 +11854,15 @@
         <v>100</v>
       </c>
       <c r="F109" s="17" t="str">
+        <f t="shared" si="41"/>
+        <v>1공</v>
+      </c>
+      <c r="G109" s="17">
+        <f t="shared" si="42"/>
+        <v>1E+176</v>
+      </c>
+      <c r="H109" s="17">
         <f t="shared" si="39"/>
-        <v>1공</v>
-      </c>
-      <c r="G109" s="17">
-        <f t="shared" si="40"/>
-        <v>1E+176</v>
-      </c>
-      <c r="H109" s="17">
-        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="I109" s="16" t="str" cm="1">
@@ -11430,11 +11870,11 @@
         <v>공</v>
       </c>
       <c r="J109" s="16" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1E+176</v>
       </c>
       <c r="K109" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>26000</v>
       </c>
       <c r="L109" s="22">
@@ -11446,15 +11886,15 @@
         <v>101</v>
       </c>
       <c r="F110" s="17" t="str">
+        <f t="shared" si="41"/>
+        <v>10공</v>
+      </c>
+      <c r="G110" s="17">
+        <f t="shared" si="42"/>
+        <v>1E+177</v>
+      </c>
+      <c r="H110" s="17">
         <f t="shared" si="39"/>
-        <v>10공</v>
-      </c>
-      <c r="G110" s="17">
-        <f t="shared" si="40"/>
-        <v>1E+177</v>
-      </c>
-      <c r="H110" s="17">
-        <f t="shared" si="37"/>
         <v>10</v>
       </c>
       <c r="I110" s="16" t="str" cm="1">
@@ -11462,11 +11902,11 @@
         <v>공</v>
       </c>
       <c r="J110" s="16" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1E+176</v>
       </c>
       <c r="K110" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>26000</v>
       </c>
       <c r="L110" s="22">
@@ -11478,15 +11918,15 @@
         <v>102</v>
       </c>
       <c r="F111" s="17" t="str">
+        <f t="shared" si="41"/>
+        <v>100공</v>
+      </c>
+      <c r="G111" s="17">
+        <f t="shared" si="42"/>
+        <v>1.0000000000000001E+178</v>
+      </c>
+      <c r="H111" s="17">
         <f t="shared" si="39"/>
-        <v>100공</v>
-      </c>
-      <c r="G111" s="17">
-        <f t="shared" si="40"/>
-        <v>1.0000000000000001E+178</v>
-      </c>
-      <c r="H111" s="17">
-        <f t="shared" si="37"/>
         <v>100</v>
       </c>
       <c r="I111" s="16" t="str" cm="1">
@@ -11494,11 +11934,11 @@
         <v>공</v>
       </c>
       <c r="J111" s="16" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1E+176</v>
       </c>
       <c r="K111" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>26000</v>
       </c>
       <c r="L111" s="22">
@@ -11510,15 +11950,15 @@
         <v>103</v>
       </c>
       <c r="F112" s="17" t="str">
+        <f t="shared" si="41"/>
+        <v>1000공</v>
+      </c>
+      <c r="G112" s="17">
+        <f t="shared" si="42"/>
+        <v>9.9999999999999998E+178</v>
+      </c>
+      <c r="H112" s="17">
         <f t="shared" si="39"/>
-        <v>1000공</v>
-      </c>
-      <c r="G112" s="17">
-        <f t="shared" si="40"/>
-        <v>9.9999999999999998E+178</v>
-      </c>
-      <c r="H112" s="17">
-        <f t="shared" si="37"/>
         <v>1000</v>
       </c>
       <c r="I112" s="16" t="str" cm="1">
@@ -11526,11 +11966,11 @@
         <v>공</v>
       </c>
       <c r="J112" s="16" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1E+176</v>
       </c>
       <c r="K112" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>26000</v>
       </c>
       <c r="L112" s="22">
@@ -11542,15 +11982,15 @@
         <v>104</v>
       </c>
       <c r="F113" s="17" t="str">
-        <f t="shared" ref="F113:F120" si="42">H113&amp;I113</f>
+        <f t="shared" ref="F113:F120" si="44">H113&amp;I113</f>
         <v>1채</v>
       </c>
       <c r="G113" s="17">
-        <f t="shared" ref="G113:G120" si="43">H113*J113</f>
+        <f t="shared" ref="G113:G120" si="45">H113*J113</f>
         <v>1E+180</v>
       </c>
       <c r="H113" s="17">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="I113" s="16" t="str" cm="1">
@@ -11558,11 +11998,11 @@
         <v>채</v>
       </c>
       <c r="J113" s="16" t="str">
-        <f t="shared" ref="J113:J120" si="44">VLOOKUP(I113,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J113:J120" si="46">VLOOKUP(I113,N:Q,4,FALSE)</f>
         <v>1E+180</v>
       </c>
       <c r="K113" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>27000</v>
       </c>
       <c r="L113" s="22">
@@ -11574,15 +12014,15 @@
         <v>105</v>
       </c>
       <c r="F114" s="17" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>10채</v>
       </c>
       <c r="G114" s="17">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>9.9999999999999992E+180</v>
       </c>
       <c r="H114" s="17">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>10</v>
       </c>
       <c r="I114" s="16" t="str" cm="1">
@@ -11590,11 +12030,11 @@
         <v>채</v>
       </c>
       <c r="J114" s="16" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1E+180</v>
       </c>
       <c r="K114" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>27000</v>
       </c>
       <c r="L114" s="22">
@@ -11606,15 +12046,15 @@
         <v>106</v>
       </c>
       <c r="F115" s="17" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>100채</v>
       </c>
       <c r="G115" s="17">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1.0000000000000001E+182</v>
       </c>
       <c r="H115" s="17">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>100</v>
       </c>
       <c r="I115" s="16" t="str" cm="1">
@@ -11622,11 +12062,11 @@
         <v>채</v>
       </c>
       <c r="J115" s="16" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1E+180</v>
       </c>
       <c r="K115" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>27000</v>
       </c>
       <c r="L115" s="22">
@@ -11638,15 +12078,15 @@
         <v>107</v>
       </c>
       <c r="F116" s="17" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1000채</v>
       </c>
       <c r="G116" s="17">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1.0000000000000001E+183</v>
       </c>
       <c r="H116" s="17">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1000</v>
       </c>
       <c r="I116" s="16" t="str" cm="1">
@@ -11654,11 +12094,11 @@
         <v>채</v>
       </c>
       <c r="J116" s="16" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1E+180</v>
       </c>
       <c r="K116" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>27000</v>
       </c>
       <c r="L116" s="22">
@@ -11670,15 +12110,15 @@
         <v>108</v>
       </c>
       <c r="F117" s="17" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1피</v>
       </c>
       <c r="G117" s="17">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1E+184</v>
       </c>
       <c r="H117" s="17">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="I117" s="16" t="str" cm="1">
@@ -11686,11 +12126,11 @@
         <v>피</v>
       </c>
       <c r="J117" s="16" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1E+184</v>
       </c>
       <c r="K117" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>28000</v>
       </c>
       <c r="L117" s="22">
@@ -11702,15 +12142,15 @@
         <v>109</v>
       </c>
       <c r="F118" s="17" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>10피</v>
       </c>
       <c r="G118" s="17">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>9.9999999999999998E+184</v>
       </c>
       <c r="H118" s="17">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>10</v>
       </c>
       <c r="I118" s="16" t="str" cm="1">
@@ -11718,11 +12158,11 @@
         <v>피</v>
       </c>
       <c r="J118" s="16" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1E+184</v>
       </c>
       <c r="K118" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>28000</v>
       </c>
       <c r="L118" s="22">
@@ -11734,15 +12174,15 @@
         <v>110</v>
       </c>
       <c r="F119" s="17" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>100피</v>
       </c>
       <c r="G119" s="17">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>9.9999999999999998E+185</v>
       </c>
       <c r="H119" s="17">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>100</v>
       </c>
       <c r="I119" s="16" t="str" cm="1">
@@ -11750,11 +12190,11 @@
         <v>피</v>
       </c>
       <c r="J119" s="16" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1E+184</v>
       </c>
       <c r="K119" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>28000</v>
       </c>
       <c r="L119" s="22">
@@ -11766,15 +12206,15 @@
         <v>111</v>
       </c>
       <c r="F120" s="17" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1000피</v>
       </c>
       <c r="G120" s="17">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1.0000000000000001E+187</v>
       </c>
       <c r="H120" s="17">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1000</v>
       </c>
       <c r="I120" s="16" t="str" cm="1">
@@ -11782,11 +12222,11 @@
         <v>피</v>
       </c>
       <c r="J120" s="16" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1E+184</v>
       </c>
       <c r="K120" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>28000</v>
       </c>
       <c r="L120" s="22">
@@ -11798,15 +12238,15 @@
         <v>112</v>
       </c>
       <c r="F121" s="17" t="str">
-        <f t="shared" ref="F121:F124" si="45">H121&amp;I121</f>
+        <f t="shared" ref="F121:F124" si="47">H121&amp;I121</f>
         <v>1동</v>
       </c>
       <c r="G121" s="17">
-        <f t="shared" ref="G121:G124" si="46">H121*J121</f>
+        <f t="shared" ref="G121:G124" si="48">H121*J121</f>
         <v>1E+188</v>
       </c>
       <c r="H121" s="17">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="I121" s="16" t="str" cm="1">
@@ -11814,11 +12254,11 @@
         <v>동</v>
       </c>
       <c r="J121" s="16" t="str">
-        <f t="shared" ref="J121:J124" si="47">VLOOKUP(I121,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J121:J124" si="49">VLOOKUP(I121,N:Q,4,FALSE)</f>
         <v>1E+188</v>
       </c>
       <c r="K121" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>29000</v>
       </c>
       <c r="L121" s="22">
@@ -11830,15 +12270,15 @@
         <v>113</v>
       </c>
       <c r="F122" s="17" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>10동</v>
       </c>
       <c r="G122" s="17">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1E+189</v>
       </c>
       <c r="H122" s="17">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>10</v>
       </c>
       <c r="I122" s="16" t="str" cm="1">
@@ -11846,11 +12286,11 @@
         <v>동</v>
       </c>
       <c r="J122" s="16" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1E+188</v>
       </c>
       <c r="K122" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>29000</v>
       </c>
       <c r="L122" s="22">
@@ -11862,15 +12302,15 @@
         <v>114</v>
       </c>
       <c r="F123" s="17" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>100동</v>
       </c>
       <c r="G123" s="17">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1.0000000000000001E+190</v>
       </c>
       <c r="H123" s="17">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>100</v>
       </c>
       <c r="I123" s="16" t="str" cm="1">
@@ -11878,11 +12318,11 @@
         <v>동</v>
       </c>
       <c r="J123" s="16" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1E+188</v>
       </c>
       <c r="K123" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>29000</v>
       </c>
       <c r="L123" s="22">
@@ -11894,15 +12334,15 @@
         <v>115</v>
       </c>
       <c r="F124" s="17" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1000동</v>
       </c>
       <c r="G124" s="17">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1.0000000000000001E+191</v>
       </c>
       <c r="H124" s="17">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1000</v>
       </c>
       <c r="I124" s="16" t="str" cm="1">
@@ -11910,11 +12350,11 @@
         <v>동</v>
       </c>
       <c r="J124" s="16" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1E+188</v>
       </c>
       <c r="K124" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>29000</v>
       </c>
       <c r="L124" s="22">
@@ -11926,15 +12366,15 @@
         <v>116</v>
       </c>
       <c r="F125" s="17" t="str">
-        <f t="shared" ref="F125:F128" si="48">H125&amp;I125</f>
+        <f t="shared" ref="F125:F128" si="50">H125&amp;I125</f>
         <v>1멸</v>
       </c>
       <c r="G125" s="17">
-        <f t="shared" ref="G125:G128" si="49">H125*J125</f>
+        <f t="shared" ref="G125:G128" si="51">H125*J125</f>
         <v>1E+192</v>
       </c>
       <c r="H125" s="17">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="I125" s="16" t="str" cm="1">
@@ -11942,11 +12382,11 @@
         <v>멸</v>
       </c>
       <c r="J125" s="16" t="str">
-        <f t="shared" ref="J125:J128" si="50">VLOOKUP(I125,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J125:J128" si="52">VLOOKUP(I125,N:Q,4,FALSE)</f>
         <v>1E+192</v>
       </c>
       <c r="K125" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>30000</v>
       </c>
       <c r="L125" s="22">
@@ -11958,15 +12398,15 @@
         <v>117</v>
       </c>
       <c r="F126" s="17" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>10멸</v>
       </c>
       <c r="G126" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1.0000000000000001E+193</v>
       </c>
       <c r="H126" s="17">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>10</v>
       </c>
       <c r="I126" s="16" t="str" cm="1">
@@ -11974,11 +12414,11 @@
         <v>멸</v>
       </c>
       <c r="J126" s="16" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1E+192</v>
       </c>
       <c r="K126" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>30000</v>
       </c>
       <c r="L126" s="22">
@@ -11990,15 +12430,15 @@
         <v>118</v>
       </c>
       <c r="F127" s="17" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>100멸</v>
       </c>
       <c r="G127" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1.0000000000000001E+194</v>
       </c>
       <c r="H127" s="17">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>100</v>
       </c>
       <c r="I127" s="16" t="str" cm="1">
@@ -12006,11 +12446,11 @@
         <v>멸</v>
       </c>
       <c r="J127" s="16" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1E+192</v>
       </c>
       <c r="K127" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>30000</v>
       </c>
       <c r="L127" s="22">
@@ -12022,15 +12462,15 @@
         <v>119</v>
       </c>
       <c r="F128" s="17" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1000멸</v>
       </c>
       <c r="G128" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>9.9999999999999998E+194</v>
       </c>
       <c r="H128" s="17">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1000</v>
       </c>
       <c r="I128" s="16" t="str" cm="1">
@@ -12038,15 +12478,271 @@
         <v>멸</v>
       </c>
       <c r="J128" s="16" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1E+192</v>
       </c>
       <c r="K128" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>30000</v>
       </c>
       <c r="L128" s="22">
         <v>23800</v>
+      </c>
+    </row>
+    <row r="129" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E129" s="16">
+        <v>120</v>
+      </c>
+      <c r="F129" s="17" t="str">
+        <f t="shared" ref="F129:F136" si="53">H129&amp;I129</f>
+        <v>1향</v>
+      </c>
+      <c r="G129" s="17">
+        <f t="shared" ref="G129:G136" si="54">H129*J129</f>
+        <v>9.9999999999999995E+195</v>
+      </c>
+      <c r="H129" s="17">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="I129" s="16" t="str" cm="1">
+        <f t="array" ref="I129">IF(AND(H128&gt;=1000,H129&lt;2),INDEX(N:N,MATCH(I128,N:N,0)+1,0),I128)</f>
+        <v>향</v>
+      </c>
+      <c r="J129" s="16" t="str">
+        <f t="shared" ref="J129:J136" si="55">VLOOKUP(I129,N:Q,4,FALSE)</f>
+        <v>1E+196</v>
+      </c>
+      <c r="K129" s="22">
+        <f t="shared" si="40"/>
+        <v>31000</v>
+      </c>
+      <c r="L129" s="22">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="130" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E130" s="16">
+        <v>121</v>
+      </c>
+      <c r="F130" s="17" t="str">
+        <f t="shared" si="53"/>
+        <v>10향</v>
+      </c>
+      <c r="G130" s="17">
+        <f t="shared" si="54"/>
+        <v>9.9999999999999995E+196</v>
+      </c>
+      <c r="H130" s="17">
+        <f t="shared" si="39"/>
+        <v>10</v>
+      </c>
+      <c r="I130" s="16" t="str" cm="1">
+        <f t="array" ref="I130">IF(AND(H129&gt;=1000,H130&lt;2),INDEX(N:N,MATCH(I129,N:N,0)+1,0),I129)</f>
+        <v>향</v>
+      </c>
+      <c r="J130" s="16" t="str">
+        <f t="shared" si="55"/>
+        <v>1E+196</v>
+      </c>
+      <c r="K130" s="22">
+        <f t="shared" si="40"/>
+        <v>31000</v>
+      </c>
+      <c r="L130" s="22">
+        <v>24200</v>
+      </c>
+    </row>
+    <row r="131" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E131" s="16">
+        <v>122</v>
+      </c>
+      <c r="F131" s="17" t="str">
+        <f t="shared" si="53"/>
+        <v>100향</v>
+      </c>
+      <c r="G131" s="17">
+        <f t="shared" si="54"/>
+        <v>9.9999999999999988E+197</v>
+      </c>
+      <c r="H131" s="17">
+        <f t="shared" si="39"/>
+        <v>100</v>
+      </c>
+      <c r="I131" s="16" t="str" cm="1">
+        <f t="array" ref="I131">IF(AND(H130&gt;=1000,H131&lt;2),INDEX(N:N,MATCH(I130,N:N,0)+1,0),I130)</f>
+        <v>향</v>
+      </c>
+      <c r="J131" s="16" t="str">
+        <f t="shared" si="55"/>
+        <v>1E+196</v>
+      </c>
+      <c r="K131" s="22">
+        <f t="shared" si="40"/>
+        <v>31000</v>
+      </c>
+      <c r="L131" s="22">
+        <v>24400</v>
+      </c>
+    </row>
+    <row r="132" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E132" s="16">
+        <v>123</v>
+      </c>
+      <c r="F132" s="17" t="str">
+        <f t="shared" si="53"/>
+        <v>1000향</v>
+      </c>
+      <c r="G132" s="17">
+        <f t="shared" si="54"/>
+        <v>9.9999999999999988E+198</v>
+      </c>
+      <c r="H132" s="17">
+        <f t="shared" si="39"/>
+        <v>1000</v>
+      </c>
+      <c r="I132" s="16" t="str" cm="1">
+        <f t="array" ref="I132">IF(AND(H131&gt;=1000,H132&lt;2),INDEX(N:N,MATCH(I131,N:N,0)+1,0),I131)</f>
+        <v>향</v>
+      </c>
+      <c r="J132" s="16" t="str">
+        <f t="shared" si="55"/>
+        <v>1E+196</v>
+      </c>
+      <c r="K132" s="22">
+        <f t="shared" si="40"/>
+        <v>31000</v>
+      </c>
+      <c r="L132" s="22">
+        <v>24600</v>
+      </c>
+    </row>
+    <row r="133" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E133" s="16">
+        <v>124</v>
+      </c>
+      <c r="F133" s="17" t="str">
+        <f t="shared" si="53"/>
+        <v>1증</v>
+      </c>
+      <c r="G133" s="17">
+        <f t="shared" si="54"/>
+        <v>9.9999999999999997E+199</v>
+      </c>
+      <c r="H133" s="17">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="I133" s="16" t="str" cm="1">
+        <f t="array" ref="I133">IF(AND(H132&gt;=1000,H133&lt;2),INDEX(N:N,MATCH(I132,N:N,0)+1,0),I132)</f>
+        <v>증</v>
+      </c>
+      <c r="J133" s="16" t="str">
+        <f t="shared" si="55"/>
+        <v>1E+200</v>
+      </c>
+      <c r="K133" s="22">
+        <f t="shared" si="40"/>
+        <v>32000</v>
+      </c>
+      <c r="L133" s="22">
+        <v>24800</v>
+      </c>
+    </row>
+    <row r="134" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E134" s="16">
+        <v>125</v>
+      </c>
+      <c r="F134" s="17" t="str">
+        <f t="shared" si="53"/>
+        <v>10증</v>
+      </c>
+      <c r="G134" s="17">
+        <f t="shared" si="54"/>
+        <v>9.999999999999999E+200</v>
+      </c>
+      <c r="H134" s="17">
+        <f t="shared" si="39"/>
+        <v>10</v>
+      </c>
+      <c r="I134" s="16" t="str" cm="1">
+        <f t="array" ref="I134">IF(AND(H133&gt;=1000,H134&lt;2),INDEX(N:N,MATCH(I133,N:N,0)+1,0),I133)</f>
+        <v>증</v>
+      </c>
+      <c r="J134" s="16" t="str">
+        <f t="shared" si="55"/>
+        <v>1E+200</v>
+      </c>
+      <c r="K134" s="22">
+        <f t="shared" si="40"/>
+        <v>32000</v>
+      </c>
+      <c r="L134" s="22">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="135" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E135" s="16">
+        <v>126</v>
+      </c>
+      <c r="F135" s="17" t="str">
+        <f t="shared" si="53"/>
+        <v>100증</v>
+      </c>
+      <c r="G135" s="17">
+        <f t="shared" si="54"/>
+        <v>9.999999999999999E+201</v>
+      </c>
+      <c r="H135" s="17">
+        <f t="shared" si="39"/>
+        <v>100</v>
+      </c>
+      <c r="I135" s="16" t="str" cm="1">
+        <f t="array" ref="I135">IF(AND(H134&gt;=1000,H135&lt;2),INDEX(N:N,MATCH(I134,N:N,0)+1,0),I134)</f>
+        <v>증</v>
+      </c>
+      <c r="J135" s="16" t="str">
+        <f t="shared" si="55"/>
+        <v>1E+200</v>
+      </c>
+      <c r="K135" s="22">
+        <f t="shared" si="40"/>
+        <v>32000</v>
+      </c>
+      <c r="L135" s="22">
+        <v>25200</v>
+      </c>
+    </row>
+    <row r="136" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E136" s="16">
+        <v>127</v>
+      </c>
+      <c r="F136" s="17" t="str">
+        <f t="shared" si="53"/>
+        <v>1000증</v>
+      </c>
+      <c r="G136" s="17">
+        <f t="shared" si="54"/>
+        <v>9.9999999999999999E+202</v>
+      </c>
+      <c r="H136" s="17">
+        <f t="shared" si="39"/>
+        <v>1000</v>
+      </c>
+      <c r="I136" s="16" t="str" cm="1">
+        <f t="array" ref="I136">IF(AND(H135&gt;=1000,H136&lt;2),INDEX(N:N,MATCH(I135,N:N,0)+1,0),I135)</f>
+        <v>증</v>
+      </c>
+      <c r="J136" s="16" t="str">
+        <f t="shared" si="55"/>
+        <v>1E+200</v>
+      </c>
+      <c r="K136" s="22">
+        <f t="shared" si="40"/>
+        <v>32000</v>
+      </c>
+      <c r="L136" s="22">
+        <v>25400</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/ByeolhoTower.xlsx
+++ b/Assets/06.Table/ByeolhoTower.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B961F694-22A7-4350-B789-09DA8B03723B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{176A9ABE-12E9-455C-9E12-66F5D1170FFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="84">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -382,6 +382,14 @@
   </si>
   <si>
     <t>증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쾌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -974,11 +982,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M129"/>
+  <dimension ref="A1:M133"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D123" sqref="D123"/>
+      <selection pane="bottomLeft" activeCell="H130" sqref="H130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6865,11 +6873,11 @@
         <v>30000</v>
       </c>
       <c r="E118">
-        <f t="shared" ref="E118:E129" si="84">E117</f>
+        <f t="shared" ref="E118:E133" si="84">E117</f>
         <v>1</v>
       </c>
       <c r="F118" s="2">
-        <f t="shared" ref="F118:F129" si="85">F117*10</f>
+        <f t="shared" ref="F118:F133" si="85">F117*10</f>
         <v>9.9999999999999991E+191</v>
       </c>
       <c r="G118">
@@ -6888,7 +6896,7 @@
         <v>57</v>
       </c>
       <c r="K118">
-        <f t="shared" ref="K118:K129" si="87">K117+200</f>
+        <f t="shared" ref="K118:K133" si="87">K117+200</f>
         <v>25200</v>
       </c>
       <c r="L118">
@@ -7460,9 +7468,213 @@
         <v>12700</v>
       </c>
     </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>128</v>
+      </c>
+      <c r="B130" s="1" t="str">
+        <f t="shared" ref="B130:C130" si="106">B129</f>
+        <v>1-1</v>
+      </c>
+      <c r="C130">
+        <f t="shared" si="106"/>
+        <v>9054</v>
+      </c>
+      <c r="D130">
+        <f>VLOOKUP(A130,Balance!E:K,7,FALSE)</f>
+        <v>33000</v>
+      </c>
+      <c r="E130">
+        <f t="shared" si="84"/>
+        <v>1</v>
+      </c>
+      <c r="F130" s="2">
+        <f t="shared" si="85"/>
+        <v>9.9999999999999999E+203</v>
+      </c>
+      <c r="G130">
+        <f t="shared" ref="G130:I130" si="107">G129</f>
+        <v>1000</v>
+      </c>
+      <c r="H130">
+        <f t="shared" si="107"/>
+        <v>8</v>
+      </c>
+      <c r="I130">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="J130" t="s">
+        <v>57</v>
+      </c>
+      <c r="K130">
+        <f t="shared" si="87"/>
+        <v>27600</v>
+      </c>
+      <c r="L130">
+        <v>9054</v>
+      </c>
+      <c r="M130">
+        <f>VLOOKUP(A130,Balance!E:L,8,FALSE)/2</f>
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>129</v>
+      </c>
+      <c r="B131" s="1" t="str">
+        <f>B130</f>
+        <v>1-1</v>
+      </c>
+      <c r="C131">
+        <f>C130</f>
+        <v>9054</v>
+      </c>
+      <c r="D131">
+        <f>VLOOKUP(A131,Balance!E:K,7,FALSE)</f>
+        <v>33000</v>
+      </c>
+      <c r="E131">
+        <f t="shared" si="84"/>
+        <v>1</v>
+      </c>
+      <c r="F131" s="2">
+        <f t="shared" si="85"/>
+        <v>1E+205</v>
+      </c>
+      <c r="G131">
+        <f>G130</f>
+        <v>1000</v>
+      </c>
+      <c r="H131">
+        <f>H130</f>
+        <v>8</v>
+      </c>
+      <c r="I131">
+        <f>I130</f>
+        <v>0</v>
+      </c>
+      <c r="J131" t="s">
+        <v>57</v>
+      </c>
+      <c r="K131">
+        <f t="shared" si="87"/>
+        <v>27800</v>
+      </c>
+      <c r="L131">
+        <v>9054</v>
+      </c>
+      <c r="M131">
+        <f>VLOOKUP(A131,Balance!E:L,8,FALSE)/2</f>
+        <v>12900</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>130</v>
+      </c>
+      <c r="B132" s="1" t="str">
+        <f t="shared" ref="B132:C132" si="108">B131</f>
+        <v>1-1</v>
+      </c>
+      <c r="C132">
+        <f t="shared" si="108"/>
+        <v>9054</v>
+      </c>
+      <c r="D132">
+        <f>VLOOKUP(A132,Balance!E:K,7,FALSE)</f>
+        <v>33000</v>
+      </c>
+      <c r="E132">
+        <f t="shared" si="84"/>
+        <v>1</v>
+      </c>
+      <c r="F132" s="2">
+        <f t="shared" si="85"/>
+        <v>1E+206</v>
+      </c>
+      <c r="G132">
+        <f t="shared" ref="G132:I132" si="109">G131</f>
+        <v>1000</v>
+      </c>
+      <c r="H132">
+        <f t="shared" si="109"/>
+        <v>8</v>
+      </c>
+      <c r="I132">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
+      <c r="J132" t="s">
+        <v>57</v>
+      </c>
+      <c r="K132">
+        <f t="shared" si="87"/>
+        <v>28000</v>
+      </c>
+      <c r="L132">
+        <v>9054</v>
+      </c>
+      <c r="M132">
+        <f>VLOOKUP(A132,Balance!E:L,8,FALSE)/2</f>
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>131</v>
+      </c>
+      <c r="B133" s="1" t="str">
+        <f t="shared" ref="B133:C133" si="110">B132</f>
+        <v>1-1</v>
+      </c>
+      <c r="C133">
+        <f t="shared" si="110"/>
+        <v>9054</v>
+      </c>
+      <c r="D133">
+        <f>VLOOKUP(A133,Balance!E:K,7,FALSE)</f>
+        <v>33000</v>
+      </c>
+      <c r="E133">
+        <f t="shared" si="84"/>
+        <v>1</v>
+      </c>
+      <c r="F133" s="2">
+        <f t="shared" si="85"/>
+        <v>1E+207</v>
+      </c>
+      <c r="G133">
+        <f t="shared" ref="G133:I133" si="111">G132</f>
+        <v>1000</v>
+      </c>
+      <c r="H133">
+        <f t="shared" si="111"/>
+        <v>8</v>
+      </c>
+      <c r="I133">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="J133" t="s">
+        <v>57</v>
+      </c>
+      <c r="K133">
+        <f t="shared" si="87"/>
+        <v>28200</v>
+      </c>
+      <c r="L133">
+        <v>9054</v>
+      </c>
+      <c r="M133">
+        <f>VLOOKUP(A133,Balance!E:L,8,FALSE)/2</f>
+        <v>13100</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:K129">
+  <conditionalFormatting sqref="A2:K133">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
@@ -7474,10 +7686,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4C63F0-02E4-48AB-8F58-B57B021B5DE4}">
-  <dimension ref="A1:Z136"/>
+  <dimension ref="A1:Z140"/>
   <sheetViews>
-    <sheetView topLeftCell="B116" workbookViewId="0">
-      <selection activeCell="L134" sqref="L134"/>
+    <sheetView topLeftCell="B120" workbookViewId="0">
+      <selection activeCell="J135" sqref="J135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10145,8 +10357,20 @@
         <v>14900</v>
       </c>
       <c r="M58" s="22"/>
-      <c r="P58" s="11"/>
-      <c r="Q58" s="11"/>
+      <c r="N58" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="O58" s="16">
+        <v>204</v>
+      </c>
+      <c r="P58" s="17">
+        <f t="shared" ref="P58:P59" si="36">POWER(10,O58)</f>
+        <v>9.9999999999999999E+203</v>
+      </c>
+      <c r="Q58" s="17" t="str">
+        <f t="shared" ref="Q58:Q59" si="37">RIGHT(P58,O58)</f>
+        <v>1E+204</v>
+      </c>
       <c r="R58" s="11"/>
       <c r="S58" s="11"/>
       <c r="T58" s="11"/>
@@ -10188,8 +10412,20 @@
         <v>15000</v>
       </c>
       <c r="M59" s="22"/>
-      <c r="P59" s="11"/>
-      <c r="Q59" s="11"/>
+      <c r="N59" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="O59" s="16">
+        <v>208</v>
+      </c>
+      <c r="P59" s="17">
+        <f t="shared" si="36"/>
+        <v>9.9999999999999998E+207</v>
+      </c>
+      <c r="Q59" s="17" t="str">
+        <f t="shared" si="37"/>
+        <v>1E+208</v>
+      </c>
       <c r="R59" s="11"/>
       <c r="S59" s="11"/>
       <c r="T59" s="11"/>
@@ -10570,7 +10806,7 @@
         <v>60</v>
       </c>
       <c r="F69" s="17" t="str">
-        <f t="shared" ref="F69:F104" si="36">H69&amp;I69</f>
+        <f t="shared" ref="F69:F104" si="38">H69&amp;I69</f>
         <v>1적</v>
       </c>
       <c r="G69" s="17">
@@ -10602,7 +10838,7 @@
         <v>61</v>
       </c>
       <c r="F70" s="17" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>10적</v>
       </c>
       <c r="G70" s="17">
@@ -10634,7 +10870,7 @@
         <v>62</v>
       </c>
       <c r="F71" s="17" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>100적</v>
       </c>
       <c r="G71" s="17">
@@ -10666,7 +10902,7 @@
         <v>63</v>
       </c>
       <c r="F72" s="17" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1000적</v>
       </c>
       <c r="G72" s="17">
@@ -10698,7 +10934,7 @@
         <v>64</v>
       </c>
       <c r="F73" s="17" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1고</v>
       </c>
       <c r="G73" s="17">
@@ -10714,7 +10950,7 @@
         <v>고</v>
       </c>
       <c r="J73" s="16" t="str">
-        <f t="shared" ref="J73:J104" si="37">VLOOKUP(I73,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J73:J104" si="39">VLOOKUP(I73,N:Q,4,FALSE)</f>
         <v>1E+140</v>
       </c>
       <c r="K73" s="22">
@@ -10730,11 +10966,11 @@
         <v>65</v>
       </c>
       <c r="F74" s="17" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>10고</v>
       </c>
       <c r="G74" s="17">
-        <f t="shared" ref="G74:G104" si="38">H74*J74</f>
+        <f t="shared" ref="G74:G104" si="40">H74*J74</f>
         <v>1E+141</v>
       </c>
       <c r="H74" s="17">
@@ -10746,7 +10982,7 @@
         <v>고</v>
       </c>
       <c r="J74" s="16" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+140</v>
       </c>
       <c r="K74" s="22">
@@ -10762,11 +10998,11 @@
         <v>66</v>
       </c>
       <c r="F75" s="17" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>100고</v>
       </c>
       <c r="G75" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1.0000000000000001E+142</v>
       </c>
       <c r="H75" s="17">
@@ -10778,7 +11014,7 @@
         <v>고</v>
       </c>
       <c r="J75" s="16" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+140</v>
       </c>
       <c r="K75" s="22">
@@ -10794,11 +11030,11 @@
         <v>67</v>
       </c>
       <c r="F76" s="17" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1000고</v>
       </c>
       <c r="G76" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1E+143</v>
       </c>
       <c r="H76" s="17">
@@ -10810,7 +11046,7 @@
         <v>고</v>
       </c>
       <c r="J76" s="16" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+140</v>
       </c>
       <c r="K76" s="22">
@@ -10826,11 +11062,11 @@
         <v>68</v>
       </c>
       <c r="F77" s="17" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1화</v>
       </c>
       <c r="G77" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1E+144</v>
       </c>
       <c r="H77" s="17">
@@ -10842,7 +11078,7 @@
         <v>화</v>
       </c>
       <c r="J77" s="16" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+144</v>
       </c>
       <c r="K77" s="22">
@@ -10858,15 +11094,15 @@
         <v>69</v>
       </c>
       <c r="F78" s="17" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>10화</v>
       </c>
       <c r="G78" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>9.9999999999999999E+144</v>
       </c>
       <c r="H78" s="17">
-        <f t="shared" ref="H78:H136" si="39">H74</f>
+        <f t="shared" ref="H78:H140" si="41">H74</f>
         <v>10</v>
       </c>
       <c r="I78" s="16" t="str" cm="1">
@@ -10874,7 +11110,7 @@
         <v>화</v>
       </c>
       <c r="J78" s="16" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+144</v>
       </c>
       <c r="K78" s="22">
@@ -10890,15 +11126,15 @@
         <v>70</v>
       </c>
       <c r="F79" s="17" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>100화</v>
       </c>
       <c r="G79" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>9.9999999999999993E+145</v>
       </c>
       <c r="H79" s="17">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>100</v>
       </c>
       <c r="I79" s="16" t="str" cm="1">
@@ -10906,7 +11142,7 @@
         <v>화</v>
       </c>
       <c r="J79" s="16" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+144</v>
       </c>
       <c r="K79" s="22">
@@ -10922,15 +11158,15 @@
         <v>71</v>
       </c>
       <c r="F80" s="17" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1000화</v>
       </c>
       <c r="G80" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>9.9999999999999998E+146</v>
       </c>
       <c r="H80" s="17">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1000</v>
       </c>
       <c r="I80" s="16" t="str" cm="1">
@@ -10938,7 +11174,7 @@
         <v>화</v>
       </c>
       <c r="J80" s="16" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+144</v>
       </c>
       <c r="K80" s="22">
@@ -10954,15 +11190,15 @@
         <v>72</v>
       </c>
       <c r="F81" s="17" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1명</v>
       </c>
       <c r="G81" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1E+148</v>
       </c>
       <c r="H81" s="17">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="I81" s="16" t="str" cm="1">
@@ -10970,7 +11206,7 @@
         <v>명</v>
       </c>
       <c r="J81" s="16" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+148</v>
       </c>
       <c r="K81" s="22">
@@ -10986,15 +11222,15 @@
         <v>73</v>
       </c>
       <c r="F82" s="17" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>10명</v>
       </c>
       <c r="G82" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1E+149</v>
       </c>
       <c r="H82" s="17">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>10</v>
       </c>
       <c r="I82" s="16" t="str" cm="1">
@@ -11002,7 +11238,7 @@
         <v>명</v>
       </c>
       <c r="J82" s="16" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+148</v>
       </c>
       <c r="K82" s="22">
@@ -11018,15 +11254,15 @@
         <v>74</v>
       </c>
       <c r="F83" s="17" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>100명</v>
       </c>
       <c r="G83" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>9.9999999999999998E+149</v>
       </c>
       <c r="H83" s="17">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>100</v>
       </c>
       <c r="I83" s="16" t="str" cm="1">
@@ -11034,7 +11270,7 @@
         <v>명</v>
       </c>
       <c r="J83" s="16" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+148</v>
       </c>
       <c r="K83" s="22">
@@ -11050,15 +11286,15 @@
         <v>75</v>
       </c>
       <c r="F84" s="17" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1000명</v>
       </c>
       <c r="G84" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1E+151</v>
       </c>
       <c r="H84" s="17">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1000</v>
       </c>
       <c r="I84" s="16" t="str" cm="1">
@@ -11066,7 +11302,7 @@
         <v>명</v>
       </c>
       <c r="J84" s="16" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+148</v>
       </c>
       <c r="K84" s="22">
@@ -11082,15 +11318,15 @@
         <v>76</v>
       </c>
       <c r="F85" s="17" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1월</v>
       </c>
       <c r="G85" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1E+152</v>
       </c>
       <c r="H85" s="17">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="I85" s="16" t="str" cm="1">
@@ -11098,7 +11334,7 @@
         <v>월</v>
       </c>
       <c r="J85" s="16" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+152</v>
       </c>
       <c r="K85" s="22">
@@ -11114,15 +11350,15 @@
         <v>77</v>
       </c>
       <c r="F86" s="17" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>10월</v>
       </c>
       <c r="G86" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1E+153</v>
       </c>
       <c r="H86" s="17">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>10</v>
       </c>
       <c r="I86" s="16" t="str" cm="1">
@@ -11130,7 +11366,7 @@
         <v>월</v>
       </c>
       <c r="J86" s="16" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+152</v>
       </c>
       <c r="K86" s="22">
@@ -11146,15 +11382,15 @@
         <v>78</v>
       </c>
       <c r="F87" s="17" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>100월</v>
       </c>
       <c r="G87" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1E+154</v>
       </c>
       <c r="H87" s="17">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>100</v>
       </c>
       <c r="I87" s="16" t="str" cm="1">
@@ -11162,7 +11398,7 @@
         <v>월</v>
       </c>
       <c r="J87" s="16" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+152</v>
       </c>
       <c r="K87" s="22">
@@ -11178,15 +11414,15 @@
         <v>79</v>
       </c>
       <c r="F88" s="17" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1000월</v>
       </c>
       <c r="G88" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1E+155</v>
       </c>
       <c r="H88" s="17">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1000</v>
       </c>
       <c r="I88" s="16" t="str" cm="1">
@@ -11194,7 +11430,7 @@
         <v>월</v>
       </c>
       <c r="J88" s="16" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+152</v>
       </c>
       <c r="K88" s="22">
@@ -11210,15 +11446,15 @@
         <v>80</v>
       </c>
       <c r="F89" s="17" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1후</v>
       </c>
       <c r="G89" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>9.9999999999999998E+155</v>
       </c>
       <c r="H89" s="17">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="I89" s="16" t="str" cm="1">
@@ -11226,7 +11462,7 @@
         <v>후</v>
       </c>
       <c r="J89" s="16" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+156</v>
       </c>
       <c r="K89" s="22">
@@ -11242,15 +11478,15 @@
         <v>81</v>
       </c>
       <c r="F90" s="17" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>10후</v>
       </c>
       <c r="G90" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>9.9999999999999998E+156</v>
       </c>
       <c r="H90" s="17">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>10</v>
       </c>
       <c r="I90" s="16" t="str" cm="1">
@@ -11258,7 +11494,7 @@
         <v>후</v>
       </c>
       <c r="J90" s="16" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+156</v>
       </c>
       <c r="K90" s="22">
@@ -11274,15 +11510,15 @@
         <v>82</v>
       </c>
       <c r="F91" s="17" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>100후</v>
       </c>
       <c r="G91" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>9.9999999999999995E+157</v>
       </c>
       <c r="H91" s="17">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>100</v>
       </c>
       <c r="I91" s="16" t="str" cm="1">
@@ -11290,7 +11526,7 @@
         <v>후</v>
       </c>
       <c r="J91" s="16" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+156</v>
       </c>
       <c r="K91" s="22">
@@ -11306,15 +11542,15 @@
         <v>83</v>
       </c>
       <c r="F92" s="17" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1000후</v>
       </c>
       <c r="G92" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>9.9999999999999993E+158</v>
       </c>
       <c r="H92" s="17">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1000</v>
       </c>
       <c r="I92" s="16" t="str" cm="1">
@@ -11322,7 +11558,7 @@
         <v>후</v>
       </c>
       <c r="J92" s="16" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+156</v>
       </c>
       <c r="K92" s="22">
@@ -11338,15 +11574,15 @@
         <v>84</v>
       </c>
       <c r="F93" s="17" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1단</v>
       </c>
       <c r="G93" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1E+160</v>
       </c>
       <c r="H93" s="17">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="I93" s="16" t="str" cm="1">
@@ -11354,7 +11590,7 @@
         <v>단</v>
       </c>
       <c r="J93" s="16" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+160</v>
       </c>
       <c r="K93" s="22">
@@ -11370,15 +11606,15 @@
         <v>85</v>
       </c>
       <c r="F94" s="17" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>10단</v>
       </c>
       <c r="G94" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1E+161</v>
       </c>
       <c r="H94" s="17">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>10</v>
       </c>
       <c r="I94" s="16" t="str" cm="1">
@@ -11386,7 +11622,7 @@
         <v>단</v>
       </c>
       <c r="J94" s="16" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+160</v>
       </c>
       <c r="K94" s="22">
@@ -11402,15 +11638,15 @@
         <v>86</v>
       </c>
       <c r="F95" s="17" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>100단</v>
       </c>
       <c r="G95" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>9.9999999999999994E+161</v>
       </c>
       <c r="H95" s="17">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>100</v>
       </c>
       <c r="I95" s="16" t="str" cm="1">
@@ -11418,7 +11654,7 @@
         <v>단</v>
       </c>
       <c r="J95" s="16" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+160</v>
       </c>
       <c r="K95" s="22">
@@ -11434,15 +11670,15 @@
         <v>87</v>
       </c>
       <c r="F96" s="17" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1000단</v>
       </c>
       <c r="G96" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>9.9999999999999994E+162</v>
       </c>
       <c r="H96" s="17">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1000</v>
       </c>
       <c r="I96" s="16" t="str" cm="1">
@@ -11450,7 +11686,7 @@
         <v>단</v>
       </c>
       <c r="J96" s="16" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+160</v>
       </c>
       <c r="K96" s="22">
@@ -11466,15 +11702,15 @@
         <v>88</v>
       </c>
       <c r="F97" s="17" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1절</v>
       </c>
       <c r="G97" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1E+164</v>
       </c>
       <c r="H97" s="17">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="I97" s="16" t="str" cm="1">
@@ -11482,7 +11718,7 @@
         <v>절</v>
       </c>
       <c r="J97" s="16" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+164</v>
       </c>
       <c r="K97" s="22">
@@ -11498,15 +11734,15 @@
         <v>89</v>
       </c>
       <c r="F98" s="17" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>10절</v>
       </c>
       <c r="G98" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1.0000000000000001E+165</v>
       </c>
       <c r="H98" s="17">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>10</v>
       </c>
       <c r="I98" s="16" t="str" cm="1">
@@ -11514,7 +11750,7 @@
         <v>절</v>
       </c>
       <c r="J98" s="16" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+164</v>
       </c>
       <c r="K98" s="22">
@@ -11530,15 +11766,15 @@
         <v>90</v>
       </c>
       <c r="F99" s="17" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>100절</v>
       </c>
       <c r="G99" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>9.9999999999999994E+165</v>
       </c>
       <c r="H99" s="17">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>100</v>
       </c>
       <c r="I99" s="16" t="str" cm="1">
@@ -11546,7 +11782,7 @@
         <v>절</v>
       </c>
       <c r="J99" s="16" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+164</v>
       </c>
       <c r="K99" s="22">
@@ -11562,15 +11798,15 @@
         <v>91</v>
       </c>
       <c r="F100" s="17" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1000절</v>
       </c>
       <c r="G100" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1E+167</v>
       </c>
       <c r="H100" s="17">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1000</v>
       </c>
       <c r="I100" s="16" t="str" cm="1">
@@ -11578,7 +11814,7 @@
         <v>절</v>
       </c>
       <c r="J100" s="16" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+164</v>
       </c>
       <c r="K100" s="22">
@@ -11594,15 +11830,15 @@
         <v>92</v>
       </c>
       <c r="F101" s="17" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1격</v>
       </c>
       <c r="G101" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>9.9999999999999993E+167</v>
       </c>
       <c r="H101" s="17">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="I101" s="16" t="str" cm="1">
@@ -11610,7 +11846,7 @@
         <v>격</v>
       </c>
       <c r="J101" s="16" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+168</v>
       </c>
       <c r="K101" s="22">
@@ -11627,15 +11863,15 @@
         <v>93</v>
       </c>
       <c r="F102" s="17" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>10격</v>
       </c>
       <c r="G102" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>9.9999999999999993E+168</v>
       </c>
       <c r="H102" s="17">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>10</v>
       </c>
       <c r="I102" s="16" t="str" cm="1">
@@ -11643,11 +11879,11 @@
         <v>격</v>
       </c>
       <c r="J102" s="16" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+168</v>
       </c>
       <c r="K102" s="22">
-        <f t="shared" ref="K102:K136" si="40">K98+1000</f>
+        <f t="shared" ref="K102:K140" si="42">K98+1000</f>
         <v>24000</v>
       </c>
       <c r="L102" s="22">
@@ -11660,15 +11896,15 @@
         <v>94</v>
       </c>
       <c r="F103" s="17" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>100격</v>
       </c>
       <c r="G103" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>9.999999999999999E+169</v>
       </c>
       <c r="H103" s="17">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>100</v>
       </c>
       <c r="I103" s="16" t="str" cm="1">
@@ -11676,11 +11912,11 @@
         <v>격</v>
       </c>
       <c r="J103" s="16" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+168</v>
       </c>
       <c r="K103" s="22">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>24000</v>
       </c>
       <c r="L103" s="22">
@@ -11693,15 +11929,15 @@
         <v>95</v>
       </c>
       <c r="F104" s="17" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1000격</v>
       </c>
       <c r="G104" s="17">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>9.9999999999999995E+170</v>
       </c>
       <c r="H104" s="17">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1000</v>
       </c>
       <c r="I104" s="16" t="str" cm="1">
@@ -11709,11 +11945,11 @@
         <v>격</v>
       </c>
       <c r="J104" s="16" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+168</v>
       </c>
       <c r="K104" s="22">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>24000</v>
       </c>
       <c r="L104" s="22">
@@ -11726,15 +11962,15 @@
         <v>96</v>
       </c>
       <c r="F105" s="17" t="str">
-        <f t="shared" ref="F105:F112" si="41">H105&amp;I105</f>
+        <f t="shared" ref="F105:F112" si="43">H105&amp;I105</f>
         <v>1창</v>
       </c>
       <c r="G105" s="17">
-        <f t="shared" ref="G105:G112" si="42">H105*J105</f>
+        <f t="shared" ref="G105:G112" si="44">H105*J105</f>
         <v>1.0000000000000001E+172</v>
       </c>
       <c r="H105" s="17">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="I105" s="16" t="str" cm="1">
@@ -11742,11 +11978,11 @@
         <v>창</v>
       </c>
       <c r="J105" s="16" t="str">
-        <f t="shared" ref="J105:J112" si="43">VLOOKUP(I105,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J105:J112" si="45">VLOOKUP(I105,N:Q,4,FALSE)</f>
         <v>1E+172</v>
       </c>
       <c r="K105" s="22">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>25000</v>
       </c>
       <c r="L105" s="22">
@@ -11758,15 +11994,15 @@
         <v>97</v>
       </c>
       <c r="F106" s="17" t="str">
+        <f t="shared" si="43"/>
+        <v>10창</v>
+      </c>
+      <c r="G106" s="17">
+        <f t="shared" si="44"/>
+        <v>1E+173</v>
+      </c>
+      <c r="H106" s="17">
         <f t="shared" si="41"/>
-        <v>10창</v>
-      </c>
-      <c r="G106" s="17">
-        <f t="shared" si="42"/>
-        <v>1E+173</v>
-      </c>
-      <c r="H106" s="17">
-        <f t="shared" si="39"/>
         <v>10</v>
       </c>
       <c r="I106" s="16" t="str" cm="1">
@@ -11774,11 +12010,11 @@
         <v>창</v>
       </c>
       <c r="J106" s="16" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1E+172</v>
       </c>
       <c r="K106" s="22">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>25000</v>
       </c>
       <c r="L106" s="22">
@@ -11790,15 +12026,15 @@
         <v>98</v>
       </c>
       <c r="F107" s="17" t="str">
+        <f t="shared" si="43"/>
+        <v>100창</v>
+      </c>
+      <c r="G107" s="17">
+        <f t="shared" si="44"/>
+        <v>1.0000000000000001E+174</v>
+      </c>
+      <c r="H107" s="17">
         <f t="shared" si="41"/>
-        <v>100창</v>
-      </c>
-      <c r="G107" s="17">
-        <f t="shared" si="42"/>
-        <v>1.0000000000000001E+174</v>
-      </c>
-      <c r="H107" s="17">
-        <f t="shared" si="39"/>
         <v>100</v>
       </c>
       <c r="I107" s="16" t="str" cm="1">
@@ -11806,11 +12042,11 @@
         <v>창</v>
       </c>
       <c r="J107" s="16" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1E+172</v>
       </c>
       <c r="K107" s="22">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>25000</v>
       </c>
       <c r="L107" s="22">
@@ -11822,15 +12058,15 @@
         <v>99</v>
       </c>
       <c r="F108" s="17" t="str">
+        <f t="shared" si="43"/>
+        <v>1000창</v>
+      </c>
+      <c r="G108" s="17">
+        <f t="shared" si="44"/>
+        <v>1.0000000000000001E+175</v>
+      </c>
+      <c r="H108" s="17">
         <f t="shared" si="41"/>
-        <v>1000창</v>
-      </c>
-      <c r="G108" s="17">
-        <f t="shared" si="42"/>
-        <v>1.0000000000000001E+175</v>
-      </c>
-      <c r="H108" s="17">
-        <f t="shared" si="39"/>
         <v>1000</v>
       </c>
       <c r="I108" s="16" t="str" cm="1">
@@ -11838,11 +12074,11 @@
         <v>창</v>
       </c>
       <c r="J108" s="16" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1E+172</v>
       </c>
       <c r="K108" s="22">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>25000</v>
       </c>
       <c r="L108" s="22">
@@ -11854,15 +12090,15 @@
         <v>100</v>
       </c>
       <c r="F109" s="17" t="str">
+        <f t="shared" si="43"/>
+        <v>1공</v>
+      </c>
+      <c r="G109" s="17">
+        <f t="shared" si="44"/>
+        <v>1E+176</v>
+      </c>
+      <c r="H109" s="17">
         <f t="shared" si="41"/>
-        <v>1공</v>
-      </c>
-      <c r="G109" s="17">
-        <f t="shared" si="42"/>
-        <v>1E+176</v>
-      </c>
-      <c r="H109" s="17">
-        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="I109" s="16" t="str" cm="1">
@@ -11870,11 +12106,11 @@
         <v>공</v>
       </c>
       <c r="J109" s="16" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1E+176</v>
       </c>
       <c r="K109" s="22">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>26000</v>
       </c>
       <c r="L109" s="22">
@@ -11886,15 +12122,15 @@
         <v>101</v>
       </c>
       <c r="F110" s="17" t="str">
+        <f t="shared" si="43"/>
+        <v>10공</v>
+      </c>
+      <c r="G110" s="17">
+        <f t="shared" si="44"/>
+        <v>1E+177</v>
+      </c>
+      <c r="H110" s="17">
         <f t="shared" si="41"/>
-        <v>10공</v>
-      </c>
-      <c r="G110" s="17">
-        <f t="shared" si="42"/>
-        <v>1E+177</v>
-      </c>
-      <c r="H110" s="17">
-        <f t="shared" si="39"/>
         <v>10</v>
       </c>
       <c r="I110" s="16" t="str" cm="1">
@@ -11902,11 +12138,11 @@
         <v>공</v>
       </c>
       <c r="J110" s="16" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1E+176</v>
       </c>
       <c r="K110" s="22">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>26000</v>
       </c>
       <c r="L110" s="22">
@@ -11918,15 +12154,15 @@
         <v>102</v>
       </c>
       <c r="F111" s="17" t="str">
+        <f t="shared" si="43"/>
+        <v>100공</v>
+      </c>
+      <c r="G111" s="17">
+        <f t="shared" si="44"/>
+        <v>1.0000000000000001E+178</v>
+      </c>
+      <c r="H111" s="17">
         <f t="shared" si="41"/>
-        <v>100공</v>
-      </c>
-      <c r="G111" s="17">
-        <f t="shared" si="42"/>
-        <v>1.0000000000000001E+178</v>
-      </c>
-      <c r="H111" s="17">
-        <f t="shared" si="39"/>
         <v>100</v>
       </c>
       <c r="I111" s="16" t="str" cm="1">
@@ -11934,11 +12170,11 @@
         <v>공</v>
       </c>
       <c r="J111" s="16" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1E+176</v>
       </c>
       <c r="K111" s="22">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>26000</v>
       </c>
       <c r="L111" s="22">
@@ -11950,15 +12186,15 @@
         <v>103</v>
       </c>
       <c r="F112" s="17" t="str">
+        <f t="shared" si="43"/>
+        <v>1000공</v>
+      </c>
+      <c r="G112" s="17">
+        <f t="shared" si="44"/>
+        <v>9.9999999999999998E+178</v>
+      </c>
+      <c r="H112" s="17">
         <f t="shared" si="41"/>
-        <v>1000공</v>
-      </c>
-      <c r="G112" s="17">
-        <f t="shared" si="42"/>
-        <v>9.9999999999999998E+178</v>
-      </c>
-      <c r="H112" s="17">
-        <f t="shared" si="39"/>
         <v>1000</v>
       </c>
       <c r="I112" s="16" t="str" cm="1">
@@ -11966,11 +12202,11 @@
         <v>공</v>
       </c>
       <c r="J112" s="16" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1E+176</v>
       </c>
       <c r="K112" s="22">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>26000</v>
       </c>
       <c r="L112" s="22">
@@ -11982,15 +12218,15 @@
         <v>104</v>
       </c>
       <c r="F113" s="17" t="str">
-        <f t="shared" ref="F113:F120" si="44">H113&amp;I113</f>
+        <f t="shared" ref="F113:F120" si="46">H113&amp;I113</f>
         <v>1채</v>
       </c>
       <c r="G113" s="17">
-        <f t="shared" ref="G113:G120" si="45">H113*J113</f>
+        <f t="shared" ref="G113:G120" si="47">H113*J113</f>
         <v>1E+180</v>
       </c>
       <c r="H113" s="17">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="I113" s="16" t="str" cm="1">
@@ -11998,11 +12234,11 @@
         <v>채</v>
       </c>
       <c r="J113" s="16" t="str">
-        <f t="shared" ref="J113:J120" si="46">VLOOKUP(I113,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J113:J120" si="48">VLOOKUP(I113,N:Q,4,FALSE)</f>
         <v>1E+180</v>
       </c>
       <c r="K113" s="22">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>27000</v>
       </c>
       <c r="L113" s="22">
@@ -12014,15 +12250,15 @@
         <v>105</v>
       </c>
       <c r="F114" s="17" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>10채</v>
       </c>
       <c r="G114" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>9.9999999999999992E+180</v>
       </c>
       <c r="H114" s="17">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>10</v>
       </c>
       <c r="I114" s="16" t="str" cm="1">
@@ -12030,11 +12266,11 @@
         <v>채</v>
       </c>
       <c r="J114" s="16" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1E+180</v>
       </c>
       <c r="K114" s="22">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>27000</v>
       </c>
       <c r="L114" s="22">
@@ -12046,15 +12282,15 @@
         <v>106</v>
       </c>
       <c r="F115" s="17" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>100채</v>
       </c>
       <c r="G115" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1.0000000000000001E+182</v>
       </c>
       <c r="H115" s="17">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>100</v>
       </c>
       <c r="I115" s="16" t="str" cm="1">
@@ -12062,11 +12298,11 @@
         <v>채</v>
       </c>
       <c r="J115" s="16" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1E+180</v>
       </c>
       <c r="K115" s="22">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>27000</v>
       </c>
       <c r="L115" s="22">
@@ -12078,15 +12314,15 @@
         <v>107</v>
       </c>
       <c r="F116" s="17" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1000채</v>
       </c>
       <c r="G116" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1.0000000000000001E+183</v>
       </c>
       <c r="H116" s="17">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1000</v>
       </c>
       <c r="I116" s="16" t="str" cm="1">
@@ -12094,11 +12330,11 @@
         <v>채</v>
       </c>
       <c r="J116" s="16" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1E+180</v>
       </c>
       <c r="K116" s="22">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>27000</v>
       </c>
       <c r="L116" s="22">
@@ -12110,15 +12346,15 @@
         <v>108</v>
       </c>
       <c r="F117" s="17" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1피</v>
       </c>
       <c r="G117" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1E+184</v>
       </c>
       <c r="H117" s="17">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="I117" s="16" t="str" cm="1">
@@ -12126,11 +12362,11 @@
         <v>피</v>
       </c>
       <c r="J117" s="16" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1E+184</v>
       </c>
       <c r="K117" s="22">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>28000</v>
       </c>
       <c r="L117" s="22">
@@ -12142,15 +12378,15 @@
         <v>109</v>
       </c>
       <c r="F118" s="17" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>10피</v>
       </c>
       <c r="G118" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>9.9999999999999998E+184</v>
       </c>
       <c r="H118" s="17">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>10</v>
       </c>
       <c r="I118" s="16" t="str" cm="1">
@@ -12158,11 +12394,11 @@
         <v>피</v>
       </c>
       <c r="J118" s="16" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1E+184</v>
       </c>
       <c r="K118" s="22">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>28000</v>
       </c>
       <c r="L118" s="22">
@@ -12174,15 +12410,15 @@
         <v>110</v>
       </c>
       <c r="F119" s="17" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>100피</v>
       </c>
       <c r="G119" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>9.9999999999999998E+185</v>
       </c>
       <c r="H119" s="17">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>100</v>
       </c>
       <c r="I119" s="16" t="str" cm="1">
@@ -12190,11 +12426,11 @@
         <v>피</v>
       </c>
       <c r="J119" s="16" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1E+184</v>
       </c>
       <c r="K119" s="22">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>28000</v>
       </c>
       <c r="L119" s="22">
@@ -12206,15 +12442,15 @@
         <v>111</v>
       </c>
       <c r="F120" s="17" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1000피</v>
       </c>
       <c r="G120" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1.0000000000000001E+187</v>
       </c>
       <c r="H120" s="17">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1000</v>
       </c>
       <c r="I120" s="16" t="str" cm="1">
@@ -12222,11 +12458,11 @@
         <v>피</v>
       </c>
       <c r="J120" s="16" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1E+184</v>
       </c>
       <c r="K120" s="22">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>28000</v>
       </c>
       <c r="L120" s="22">
@@ -12238,15 +12474,15 @@
         <v>112</v>
       </c>
       <c r="F121" s="17" t="str">
-        <f t="shared" ref="F121:F124" si="47">H121&amp;I121</f>
+        <f t="shared" ref="F121:F124" si="49">H121&amp;I121</f>
         <v>1동</v>
       </c>
       <c r="G121" s="17">
-        <f t="shared" ref="G121:G124" si="48">H121*J121</f>
+        <f t="shared" ref="G121:G124" si="50">H121*J121</f>
         <v>1E+188</v>
       </c>
       <c r="H121" s="17">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="I121" s="16" t="str" cm="1">
@@ -12254,11 +12490,11 @@
         <v>동</v>
       </c>
       <c r="J121" s="16" t="str">
-        <f t="shared" ref="J121:J124" si="49">VLOOKUP(I121,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J121:J124" si="51">VLOOKUP(I121,N:Q,4,FALSE)</f>
         <v>1E+188</v>
       </c>
       <c r="K121" s="22">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>29000</v>
       </c>
       <c r="L121" s="22">
@@ -12270,15 +12506,15 @@
         <v>113</v>
       </c>
       <c r="F122" s="17" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>10동</v>
       </c>
       <c r="G122" s="17">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1E+189</v>
       </c>
       <c r="H122" s="17">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>10</v>
       </c>
       <c r="I122" s="16" t="str" cm="1">
@@ -12286,11 +12522,11 @@
         <v>동</v>
       </c>
       <c r="J122" s="16" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1E+188</v>
       </c>
       <c r="K122" s="22">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>29000</v>
       </c>
       <c r="L122" s="22">
@@ -12302,15 +12538,15 @@
         <v>114</v>
       </c>
       <c r="F123" s="17" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>100동</v>
       </c>
       <c r="G123" s="17">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1.0000000000000001E+190</v>
       </c>
       <c r="H123" s="17">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>100</v>
       </c>
       <c r="I123" s="16" t="str" cm="1">
@@ -12318,11 +12554,11 @@
         <v>동</v>
       </c>
       <c r="J123" s="16" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1E+188</v>
       </c>
       <c r="K123" s="22">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>29000</v>
       </c>
       <c r="L123" s="22">
@@ -12334,15 +12570,15 @@
         <v>115</v>
       </c>
       <c r="F124" s="17" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1000동</v>
       </c>
       <c r="G124" s="17">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1.0000000000000001E+191</v>
       </c>
       <c r="H124" s="17">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1000</v>
       </c>
       <c r="I124" s="16" t="str" cm="1">
@@ -12350,11 +12586,11 @@
         <v>동</v>
       </c>
       <c r="J124" s="16" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1E+188</v>
       </c>
       <c r="K124" s="22">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>29000</v>
       </c>
       <c r="L124" s="22">
@@ -12366,15 +12602,15 @@
         <v>116</v>
       </c>
       <c r="F125" s="17" t="str">
-        <f t="shared" ref="F125:F128" si="50">H125&amp;I125</f>
+        <f t="shared" ref="F125:F128" si="52">H125&amp;I125</f>
         <v>1멸</v>
       </c>
       <c r="G125" s="17">
-        <f t="shared" ref="G125:G128" si="51">H125*J125</f>
+        <f t="shared" ref="G125:G128" si="53">H125*J125</f>
         <v>1E+192</v>
       </c>
       <c r="H125" s="17">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="I125" s="16" t="str" cm="1">
@@ -12382,11 +12618,11 @@
         <v>멸</v>
       </c>
       <c r="J125" s="16" t="str">
-        <f t="shared" ref="J125:J128" si="52">VLOOKUP(I125,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J125:J128" si="54">VLOOKUP(I125,N:Q,4,FALSE)</f>
         <v>1E+192</v>
       </c>
       <c r="K125" s="22">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>30000</v>
       </c>
       <c r="L125" s="22">
@@ -12398,15 +12634,15 @@
         <v>117</v>
       </c>
       <c r="F126" s="17" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>10멸</v>
       </c>
       <c r="G126" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1.0000000000000001E+193</v>
       </c>
       <c r="H126" s="17">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>10</v>
       </c>
       <c r="I126" s="16" t="str" cm="1">
@@ -12414,11 +12650,11 @@
         <v>멸</v>
       </c>
       <c r="J126" s="16" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>1E+192</v>
       </c>
       <c r="K126" s="22">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>30000</v>
       </c>
       <c r="L126" s="22">
@@ -12430,15 +12666,15 @@
         <v>118</v>
       </c>
       <c r="F127" s="17" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>100멸</v>
       </c>
       <c r="G127" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1.0000000000000001E+194</v>
       </c>
       <c r="H127" s="17">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>100</v>
       </c>
       <c r="I127" s="16" t="str" cm="1">
@@ -12446,11 +12682,11 @@
         <v>멸</v>
       </c>
       <c r="J127" s="16" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>1E+192</v>
       </c>
       <c r="K127" s="22">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>30000</v>
       </c>
       <c r="L127" s="22">
@@ -12462,15 +12698,15 @@
         <v>119</v>
       </c>
       <c r="F128" s="17" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1000멸</v>
       </c>
       <c r="G128" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>9.9999999999999998E+194</v>
       </c>
       <c r="H128" s="17">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1000</v>
       </c>
       <c r="I128" s="16" t="str" cm="1">
@@ -12478,11 +12714,11 @@
         <v>멸</v>
       </c>
       <c r="J128" s="16" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>1E+192</v>
       </c>
       <c r="K128" s="22">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>30000</v>
       </c>
       <c r="L128" s="22">
@@ -12494,15 +12730,15 @@
         <v>120</v>
       </c>
       <c r="F129" s="17" t="str">
-        <f t="shared" ref="F129:F136" si="53">H129&amp;I129</f>
+        <f t="shared" ref="F129:F136" si="55">H129&amp;I129</f>
         <v>1향</v>
       </c>
       <c r="G129" s="17">
-        <f t="shared" ref="G129:G136" si="54">H129*J129</f>
+        <f t="shared" ref="G129:G136" si="56">H129*J129</f>
         <v>9.9999999999999995E+195</v>
       </c>
       <c r="H129" s="17">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="I129" s="16" t="str" cm="1">
@@ -12510,11 +12746,11 @@
         <v>향</v>
       </c>
       <c r="J129" s="16" t="str">
-        <f t="shared" ref="J129:J136" si="55">VLOOKUP(I129,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J129:J136" si="57">VLOOKUP(I129,N:Q,4,FALSE)</f>
         <v>1E+196</v>
       </c>
       <c r="K129" s="22">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>31000</v>
       </c>
       <c r="L129" s="22">
@@ -12526,15 +12762,15 @@
         <v>121</v>
       </c>
       <c r="F130" s="17" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>10향</v>
       </c>
       <c r="G130" s="17">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>9.9999999999999995E+196</v>
       </c>
       <c r="H130" s="17">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>10</v>
       </c>
       <c r="I130" s="16" t="str" cm="1">
@@ -12542,11 +12778,11 @@
         <v>향</v>
       </c>
       <c r="J130" s="16" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>1E+196</v>
       </c>
       <c r="K130" s="22">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>31000</v>
       </c>
       <c r="L130" s="22">
@@ -12558,15 +12794,15 @@
         <v>122</v>
       </c>
       <c r="F131" s="17" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>100향</v>
       </c>
       <c r="G131" s="17">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>9.9999999999999988E+197</v>
       </c>
       <c r="H131" s="17">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>100</v>
       </c>
       <c r="I131" s="16" t="str" cm="1">
@@ -12574,11 +12810,11 @@
         <v>향</v>
       </c>
       <c r="J131" s="16" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>1E+196</v>
       </c>
       <c r="K131" s="22">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>31000</v>
       </c>
       <c r="L131" s="22">
@@ -12590,15 +12826,15 @@
         <v>123</v>
       </c>
       <c r="F132" s="17" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1000향</v>
       </c>
       <c r="G132" s="17">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>9.9999999999999988E+198</v>
       </c>
       <c r="H132" s="17">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1000</v>
       </c>
       <c r="I132" s="16" t="str" cm="1">
@@ -12606,11 +12842,11 @@
         <v>향</v>
       </c>
       <c r="J132" s="16" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>1E+196</v>
       </c>
       <c r="K132" s="22">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>31000</v>
       </c>
       <c r="L132" s="22">
@@ -12622,15 +12858,15 @@
         <v>124</v>
       </c>
       <c r="F133" s="17" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1증</v>
       </c>
       <c r="G133" s="17">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>9.9999999999999997E+199</v>
       </c>
       <c r="H133" s="17">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="I133" s="16" t="str" cm="1">
@@ -12638,11 +12874,11 @@
         <v>증</v>
       </c>
       <c r="J133" s="16" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>1E+200</v>
       </c>
       <c r="K133" s="22">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>32000</v>
       </c>
       <c r="L133" s="22">
@@ -12654,15 +12890,15 @@
         <v>125</v>
       </c>
       <c r="F134" s="17" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>10증</v>
       </c>
       <c r="G134" s="17">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>9.999999999999999E+200</v>
       </c>
       <c r="H134" s="17">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>10</v>
       </c>
       <c r="I134" s="16" t="str" cm="1">
@@ -12670,11 +12906,11 @@
         <v>증</v>
       </c>
       <c r="J134" s="16" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>1E+200</v>
       </c>
       <c r="K134" s="22">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>32000</v>
       </c>
       <c r="L134" s="22">
@@ -12686,15 +12922,15 @@
         <v>126</v>
       </c>
       <c r="F135" s="17" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>100증</v>
       </c>
       <c r="G135" s="17">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>9.999999999999999E+201</v>
       </c>
       <c r="H135" s="17">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>100</v>
       </c>
       <c r="I135" s="16" t="str" cm="1">
@@ -12702,11 +12938,11 @@
         <v>증</v>
       </c>
       <c r="J135" s="16" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>1E+200</v>
       </c>
       <c r="K135" s="22">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>32000</v>
       </c>
       <c r="L135" s="22">
@@ -12718,15 +12954,15 @@
         <v>127</v>
       </c>
       <c r="F136" s="17" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1000증</v>
       </c>
       <c r="G136" s="17">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>9.9999999999999999E+202</v>
       </c>
       <c r="H136" s="17">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1000</v>
       </c>
       <c r="I136" s="16" t="str" cm="1">
@@ -12734,15 +12970,143 @@
         <v>증</v>
       </c>
       <c r="J136" s="16" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>1E+200</v>
       </c>
       <c r="K136" s="22">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>32000</v>
       </c>
       <c r="L136" s="22">
         <v>25400</v>
+      </c>
+    </row>
+    <row r="137" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E137" s="16">
+        <v>128</v>
+      </c>
+      <c r="F137" s="17" t="str">
+        <f t="shared" ref="F137:F140" si="58">H137&amp;I137</f>
+        <v>1쾌</v>
+      </c>
+      <c r="G137" s="17">
+        <f t="shared" ref="G137:G140" si="59">H137*J137</f>
+        <v>9.9999999999999999E+203</v>
+      </c>
+      <c r="H137" s="17">
+        <f t="shared" si="41"/>
+        <v>1</v>
+      </c>
+      <c r="I137" s="16" t="str" cm="1">
+        <f t="array" ref="I137">IF(AND(H136&gt;=1000,H137&lt;2),INDEX(N:N,MATCH(I136,N:N,0)+1,0),I136)</f>
+        <v>쾌</v>
+      </c>
+      <c r="J137" s="16" t="str">
+        <f t="shared" ref="J137:J140" si="60">VLOOKUP(I137,N:Q,4,FALSE)</f>
+        <v>1E+204</v>
+      </c>
+      <c r="K137" s="22">
+        <f t="shared" si="42"/>
+        <v>33000</v>
+      </c>
+      <c r="L137" s="22">
+        <v>25600</v>
+      </c>
+    </row>
+    <row r="138" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E138" s="16">
+        <v>129</v>
+      </c>
+      <c r="F138" s="17" t="str">
+        <f t="shared" si="58"/>
+        <v>10쾌</v>
+      </c>
+      <c r="G138" s="17">
+        <f t="shared" si="59"/>
+        <v>1E+205</v>
+      </c>
+      <c r="H138" s="17">
+        <f t="shared" si="41"/>
+        <v>10</v>
+      </c>
+      <c r="I138" s="16" t="str" cm="1">
+        <f t="array" ref="I138">IF(AND(H137&gt;=1000,H138&lt;2),INDEX(N:N,MATCH(I137,N:N,0)+1,0),I137)</f>
+        <v>쾌</v>
+      </c>
+      <c r="J138" s="16" t="str">
+        <f t="shared" si="60"/>
+        <v>1E+204</v>
+      </c>
+      <c r="K138" s="22">
+        <f t="shared" si="42"/>
+        <v>33000</v>
+      </c>
+      <c r="L138" s="22">
+        <v>25800</v>
+      </c>
+    </row>
+    <row r="139" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E139" s="16">
+        <v>130</v>
+      </c>
+      <c r="F139" s="17" t="str">
+        <f t="shared" si="58"/>
+        <v>100쾌</v>
+      </c>
+      <c r="G139" s="17">
+        <f t="shared" si="59"/>
+        <v>1E+206</v>
+      </c>
+      <c r="H139" s="17">
+        <f t="shared" si="41"/>
+        <v>100</v>
+      </c>
+      <c r="I139" s="16" t="str" cm="1">
+        <f t="array" ref="I139">IF(AND(H138&gt;=1000,H139&lt;2),INDEX(N:N,MATCH(I138,N:N,0)+1,0),I138)</f>
+        <v>쾌</v>
+      </c>
+      <c r="J139" s="16" t="str">
+        <f t="shared" si="60"/>
+        <v>1E+204</v>
+      </c>
+      <c r="K139" s="22">
+        <f t="shared" si="42"/>
+        <v>33000</v>
+      </c>
+      <c r="L139" s="22">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="140" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E140" s="16">
+        <v>131</v>
+      </c>
+      <c r="F140" s="17" t="str">
+        <f t="shared" si="58"/>
+        <v>1000쾌</v>
+      </c>
+      <c r="G140" s="17">
+        <f t="shared" si="59"/>
+        <v>1E+207</v>
+      </c>
+      <c r="H140" s="17">
+        <f t="shared" si="41"/>
+        <v>1000</v>
+      </c>
+      <c r="I140" s="16" t="str" cm="1">
+        <f t="array" ref="I140">IF(AND(H139&gt;=1000,H140&lt;2),INDEX(N:N,MATCH(I139,N:N,0)+1,0),I139)</f>
+        <v>쾌</v>
+      </c>
+      <c r="J140" s="16" t="str">
+        <f t="shared" si="60"/>
+        <v>1E+204</v>
+      </c>
+      <c r="K140" s="22">
+        <f t="shared" si="42"/>
+        <v>33000</v>
+      </c>
+      <c r="L140" s="22">
+        <v>26200</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/ByeolhoTower.xlsx
+++ b/Assets/06.Table/ByeolhoTower.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{176A9ABE-12E9-455C-9E12-66F5D1170FFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F532F1AF-CB8E-4ED7-97D5-DDD9365AA5CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="85">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -390,6 +390,10 @@
   </si>
   <si>
     <t>우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팽</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -982,11 +986,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M133"/>
+  <dimension ref="A1:M137"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H130" sqref="H130"/>
+      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F135" sqref="F135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6873,11 +6877,11 @@
         <v>30000</v>
       </c>
       <c r="E118">
-        <f t="shared" ref="E118:E133" si="84">E117</f>
+        <f t="shared" ref="E118:E137" si="84">E117</f>
         <v>1</v>
       </c>
       <c r="F118" s="2">
-        <f t="shared" ref="F118:F133" si="85">F117*10</f>
+        <f t="shared" ref="F118:F137" si="85">F117*10</f>
         <v>9.9999999999999991E+191</v>
       </c>
       <c r="G118">
@@ -6896,7 +6900,7 @@
         <v>57</v>
       </c>
       <c r="K118">
-        <f t="shared" ref="K118:K133" si="87">K117+200</f>
+        <f t="shared" ref="K118:K137" si="87">K117+200</f>
         <v>25200</v>
       </c>
       <c r="L118">
@@ -7672,9 +7676,213 @@
         <v>13100</v>
       </c>
     </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>132</v>
+      </c>
+      <c r="B134" s="1" t="str">
+        <f t="shared" ref="B134:C134" si="112">B133</f>
+        <v>1-1</v>
+      </c>
+      <c r="C134">
+        <f t="shared" si="112"/>
+        <v>9054</v>
+      </c>
+      <c r="D134">
+        <f>VLOOKUP(A134,Balance!E:K,7,FALSE)</f>
+        <v>34000</v>
+      </c>
+      <c r="E134">
+        <f t="shared" si="84"/>
+        <v>1</v>
+      </c>
+      <c r="F134" s="2">
+        <f t="shared" si="85"/>
+        <v>9.9999999999999998E+207</v>
+      </c>
+      <c r="G134">
+        <f t="shared" ref="G134:I134" si="113">G133</f>
+        <v>1000</v>
+      </c>
+      <c r="H134">
+        <f t="shared" si="113"/>
+        <v>8</v>
+      </c>
+      <c r="I134">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="J134" t="s">
+        <v>57</v>
+      </c>
+      <c r="K134">
+        <f t="shared" si="87"/>
+        <v>28400</v>
+      </c>
+      <c r="L134">
+        <v>9054</v>
+      </c>
+      <c r="M134">
+        <f>VLOOKUP(A134,Balance!E:L,8,FALSE)/2</f>
+        <v>13200</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>133</v>
+      </c>
+      <c r="B135" s="1" t="str">
+        <f t="shared" ref="B135:C135" si="114">B134</f>
+        <v>1-1</v>
+      </c>
+      <c r="C135">
+        <f t="shared" si="114"/>
+        <v>9054</v>
+      </c>
+      <c r="D135">
+        <f>VLOOKUP(A135,Balance!E:K,7,FALSE)</f>
+        <v>34000</v>
+      </c>
+      <c r="E135">
+        <f t="shared" si="84"/>
+        <v>1</v>
+      </c>
+      <c r="F135" s="2">
+        <f t="shared" si="85"/>
+        <v>1.0000000000000001E+209</v>
+      </c>
+      <c r="G135">
+        <f t="shared" ref="G135:I135" si="115">G134</f>
+        <v>1000</v>
+      </c>
+      <c r="H135">
+        <f t="shared" si="115"/>
+        <v>8</v>
+      </c>
+      <c r="I135">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="J135" t="s">
+        <v>57</v>
+      </c>
+      <c r="K135">
+        <f t="shared" si="87"/>
+        <v>28600</v>
+      </c>
+      <c r="L135">
+        <v>9054</v>
+      </c>
+      <c r="M135">
+        <f>VLOOKUP(A135,Balance!E:L,8,FALSE)/2</f>
+        <v>13300</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>134</v>
+      </c>
+      <c r="B136" s="1" t="str">
+        <f>B135</f>
+        <v>1-1</v>
+      </c>
+      <c r="C136">
+        <f>C135</f>
+        <v>9054</v>
+      </c>
+      <c r="D136">
+        <f>VLOOKUP(A136,Balance!E:K,7,FALSE)</f>
+        <v>34000</v>
+      </c>
+      <c r="E136">
+        <f t="shared" si="84"/>
+        <v>1</v>
+      </c>
+      <c r="F136" s="2">
+        <f t="shared" si="85"/>
+        <v>1.0000000000000001E+210</v>
+      </c>
+      <c r="G136">
+        <f>G135</f>
+        <v>1000</v>
+      </c>
+      <c r="H136">
+        <f>H135</f>
+        <v>8</v>
+      </c>
+      <c r="I136">
+        <f>I135</f>
+        <v>0</v>
+      </c>
+      <c r="J136" t="s">
+        <v>57</v>
+      </c>
+      <c r="K136">
+        <f t="shared" si="87"/>
+        <v>28800</v>
+      </c>
+      <c r="L136">
+        <v>9054</v>
+      </c>
+      <c r="M136">
+        <f>VLOOKUP(A136,Balance!E:L,8,FALSE)/2</f>
+        <v>13400</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>135</v>
+      </c>
+      <c r="B137" s="1" t="str">
+        <f t="shared" ref="B137:C137" si="116">B136</f>
+        <v>1-1</v>
+      </c>
+      <c r="C137">
+        <f t="shared" si="116"/>
+        <v>9054</v>
+      </c>
+      <c r="D137">
+        <f>VLOOKUP(A137,Balance!E:K,7,FALSE)</f>
+        <v>34000</v>
+      </c>
+      <c r="E137">
+        <f t="shared" si="84"/>
+        <v>1</v>
+      </c>
+      <c r="F137" s="2">
+        <f t="shared" si="85"/>
+        <v>1.0000000000000001E+211</v>
+      </c>
+      <c r="G137">
+        <f t="shared" ref="G137:I137" si="117">G136</f>
+        <v>1000</v>
+      </c>
+      <c r="H137">
+        <f t="shared" si="117"/>
+        <v>8</v>
+      </c>
+      <c r="I137">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="J137" t="s">
+        <v>57</v>
+      </c>
+      <c r="K137">
+        <f t="shared" si="87"/>
+        <v>29000</v>
+      </c>
+      <c r="L137">
+        <v>9054</v>
+      </c>
+      <c r="M137">
+        <f>VLOOKUP(A137,Balance!E:L,8,FALSE)/2</f>
+        <v>13500</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:K133">
+  <conditionalFormatting sqref="A2:K137">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
@@ -7686,10 +7894,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4C63F0-02E4-48AB-8F58-B57B021B5DE4}">
-  <dimension ref="A1:Z140"/>
+  <dimension ref="A1:Z144"/>
   <sheetViews>
-    <sheetView topLeftCell="B120" workbookViewId="0">
-      <selection activeCell="J135" sqref="J135"/>
+    <sheetView topLeftCell="B123" workbookViewId="0">
+      <selection activeCell="I139" sqref="I139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10467,8 +10675,20 @@
         <v>15100</v>
       </c>
       <c r="M60" s="22"/>
-      <c r="P60" s="11"/>
-      <c r="Q60" s="11"/>
+      <c r="N60" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="O60" s="16">
+        <v>212</v>
+      </c>
+      <c r="P60" s="17">
+        <f t="shared" ref="P60" si="38">POWER(10,O60)</f>
+        <v>9.9999999999999991E+211</v>
+      </c>
+      <c r="Q60" s="17" t="str">
+        <f t="shared" ref="Q60" si="39">RIGHT(P60,O60)</f>
+        <v>1E+212</v>
+      </c>
       <c r="R60" s="11"/>
       <c r="S60" s="11"/>
       <c r="T60" s="11"/>
@@ -10806,7 +11026,7 @@
         <v>60</v>
       </c>
       <c r="F69" s="17" t="str">
-        <f t="shared" ref="F69:F104" si="38">H69&amp;I69</f>
+        <f t="shared" ref="F69:F104" si="40">H69&amp;I69</f>
         <v>1적</v>
       </c>
       <c r="G69" s="17">
@@ -10838,7 +11058,7 @@
         <v>61</v>
       </c>
       <c r="F70" s="17" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>10적</v>
       </c>
       <c r="G70" s="17">
@@ -10870,7 +11090,7 @@
         <v>62</v>
       </c>
       <c r="F71" s="17" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>100적</v>
       </c>
       <c r="G71" s="17">
@@ -10902,7 +11122,7 @@
         <v>63</v>
       </c>
       <c r="F72" s="17" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1000적</v>
       </c>
       <c r="G72" s="17">
@@ -10934,7 +11154,7 @@
         <v>64</v>
       </c>
       <c r="F73" s="17" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1고</v>
       </c>
       <c r="G73" s="17">
@@ -10950,7 +11170,7 @@
         <v>고</v>
       </c>
       <c r="J73" s="16" t="str">
-        <f t="shared" ref="J73:J104" si="39">VLOOKUP(I73,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J73:J104" si="41">VLOOKUP(I73,N:Q,4,FALSE)</f>
         <v>1E+140</v>
       </c>
       <c r="K73" s="22">
@@ -10966,11 +11186,11 @@
         <v>65</v>
       </c>
       <c r="F74" s="17" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>10고</v>
       </c>
       <c r="G74" s="17">
-        <f t="shared" ref="G74:G104" si="40">H74*J74</f>
+        <f t="shared" ref="G74:G104" si="42">H74*J74</f>
         <v>1E+141</v>
       </c>
       <c r="H74" s="17">
@@ -10982,7 +11202,7 @@
         <v>고</v>
       </c>
       <c r="J74" s="16" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+140</v>
       </c>
       <c r="K74" s="22">
@@ -10998,11 +11218,11 @@
         <v>66</v>
       </c>
       <c r="F75" s="17" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>100고</v>
       </c>
       <c r="G75" s="17">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1.0000000000000001E+142</v>
       </c>
       <c r="H75" s="17">
@@ -11014,7 +11234,7 @@
         <v>고</v>
       </c>
       <c r="J75" s="16" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+140</v>
       </c>
       <c r="K75" s="22">
@@ -11030,11 +11250,11 @@
         <v>67</v>
       </c>
       <c r="F76" s="17" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1000고</v>
       </c>
       <c r="G76" s="17">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1E+143</v>
       </c>
       <c r="H76" s="17">
@@ -11046,7 +11266,7 @@
         <v>고</v>
       </c>
       <c r="J76" s="16" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+140</v>
       </c>
       <c r="K76" s="22">
@@ -11062,11 +11282,11 @@
         <v>68</v>
       </c>
       <c r="F77" s="17" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1화</v>
       </c>
       <c r="G77" s="17">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1E+144</v>
       </c>
       <c r="H77" s="17">
@@ -11078,7 +11298,7 @@
         <v>화</v>
       </c>
       <c r="J77" s="16" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+144</v>
       </c>
       <c r="K77" s="22">
@@ -11094,15 +11314,15 @@
         <v>69</v>
       </c>
       <c r="F78" s="17" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>10화</v>
       </c>
       <c r="G78" s="17">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>9.9999999999999999E+144</v>
       </c>
       <c r="H78" s="17">
-        <f t="shared" ref="H78:H140" si="41">H74</f>
+        <f t="shared" ref="H78:H144" si="43">H74</f>
         <v>10</v>
       </c>
       <c r="I78" s="16" t="str" cm="1">
@@ -11110,7 +11330,7 @@
         <v>화</v>
       </c>
       <c r="J78" s="16" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+144</v>
       </c>
       <c r="K78" s="22">
@@ -11126,15 +11346,15 @@
         <v>70</v>
       </c>
       <c r="F79" s="17" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>100화</v>
       </c>
       <c r="G79" s="17">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>9.9999999999999993E+145</v>
       </c>
       <c r="H79" s="17">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>100</v>
       </c>
       <c r="I79" s="16" t="str" cm="1">
@@ -11142,7 +11362,7 @@
         <v>화</v>
       </c>
       <c r="J79" s="16" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+144</v>
       </c>
       <c r="K79" s="22">
@@ -11158,15 +11378,15 @@
         <v>71</v>
       </c>
       <c r="F80" s="17" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1000화</v>
       </c>
       <c r="G80" s="17">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>9.9999999999999998E+146</v>
       </c>
       <c r="H80" s="17">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1000</v>
       </c>
       <c r="I80" s="16" t="str" cm="1">
@@ -11174,7 +11394,7 @@
         <v>화</v>
       </c>
       <c r="J80" s="16" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+144</v>
       </c>
       <c r="K80" s="22">
@@ -11190,15 +11410,15 @@
         <v>72</v>
       </c>
       <c r="F81" s="17" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1명</v>
       </c>
       <c r="G81" s="17">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1E+148</v>
       </c>
       <c r="H81" s="17">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1</v>
       </c>
       <c r="I81" s="16" t="str" cm="1">
@@ -11206,7 +11426,7 @@
         <v>명</v>
       </c>
       <c r="J81" s="16" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+148</v>
       </c>
       <c r="K81" s="22">
@@ -11222,15 +11442,15 @@
         <v>73</v>
       </c>
       <c r="F82" s="17" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>10명</v>
       </c>
       <c r="G82" s="17">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1E+149</v>
       </c>
       <c r="H82" s="17">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>10</v>
       </c>
       <c r="I82" s="16" t="str" cm="1">
@@ -11238,7 +11458,7 @@
         <v>명</v>
       </c>
       <c r="J82" s="16" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+148</v>
       </c>
       <c r="K82" s="22">
@@ -11254,15 +11474,15 @@
         <v>74</v>
       </c>
       <c r="F83" s="17" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>100명</v>
       </c>
       <c r="G83" s="17">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>9.9999999999999998E+149</v>
       </c>
       <c r="H83" s="17">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>100</v>
       </c>
       <c r="I83" s="16" t="str" cm="1">
@@ -11270,7 +11490,7 @@
         <v>명</v>
       </c>
       <c r="J83" s="16" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+148</v>
       </c>
       <c r="K83" s="22">
@@ -11286,15 +11506,15 @@
         <v>75</v>
       </c>
       <c r="F84" s="17" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1000명</v>
       </c>
       <c r="G84" s="17">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1E+151</v>
       </c>
       <c r="H84" s="17">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1000</v>
       </c>
       <c r="I84" s="16" t="str" cm="1">
@@ -11302,7 +11522,7 @@
         <v>명</v>
       </c>
       <c r="J84" s="16" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+148</v>
       </c>
       <c r="K84" s="22">
@@ -11318,15 +11538,15 @@
         <v>76</v>
       </c>
       <c r="F85" s="17" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1월</v>
       </c>
       <c r="G85" s="17">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1E+152</v>
       </c>
       <c r="H85" s="17">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1</v>
       </c>
       <c r="I85" s="16" t="str" cm="1">
@@ -11334,7 +11554,7 @@
         <v>월</v>
       </c>
       <c r="J85" s="16" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+152</v>
       </c>
       <c r="K85" s="22">
@@ -11350,15 +11570,15 @@
         <v>77</v>
       </c>
       <c r="F86" s="17" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>10월</v>
       </c>
       <c r="G86" s="17">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1E+153</v>
       </c>
       <c r="H86" s="17">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>10</v>
       </c>
       <c r="I86" s="16" t="str" cm="1">
@@ -11366,7 +11586,7 @@
         <v>월</v>
       </c>
       <c r="J86" s="16" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+152</v>
       </c>
       <c r="K86" s="22">
@@ -11382,15 +11602,15 @@
         <v>78</v>
       </c>
       <c r="F87" s="17" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>100월</v>
       </c>
       <c r="G87" s="17">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1E+154</v>
       </c>
       <c r="H87" s="17">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>100</v>
       </c>
       <c r="I87" s="16" t="str" cm="1">
@@ -11398,7 +11618,7 @@
         <v>월</v>
       </c>
       <c r="J87" s="16" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+152</v>
       </c>
       <c r="K87" s="22">
@@ -11414,15 +11634,15 @@
         <v>79</v>
       </c>
       <c r="F88" s="17" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1000월</v>
       </c>
       <c r="G88" s="17">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1E+155</v>
       </c>
       <c r="H88" s="17">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1000</v>
       </c>
       <c r="I88" s="16" t="str" cm="1">
@@ -11430,7 +11650,7 @@
         <v>월</v>
       </c>
       <c r="J88" s="16" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+152</v>
       </c>
       <c r="K88" s="22">
@@ -11446,15 +11666,15 @@
         <v>80</v>
       </c>
       <c r="F89" s="17" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1후</v>
       </c>
       <c r="G89" s="17">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>9.9999999999999998E+155</v>
       </c>
       <c r="H89" s="17">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1</v>
       </c>
       <c r="I89" s="16" t="str" cm="1">
@@ -11462,7 +11682,7 @@
         <v>후</v>
       </c>
       <c r="J89" s="16" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+156</v>
       </c>
       <c r="K89" s="22">
@@ -11478,15 +11698,15 @@
         <v>81</v>
       </c>
       <c r="F90" s="17" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>10후</v>
       </c>
       <c r="G90" s="17">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>9.9999999999999998E+156</v>
       </c>
       <c r="H90" s="17">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>10</v>
       </c>
       <c r="I90" s="16" t="str" cm="1">
@@ -11494,7 +11714,7 @@
         <v>후</v>
       </c>
       <c r="J90" s="16" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+156</v>
       </c>
       <c r="K90" s="22">
@@ -11510,15 +11730,15 @@
         <v>82</v>
       </c>
       <c r="F91" s="17" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>100후</v>
       </c>
       <c r="G91" s="17">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>9.9999999999999995E+157</v>
       </c>
       <c r="H91" s="17">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>100</v>
       </c>
       <c r="I91" s="16" t="str" cm="1">
@@ -11526,7 +11746,7 @@
         <v>후</v>
       </c>
       <c r="J91" s="16" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+156</v>
       </c>
       <c r="K91" s="22">
@@ -11542,15 +11762,15 @@
         <v>83</v>
       </c>
       <c r="F92" s="17" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1000후</v>
       </c>
       <c r="G92" s="17">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>9.9999999999999993E+158</v>
       </c>
       <c r="H92" s="17">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1000</v>
       </c>
       <c r="I92" s="16" t="str" cm="1">
@@ -11558,7 +11778,7 @@
         <v>후</v>
       </c>
       <c r="J92" s="16" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+156</v>
       </c>
       <c r="K92" s="22">
@@ -11574,15 +11794,15 @@
         <v>84</v>
       </c>
       <c r="F93" s="17" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1단</v>
       </c>
       <c r="G93" s="17">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1E+160</v>
       </c>
       <c r="H93" s="17">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1</v>
       </c>
       <c r="I93" s="16" t="str" cm="1">
@@ -11590,7 +11810,7 @@
         <v>단</v>
       </c>
       <c r="J93" s="16" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+160</v>
       </c>
       <c r="K93" s="22">
@@ -11606,15 +11826,15 @@
         <v>85</v>
       </c>
       <c r="F94" s="17" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>10단</v>
       </c>
       <c r="G94" s="17">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1E+161</v>
       </c>
       <c r="H94" s="17">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>10</v>
       </c>
       <c r="I94" s="16" t="str" cm="1">
@@ -11622,7 +11842,7 @@
         <v>단</v>
       </c>
       <c r="J94" s="16" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+160</v>
       </c>
       <c r="K94" s="22">
@@ -11638,15 +11858,15 @@
         <v>86</v>
       </c>
       <c r="F95" s="17" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>100단</v>
       </c>
       <c r="G95" s="17">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>9.9999999999999994E+161</v>
       </c>
       <c r="H95" s="17">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>100</v>
       </c>
       <c r="I95" s="16" t="str" cm="1">
@@ -11654,7 +11874,7 @@
         <v>단</v>
       </c>
       <c r="J95" s="16" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+160</v>
       </c>
       <c r="K95" s="22">
@@ -11670,15 +11890,15 @@
         <v>87</v>
       </c>
       <c r="F96" s="17" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1000단</v>
       </c>
       <c r="G96" s="17">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>9.9999999999999994E+162</v>
       </c>
       <c r="H96" s="17">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1000</v>
       </c>
       <c r="I96" s="16" t="str" cm="1">
@@ -11686,7 +11906,7 @@
         <v>단</v>
       </c>
       <c r="J96" s="16" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+160</v>
       </c>
       <c r="K96" s="22">
@@ -11702,15 +11922,15 @@
         <v>88</v>
       </c>
       <c r="F97" s="17" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1절</v>
       </c>
       <c r="G97" s="17">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1E+164</v>
       </c>
       <c r="H97" s="17">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1</v>
       </c>
       <c r="I97" s="16" t="str" cm="1">
@@ -11718,7 +11938,7 @@
         <v>절</v>
       </c>
       <c r="J97" s="16" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+164</v>
       </c>
       <c r="K97" s="22">
@@ -11734,15 +11954,15 @@
         <v>89</v>
       </c>
       <c r="F98" s="17" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>10절</v>
       </c>
       <c r="G98" s="17">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1.0000000000000001E+165</v>
       </c>
       <c r="H98" s="17">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>10</v>
       </c>
       <c r="I98" s="16" t="str" cm="1">
@@ -11750,7 +11970,7 @@
         <v>절</v>
       </c>
       <c r="J98" s="16" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+164</v>
       </c>
       <c r="K98" s="22">
@@ -11766,15 +11986,15 @@
         <v>90</v>
       </c>
       <c r="F99" s="17" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>100절</v>
       </c>
       <c r="G99" s="17">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>9.9999999999999994E+165</v>
       </c>
       <c r="H99" s="17">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>100</v>
       </c>
       <c r="I99" s="16" t="str" cm="1">
@@ -11782,7 +12002,7 @@
         <v>절</v>
       </c>
       <c r="J99" s="16" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+164</v>
       </c>
       <c r="K99" s="22">
@@ -11798,15 +12018,15 @@
         <v>91</v>
       </c>
       <c r="F100" s="17" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1000절</v>
       </c>
       <c r="G100" s="17">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1E+167</v>
       </c>
       <c r="H100" s="17">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1000</v>
       </c>
       <c r="I100" s="16" t="str" cm="1">
@@ -11814,7 +12034,7 @@
         <v>절</v>
       </c>
       <c r="J100" s="16" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+164</v>
       </c>
       <c r="K100" s="22">
@@ -11830,15 +12050,15 @@
         <v>92</v>
       </c>
       <c r="F101" s="17" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1격</v>
       </c>
       <c r="G101" s="17">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>9.9999999999999993E+167</v>
       </c>
       <c r="H101" s="17">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1</v>
       </c>
       <c r="I101" s="16" t="str" cm="1">
@@ -11846,7 +12066,7 @@
         <v>격</v>
       </c>
       <c r="J101" s="16" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+168</v>
       </c>
       <c r="K101" s="22">
@@ -11863,15 +12083,15 @@
         <v>93</v>
       </c>
       <c r="F102" s="17" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>10격</v>
       </c>
       <c r="G102" s="17">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>9.9999999999999993E+168</v>
       </c>
       <c r="H102" s="17">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>10</v>
       </c>
       <c r="I102" s="16" t="str" cm="1">
@@ -11879,11 +12099,11 @@
         <v>격</v>
       </c>
       <c r="J102" s="16" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+168</v>
       </c>
       <c r="K102" s="22">
-        <f t="shared" ref="K102:K140" si="42">K98+1000</f>
+        <f t="shared" ref="K102:K144" si="44">K98+1000</f>
         <v>24000</v>
       </c>
       <c r="L102" s="22">
@@ -11896,15 +12116,15 @@
         <v>94</v>
       </c>
       <c r="F103" s="17" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>100격</v>
       </c>
       <c r="G103" s="17">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>9.999999999999999E+169</v>
       </c>
       <c r="H103" s="17">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>100</v>
       </c>
       <c r="I103" s="16" t="str" cm="1">
@@ -11912,11 +12132,11 @@
         <v>격</v>
       </c>
       <c r="J103" s="16" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+168</v>
       </c>
       <c r="K103" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>24000</v>
       </c>
       <c r="L103" s="22">
@@ -11929,15 +12149,15 @@
         <v>95</v>
       </c>
       <c r="F104" s="17" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1000격</v>
       </c>
       <c r="G104" s="17">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>9.9999999999999995E+170</v>
       </c>
       <c r="H104" s="17">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1000</v>
       </c>
       <c r="I104" s="16" t="str" cm="1">
@@ -11945,11 +12165,11 @@
         <v>격</v>
       </c>
       <c r="J104" s="16" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+168</v>
       </c>
       <c r="K104" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>24000</v>
       </c>
       <c r="L104" s="22">
@@ -11962,15 +12182,15 @@
         <v>96</v>
       </c>
       <c r="F105" s="17" t="str">
-        <f t="shared" ref="F105:F112" si="43">H105&amp;I105</f>
+        <f t="shared" ref="F105:F112" si="45">H105&amp;I105</f>
         <v>1창</v>
       </c>
       <c r="G105" s="17">
-        <f t="shared" ref="G105:G112" si="44">H105*J105</f>
+        <f t="shared" ref="G105:G112" si="46">H105*J105</f>
         <v>1.0000000000000001E+172</v>
       </c>
       <c r="H105" s="17">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1</v>
       </c>
       <c r="I105" s="16" t="str" cm="1">
@@ -11978,11 +12198,11 @@
         <v>창</v>
       </c>
       <c r="J105" s="16" t="str">
-        <f t="shared" ref="J105:J112" si="45">VLOOKUP(I105,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J105:J112" si="47">VLOOKUP(I105,N:Q,4,FALSE)</f>
         <v>1E+172</v>
       </c>
       <c r="K105" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>25000</v>
       </c>
       <c r="L105" s="22">
@@ -11994,15 +12214,15 @@
         <v>97</v>
       </c>
       <c r="F106" s="17" t="str">
+        <f t="shared" si="45"/>
+        <v>10창</v>
+      </c>
+      <c r="G106" s="17">
+        <f t="shared" si="46"/>
+        <v>1E+173</v>
+      </c>
+      <c r="H106" s="17">
         <f t="shared" si="43"/>
-        <v>10창</v>
-      </c>
-      <c r="G106" s="17">
-        <f t="shared" si="44"/>
-        <v>1E+173</v>
-      </c>
-      <c r="H106" s="17">
-        <f t="shared" si="41"/>
         <v>10</v>
       </c>
       <c r="I106" s="16" t="str" cm="1">
@@ -12010,11 +12230,11 @@
         <v>창</v>
       </c>
       <c r="J106" s="16" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1E+172</v>
       </c>
       <c r="K106" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>25000</v>
       </c>
       <c r="L106" s="22">
@@ -12026,15 +12246,15 @@
         <v>98</v>
       </c>
       <c r="F107" s="17" t="str">
+        <f t="shared" si="45"/>
+        <v>100창</v>
+      </c>
+      <c r="G107" s="17">
+        <f t="shared" si="46"/>
+        <v>1.0000000000000001E+174</v>
+      </c>
+      <c r="H107" s="17">
         <f t="shared" si="43"/>
-        <v>100창</v>
-      </c>
-      <c r="G107" s="17">
-        <f t="shared" si="44"/>
-        <v>1.0000000000000001E+174</v>
-      </c>
-      <c r="H107" s="17">
-        <f t="shared" si="41"/>
         <v>100</v>
       </c>
       <c r="I107" s="16" t="str" cm="1">
@@ -12042,11 +12262,11 @@
         <v>창</v>
       </c>
       <c r="J107" s="16" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1E+172</v>
       </c>
       <c r="K107" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>25000</v>
       </c>
       <c r="L107" s="22">
@@ -12058,15 +12278,15 @@
         <v>99</v>
       </c>
       <c r="F108" s="17" t="str">
+        <f t="shared" si="45"/>
+        <v>1000창</v>
+      </c>
+      <c r="G108" s="17">
+        <f t="shared" si="46"/>
+        <v>1.0000000000000001E+175</v>
+      </c>
+      <c r="H108" s="17">
         <f t="shared" si="43"/>
-        <v>1000창</v>
-      </c>
-      <c r="G108" s="17">
-        <f t="shared" si="44"/>
-        <v>1.0000000000000001E+175</v>
-      </c>
-      <c r="H108" s="17">
-        <f t="shared" si="41"/>
         <v>1000</v>
       </c>
       <c r="I108" s="16" t="str" cm="1">
@@ -12074,11 +12294,11 @@
         <v>창</v>
       </c>
       <c r="J108" s="16" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1E+172</v>
       </c>
       <c r="K108" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>25000</v>
       </c>
       <c r="L108" s="22">
@@ -12090,15 +12310,15 @@
         <v>100</v>
       </c>
       <c r="F109" s="17" t="str">
+        <f t="shared" si="45"/>
+        <v>1공</v>
+      </c>
+      <c r="G109" s="17">
+        <f t="shared" si="46"/>
+        <v>1E+176</v>
+      </c>
+      <c r="H109" s="17">
         <f t="shared" si="43"/>
-        <v>1공</v>
-      </c>
-      <c r="G109" s="17">
-        <f t="shared" si="44"/>
-        <v>1E+176</v>
-      </c>
-      <c r="H109" s="17">
-        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="I109" s="16" t="str" cm="1">
@@ -12106,11 +12326,11 @@
         <v>공</v>
       </c>
       <c r="J109" s="16" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1E+176</v>
       </c>
       <c r="K109" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>26000</v>
       </c>
       <c r="L109" s="22">
@@ -12122,15 +12342,15 @@
         <v>101</v>
       </c>
       <c r="F110" s="17" t="str">
+        <f t="shared" si="45"/>
+        <v>10공</v>
+      </c>
+      <c r="G110" s="17">
+        <f t="shared" si="46"/>
+        <v>1E+177</v>
+      </c>
+      <c r="H110" s="17">
         <f t="shared" si="43"/>
-        <v>10공</v>
-      </c>
-      <c r="G110" s="17">
-        <f t="shared" si="44"/>
-        <v>1E+177</v>
-      </c>
-      <c r="H110" s="17">
-        <f t="shared" si="41"/>
         <v>10</v>
       </c>
       <c r="I110" s="16" t="str" cm="1">
@@ -12138,11 +12358,11 @@
         <v>공</v>
       </c>
       <c r="J110" s="16" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1E+176</v>
       </c>
       <c r="K110" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>26000</v>
       </c>
       <c r="L110" s="22">
@@ -12154,15 +12374,15 @@
         <v>102</v>
       </c>
       <c r="F111" s="17" t="str">
+        <f t="shared" si="45"/>
+        <v>100공</v>
+      </c>
+      <c r="G111" s="17">
+        <f t="shared" si="46"/>
+        <v>1.0000000000000001E+178</v>
+      </c>
+      <c r="H111" s="17">
         <f t="shared" si="43"/>
-        <v>100공</v>
-      </c>
-      <c r="G111" s="17">
-        <f t="shared" si="44"/>
-        <v>1.0000000000000001E+178</v>
-      </c>
-      <c r="H111" s="17">
-        <f t="shared" si="41"/>
         <v>100</v>
       </c>
       <c r="I111" s="16" t="str" cm="1">
@@ -12170,11 +12390,11 @@
         <v>공</v>
       </c>
       <c r="J111" s="16" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1E+176</v>
       </c>
       <c r="K111" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>26000</v>
       </c>
       <c r="L111" s="22">
@@ -12186,15 +12406,15 @@
         <v>103</v>
       </c>
       <c r="F112" s="17" t="str">
+        <f t="shared" si="45"/>
+        <v>1000공</v>
+      </c>
+      <c r="G112" s="17">
+        <f t="shared" si="46"/>
+        <v>9.9999999999999998E+178</v>
+      </c>
+      <c r="H112" s="17">
         <f t="shared" si="43"/>
-        <v>1000공</v>
-      </c>
-      <c r="G112" s="17">
-        <f t="shared" si="44"/>
-        <v>9.9999999999999998E+178</v>
-      </c>
-      <c r="H112" s="17">
-        <f t="shared" si="41"/>
         <v>1000</v>
       </c>
       <c r="I112" s="16" t="str" cm="1">
@@ -12202,11 +12422,11 @@
         <v>공</v>
       </c>
       <c r="J112" s="16" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1E+176</v>
       </c>
       <c r="K112" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>26000</v>
       </c>
       <c r="L112" s="22">
@@ -12218,15 +12438,15 @@
         <v>104</v>
       </c>
       <c r="F113" s="17" t="str">
-        <f t="shared" ref="F113:F120" si="46">H113&amp;I113</f>
+        <f t="shared" ref="F113:F120" si="48">H113&amp;I113</f>
         <v>1채</v>
       </c>
       <c r="G113" s="17">
-        <f t="shared" ref="G113:G120" si="47">H113*J113</f>
+        <f t="shared" ref="G113:G120" si="49">H113*J113</f>
         <v>1E+180</v>
       </c>
       <c r="H113" s="17">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1</v>
       </c>
       <c r="I113" s="16" t="str" cm="1">
@@ -12234,11 +12454,11 @@
         <v>채</v>
       </c>
       <c r="J113" s="16" t="str">
-        <f t="shared" ref="J113:J120" si="48">VLOOKUP(I113,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J113:J120" si="50">VLOOKUP(I113,N:Q,4,FALSE)</f>
         <v>1E+180</v>
       </c>
       <c r="K113" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>27000</v>
       </c>
       <c r="L113" s="22">
@@ -12250,15 +12470,15 @@
         <v>105</v>
       </c>
       <c r="F114" s="17" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>10채</v>
       </c>
       <c r="G114" s="17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>9.9999999999999992E+180</v>
       </c>
       <c r="H114" s="17">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>10</v>
       </c>
       <c r="I114" s="16" t="str" cm="1">
@@ -12266,11 +12486,11 @@
         <v>채</v>
       </c>
       <c r="J114" s="16" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1E+180</v>
       </c>
       <c r="K114" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>27000</v>
       </c>
       <c r="L114" s="22">
@@ -12282,15 +12502,15 @@
         <v>106</v>
       </c>
       <c r="F115" s="17" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>100채</v>
       </c>
       <c r="G115" s="17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1.0000000000000001E+182</v>
       </c>
       <c r="H115" s="17">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>100</v>
       </c>
       <c r="I115" s="16" t="str" cm="1">
@@ -12298,11 +12518,11 @@
         <v>채</v>
       </c>
       <c r="J115" s="16" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1E+180</v>
       </c>
       <c r="K115" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>27000</v>
       </c>
       <c r="L115" s="22">
@@ -12314,15 +12534,15 @@
         <v>107</v>
       </c>
       <c r="F116" s="17" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1000채</v>
       </c>
       <c r="G116" s="17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1.0000000000000001E+183</v>
       </c>
       <c r="H116" s="17">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1000</v>
       </c>
       <c r="I116" s="16" t="str" cm="1">
@@ -12330,11 +12550,11 @@
         <v>채</v>
       </c>
       <c r="J116" s="16" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1E+180</v>
       </c>
       <c r="K116" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>27000</v>
       </c>
       <c r="L116" s="22">
@@ -12346,15 +12566,15 @@
         <v>108</v>
       </c>
       <c r="F117" s="17" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1피</v>
       </c>
       <c r="G117" s="17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1E+184</v>
       </c>
       <c r="H117" s="17">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1</v>
       </c>
       <c r="I117" s="16" t="str" cm="1">
@@ -12362,11 +12582,11 @@
         <v>피</v>
       </c>
       <c r="J117" s="16" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1E+184</v>
       </c>
       <c r="K117" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>28000</v>
       </c>
       <c r="L117" s="22">
@@ -12378,15 +12598,15 @@
         <v>109</v>
       </c>
       <c r="F118" s="17" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>10피</v>
       </c>
       <c r="G118" s="17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>9.9999999999999998E+184</v>
       </c>
       <c r="H118" s="17">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>10</v>
       </c>
       <c r="I118" s="16" t="str" cm="1">
@@ -12394,11 +12614,11 @@
         <v>피</v>
       </c>
       <c r="J118" s="16" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1E+184</v>
       </c>
       <c r="K118" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>28000</v>
       </c>
       <c r="L118" s="22">
@@ -12410,15 +12630,15 @@
         <v>110</v>
       </c>
       <c r="F119" s="17" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>100피</v>
       </c>
       <c r="G119" s="17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>9.9999999999999998E+185</v>
       </c>
       <c r="H119" s="17">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>100</v>
       </c>
       <c r="I119" s="16" t="str" cm="1">
@@ -12426,11 +12646,11 @@
         <v>피</v>
       </c>
       <c r="J119" s="16" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1E+184</v>
       </c>
       <c r="K119" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>28000</v>
       </c>
       <c r="L119" s="22">
@@ -12442,15 +12662,15 @@
         <v>111</v>
       </c>
       <c r="F120" s="17" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1000피</v>
       </c>
       <c r="G120" s="17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1.0000000000000001E+187</v>
       </c>
       <c r="H120" s="17">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1000</v>
       </c>
       <c r="I120" s="16" t="str" cm="1">
@@ -12458,11 +12678,11 @@
         <v>피</v>
       </c>
       <c r="J120" s="16" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1E+184</v>
       </c>
       <c r="K120" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>28000</v>
       </c>
       <c r="L120" s="22">
@@ -12474,15 +12694,15 @@
         <v>112</v>
       </c>
       <c r="F121" s="17" t="str">
-        <f t="shared" ref="F121:F124" si="49">H121&amp;I121</f>
+        <f t="shared" ref="F121:F124" si="51">H121&amp;I121</f>
         <v>1동</v>
       </c>
       <c r="G121" s="17">
-        <f t="shared" ref="G121:G124" si="50">H121*J121</f>
+        <f t="shared" ref="G121:G124" si="52">H121*J121</f>
         <v>1E+188</v>
       </c>
       <c r="H121" s="17">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1</v>
       </c>
       <c r="I121" s="16" t="str" cm="1">
@@ -12490,11 +12710,11 @@
         <v>동</v>
       </c>
       <c r="J121" s="16" t="str">
-        <f t="shared" ref="J121:J124" si="51">VLOOKUP(I121,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J121:J124" si="53">VLOOKUP(I121,N:Q,4,FALSE)</f>
         <v>1E+188</v>
       </c>
       <c r="K121" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>29000</v>
       </c>
       <c r="L121" s="22">
@@ -12506,15 +12726,15 @@
         <v>113</v>
       </c>
       <c r="F122" s="17" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>10동</v>
       </c>
       <c r="G122" s="17">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1E+189</v>
       </c>
       <c r="H122" s="17">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>10</v>
       </c>
       <c r="I122" s="16" t="str" cm="1">
@@ -12522,11 +12742,11 @@
         <v>동</v>
       </c>
       <c r="J122" s="16" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1E+188</v>
       </c>
       <c r="K122" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>29000</v>
       </c>
       <c r="L122" s="22">
@@ -12538,15 +12758,15 @@
         <v>114</v>
       </c>
       <c r="F123" s="17" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>100동</v>
       </c>
       <c r="G123" s="17">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1.0000000000000001E+190</v>
       </c>
       <c r="H123" s="17">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>100</v>
       </c>
       <c r="I123" s="16" t="str" cm="1">
@@ -12554,11 +12774,11 @@
         <v>동</v>
       </c>
       <c r="J123" s="16" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1E+188</v>
       </c>
       <c r="K123" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>29000</v>
       </c>
       <c r="L123" s="22">
@@ -12570,15 +12790,15 @@
         <v>115</v>
       </c>
       <c r="F124" s="17" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1000동</v>
       </c>
       <c r="G124" s="17">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1.0000000000000001E+191</v>
       </c>
       <c r="H124" s="17">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1000</v>
       </c>
       <c r="I124" s="16" t="str" cm="1">
@@ -12586,11 +12806,11 @@
         <v>동</v>
       </c>
       <c r="J124" s="16" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1E+188</v>
       </c>
       <c r="K124" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>29000</v>
       </c>
       <c r="L124" s="22">
@@ -12602,15 +12822,15 @@
         <v>116</v>
       </c>
       <c r="F125" s="17" t="str">
-        <f t="shared" ref="F125:F128" si="52">H125&amp;I125</f>
+        <f t="shared" ref="F125:F128" si="54">H125&amp;I125</f>
         <v>1멸</v>
       </c>
       <c r="G125" s="17">
-        <f t="shared" ref="G125:G128" si="53">H125*J125</f>
+        <f t="shared" ref="G125:G128" si="55">H125*J125</f>
         <v>1E+192</v>
       </c>
       <c r="H125" s="17">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1</v>
       </c>
       <c r="I125" s="16" t="str" cm="1">
@@ -12618,11 +12838,11 @@
         <v>멸</v>
       </c>
       <c r="J125" s="16" t="str">
-        <f t="shared" ref="J125:J128" si="54">VLOOKUP(I125,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J125:J128" si="56">VLOOKUP(I125,N:Q,4,FALSE)</f>
         <v>1E+192</v>
       </c>
       <c r="K125" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>30000</v>
       </c>
       <c r="L125" s="22">
@@ -12634,15 +12854,15 @@
         <v>117</v>
       </c>
       <c r="F126" s="17" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>10멸</v>
       </c>
       <c r="G126" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1.0000000000000001E+193</v>
       </c>
       <c r="H126" s="17">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>10</v>
       </c>
       <c r="I126" s="16" t="str" cm="1">
@@ -12650,11 +12870,11 @@
         <v>멸</v>
       </c>
       <c r="J126" s="16" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>1E+192</v>
       </c>
       <c r="K126" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>30000</v>
       </c>
       <c r="L126" s="22">
@@ -12666,15 +12886,15 @@
         <v>118</v>
       </c>
       <c r="F127" s="17" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>100멸</v>
       </c>
       <c r="G127" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1.0000000000000001E+194</v>
       </c>
       <c r="H127" s="17">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>100</v>
       </c>
       <c r="I127" s="16" t="str" cm="1">
@@ -12682,11 +12902,11 @@
         <v>멸</v>
       </c>
       <c r="J127" s="16" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>1E+192</v>
       </c>
       <c r="K127" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>30000</v>
       </c>
       <c r="L127" s="22">
@@ -12698,15 +12918,15 @@
         <v>119</v>
       </c>
       <c r="F128" s="17" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>1000멸</v>
       </c>
       <c r="G128" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>9.9999999999999998E+194</v>
       </c>
       <c r="H128" s="17">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1000</v>
       </c>
       <c r="I128" s="16" t="str" cm="1">
@@ -12714,11 +12934,11 @@
         <v>멸</v>
       </c>
       <c r="J128" s="16" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>1E+192</v>
       </c>
       <c r="K128" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>30000</v>
       </c>
       <c r="L128" s="22">
@@ -12730,15 +12950,15 @@
         <v>120</v>
       </c>
       <c r="F129" s="17" t="str">
-        <f t="shared" ref="F129:F136" si="55">H129&amp;I129</f>
+        <f t="shared" ref="F129:F136" si="57">H129&amp;I129</f>
         <v>1향</v>
       </c>
       <c r="G129" s="17">
-        <f t="shared" ref="G129:G136" si="56">H129*J129</f>
+        <f t="shared" ref="G129:G136" si="58">H129*J129</f>
         <v>9.9999999999999995E+195</v>
       </c>
       <c r="H129" s="17">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1</v>
       </c>
       <c r="I129" s="16" t="str" cm="1">
@@ -12746,11 +12966,11 @@
         <v>향</v>
       </c>
       <c r="J129" s="16" t="str">
-        <f t="shared" ref="J129:J136" si="57">VLOOKUP(I129,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J129:J136" si="59">VLOOKUP(I129,N:Q,4,FALSE)</f>
         <v>1E+196</v>
       </c>
       <c r="K129" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>31000</v>
       </c>
       <c r="L129" s="22">
@@ -12762,15 +12982,15 @@
         <v>121</v>
       </c>
       <c r="F130" s="17" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>10향</v>
       </c>
       <c r="G130" s="17">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>9.9999999999999995E+196</v>
       </c>
       <c r="H130" s="17">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>10</v>
       </c>
       <c r="I130" s="16" t="str" cm="1">
@@ -12778,11 +12998,11 @@
         <v>향</v>
       </c>
       <c r="J130" s="16" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>1E+196</v>
       </c>
       <c r="K130" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>31000</v>
       </c>
       <c r="L130" s="22">
@@ -12794,15 +13014,15 @@
         <v>122</v>
       </c>
       <c r="F131" s="17" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>100향</v>
       </c>
       <c r="G131" s="17">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>9.9999999999999988E+197</v>
       </c>
       <c r="H131" s="17">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>100</v>
       </c>
       <c r="I131" s="16" t="str" cm="1">
@@ -12810,11 +13030,11 @@
         <v>향</v>
       </c>
       <c r="J131" s="16" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>1E+196</v>
       </c>
       <c r="K131" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>31000</v>
       </c>
       <c r="L131" s="22">
@@ -12826,15 +13046,15 @@
         <v>123</v>
       </c>
       <c r="F132" s="17" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>1000향</v>
       </c>
       <c r="G132" s="17">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>9.9999999999999988E+198</v>
       </c>
       <c r="H132" s="17">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1000</v>
       </c>
       <c r="I132" s="16" t="str" cm="1">
@@ -12842,11 +13062,11 @@
         <v>향</v>
       </c>
       <c r="J132" s="16" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>1E+196</v>
       </c>
       <c r="K132" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>31000</v>
       </c>
       <c r="L132" s="22">
@@ -12858,15 +13078,15 @@
         <v>124</v>
       </c>
       <c r="F133" s="17" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>1증</v>
       </c>
       <c r="G133" s="17">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>9.9999999999999997E+199</v>
       </c>
       <c r="H133" s="17">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1</v>
       </c>
       <c r="I133" s="16" t="str" cm="1">
@@ -12874,11 +13094,11 @@
         <v>증</v>
       </c>
       <c r="J133" s="16" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>1E+200</v>
       </c>
       <c r="K133" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>32000</v>
       </c>
       <c r="L133" s="22">
@@ -12890,15 +13110,15 @@
         <v>125</v>
       </c>
       <c r="F134" s="17" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>10증</v>
       </c>
       <c r="G134" s="17">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>9.999999999999999E+200</v>
       </c>
       <c r="H134" s="17">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>10</v>
       </c>
       <c r="I134" s="16" t="str" cm="1">
@@ -12906,11 +13126,11 @@
         <v>증</v>
       </c>
       <c r="J134" s="16" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>1E+200</v>
       </c>
       <c r="K134" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>32000</v>
       </c>
       <c r="L134" s="22">
@@ -12922,15 +13142,15 @@
         <v>126</v>
       </c>
       <c r="F135" s="17" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>100증</v>
       </c>
       <c r="G135" s="17">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>9.999999999999999E+201</v>
       </c>
       <c r="H135" s="17">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>100</v>
       </c>
       <c r="I135" s="16" t="str" cm="1">
@@ -12938,11 +13158,11 @@
         <v>증</v>
       </c>
       <c r="J135" s="16" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>1E+200</v>
       </c>
       <c r="K135" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>32000</v>
       </c>
       <c r="L135" s="22">
@@ -12954,15 +13174,15 @@
         <v>127</v>
       </c>
       <c r="F136" s="17" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>1000증</v>
       </c>
       <c r="G136" s="17">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>9.9999999999999999E+202</v>
       </c>
       <c r="H136" s="17">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1000</v>
       </c>
       <c r="I136" s="16" t="str" cm="1">
@@ -12970,11 +13190,11 @@
         <v>증</v>
       </c>
       <c r="J136" s="16" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>1E+200</v>
       </c>
       <c r="K136" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>32000</v>
       </c>
       <c r="L136" s="22">
@@ -12986,15 +13206,15 @@
         <v>128</v>
       </c>
       <c r="F137" s="17" t="str">
-        <f t="shared" ref="F137:F140" si="58">H137&amp;I137</f>
+        <f t="shared" ref="F137:F140" si="60">H137&amp;I137</f>
         <v>1쾌</v>
       </c>
       <c r="G137" s="17">
-        <f t="shared" ref="G137:G140" si="59">H137*J137</f>
+        <f t="shared" ref="G137:G140" si="61">H137*J137</f>
         <v>9.9999999999999999E+203</v>
       </c>
       <c r="H137" s="17">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1</v>
       </c>
       <c r="I137" s="16" t="str" cm="1">
@@ -13002,11 +13222,11 @@
         <v>쾌</v>
       </c>
       <c r="J137" s="16" t="str">
-        <f t="shared" ref="J137:J140" si="60">VLOOKUP(I137,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J137:J140" si="62">VLOOKUP(I137,N:Q,4,FALSE)</f>
         <v>1E+204</v>
       </c>
       <c r="K137" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>33000</v>
       </c>
       <c r="L137" s="22">
@@ -13018,15 +13238,15 @@
         <v>129</v>
       </c>
       <c r="F138" s="17" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>10쾌</v>
       </c>
       <c r="G138" s="17">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>1E+205</v>
       </c>
       <c r="H138" s="17">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>10</v>
       </c>
       <c r="I138" s="16" t="str" cm="1">
@@ -13034,11 +13254,11 @@
         <v>쾌</v>
       </c>
       <c r="J138" s="16" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>1E+204</v>
       </c>
       <c r="K138" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>33000</v>
       </c>
       <c r="L138" s="22">
@@ -13050,15 +13270,15 @@
         <v>130</v>
       </c>
       <c r="F139" s="17" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>100쾌</v>
       </c>
       <c r="G139" s="17">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>1E+206</v>
       </c>
       <c r="H139" s="17">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>100</v>
       </c>
       <c r="I139" s="16" t="str" cm="1">
@@ -13066,11 +13286,11 @@
         <v>쾌</v>
       </c>
       <c r="J139" s="16" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>1E+204</v>
       </c>
       <c r="K139" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>33000</v>
       </c>
       <c r="L139" s="22">
@@ -13082,15 +13302,15 @@
         <v>131</v>
       </c>
       <c r="F140" s="17" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>1000쾌</v>
       </c>
       <c r="G140" s="17">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>1E+207</v>
       </c>
       <c r="H140" s="17">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1000</v>
       </c>
       <c r="I140" s="16" t="str" cm="1">
@@ -13098,15 +13318,143 @@
         <v>쾌</v>
       </c>
       <c r="J140" s="16" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>1E+204</v>
       </c>
       <c r="K140" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>33000</v>
       </c>
       <c r="L140" s="22">
         <v>26200</v>
+      </c>
+    </row>
+    <row r="141" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E141" s="16">
+        <v>132</v>
+      </c>
+      <c r="F141" s="17" t="str">
+        <f t="shared" ref="F141:F144" si="63">H141&amp;I141</f>
+        <v>1우</v>
+      </c>
+      <c r="G141" s="17">
+        <f t="shared" ref="G141:G144" si="64">H141*J141</f>
+        <v>9.9999999999999998E+207</v>
+      </c>
+      <c r="H141" s="17">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="I141" s="16" t="str" cm="1">
+        <f t="array" ref="I141">IF(AND(H140&gt;=1000,H141&lt;2),INDEX(N:N,MATCH(I140,N:N,0)+1,0),I140)</f>
+        <v>우</v>
+      </c>
+      <c r="J141" s="16" t="str">
+        <f t="shared" ref="J141:J144" si="65">VLOOKUP(I141,N:Q,4,FALSE)</f>
+        <v>1E+208</v>
+      </c>
+      <c r="K141" s="22">
+        <f t="shared" si="44"/>
+        <v>34000</v>
+      </c>
+      <c r="L141" s="22">
+        <v>26400</v>
+      </c>
+    </row>
+    <row r="142" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E142" s="16">
+        <v>133</v>
+      </c>
+      <c r="F142" s="17" t="str">
+        <f t="shared" si="63"/>
+        <v>10우</v>
+      </c>
+      <c r="G142" s="17">
+        <f t="shared" si="64"/>
+        <v>1.0000000000000001E+209</v>
+      </c>
+      <c r="H142" s="17">
+        <f t="shared" si="43"/>
+        <v>10</v>
+      </c>
+      <c r="I142" s="16" t="str" cm="1">
+        <f t="array" ref="I142">IF(AND(H141&gt;=1000,H142&lt;2),INDEX(N:N,MATCH(I141,N:N,0)+1,0),I141)</f>
+        <v>우</v>
+      </c>
+      <c r="J142" s="16" t="str">
+        <f t="shared" si="65"/>
+        <v>1E+208</v>
+      </c>
+      <c r="K142" s="22">
+        <f t="shared" si="44"/>
+        <v>34000</v>
+      </c>
+      <c r="L142" s="22">
+        <v>26600</v>
+      </c>
+    </row>
+    <row r="143" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E143" s="16">
+        <v>134</v>
+      </c>
+      <c r="F143" s="17" t="str">
+        <f t="shared" si="63"/>
+        <v>100우</v>
+      </c>
+      <c r="G143" s="17">
+        <f t="shared" si="64"/>
+        <v>9.9999999999999993E+209</v>
+      </c>
+      <c r="H143" s="17">
+        <f t="shared" si="43"/>
+        <v>100</v>
+      </c>
+      <c r="I143" s="16" t="str" cm="1">
+        <f t="array" ref="I143">IF(AND(H142&gt;=1000,H143&lt;2),INDEX(N:N,MATCH(I142,N:N,0)+1,0),I142)</f>
+        <v>우</v>
+      </c>
+      <c r="J143" s="16" t="str">
+        <f t="shared" si="65"/>
+        <v>1E+208</v>
+      </c>
+      <c r="K143" s="22">
+        <f t="shared" si="44"/>
+        <v>34000</v>
+      </c>
+      <c r="L143" s="22">
+        <v>26800</v>
+      </c>
+    </row>
+    <row r="144" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E144" s="16">
+        <v>135</v>
+      </c>
+      <c r="F144" s="17" t="str">
+        <f t="shared" si="63"/>
+        <v>1000우</v>
+      </c>
+      <c r="G144" s="17">
+        <f t="shared" si="64"/>
+        <v>9.9999999999999996E+210</v>
+      </c>
+      <c r="H144" s="17">
+        <f t="shared" si="43"/>
+        <v>1000</v>
+      </c>
+      <c r="I144" s="16" t="str" cm="1">
+        <f t="array" ref="I144">IF(AND(H143&gt;=1000,H144&lt;2),INDEX(N:N,MATCH(I143,N:N,0)+1,0),I143)</f>
+        <v>우</v>
+      </c>
+      <c r="J144" s="16" t="str">
+        <f t="shared" si="65"/>
+        <v>1E+208</v>
+      </c>
+      <c r="K144" s="22">
+        <f t="shared" si="44"/>
+        <v>34000</v>
+      </c>
+      <c r="L144" s="22">
+        <v>27000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/ByeolhoTower.xlsx
+++ b/Assets/06.Table/ByeolhoTower.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F532F1AF-CB8E-4ED7-97D5-DDD9365AA5CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA93C364-3FAD-4228-A75F-D81F27C73335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="87">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -396,6 +396,14 @@
     <t>팽</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -690,9 +698,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -730,7 +738,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -836,7 +844,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -978,7 +986,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -986,11 +994,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M137"/>
+  <dimension ref="A1:M141"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F135" sqref="F135"/>
+      <selection pane="bottomLeft" activeCell="I136" sqref="I136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6877,11 +6885,11 @@
         <v>30000</v>
       </c>
       <c r="E118">
-        <f t="shared" ref="E118:E137" si="84">E117</f>
+        <f t="shared" ref="E118:E141" si="84">E117</f>
         <v>1</v>
       </c>
       <c r="F118" s="2">
-        <f t="shared" ref="F118:F137" si="85">F117*10</f>
+        <f t="shared" ref="F118:F141" si="85">F117*10</f>
         <v>9.9999999999999991E+191</v>
       </c>
       <c r="G118">
@@ -6900,7 +6908,7 @@
         <v>57</v>
       </c>
       <c r="K118">
-        <f t="shared" ref="K118:K137" si="87">K117+200</f>
+        <f t="shared" ref="K118:K141" si="87">K117+200</f>
         <v>25200</v>
       </c>
       <c r="L118">
@@ -7880,9 +7888,213 @@
         <v>13500</v>
       </c>
     </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>136</v>
+      </c>
+      <c r="B138" s="1" t="str">
+        <f t="shared" ref="B138:C138" si="118">B137</f>
+        <v>1-1</v>
+      </c>
+      <c r="C138">
+        <f t="shared" si="118"/>
+        <v>9054</v>
+      </c>
+      <c r="D138">
+        <f>VLOOKUP(A138,Balance!E:K,7,FALSE)</f>
+        <v>35000</v>
+      </c>
+      <c r="E138">
+        <f t="shared" si="84"/>
+        <v>1</v>
+      </c>
+      <c r="F138" s="2">
+        <f t="shared" si="85"/>
+        <v>1.0000000000000001E+212</v>
+      </c>
+      <c r="G138">
+        <f t="shared" ref="G138:I138" si="119">G137</f>
+        <v>1000</v>
+      </c>
+      <c r="H138">
+        <f t="shared" si="119"/>
+        <v>8</v>
+      </c>
+      <c r="I138">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="J138" t="s">
+        <v>57</v>
+      </c>
+      <c r="K138">
+        <f t="shared" si="87"/>
+        <v>29200</v>
+      </c>
+      <c r="L138">
+        <v>9054</v>
+      </c>
+      <c r="M138">
+        <f>VLOOKUP(A138,Balance!E:L,8,FALSE)/2</f>
+        <v>13600</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>137</v>
+      </c>
+      <c r="B139" s="1" t="str">
+        <f t="shared" ref="B139:C139" si="120">B138</f>
+        <v>1-1</v>
+      </c>
+      <c r="C139">
+        <f t="shared" si="120"/>
+        <v>9054</v>
+      </c>
+      <c r="D139">
+        <f>VLOOKUP(A139,Balance!E:K,7,FALSE)</f>
+        <v>35000</v>
+      </c>
+      <c r="E139">
+        <f t="shared" si="84"/>
+        <v>1</v>
+      </c>
+      <c r="F139" s="2">
+        <f t="shared" si="85"/>
+        <v>1.0000000000000001E+213</v>
+      </c>
+      <c r="G139">
+        <f t="shared" ref="G139:I139" si="121">G138</f>
+        <v>1000</v>
+      </c>
+      <c r="H139">
+        <f t="shared" si="121"/>
+        <v>8</v>
+      </c>
+      <c r="I139">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="J139" t="s">
+        <v>57</v>
+      </c>
+      <c r="K139">
+        <f t="shared" si="87"/>
+        <v>29400</v>
+      </c>
+      <c r="L139">
+        <v>9054</v>
+      </c>
+      <c r="M139">
+        <f>VLOOKUP(A139,Balance!E:L,8,FALSE)/2</f>
+        <v>13700</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>138</v>
+      </c>
+      <c r="B140" s="1" t="str">
+        <f>B139</f>
+        <v>1-1</v>
+      </c>
+      <c r="C140">
+        <f>C139</f>
+        <v>9054</v>
+      </c>
+      <c r="D140">
+        <f>VLOOKUP(A140,Balance!E:K,7,FALSE)</f>
+        <v>35000</v>
+      </c>
+      <c r="E140">
+        <f t="shared" si="84"/>
+        <v>1</v>
+      </c>
+      <c r="F140" s="2">
+        <f t="shared" si="85"/>
+        <v>1.0000000000000002E+214</v>
+      </c>
+      <c r="G140">
+        <f>G139</f>
+        <v>1000</v>
+      </c>
+      <c r="H140">
+        <f>H139</f>
+        <v>8</v>
+      </c>
+      <c r="I140">
+        <f>I139</f>
+        <v>0</v>
+      </c>
+      <c r="J140" t="s">
+        <v>57</v>
+      </c>
+      <c r="K140">
+        <f t="shared" si="87"/>
+        <v>29600</v>
+      </c>
+      <c r="L140">
+        <v>9054</v>
+      </c>
+      <c r="M140">
+        <f>VLOOKUP(A140,Balance!E:L,8,FALSE)/2</f>
+        <v>13800</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>139</v>
+      </c>
+      <c r="B141" s="1" t="str">
+        <f t="shared" ref="B141:C141" si="122">B140</f>
+        <v>1-1</v>
+      </c>
+      <c r="C141">
+        <f t="shared" si="122"/>
+        <v>9054</v>
+      </c>
+      <c r="D141">
+        <f>VLOOKUP(A141,Balance!E:K,7,FALSE)</f>
+        <v>35000</v>
+      </c>
+      <c r="E141">
+        <f t="shared" si="84"/>
+        <v>1</v>
+      </c>
+      <c r="F141" s="2">
+        <f t="shared" si="85"/>
+        <v>1.0000000000000001E+215</v>
+      </c>
+      <c r="G141">
+        <f t="shared" ref="G141:I141" si="123">G140</f>
+        <v>1000</v>
+      </c>
+      <c r="H141">
+        <f t="shared" si="123"/>
+        <v>8</v>
+      </c>
+      <c r="I141">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="J141" t="s">
+        <v>57</v>
+      </c>
+      <c r="K141">
+        <f t="shared" si="87"/>
+        <v>29800</v>
+      </c>
+      <c r="L141">
+        <v>9054</v>
+      </c>
+      <c r="M141">
+        <f>VLOOKUP(A141,Balance!E:L,8,FALSE)/2</f>
+        <v>13900</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:K137">
+  <conditionalFormatting sqref="A2:K141">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
@@ -7894,10 +8106,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4C63F0-02E4-48AB-8F58-B57B021B5DE4}">
-  <dimension ref="A1:Z144"/>
+  <dimension ref="A1:Z148"/>
   <sheetViews>
-    <sheetView topLeftCell="B123" workbookViewId="0">
-      <selection activeCell="I139" sqref="I139"/>
+    <sheetView topLeftCell="B127" workbookViewId="0">
+      <selection activeCell="K144" sqref="K144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10730,8 +10942,20 @@
         <v>15200</v>
       </c>
       <c r="M61" s="22"/>
-      <c r="P61" s="11"/>
-      <c r="Q61" s="11"/>
+      <c r="N61" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="O61" s="16">
+        <v>216</v>
+      </c>
+      <c r="P61" s="17">
+        <f t="shared" ref="P61:P62" si="40">POWER(10,O61)</f>
+        <v>1E+216</v>
+      </c>
+      <c r="Q61" s="17" t="str">
+        <f t="shared" ref="Q61:Q62" si="41">RIGHT(P61,O61)</f>
+        <v>1E+216</v>
+      </c>
       <c r="R61" s="11"/>
       <c r="S61" s="11"/>
       <c r="T61" s="11"/>
@@ -10773,8 +10997,20 @@
         <v>15300</v>
       </c>
       <c r="M62" s="22"/>
-      <c r="P62" s="11"/>
-      <c r="Q62" s="11"/>
+      <c r="N62" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="O62" s="16">
+        <v>220</v>
+      </c>
+      <c r="P62" s="17">
+        <f t="shared" si="40"/>
+        <v>1E+220</v>
+      </c>
+      <c r="Q62" s="17" t="str">
+        <f t="shared" si="41"/>
+        <v>1E+220</v>
+      </c>
       <c r="R62" s="11"/>
       <c r="S62" s="11"/>
       <c r="T62" s="11"/>
@@ -11026,7 +11262,7 @@
         <v>60</v>
       </c>
       <c r="F69" s="17" t="str">
-        <f t="shared" ref="F69:F104" si="40">H69&amp;I69</f>
+        <f t="shared" ref="F69:F104" si="42">H69&amp;I69</f>
         <v>1적</v>
       </c>
       <c r="G69" s="17">
@@ -11058,7 +11294,7 @@
         <v>61</v>
       </c>
       <c r="F70" s="17" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>10적</v>
       </c>
       <c r="G70" s="17">
@@ -11090,7 +11326,7 @@
         <v>62</v>
       </c>
       <c r="F71" s="17" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>100적</v>
       </c>
       <c r="G71" s="17">
@@ -11122,7 +11358,7 @@
         <v>63</v>
       </c>
       <c r="F72" s="17" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1000적</v>
       </c>
       <c r="G72" s="17">
@@ -11154,7 +11390,7 @@
         <v>64</v>
       </c>
       <c r="F73" s="17" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1고</v>
       </c>
       <c r="G73" s="17">
@@ -11170,7 +11406,7 @@
         <v>고</v>
       </c>
       <c r="J73" s="16" t="str">
-        <f t="shared" ref="J73:J104" si="41">VLOOKUP(I73,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J73:J104" si="43">VLOOKUP(I73,N:Q,4,FALSE)</f>
         <v>1E+140</v>
       </c>
       <c r="K73" s="22">
@@ -11186,11 +11422,11 @@
         <v>65</v>
       </c>
       <c r="F74" s="17" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>10고</v>
       </c>
       <c r="G74" s="17">
-        <f t="shared" ref="G74:G104" si="42">H74*J74</f>
+        <f t="shared" ref="G74:G104" si="44">H74*J74</f>
         <v>1E+141</v>
       </c>
       <c r="H74" s="17">
@@ -11202,7 +11438,7 @@
         <v>고</v>
       </c>
       <c r="J74" s="16" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1E+140</v>
       </c>
       <c r="K74" s="22">
@@ -11218,11 +11454,11 @@
         <v>66</v>
       </c>
       <c r="F75" s="17" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>100고</v>
       </c>
       <c r="G75" s="17">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1.0000000000000001E+142</v>
       </c>
       <c r="H75" s="17">
@@ -11234,7 +11470,7 @@
         <v>고</v>
       </c>
       <c r="J75" s="16" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1E+140</v>
       </c>
       <c r="K75" s="22">
@@ -11250,11 +11486,11 @@
         <v>67</v>
       </c>
       <c r="F76" s="17" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1000고</v>
       </c>
       <c r="G76" s="17">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1E+143</v>
       </c>
       <c r="H76" s="17">
@@ -11266,7 +11502,7 @@
         <v>고</v>
       </c>
       <c r="J76" s="16" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1E+140</v>
       </c>
       <c r="K76" s="22">
@@ -11282,11 +11518,11 @@
         <v>68</v>
       </c>
       <c r="F77" s="17" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1화</v>
       </c>
       <c r="G77" s="17">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1E+144</v>
       </c>
       <c r="H77" s="17">
@@ -11298,7 +11534,7 @@
         <v>화</v>
       </c>
       <c r="J77" s="16" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1E+144</v>
       </c>
       <c r="K77" s="22">
@@ -11314,15 +11550,15 @@
         <v>69</v>
       </c>
       <c r="F78" s="17" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>10화</v>
       </c>
       <c r="G78" s="17">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>9.9999999999999999E+144</v>
       </c>
       <c r="H78" s="17">
-        <f t="shared" ref="H78:H144" si="43">H74</f>
+        <f t="shared" ref="H78:H148" si="45">H74</f>
         <v>10</v>
       </c>
       <c r="I78" s="16" t="str" cm="1">
@@ -11330,7 +11566,7 @@
         <v>화</v>
       </c>
       <c r="J78" s="16" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1E+144</v>
       </c>
       <c r="K78" s="22">
@@ -11346,15 +11582,15 @@
         <v>70</v>
       </c>
       <c r="F79" s="17" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>100화</v>
       </c>
       <c r="G79" s="17">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>9.9999999999999993E+145</v>
       </c>
       <c r="H79" s="17">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>100</v>
       </c>
       <c r="I79" s="16" t="str" cm="1">
@@ -11362,7 +11598,7 @@
         <v>화</v>
       </c>
       <c r="J79" s="16" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1E+144</v>
       </c>
       <c r="K79" s="22">
@@ -11378,15 +11614,15 @@
         <v>71</v>
       </c>
       <c r="F80" s="17" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1000화</v>
       </c>
       <c r="G80" s="17">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>9.9999999999999998E+146</v>
       </c>
       <c r="H80" s="17">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1000</v>
       </c>
       <c r="I80" s="16" t="str" cm="1">
@@ -11394,7 +11630,7 @@
         <v>화</v>
       </c>
       <c r="J80" s="16" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1E+144</v>
       </c>
       <c r="K80" s="22">
@@ -11410,15 +11646,15 @@
         <v>72</v>
       </c>
       <c r="F81" s="17" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1명</v>
       </c>
       <c r="G81" s="17">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1E+148</v>
       </c>
       <c r="H81" s="17">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="I81" s="16" t="str" cm="1">
@@ -11426,7 +11662,7 @@
         <v>명</v>
       </c>
       <c r="J81" s="16" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1E+148</v>
       </c>
       <c r="K81" s="22">
@@ -11442,15 +11678,15 @@
         <v>73</v>
       </c>
       <c r="F82" s="17" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>10명</v>
       </c>
       <c r="G82" s="17">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1E+149</v>
       </c>
       <c r="H82" s="17">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>10</v>
       </c>
       <c r="I82" s="16" t="str" cm="1">
@@ -11458,7 +11694,7 @@
         <v>명</v>
       </c>
       <c r="J82" s="16" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1E+148</v>
       </c>
       <c r="K82" s="22">
@@ -11474,15 +11710,15 @@
         <v>74</v>
       </c>
       <c r="F83" s="17" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>100명</v>
       </c>
       <c r="G83" s="17">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>9.9999999999999998E+149</v>
       </c>
       <c r="H83" s="17">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>100</v>
       </c>
       <c r="I83" s="16" t="str" cm="1">
@@ -11490,7 +11726,7 @@
         <v>명</v>
       </c>
       <c r="J83" s="16" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1E+148</v>
       </c>
       <c r="K83" s="22">
@@ -11506,15 +11742,15 @@
         <v>75</v>
       </c>
       <c r="F84" s="17" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1000명</v>
       </c>
       <c r="G84" s="17">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1E+151</v>
       </c>
       <c r="H84" s="17">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1000</v>
       </c>
       <c r="I84" s="16" t="str" cm="1">
@@ -11522,7 +11758,7 @@
         <v>명</v>
       </c>
       <c r="J84" s="16" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1E+148</v>
       </c>
       <c r="K84" s="22">
@@ -11538,15 +11774,15 @@
         <v>76</v>
       </c>
       <c r="F85" s="17" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1월</v>
       </c>
       <c r="G85" s="17">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1E+152</v>
       </c>
       <c r="H85" s="17">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="I85" s="16" t="str" cm="1">
@@ -11554,7 +11790,7 @@
         <v>월</v>
       </c>
       <c r="J85" s="16" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1E+152</v>
       </c>
       <c r="K85" s="22">
@@ -11570,15 +11806,15 @@
         <v>77</v>
       </c>
       <c r="F86" s="17" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>10월</v>
       </c>
       <c r="G86" s="17">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1E+153</v>
       </c>
       <c r="H86" s="17">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>10</v>
       </c>
       <c r="I86" s="16" t="str" cm="1">
@@ -11586,7 +11822,7 @@
         <v>월</v>
       </c>
       <c r="J86" s="16" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1E+152</v>
       </c>
       <c r="K86" s="22">
@@ -11602,15 +11838,15 @@
         <v>78</v>
       </c>
       <c r="F87" s="17" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>100월</v>
       </c>
       <c r="G87" s="17">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1E+154</v>
       </c>
       <c r="H87" s="17">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>100</v>
       </c>
       <c r="I87" s="16" t="str" cm="1">
@@ -11618,7 +11854,7 @@
         <v>월</v>
       </c>
       <c r="J87" s="16" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1E+152</v>
       </c>
       <c r="K87" s="22">
@@ -11634,15 +11870,15 @@
         <v>79</v>
       </c>
       <c r="F88" s="17" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1000월</v>
       </c>
       <c r="G88" s="17">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1E+155</v>
       </c>
       <c r="H88" s="17">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1000</v>
       </c>
       <c r="I88" s="16" t="str" cm="1">
@@ -11650,7 +11886,7 @@
         <v>월</v>
       </c>
       <c r="J88" s="16" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1E+152</v>
       </c>
       <c r="K88" s="22">
@@ -11666,15 +11902,15 @@
         <v>80</v>
       </c>
       <c r="F89" s="17" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1후</v>
       </c>
       <c r="G89" s="17">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>9.9999999999999998E+155</v>
       </c>
       <c r="H89" s="17">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="I89" s="16" t="str" cm="1">
@@ -11682,7 +11918,7 @@
         <v>후</v>
       </c>
       <c r="J89" s="16" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1E+156</v>
       </c>
       <c r="K89" s="22">
@@ -11698,15 +11934,15 @@
         <v>81</v>
       </c>
       <c r="F90" s="17" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>10후</v>
       </c>
       <c r="G90" s="17">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>9.9999999999999998E+156</v>
       </c>
       <c r="H90" s="17">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>10</v>
       </c>
       <c r="I90" s="16" t="str" cm="1">
@@ -11714,7 +11950,7 @@
         <v>후</v>
       </c>
       <c r="J90" s="16" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1E+156</v>
       </c>
       <c r="K90" s="22">
@@ -11730,15 +11966,15 @@
         <v>82</v>
       </c>
       <c r="F91" s="17" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>100후</v>
       </c>
       <c r="G91" s="17">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>9.9999999999999995E+157</v>
       </c>
       <c r="H91" s="17">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>100</v>
       </c>
       <c r="I91" s="16" t="str" cm="1">
@@ -11746,7 +11982,7 @@
         <v>후</v>
       </c>
       <c r="J91" s="16" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1E+156</v>
       </c>
       <c r="K91" s="22">
@@ -11762,15 +11998,15 @@
         <v>83</v>
       </c>
       <c r="F92" s="17" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1000후</v>
       </c>
       <c r="G92" s="17">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>9.9999999999999993E+158</v>
       </c>
       <c r="H92" s="17">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1000</v>
       </c>
       <c r="I92" s="16" t="str" cm="1">
@@ -11778,7 +12014,7 @@
         <v>후</v>
       </c>
       <c r="J92" s="16" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1E+156</v>
       </c>
       <c r="K92" s="22">
@@ -11794,15 +12030,15 @@
         <v>84</v>
       </c>
       <c r="F93" s="17" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1단</v>
       </c>
       <c r="G93" s="17">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1E+160</v>
       </c>
       <c r="H93" s="17">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="I93" s="16" t="str" cm="1">
@@ -11810,7 +12046,7 @@
         <v>단</v>
       </c>
       <c r="J93" s="16" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1E+160</v>
       </c>
       <c r="K93" s="22">
@@ -11826,15 +12062,15 @@
         <v>85</v>
       </c>
       <c r="F94" s="17" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>10단</v>
       </c>
       <c r="G94" s="17">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1E+161</v>
       </c>
       <c r="H94" s="17">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>10</v>
       </c>
       <c r="I94" s="16" t="str" cm="1">
@@ -11842,7 +12078,7 @@
         <v>단</v>
       </c>
       <c r="J94" s="16" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1E+160</v>
       </c>
       <c r="K94" s="22">
@@ -11858,15 +12094,15 @@
         <v>86</v>
       </c>
       <c r="F95" s="17" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>100단</v>
       </c>
       <c r="G95" s="17">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>9.9999999999999994E+161</v>
       </c>
       <c r="H95" s="17">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>100</v>
       </c>
       <c r="I95" s="16" t="str" cm="1">
@@ -11874,7 +12110,7 @@
         <v>단</v>
       </c>
       <c r="J95" s="16" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1E+160</v>
       </c>
       <c r="K95" s="22">
@@ -11890,15 +12126,15 @@
         <v>87</v>
       </c>
       <c r="F96" s="17" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1000단</v>
       </c>
       <c r="G96" s="17">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>9.9999999999999994E+162</v>
       </c>
       <c r="H96" s="17">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1000</v>
       </c>
       <c r="I96" s="16" t="str" cm="1">
@@ -11906,7 +12142,7 @@
         <v>단</v>
       </c>
       <c r="J96" s="16" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1E+160</v>
       </c>
       <c r="K96" s="22">
@@ -11922,15 +12158,15 @@
         <v>88</v>
       </c>
       <c r="F97" s="17" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1절</v>
       </c>
       <c r="G97" s="17">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1E+164</v>
       </c>
       <c r="H97" s="17">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="I97" s="16" t="str" cm="1">
@@ -11938,7 +12174,7 @@
         <v>절</v>
       </c>
       <c r="J97" s="16" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1E+164</v>
       </c>
       <c r="K97" s="22">
@@ -11954,15 +12190,15 @@
         <v>89</v>
       </c>
       <c r="F98" s="17" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>10절</v>
       </c>
       <c r="G98" s="17">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1.0000000000000001E+165</v>
       </c>
       <c r="H98" s="17">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>10</v>
       </c>
       <c r="I98" s="16" t="str" cm="1">
@@ -11970,7 +12206,7 @@
         <v>절</v>
       </c>
       <c r="J98" s="16" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1E+164</v>
       </c>
       <c r="K98" s="22">
@@ -11986,15 +12222,15 @@
         <v>90</v>
       </c>
       <c r="F99" s="17" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>100절</v>
       </c>
       <c r="G99" s="17">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>9.9999999999999994E+165</v>
       </c>
       <c r="H99" s="17">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>100</v>
       </c>
       <c r="I99" s="16" t="str" cm="1">
@@ -12002,7 +12238,7 @@
         <v>절</v>
       </c>
       <c r="J99" s="16" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1E+164</v>
       </c>
       <c r="K99" s="22">
@@ -12018,15 +12254,15 @@
         <v>91</v>
       </c>
       <c r="F100" s="17" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1000절</v>
       </c>
       <c r="G100" s="17">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1E+167</v>
       </c>
       <c r="H100" s="17">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1000</v>
       </c>
       <c r="I100" s="16" t="str" cm="1">
@@ -12034,7 +12270,7 @@
         <v>절</v>
       </c>
       <c r="J100" s="16" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1E+164</v>
       </c>
       <c r="K100" s="22">
@@ -12050,15 +12286,15 @@
         <v>92</v>
       </c>
       <c r="F101" s="17" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1격</v>
       </c>
       <c r="G101" s="17">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>9.9999999999999993E+167</v>
       </c>
       <c r="H101" s="17">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="I101" s="16" t="str" cm="1">
@@ -12066,7 +12302,7 @@
         <v>격</v>
       </c>
       <c r="J101" s="16" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1E+168</v>
       </c>
       <c r="K101" s="22">
@@ -12083,15 +12319,15 @@
         <v>93</v>
       </c>
       <c r="F102" s="17" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>10격</v>
       </c>
       <c r="G102" s="17">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>9.9999999999999993E+168</v>
       </c>
       <c r="H102" s="17">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>10</v>
       </c>
       <c r="I102" s="16" t="str" cm="1">
@@ -12099,11 +12335,11 @@
         <v>격</v>
       </c>
       <c r="J102" s="16" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1E+168</v>
       </c>
       <c r="K102" s="22">
-        <f t="shared" ref="K102:K144" si="44">K98+1000</f>
+        <f t="shared" ref="K102:K148" si="46">K98+1000</f>
         <v>24000</v>
       </c>
       <c r="L102" s="22">
@@ -12116,15 +12352,15 @@
         <v>94</v>
       </c>
       <c r="F103" s="17" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>100격</v>
       </c>
       <c r="G103" s="17">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>9.999999999999999E+169</v>
       </c>
       <c r="H103" s="17">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>100</v>
       </c>
       <c r="I103" s="16" t="str" cm="1">
@@ -12132,11 +12368,11 @@
         <v>격</v>
       </c>
       <c r="J103" s="16" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1E+168</v>
       </c>
       <c r="K103" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>24000</v>
       </c>
       <c r="L103" s="22">
@@ -12149,15 +12385,15 @@
         <v>95</v>
       </c>
       <c r="F104" s="17" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1000격</v>
       </c>
       <c r="G104" s="17">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>9.9999999999999995E+170</v>
       </c>
       <c r="H104" s="17">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1000</v>
       </c>
       <c r="I104" s="16" t="str" cm="1">
@@ -12165,11 +12401,11 @@
         <v>격</v>
       </c>
       <c r="J104" s="16" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1E+168</v>
       </c>
       <c r="K104" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>24000</v>
       </c>
       <c r="L104" s="22">
@@ -12182,15 +12418,15 @@
         <v>96</v>
       </c>
       <c r="F105" s="17" t="str">
-        <f t="shared" ref="F105:F112" si="45">H105&amp;I105</f>
+        <f t="shared" ref="F105:F112" si="47">H105&amp;I105</f>
         <v>1창</v>
       </c>
       <c r="G105" s="17">
-        <f t="shared" ref="G105:G112" si="46">H105*J105</f>
+        <f t="shared" ref="G105:G112" si="48">H105*J105</f>
         <v>1.0000000000000001E+172</v>
       </c>
       <c r="H105" s="17">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="I105" s="16" t="str" cm="1">
@@ -12198,11 +12434,11 @@
         <v>창</v>
       </c>
       <c r="J105" s="16" t="str">
-        <f t="shared" ref="J105:J112" si="47">VLOOKUP(I105,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J105:J112" si="49">VLOOKUP(I105,N:Q,4,FALSE)</f>
         <v>1E+172</v>
       </c>
       <c r="K105" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>25000</v>
       </c>
       <c r="L105" s="22">
@@ -12214,15 +12450,15 @@
         <v>97</v>
       </c>
       <c r="F106" s="17" t="str">
+        <f t="shared" si="47"/>
+        <v>10창</v>
+      </c>
+      <c r="G106" s="17">
+        <f t="shared" si="48"/>
+        <v>1E+173</v>
+      </c>
+      <c r="H106" s="17">
         <f t="shared" si="45"/>
-        <v>10창</v>
-      </c>
-      <c r="G106" s="17">
-        <f t="shared" si="46"/>
-        <v>1E+173</v>
-      </c>
-      <c r="H106" s="17">
-        <f t="shared" si="43"/>
         <v>10</v>
       </c>
       <c r="I106" s="16" t="str" cm="1">
@@ -12230,11 +12466,11 @@
         <v>창</v>
       </c>
       <c r="J106" s="16" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1E+172</v>
       </c>
       <c r="K106" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>25000</v>
       </c>
       <c r="L106" s="22">
@@ -12246,15 +12482,15 @@
         <v>98</v>
       </c>
       <c r="F107" s="17" t="str">
+        <f t="shared" si="47"/>
+        <v>100창</v>
+      </c>
+      <c r="G107" s="17">
+        <f t="shared" si="48"/>
+        <v>1.0000000000000001E+174</v>
+      </c>
+      <c r="H107" s="17">
         <f t="shared" si="45"/>
-        <v>100창</v>
-      </c>
-      <c r="G107" s="17">
-        <f t="shared" si="46"/>
-        <v>1.0000000000000001E+174</v>
-      </c>
-      <c r="H107" s="17">
-        <f t="shared" si="43"/>
         <v>100</v>
       </c>
       <c r="I107" s="16" t="str" cm="1">
@@ -12262,11 +12498,11 @@
         <v>창</v>
       </c>
       <c r="J107" s="16" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1E+172</v>
       </c>
       <c r="K107" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>25000</v>
       </c>
       <c r="L107" s="22">
@@ -12278,15 +12514,15 @@
         <v>99</v>
       </c>
       <c r="F108" s="17" t="str">
+        <f t="shared" si="47"/>
+        <v>1000창</v>
+      </c>
+      <c r="G108" s="17">
+        <f t="shared" si="48"/>
+        <v>1.0000000000000001E+175</v>
+      </c>
+      <c r="H108" s="17">
         <f t="shared" si="45"/>
-        <v>1000창</v>
-      </c>
-      <c r="G108" s="17">
-        <f t="shared" si="46"/>
-        <v>1.0000000000000001E+175</v>
-      </c>
-      <c r="H108" s="17">
-        <f t="shared" si="43"/>
         <v>1000</v>
       </c>
       <c r="I108" s="16" t="str" cm="1">
@@ -12294,11 +12530,11 @@
         <v>창</v>
       </c>
       <c r="J108" s="16" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1E+172</v>
       </c>
       <c r="K108" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>25000</v>
       </c>
       <c r="L108" s="22">
@@ -12310,15 +12546,15 @@
         <v>100</v>
       </c>
       <c r="F109" s="17" t="str">
+        <f t="shared" si="47"/>
+        <v>1공</v>
+      </c>
+      <c r="G109" s="17">
+        <f t="shared" si="48"/>
+        <v>1E+176</v>
+      </c>
+      <c r="H109" s="17">
         <f t="shared" si="45"/>
-        <v>1공</v>
-      </c>
-      <c r="G109" s="17">
-        <f t="shared" si="46"/>
-        <v>1E+176</v>
-      </c>
-      <c r="H109" s="17">
-        <f t="shared" si="43"/>
         <v>1</v>
       </c>
       <c r="I109" s="16" t="str" cm="1">
@@ -12326,11 +12562,11 @@
         <v>공</v>
       </c>
       <c r="J109" s="16" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1E+176</v>
       </c>
       <c r="K109" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>26000</v>
       </c>
       <c r="L109" s="22">
@@ -12342,15 +12578,15 @@
         <v>101</v>
       </c>
       <c r="F110" s="17" t="str">
+        <f t="shared" si="47"/>
+        <v>10공</v>
+      </c>
+      <c r="G110" s="17">
+        <f t="shared" si="48"/>
+        <v>1E+177</v>
+      </c>
+      <c r="H110" s="17">
         <f t="shared" si="45"/>
-        <v>10공</v>
-      </c>
-      <c r="G110" s="17">
-        <f t="shared" si="46"/>
-        <v>1E+177</v>
-      </c>
-      <c r="H110" s="17">
-        <f t="shared" si="43"/>
         <v>10</v>
       </c>
       <c r="I110" s="16" t="str" cm="1">
@@ -12358,11 +12594,11 @@
         <v>공</v>
       </c>
       <c r="J110" s="16" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1E+176</v>
       </c>
       <c r="K110" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>26000</v>
       </c>
       <c r="L110" s="22">
@@ -12374,15 +12610,15 @@
         <v>102</v>
       </c>
       <c r="F111" s="17" t="str">
+        <f t="shared" si="47"/>
+        <v>100공</v>
+      </c>
+      <c r="G111" s="17">
+        <f t="shared" si="48"/>
+        <v>1.0000000000000001E+178</v>
+      </c>
+      <c r="H111" s="17">
         <f t="shared" si="45"/>
-        <v>100공</v>
-      </c>
-      <c r="G111" s="17">
-        <f t="shared" si="46"/>
-        <v>1.0000000000000001E+178</v>
-      </c>
-      <c r="H111" s="17">
-        <f t="shared" si="43"/>
         <v>100</v>
       </c>
       <c r="I111" s="16" t="str" cm="1">
@@ -12390,11 +12626,11 @@
         <v>공</v>
       </c>
       <c r="J111" s="16" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1E+176</v>
       </c>
       <c r="K111" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>26000</v>
       </c>
       <c r="L111" s="22">
@@ -12406,15 +12642,15 @@
         <v>103</v>
       </c>
       <c r="F112" s="17" t="str">
+        <f t="shared" si="47"/>
+        <v>1000공</v>
+      </c>
+      <c r="G112" s="17">
+        <f t="shared" si="48"/>
+        <v>9.9999999999999998E+178</v>
+      </c>
+      <c r="H112" s="17">
         <f t="shared" si="45"/>
-        <v>1000공</v>
-      </c>
-      <c r="G112" s="17">
-        <f t="shared" si="46"/>
-        <v>9.9999999999999998E+178</v>
-      </c>
-      <c r="H112" s="17">
-        <f t="shared" si="43"/>
         <v>1000</v>
       </c>
       <c r="I112" s="16" t="str" cm="1">
@@ -12422,11 +12658,11 @@
         <v>공</v>
       </c>
       <c r="J112" s="16" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1E+176</v>
       </c>
       <c r="K112" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>26000</v>
       </c>
       <c r="L112" s="22">
@@ -12438,15 +12674,15 @@
         <v>104</v>
       </c>
       <c r="F113" s="17" t="str">
-        <f t="shared" ref="F113:F120" si="48">H113&amp;I113</f>
+        <f t="shared" ref="F113:F120" si="50">H113&amp;I113</f>
         <v>1채</v>
       </c>
       <c r="G113" s="17">
-        <f t="shared" ref="G113:G120" si="49">H113*J113</f>
+        <f t="shared" ref="G113:G120" si="51">H113*J113</f>
         <v>1E+180</v>
       </c>
       <c r="H113" s="17">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="I113" s="16" t="str" cm="1">
@@ -12454,11 +12690,11 @@
         <v>채</v>
       </c>
       <c r="J113" s="16" t="str">
-        <f t="shared" ref="J113:J120" si="50">VLOOKUP(I113,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J113:J120" si="52">VLOOKUP(I113,N:Q,4,FALSE)</f>
         <v>1E+180</v>
       </c>
       <c r="K113" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>27000</v>
       </c>
       <c r="L113" s="22">
@@ -12470,15 +12706,15 @@
         <v>105</v>
       </c>
       <c r="F114" s="17" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>10채</v>
       </c>
       <c r="G114" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>9.9999999999999992E+180</v>
       </c>
       <c r="H114" s="17">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>10</v>
       </c>
       <c r="I114" s="16" t="str" cm="1">
@@ -12486,11 +12722,11 @@
         <v>채</v>
       </c>
       <c r="J114" s="16" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1E+180</v>
       </c>
       <c r="K114" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>27000</v>
       </c>
       <c r="L114" s="22">
@@ -12502,15 +12738,15 @@
         <v>106</v>
       </c>
       <c r="F115" s="17" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>100채</v>
       </c>
       <c r="G115" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1.0000000000000001E+182</v>
       </c>
       <c r="H115" s="17">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>100</v>
       </c>
       <c r="I115" s="16" t="str" cm="1">
@@ -12518,11 +12754,11 @@
         <v>채</v>
       </c>
       <c r="J115" s="16" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1E+180</v>
       </c>
       <c r="K115" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>27000</v>
       </c>
       <c r="L115" s="22">
@@ -12534,15 +12770,15 @@
         <v>107</v>
       </c>
       <c r="F116" s="17" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1000채</v>
       </c>
       <c r="G116" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1.0000000000000001E+183</v>
       </c>
       <c r="H116" s="17">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1000</v>
       </c>
       <c r="I116" s="16" t="str" cm="1">
@@ -12550,11 +12786,11 @@
         <v>채</v>
       </c>
       <c r="J116" s="16" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1E+180</v>
       </c>
       <c r="K116" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>27000</v>
       </c>
       <c r="L116" s="22">
@@ -12566,15 +12802,15 @@
         <v>108</v>
       </c>
       <c r="F117" s="17" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1피</v>
       </c>
       <c r="G117" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1E+184</v>
       </c>
       <c r="H117" s="17">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="I117" s="16" t="str" cm="1">
@@ -12582,11 +12818,11 @@
         <v>피</v>
       </c>
       <c r="J117" s="16" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1E+184</v>
       </c>
       <c r="K117" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>28000</v>
       </c>
       <c r="L117" s="22">
@@ -12598,15 +12834,15 @@
         <v>109</v>
       </c>
       <c r="F118" s="17" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>10피</v>
       </c>
       <c r="G118" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>9.9999999999999998E+184</v>
       </c>
       <c r="H118" s="17">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>10</v>
       </c>
       <c r="I118" s="16" t="str" cm="1">
@@ -12614,11 +12850,11 @@
         <v>피</v>
       </c>
       <c r="J118" s="16" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1E+184</v>
       </c>
       <c r="K118" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>28000</v>
       </c>
       <c r="L118" s="22">
@@ -12630,15 +12866,15 @@
         <v>110</v>
       </c>
       <c r="F119" s="17" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>100피</v>
       </c>
       <c r="G119" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>9.9999999999999998E+185</v>
       </c>
       <c r="H119" s="17">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>100</v>
       </c>
       <c r="I119" s="16" t="str" cm="1">
@@ -12646,11 +12882,11 @@
         <v>피</v>
       </c>
       <c r="J119" s="16" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1E+184</v>
       </c>
       <c r="K119" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>28000</v>
       </c>
       <c r="L119" s="22">
@@ -12662,15 +12898,15 @@
         <v>111</v>
       </c>
       <c r="F120" s="17" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1000피</v>
       </c>
       <c r="G120" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1.0000000000000001E+187</v>
       </c>
       <c r="H120" s="17">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1000</v>
       </c>
       <c r="I120" s="16" t="str" cm="1">
@@ -12678,11 +12914,11 @@
         <v>피</v>
       </c>
       <c r="J120" s="16" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1E+184</v>
       </c>
       <c r="K120" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>28000</v>
       </c>
       <c r="L120" s="22">
@@ -12694,15 +12930,15 @@
         <v>112</v>
       </c>
       <c r="F121" s="17" t="str">
-        <f t="shared" ref="F121:F124" si="51">H121&amp;I121</f>
+        <f t="shared" ref="F121:F124" si="53">H121&amp;I121</f>
         <v>1동</v>
       </c>
       <c r="G121" s="17">
-        <f t="shared" ref="G121:G124" si="52">H121*J121</f>
+        <f t="shared" ref="G121:G124" si="54">H121*J121</f>
         <v>1E+188</v>
       </c>
       <c r="H121" s="17">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="I121" s="16" t="str" cm="1">
@@ -12710,11 +12946,11 @@
         <v>동</v>
       </c>
       <c r="J121" s="16" t="str">
-        <f t="shared" ref="J121:J124" si="53">VLOOKUP(I121,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J121:J124" si="55">VLOOKUP(I121,N:Q,4,FALSE)</f>
         <v>1E+188</v>
       </c>
       <c r="K121" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>29000</v>
       </c>
       <c r="L121" s="22">
@@ -12726,15 +12962,15 @@
         <v>113</v>
       </c>
       <c r="F122" s="17" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>10동</v>
       </c>
       <c r="G122" s="17">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>1E+189</v>
       </c>
       <c r="H122" s="17">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>10</v>
       </c>
       <c r="I122" s="16" t="str" cm="1">
@@ -12742,11 +12978,11 @@
         <v>동</v>
       </c>
       <c r="J122" s="16" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1E+188</v>
       </c>
       <c r="K122" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>29000</v>
       </c>
       <c r="L122" s="22">
@@ -12758,15 +12994,15 @@
         <v>114</v>
       </c>
       <c r="F123" s="17" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>100동</v>
       </c>
       <c r="G123" s="17">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>1.0000000000000001E+190</v>
       </c>
       <c r="H123" s="17">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>100</v>
       </c>
       <c r="I123" s="16" t="str" cm="1">
@@ -12774,11 +13010,11 @@
         <v>동</v>
       </c>
       <c r="J123" s="16" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1E+188</v>
       </c>
       <c r="K123" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>29000</v>
       </c>
       <c r="L123" s="22">
@@ -12790,15 +13026,15 @@
         <v>115</v>
       </c>
       <c r="F124" s="17" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1000동</v>
       </c>
       <c r="G124" s="17">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>1.0000000000000001E+191</v>
       </c>
       <c r="H124" s="17">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1000</v>
       </c>
       <c r="I124" s="16" t="str" cm="1">
@@ -12806,11 +13042,11 @@
         <v>동</v>
       </c>
       <c r="J124" s="16" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1E+188</v>
       </c>
       <c r="K124" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>29000</v>
       </c>
       <c r="L124" s="22">
@@ -12822,15 +13058,15 @@
         <v>116</v>
       </c>
       <c r="F125" s="17" t="str">
-        <f t="shared" ref="F125:F128" si="54">H125&amp;I125</f>
+        <f t="shared" ref="F125:F128" si="56">H125&amp;I125</f>
         <v>1멸</v>
       </c>
       <c r="G125" s="17">
-        <f t="shared" ref="G125:G128" si="55">H125*J125</f>
+        <f t="shared" ref="G125:G128" si="57">H125*J125</f>
         <v>1E+192</v>
       </c>
       <c r="H125" s="17">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="I125" s="16" t="str" cm="1">
@@ -12838,11 +13074,11 @@
         <v>멸</v>
       </c>
       <c r="J125" s="16" t="str">
-        <f t="shared" ref="J125:J128" si="56">VLOOKUP(I125,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J125:J128" si="58">VLOOKUP(I125,N:Q,4,FALSE)</f>
         <v>1E+192</v>
       </c>
       <c r="K125" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>30000</v>
       </c>
       <c r="L125" s="22">
@@ -12854,15 +13090,15 @@
         <v>117</v>
       </c>
       <c r="F126" s="17" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>10멸</v>
       </c>
       <c r="G126" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>1.0000000000000001E+193</v>
       </c>
       <c r="H126" s="17">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>10</v>
       </c>
       <c r="I126" s="16" t="str" cm="1">
@@ -12870,11 +13106,11 @@
         <v>멸</v>
       </c>
       <c r="J126" s="16" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>1E+192</v>
       </c>
       <c r="K126" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>30000</v>
       </c>
       <c r="L126" s="22">
@@ -12886,15 +13122,15 @@
         <v>118</v>
       </c>
       <c r="F127" s="17" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>100멸</v>
       </c>
       <c r="G127" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>1.0000000000000001E+194</v>
       </c>
       <c r="H127" s="17">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>100</v>
       </c>
       <c r="I127" s="16" t="str" cm="1">
@@ -12902,11 +13138,11 @@
         <v>멸</v>
       </c>
       <c r="J127" s="16" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>1E+192</v>
       </c>
       <c r="K127" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>30000</v>
       </c>
       <c r="L127" s="22">
@@ -12918,15 +13154,15 @@
         <v>119</v>
       </c>
       <c r="F128" s="17" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>1000멸</v>
       </c>
       <c r="G128" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>9.9999999999999998E+194</v>
       </c>
       <c r="H128" s="17">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1000</v>
       </c>
       <c r="I128" s="16" t="str" cm="1">
@@ -12934,11 +13170,11 @@
         <v>멸</v>
       </c>
       <c r="J128" s="16" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>1E+192</v>
       </c>
       <c r="K128" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>30000</v>
       </c>
       <c r="L128" s="22">
@@ -12950,15 +13186,15 @@
         <v>120</v>
       </c>
       <c r="F129" s="17" t="str">
-        <f t="shared" ref="F129:F136" si="57">H129&amp;I129</f>
+        <f t="shared" ref="F129:F136" si="59">H129&amp;I129</f>
         <v>1향</v>
       </c>
       <c r="G129" s="17">
-        <f t="shared" ref="G129:G136" si="58">H129*J129</f>
+        <f t="shared" ref="G129:G136" si="60">H129*J129</f>
         <v>9.9999999999999995E+195</v>
       </c>
       <c r="H129" s="17">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="I129" s="16" t="str" cm="1">
@@ -12966,11 +13202,11 @@
         <v>향</v>
       </c>
       <c r="J129" s="16" t="str">
-        <f t="shared" ref="J129:J136" si="59">VLOOKUP(I129,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J129:J136" si="61">VLOOKUP(I129,N:Q,4,FALSE)</f>
         <v>1E+196</v>
       </c>
       <c r="K129" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>31000</v>
       </c>
       <c r="L129" s="22">
@@ -12982,15 +13218,15 @@
         <v>121</v>
       </c>
       <c r="F130" s="17" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>10향</v>
       </c>
       <c r="G130" s="17">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>9.9999999999999995E+196</v>
       </c>
       <c r="H130" s="17">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>10</v>
       </c>
       <c r="I130" s="16" t="str" cm="1">
@@ -12998,11 +13234,11 @@
         <v>향</v>
       </c>
       <c r="J130" s="16" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>1E+196</v>
       </c>
       <c r="K130" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>31000</v>
       </c>
       <c r="L130" s="22">
@@ -13014,15 +13250,15 @@
         <v>122</v>
       </c>
       <c r="F131" s="17" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>100향</v>
       </c>
       <c r="G131" s="17">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>9.9999999999999988E+197</v>
       </c>
       <c r="H131" s="17">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>100</v>
       </c>
       <c r="I131" s="16" t="str" cm="1">
@@ -13030,11 +13266,11 @@
         <v>향</v>
       </c>
       <c r="J131" s="16" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>1E+196</v>
       </c>
       <c r="K131" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>31000</v>
       </c>
       <c r="L131" s="22">
@@ -13046,15 +13282,15 @@
         <v>123</v>
       </c>
       <c r="F132" s="17" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>1000향</v>
       </c>
       <c r="G132" s="17">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>9.9999999999999988E+198</v>
       </c>
       <c r="H132" s="17">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1000</v>
       </c>
       <c r="I132" s="16" t="str" cm="1">
@@ -13062,11 +13298,11 @@
         <v>향</v>
       </c>
       <c r="J132" s="16" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>1E+196</v>
       </c>
       <c r="K132" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>31000</v>
       </c>
       <c r="L132" s="22">
@@ -13078,15 +13314,15 @@
         <v>124</v>
       </c>
       <c r="F133" s="17" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>1증</v>
       </c>
       <c r="G133" s="17">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>9.9999999999999997E+199</v>
       </c>
       <c r="H133" s="17">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="I133" s="16" t="str" cm="1">
@@ -13094,11 +13330,11 @@
         <v>증</v>
       </c>
       <c r="J133" s="16" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>1E+200</v>
       </c>
       <c r="K133" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>32000</v>
       </c>
       <c r="L133" s="22">
@@ -13110,15 +13346,15 @@
         <v>125</v>
       </c>
       <c r="F134" s="17" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>10증</v>
       </c>
       <c r="G134" s="17">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>9.999999999999999E+200</v>
       </c>
       <c r="H134" s="17">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>10</v>
       </c>
       <c r="I134" s="16" t="str" cm="1">
@@ -13126,11 +13362,11 @@
         <v>증</v>
       </c>
       <c r="J134" s="16" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>1E+200</v>
       </c>
       <c r="K134" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>32000</v>
       </c>
       <c r="L134" s="22">
@@ -13142,15 +13378,15 @@
         <v>126</v>
       </c>
       <c r="F135" s="17" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>100증</v>
       </c>
       <c r="G135" s="17">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>9.999999999999999E+201</v>
       </c>
       <c r="H135" s="17">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>100</v>
       </c>
       <c r="I135" s="16" t="str" cm="1">
@@ -13158,11 +13394,11 @@
         <v>증</v>
       </c>
       <c r="J135" s="16" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>1E+200</v>
       </c>
       <c r="K135" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>32000</v>
       </c>
       <c r="L135" s="22">
@@ -13174,15 +13410,15 @@
         <v>127</v>
       </c>
       <c r="F136" s="17" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>1000증</v>
       </c>
       <c r="G136" s="17">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>9.9999999999999999E+202</v>
       </c>
       <c r="H136" s="17">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1000</v>
       </c>
       <c r="I136" s="16" t="str" cm="1">
@@ -13190,11 +13426,11 @@
         <v>증</v>
       </c>
       <c r="J136" s="16" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>1E+200</v>
       </c>
       <c r="K136" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>32000</v>
       </c>
       <c r="L136" s="22">
@@ -13206,15 +13442,15 @@
         <v>128</v>
       </c>
       <c r="F137" s="17" t="str">
-        <f t="shared" ref="F137:F140" si="60">H137&amp;I137</f>
+        <f t="shared" ref="F137:F140" si="62">H137&amp;I137</f>
         <v>1쾌</v>
       </c>
       <c r="G137" s="17">
-        <f t="shared" ref="G137:G140" si="61">H137*J137</f>
+        <f t="shared" ref="G137:G140" si="63">H137*J137</f>
         <v>9.9999999999999999E+203</v>
       </c>
       <c r="H137" s="17">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="I137" s="16" t="str" cm="1">
@@ -13222,11 +13458,11 @@
         <v>쾌</v>
       </c>
       <c r="J137" s="16" t="str">
-        <f t="shared" ref="J137:J140" si="62">VLOOKUP(I137,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J137:J140" si="64">VLOOKUP(I137,N:Q,4,FALSE)</f>
         <v>1E+204</v>
       </c>
       <c r="K137" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>33000</v>
       </c>
       <c r="L137" s="22">
@@ -13238,15 +13474,15 @@
         <v>129</v>
       </c>
       <c r="F138" s="17" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>10쾌</v>
       </c>
       <c r="G138" s="17">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>1E+205</v>
       </c>
       <c r="H138" s="17">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>10</v>
       </c>
       <c r="I138" s="16" t="str" cm="1">
@@ -13254,11 +13490,11 @@
         <v>쾌</v>
       </c>
       <c r="J138" s="16" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>1E+204</v>
       </c>
       <c r="K138" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>33000</v>
       </c>
       <c r="L138" s="22">
@@ -13270,15 +13506,15 @@
         <v>130</v>
       </c>
       <c r="F139" s="17" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>100쾌</v>
       </c>
       <c r="G139" s="17">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>1E+206</v>
       </c>
       <c r="H139" s="17">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>100</v>
       </c>
       <c r="I139" s="16" t="str" cm="1">
@@ -13286,11 +13522,11 @@
         <v>쾌</v>
       </c>
       <c r="J139" s="16" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>1E+204</v>
       </c>
       <c r="K139" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>33000</v>
       </c>
       <c r="L139" s="22">
@@ -13302,15 +13538,15 @@
         <v>131</v>
       </c>
       <c r="F140" s="17" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>1000쾌</v>
       </c>
       <c r="G140" s="17">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>1E+207</v>
       </c>
       <c r="H140" s="17">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1000</v>
       </c>
       <c r="I140" s="16" t="str" cm="1">
@@ -13318,11 +13554,11 @@
         <v>쾌</v>
       </c>
       <c r="J140" s="16" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>1E+204</v>
       </c>
       <c r="K140" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>33000</v>
       </c>
       <c r="L140" s="22">
@@ -13334,15 +13570,15 @@
         <v>132</v>
       </c>
       <c r="F141" s="17" t="str">
-        <f t="shared" ref="F141:F144" si="63">H141&amp;I141</f>
+        <f t="shared" ref="F141:F144" si="65">H141&amp;I141</f>
         <v>1우</v>
       </c>
       <c r="G141" s="17">
-        <f t="shared" ref="G141:G144" si="64">H141*J141</f>
+        <f t="shared" ref="G141:G144" si="66">H141*J141</f>
         <v>9.9999999999999998E+207</v>
       </c>
       <c r="H141" s="17">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="I141" s="16" t="str" cm="1">
@@ -13350,11 +13586,11 @@
         <v>우</v>
       </c>
       <c r="J141" s="16" t="str">
-        <f t="shared" ref="J141:J144" si="65">VLOOKUP(I141,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J141:J144" si="67">VLOOKUP(I141,N:Q,4,FALSE)</f>
         <v>1E+208</v>
       </c>
       <c r="K141" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>34000</v>
       </c>
       <c r="L141" s="22">
@@ -13366,15 +13602,15 @@
         <v>133</v>
       </c>
       <c r="F142" s="17" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>10우</v>
       </c>
       <c r="G142" s="17">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>1.0000000000000001E+209</v>
       </c>
       <c r="H142" s="17">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>10</v>
       </c>
       <c r="I142" s="16" t="str" cm="1">
@@ -13382,11 +13618,11 @@
         <v>우</v>
       </c>
       <c r="J142" s="16" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>1E+208</v>
       </c>
       <c r="K142" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>34000</v>
       </c>
       <c r="L142" s="22">
@@ -13398,15 +13634,15 @@
         <v>134</v>
       </c>
       <c r="F143" s="17" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>100우</v>
       </c>
       <c r="G143" s="17">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>9.9999999999999993E+209</v>
       </c>
       <c r="H143" s="17">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>100</v>
       </c>
       <c r="I143" s="16" t="str" cm="1">
@@ -13414,11 +13650,11 @@
         <v>우</v>
       </c>
       <c r="J143" s="16" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>1E+208</v>
       </c>
       <c r="K143" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>34000</v>
       </c>
       <c r="L143" s="22">
@@ -13430,15 +13666,15 @@
         <v>135</v>
       </c>
       <c r="F144" s="17" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>1000우</v>
       </c>
       <c r="G144" s="17">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>9.9999999999999996E+210</v>
       </c>
       <c r="H144" s="17">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1000</v>
       </c>
       <c r="I144" s="16" t="str" cm="1">
@@ -13446,15 +13682,143 @@
         <v>우</v>
       </c>
       <c r="J144" s="16" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>1E+208</v>
       </c>
       <c r="K144" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>34000</v>
       </c>
       <c r="L144" s="22">
         <v>27000</v>
+      </c>
+    </row>
+    <row r="145" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E145" s="16">
+        <v>136</v>
+      </c>
+      <c r="F145" s="17" t="str">
+        <f t="shared" ref="F145:F148" si="68">H145&amp;I145</f>
+        <v>1팽</v>
+      </c>
+      <c r="G145" s="17">
+        <f t="shared" ref="G145:G148" si="69">H145*J145</f>
+        <v>9.9999999999999991E+211</v>
+      </c>
+      <c r="H145" s="17">
+        <f t="shared" si="45"/>
+        <v>1</v>
+      </c>
+      <c r="I145" s="16" t="str" cm="1">
+        <f t="array" ref="I145">IF(AND(H144&gt;=1000,H145&lt;2),INDEX(N:N,MATCH(I144,N:N,0)+1,0),I144)</f>
+        <v>팽</v>
+      </c>
+      <c r="J145" s="16" t="str">
+        <f t="shared" ref="J145:J148" si="70">VLOOKUP(I145,N:Q,4,FALSE)</f>
+        <v>1E+212</v>
+      </c>
+      <c r="K145" s="22">
+        <f t="shared" si="46"/>
+        <v>35000</v>
+      </c>
+      <c r="L145" s="22">
+        <v>27200</v>
+      </c>
+    </row>
+    <row r="146" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E146" s="16">
+        <v>137</v>
+      </c>
+      <c r="F146" s="17" t="str">
+        <f t="shared" si="68"/>
+        <v>10팽</v>
+      </c>
+      <c r="G146" s="17">
+        <f t="shared" si="69"/>
+        <v>9.9999999999999983E+212</v>
+      </c>
+      <c r="H146" s="17">
+        <f t="shared" si="45"/>
+        <v>10</v>
+      </c>
+      <c r="I146" s="16" t="str" cm="1">
+        <f t="array" ref="I146">IF(AND(H145&gt;=1000,H146&lt;2),INDEX(N:N,MATCH(I145,N:N,0)+1,0),I145)</f>
+        <v>팽</v>
+      </c>
+      <c r="J146" s="16" t="str">
+        <f t="shared" si="70"/>
+        <v>1E+212</v>
+      </c>
+      <c r="K146" s="22">
+        <f t="shared" si="46"/>
+        <v>35000</v>
+      </c>
+      <c r="L146" s="22">
+        <v>27400</v>
+      </c>
+    </row>
+    <row r="147" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E147" s="16">
+        <v>138</v>
+      </c>
+      <c r="F147" s="17" t="str">
+        <f t="shared" si="68"/>
+        <v>100팽</v>
+      </c>
+      <c r="G147" s="17">
+        <f t="shared" si="69"/>
+        <v>9.9999999999999995E+213</v>
+      </c>
+      <c r="H147" s="17">
+        <f t="shared" si="45"/>
+        <v>100</v>
+      </c>
+      <c r="I147" s="16" t="str" cm="1">
+        <f t="array" ref="I147">IF(AND(H146&gt;=1000,H147&lt;2),INDEX(N:N,MATCH(I146,N:N,0)+1,0),I146)</f>
+        <v>팽</v>
+      </c>
+      <c r="J147" s="16" t="str">
+        <f t="shared" si="70"/>
+        <v>1E+212</v>
+      </c>
+      <c r="K147" s="22">
+        <f t="shared" si="46"/>
+        <v>35000</v>
+      </c>
+      <c r="L147" s="22">
+        <v>27600</v>
+      </c>
+    </row>
+    <row r="148" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E148" s="16">
+        <v>139</v>
+      </c>
+      <c r="F148" s="17" t="str">
+        <f t="shared" si="68"/>
+        <v>1000팽</v>
+      </c>
+      <c r="G148" s="17">
+        <f t="shared" si="69"/>
+        <v>9.9999999999999991E+214</v>
+      </c>
+      <c r="H148" s="17">
+        <f t="shared" si="45"/>
+        <v>1000</v>
+      </c>
+      <c r="I148" s="16" t="str" cm="1">
+        <f t="array" ref="I148">IF(AND(H147&gt;=1000,H148&lt;2),INDEX(N:N,MATCH(I147,N:N,0)+1,0),I147)</f>
+        <v>팽</v>
+      </c>
+      <c r="J148" s="16" t="str">
+        <f t="shared" si="70"/>
+        <v>1E+212</v>
+      </c>
+      <c r="K148" s="22">
+        <f t="shared" si="46"/>
+        <v>35000</v>
+      </c>
+      <c r="L148" s="22">
+        <v>27800</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/ByeolhoTower.xlsx
+++ b/Assets/06.Table/ByeolhoTower.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA93C364-3FAD-4228-A75F-D81F27C73335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C65425-4C65-482F-A44E-D36DB609EF75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="89">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -402,6 +402,14 @@
   </si>
   <si>
     <t>한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -994,11 +1002,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M141"/>
+  <dimension ref="A1:M149"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I136" sqref="I136"/>
+      <selection pane="bottomLeft" activeCell="G138" sqref="G138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6885,11 +6893,11 @@
         <v>30000</v>
       </c>
       <c r="E118">
-        <f t="shared" ref="E118:E141" si="84">E117</f>
+        <f t="shared" ref="E118:E149" si="84">E117</f>
         <v>1</v>
       </c>
       <c r="F118" s="2">
-        <f t="shared" ref="F118:F141" si="85">F117*10</f>
+        <f t="shared" ref="F118:F149" si="85">F117*10</f>
         <v>9.9999999999999991E+191</v>
       </c>
       <c r="G118">
@@ -6908,7 +6916,7 @@
         <v>57</v>
       </c>
       <c r="K118">
-        <f t="shared" ref="K118:K141" si="87">K117+200</f>
+        <f t="shared" ref="K118:K149" si="87">K117+200</f>
         <v>25200</v>
       </c>
       <c r="L118">
@@ -8092,9 +8100,417 @@
         <v>13900</v>
       </c>
     </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>140</v>
+      </c>
+      <c r="B142" s="1" t="str">
+        <f t="shared" ref="B142:C142" si="124">B141</f>
+        <v>1-1</v>
+      </c>
+      <c r="C142">
+        <f t="shared" si="124"/>
+        <v>9054</v>
+      </c>
+      <c r="D142">
+        <f>VLOOKUP(A142,Balance!E:K,7,FALSE)</f>
+        <v>36000</v>
+      </c>
+      <c r="E142">
+        <f t="shared" si="84"/>
+        <v>1</v>
+      </c>
+      <c r="F142" s="2">
+        <f t="shared" si="85"/>
+        <v>1E+216</v>
+      </c>
+      <c r="G142">
+        <f t="shared" ref="G142:I142" si="125">G141</f>
+        <v>1000</v>
+      </c>
+      <c r="H142">
+        <f t="shared" si="125"/>
+        <v>8</v>
+      </c>
+      <c r="I142">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="J142" t="s">
+        <v>57</v>
+      </c>
+      <c r="K142">
+        <f t="shared" si="87"/>
+        <v>30000</v>
+      </c>
+      <c r="L142">
+        <v>9054</v>
+      </c>
+      <c r="M142">
+        <f>VLOOKUP(A142,Balance!E:L,8,FALSE)/2</f>
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>141</v>
+      </c>
+      <c r="B143" s="1" t="str">
+        <f t="shared" ref="B143:B150" si="126">B142</f>
+        <v>1-1</v>
+      </c>
+      <c r="C143">
+        <f t="shared" ref="C143:C150" si="127">C142</f>
+        <v>9054</v>
+      </c>
+      <c r="D143">
+        <f>VLOOKUP(A143,Balance!E:K,7,FALSE)</f>
+        <v>36000</v>
+      </c>
+      <c r="E143">
+        <f t="shared" si="84"/>
+        <v>1</v>
+      </c>
+      <c r="F143" s="2">
+        <f t="shared" si="85"/>
+        <v>1.0000000000000001E+217</v>
+      </c>
+      <c r="G143">
+        <f t="shared" ref="G143:G150" si="128">G142</f>
+        <v>1000</v>
+      </c>
+      <c r="H143">
+        <f t="shared" ref="H143:H150" si="129">H142</f>
+        <v>8</v>
+      </c>
+      <c r="I143">
+        <f t="shared" ref="I143:I150" si="130">I142</f>
+        <v>0</v>
+      </c>
+      <c r="J143" t="s">
+        <v>57</v>
+      </c>
+      <c r="K143">
+        <f t="shared" si="87"/>
+        <v>30200</v>
+      </c>
+      <c r="L143">
+        <v>9054</v>
+      </c>
+      <c r="M143">
+        <f>VLOOKUP(A143,Balance!E:L,8,FALSE)/2</f>
+        <v>14100</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>142</v>
+      </c>
+      <c r="B144" s="1" t="str">
+        <f t="shared" ref="B144:C144" si="131">B143</f>
+        <v>1-1</v>
+      </c>
+      <c r="C144">
+        <f t="shared" si="131"/>
+        <v>9054</v>
+      </c>
+      <c r="D144">
+        <f>VLOOKUP(A144,Balance!E:K,7,FALSE)</f>
+        <v>36000</v>
+      </c>
+      <c r="E144">
+        <f t="shared" si="84"/>
+        <v>1</v>
+      </c>
+      <c r="F144" s="2">
+        <f t="shared" si="85"/>
+        <v>1.0000000000000001E+218</v>
+      </c>
+      <c r="G144">
+        <f t="shared" ref="G144:I144" si="132">G143</f>
+        <v>1000</v>
+      </c>
+      <c r="H144">
+        <f t="shared" si="132"/>
+        <v>8</v>
+      </c>
+      <c r="I144">
+        <f t="shared" si="132"/>
+        <v>0</v>
+      </c>
+      <c r="J144" t="s">
+        <v>57</v>
+      </c>
+      <c r="K144">
+        <f t="shared" si="87"/>
+        <v>30400</v>
+      </c>
+      <c r="L144">
+        <v>9054</v>
+      </c>
+      <c r="M144">
+        <f>VLOOKUP(A144,Balance!E:L,8,FALSE)/2</f>
+        <v>14200</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>143</v>
+      </c>
+      <c r="B145" s="1" t="str">
+        <f t="shared" ref="B145:C145" si="133">B144</f>
+        <v>1-1</v>
+      </c>
+      <c r="C145">
+        <f t="shared" si="133"/>
+        <v>9054</v>
+      </c>
+      <c r="D145">
+        <f>VLOOKUP(A145,Balance!E:K,7,FALSE)</f>
+        <v>36000</v>
+      </c>
+      <c r="E145">
+        <f t="shared" si="84"/>
+        <v>1</v>
+      </c>
+      <c r="F145" s="2">
+        <f t="shared" si="85"/>
+        <v>1.0000000000000001E+219</v>
+      </c>
+      <c r="G145">
+        <f t="shared" ref="G145:I145" si="134">G144</f>
+        <v>1000</v>
+      </c>
+      <c r="H145">
+        <f t="shared" si="134"/>
+        <v>8</v>
+      </c>
+      <c r="I145">
+        <f t="shared" si="134"/>
+        <v>0</v>
+      </c>
+      <c r="J145" t="s">
+        <v>57</v>
+      </c>
+      <c r="K145">
+        <f t="shared" si="87"/>
+        <v>30600</v>
+      </c>
+      <c r="L145">
+        <v>9054</v>
+      </c>
+      <c r="M145">
+        <f>VLOOKUP(A145,Balance!E:L,8,FALSE)/2</f>
+        <v>14300</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>144</v>
+      </c>
+      <c r="B146" s="1" t="str">
+        <f t="shared" ref="B146:C146" si="135">B145</f>
+        <v>1-1</v>
+      </c>
+      <c r="C146">
+        <f t="shared" si="135"/>
+        <v>9054</v>
+      </c>
+      <c r="D146">
+        <f>VLOOKUP(A146,Balance!E:K,7,FALSE)</f>
+        <v>37000</v>
+      </c>
+      <c r="E146">
+        <f t="shared" si="84"/>
+        <v>1</v>
+      </c>
+      <c r="F146" s="2">
+        <f t="shared" si="85"/>
+        <v>1.0000000000000001E+220</v>
+      </c>
+      <c r="G146">
+        <f t="shared" ref="G146:I146" si="136">G145</f>
+        <v>1000</v>
+      </c>
+      <c r="H146">
+        <f t="shared" si="136"/>
+        <v>8</v>
+      </c>
+      <c r="I146">
+        <f t="shared" si="136"/>
+        <v>0</v>
+      </c>
+      <c r="J146" t="s">
+        <v>57</v>
+      </c>
+      <c r="K146">
+        <f t="shared" si="87"/>
+        <v>30800</v>
+      </c>
+      <c r="L146">
+        <v>9054</v>
+      </c>
+      <c r="M146">
+        <f>VLOOKUP(A146,Balance!E:L,8,FALSE)/2</f>
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>145</v>
+      </c>
+      <c r="B147" s="1" t="str">
+        <f t="shared" ref="B147:B150" si="137">B146</f>
+        <v>1-1</v>
+      </c>
+      <c r="C147">
+        <f t="shared" ref="C147:C150" si="138">C146</f>
+        <v>9054</v>
+      </c>
+      <c r="D147">
+        <f>VLOOKUP(A147,Balance!E:K,7,FALSE)</f>
+        <v>37000</v>
+      </c>
+      <c r="E147">
+        <f t="shared" si="84"/>
+        <v>1</v>
+      </c>
+      <c r="F147" s="2">
+        <f t="shared" si="85"/>
+        <v>1E+221</v>
+      </c>
+      <c r="G147">
+        <f t="shared" ref="G147:G150" si="139">G146</f>
+        <v>1000</v>
+      </c>
+      <c r="H147">
+        <f t="shared" ref="H147:H150" si="140">H146</f>
+        <v>8</v>
+      </c>
+      <c r="I147">
+        <f t="shared" ref="I147:I150" si="141">I146</f>
+        <v>0</v>
+      </c>
+      <c r="J147" t="s">
+        <v>57</v>
+      </c>
+      <c r="K147">
+        <f t="shared" si="87"/>
+        <v>31000</v>
+      </c>
+      <c r="L147">
+        <v>9054</v>
+      </c>
+      <c r="M147">
+        <f>VLOOKUP(A147,Balance!E:L,8,FALSE)/2</f>
+        <v>14500</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>146</v>
+      </c>
+      <c r="B148" s="1" t="str">
+        <f t="shared" ref="B148:C148" si="142">B147</f>
+        <v>1-1</v>
+      </c>
+      <c r="C148">
+        <f t="shared" si="142"/>
+        <v>9054</v>
+      </c>
+      <c r="D148">
+        <f>VLOOKUP(A148,Balance!E:K,7,FALSE)</f>
+        <v>37000</v>
+      </c>
+      <c r="E148">
+        <f t="shared" si="84"/>
+        <v>1</v>
+      </c>
+      <c r="F148" s="2">
+        <f t="shared" si="85"/>
+        <v>1E+222</v>
+      </c>
+      <c r="G148">
+        <f t="shared" ref="G148:I148" si="143">G147</f>
+        <v>1000</v>
+      </c>
+      <c r="H148">
+        <f t="shared" si="143"/>
+        <v>8</v>
+      </c>
+      <c r="I148">
+        <f t="shared" si="143"/>
+        <v>0</v>
+      </c>
+      <c r="J148" t="s">
+        <v>57</v>
+      </c>
+      <c r="K148">
+        <f t="shared" si="87"/>
+        <v>31200</v>
+      </c>
+      <c r="L148">
+        <v>9054</v>
+      </c>
+      <c r="M148">
+        <f>VLOOKUP(A148,Balance!E:L,8,FALSE)/2</f>
+        <v>14600</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>147</v>
+      </c>
+      <c r="B149" s="1" t="str">
+        <f t="shared" ref="B149:C149" si="144">B148</f>
+        <v>1-1</v>
+      </c>
+      <c r="C149">
+        <f t="shared" si="144"/>
+        <v>9054</v>
+      </c>
+      <c r="D149">
+        <f>VLOOKUP(A149,Balance!E:K,7,FALSE)</f>
+        <v>37000</v>
+      </c>
+      <c r="E149">
+        <f t="shared" si="84"/>
+        <v>1</v>
+      </c>
+      <c r="F149" s="2">
+        <f t="shared" si="85"/>
+        <v>1E+223</v>
+      </c>
+      <c r="G149">
+        <f t="shared" ref="G149:I149" si="145">G148</f>
+        <v>1000</v>
+      </c>
+      <c r="H149">
+        <f t="shared" si="145"/>
+        <v>8</v>
+      </c>
+      <c r="I149">
+        <f t="shared" si="145"/>
+        <v>0</v>
+      </c>
+      <c r="J149" t="s">
+        <v>57</v>
+      </c>
+      <c r="K149">
+        <f t="shared" si="87"/>
+        <v>31400</v>
+      </c>
+      <c r="L149">
+        <v>9054</v>
+      </c>
+      <c r="M149">
+        <f>VLOOKUP(A149,Balance!E:L,8,FALSE)/2</f>
+        <v>14700</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:K141">
+  <conditionalFormatting sqref="A2:K149">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
@@ -8106,10 +8522,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4C63F0-02E4-48AB-8F58-B57B021B5DE4}">
-  <dimension ref="A1:Z148"/>
+  <dimension ref="A1:Z156"/>
   <sheetViews>
-    <sheetView topLeftCell="B127" workbookViewId="0">
-      <selection activeCell="K144" sqref="K144"/>
+    <sheetView topLeftCell="B135" workbookViewId="0">
+      <selection activeCell="J154" sqref="J154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11052,8 +11468,20 @@
         <v>15400</v>
       </c>
       <c r="M63" s="22"/>
-      <c r="P63" s="11"/>
-      <c r="Q63" s="11"/>
+      <c r="N63" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="O63" s="16">
+        <v>224</v>
+      </c>
+      <c r="P63" s="17">
+        <f t="shared" ref="P63:P64" si="42">POWER(10,O63)</f>
+        <v>9.9999999999999997E+223</v>
+      </c>
+      <c r="Q63" s="17" t="str">
+        <f t="shared" ref="Q63:Q64" si="43">RIGHT(P63,O63)</f>
+        <v>1E+224</v>
+      </c>
       <c r="R63" s="11"/>
       <c r="S63" s="11"/>
       <c r="T63" s="11"/>
@@ -11095,8 +11523,20 @@
         <v>15500</v>
       </c>
       <c r="M64" s="22"/>
-      <c r="P64" s="11"/>
-      <c r="Q64" s="11"/>
+      <c r="N64" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="O64" s="16">
+        <v>228</v>
+      </c>
+      <c r="P64" s="17">
+        <f t="shared" si="42"/>
+        <v>9.9999999999999992E+227</v>
+      </c>
+      <c r="Q64" s="17" t="str">
+        <f t="shared" si="43"/>
+        <v>1E+228</v>
+      </c>
       <c r="R64" s="11"/>
       <c r="S64" s="11"/>
       <c r="T64" s="11"/>
@@ -11262,7 +11702,7 @@
         <v>60</v>
       </c>
       <c r="F69" s="17" t="str">
-        <f t="shared" ref="F69:F104" si="42">H69&amp;I69</f>
+        <f t="shared" ref="F69:F104" si="44">H69&amp;I69</f>
         <v>1적</v>
       </c>
       <c r="G69" s="17">
@@ -11294,7 +11734,7 @@
         <v>61</v>
       </c>
       <c r="F70" s="17" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>10적</v>
       </c>
       <c r="G70" s="17">
@@ -11326,7 +11766,7 @@
         <v>62</v>
       </c>
       <c r="F71" s="17" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>100적</v>
       </c>
       <c r="G71" s="17">
@@ -11358,7 +11798,7 @@
         <v>63</v>
       </c>
       <c r="F72" s="17" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1000적</v>
       </c>
       <c r="G72" s="17">
@@ -11390,7 +11830,7 @@
         <v>64</v>
       </c>
       <c r="F73" s="17" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1고</v>
       </c>
       <c r="G73" s="17">
@@ -11406,7 +11846,7 @@
         <v>고</v>
       </c>
       <c r="J73" s="16" t="str">
-        <f t="shared" ref="J73:J104" si="43">VLOOKUP(I73,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J73:J104" si="45">VLOOKUP(I73,N:Q,4,FALSE)</f>
         <v>1E+140</v>
       </c>
       <c r="K73" s="22">
@@ -11422,11 +11862,11 @@
         <v>65</v>
       </c>
       <c r="F74" s="17" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>10고</v>
       </c>
       <c r="G74" s="17">
-        <f t="shared" ref="G74:G104" si="44">H74*J74</f>
+        <f t="shared" ref="G74:G104" si="46">H74*J74</f>
         <v>1E+141</v>
       </c>
       <c r="H74" s="17">
@@ -11438,7 +11878,7 @@
         <v>고</v>
       </c>
       <c r="J74" s="16" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1E+140</v>
       </c>
       <c r="K74" s="22">
@@ -11454,11 +11894,11 @@
         <v>66</v>
       </c>
       <c r="F75" s="17" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>100고</v>
       </c>
       <c r="G75" s="17">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1.0000000000000001E+142</v>
       </c>
       <c r="H75" s="17">
@@ -11470,7 +11910,7 @@
         <v>고</v>
       </c>
       <c r="J75" s="16" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1E+140</v>
       </c>
       <c r="K75" s="22">
@@ -11486,11 +11926,11 @@
         <v>67</v>
       </c>
       <c r="F76" s="17" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1000고</v>
       </c>
       <c r="G76" s="17">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1E+143</v>
       </c>
       <c r="H76" s="17">
@@ -11502,7 +11942,7 @@
         <v>고</v>
       </c>
       <c r="J76" s="16" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1E+140</v>
       </c>
       <c r="K76" s="22">
@@ -11518,11 +11958,11 @@
         <v>68</v>
       </c>
       <c r="F77" s="17" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1화</v>
       </c>
       <c r="G77" s="17">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1E+144</v>
       </c>
       <c r="H77" s="17">
@@ -11534,7 +11974,7 @@
         <v>화</v>
       </c>
       <c r="J77" s="16" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1E+144</v>
       </c>
       <c r="K77" s="22">
@@ -11550,15 +11990,15 @@
         <v>69</v>
       </c>
       <c r="F78" s="17" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>10화</v>
       </c>
       <c r="G78" s="17">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>9.9999999999999999E+144</v>
       </c>
       <c r="H78" s="17">
-        <f t="shared" ref="H78:H148" si="45">H74</f>
+        <f t="shared" ref="H78:H156" si="47">H74</f>
         <v>10</v>
       </c>
       <c r="I78" s="16" t="str" cm="1">
@@ -11566,7 +12006,7 @@
         <v>화</v>
       </c>
       <c r="J78" s="16" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1E+144</v>
       </c>
       <c r="K78" s="22">
@@ -11582,15 +12022,15 @@
         <v>70</v>
       </c>
       <c r="F79" s="17" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>100화</v>
       </c>
       <c r="G79" s="17">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>9.9999999999999993E+145</v>
       </c>
       <c r="H79" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>100</v>
       </c>
       <c r="I79" s="16" t="str" cm="1">
@@ -11598,7 +12038,7 @@
         <v>화</v>
       </c>
       <c r="J79" s="16" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1E+144</v>
       </c>
       <c r="K79" s="22">
@@ -11614,15 +12054,15 @@
         <v>71</v>
       </c>
       <c r="F80" s="17" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1000화</v>
       </c>
       <c r="G80" s="17">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>9.9999999999999998E+146</v>
       </c>
       <c r="H80" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1000</v>
       </c>
       <c r="I80" s="16" t="str" cm="1">
@@ -11630,7 +12070,7 @@
         <v>화</v>
       </c>
       <c r="J80" s="16" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1E+144</v>
       </c>
       <c r="K80" s="22">
@@ -11646,15 +12086,15 @@
         <v>72</v>
       </c>
       <c r="F81" s="17" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1명</v>
       </c>
       <c r="G81" s="17">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1E+148</v>
       </c>
       <c r="H81" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1</v>
       </c>
       <c r="I81" s="16" t="str" cm="1">
@@ -11662,7 +12102,7 @@
         <v>명</v>
       </c>
       <c r="J81" s="16" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1E+148</v>
       </c>
       <c r="K81" s="22">
@@ -11678,15 +12118,15 @@
         <v>73</v>
       </c>
       <c r="F82" s="17" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>10명</v>
       </c>
       <c r="G82" s="17">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1E+149</v>
       </c>
       <c r="H82" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>10</v>
       </c>
       <c r="I82" s="16" t="str" cm="1">
@@ -11694,7 +12134,7 @@
         <v>명</v>
       </c>
       <c r="J82" s="16" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1E+148</v>
       </c>
       <c r="K82" s="22">
@@ -11710,15 +12150,15 @@
         <v>74</v>
       </c>
       <c r="F83" s="17" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>100명</v>
       </c>
       <c r="G83" s="17">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>9.9999999999999998E+149</v>
       </c>
       <c r="H83" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>100</v>
       </c>
       <c r="I83" s="16" t="str" cm="1">
@@ -11726,7 +12166,7 @@
         <v>명</v>
       </c>
       <c r="J83" s="16" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1E+148</v>
       </c>
       <c r="K83" s="22">
@@ -11742,15 +12182,15 @@
         <v>75</v>
       </c>
       <c r="F84" s="17" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1000명</v>
       </c>
       <c r="G84" s="17">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1E+151</v>
       </c>
       <c r="H84" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1000</v>
       </c>
       <c r="I84" s="16" t="str" cm="1">
@@ -11758,7 +12198,7 @@
         <v>명</v>
       </c>
       <c r="J84" s="16" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1E+148</v>
       </c>
       <c r="K84" s="22">
@@ -11774,15 +12214,15 @@
         <v>76</v>
       </c>
       <c r="F85" s="17" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1월</v>
       </c>
       <c r="G85" s="17">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1E+152</v>
       </c>
       <c r="H85" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1</v>
       </c>
       <c r="I85" s="16" t="str" cm="1">
@@ -11790,7 +12230,7 @@
         <v>월</v>
       </c>
       <c r="J85" s="16" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1E+152</v>
       </c>
       <c r="K85" s="22">
@@ -11806,15 +12246,15 @@
         <v>77</v>
       </c>
       <c r="F86" s="17" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>10월</v>
       </c>
       <c r="G86" s="17">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1E+153</v>
       </c>
       <c r="H86" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>10</v>
       </c>
       <c r="I86" s="16" t="str" cm="1">
@@ -11822,7 +12262,7 @@
         <v>월</v>
       </c>
       <c r="J86" s="16" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1E+152</v>
       </c>
       <c r="K86" s="22">
@@ -11838,15 +12278,15 @@
         <v>78</v>
       </c>
       <c r="F87" s="17" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>100월</v>
       </c>
       <c r="G87" s="17">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1E+154</v>
       </c>
       <c r="H87" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>100</v>
       </c>
       <c r="I87" s="16" t="str" cm="1">
@@ -11854,7 +12294,7 @@
         <v>월</v>
       </c>
       <c r="J87" s="16" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1E+152</v>
       </c>
       <c r="K87" s="22">
@@ -11870,15 +12310,15 @@
         <v>79</v>
       </c>
       <c r="F88" s="17" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1000월</v>
       </c>
       <c r="G88" s="17">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1E+155</v>
       </c>
       <c r="H88" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1000</v>
       </c>
       <c r="I88" s="16" t="str" cm="1">
@@ -11886,7 +12326,7 @@
         <v>월</v>
       </c>
       <c r="J88" s="16" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1E+152</v>
       </c>
       <c r="K88" s="22">
@@ -11902,15 +12342,15 @@
         <v>80</v>
       </c>
       <c r="F89" s="17" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1후</v>
       </c>
       <c r="G89" s="17">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>9.9999999999999998E+155</v>
       </c>
       <c r="H89" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1</v>
       </c>
       <c r="I89" s="16" t="str" cm="1">
@@ -11918,7 +12358,7 @@
         <v>후</v>
       </c>
       <c r="J89" s="16" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1E+156</v>
       </c>
       <c r="K89" s="22">
@@ -11934,15 +12374,15 @@
         <v>81</v>
       </c>
       <c r="F90" s="17" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>10후</v>
       </c>
       <c r="G90" s="17">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>9.9999999999999998E+156</v>
       </c>
       <c r="H90" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>10</v>
       </c>
       <c r="I90" s="16" t="str" cm="1">
@@ -11950,7 +12390,7 @@
         <v>후</v>
       </c>
       <c r="J90" s="16" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1E+156</v>
       </c>
       <c r="K90" s="22">
@@ -11966,15 +12406,15 @@
         <v>82</v>
       </c>
       <c r="F91" s="17" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>100후</v>
       </c>
       <c r="G91" s="17">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>9.9999999999999995E+157</v>
       </c>
       <c r="H91" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>100</v>
       </c>
       <c r="I91" s="16" t="str" cm="1">
@@ -11982,7 +12422,7 @@
         <v>후</v>
       </c>
       <c r="J91" s="16" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1E+156</v>
       </c>
       <c r="K91" s="22">
@@ -11998,15 +12438,15 @@
         <v>83</v>
       </c>
       <c r="F92" s="17" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1000후</v>
       </c>
       <c r="G92" s="17">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>9.9999999999999993E+158</v>
       </c>
       <c r="H92" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1000</v>
       </c>
       <c r="I92" s="16" t="str" cm="1">
@@ -12014,7 +12454,7 @@
         <v>후</v>
       </c>
       <c r="J92" s="16" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1E+156</v>
       </c>
       <c r="K92" s="22">
@@ -12030,15 +12470,15 @@
         <v>84</v>
       </c>
       <c r="F93" s="17" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1단</v>
       </c>
       <c r="G93" s="17">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1E+160</v>
       </c>
       <c r="H93" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1</v>
       </c>
       <c r="I93" s="16" t="str" cm="1">
@@ -12046,7 +12486,7 @@
         <v>단</v>
       </c>
       <c r="J93" s="16" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1E+160</v>
       </c>
       <c r="K93" s="22">
@@ -12062,15 +12502,15 @@
         <v>85</v>
       </c>
       <c r="F94" s="17" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>10단</v>
       </c>
       <c r="G94" s="17">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1E+161</v>
       </c>
       <c r="H94" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>10</v>
       </c>
       <c r="I94" s="16" t="str" cm="1">
@@ -12078,7 +12518,7 @@
         <v>단</v>
       </c>
       <c r="J94" s="16" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1E+160</v>
       </c>
       <c r="K94" s="22">
@@ -12094,15 +12534,15 @@
         <v>86</v>
       </c>
       <c r="F95" s="17" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>100단</v>
       </c>
       <c r="G95" s="17">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>9.9999999999999994E+161</v>
       </c>
       <c r="H95" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>100</v>
       </c>
       <c r="I95" s="16" t="str" cm="1">
@@ -12110,7 +12550,7 @@
         <v>단</v>
       </c>
       <c r="J95" s="16" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1E+160</v>
       </c>
       <c r="K95" s="22">
@@ -12126,15 +12566,15 @@
         <v>87</v>
       </c>
       <c r="F96" s="17" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1000단</v>
       </c>
       <c r="G96" s="17">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>9.9999999999999994E+162</v>
       </c>
       <c r="H96" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1000</v>
       </c>
       <c r="I96" s="16" t="str" cm="1">
@@ -12142,7 +12582,7 @@
         <v>단</v>
       </c>
       <c r="J96" s="16" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1E+160</v>
       </c>
       <c r="K96" s="22">
@@ -12158,15 +12598,15 @@
         <v>88</v>
       </c>
       <c r="F97" s="17" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1절</v>
       </c>
       <c r="G97" s="17">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1E+164</v>
       </c>
       <c r="H97" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1</v>
       </c>
       <c r="I97" s="16" t="str" cm="1">
@@ -12174,7 +12614,7 @@
         <v>절</v>
       </c>
       <c r="J97" s="16" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1E+164</v>
       </c>
       <c r="K97" s="22">
@@ -12190,15 +12630,15 @@
         <v>89</v>
       </c>
       <c r="F98" s="17" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>10절</v>
       </c>
       <c r="G98" s="17">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1.0000000000000001E+165</v>
       </c>
       <c r="H98" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>10</v>
       </c>
       <c r="I98" s="16" t="str" cm="1">
@@ -12206,7 +12646,7 @@
         <v>절</v>
       </c>
       <c r="J98" s="16" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1E+164</v>
       </c>
       <c r="K98" s="22">
@@ -12222,15 +12662,15 @@
         <v>90</v>
       </c>
       <c r="F99" s="17" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>100절</v>
       </c>
       <c r="G99" s="17">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>9.9999999999999994E+165</v>
       </c>
       <c r="H99" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>100</v>
       </c>
       <c r="I99" s="16" t="str" cm="1">
@@ -12238,7 +12678,7 @@
         <v>절</v>
       </c>
       <c r="J99" s="16" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1E+164</v>
       </c>
       <c r="K99" s="22">
@@ -12254,15 +12694,15 @@
         <v>91</v>
       </c>
       <c r="F100" s="17" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1000절</v>
       </c>
       <c r="G100" s="17">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1E+167</v>
       </c>
       <c r="H100" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1000</v>
       </c>
       <c r="I100" s="16" t="str" cm="1">
@@ -12270,7 +12710,7 @@
         <v>절</v>
       </c>
       <c r="J100" s="16" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1E+164</v>
       </c>
       <c r="K100" s="22">
@@ -12286,15 +12726,15 @@
         <v>92</v>
       </c>
       <c r="F101" s="17" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1격</v>
       </c>
       <c r="G101" s="17">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>9.9999999999999993E+167</v>
       </c>
       <c r="H101" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1</v>
       </c>
       <c r="I101" s="16" t="str" cm="1">
@@ -12302,7 +12742,7 @@
         <v>격</v>
       </c>
       <c r="J101" s="16" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1E+168</v>
       </c>
       <c r="K101" s="22">
@@ -12319,15 +12759,15 @@
         <v>93</v>
       </c>
       <c r="F102" s="17" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>10격</v>
       </c>
       <c r="G102" s="17">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>9.9999999999999993E+168</v>
       </c>
       <c r="H102" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>10</v>
       </c>
       <c r="I102" s="16" t="str" cm="1">
@@ -12335,11 +12775,11 @@
         <v>격</v>
       </c>
       <c r="J102" s="16" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1E+168</v>
       </c>
       <c r="K102" s="22">
-        <f t="shared" ref="K102:K148" si="46">K98+1000</f>
+        <f t="shared" ref="K102:K156" si="48">K98+1000</f>
         <v>24000</v>
       </c>
       <c r="L102" s="22">
@@ -12352,15 +12792,15 @@
         <v>94</v>
       </c>
       <c r="F103" s="17" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>100격</v>
       </c>
       <c r="G103" s="17">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>9.999999999999999E+169</v>
       </c>
       <c r="H103" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>100</v>
       </c>
       <c r="I103" s="16" t="str" cm="1">
@@ -12368,11 +12808,11 @@
         <v>격</v>
       </c>
       <c r="J103" s="16" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1E+168</v>
       </c>
       <c r="K103" s="22">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>24000</v>
       </c>
       <c r="L103" s="22">
@@ -12385,15 +12825,15 @@
         <v>95</v>
       </c>
       <c r="F104" s="17" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1000격</v>
       </c>
       <c r="G104" s="17">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>9.9999999999999995E+170</v>
       </c>
       <c r="H104" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1000</v>
       </c>
       <c r="I104" s="16" t="str" cm="1">
@@ -12401,11 +12841,11 @@
         <v>격</v>
       </c>
       <c r="J104" s="16" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1E+168</v>
       </c>
       <c r="K104" s="22">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>24000</v>
       </c>
       <c r="L104" s="22">
@@ -12418,15 +12858,15 @@
         <v>96</v>
       </c>
       <c r="F105" s="17" t="str">
-        <f t="shared" ref="F105:F112" si="47">H105&amp;I105</f>
+        <f t="shared" ref="F105:F112" si="49">H105&amp;I105</f>
         <v>1창</v>
       </c>
       <c r="G105" s="17">
-        <f t="shared" ref="G105:G112" si="48">H105*J105</f>
+        <f t="shared" ref="G105:G112" si="50">H105*J105</f>
         <v>1.0000000000000001E+172</v>
       </c>
       <c r="H105" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1</v>
       </c>
       <c r="I105" s="16" t="str" cm="1">
@@ -12434,11 +12874,11 @@
         <v>창</v>
       </c>
       <c r="J105" s="16" t="str">
-        <f t="shared" ref="J105:J112" si="49">VLOOKUP(I105,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J105:J112" si="51">VLOOKUP(I105,N:Q,4,FALSE)</f>
         <v>1E+172</v>
       </c>
       <c r="K105" s="22">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>25000</v>
       </c>
       <c r="L105" s="22">
@@ -12450,15 +12890,15 @@
         <v>97</v>
       </c>
       <c r="F106" s="17" t="str">
+        <f t="shared" si="49"/>
+        <v>10창</v>
+      </c>
+      <c r="G106" s="17">
+        <f t="shared" si="50"/>
+        <v>1E+173</v>
+      </c>
+      <c r="H106" s="17">
         <f t="shared" si="47"/>
-        <v>10창</v>
-      </c>
-      <c r="G106" s="17">
-        <f t="shared" si="48"/>
-        <v>1E+173</v>
-      </c>
-      <c r="H106" s="17">
-        <f t="shared" si="45"/>
         <v>10</v>
       </c>
       <c r="I106" s="16" t="str" cm="1">
@@ -12466,11 +12906,11 @@
         <v>창</v>
       </c>
       <c r="J106" s="16" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1E+172</v>
       </c>
       <c r="K106" s="22">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>25000</v>
       </c>
       <c r="L106" s="22">
@@ -12482,15 +12922,15 @@
         <v>98</v>
       </c>
       <c r="F107" s="17" t="str">
+        <f t="shared" si="49"/>
+        <v>100창</v>
+      </c>
+      <c r="G107" s="17">
+        <f t="shared" si="50"/>
+        <v>1.0000000000000001E+174</v>
+      </c>
+      <c r="H107" s="17">
         <f t="shared" si="47"/>
-        <v>100창</v>
-      </c>
-      <c r="G107" s="17">
-        <f t="shared" si="48"/>
-        <v>1.0000000000000001E+174</v>
-      </c>
-      <c r="H107" s="17">
-        <f t="shared" si="45"/>
         <v>100</v>
       </c>
       <c r="I107" s="16" t="str" cm="1">
@@ -12498,11 +12938,11 @@
         <v>창</v>
       </c>
       <c r="J107" s="16" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1E+172</v>
       </c>
       <c r="K107" s="22">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>25000</v>
       </c>
       <c r="L107" s="22">
@@ -12514,15 +12954,15 @@
         <v>99</v>
       </c>
       <c r="F108" s="17" t="str">
+        <f t="shared" si="49"/>
+        <v>1000창</v>
+      </c>
+      <c r="G108" s="17">
+        <f t="shared" si="50"/>
+        <v>1.0000000000000001E+175</v>
+      </c>
+      <c r="H108" s="17">
         <f t="shared" si="47"/>
-        <v>1000창</v>
-      </c>
-      <c r="G108" s="17">
-        <f t="shared" si="48"/>
-        <v>1.0000000000000001E+175</v>
-      </c>
-      <c r="H108" s="17">
-        <f t="shared" si="45"/>
         <v>1000</v>
       </c>
       <c r="I108" s="16" t="str" cm="1">
@@ -12530,11 +12970,11 @@
         <v>창</v>
       </c>
       <c r="J108" s="16" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1E+172</v>
       </c>
       <c r="K108" s="22">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>25000</v>
       </c>
       <c r="L108" s="22">
@@ -12546,15 +12986,15 @@
         <v>100</v>
       </c>
       <c r="F109" s="17" t="str">
+        <f t="shared" si="49"/>
+        <v>1공</v>
+      </c>
+      <c r="G109" s="17">
+        <f t="shared" si="50"/>
+        <v>1E+176</v>
+      </c>
+      <c r="H109" s="17">
         <f t="shared" si="47"/>
-        <v>1공</v>
-      </c>
-      <c r="G109" s="17">
-        <f t="shared" si="48"/>
-        <v>1E+176</v>
-      </c>
-      <c r="H109" s="17">
-        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="I109" s="16" t="str" cm="1">
@@ -12562,11 +13002,11 @@
         <v>공</v>
       </c>
       <c r="J109" s="16" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1E+176</v>
       </c>
       <c r="K109" s="22">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>26000</v>
       </c>
       <c r="L109" s="22">
@@ -12578,15 +13018,15 @@
         <v>101</v>
       </c>
       <c r="F110" s="17" t="str">
+        <f t="shared" si="49"/>
+        <v>10공</v>
+      </c>
+      <c r="G110" s="17">
+        <f t="shared" si="50"/>
+        <v>1E+177</v>
+      </c>
+      <c r="H110" s="17">
         <f t="shared" si="47"/>
-        <v>10공</v>
-      </c>
-      <c r="G110" s="17">
-        <f t="shared" si="48"/>
-        <v>1E+177</v>
-      </c>
-      <c r="H110" s="17">
-        <f t="shared" si="45"/>
         <v>10</v>
       </c>
       <c r="I110" s="16" t="str" cm="1">
@@ -12594,11 +13034,11 @@
         <v>공</v>
       </c>
       <c r="J110" s="16" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1E+176</v>
       </c>
       <c r="K110" s="22">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>26000</v>
       </c>
       <c r="L110" s="22">
@@ -12610,15 +13050,15 @@
         <v>102</v>
       </c>
       <c r="F111" s="17" t="str">
+        <f t="shared" si="49"/>
+        <v>100공</v>
+      </c>
+      <c r="G111" s="17">
+        <f t="shared" si="50"/>
+        <v>1.0000000000000001E+178</v>
+      </c>
+      <c r="H111" s="17">
         <f t="shared" si="47"/>
-        <v>100공</v>
-      </c>
-      <c r="G111" s="17">
-        <f t="shared" si="48"/>
-        <v>1.0000000000000001E+178</v>
-      </c>
-      <c r="H111" s="17">
-        <f t="shared" si="45"/>
         <v>100</v>
       </c>
       <c r="I111" s="16" t="str" cm="1">
@@ -12626,11 +13066,11 @@
         <v>공</v>
       </c>
       <c r="J111" s="16" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1E+176</v>
       </c>
       <c r="K111" s="22">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>26000</v>
       </c>
       <c r="L111" s="22">
@@ -12642,15 +13082,15 @@
         <v>103</v>
       </c>
       <c r="F112" s="17" t="str">
+        <f t="shared" si="49"/>
+        <v>1000공</v>
+      </c>
+      <c r="G112" s="17">
+        <f t="shared" si="50"/>
+        <v>9.9999999999999998E+178</v>
+      </c>
+      <c r="H112" s="17">
         <f t="shared" si="47"/>
-        <v>1000공</v>
-      </c>
-      <c r="G112" s="17">
-        <f t="shared" si="48"/>
-        <v>9.9999999999999998E+178</v>
-      </c>
-      <c r="H112" s="17">
-        <f t="shared" si="45"/>
         <v>1000</v>
       </c>
       <c r="I112" s="16" t="str" cm="1">
@@ -12658,11 +13098,11 @@
         <v>공</v>
       </c>
       <c r="J112" s="16" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1E+176</v>
       </c>
       <c r="K112" s="22">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>26000</v>
       </c>
       <c r="L112" s="22">
@@ -12674,15 +13114,15 @@
         <v>104</v>
       </c>
       <c r="F113" s="17" t="str">
-        <f t="shared" ref="F113:F120" si="50">H113&amp;I113</f>
+        <f t="shared" ref="F113:F120" si="52">H113&amp;I113</f>
         <v>1채</v>
       </c>
       <c r="G113" s="17">
-        <f t="shared" ref="G113:G120" si="51">H113*J113</f>
+        <f t="shared" ref="G113:G120" si="53">H113*J113</f>
         <v>1E+180</v>
       </c>
       <c r="H113" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1</v>
       </c>
       <c r="I113" s="16" t="str" cm="1">
@@ -12690,11 +13130,11 @@
         <v>채</v>
       </c>
       <c r="J113" s="16" t="str">
-        <f t="shared" ref="J113:J120" si="52">VLOOKUP(I113,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J113:J120" si="54">VLOOKUP(I113,N:Q,4,FALSE)</f>
         <v>1E+180</v>
       </c>
       <c r="K113" s="22">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>27000</v>
       </c>
       <c r="L113" s="22">
@@ -12706,15 +13146,15 @@
         <v>105</v>
       </c>
       <c r="F114" s="17" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>10채</v>
       </c>
       <c r="G114" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>9.9999999999999992E+180</v>
       </c>
       <c r="H114" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>10</v>
       </c>
       <c r="I114" s="16" t="str" cm="1">
@@ -12722,11 +13162,11 @@
         <v>채</v>
       </c>
       <c r="J114" s="16" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>1E+180</v>
       </c>
       <c r="K114" s="22">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>27000</v>
       </c>
       <c r="L114" s="22">
@@ -12738,15 +13178,15 @@
         <v>106</v>
       </c>
       <c r="F115" s="17" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>100채</v>
       </c>
       <c r="G115" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1.0000000000000001E+182</v>
       </c>
       <c r="H115" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>100</v>
       </c>
       <c r="I115" s="16" t="str" cm="1">
@@ -12754,11 +13194,11 @@
         <v>채</v>
       </c>
       <c r="J115" s="16" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>1E+180</v>
       </c>
       <c r="K115" s="22">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>27000</v>
       </c>
       <c r="L115" s="22">
@@ -12770,15 +13210,15 @@
         <v>107</v>
       </c>
       <c r="F116" s="17" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1000채</v>
       </c>
       <c r="G116" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1.0000000000000001E+183</v>
       </c>
       <c r="H116" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1000</v>
       </c>
       <c r="I116" s="16" t="str" cm="1">
@@ -12786,11 +13226,11 @@
         <v>채</v>
       </c>
       <c r="J116" s="16" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>1E+180</v>
       </c>
       <c r="K116" s="22">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>27000</v>
       </c>
       <c r="L116" s="22">
@@ -12802,15 +13242,15 @@
         <v>108</v>
       </c>
       <c r="F117" s="17" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1피</v>
       </c>
       <c r="G117" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1E+184</v>
       </c>
       <c r="H117" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1</v>
       </c>
       <c r="I117" s="16" t="str" cm="1">
@@ -12818,11 +13258,11 @@
         <v>피</v>
       </c>
       <c r="J117" s="16" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>1E+184</v>
       </c>
       <c r="K117" s="22">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>28000</v>
       </c>
       <c r="L117" s="22">
@@ -12834,15 +13274,15 @@
         <v>109</v>
       </c>
       <c r="F118" s="17" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>10피</v>
       </c>
       <c r="G118" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>9.9999999999999998E+184</v>
       </c>
       <c r="H118" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>10</v>
       </c>
       <c r="I118" s="16" t="str" cm="1">
@@ -12850,11 +13290,11 @@
         <v>피</v>
       </c>
       <c r="J118" s="16" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>1E+184</v>
       </c>
       <c r="K118" s="22">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>28000</v>
       </c>
       <c r="L118" s="22">
@@ -12866,15 +13306,15 @@
         <v>110</v>
       </c>
       <c r="F119" s="17" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>100피</v>
       </c>
       <c r="G119" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>9.9999999999999998E+185</v>
       </c>
       <c r="H119" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>100</v>
       </c>
       <c r="I119" s="16" t="str" cm="1">
@@ -12882,11 +13322,11 @@
         <v>피</v>
       </c>
       <c r="J119" s="16" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>1E+184</v>
       </c>
       <c r="K119" s="22">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>28000</v>
       </c>
       <c r="L119" s="22">
@@ -12898,15 +13338,15 @@
         <v>111</v>
       </c>
       <c r="F120" s="17" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1000피</v>
       </c>
       <c r="G120" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1.0000000000000001E+187</v>
       </c>
       <c r="H120" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1000</v>
       </c>
       <c r="I120" s="16" t="str" cm="1">
@@ -12914,11 +13354,11 @@
         <v>피</v>
       </c>
       <c r="J120" s="16" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>1E+184</v>
       </c>
       <c r="K120" s="22">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>28000</v>
       </c>
       <c r="L120" s="22">
@@ -12930,15 +13370,15 @@
         <v>112</v>
       </c>
       <c r="F121" s="17" t="str">
-        <f t="shared" ref="F121:F124" si="53">H121&amp;I121</f>
+        <f t="shared" ref="F121:F124" si="55">H121&amp;I121</f>
         <v>1동</v>
       </c>
       <c r="G121" s="17">
-        <f t="shared" ref="G121:G124" si="54">H121*J121</f>
+        <f t="shared" ref="G121:G124" si="56">H121*J121</f>
         <v>1E+188</v>
       </c>
       <c r="H121" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1</v>
       </c>
       <c r="I121" s="16" t="str" cm="1">
@@ -12946,11 +13386,11 @@
         <v>동</v>
       </c>
       <c r="J121" s="16" t="str">
-        <f t="shared" ref="J121:J124" si="55">VLOOKUP(I121,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J121:J124" si="57">VLOOKUP(I121,N:Q,4,FALSE)</f>
         <v>1E+188</v>
       </c>
       <c r="K121" s="22">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>29000</v>
       </c>
       <c r="L121" s="22">
@@ -12962,15 +13402,15 @@
         <v>113</v>
       </c>
       <c r="F122" s="17" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>10동</v>
       </c>
       <c r="G122" s="17">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>1E+189</v>
       </c>
       <c r="H122" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>10</v>
       </c>
       <c r="I122" s="16" t="str" cm="1">
@@ -12978,11 +13418,11 @@
         <v>동</v>
       </c>
       <c r="J122" s="16" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>1E+188</v>
       </c>
       <c r="K122" s="22">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>29000</v>
       </c>
       <c r="L122" s="22">
@@ -12994,15 +13434,15 @@
         <v>114</v>
       </c>
       <c r="F123" s="17" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>100동</v>
       </c>
       <c r="G123" s="17">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>1.0000000000000001E+190</v>
       </c>
       <c r="H123" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>100</v>
       </c>
       <c r="I123" s="16" t="str" cm="1">
@@ -13010,11 +13450,11 @@
         <v>동</v>
       </c>
       <c r="J123" s="16" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>1E+188</v>
       </c>
       <c r="K123" s="22">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>29000</v>
       </c>
       <c r="L123" s="22">
@@ -13026,15 +13466,15 @@
         <v>115</v>
       </c>
       <c r="F124" s="17" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1000동</v>
       </c>
       <c r="G124" s="17">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>1.0000000000000001E+191</v>
       </c>
       <c r="H124" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1000</v>
       </c>
       <c r="I124" s="16" t="str" cm="1">
@@ -13042,11 +13482,11 @@
         <v>동</v>
       </c>
       <c r="J124" s="16" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>1E+188</v>
       </c>
       <c r="K124" s="22">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>29000</v>
       </c>
       <c r="L124" s="22">
@@ -13058,15 +13498,15 @@
         <v>116</v>
       </c>
       <c r="F125" s="17" t="str">
-        <f t="shared" ref="F125:F128" si="56">H125&amp;I125</f>
+        <f t="shared" ref="F125:F128" si="58">H125&amp;I125</f>
         <v>1멸</v>
       </c>
       <c r="G125" s="17">
-        <f t="shared" ref="G125:G128" si="57">H125*J125</f>
+        <f t="shared" ref="G125:G128" si="59">H125*J125</f>
         <v>1E+192</v>
       </c>
       <c r="H125" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1</v>
       </c>
       <c r="I125" s="16" t="str" cm="1">
@@ -13074,11 +13514,11 @@
         <v>멸</v>
       </c>
       <c r="J125" s="16" t="str">
-        <f t="shared" ref="J125:J128" si="58">VLOOKUP(I125,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J125:J128" si="60">VLOOKUP(I125,N:Q,4,FALSE)</f>
         <v>1E+192</v>
       </c>
       <c r="K125" s="22">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>30000</v>
       </c>
       <c r="L125" s="22">
@@ -13090,15 +13530,15 @@
         <v>117</v>
       </c>
       <c r="F126" s="17" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>10멸</v>
       </c>
       <c r="G126" s="17">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>1.0000000000000001E+193</v>
       </c>
       <c r="H126" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>10</v>
       </c>
       <c r="I126" s="16" t="str" cm="1">
@@ -13106,11 +13546,11 @@
         <v>멸</v>
       </c>
       <c r="J126" s="16" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>1E+192</v>
       </c>
       <c r="K126" s="22">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>30000</v>
       </c>
       <c r="L126" s="22">
@@ -13122,15 +13562,15 @@
         <v>118</v>
       </c>
       <c r="F127" s="17" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>100멸</v>
       </c>
       <c r="G127" s="17">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>1.0000000000000001E+194</v>
       </c>
       <c r="H127" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>100</v>
       </c>
       <c r="I127" s="16" t="str" cm="1">
@@ -13138,11 +13578,11 @@
         <v>멸</v>
       </c>
       <c r="J127" s="16" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>1E+192</v>
       </c>
       <c r="K127" s="22">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>30000</v>
       </c>
       <c r="L127" s="22">
@@ -13154,15 +13594,15 @@
         <v>119</v>
       </c>
       <c r="F128" s="17" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>1000멸</v>
       </c>
       <c r="G128" s="17">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>9.9999999999999998E+194</v>
       </c>
       <c r="H128" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1000</v>
       </c>
       <c r="I128" s="16" t="str" cm="1">
@@ -13170,11 +13610,11 @@
         <v>멸</v>
       </c>
       <c r="J128" s="16" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>1E+192</v>
       </c>
       <c r="K128" s="22">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>30000</v>
       </c>
       <c r="L128" s="22">
@@ -13186,15 +13626,15 @@
         <v>120</v>
       </c>
       <c r="F129" s="17" t="str">
-        <f t="shared" ref="F129:F136" si="59">H129&amp;I129</f>
+        <f t="shared" ref="F129:F136" si="61">H129&amp;I129</f>
         <v>1향</v>
       </c>
       <c r="G129" s="17">
-        <f t="shared" ref="G129:G136" si="60">H129*J129</f>
+        <f t="shared" ref="G129:G136" si="62">H129*J129</f>
         <v>9.9999999999999995E+195</v>
       </c>
       <c r="H129" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1</v>
       </c>
       <c r="I129" s="16" t="str" cm="1">
@@ -13202,11 +13642,11 @@
         <v>향</v>
       </c>
       <c r="J129" s="16" t="str">
-        <f t="shared" ref="J129:J136" si="61">VLOOKUP(I129,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J129:J136" si="63">VLOOKUP(I129,N:Q,4,FALSE)</f>
         <v>1E+196</v>
       </c>
       <c r="K129" s="22">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>31000</v>
       </c>
       <c r="L129" s="22">
@@ -13218,15 +13658,15 @@
         <v>121</v>
       </c>
       <c r="F130" s="17" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>10향</v>
       </c>
       <c r="G130" s="17">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>9.9999999999999995E+196</v>
       </c>
       <c r="H130" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>10</v>
       </c>
       <c r="I130" s="16" t="str" cm="1">
@@ -13234,11 +13674,11 @@
         <v>향</v>
       </c>
       <c r="J130" s="16" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>1E+196</v>
       </c>
       <c r="K130" s="22">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>31000</v>
       </c>
       <c r="L130" s="22">
@@ -13250,15 +13690,15 @@
         <v>122</v>
       </c>
       <c r="F131" s="17" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>100향</v>
       </c>
       <c r="G131" s="17">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>9.9999999999999988E+197</v>
       </c>
       <c r="H131" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>100</v>
       </c>
       <c r="I131" s="16" t="str" cm="1">
@@ -13266,11 +13706,11 @@
         <v>향</v>
       </c>
       <c r="J131" s="16" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>1E+196</v>
       </c>
       <c r="K131" s="22">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>31000</v>
       </c>
       <c r="L131" s="22">
@@ -13282,15 +13722,15 @@
         <v>123</v>
       </c>
       <c r="F132" s="17" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>1000향</v>
       </c>
       <c r="G132" s="17">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>9.9999999999999988E+198</v>
       </c>
       <c r="H132" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1000</v>
       </c>
       <c r="I132" s="16" t="str" cm="1">
@@ -13298,11 +13738,11 @@
         <v>향</v>
       </c>
       <c r="J132" s="16" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>1E+196</v>
       </c>
       <c r="K132" s="22">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>31000</v>
       </c>
       <c r="L132" s="22">
@@ -13314,15 +13754,15 @@
         <v>124</v>
       </c>
       <c r="F133" s="17" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>1증</v>
       </c>
       <c r="G133" s="17">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>9.9999999999999997E+199</v>
       </c>
       <c r="H133" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1</v>
       </c>
       <c r="I133" s="16" t="str" cm="1">
@@ -13330,11 +13770,11 @@
         <v>증</v>
       </c>
       <c r="J133" s="16" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>1E+200</v>
       </c>
       <c r="K133" s="22">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>32000</v>
       </c>
       <c r="L133" s="22">
@@ -13346,15 +13786,15 @@
         <v>125</v>
       </c>
       <c r="F134" s="17" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>10증</v>
       </c>
       <c r="G134" s="17">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>9.999999999999999E+200</v>
       </c>
       <c r="H134" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>10</v>
       </c>
       <c r="I134" s="16" t="str" cm="1">
@@ -13362,11 +13802,11 @@
         <v>증</v>
       </c>
       <c r="J134" s="16" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>1E+200</v>
       </c>
       <c r="K134" s="22">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>32000</v>
       </c>
       <c r="L134" s="22">
@@ -13378,15 +13818,15 @@
         <v>126</v>
       </c>
       <c r="F135" s="17" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>100증</v>
       </c>
       <c r="G135" s="17">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>9.999999999999999E+201</v>
       </c>
       <c r="H135" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>100</v>
       </c>
       <c r="I135" s="16" t="str" cm="1">
@@ -13394,11 +13834,11 @@
         <v>증</v>
       </c>
       <c r="J135" s="16" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>1E+200</v>
       </c>
       <c r="K135" s="22">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>32000</v>
       </c>
       <c r="L135" s="22">
@@ -13410,15 +13850,15 @@
         <v>127</v>
       </c>
       <c r="F136" s="17" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>1000증</v>
       </c>
       <c r="G136" s="17">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>9.9999999999999999E+202</v>
       </c>
       <c r="H136" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1000</v>
       </c>
       <c r="I136" s="16" t="str" cm="1">
@@ -13426,11 +13866,11 @@
         <v>증</v>
       </c>
       <c r="J136" s="16" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>1E+200</v>
       </c>
       <c r="K136" s="22">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>32000</v>
       </c>
       <c r="L136" s="22">
@@ -13442,15 +13882,15 @@
         <v>128</v>
       </c>
       <c r="F137" s="17" t="str">
-        <f t="shared" ref="F137:F140" si="62">H137&amp;I137</f>
+        <f t="shared" ref="F137:F140" si="64">H137&amp;I137</f>
         <v>1쾌</v>
       </c>
       <c r="G137" s="17">
-        <f t="shared" ref="G137:G140" si="63">H137*J137</f>
+        <f t="shared" ref="G137:G140" si="65">H137*J137</f>
         <v>9.9999999999999999E+203</v>
       </c>
       <c r="H137" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1</v>
       </c>
       <c r="I137" s="16" t="str" cm="1">
@@ -13458,11 +13898,11 @@
         <v>쾌</v>
       </c>
       <c r="J137" s="16" t="str">
-        <f t="shared" ref="J137:J140" si="64">VLOOKUP(I137,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J137:J140" si="66">VLOOKUP(I137,N:Q,4,FALSE)</f>
         <v>1E+204</v>
       </c>
       <c r="K137" s="22">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>33000</v>
       </c>
       <c r="L137" s="22">
@@ -13474,15 +13914,15 @@
         <v>129</v>
       </c>
       <c r="F138" s="17" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>10쾌</v>
       </c>
       <c r="G138" s="17">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>1E+205</v>
       </c>
       <c r="H138" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>10</v>
       </c>
       <c r="I138" s="16" t="str" cm="1">
@@ -13490,11 +13930,11 @@
         <v>쾌</v>
       </c>
       <c r="J138" s="16" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>1E+204</v>
       </c>
       <c r="K138" s="22">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>33000</v>
       </c>
       <c r="L138" s="22">
@@ -13506,15 +13946,15 @@
         <v>130</v>
       </c>
       <c r="F139" s="17" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>100쾌</v>
       </c>
       <c r="G139" s="17">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>1E+206</v>
       </c>
       <c r="H139" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>100</v>
       </c>
       <c r="I139" s="16" t="str" cm="1">
@@ -13522,11 +13962,11 @@
         <v>쾌</v>
       </c>
       <c r="J139" s="16" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>1E+204</v>
       </c>
       <c r="K139" s="22">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>33000</v>
       </c>
       <c r="L139" s="22">
@@ -13538,15 +13978,15 @@
         <v>131</v>
       </c>
       <c r="F140" s="17" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>1000쾌</v>
       </c>
       <c r="G140" s="17">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>1E+207</v>
       </c>
       <c r="H140" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1000</v>
       </c>
       <c r="I140" s="16" t="str" cm="1">
@@ -13554,11 +13994,11 @@
         <v>쾌</v>
       </c>
       <c r="J140" s="16" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>1E+204</v>
       </c>
       <c r="K140" s="22">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>33000</v>
       </c>
       <c r="L140" s="22">
@@ -13570,15 +14010,15 @@
         <v>132</v>
       </c>
       <c r="F141" s="17" t="str">
-        <f t="shared" ref="F141:F144" si="65">H141&amp;I141</f>
+        <f t="shared" ref="F141:F144" si="67">H141&amp;I141</f>
         <v>1우</v>
       </c>
       <c r="G141" s="17">
-        <f t="shared" ref="G141:G144" si="66">H141*J141</f>
+        <f t="shared" ref="G141:G144" si="68">H141*J141</f>
         <v>9.9999999999999998E+207</v>
       </c>
       <c r="H141" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1</v>
       </c>
       <c r="I141" s="16" t="str" cm="1">
@@ -13586,11 +14026,11 @@
         <v>우</v>
       </c>
       <c r="J141" s="16" t="str">
-        <f t="shared" ref="J141:J144" si="67">VLOOKUP(I141,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J141:J144" si="69">VLOOKUP(I141,N:Q,4,FALSE)</f>
         <v>1E+208</v>
       </c>
       <c r="K141" s="22">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>34000</v>
       </c>
       <c r="L141" s="22">
@@ -13602,15 +14042,15 @@
         <v>133</v>
       </c>
       <c r="F142" s="17" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>10우</v>
       </c>
       <c r="G142" s="17">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>1.0000000000000001E+209</v>
       </c>
       <c r="H142" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>10</v>
       </c>
       <c r="I142" s="16" t="str" cm="1">
@@ -13618,11 +14058,11 @@
         <v>우</v>
       </c>
       <c r="J142" s="16" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>1E+208</v>
       </c>
       <c r="K142" s="22">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>34000</v>
       </c>
       <c r="L142" s="22">
@@ -13634,15 +14074,15 @@
         <v>134</v>
       </c>
       <c r="F143" s="17" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>100우</v>
       </c>
       <c r="G143" s="17">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>9.9999999999999993E+209</v>
       </c>
       <c r="H143" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>100</v>
       </c>
       <c r="I143" s="16" t="str" cm="1">
@@ -13650,11 +14090,11 @@
         <v>우</v>
       </c>
       <c r="J143" s="16" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>1E+208</v>
       </c>
       <c r="K143" s="22">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>34000</v>
       </c>
       <c r="L143" s="22">
@@ -13666,15 +14106,15 @@
         <v>135</v>
       </c>
       <c r="F144" s="17" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>1000우</v>
       </c>
       <c r="G144" s="17">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>9.9999999999999996E+210</v>
       </c>
       <c r="H144" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1000</v>
       </c>
       <c r="I144" s="16" t="str" cm="1">
@@ -13682,11 +14122,11 @@
         <v>우</v>
       </c>
       <c r="J144" s="16" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>1E+208</v>
       </c>
       <c r="K144" s="22">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>34000</v>
       </c>
       <c r="L144" s="22">
@@ -13698,15 +14138,15 @@
         <v>136</v>
       </c>
       <c r="F145" s="17" t="str">
-        <f t="shared" ref="F145:F148" si="68">H145&amp;I145</f>
+        <f t="shared" ref="F145:F151" si="70">H145&amp;I145</f>
         <v>1팽</v>
       </c>
       <c r="G145" s="17">
-        <f t="shared" ref="G145:G148" si="69">H145*J145</f>
+        <f t="shared" ref="G145:G151" si="71">H145*J145</f>
         <v>9.9999999999999991E+211</v>
       </c>
       <c r="H145" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1</v>
       </c>
       <c r="I145" s="16" t="str" cm="1">
@@ -13714,11 +14154,11 @@
         <v>팽</v>
       </c>
       <c r="J145" s="16" t="str">
-        <f t="shared" ref="J145:J148" si="70">VLOOKUP(I145,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J145:J151" si="72">VLOOKUP(I145,N:Q,4,FALSE)</f>
         <v>1E+212</v>
       </c>
       <c r="K145" s="22">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>35000</v>
       </c>
       <c r="L145" s="22">
@@ -13730,15 +14170,15 @@
         <v>137</v>
       </c>
       <c r="F146" s="17" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>10팽</v>
       </c>
       <c r="G146" s="17">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>9.9999999999999983E+212</v>
       </c>
       <c r="H146" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>10</v>
       </c>
       <c r="I146" s="16" t="str" cm="1">
@@ -13746,11 +14186,11 @@
         <v>팽</v>
       </c>
       <c r="J146" s="16" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>1E+212</v>
       </c>
       <c r="K146" s="22">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>35000</v>
       </c>
       <c r="L146" s="22">
@@ -13762,15 +14202,15 @@
         <v>138</v>
       </c>
       <c r="F147" s="17" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>100팽</v>
       </c>
       <c r="G147" s="17">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>9.9999999999999995E+213</v>
       </c>
       <c r="H147" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>100</v>
       </c>
       <c r="I147" s="16" t="str" cm="1">
@@ -13778,11 +14218,11 @@
         <v>팽</v>
       </c>
       <c r="J147" s="16" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>1E+212</v>
       </c>
       <c r="K147" s="22">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>35000</v>
       </c>
       <c r="L147" s="22">
@@ -13794,15 +14234,15 @@
         <v>139</v>
       </c>
       <c r="F148" s="17" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>1000팽</v>
       </c>
       <c r="G148" s="17">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>9.9999999999999991E+214</v>
       </c>
       <c r="H148" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1000</v>
       </c>
       <c r="I148" s="16" t="str" cm="1">
@@ -13810,15 +14250,271 @@
         <v>팽</v>
       </c>
       <c r="J148" s="16" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>1E+212</v>
       </c>
       <c r="K148" s="22">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>35000</v>
       </c>
       <c r="L148" s="22">
         <v>27800</v>
+      </c>
+    </row>
+    <row r="149" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E149" s="16">
+        <v>140</v>
+      </c>
+      <c r="F149" s="17" t="str">
+        <f t="shared" si="70"/>
+        <v>1관</v>
+      </c>
+      <c r="G149" s="17">
+        <f t="shared" si="71"/>
+        <v>1E+216</v>
+      </c>
+      <c r="H149" s="17">
+        <f t="shared" si="47"/>
+        <v>1</v>
+      </c>
+      <c r="I149" s="16" t="str" cm="1">
+        <f t="array" ref="I149">IF(AND(H148&gt;=1000,H149&lt;2),INDEX(N:N,MATCH(I148,N:N,0)+1,0),I148)</f>
+        <v>관</v>
+      </c>
+      <c r="J149" s="16" t="str">
+        <f t="shared" si="72"/>
+        <v>1E+216</v>
+      </c>
+      <c r="K149" s="22">
+        <f t="shared" si="48"/>
+        <v>36000</v>
+      </c>
+      <c r="L149" s="22">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="150" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E150" s="16">
+        <v>141</v>
+      </c>
+      <c r="F150" s="17" t="str">
+        <f t="shared" si="70"/>
+        <v>10관</v>
+      </c>
+      <c r="G150" s="17">
+        <f t="shared" si="71"/>
+        <v>1.0000000000000001E+217</v>
+      </c>
+      <c r="H150" s="17">
+        <f t="shared" si="47"/>
+        <v>10</v>
+      </c>
+      <c r="I150" s="16" t="str" cm="1">
+        <f t="array" ref="I150">IF(AND(H149&gt;=1000,H150&lt;2),INDEX(N:N,MATCH(I149,N:N,0)+1,0),I149)</f>
+        <v>관</v>
+      </c>
+      <c r="J150" s="16" t="str">
+        <f t="shared" si="72"/>
+        <v>1E+216</v>
+      </c>
+      <c r="K150" s="22">
+        <f t="shared" si="48"/>
+        <v>36000</v>
+      </c>
+      <c r="L150" s="22">
+        <v>28200</v>
+      </c>
+    </row>
+    <row r="151" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E151" s="16">
+        <v>142</v>
+      </c>
+      <c r="F151" s="17" t="str">
+        <f t="shared" si="70"/>
+        <v>100관</v>
+      </c>
+      <c r="G151" s="17">
+        <f t="shared" si="71"/>
+        <v>1.0000000000000001E+218</v>
+      </c>
+      <c r="H151" s="17">
+        <f t="shared" si="47"/>
+        <v>100</v>
+      </c>
+      <c r="I151" s="16" t="str" cm="1">
+        <f t="array" ref="I151">IF(AND(H150&gt;=1000,H151&lt;2),INDEX(N:N,MATCH(I150,N:N,0)+1,0),I150)</f>
+        <v>관</v>
+      </c>
+      <c r="J151" s="16" t="str">
+        <f t="shared" si="72"/>
+        <v>1E+216</v>
+      </c>
+      <c r="K151" s="22">
+        <f t="shared" si="48"/>
+        <v>36000</v>
+      </c>
+      <c r="L151" s="22">
+        <v>28400</v>
+      </c>
+    </row>
+    <row r="152" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E152" s="16">
+        <v>143</v>
+      </c>
+      <c r="F152" s="17" t="str">
+        <f t="shared" ref="F152:F156" si="73">H152&amp;I152</f>
+        <v>1000관</v>
+      </c>
+      <c r="G152" s="17">
+        <f t="shared" ref="G152:G156" si="74">H152*J152</f>
+        <v>9.9999999999999997E+218</v>
+      </c>
+      <c r="H152" s="17">
+        <f t="shared" si="47"/>
+        <v>1000</v>
+      </c>
+      <c r="I152" s="16" t="str" cm="1">
+        <f t="array" ref="I152">IF(AND(H151&gt;=1000,H152&lt;2),INDEX(N:N,MATCH(I151,N:N,0)+1,0),I151)</f>
+        <v>관</v>
+      </c>
+      <c r="J152" s="16" t="str">
+        <f t="shared" ref="J152:J156" si="75">VLOOKUP(I152,N:Q,4,FALSE)</f>
+        <v>1E+216</v>
+      </c>
+      <c r="K152" s="22">
+        <f t="shared" si="48"/>
+        <v>36000</v>
+      </c>
+      <c r="L152" s="22">
+        <v>28600</v>
+      </c>
+    </row>
+    <row r="153" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E153" s="16">
+        <v>144</v>
+      </c>
+      <c r="F153" s="17" t="str">
+        <f t="shared" si="73"/>
+        <v>1한</v>
+      </c>
+      <c r="G153" s="17">
+        <f t="shared" si="74"/>
+        <v>1E+220</v>
+      </c>
+      <c r="H153" s="17">
+        <f t="shared" si="47"/>
+        <v>1</v>
+      </c>
+      <c r="I153" s="16" t="str" cm="1">
+        <f t="array" ref="I153">IF(AND(H152&gt;=1000,H153&lt;2),INDEX(N:N,MATCH(I152,N:N,0)+1,0),I152)</f>
+        <v>한</v>
+      </c>
+      <c r="J153" s="16" t="str">
+        <f t="shared" si="75"/>
+        <v>1E+220</v>
+      </c>
+      <c r="K153" s="22">
+        <f t="shared" si="48"/>
+        <v>37000</v>
+      </c>
+      <c r="L153" s="22">
+        <v>28800</v>
+      </c>
+    </row>
+    <row r="154" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E154" s="16">
+        <v>145</v>
+      </c>
+      <c r="F154" s="17" t="str">
+        <f t="shared" si="73"/>
+        <v>10한</v>
+      </c>
+      <c r="G154" s="17">
+        <f t="shared" si="74"/>
+        <v>1E+221</v>
+      </c>
+      <c r="H154" s="17">
+        <f t="shared" si="47"/>
+        <v>10</v>
+      </c>
+      <c r="I154" s="16" t="str" cm="1">
+        <f t="array" ref="I154">IF(AND(H153&gt;=1000,H154&lt;2),INDEX(N:N,MATCH(I153,N:N,0)+1,0),I153)</f>
+        <v>한</v>
+      </c>
+      <c r="J154" s="16" t="str">
+        <f t="shared" si="75"/>
+        <v>1E+220</v>
+      </c>
+      <c r="K154" s="22">
+        <f t="shared" si="48"/>
+        <v>37000</v>
+      </c>
+      <c r="L154" s="22">
+        <v>29000</v>
+      </c>
+    </row>
+    <row r="155" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E155" s="16">
+        <v>146</v>
+      </c>
+      <c r="F155" s="17" t="str">
+        <f t="shared" si="73"/>
+        <v>100한</v>
+      </c>
+      <c r="G155" s="17">
+        <f t="shared" si="74"/>
+        <v>1E+222</v>
+      </c>
+      <c r="H155" s="17">
+        <f t="shared" si="47"/>
+        <v>100</v>
+      </c>
+      <c r="I155" s="16" t="str" cm="1">
+        <f t="array" ref="I155">IF(AND(H154&gt;=1000,H155&lt;2),INDEX(N:N,MATCH(I154,N:N,0)+1,0),I154)</f>
+        <v>한</v>
+      </c>
+      <c r="J155" s="16" t="str">
+        <f t="shared" si="75"/>
+        <v>1E+220</v>
+      </c>
+      <c r="K155" s="22">
+        <f t="shared" si="48"/>
+        <v>37000</v>
+      </c>
+      <c r="L155" s="22">
+        <v>29200</v>
+      </c>
+    </row>
+    <row r="156" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E156" s="16">
+        <v>147</v>
+      </c>
+      <c r="F156" s="17" t="str">
+        <f t="shared" si="73"/>
+        <v>1000한</v>
+      </c>
+      <c r="G156" s="17">
+        <f t="shared" si="74"/>
+        <v>1E+223</v>
+      </c>
+      <c r="H156" s="17">
+        <f t="shared" si="47"/>
+        <v>1000</v>
+      </c>
+      <c r="I156" s="16" t="str" cm="1">
+        <f t="array" ref="I156">IF(AND(H155&gt;=1000,H156&lt;2),INDEX(N:N,MATCH(I155,N:N,0)+1,0),I155)</f>
+        <v>한</v>
+      </c>
+      <c r="J156" s="16" t="str">
+        <f t="shared" si="75"/>
+        <v>1E+220</v>
+      </c>
+      <c r="K156" s="22">
+        <f t="shared" si="48"/>
+        <v>37000</v>
+      </c>
+      <c r="L156" s="22">
+        <v>29400</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/ByeolhoTower.xlsx
+++ b/Assets/06.Table/ByeolhoTower.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C65425-4C65-482F-A44E-D36DB609EF75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02327566-C6BC-445C-B767-6A38E5D9BF41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="89">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1002,11 +1002,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M149"/>
+  <dimension ref="A1:M153"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G138" sqref="G138"/>
+      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F150" sqref="F150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6893,11 +6893,11 @@
         <v>30000</v>
       </c>
       <c r="E118">
-        <f t="shared" ref="E118:E149" si="84">E117</f>
+        <f t="shared" ref="E118:E153" si="84">E117</f>
         <v>1</v>
       </c>
       <c r="F118" s="2">
-        <f t="shared" ref="F118:F149" si="85">F117*10</f>
+        <f t="shared" ref="F118:F153" si="85">F117*10</f>
         <v>9.9999999999999991E+191</v>
       </c>
       <c r="G118">
@@ -6916,7 +6916,7 @@
         <v>57</v>
       </c>
       <c r="K118">
-        <f t="shared" ref="K118:K149" si="87">K117+200</f>
+        <f t="shared" ref="K118:K153" si="87">K117+200</f>
         <v>25200</v>
       </c>
       <c r="L118">
@@ -8156,11 +8156,11 @@
         <v>141</v>
       </c>
       <c r="B143" s="1" t="str">
-        <f t="shared" ref="B143:B150" si="126">B142</f>
+        <f t="shared" ref="B143" si="126">B142</f>
         <v>1-1</v>
       </c>
       <c r="C143">
-        <f t="shared" ref="C143:C150" si="127">C142</f>
+        <f t="shared" ref="C143" si="127">C142</f>
         <v>9054</v>
       </c>
       <c r="D143">
@@ -8176,15 +8176,15 @@
         <v>1.0000000000000001E+217</v>
       </c>
       <c r="G143">
-        <f t="shared" ref="G143:G150" si="128">G142</f>
+        <f t="shared" ref="G143" si="128">G142</f>
         <v>1000</v>
       </c>
       <c r="H143">
-        <f t="shared" ref="H143:H150" si="129">H142</f>
+        <f t="shared" ref="H143" si="129">H142</f>
         <v>8</v>
       </c>
       <c r="I143">
-        <f t="shared" ref="I143:I150" si="130">I142</f>
+        <f t="shared" ref="I143" si="130">I142</f>
         <v>0</v>
       </c>
       <c r="J143" t="s">
@@ -8360,11 +8360,11 @@
         <v>145</v>
       </c>
       <c r="B147" s="1" t="str">
-        <f t="shared" ref="B147:B150" si="137">B146</f>
+        <f t="shared" ref="B147" si="137">B146</f>
         <v>1-1</v>
       </c>
       <c r="C147">
-        <f t="shared" ref="C147:C150" si="138">C146</f>
+        <f t="shared" ref="C147" si="138">C146</f>
         <v>9054</v>
       </c>
       <c r="D147">
@@ -8380,15 +8380,15 @@
         <v>1E+221</v>
       </c>
       <c r="G147">
-        <f t="shared" ref="G147:G150" si="139">G146</f>
+        <f t="shared" ref="G147" si="139">G146</f>
         <v>1000</v>
       </c>
       <c r="H147">
-        <f t="shared" ref="H147:H150" si="140">H146</f>
+        <f t="shared" ref="H147" si="140">H146</f>
         <v>8</v>
       </c>
       <c r="I147">
-        <f t="shared" ref="I147:I150" si="141">I146</f>
+        <f t="shared" ref="I147" si="141">I146</f>
         <v>0</v>
       </c>
       <c r="J147" t="s">
@@ -8508,9 +8508,213 @@
         <v>14700</v>
       </c>
     </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>148</v>
+      </c>
+      <c r="B150" s="1" t="str">
+        <f t="shared" ref="B150:C151" si="146">B149</f>
+        <v>1-1</v>
+      </c>
+      <c r="C150">
+        <f t="shared" si="146"/>
+        <v>9054</v>
+      </c>
+      <c r="D150">
+        <f>VLOOKUP(A150,Balance!E:K,7,FALSE)</f>
+        <v>38000</v>
+      </c>
+      <c r="E150">
+        <f t="shared" si="84"/>
+        <v>1</v>
+      </c>
+      <c r="F150" s="2">
+        <f t="shared" si="85"/>
+        <v>9.9999999999999997E+223</v>
+      </c>
+      <c r="G150">
+        <f t="shared" ref="G150:I151" si="147">G149</f>
+        <v>1000</v>
+      </c>
+      <c r="H150">
+        <f t="shared" si="147"/>
+        <v>8</v>
+      </c>
+      <c r="I150">
+        <f t="shared" si="147"/>
+        <v>0</v>
+      </c>
+      <c r="J150" t="s">
+        <v>57</v>
+      </c>
+      <c r="K150">
+        <f t="shared" si="87"/>
+        <v>31600</v>
+      </c>
+      <c r="L150">
+        <v>9054</v>
+      </c>
+      <c r="M150">
+        <f>VLOOKUP(A150,Balance!E:L,8,FALSE)/2</f>
+        <v>14800</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>149</v>
+      </c>
+      <c r="B151" s="1" t="str">
+        <f t="shared" si="146"/>
+        <v>1-1</v>
+      </c>
+      <c r="C151">
+        <f t="shared" si="146"/>
+        <v>9054</v>
+      </c>
+      <c r="D151">
+        <f>VLOOKUP(A151,Balance!E:K,7,FALSE)</f>
+        <v>38000</v>
+      </c>
+      <c r="E151">
+        <f t="shared" si="84"/>
+        <v>1</v>
+      </c>
+      <c r="F151" s="2">
+        <f t="shared" si="85"/>
+        <v>9.9999999999999993E+224</v>
+      </c>
+      <c r="G151">
+        <f t="shared" si="147"/>
+        <v>1000</v>
+      </c>
+      <c r="H151">
+        <f t="shared" si="147"/>
+        <v>8</v>
+      </c>
+      <c r="I151">
+        <f t="shared" si="147"/>
+        <v>0</v>
+      </c>
+      <c r="J151" t="s">
+        <v>57</v>
+      </c>
+      <c r="K151">
+        <f t="shared" si="87"/>
+        <v>31800</v>
+      </c>
+      <c r="L151">
+        <v>9054</v>
+      </c>
+      <c r="M151">
+        <f>VLOOKUP(A151,Balance!E:L,8,FALSE)/2</f>
+        <v>14900</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>150</v>
+      </c>
+      <c r="B152" s="1" t="str">
+        <f t="shared" ref="B152:C152" si="148">B151</f>
+        <v>1-1</v>
+      </c>
+      <c r="C152">
+        <f t="shared" si="148"/>
+        <v>9054</v>
+      </c>
+      <c r="D152">
+        <f>VLOOKUP(A152,Balance!E:K,7,FALSE)</f>
+        <v>38000</v>
+      </c>
+      <c r="E152">
+        <f t="shared" si="84"/>
+        <v>1</v>
+      </c>
+      <c r="F152" s="2">
+        <f t="shared" si="85"/>
+        <v>9.9999999999999996E+225</v>
+      </c>
+      <c r="G152">
+        <f t="shared" ref="G152:I152" si="149">G151</f>
+        <v>1000</v>
+      </c>
+      <c r="H152">
+        <f t="shared" si="149"/>
+        <v>8</v>
+      </c>
+      <c r="I152">
+        <f t="shared" si="149"/>
+        <v>0</v>
+      </c>
+      <c r="J152" t="s">
+        <v>57</v>
+      </c>
+      <c r="K152">
+        <f t="shared" si="87"/>
+        <v>32000</v>
+      </c>
+      <c r="L152">
+        <v>9054</v>
+      </c>
+      <c r="M152">
+        <f>VLOOKUP(A152,Balance!E:L,8,FALSE)/2</f>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>151</v>
+      </c>
+      <c r="B153" s="1" t="str">
+        <f t="shared" ref="B153:C153" si="150">B152</f>
+        <v>1-1</v>
+      </c>
+      <c r="C153">
+        <f t="shared" si="150"/>
+        <v>9054</v>
+      </c>
+      <c r="D153">
+        <f>VLOOKUP(A153,Balance!E:K,7,FALSE)</f>
+        <v>38000</v>
+      </c>
+      <c r="E153">
+        <f t="shared" si="84"/>
+        <v>1</v>
+      </c>
+      <c r="F153" s="2">
+        <f t="shared" si="85"/>
+        <v>9.9999999999999988E+226</v>
+      </c>
+      <c r="G153">
+        <f t="shared" ref="G153:I153" si="151">G152</f>
+        <v>1000</v>
+      </c>
+      <c r="H153">
+        <f t="shared" si="151"/>
+        <v>8</v>
+      </c>
+      <c r="I153">
+        <f t="shared" si="151"/>
+        <v>0</v>
+      </c>
+      <c r="J153" t="s">
+        <v>57</v>
+      </c>
+      <c r="K153">
+        <f t="shared" si="87"/>
+        <v>32200</v>
+      </c>
+      <c r="L153">
+        <v>9054</v>
+      </c>
+      <c r="M153">
+        <f>VLOOKUP(A153,Balance!E:L,8,FALSE)/2</f>
+        <v>15100</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:K149">
+  <conditionalFormatting sqref="A2:K153">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
@@ -8522,10 +8726,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4C63F0-02E4-48AB-8F58-B57B021B5DE4}">
-  <dimension ref="A1:Z156"/>
+  <dimension ref="A1:Z160"/>
   <sheetViews>
-    <sheetView topLeftCell="B135" workbookViewId="0">
-      <selection activeCell="J154" sqref="J154"/>
+    <sheetView topLeftCell="B136" workbookViewId="0">
+      <selection activeCell="H157" sqref="H157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11998,7 +12202,7 @@
         <v>9.9999999999999999E+144</v>
       </c>
       <c r="H78" s="17">
-        <f t="shared" ref="H78:H156" si="47">H74</f>
+        <f t="shared" ref="H78:H160" si="47">H74</f>
         <v>10</v>
       </c>
       <c r="I78" s="16" t="str" cm="1">
@@ -12779,7 +12983,7 @@
         <v>1E+168</v>
       </c>
       <c r="K102" s="22">
-        <f t="shared" ref="K102:K156" si="48">K98+1000</f>
+        <f t="shared" ref="K102:K160" si="48">K98+1000</f>
         <v>24000</v>
       </c>
       <c r="L102" s="22">
@@ -14515,6 +14719,134 @@
       </c>
       <c r="L156" s="22">
         <v>29400</v>
+      </c>
+    </row>
+    <row r="157" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E157" s="16">
+        <v>148</v>
+      </c>
+      <c r="F157" s="17" t="str">
+        <f t="shared" ref="F157:F160" si="76">H157&amp;I157</f>
+        <v>1혈</v>
+      </c>
+      <c r="G157" s="17">
+        <f t="shared" ref="G157:G160" si="77">H157*J157</f>
+        <v>9.9999999999999997E+223</v>
+      </c>
+      <c r="H157" s="17">
+        <f t="shared" si="47"/>
+        <v>1</v>
+      </c>
+      <c r="I157" s="16" t="str" cm="1">
+        <f t="array" ref="I157">IF(AND(H156&gt;=1000,H157&lt;2),INDEX(N:N,MATCH(I156,N:N,0)+1,0),I156)</f>
+        <v>혈</v>
+      </c>
+      <c r="J157" s="16" t="str">
+        <f t="shared" ref="J157:J160" si="78">VLOOKUP(I157,N:Q,4,FALSE)</f>
+        <v>1E+224</v>
+      </c>
+      <c r="K157" s="22">
+        <f t="shared" si="48"/>
+        <v>38000</v>
+      </c>
+      <c r="L157" s="22">
+        <v>29600</v>
+      </c>
+    </row>
+    <row r="158" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E158" s="16">
+        <v>149</v>
+      </c>
+      <c r="F158" s="17" t="str">
+        <f t="shared" si="76"/>
+        <v>10혈</v>
+      </c>
+      <c r="G158" s="17">
+        <f t="shared" si="77"/>
+        <v>9.9999999999999993E+224</v>
+      </c>
+      <c r="H158" s="17">
+        <f t="shared" si="47"/>
+        <v>10</v>
+      </c>
+      <c r="I158" s="16" t="str" cm="1">
+        <f t="array" ref="I158">IF(AND(H157&gt;=1000,H158&lt;2),INDEX(N:N,MATCH(I157,N:N,0)+1,0),I157)</f>
+        <v>혈</v>
+      </c>
+      <c r="J158" s="16" t="str">
+        <f t="shared" si="78"/>
+        <v>1E+224</v>
+      </c>
+      <c r="K158" s="22">
+        <f t="shared" si="48"/>
+        <v>38000</v>
+      </c>
+      <c r="L158" s="22">
+        <v>29800</v>
+      </c>
+    </row>
+    <row r="159" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E159" s="16">
+        <v>150</v>
+      </c>
+      <c r="F159" s="17" t="str">
+        <f t="shared" si="76"/>
+        <v>100혈</v>
+      </c>
+      <c r="G159" s="17">
+        <f t="shared" si="77"/>
+        <v>9.9999999999999996E+225</v>
+      </c>
+      <c r="H159" s="17">
+        <f t="shared" si="47"/>
+        <v>100</v>
+      </c>
+      <c r="I159" s="16" t="str" cm="1">
+        <f t="array" ref="I159">IF(AND(H158&gt;=1000,H159&lt;2),INDEX(N:N,MATCH(I158,N:N,0)+1,0),I158)</f>
+        <v>혈</v>
+      </c>
+      <c r="J159" s="16" t="str">
+        <f t="shared" si="78"/>
+        <v>1E+224</v>
+      </c>
+      <c r="K159" s="22">
+        <f t="shared" si="48"/>
+        <v>38000</v>
+      </c>
+      <c r="L159" s="22">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="160" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E160" s="16">
+        <v>151</v>
+      </c>
+      <c r="F160" s="17" t="str">
+        <f t="shared" si="76"/>
+        <v>1000혈</v>
+      </c>
+      <c r="G160" s="17">
+        <f t="shared" si="77"/>
+        <v>9.9999999999999988E+226</v>
+      </c>
+      <c r="H160" s="17">
+        <f t="shared" si="47"/>
+        <v>1000</v>
+      </c>
+      <c r="I160" s="16" t="str" cm="1">
+        <f t="array" ref="I160">IF(AND(H159&gt;=1000,H160&lt;2),INDEX(N:N,MATCH(I159,N:N,0)+1,0),I159)</f>
+        <v>혈</v>
+      </c>
+      <c r="J160" s="16" t="str">
+        <f t="shared" si="78"/>
+        <v>1E+224</v>
+      </c>
+      <c r="K160" s="22">
+        <f t="shared" si="48"/>
+        <v>38000</v>
+      </c>
+      <c r="L160" s="22">
+        <v>30200</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/ByeolhoTower.xlsx
+++ b/Assets/06.Table/ByeolhoTower.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02327566-C6BC-445C-B767-6A38E5D9BF41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D69F522D-B673-4EA3-B4BE-C1020C568A88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="91">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -410,6 +410,14 @@
   </si>
   <si>
     <t>연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>난</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>군</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1002,11 +1010,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M153"/>
+  <dimension ref="A1:M157"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F150" sqref="F150"/>
+      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A155" sqref="A155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6893,11 +6901,11 @@
         <v>30000</v>
       </c>
       <c r="E118">
-        <f t="shared" ref="E118:E153" si="84">E117</f>
+        <f t="shared" ref="E118:E157" si="84">E117</f>
         <v>1</v>
       </c>
       <c r="F118" s="2">
-        <f t="shared" ref="F118:F153" si="85">F117*10</f>
+        <f t="shared" ref="F118:F157" si="85">F117*10</f>
         <v>9.9999999999999991E+191</v>
       </c>
       <c r="G118">
@@ -6916,7 +6924,7 @@
         <v>57</v>
       </c>
       <c r="K118">
-        <f t="shared" ref="K118:K153" si="87">K117+200</f>
+        <f t="shared" ref="K118:K157" si="87">K117+200</f>
         <v>25200</v>
       </c>
       <c r="L118">
@@ -8712,9 +8720,213 @@
         <v>15100</v>
       </c>
     </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>152</v>
+      </c>
+      <c r="B154" s="1" t="str">
+        <f t="shared" ref="B154:C154" si="152">B153</f>
+        <v>1-1</v>
+      </c>
+      <c r="C154">
+        <f t="shared" si="152"/>
+        <v>9054</v>
+      </c>
+      <c r="D154">
+        <f>VLOOKUP(A154,Balance!E:K,7,FALSE)</f>
+        <v>39000</v>
+      </c>
+      <c r="E154">
+        <f t="shared" si="84"/>
+        <v>1</v>
+      </c>
+      <c r="F154" s="2">
+        <f t="shared" si="85"/>
+        <v>9.9999999999999992E+227</v>
+      </c>
+      <c r="G154">
+        <f t="shared" ref="G154:I154" si="153">G153</f>
+        <v>1000</v>
+      </c>
+      <c r="H154">
+        <f t="shared" si="153"/>
+        <v>8</v>
+      </c>
+      <c r="I154">
+        <f t="shared" si="153"/>
+        <v>0</v>
+      </c>
+      <c r="J154" t="s">
+        <v>57</v>
+      </c>
+      <c r="K154">
+        <f t="shared" si="87"/>
+        <v>32400</v>
+      </c>
+      <c r="L154">
+        <v>9054</v>
+      </c>
+      <c r="M154">
+        <f>VLOOKUP(A154,Balance!E:L,8,FALSE)/2</f>
+        <v>15200</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>153</v>
+      </c>
+      <c r="B155" s="1" t="str">
+        <f t="shared" ref="B155:C155" si="154">B154</f>
+        <v>1-1</v>
+      </c>
+      <c r="C155">
+        <f t="shared" si="154"/>
+        <v>9054</v>
+      </c>
+      <c r="D155">
+        <f>VLOOKUP(A155,Balance!E:K,7,FALSE)</f>
+        <v>39000</v>
+      </c>
+      <c r="E155">
+        <f t="shared" si="84"/>
+        <v>1</v>
+      </c>
+      <c r="F155" s="2">
+        <f t="shared" si="85"/>
+        <v>9.9999999999999999E+228</v>
+      </c>
+      <c r="G155">
+        <f t="shared" ref="G155:I155" si="155">G154</f>
+        <v>1000</v>
+      </c>
+      <c r="H155">
+        <f t="shared" si="155"/>
+        <v>8</v>
+      </c>
+      <c r="I155">
+        <f t="shared" si="155"/>
+        <v>0</v>
+      </c>
+      <c r="J155" t="s">
+        <v>57</v>
+      </c>
+      <c r="K155">
+        <f t="shared" si="87"/>
+        <v>32600</v>
+      </c>
+      <c r="L155">
+        <v>9054</v>
+      </c>
+      <c r="M155">
+        <f>VLOOKUP(A155,Balance!E:L,8,FALSE)/2</f>
+        <v>15300</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>154</v>
+      </c>
+      <c r="B156" s="1" t="str">
+        <f t="shared" ref="B156:C156" si="156">B155</f>
+        <v>1-1</v>
+      </c>
+      <c r="C156">
+        <f t="shared" si="156"/>
+        <v>9054</v>
+      </c>
+      <c r="D156">
+        <f>VLOOKUP(A156,Balance!E:K,7,FALSE)</f>
+        <v>39000</v>
+      </c>
+      <c r="E156">
+        <f t="shared" si="84"/>
+        <v>1</v>
+      </c>
+      <c r="F156" s="2">
+        <f t="shared" si="85"/>
+        <v>9.9999999999999988E+229</v>
+      </c>
+      <c r="G156">
+        <f t="shared" ref="G156:I156" si="157">G155</f>
+        <v>1000</v>
+      </c>
+      <c r="H156">
+        <f t="shared" si="157"/>
+        <v>8</v>
+      </c>
+      <c r="I156">
+        <f t="shared" si="157"/>
+        <v>0</v>
+      </c>
+      <c r="J156" t="s">
+        <v>57</v>
+      </c>
+      <c r="K156">
+        <f t="shared" si="87"/>
+        <v>32800</v>
+      </c>
+      <c r="L156">
+        <v>9054</v>
+      </c>
+      <c r="M156">
+        <f>VLOOKUP(A156,Balance!E:L,8,FALSE)/2</f>
+        <v>15400</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>155</v>
+      </c>
+      <c r="B157" s="1" t="str">
+        <f t="shared" ref="B157:C157" si="158">B156</f>
+        <v>1-1</v>
+      </c>
+      <c r="C157">
+        <f t="shared" si="158"/>
+        <v>9054</v>
+      </c>
+      <c r="D157">
+        <f>VLOOKUP(A157,Balance!E:K,7,FALSE)</f>
+        <v>39000</v>
+      </c>
+      <c r="E157">
+        <f t="shared" si="84"/>
+        <v>1</v>
+      </c>
+      <c r="F157" s="2">
+        <f t="shared" si="85"/>
+        <v>9.9999999999999988E+230</v>
+      </c>
+      <c r="G157">
+        <f t="shared" ref="G157:I157" si="159">G156</f>
+        <v>1000</v>
+      </c>
+      <c r="H157">
+        <f t="shared" si="159"/>
+        <v>8</v>
+      </c>
+      <c r="I157">
+        <f t="shared" si="159"/>
+        <v>0</v>
+      </c>
+      <c r="J157" t="s">
+        <v>57</v>
+      </c>
+      <c r="K157">
+        <f t="shared" si="87"/>
+        <v>33000</v>
+      </c>
+      <c r="L157">
+        <v>9054</v>
+      </c>
+      <c r="M157">
+        <f>VLOOKUP(A157,Balance!E:L,8,FALSE)/2</f>
+        <v>15500</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:K153">
+  <conditionalFormatting sqref="A2:K157">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
@@ -8726,10 +8938,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4C63F0-02E4-48AB-8F58-B57B021B5DE4}">
-  <dimension ref="A1:Z160"/>
+  <dimension ref="A1:Z164"/>
   <sheetViews>
-    <sheetView topLeftCell="B136" workbookViewId="0">
-      <selection activeCell="H157" sqref="H157"/>
+    <sheetView topLeftCell="B144" workbookViewId="0">
+      <selection activeCell="I161" sqref="I161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11782,8 +11994,20 @@
         <v>15600</v>
       </c>
       <c r="M65" s="22"/>
-      <c r="P65" s="11"/>
-      <c r="Q65" s="11"/>
+      <c r="N65" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="O65" s="16">
+        <v>232</v>
+      </c>
+      <c r="P65" s="17">
+        <f t="shared" ref="P65:P66" si="44">POWER(10,O65)</f>
+        <v>1.0000000000000001E+232</v>
+      </c>
+      <c r="Q65" s="17" t="str">
+        <f t="shared" ref="Q65:Q66" si="45">RIGHT(P65,O65)</f>
+        <v>1E+232</v>
+      </c>
       <c r="R65" s="11"/>
       <c r="S65" s="11"/>
       <c r="T65" s="11"/>
@@ -11825,8 +12049,20 @@
         <v>15700</v>
       </c>
       <c r="M66" s="22"/>
-      <c r="P66" s="11"/>
-      <c r="Q66" s="11"/>
+      <c r="N66" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="O66" s="16">
+        <v>236</v>
+      </c>
+      <c r="P66" s="17">
+        <f t="shared" si="44"/>
+        <v>1.0000000000000001E+236</v>
+      </c>
+      <c r="Q66" s="17" t="str">
+        <f t="shared" si="45"/>
+        <v>1E+236</v>
+      </c>
       <c r="R66" s="11"/>
       <c r="S66" s="11"/>
       <c r="T66" s="11"/>
@@ -11906,7 +12142,7 @@
         <v>60</v>
       </c>
       <c r="F69" s="17" t="str">
-        <f t="shared" ref="F69:F104" si="44">H69&amp;I69</f>
+        <f t="shared" ref="F69:F104" si="46">H69&amp;I69</f>
         <v>1적</v>
       </c>
       <c r="G69" s="17">
@@ -11938,7 +12174,7 @@
         <v>61</v>
       </c>
       <c r="F70" s="17" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>10적</v>
       </c>
       <c r="G70" s="17">
@@ -11970,7 +12206,7 @@
         <v>62</v>
       </c>
       <c r="F71" s="17" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>100적</v>
       </c>
       <c r="G71" s="17">
@@ -12002,7 +12238,7 @@
         <v>63</v>
       </c>
       <c r="F72" s="17" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1000적</v>
       </c>
       <c r="G72" s="17">
@@ -12034,7 +12270,7 @@
         <v>64</v>
       </c>
       <c r="F73" s="17" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1고</v>
       </c>
       <c r="G73" s="17">
@@ -12050,7 +12286,7 @@
         <v>고</v>
       </c>
       <c r="J73" s="16" t="str">
-        <f t="shared" ref="J73:J104" si="45">VLOOKUP(I73,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J73:J104" si="47">VLOOKUP(I73,N:Q,4,FALSE)</f>
         <v>1E+140</v>
       </c>
       <c r="K73" s="22">
@@ -12066,11 +12302,11 @@
         <v>65</v>
       </c>
       <c r="F74" s="17" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>10고</v>
       </c>
       <c r="G74" s="17">
-        <f t="shared" ref="G74:G104" si="46">H74*J74</f>
+        <f t="shared" ref="G74:G104" si="48">H74*J74</f>
         <v>1E+141</v>
       </c>
       <c r="H74" s="17">
@@ -12082,7 +12318,7 @@
         <v>고</v>
       </c>
       <c r="J74" s="16" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1E+140</v>
       </c>
       <c r="K74" s="22">
@@ -12098,11 +12334,11 @@
         <v>66</v>
       </c>
       <c r="F75" s="17" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>100고</v>
       </c>
       <c r="G75" s="17">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1.0000000000000001E+142</v>
       </c>
       <c r="H75" s="17">
@@ -12114,7 +12350,7 @@
         <v>고</v>
       </c>
       <c r="J75" s="16" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1E+140</v>
       </c>
       <c r="K75" s="22">
@@ -12130,11 +12366,11 @@
         <v>67</v>
       </c>
       <c r="F76" s="17" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1000고</v>
       </c>
       <c r="G76" s="17">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1E+143</v>
       </c>
       <c r="H76" s="17">
@@ -12146,7 +12382,7 @@
         <v>고</v>
       </c>
       <c r="J76" s="16" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1E+140</v>
       </c>
       <c r="K76" s="22">
@@ -12162,11 +12398,11 @@
         <v>68</v>
       </c>
       <c r="F77" s="17" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1화</v>
       </c>
       <c r="G77" s="17">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1E+144</v>
       </c>
       <c r="H77" s="17">
@@ -12178,7 +12414,7 @@
         <v>화</v>
       </c>
       <c r="J77" s="16" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1E+144</v>
       </c>
       <c r="K77" s="22">
@@ -12194,15 +12430,15 @@
         <v>69</v>
       </c>
       <c r="F78" s="17" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>10화</v>
       </c>
       <c r="G78" s="17">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>9.9999999999999999E+144</v>
       </c>
       <c r="H78" s="17">
-        <f t="shared" ref="H78:H160" si="47">H74</f>
+        <f t="shared" ref="H78:H164" si="49">H74</f>
         <v>10</v>
       </c>
       <c r="I78" s="16" t="str" cm="1">
@@ -12210,7 +12446,7 @@
         <v>화</v>
       </c>
       <c r="J78" s="16" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1E+144</v>
       </c>
       <c r="K78" s="22">
@@ -12226,15 +12462,15 @@
         <v>70</v>
       </c>
       <c r="F79" s="17" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>100화</v>
       </c>
       <c r="G79" s="17">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>9.9999999999999993E+145</v>
       </c>
       <c r="H79" s="17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>100</v>
       </c>
       <c r="I79" s="16" t="str" cm="1">
@@ -12242,7 +12478,7 @@
         <v>화</v>
       </c>
       <c r="J79" s="16" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1E+144</v>
       </c>
       <c r="K79" s="22">
@@ -12258,15 +12494,15 @@
         <v>71</v>
       </c>
       <c r="F80" s="17" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1000화</v>
       </c>
       <c r="G80" s="17">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>9.9999999999999998E+146</v>
       </c>
       <c r="H80" s="17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1000</v>
       </c>
       <c r="I80" s="16" t="str" cm="1">
@@ -12274,7 +12510,7 @@
         <v>화</v>
       </c>
       <c r="J80" s="16" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1E+144</v>
       </c>
       <c r="K80" s="22">
@@ -12290,15 +12526,15 @@
         <v>72</v>
       </c>
       <c r="F81" s="17" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1명</v>
       </c>
       <c r="G81" s="17">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1E+148</v>
       </c>
       <c r="H81" s="17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="I81" s="16" t="str" cm="1">
@@ -12306,7 +12542,7 @@
         <v>명</v>
       </c>
       <c r="J81" s="16" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1E+148</v>
       </c>
       <c r="K81" s="22">
@@ -12322,15 +12558,15 @@
         <v>73</v>
       </c>
       <c r="F82" s="17" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>10명</v>
       </c>
       <c r="G82" s="17">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1E+149</v>
       </c>
       <c r="H82" s="17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>10</v>
       </c>
       <c r="I82" s="16" t="str" cm="1">
@@ -12338,7 +12574,7 @@
         <v>명</v>
       </c>
       <c r="J82" s="16" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1E+148</v>
       </c>
       <c r="K82" s="22">
@@ -12354,15 +12590,15 @@
         <v>74</v>
       </c>
       <c r="F83" s="17" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>100명</v>
       </c>
       <c r="G83" s="17">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>9.9999999999999998E+149</v>
       </c>
       <c r="H83" s="17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>100</v>
       </c>
       <c r="I83" s="16" t="str" cm="1">
@@ -12370,7 +12606,7 @@
         <v>명</v>
       </c>
       <c r="J83" s="16" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1E+148</v>
       </c>
       <c r="K83" s="22">
@@ -12386,15 +12622,15 @@
         <v>75</v>
       </c>
       <c r="F84" s="17" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1000명</v>
       </c>
       <c r="G84" s="17">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1E+151</v>
       </c>
       <c r="H84" s="17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1000</v>
       </c>
       <c r="I84" s="16" t="str" cm="1">
@@ -12402,7 +12638,7 @@
         <v>명</v>
       </c>
       <c r="J84" s="16" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1E+148</v>
       </c>
       <c r="K84" s="22">
@@ -12418,15 +12654,15 @@
         <v>76</v>
       </c>
       <c r="F85" s="17" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1월</v>
       </c>
       <c r="G85" s="17">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1E+152</v>
       </c>
       <c r="H85" s="17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="I85" s="16" t="str" cm="1">
@@ -12434,7 +12670,7 @@
         <v>월</v>
       </c>
       <c r="J85" s="16" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1E+152</v>
       </c>
       <c r="K85" s="22">
@@ -12450,15 +12686,15 @@
         <v>77</v>
       </c>
       <c r="F86" s="17" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>10월</v>
       </c>
       <c r="G86" s="17">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1E+153</v>
       </c>
       <c r="H86" s="17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>10</v>
       </c>
       <c r="I86" s="16" t="str" cm="1">
@@ -12466,7 +12702,7 @@
         <v>월</v>
       </c>
       <c r="J86" s="16" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1E+152</v>
       </c>
       <c r="K86" s="22">
@@ -12482,15 +12718,15 @@
         <v>78</v>
       </c>
       <c r="F87" s="17" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>100월</v>
       </c>
       <c r="G87" s="17">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1E+154</v>
       </c>
       <c r="H87" s="17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>100</v>
       </c>
       <c r="I87" s="16" t="str" cm="1">
@@ -12498,7 +12734,7 @@
         <v>월</v>
       </c>
       <c r="J87" s="16" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1E+152</v>
       </c>
       <c r="K87" s="22">
@@ -12514,15 +12750,15 @@
         <v>79</v>
       </c>
       <c r="F88" s="17" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1000월</v>
       </c>
       <c r="G88" s="17">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1E+155</v>
       </c>
       <c r="H88" s="17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1000</v>
       </c>
       <c r="I88" s="16" t="str" cm="1">
@@ -12530,7 +12766,7 @@
         <v>월</v>
       </c>
       <c r="J88" s="16" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1E+152</v>
       </c>
       <c r="K88" s="22">
@@ -12546,15 +12782,15 @@
         <v>80</v>
       </c>
       <c r="F89" s="17" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1후</v>
       </c>
       <c r="G89" s="17">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>9.9999999999999998E+155</v>
       </c>
       <c r="H89" s="17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="I89" s="16" t="str" cm="1">
@@ -12562,7 +12798,7 @@
         <v>후</v>
       </c>
       <c r="J89" s="16" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1E+156</v>
       </c>
       <c r="K89" s="22">
@@ -12578,15 +12814,15 @@
         <v>81</v>
       </c>
       <c r="F90" s="17" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>10후</v>
       </c>
       <c r="G90" s="17">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>9.9999999999999998E+156</v>
       </c>
       <c r="H90" s="17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>10</v>
       </c>
       <c r="I90" s="16" t="str" cm="1">
@@ -12594,7 +12830,7 @@
         <v>후</v>
       </c>
       <c r="J90" s="16" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1E+156</v>
       </c>
       <c r="K90" s="22">
@@ -12610,15 +12846,15 @@
         <v>82</v>
       </c>
       <c r="F91" s="17" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>100후</v>
       </c>
       <c r="G91" s="17">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>9.9999999999999995E+157</v>
       </c>
       <c r="H91" s="17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>100</v>
       </c>
       <c r="I91" s="16" t="str" cm="1">
@@ -12626,7 +12862,7 @@
         <v>후</v>
       </c>
       <c r="J91" s="16" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1E+156</v>
       </c>
       <c r="K91" s="22">
@@ -12642,15 +12878,15 @@
         <v>83</v>
       </c>
       <c r="F92" s="17" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1000후</v>
       </c>
       <c r="G92" s="17">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>9.9999999999999993E+158</v>
       </c>
       <c r="H92" s="17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1000</v>
       </c>
       <c r="I92" s="16" t="str" cm="1">
@@ -12658,7 +12894,7 @@
         <v>후</v>
       </c>
       <c r="J92" s="16" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1E+156</v>
       </c>
       <c r="K92" s="22">
@@ -12674,15 +12910,15 @@
         <v>84</v>
       </c>
       <c r="F93" s="17" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1단</v>
       </c>
       <c r="G93" s="17">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1E+160</v>
       </c>
       <c r="H93" s="17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="I93" s="16" t="str" cm="1">
@@ -12690,7 +12926,7 @@
         <v>단</v>
       </c>
       <c r="J93" s="16" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1E+160</v>
       </c>
       <c r="K93" s="22">
@@ -12706,15 +12942,15 @@
         <v>85</v>
       </c>
       <c r="F94" s="17" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>10단</v>
       </c>
       <c r="G94" s="17">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1E+161</v>
       </c>
       <c r="H94" s="17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>10</v>
       </c>
       <c r="I94" s="16" t="str" cm="1">
@@ -12722,7 +12958,7 @@
         <v>단</v>
       </c>
       <c r="J94" s="16" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1E+160</v>
       </c>
       <c r="K94" s="22">
@@ -12738,15 +12974,15 @@
         <v>86</v>
       </c>
       <c r="F95" s="17" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>100단</v>
       </c>
       <c r="G95" s="17">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>9.9999999999999994E+161</v>
       </c>
       <c r="H95" s="17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>100</v>
       </c>
       <c r="I95" s="16" t="str" cm="1">
@@ -12754,7 +12990,7 @@
         <v>단</v>
       </c>
       <c r="J95" s="16" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1E+160</v>
       </c>
       <c r="K95" s="22">
@@ -12770,15 +13006,15 @@
         <v>87</v>
       </c>
       <c r="F96" s="17" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1000단</v>
       </c>
       <c r="G96" s="17">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>9.9999999999999994E+162</v>
       </c>
       <c r="H96" s="17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1000</v>
       </c>
       <c r="I96" s="16" t="str" cm="1">
@@ -12786,7 +13022,7 @@
         <v>단</v>
       </c>
       <c r="J96" s="16" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1E+160</v>
       </c>
       <c r="K96" s="22">
@@ -12802,15 +13038,15 @@
         <v>88</v>
       </c>
       <c r="F97" s="17" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1절</v>
       </c>
       <c r="G97" s="17">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1E+164</v>
       </c>
       <c r="H97" s="17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="I97" s="16" t="str" cm="1">
@@ -12818,7 +13054,7 @@
         <v>절</v>
       </c>
       <c r="J97" s="16" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1E+164</v>
       </c>
       <c r="K97" s="22">
@@ -12834,15 +13070,15 @@
         <v>89</v>
       </c>
       <c r="F98" s="17" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>10절</v>
       </c>
       <c r="G98" s="17">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1.0000000000000001E+165</v>
       </c>
       <c r="H98" s="17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>10</v>
       </c>
       <c r="I98" s="16" t="str" cm="1">
@@ -12850,7 +13086,7 @@
         <v>절</v>
       </c>
       <c r="J98" s="16" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1E+164</v>
       </c>
       <c r="K98" s="22">
@@ -12866,15 +13102,15 @@
         <v>90</v>
       </c>
       <c r="F99" s="17" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>100절</v>
       </c>
       <c r="G99" s="17">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>9.9999999999999994E+165</v>
       </c>
       <c r="H99" s="17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>100</v>
       </c>
       <c r="I99" s="16" t="str" cm="1">
@@ -12882,7 +13118,7 @@
         <v>절</v>
       </c>
       <c r="J99" s="16" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1E+164</v>
       </c>
       <c r="K99" s="22">
@@ -12898,15 +13134,15 @@
         <v>91</v>
       </c>
       <c r="F100" s="17" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1000절</v>
       </c>
       <c r="G100" s="17">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1E+167</v>
       </c>
       <c r="H100" s="17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1000</v>
       </c>
       <c r="I100" s="16" t="str" cm="1">
@@ -12914,7 +13150,7 @@
         <v>절</v>
       </c>
       <c r="J100" s="16" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1E+164</v>
       </c>
       <c r="K100" s="22">
@@ -12930,15 +13166,15 @@
         <v>92</v>
       </c>
       <c r="F101" s="17" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1격</v>
       </c>
       <c r="G101" s="17">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>9.9999999999999993E+167</v>
       </c>
       <c r="H101" s="17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="I101" s="16" t="str" cm="1">
@@ -12946,7 +13182,7 @@
         <v>격</v>
       </c>
       <c r="J101" s="16" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1E+168</v>
       </c>
       <c r="K101" s="22">
@@ -12963,15 +13199,15 @@
         <v>93</v>
       </c>
       <c r="F102" s="17" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>10격</v>
       </c>
       <c r="G102" s="17">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>9.9999999999999993E+168</v>
       </c>
       <c r="H102" s="17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>10</v>
       </c>
       <c r="I102" s="16" t="str" cm="1">
@@ -12979,11 +13215,11 @@
         <v>격</v>
       </c>
       <c r="J102" s="16" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1E+168</v>
       </c>
       <c r="K102" s="22">
-        <f t="shared" ref="K102:K160" si="48">K98+1000</f>
+        <f t="shared" ref="K102:K164" si="50">K98+1000</f>
         <v>24000</v>
       </c>
       <c r="L102" s="22">
@@ -12996,15 +13232,15 @@
         <v>94</v>
       </c>
       <c r="F103" s="17" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>100격</v>
       </c>
       <c r="G103" s="17">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>9.999999999999999E+169</v>
       </c>
       <c r="H103" s="17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>100</v>
       </c>
       <c r="I103" s="16" t="str" cm="1">
@@ -13012,11 +13248,11 @@
         <v>격</v>
       </c>
       <c r="J103" s="16" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1E+168</v>
       </c>
       <c r="K103" s="22">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>24000</v>
       </c>
       <c r="L103" s="22">
@@ -13029,15 +13265,15 @@
         <v>95</v>
       </c>
       <c r="F104" s="17" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>1000격</v>
       </c>
       <c r="G104" s="17">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>9.9999999999999995E+170</v>
       </c>
       <c r="H104" s="17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1000</v>
       </c>
       <c r="I104" s="16" t="str" cm="1">
@@ -13045,11 +13281,11 @@
         <v>격</v>
       </c>
       <c r="J104" s="16" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1E+168</v>
       </c>
       <c r="K104" s="22">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>24000</v>
       </c>
       <c r="L104" s="22">
@@ -13062,15 +13298,15 @@
         <v>96</v>
       </c>
       <c r="F105" s="17" t="str">
-        <f t="shared" ref="F105:F112" si="49">H105&amp;I105</f>
+        <f t="shared" ref="F105:F112" si="51">H105&amp;I105</f>
         <v>1창</v>
       </c>
       <c r="G105" s="17">
-        <f t="shared" ref="G105:G112" si="50">H105*J105</f>
+        <f t="shared" ref="G105:G112" si="52">H105*J105</f>
         <v>1.0000000000000001E+172</v>
       </c>
       <c r="H105" s="17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="I105" s="16" t="str" cm="1">
@@ -13078,11 +13314,11 @@
         <v>창</v>
       </c>
       <c r="J105" s="16" t="str">
-        <f t="shared" ref="J105:J112" si="51">VLOOKUP(I105,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J105:J112" si="53">VLOOKUP(I105,N:Q,4,FALSE)</f>
         <v>1E+172</v>
       </c>
       <c r="K105" s="22">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>25000</v>
       </c>
       <c r="L105" s="22">
@@ -13094,15 +13330,15 @@
         <v>97</v>
       </c>
       <c r="F106" s="17" t="str">
+        <f t="shared" si="51"/>
+        <v>10창</v>
+      </c>
+      <c r="G106" s="17">
+        <f t="shared" si="52"/>
+        <v>1E+173</v>
+      </c>
+      <c r="H106" s="17">
         <f t="shared" si="49"/>
-        <v>10창</v>
-      </c>
-      <c r="G106" s="17">
-        <f t="shared" si="50"/>
-        <v>1E+173</v>
-      </c>
-      <c r="H106" s="17">
-        <f t="shared" si="47"/>
         <v>10</v>
       </c>
       <c r="I106" s="16" t="str" cm="1">
@@ -13110,11 +13346,11 @@
         <v>창</v>
       </c>
       <c r="J106" s="16" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1E+172</v>
       </c>
       <c r="K106" s="22">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>25000</v>
       </c>
       <c r="L106" s="22">
@@ -13126,15 +13362,15 @@
         <v>98</v>
       </c>
       <c r="F107" s="17" t="str">
+        <f t="shared" si="51"/>
+        <v>100창</v>
+      </c>
+      <c r="G107" s="17">
+        <f t="shared" si="52"/>
+        <v>1.0000000000000001E+174</v>
+      </c>
+      <c r="H107" s="17">
         <f t="shared" si="49"/>
-        <v>100창</v>
-      </c>
-      <c r="G107" s="17">
-        <f t="shared" si="50"/>
-        <v>1.0000000000000001E+174</v>
-      </c>
-      <c r="H107" s="17">
-        <f t="shared" si="47"/>
         <v>100</v>
       </c>
       <c r="I107" s="16" t="str" cm="1">
@@ -13142,11 +13378,11 @@
         <v>창</v>
       </c>
       <c r="J107" s="16" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1E+172</v>
       </c>
       <c r="K107" s="22">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>25000</v>
       </c>
       <c r="L107" s="22">
@@ -13158,15 +13394,15 @@
         <v>99</v>
       </c>
       <c r="F108" s="17" t="str">
+        <f t="shared" si="51"/>
+        <v>1000창</v>
+      </c>
+      <c r="G108" s="17">
+        <f t="shared" si="52"/>
+        <v>1.0000000000000001E+175</v>
+      </c>
+      <c r="H108" s="17">
         <f t="shared" si="49"/>
-        <v>1000창</v>
-      </c>
-      <c r="G108" s="17">
-        <f t="shared" si="50"/>
-        <v>1.0000000000000001E+175</v>
-      </c>
-      <c r="H108" s="17">
-        <f t="shared" si="47"/>
         <v>1000</v>
       </c>
       <c r="I108" s="16" t="str" cm="1">
@@ -13174,11 +13410,11 @@
         <v>창</v>
       </c>
       <c r="J108" s="16" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1E+172</v>
       </c>
       <c r="K108" s="22">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>25000</v>
       </c>
       <c r="L108" s="22">
@@ -13190,15 +13426,15 @@
         <v>100</v>
       </c>
       <c r="F109" s="17" t="str">
+        <f t="shared" si="51"/>
+        <v>1공</v>
+      </c>
+      <c r="G109" s="17">
+        <f t="shared" si="52"/>
+        <v>1E+176</v>
+      </c>
+      <c r="H109" s="17">
         <f t="shared" si="49"/>
-        <v>1공</v>
-      </c>
-      <c r="G109" s="17">
-        <f t="shared" si="50"/>
-        <v>1E+176</v>
-      </c>
-      <c r="H109" s="17">
-        <f t="shared" si="47"/>
         <v>1</v>
       </c>
       <c r="I109" s="16" t="str" cm="1">
@@ -13206,11 +13442,11 @@
         <v>공</v>
       </c>
       <c r="J109" s="16" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1E+176</v>
       </c>
       <c r="K109" s="22">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>26000</v>
       </c>
       <c r="L109" s="22">
@@ -13222,15 +13458,15 @@
         <v>101</v>
       </c>
       <c r="F110" s="17" t="str">
+        <f t="shared" si="51"/>
+        <v>10공</v>
+      </c>
+      <c r="G110" s="17">
+        <f t="shared" si="52"/>
+        <v>1E+177</v>
+      </c>
+      <c r="H110" s="17">
         <f t="shared" si="49"/>
-        <v>10공</v>
-      </c>
-      <c r="G110" s="17">
-        <f t="shared" si="50"/>
-        <v>1E+177</v>
-      </c>
-      <c r="H110" s="17">
-        <f t="shared" si="47"/>
         <v>10</v>
       </c>
       <c r="I110" s="16" t="str" cm="1">
@@ -13238,11 +13474,11 @@
         <v>공</v>
       </c>
       <c r="J110" s="16" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1E+176</v>
       </c>
       <c r="K110" s="22">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>26000</v>
       </c>
       <c r="L110" s="22">
@@ -13254,15 +13490,15 @@
         <v>102</v>
       </c>
       <c r="F111" s="17" t="str">
+        <f t="shared" si="51"/>
+        <v>100공</v>
+      </c>
+      <c r="G111" s="17">
+        <f t="shared" si="52"/>
+        <v>1.0000000000000001E+178</v>
+      </c>
+      <c r="H111" s="17">
         <f t="shared" si="49"/>
-        <v>100공</v>
-      </c>
-      <c r="G111" s="17">
-        <f t="shared" si="50"/>
-        <v>1.0000000000000001E+178</v>
-      </c>
-      <c r="H111" s="17">
-        <f t="shared" si="47"/>
         <v>100</v>
       </c>
       <c r="I111" s="16" t="str" cm="1">
@@ -13270,11 +13506,11 @@
         <v>공</v>
       </c>
       <c r="J111" s="16" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1E+176</v>
       </c>
       <c r="K111" s="22">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>26000</v>
       </c>
       <c r="L111" s="22">
@@ -13286,15 +13522,15 @@
         <v>103</v>
       </c>
       <c r="F112" s="17" t="str">
+        <f t="shared" si="51"/>
+        <v>1000공</v>
+      </c>
+      <c r="G112" s="17">
+        <f t="shared" si="52"/>
+        <v>9.9999999999999998E+178</v>
+      </c>
+      <c r="H112" s="17">
         <f t="shared" si="49"/>
-        <v>1000공</v>
-      </c>
-      <c r="G112" s="17">
-        <f t="shared" si="50"/>
-        <v>9.9999999999999998E+178</v>
-      </c>
-      <c r="H112" s="17">
-        <f t="shared" si="47"/>
         <v>1000</v>
       </c>
       <c r="I112" s="16" t="str" cm="1">
@@ -13302,11 +13538,11 @@
         <v>공</v>
       </c>
       <c r="J112" s="16" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1E+176</v>
       </c>
       <c r="K112" s="22">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>26000</v>
       </c>
       <c r="L112" s="22">
@@ -13318,15 +13554,15 @@
         <v>104</v>
       </c>
       <c r="F113" s="17" t="str">
-        <f t="shared" ref="F113:F120" si="52">H113&amp;I113</f>
+        <f t="shared" ref="F113:F120" si="54">H113&amp;I113</f>
         <v>1채</v>
       </c>
       <c r="G113" s="17">
-        <f t="shared" ref="G113:G120" si="53">H113*J113</f>
+        <f t="shared" ref="G113:G120" si="55">H113*J113</f>
         <v>1E+180</v>
       </c>
       <c r="H113" s="17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="I113" s="16" t="str" cm="1">
@@ -13334,11 +13570,11 @@
         <v>채</v>
       </c>
       <c r="J113" s="16" t="str">
-        <f t="shared" ref="J113:J120" si="54">VLOOKUP(I113,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J113:J120" si="56">VLOOKUP(I113,N:Q,4,FALSE)</f>
         <v>1E+180</v>
       </c>
       <c r="K113" s="22">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>27000</v>
       </c>
       <c r="L113" s="22">
@@ -13350,15 +13586,15 @@
         <v>105</v>
       </c>
       <c r="F114" s="17" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>10채</v>
       </c>
       <c r="G114" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>9.9999999999999992E+180</v>
       </c>
       <c r="H114" s="17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>10</v>
       </c>
       <c r="I114" s="16" t="str" cm="1">
@@ -13366,11 +13602,11 @@
         <v>채</v>
       </c>
       <c r="J114" s="16" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>1E+180</v>
       </c>
       <c r="K114" s="22">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>27000</v>
       </c>
       <c r="L114" s="22">
@@ -13382,15 +13618,15 @@
         <v>106</v>
       </c>
       <c r="F115" s="17" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>100채</v>
       </c>
       <c r="G115" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1.0000000000000001E+182</v>
       </c>
       <c r="H115" s="17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>100</v>
       </c>
       <c r="I115" s="16" t="str" cm="1">
@@ -13398,11 +13634,11 @@
         <v>채</v>
       </c>
       <c r="J115" s="16" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>1E+180</v>
       </c>
       <c r="K115" s="22">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>27000</v>
       </c>
       <c r="L115" s="22">
@@ -13414,15 +13650,15 @@
         <v>107</v>
       </c>
       <c r="F116" s="17" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>1000채</v>
       </c>
       <c r="G116" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1.0000000000000001E+183</v>
       </c>
       <c r="H116" s="17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1000</v>
       </c>
       <c r="I116" s="16" t="str" cm="1">
@@ -13430,11 +13666,11 @@
         <v>채</v>
       </c>
       <c r="J116" s="16" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>1E+180</v>
       </c>
       <c r="K116" s="22">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>27000</v>
       </c>
       <c r="L116" s="22">
@@ -13446,15 +13682,15 @@
         <v>108</v>
       </c>
       <c r="F117" s="17" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>1피</v>
       </c>
       <c r="G117" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1E+184</v>
       </c>
       <c r="H117" s="17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="I117" s="16" t="str" cm="1">
@@ -13462,11 +13698,11 @@
         <v>피</v>
       </c>
       <c r="J117" s="16" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>1E+184</v>
       </c>
       <c r="K117" s="22">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>28000</v>
       </c>
       <c r="L117" s="22">
@@ -13478,15 +13714,15 @@
         <v>109</v>
       </c>
       <c r="F118" s="17" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>10피</v>
       </c>
       <c r="G118" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>9.9999999999999998E+184</v>
       </c>
       <c r="H118" s="17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>10</v>
       </c>
       <c r="I118" s="16" t="str" cm="1">
@@ -13494,11 +13730,11 @@
         <v>피</v>
       </c>
       <c r="J118" s="16" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>1E+184</v>
       </c>
       <c r="K118" s="22">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>28000</v>
       </c>
       <c r="L118" s="22">
@@ -13510,15 +13746,15 @@
         <v>110</v>
       </c>
       <c r="F119" s="17" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>100피</v>
       </c>
       <c r="G119" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>9.9999999999999998E+185</v>
       </c>
       <c r="H119" s="17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>100</v>
       </c>
       <c r="I119" s="16" t="str" cm="1">
@@ -13526,11 +13762,11 @@
         <v>피</v>
       </c>
       <c r="J119" s="16" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>1E+184</v>
       </c>
       <c r="K119" s="22">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>28000</v>
       </c>
       <c r="L119" s="22">
@@ -13542,15 +13778,15 @@
         <v>111</v>
       </c>
       <c r="F120" s="17" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>1000피</v>
       </c>
       <c r="G120" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1.0000000000000001E+187</v>
       </c>
       <c r="H120" s="17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1000</v>
       </c>
       <c r="I120" s="16" t="str" cm="1">
@@ -13558,11 +13794,11 @@
         <v>피</v>
       </c>
       <c r="J120" s="16" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>1E+184</v>
       </c>
       <c r="K120" s="22">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>28000</v>
       </c>
       <c r="L120" s="22">
@@ -13574,15 +13810,15 @@
         <v>112</v>
       </c>
       <c r="F121" s="17" t="str">
-        <f t="shared" ref="F121:F124" si="55">H121&amp;I121</f>
+        <f t="shared" ref="F121:F124" si="57">H121&amp;I121</f>
         <v>1동</v>
       </c>
       <c r="G121" s="17">
-        <f t="shared" ref="G121:G124" si="56">H121*J121</f>
+        <f t="shared" ref="G121:G124" si="58">H121*J121</f>
         <v>1E+188</v>
       </c>
       <c r="H121" s="17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="I121" s="16" t="str" cm="1">
@@ -13590,11 +13826,11 @@
         <v>동</v>
       </c>
       <c r="J121" s="16" t="str">
-        <f t="shared" ref="J121:J124" si="57">VLOOKUP(I121,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J121:J124" si="59">VLOOKUP(I121,N:Q,4,FALSE)</f>
         <v>1E+188</v>
       </c>
       <c r="K121" s="22">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>29000</v>
       </c>
       <c r="L121" s="22">
@@ -13606,15 +13842,15 @@
         <v>113</v>
       </c>
       <c r="F122" s="17" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>10동</v>
       </c>
       <c r="G122" s="17">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>1E+189</v>
       </c>
       <c r="H122" s="17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>10</v>
       </c>
       <c r="I122" s="16" t="str" cm="1">
@@ -13622,11 +13858,11 @@
         <v>동</v>
       </c>
       <c r="J122" s="16" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>1E+188</v>
       </c>
       <c r="K122" s="22">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>29000</v>
       </c>
       <c r="L122" s="22">
@@ -13638,15 +13874,15 @@
         <v>114</v>
       </c>
       <c r="F123" s="17" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>100동</v>
       </c>
       <c r="G123" s="17">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>1.0000000000000001E+190</v>
       </c>
       <c r="H123" s="17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>100</v>
       </c>
       <c r="I123" s="16" t="str" cm="1">
@@ -13654,11 +13890,11 @@
         <v>동</v>
       </c>
       <c r="J123" s="16" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>1E+188</v>
       </c>
       <c r="K123" s="22">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>29000</v>
       </c>
       <c r="L123" s="22">
@@ -13670,15 +13906,15 @@
         <v>115</v>
       </c>
       <c r="F124" s="17" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>1000동</v>
       </c>
       <c r="G124" s="17">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>1.0000000000000001E+191</v>
       </c>
       <c r="H124" s="17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1000</v>
       </c>
       <c r="I124" s="16" t="str" cm="1">
@@ -13686,11 +13922,11 @@
         <v>동</v>
       </c>
       <c r="J124" s="16" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>1E+188</v>
       </c>
       <c r="K124" s="22">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>29000</v>
       </c>
       <c r="L124" s="22">
@@ -13702,15 +13938,15 @@
         <v>116</v>
       </c>
       <c r="F125" s="17" t="str">
-        <f t="shared" ref="F125:F128" si="58">H125&amp;I125</f>
+        <f t="shared" ref="F125:F128" si="60">H125&amp;I125</f>
         <v>1멸</v>
       </c>
       <c r="G125" s="17">
-        <f t="shared" ref="G125:G128" si="59">H125*J125</f>
+        <f t="shared" ref="G125:G128" si="61">H125*J125</f>
         <v>1E+192</v>
       </c>
       <c r="H125" s="17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="I125" s="16" t="str" cm="1">
@@ -13718,11 +13954,11 @@
         <v>멸</v>
       </c>
       <c r="J125" s="16" t="str">
-        <f t="shared" ref="J125:J128" si="60">VLOOKUP(I125,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J125:J128" si="62">VLOOKUP(I125,N:Q,4,FALSE)</f>
         <v>1E+192</v>
       </c>
       <c r="K125" s="22">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>30000</v>
       </c>
       <c r="L125" s="22">
@@ -13734,15 +13970,15 @@
         <v>117</v>
       </c>
       <c r="F126" s="17" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>10멸</v>
       </c>
       <c r="G126" s="17">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>1.0000000000000001E+193</v>
       </c>
       <c r="H126" s="17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>10</v>
       </c>
       <c r="I126" s="16" t="str" cm="1">
@@ -13750,11 +13986,11 @@
         <v>멸</v>
       </c>
       <c r="J126" s="16" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>1E+192</v>
       </c>
       <c r="K126" s="22">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>30000</v>
       </c>
       <c r="L126" s="22">
@@ -13766,15 +14002,15 @@
         <v>118</v>
       </c>
       <c r="F127" s="17" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>100멸</v>
       </c>
       <c r="G127" s="17">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>1.0000000000000001E+194</v>
       </c>
       <c r="H127" s="17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>100</v>
       </c>
       <c r="I127" s="16" t="str" cm="1">
@@ -13782,11 +14018,11 @@
         <v>멸</v>
       </c>
       <c r="J127" s="16" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>1E+192</v>
       </c>
       <c r="K127" s="22">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>30000</v>
       </c>
       <c r="L127" s="22">
@@ -13798,15 +14034,15 @@
         <v>119</v>
       </c>
       <c r="F128" s="17" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>1000멸</v>
       </c>
       <c r="G128" s="17">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>9.9999999999999998E+194</v>
       </c>
       <c r="H128" s="17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1000</v>
       </c>
       <c r="I128" s="16" t="str" cm="1">
@@ -13814,11 +14050,11 @@
         <v>멸</v>
       </c>
       <c r="J128" s="16" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>1E+192</v>
       </c>
       <c r="K128" s="22">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>30000</v>
       </c>
       <c r="L128" s="22">
@@ -13830,15 +14066,15 @@
         <v>120</v>
       </c>
       <c r="F129" s="17" t="str">
-        <f t="shared" ref="F129:F136" si="61">H129&amp;I129</f>
+        <f t="shared" ref="F129:F136" si="63">H129&amp;I129</f>
         <v>1향</v>
       </c>
       <c r="G129" s="17">
-        <f t="shared" ref="G129:G136" si="62">H129*J129</f>
+        <f t="shared" ref="G129:G136" si="64">H129*J129</f>
         <v>9.9999999999999995E+195</v>
       </c>
       <c r="H129" s="17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="I129" s="16" t="str" cm="1">
@@ -13846,11 +14082,11 @@
         <v>향</v>
       </c>
       <c r="J129" s="16" t="str">
-        <f t="shared" ref="J129:J136" si="63">VLOOKUP(I129,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J129:J136" si="65">VLOOKUP(I129,N:Q,4,FALSE)</f>
         <v>1E+196</v>
       </c>
       <c r="K129" s="22">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>31000</v>
       </c>
       <c r="L129" s="22">
@@ -13862,15 +14098,15 @@
         <v>121</v>
       </c>
       <c r="F130" s="17" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>10향</v>
       </c>
       <c r="G130" s="17">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>9.9999999999999995E+196</v>
       </c>
       <c r="H130" s="17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>10</v>
       </c>
       <c r="I130" s="16" t="str" cm="1">
@@ -13878,11 +14114,11 @@
         <v>향</v>
       </c>
       <c r="J130" s="16" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>1E+196</v>
       </c>
       <c r="K130" s="22">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>31000</v>
       </c>
       <c r="L130" s="22">
@@ -13894,15 +14130,15 @@
         <v>122</v>
       </c>
       <c r="F131" s="17" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>100향</v>
       </c>
       <c r="G131" s="17">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>9.9999999999999988E+197</v>
       </c>
       <c r="H131" s="17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>100</v>
       </c>
       <c r="I131" s="16" t="str" cm="1">
@@ -13910,11 +14146,11 @@
         <v>향</v>
       </c>
       <c r="J131" s="16" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>1E+196</v>
       </c>
       <c r="K131" s="22">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>31000</v>
       </c>
       <c r="L131" s="22">
@@ -13926,15 +14162,15 @@
         <v>123</v>
       </c>
       <c r="F132" s="17" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>1000향</v>
       </c>
       <c r="G132" s="17">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>9.9999999999999988E+198</v>
       </c>
       <c r="H132" s="17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1000</v>
       </c>
       <c r="I132" s="16" t="str" cm="1">
@@ -13942,11 +14178,11 @@
         <v>향</v>
       </c>
       <c r="J132" s="16" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>1E+196</v>
       </c>
       <c r="K132" s="22">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>31000</v>
       </c>
       <c r="L132" s="22">
@@ -13958,15 +14194,15 @@
         <v>124</v>
       </c>
       <c r="F133" s="17" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>1증</v>
       </c>
       <c r="G133" s="17">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>9.9999999999999997E+199</v>
       </c>
       <c r="H133" s="17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="I133" s="16" t="str" cm="1">
@@ -13974,11 +14210,11 @@
         <v>증</v>
       </c>
       <c r="J133" s="16" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>1E+200</v>
       </c>
       <c r="K133" s="22">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>32000</v>
       </c>
       <c r="L133" s="22">
@@ -13990,15 +14226,15 @@
         <v>125</v>
       </c>
       <c r="F134" s="17" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>10증</v>
       </c>
       <c r="G134" s="17">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>9.999999999999999E+200</v>
       </c>
       <c r="H134" s="17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>10</v>
       </c>
       <c r="I134" s="16" t="str" cm="1">
@@ -14006,11 +14242,11 @@
         <v>증</v>
       </c>
       <c r="J134" s="16" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>1E+200</v>
       </c>
       <c r="K134" s="22">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>32000</v>
       </c>
       <c r="L134" s="22">
@@ -14022,15 +14258,15 @@
         <v>126</v>
       </c>
       <c r="F135" s="17" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>100증</v>
       </c>
       <c r="G135" s="17">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>9.999999999999999E+201</v>
       </c>
       <c r="H135" s="17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>100</v>
       </c>
       <c r="I135" s="16" t="str" cm="1">
@@ -14038,11 +14274,11 @@
         <v>증</v>
       </c>
       <c r="J135" s="16" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>1E+200</v>
       </c>
       <c r="K135" s="22">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>32000</v>
       </c>
       <c r="L135" s="22">
@@ -14054,15 +14290,15 @@
         <v>127</v>
       </c>
       <c r="F136" s="17" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>1000증</v>
       </c>
       <c r="G136" s="17">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>9.9999999999999999E+202</v>
       </c>
       <c r="H136" s="17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1000</v>
       </c>
       <c r="I136" s="16" t="str" cm="1">
@@ -14070,11 +14306,11 @@
         <v>증</v>
       </c>
       <c r="J136" s="16" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>1E+200</v>
       </c>
       <c r="K136" s="22">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>32000</v>
       </c>
       <c r="L136" s="22">
@@ -14086,15 +14322,15 @@
         <v>128</v>
       </c>
       <c r="F137" s="17" t="str">
-        <f t="shared" ref="F137:F140" si="64">H137&amp;I137</f>
+        <f t="shared" ref="F137:F140" si="66">H137&amp;I137</f>
         <v>1쾌</v>
       </c>
       <c r="G137" s="17">
-        <f t="shared" ref="G137:G140" si="65">H137*J137</f>
+        <f t="shared" ref="G137:G140" si="67">H137*J137</f>
         <v>9.9999999999999999E+203</v>
       </c>
       <c r="H137" s="17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="I137" s="16" t="str" cm="1">
@@ -14102,11 +14338,11 @@
         <v>쾌</v>
       </c>
       <c r="J137" s="16" t="str">
-        <f t="shared" ref="J137:J140" si="66">VLOOKUP(I137,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J137:J140" si="68">VLOOKUP(I137,N:Q,4,FALSE)</f>
         <v>1E+204</v>
       </c>
       <c r="K137" s="22">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>33000</v>
       </c>
       <c r="L137" s="22">
@@ -14118,15 +14354,15 @@
         <v>129</v>
       </c>
       <c r="F138" s="17" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>10쾌</v>
       </c>
       <c r="G138" s="17">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>1E+205</v>
       </c>
       <c r="H138" s="17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>10</v>
       </c>
       <c r="I138" s="16" t="str" cm="1">
@@ -14134,11 +14370,11 @@
         <v>쾌</v>
       </c>
       <c r="J138" s="16" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>1E+204</v>
       </c>
       <c r="K138" s="22">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>33000</v>
       </c>
       <c r="L138" s="22">
@@ -14150,15 +14386,15 @@
         <v>130</v>
       </c>
       <c r="F139" s="17" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>100쾌</v>
       </c>
       <c r="G139" s="17">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>1E+206</v>
       </c>
       <c r="H139" s="17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>100</v>
       </c>
       <c r="I139" s="16" t="str" cm="1">
@@ -14166,11 +14402,11 @@
         <v>쾌</v>
       </c>
       <c r="J139" s="16" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>1E+204</v>
       </c>
       <c r="K139" s="22">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>33000</v>
       </c>
       <c r="L139" s="22">
@@ -14182,15 +14418,15 @@
         <v>131</v>
       </c>
       <c r="F140" s="17" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>1000쾌</v>
       </c>
       <c r="G140" s="17">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>1E+207</v>
       </c>
       <c r="H140" s="17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1000</v>
       </c>
       <c r="I140" s="16" t="str" cm="1">
@@ -14198,11 +14434,11 @@
         <v>쾌</v>
       </c>
       <c r="J140" s="16" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>1E+204</v>
       </c>
       <c r="K140" s="22">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>33000</v>
       </c>
       <c r="L140" s="22">
@@ -14214,15 +14450,15 @@
         <v>132</v>
       </c>
       <c r="F141" s="17" t="str">
-        <f t="shared" ref="F141:F144" si="67">H141&amp;I141</f>
+        <f t="shared" ref="F141:F144" si="69">H141&amp;I141</f>
         <v>1우</v>
       </c>
       <c r="G141" s="17">
-        <f t="shared" ref="G141:G144" si="68">H141*J141</f>
+        <f t="shared" ref="G141:G144" si="70">H141*J141</f>
         <v>9.9999999999999998E+207</v>
       </c>
       <c r="H141" s="17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="I141" s="16" t="str" cm="1">
@@ -14230,11 +14466,11 @@
         <v>우</v>
       </c>
       <c r="J141" s="16" t="str">
-        <f t="shared" ref="J141:J144" si="69">VLOOKUP(I141,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J141:J144" si="71">VLOOKUP(I141,N:Q,4,FALSE)</f>
         <v>1E+208</v>
       </c>
       <c r="K141" s="22">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>34000</v>
       </c>
       <c r="L141" s="22">
@@ -14246,15 +14482,15 @@
         <v>133</v>
       </c>
       <c r="F142" s="17" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>10우</v>
       </c>
       <c r="G142" s="17">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>1.0000000000000001E+209</v>
       </c>
       <c r="H142" s="17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>10</v>
       </c>
       <c r="I142" s="16" t="str" cm="1">
@@ -14262,11 +14498,11 @@
         <v>우</v>
       </c>
       <c r="J142" s="16" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>1E+208</v>
       </c>
       <c r="K142" s="22">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>34000</v>
       </c>
       <c r="L142" s="22">
@@ -14278,15 +14514,15 @@
         <v>134</v>
       </c>
       <c r="F143" s="17" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>100우</v>
       </c>
       <c r="G143" s="17">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>9.9999999999999993E+209</v>
       </c>
       <c r="H143" s="17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>100</v>
       </c>
       <c r="I143" s="16" t="str" cm="1">
@@ -14294,11 +14530,11 @@
         <v>우</v>
       </c>
       <c r="J143" s="16" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>1E+208</v>
       </c>
       <c r="K143" s="22">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>34000</v>
       </c>
       <c r="L143" s="22">
@@ -14310,15 +14546,15 @@
         <v>135</v>
       </c>
       <c r="F144" s="17" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>1000우</v>
       </c>
       <c r="G144" s="17">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>9.9999999999999996E+210</v>
       </c>
       <c r="H144" s="17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1000</v>
       </c>
       <c r="I144" s="16" t="str" cm="1">
@@ -14326,11 +14562,11 @@
         <v>우</v>
       </c>
       <c r="J144" s="16" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>1E+208</v>
       </c>
       <c r="K144" s="22">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>34000</v>
       </c>
       <c r="L144" s="22">
@@ -14342,15 +14578,15 @@
         <v>136</v>
       </c>
       <c r="F145" s="17" t="str">
-        <f t="shared" ref="F145:F151" si="70">H145&amp;I145</f>
+        <f t="shared" ref="F145:F151" si="72">H145&amp;I145</f>
         <v>1팽</v>
       </c>
       <c r="G145" s="17">
-        <f t="shared" ref="G145:G151" si="71">H145*J145</f>
+        <f t="shared" ref="G145:G151" si="73">H145*J145</f>
         <v>9.9999999999999991E+211</v>
       </c>
       <c r="H145" s="17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="I145" s="16" t="str" cm="1">
@@ -14358,11 +14594,11 @@
         <v>팽</v>
       </c>
       <c r="J145" s="16" t="str">
-        <f t="shared" ref="J145:J151" si="72">VLOOKUP(I145,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J145:J151" si="74">VLOOKUP(I145,N:Q,4,FALSE)</f>
         <v>1E+212</v>
       </c>
       <c r="K145" s="22">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>35000</v>
       </c>
       <c r="L145" s="22">
@@ -14374,15 +14610,15 @@
         <v>137</v>
       </c>
       <c r="F146" s="17" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>10팽</v>
       </c>
       <c r="G146" s="17">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>9.9999999999999983E+212</v>
       </c>
       <c r="H146" s="17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>10</v>
       </c>
       <c r="I146" s="16" t="str" cm="1">
@@ -14390,11 +14626,11 @@
         <v>팽</v>
       </c>
       <c r="J146" s="16" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>1E+212</v>
       </c>
       <c r="K146" s="22">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>35000</v>
       </c>
       <c r="L146" s="22">
@@ -14406,15 +14642,15 @@
         <v>138</v>
       </c>
       <c r="F147" s="17" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>100팽</v>
       </c>
       <c r="G147" s="17">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>9.9999999999999995E+213</v>
       </c>
       <c r="H147" s="17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>100</v>
       </c>
       <c r="I147" s="16" t="str" cm="1">
@@ -14422,11 +14658,11 @@
         <v>팽</v>
       </c>
       <c r="J147" s="16" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>1E+212</v>
       </c>
       <c r="K147" s="22">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>35000</v>
       </c>
       <c r="L147" s="22">
@@ -14438,15 +14674,15 @@
         <v>139</v>
       </c>
       <c r="F148" s="17" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>1000팽</v>
       </c>
       <c r="G148" s="17">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>9.9999999999999991E+214</v>
       </c>
       <c r="H148" s="17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1000</v>
       </c>
       <c r="I148" s="16" t="str" cm="1">
@@ -14454,11 +14690,11 @@
         <v>팽</v>
       </c>
       <c r="J148" s="16" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>1E+212</v>
       </c>
       <c r="K148" s="22">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>35000</v>
       </c>
       <c r="L148" s="22">
@@ -14470,15 +14706,15 @@
         <v>140</v>
       </c>
       <c r="F149" s="17" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>1관</v>
       </c>
       <c r="G149" s="17">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>1E+216</v>
       </c>
       <c r="H149" s="17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="I149" s="16" t="str" cm="1">
@@ -14486,11 +14722,11 @@
         <v>관</v>
       </c>
       <c r="J149" s="16" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>1E+216</v>
       </c>
       <c r="K149" s="22">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>36000</v>
       </c>
       <c r="L149" s="22">
@@ -14502,15 +14738,15 @@
         <v>141</v>
       </c>
       <c r="F150" s="17" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>10관</v>
       </c>
       <c r="G150" s="17">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>1.0000000000000001E+217</v>
       </c>
       <c r="H150" s="17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>10</v>
       </c>
       <c r="I150" s="16" t="str" cm="1">
@@ -14518,11 +14754,11 @@
         <v>관</v>
       </c>
       <c r="J150" s="16" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>1E+216</v>
       </c>
       <c r="K150" s="22">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>36000</v>
       </c>
       <c r="L150" s="22">
@@ -14534,15 +14770,15 @@
         <v>142</v>
       </c>
       <c r="F151" s="17" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>100관</v>
       </c>
       <c r="G151" s="17">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>1.0000000000000001E+218</v>
       </c>
       <c r="H151" s="17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>100</v>
       </c>
       <c r="I151" s="16" t="str" cm="1">
@@ -14550,11 +14786,11 @@
         <v>관</v>
       </c>
       <c r="J151" s="16" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>1E+216</v>
       </c>
       <c r="K151" s="22">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>36000</v>
       </c>
       <c r="L151" s="22">
@@ -14566,15 +14802,15 @@
         <v>143</v>
       </c>
       <c r="F152" s="17" t="str">
-        <f t="shared" ref="F152:F156" si="73">H152&amp;I152</f>
+        <f t="shared" ref="F152:F156" si="75">H152&amp;I152</f>
         <v>1000관</v>
       </c>
       <c r="G152" s="17">
-        <f t="shared" ref="G152:G156" si="74">H152*J152</f>
+        <f t="shared" ref="G152:G156" si="76">H152*J152</f>
         <v>9.9999999999999997E+218</v>
       </c>
       <c r="H152" s="17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1000</v>
       </c>
       <c r="I152" s="16" t="str" cm="1">
@@ -14582,11 +14818,11 @@
         <v>관</v>
       </c>
       <c r="J152" s="16" t="str">
-        <f t="shared" ref="J152:J156" si="75">VLOOKUP(I152,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J152:J156" si="77">VLOOKUP(I152,N:Q,4,FALSE)</f>
         <v>1E+216</v>
       </c>
       <c r="K152" s="22">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>36000</v>
       </c>
       <c r="L152" s="22">
@@ -14598,15 +14834,15 @@
         <v>144</v>
       </c>
       <c r="F153" s="17" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>1한</v>
       </c>
       <c r="G153" s="17">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>1E+220</v>
       </c>
       <c r="H153" s="17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="I153" s="16" t="str" cm="1">
@@ -14614,11 +14850,11 @@
         <v>한</v>
       </c>
       <c r="J153" s="16" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>1E+220</v>
       </c>
       <c r="K153" s="22">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>37000</v>
       </c>
       <c r="L153" s="22">
@@ -14630,15 +14866,15 @@
         <v>145</v>
       </c>
       <c r="F154" s="17" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>10한</v>
       </c>
       <c r="G154" s="17">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>1E+221</v>
       </c>
       <c r="H154" s="17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>10</v>
       </c>
       <c r="I154" s="16" t="str" cm="1">
@@ -14646,11 +14882,11 @@
         <v>한</v>
       </c>
       <c r="J154" s="16" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>1E+220</v>
       </c>
       <c r="K154" s="22">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>37000</v>
       </c>
       <c r="L154" s="22">
@@ -14662,15 +14898,15 @@
         <v>146</v>
       </c>
       <c r="F155" s="17" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>100한</v>
       </c>
       <c r="G155" s="17">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>1E+222</v>
       </c>
       <c r="H155" s="17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>100</v>
       </c>
       <c r="I155" s="16" t="str" cm="1">
@@ -14678,11 +14914,11 @@
         <v>한</v>
       </c>
       <c r="J155" s="16" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>1E+220</v>
       </c>
       <c r="K155" s="22">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>37000</v>
       </c>
       <c r="L155" s="22">
@@ -14694,15 +14930,15 @@
         <v>147</v>
       </c>
       <c r="F156" s="17" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>1000한</v>
       </c>
       <c r="G156" s="17">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>1E+223</v>
       </c>
       <c r="H156" s="17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1000</v>
       </c>
       <c r="I156" s="16" t="str" cm="1">
@@ -14710,11 +14946,11 @@
         <v>한</v>
       </c>
       <c r="J156" s="16" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>1E+220</v>
       </c>
       <c r="K156" s="22">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>37000</v>
       </c>
       <c r="L156" s="22">
@@ -14726,15 +14962,15 @@
         <v>148</v>
       </c>
       <c r="F157" s="17" t="str">
-        <f t="shared" ref="F157:F160" si="76">H157&amp;I157</f>
+        <f t="shared" ref="F157:F160" si="78">H157&amp;I157</f>
         <v>1혈</v>
       </c>
       <c r="G157" s="17">
-        <f t="shared" ref="G157:G160" si="77">H157*J157</f>
+        <f t="shared" ref="G157:G160" si="79">H157*J157</f>
         <v>9.9999999999999997E+223</v>
       </c>
       <c r="H157" s="17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="I157" s="16" t="str" cm="1">
@@ -14742,11 +14978,11 @@
         <v>혈</v>
       </c>
       <c r="J157" s="16" t="str">
-        <f t="shared" ref="J157:J160" si="78">VLOOKUP(I157,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J157:J160" si="80">VLOOKUP(I157,N:Q,4,FALSE)</f>
         <v>1E+224</v>
       </c>
       <c r="K157" s="22">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>38000</v>
       </c>
       <c r="L157" s="22">
@@ -14758,15 +14994,15 @@
         <v>149</v>
       </c>
       <c r="F158" s="17" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>10혈</v>
       </c>
       <c r="G158" s="17">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>9.9999999999999993E+224</v>
       </c>
       <c r="H158" s="17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>10</v>
       </c>
       <c r="I158" s="16" t="str" cm="1">
@@ -14774,11 +15010,11 @@
         <v>혈</v>
       </c>
       <c r="J158" s="16" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>1E+224</v>
       </c>
       <c r="K158" s="22">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>38000</v>
       </c>
       <c r="L158" s="22">
@@ -14790,15 +15026,15 @@
         <v>150</v>
       </c>
       <c r="F159" s="17" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>100혈</v>
       </c>
       <c r="G159" s="17">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>9.9999999999999996E+225</v>
       </c>
       <c r="H159" s="17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>100</v>
       </c>
       <c r="I159" s="16" t="str" cm="1">
@@ -14806,11 +15042,11 @@
         <v>혈</v>
       </c>
       <c r="J159" s="16" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>1E+224</v>
       </c>
       <c r="K159" s="22">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>38000</v>
       </c>
       <c r="L159" s="22">
@@ -14822,15 +15058,15 @@
         <v>151</v>
       </c>
       <c r="F160" s="17" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>1000혈</v>
       </c>
       <c r="G160" s="17">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>9.9999999999999988E+226</v>
       </c>
       <c r="H160" s="17">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1000</v>
       </c>
       <c r="I160" s="16" t="str" cm="1">
@@ -14838,15 +15074,143 @@
         <v>혈</v>
       </c>
       <c r="J160" s="16" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>1E+224</v>
       </c>
       <c r="K160" s="22">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>38000</v>
       </c>
       <c r="L160" s="22">
         <v>30200</v>
+      </c>
+    </row>
+    <row r="161" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E161" s="16">
+        <v>152</v>
+      </c>
+      <c r="F161" s="17" t="str">
+        <f t="shared" ref="F161:F164" si="81">H161&amp;I161</f>
+        <v>1연</v>
+      </c>
+      <c r="G161" s="17">
+        <f t="shared" ref="G161:G164" si="82">H161*J161</f>
+        <v>9.9999999999999992E+227</v>
+      </c>
+      <c r="H161" s="17">
+        <f t="shared" si="49"/>
+        <v>1</v>
+      </c>
+      <c r="I161" s="16" t="str" cm="1">
+        <f t="array" ref="I161">IF(AND(H160&gt;=1000,H161&lt;2),INDEX(N:N,MATCH(I160,N:N,0)+1,0),I160)</f>
+        <v>연</v>
+      </c>
+      <c r="J161" s="16" t="str">
+        <f t="shared" ref="J161:J164" si="83">VLOOKUP(I161,N:Q,4,FALSE)</f>
+        <v>1E+228</v>
+      </c>
+      <c r="K161" s="22">
+        <f t="shared" si="50"/>
+        <v>39000</v>
+      </c>
+      <c r="L161" s="22">
+        <v>30400</v>
+      </c>
+    </row>
+    <row r="162" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E162" s="16">
+        <v>153</v>
+      </c>
+      <c r="F162" s="17" t="str">
+        <f t="shared" si="81"/>
+        <v>10연</v>
+      </c>
+      <c r="G162" s="17">
+        <f t="shared" si="82"/>
+        <v>9.9999999999999999E+228</v>
+      </c>
+      <c r="H162" s="17">
+        <f t="shared" si="49"/>
+        <v>10</v>
+      </c>
+      <c r="I162" s="16" t="str" cm="1">
+        <f t="array" ref="I162">IF(AND(H161&gt;=1000,H162&lt;2),INDEX(N:N,MATCH(I161,N:N,0)+1,0),I161)</f>
+        <v>연</v>
+      </c>
+      <c r="J162" s="16" t="str">
+        <f t="shared" si="83"/>
+        <v>1E+228</v>
+      </c>
+      <c r="K162" s="22">
+        <f t="shared" si="50"/>
+        <v>39000</v>
+      </c>
+      <c r="L162" s="22">
+        <v>30600</v>
+      </c>
+    </row>
+    <row r="163" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E163" s="16">
+        <v>154</v>
+      </c>
+      <c r="F163" s="17" t="str">
+        <f t="shared" si="81"/>
+        <v>100연</v>
+      </c>
+      <c r="G163" s="17">
+        <f t="shared" si="82"/>
+        <v>9.9999999999999988E+229</v>
+      </c>
+      <c r="H163" s="17">
+        <f t="shared" si="49"/>
+        <v>100</v>
+      </c>
+      <c r="I163" s="16" t="str" cm="1">
+        <f t="array" ref="I163">IF(AND(H162&gt;=1000,H163&lt;2),INDEX(N:N,MATCH(I162,N:N,0)+1,0),I162)</f>
+        <v>연</v>
+      </c>
+      <c r="J163" s="16" t="str">
+        <f t="shared" si="83"/>
+        <v>1E+228</v>
+      </c>
+      <c r="K163" s="22">
+        <f t="shared" si="50"/>
+        <v>39000</v>
+      </c>
+      <c r="L163" s="22">
+        <v>30800</v>
+      </c>
+    </row>
+    <row r="164" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E164" s="16">
+        <v>155</v>
+      </c>
+      <c r="F164" s="17" t="str">
+        <f t="shared" si="81"/>
+        <v>1000연</v>
+      </c>
+      <c r="G164" s="17">
+        <f t="shared" si="82"/>
+        <v>9.9999999999999988E+230</v>
+      </c>
+      <c r="H164" s="17">
+        <f t="shared" si="49"/>
+        <v>1000</v>
+      </c>
+      <c r="I164" s="16" t="str" cm="1">
+        <f t="array" ref="I164">IF(AND(H163&gt;=1000,H164&lt;2),INDEX(N:N,MATCH(I163,N:N,0)+1,0),I163)</f>
+        <v>연</v>
+      </c>
+      <c r="J164" s="16" t="str">
+        <f t="shared" si="83"/>
+        <v>1E+228</v>
+      </c>
+      <c r="K164" s="22">
+        <f t="shared" si="50"/>
+        <v>39000</v>
+      </c>
+      <c r="L164" s="22">
+        <v>31000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/ByeolhoTower.xlsx
+++ b/Assets/06.Table/ByeolhoTower.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D69F522D-B673-4EA3-B4BE-C1020C568A88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E998412E-4C55-439F-961F-F6026D752D22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="91">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1010,11 +1010,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M157"/>
+  <dimension ref="A1:M161"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A155" sqref="A155"/>
+      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G159" sqref="G159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6901,11 +6901,11 @@
         <v>30000</v>
       </c>
       <c r="E118">
-        <f t="shared" ref="E118:E157" si="84">E117</f>
+        <f t="shared" ref="E118:E161" si="84">E117</f>
         <v>1</v>
       </c>
       <c r="F118" s="2">
-        <f t="shared" ref="F118:F157" si="85">F117*10</f>
+        <f t="shared" ref="F118:F161" si="85">F117*10</f>
         <v>9.9999999999999991E+191</v>
       </c>
       <c r="G118">
@@ -6924,7 +6924,7 @@
         <v>57</v>
       </c>
       <c r="K118">
-        <f t="shared" ref="K118:K157" si="87">K117+200</f>
+        <f t="shared" ref="K118:K161" si="87">K117+200</f>
         <v>25200</v>
       </c>
       <c r="L118">
@@ -8924,9 +8924,213 @@
         <v>15500</v>
       </c>
     </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>156</v>
+      </c>
+      <c r="B158" s="1" t="str">
+        <f t="shared" ref="B158:C158" si="160">B157</f>
+        <v>1-1</v>
+      </c>
+      <c r="C158">
+        <f t="shared" si="160"/>
+        <v>9054</v>
+      </c>
+      <c r="D158">
+        <f>VLOOKUP(A158,Balance!E:K,7,FALSE)</f>
+        <v>40000</v>
+      </c>
+      <c r="E158">
+        <f t="shared" si="84"/>
+        <v>1</v>
+      </c>
+      <c r="F158" s="2">
+        <f t="shared" si="85"/>
+        <v>9.9999999999999992E+231</v>
+      </c>
+      <c r="G158">
+        <f t="shared" ref="G158:I158" si="161">G157</f>
+        <v>1000</v>
+      </c>
+      <c r="H158">
+        <f t="shared" si="161"/>
+        <v>8</v>
+      </c>
+      <c r="I158">
+        <f t="shared" si="161"/>
+        <v>0</v>
+      </c>
+      <c r="J158" t="s">
+        <v>57</v>
+      </c>
+      <c r="K158">
+        <f t="shared" si="87"/>
+        <v>33200</v>
+      </c>
+      <c r="L158">
+        <v>9054</v>
+      </c>
+      <c r="M158">
+        <f>VLOOKUP(A158,Balance!E:L,8,FALSE)/2</f>
+        <v>15600</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>157</v>
+      </c>
+      <c r="B159" s="1" t="str">
+        <f t="shared" ref="B159:C159" si="162">B158</f>
+        <v>1-1</v>
+      </c>
+      <c r="C159">
+        <f t="shared" si="162"/>
+        <v>9054</v>
+      </c>
+      <c r="D159">
+        <f>VLOOKUP(A159,Balance!E:K,7,FALSE)</f>
+        <v>40000</v>
+      </c>
+      <c r="E159">
+        <f t="shared" si="84"/>
+        <v>1</v>
+      </c>
+      <c r="F159" s="2">
+        <f t="shared" si="85"/>
+        <v>9.9999999999999997E+232</v>
+      </c>
+      <c r="G159">
+        <f t="shared" ref="G159:I159" si="163">G158</f>
+        <v>1000</v>
+      </c>
+      <c r="H159">
+        <f t="shared" si="163"/>
+        <v>8</v>
+      </c>
+      <c r="I159">
+        <f t="shared" si="163"/>
+        <v>0</v>
+      </c>
+      <c r="J159" t="s">
+        <v>57</v>
+      </c>
+      <c r="K159">
+        <f t="shared" si="87"/>
+        <v>33400</v>
+      </c>
+      <c r="L159">
+        <v>9054</v>
+      </c>
+      <c r="M159">
+        <f>VLOOKUP(A159,Balance!E:L,8,FALSE)/2</f>
+        <v>15700</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>158</v>
+      </c>
+      <c r="B160" s="1" t="str">
+        <f t="shared" ref="B160:C160" si="164">B159</f>
+        <v>1-1</v>
+      </c>
+      <c r="C160">
+        <f t="shared" si="164"/>
+        <v>9054</v>
+      </c>
+      <c r="D160">
+        <f>VLOOKUP(A160,Balance!E:K,7,FALSE)</f>
+        <v>40000</v>
+      </c>
+      <c r="E160">
+        <f t="shared" si="84"/>
+        <v>1</v>
+      </c>
+      <c r="F160" s="2">
+        <f t="shared" si="85"/>
+        <v>1E+234</v>
+      </c>
+      <c r="G160">
+        <f t="shared" ref="G160:I160" si="165">G159</f>
+        <v>1000</v>
+      </c>
+      <c r="H160">
+        <f t="shared" si="165"/>
+        <v>8</v>
+      </c>
+      <c r="I160">
+        <f t="shared" si="165"/>
+        <v>0</v>
+      </c>
+      <c r="J160" t="s">
+        <v>57</v>
+      </c>
+      <c r="K160">
+        <f t="shared" si="87"/>
+        <v>33600</v>
+      </c>
+      <c r="L160">
+        <v>9054</v>
+      </c>
+      <c r="M160">
+        <f>VLOOKUP(A160,Balance!E:L,8,FALSE)/2</f>
+        <v>15800</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>159</v>
+      </c>
+      <c r="B161" s="1" t="str">
+        <f t="shared" ref="B161:C161" si="166">B160</f>
+        <v>1-1</v>
+      </c>
+      <c r="C161">
+        <f t="shared" si="166"/>
+        <v>9054</v>
+      </c>
+      <c r="D161">
+        <f>VLOOKUP(A161,Balance!E:K,7,FALSE)</f>
+        <v>40000</v>
+      </c>
+      <c r="E161">
+        <f t="shared" si="84"/>
+        <v>1</v>
+      </c>
+      <c r="F161" s="2">
+        <f t="shared" si="85"/>
+        <v>1.0000000000000001E+235</v>
+      </c>
+      <c r="G161">
+        <f t="shared" ref="G161:I161" si="167">G160</f>
+        <v>1000</v>
+      </c>
+      <c r="H161">
+        <f t="shared" si="167"/>
+        <v>8</v>
+      </c>
+      <c r="I161">
+        <f t="shared" si="167"/>
+        <v>0</v>
+      </c>
+      <c r="J161" t="s">
+        <v>57</v>
+      </c>
+      <c r="K161">
+        <f t="shared" si="87"/>
+        <v>33800</v>
+      </c>
+      <c r="L161">
+        <v>9054</v>
+      </c>
+      <c r="M161">
+        <f>VLOOKUP(A161,Balance!E:L,8,FALSE)/2</f>
+        <v>15900</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:K157">
+  <conditionalFormatting sqref="A2:K161">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
@@ -8938,10 +9142,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4C63F0-02E4-48AB-8F58-B57B021B5DE4}">
-  <dimension ref="A1:Z164"/>
+  <dimension ref="A1:Z168"/>
   <sheetViews>
-    <sheetView topLeftCell="B144" workbookViewId="0">
-      <selection activeCell="I161" sqref="I161"/>
+    <sheetView topLeftCell="B153" workbookViewId="0">
+      <selection activeCell="J163" sqref="J163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12438,7 +12642,7 @@
         <v>9.9999999999999999E+144</v>
       </c>
       <c r="H78" s="17">
-        <f t="shared" ref="H78:H164" si="49">H74</f>
+        <f t="shared" ref="H78:H168" si="49">H74</f>
         <v>10</v>
       </c>
       <c r="I78" s="16" t="str" cm="1">
@@ -13219,7 +13423,7 @@
         <v>1E+168</v>
       </c>
       <c r="K102" s="22">
-        <f t="shared" ref="K102:K164" si="50">K98+1000</f>
+        <f t="shared" ref="K102:K168" si="50">K98+1000</f>
         <v>24000</v>
       </c>
       <c r="L102" s="22">
@@ -15211,6 +15415,134 @@
       </c>
       <c r="L164" s="22">
         <v>31000</v>
+      </c>
+    </row>
+    <row r="165" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E165" s="16">
+        <v>156</v>
+      </c>
+      <c r="F165" s="17" t="str">
+        <f t="shared" ref="F165:F168" si="84">H165&amp;I165</f>
+        <v>1난</v>
+      </c>
+      <c r="G165" s="17">
+        <f t="shared" ref="G165:G168" si="85">H165*J165</f>
+        <v>1.0000000000000001E+232</v>
+      </c>
+      <c r="H165" s="17">
+        <f t="shared" si="49"/>
+        <v>1</v>
+      </c>
+      <c r="I165" s="16" t="str" cm="1">
+        <f t="array" ref="I165">IF(AND(H164&gt;=1000,H165&lt;2),INDEX(N:N,MATCH(I164,N:N,0)+1,0),I164)</f>
+        <v>난</v>
+      </c>
+      <c r="J165" s="16" t="str">
+        <f t="shared" ref="J165:J168" si="86">VLOOKUP(I165,N:Q,4,FALSE)</f>
+        <v>1E+232</v>
+      </c>
+      <c r="K165" s="22">
+        <f t="shared" si="50"/>
+        <v>40000</v>
+      </c>
+      <c r="L165" s="22">
+        <v>31200</v>
+      </c>
+    </row>
+    <row r="166" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E166" s="16">
+        <v>157</v>
+      </c>
+      <c r="F166" s="17" t="str">
+        <f t="shared" si="84"/>
+        <v>10난</v>
+      </c>
+      <c r="G166" s="17">
+        <f t="shared" si="85"/>
+        <v>9.9999999999999997E+232</v>
+      </c>
+      <c r="H166" s="17">
+        <f t="shared" si="49"/>
+        <v>10</v>
+      </c>
+      <c r="I166" s="16" t="str" cm="1">
+        <f t="array" ref="I166">IF(AND(H165&gt;=1000,H166&lt;2),INDEX(N:N,MATCH(I165,N:N,0)+1,0),I165)</f>
+        <v>난</v>
+      </c>
+      <c r="J166" s="16" t="str">
+        <f t="shared" si="86"/>
+        <v>1E+232</v>
+      </c>
+      <c r="K166" s="22">
+        <f t="shared" si="50"/>
+        <v>40000</v>
+      </c>
+      <c r="L166" s="22">
+        <v>31400</v>
+      </c>
+    </row>
+    <row r="167" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E167" s="16">
+        <v>158</v>
+      </c>
+      <c r="F167" s="17" t="str">
+        <f t="shared" si="84"/>
+        <v>100난</v>
+      </c>
+      <c r="G167" s="17">
+        <f t="shared" si="85"/>
+        <v>1E+234</v>
+      </c>
+      <c r="H167" s="17">
+        <f t="shared" si="49"/>
+        <v>100</v>
+      </c>
+      <c r="I167" s="16" t="str" cm="1">
+        <f t="array" ref="I167">IF(AND(H166&gt;=1000,H167&lt;2),INDEX(N:N,MATCH(I166,N:N,0)+1,0),I166)</f>
+        <v>난</v>
+      </c>
+      <c r="J167" s="16" t="str">
+        <f t="shared" si="86"/>
+        <v>1E+232</v>
+      </c>
+      <c r="K167" s="22">
+        <f t="shared" si="50"/>
+        <v>40000</v>
+      </c>
+      <c r="L167" s="22">
+        <v>31600</v>
+      </c>
+    </row>
+    <row r="168" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E168" s="16">
+        <v>159</v>
+      </c>
+      <c r="F168" s="17" t="str">
+        <f t="shared" si="84"/>
+        <v>1000난</v>
+      </c>
+      <c r="G168" s="17">
+        <f t="shared" si="85"/>
+        <v>1.0000000000000001E+235</v>
+      </c>
+      <c r="H168" s="17">
+        <f t="shared" si="49"/>
+        <v>1000</v>
+      </c>
+      <c r="I168" s="16" t="str" cm="1">
+        <f t="array" ref="I168">IF(AND(H167&gt;=1000,H168&lt;2),INDEX(N:N,MATCH(I167,N:N,0)+1,0),I167)</f>
+        <v>난</v>
+      </c>
+      <c r="J168" s="16" t="str">
+        <f t="shared" si="86"/>
+        <v>1E+232</v>
+      </c>
+      <c r="K168" s="22">
+        <f t="shared" si="50"/>
+        <v>40000</v>
+      </c>
+      <c r="L168" s="22">
+        <v>31800</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/ByeolhoTower.xlsx
+++ b/Assets/06.Table/ByeolhoTower.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E998412E-4C55-439F-961F-F6026D752D22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E9E8184-E02C-4D46-8538-599B540462DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="93">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -418,6 +418,14 @@
   </si>
   <si>
     <t>군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맥</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1010,11 +1018,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M161"/>
+  <dimension ref="A1:M165"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G159" sqref="G159"/>
+      <selection pane="bottomLeft" activeCell="F162" sqref="F162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6901,11 +6909,11 @@
         <v>30000</v>
       </c>
       <c r="E118">
-        <f t="shared" ref="E118:E161" si="84">E117</f>
+        <f t="shared" ref="E118:E165" si="84">E117</f>
         <v>1</v>
       </c>
       <c r="F118" s="2">
-        <f t="shared" ref="F118:F161" si="85">F117*10</f>
+        <f t="shared" ref="F118:F165" si="85">F117*10</f>
         <v>9.9999999999999991E+191</v>
       </c>
       <c r="G118">
@@ -6924,7 +6932,7 @@
         <v>57</v>
       </c>
       <c r="K118">
-        <f t="shared" ref="K118:K161" si="87">K117+200</f>
+        <f t="shared" ref="K118:K165" si="87">K117+200</f>
         <v>25200</v>
       </c>
       <c r="L118">
@@ -9128,9 +9136,213 @@
         <v>15900</v>
       </c>
     </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>160</v>
+      </c>
+      <c r="B162" s="1" t="str">
+        <f t="shared" ref="B162:C162" si="168">B161</f>
+        <v>1-1</v>
+      </c>
+      <c r="C162">
+        <f t="shared" si="168"/>
+        <v>9054</v>
+      </c>
+      <c r="D162">
+        <f>VLOOKUP(A162,Balance!E:K,7,FALSE)</f>
+        <v>41000</v>
+      </c>
+      <c r="E162">
+        <f t="shared" si="84"/>
+        <v>1</v>
+      </c>
+      <c r="F162" s="2">
+        <f t="shared" si="85"/>
+        <v>1.0000000000000001E+236</v>
+      </c>
+      <c r="G162">
+        <f t="shared" ref="G162:I162" si="169">G161</f>
+        <v>1000</v>
+      </c>
+      <c r="H162">
+        <f t="shared" si="169"/>
+        <v>8</v>
+      </c>
+      <c r="I162">
+        <f t="shared" si="169"/>
+        <v>0</v>
+      </c>
+      <c r="J162" t="s">
+        <v>57</v>
+      </c>
+      <c r="K162">
+        <f t="shared" si="87"/>
+        <v>34000</v>
+      </c>
+      <c r="L162">
+        <v>9054</v>
+      </c>
+      <c r="M162">
+        <f>VLOOKUP(A162,Balance!E:L,8,FALSE)/2</f>
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>161</v>
+      </c>
+      <c r="B163" s="1" t="str">
+        <f t="shared" ref="B163:C163" si="170">B162</f>
+        <v>1-1</v>
+      </c>
+      <c r="C163">
+        <f t="shared" si="170"/>
+        <v>9054</v>
+      </c>
+      <c r="D163">
+        <f>VLOOKUP(A163,Balance!E:K,7,FALSE)</f>
+        <v>41000</v>
+      </c>
+      <c r="E163">
+        <f t="shared" si="84"/>
+        <v>1</v>
+      </c>
+      <c r="F163" s="2">
+        <f t="shared" si="85"/>
+        <v>1.0000000000000001E+237</v>
+      </c>
+      <c r="G163">
+        <f t="shared" ref="G163:I163" si="171">G162</f>
+        <v>1000</v>
+      </c>
+      <c r="H163">
+        <f t="shared" si="171"/>
+        <v>8</v>
+      </c>
+      <c r="I163">
+        <f t="shared" si="171"/>
+        <v>0</v>
+      </c>
+      <c r="J163" t="s">
+        <v>57</v>
+      </c>
+      <c r="K163">
+        <f t="shared" si="87"/>
+        <v>34200</v>
+      </c>
+      <c r="L163">
+        <v>9054</v>
+      </c>
+      <c r="M163">
+        <f>VLOOKUP(A163,Balance!E:L,8,FALSE)/2</f>
+        <v>16100</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>162</v>
+      </c>
+      <c r="B164" s="1" t="str">
+        <f t="shared" ref="B164:C164" si="172">B163</f>
+        <v>1-1</v>
+      </c>
+      <c r="C164">
+        <f t="shared" si="172"/>
+        <v>9054</v>
+      </c>
+      <c r="D164">
+        <f>VLOOKUP(A164,Balance!E:K,7,FALSE)</f>
+        <v>41000</v>
+      </c>
+      <c r="E164">
+        <f t="shared" si="84"/>
+        <v>1</v>
+      </c>
+      <c r="F164" s="2">
+        <f t="shared" si="85"/>
+        <v>1E+238</v>
+      </c>
+      <c r="G164">
+        <f t="shared" ref="G164:I164" si="173">G163</f>
+        <v>1000</v>
+      </c>
+      <c r="H164">
+        <f t="shared" si="173"/>
+        <v>8</v>
+      </c>
+      <c r="I164">
+        <f t="shared" si="173"/>
+        <v>0</v>
+      </c>
+      <c r="J164" t="s">
+        <v>57</v>
+      </c>
+      <c r="K164">
+        <f t="shared" si="87"/>
+        <v>34400</v>
+      </c>
+      <c r="L164">
+        <v>9054</v>
+      </c>
+      <c r="M164">
+        <f>VLOOKUP(A164,Balance!E:L,8,FALSE)/2</f>
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>163</v>
+      </c>
+      <c r="B165" s="1" t="str">
+        <f t="shared" ref="B165:C165" si="174">B164</f>
+        <v>1-1</v>
+      </c>
+      <c r="C165">
+        <f t="shared" si="174"/>
+        <v>9054</v>
+      </c>
+      <c r="D165">
+        <f>VLOOKUP(A165,Balance!E:K,7,FALSE)</f>
+        <v>41000</v>
+      </c>
+      <c r="E165">
+        <f t="shared" si="84"/>
+        <v>1</v>
+      </c>
+      <c r="F165" s="2">
+        <f t="shared" si="85"/>
+        <v>1.0000000000000001E+239</v>
+      </c>
+      <c r="G165">
+        <f t="shared" ref="G165:I165" si="175">G164</f>
+        <v>1000</v>
+      </c>
+      <c r="H165">
+        <f t="shared" si="175"/>
+        <v>8</v>
+      </c>
+      <c r="I165">
+        <f t="shared" si="175"/>
+        <v>0</v>
+      </c>
+      <c r="J165" t="s">
+        <v>57</v>
+      </c>
+      <c r="K165">
+        <f t="shared" si="87"/>
+        <v>34600</v>
+      </c>
+      <c r="L165">
+        <v>9054</v>
+      </c>
+      <c r="M165">
+        <f>VLOOKUP(A165,Balance!E:L,8,FALSE)/2</f>
+        <v>16300</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:K161">
+  <conditionalFormatting sqref="A2:K165">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
@@ -9142,10 +9354,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4C63F0-02E4-48AB-8F58-B57B021B5DE4}">
-  <dimension ref="A1:Z168"/>
+  <dimension ref="A1:Z172"/>
   <sheetViews>
-    <sheetView topLeftCell="B153" workbookViewId="0">
-      <selection activeCell="J163" sqref="J163"/>
+    <sheetView topLeftCell="B152" workbookViewId="0">
+      <selection activeCell="H169" sqref="H169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12308,6 +12520,20 @@
         <v>15800</v>
       </c>
       <c r="M67" s="22"/>
+      <c r="N67" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="O67" s="16">
+        <v>240</v>
+      </c>
+      <c r="P67" s="17">
+        <f t="shared" ref="P67:P68" si="46">POWER(10,O67)</f>
+        <v>1E+240</v>
+      </c>
+      <c r="Q67" s="17" t="str">
+        <f t="shared" ref="Q67:Q68" si="47">RIGHT(P67,O67)</f>
+        <v>1E+240</v>
+      </c>
     </row>
     <row r="68" spans="5:26" x14ac:dyDescent="0.3">
       <c r="E68" s="16">
@@ -12340,13 +12566,27 @@
         <v>15900</v>
       </c>
       <c r="M68" s="22"/>
+      <c r="N68" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="O68" s="16">
+        <v>244</v>
+      </c>
+      <c r="P68" s="17">
+        <f t="shared" si="46"/>
+        <v>1.0000000000000001E+244</v>
+      </c>
+      <c r="Q68" s="17" t="str">
+        <f t="shared" si="47"/>
+        <v>1E+244</v>
+      </c>
     </row>
     <row r="69" spans="5:26" x14ac:dyDescent="0.3">
       <c r="E69" s="16">
         <v>60</v>
       </c>
       <c r="F69" s="17" t="str">
-        <f t="shared" ref="F69:F104" si="46">H69&amp;I69</f>
+        <f t="shared" ref="F69:F104" si="48">H69&amp;I69</f>
         <v>1적</v>
       </c>
       <c r="G69" s="17">
@@ -12378,7 +12618,7 @@
         <v>61</v>
       </c>
       <c r="F70" s="17" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>10적</v>
       </c>
       <c r="G70" s="17">
@@ -12410,7 +12650,7 @@
         <v>62</v>
       </c>
       <c r="F71" s="17" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>100적</v>
       </c>
       <c r="G71" s="17">
@@ -12442,7 +12682,7 @@
         <v>63</v>
       </c>
       <c r="F72" s="17" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1000적</v>
       </c>
       <c r="G72" s="17">
@@ -12474,7 +12714,7 @@
         <v>64</v>
       </c>
       <c r="F73" s="17" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1고</v>
       </c>
       <c r="G73" s="17">
@@ -12490,7 +12730,7 @@
         <v>고</v>
       </c>
       <c r="J73" s="16" t="str">
-        <f t="shared" ref="J73:J104" si="47">VLOOKUP(I73,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J73:J104" si="49">VLOOKUP(I73,N:Q,4,FALSE)</f>
         <v>1E+140</v>
       </c>
       <c r="K73" s="22">
@@ -12506,11 +12746,11 @@
         <v>65</v>
       </c>
       <c r="F74" s="17" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>10고</v>
       </c>
       <c r="G74" s="17">
-        <f t="shared" ref="G74:G104" si="48">H74*J74</f>
+        <f t="shared" ref="G74:G104" si="50">H74*J74</f>
         <v>1E+141</v>
       </c>
       <c r="H74" s="17">
@@ -12522,7 +12762,7 @@
         <v>고</v>
       </c>
       <c r="J74" s="16" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1E+140</v>
       </c>
       <c r="K74" s="22">
@@ -12538,11 +12778,11 @@
         <v>66</v>
       </c>
       <c r="F75" s="17" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>100고</v>
       </c>
       <c r="G75" s="17">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1.0000000000000001E+142</v>
       </c>
       <c r="H75" s="17">
@@ -12554,7 +12794,7 @@
         <v>고</v>
       </c>
       <c r="J75" s="16" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1E+140</v>
       </c>
       <c r="K75" s="22">
@@ -12570,11 +12810,11 @@
         <v>67</v>
       </c>
       <c r="F76" s="17" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1000고</v>
       </c>
       <c r="G76" s="17">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1E+143</v>
       </c>
       <c r="H76" s="17">
@@ -12586,7 +12826,7 @@
         <v>고</v>
       </c>
       <c r="J76" s="16" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1E+140</v>
       </c>
       <c r="K76" s="22">
@@ -12602,11 +12842,11 @@
         <v>68</v>
       </c>
       <c r="F77" s="17" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1화</v>
       </c>
       <c r="G77" s="17">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1E+144</v>
       </c>
       <c r="H77" s="17">
@@ -12618,7 +12858,7 @@
         <v>화</v>
       </c>
       <c r="J77" s="16" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1E+144</v>
       </c>
       <c r="K77" s="22">
@@ -12634,15 +12874,15 @@
         <v>69</v>
       </c>
       <c r="F78" s="17" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>10화</v>
       </c>
       <c r="G78" s="17">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>9.9999999999999999E+144</v>
       </c>
       <c r="H78" s="17">
-        <f t="shared" ref="H78:H168" si="49">H74</f>
+        <f t="shared" ref="H78:H172" si="51">H74</f>
         <v>10</v>
       </c>
       <c r="I78" s="16" t="str" cm="1">
@@ -12650,7 +12890,7 @@
         <v>화</v>
       </c>
       <c r="J78" s="16" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1E+144</v>
       </c>
       <c r="K78" s="22">
@@ -12666,15 +12906,15 @@
         <v>70</v>
       </c>
       <c r="F79" s="17" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>100화</v>
       </c>
       <c r="G79" s="17">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>9.9999999999999993E+145</v>
       </c>
       <c r="H79" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>100</v>
       </c>
       <c r="I79" s="16" t="str" cm="1">
@@ -12682,7 +12922,7 @@
         <v>화</v>
       </c>
       <c r="J79" s="16" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1E+144</v>
       </c>
       <c r="K79" s="22">
@@ -12698,15 +12938,15 @@
         <v>71</v>
       </c>
       <c r="F80" s="17" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1000화</v>
       </c>
       <c r="G80" s="17">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>9.9999999999999998E+146</v>
       </c>
       <c r="H80" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1000</v>
       </c>
       <c r="I80" s="16" t="str" cm="1">
@@ -12714,7 +12954,7 @@
         <v>화</v>
       </c>
       <c r="J80" s="16" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1E+144</v>
       </c>
       <c r="K80" s="22">
@@ -12730,15 +12970,15 @@
         <v>72</v>
       </c>
       <c r="F81" s="17" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1명</v>
       </c>
       <c r="G81" s="17">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1E+148</v>
       </c>
       <c r="H81" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="I81" s="16" t="str" cm="1">
@@ -12746,7 +12986,7 @@
         <v>명</v>
       </c>
       <c r="J81" s="16" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1E+148</v>
       </c>
       <c r="K81" s="22">
@@ -12762,15 +13002,15 @@
         <v>73</v>
       </c>
       <c r="F82" s="17" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>10명</v>
       </c>
       <c r="G82" s="17">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1E+149</v>
       </c>
       <c r="H82" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>10</v>
       </c>
       <c r="I82" s="16" t="str" cm="1">
@@ -12778,7 +13018,7 @@
         <v>명</v>
       </c>
       <c r="J82" s="16" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1E+148</v>
       </c>
       <c r="K82" s="22">
@@ -12794,15 +13034,15 @@
         <v>74</v>
       </c>
       <c r="F83" s="17" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>100명</v>
       </c>
       <c r="G83" s="17">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>9.9999999999999998E+149</v>
       </c>
       <c r="H83" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>100</v>
       </c>
       <c r="I83" s="16" t="str" cm="1">
@@ -12810,7 +13050,7 @@
         <v>명</v>
       </c>
       <c r="J83" s="16" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1E+148</v>
       </c>
       <c r="K83" s="22">
@@ -12826,15 +13066,15 @@
         <v>75</v>
       </c>
       <c r="F84" s="17" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1000명</v>
       </c>
       <c r="G84" s="17">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1E+151</v>
       </c>
       <c r="H84" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1000</v>
       </c>
       <c r="I84" s="16" t="str" cm="1">
@@ -12842,7 +13082,7 @@
         <v>명</v>
       </c>
       <c r="J84" s="16" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1E+148</v>
       </c>
       <c r="K84" s="22">
@@ -12858,15 +13098,15 @@
         <v>76</v>
       </c>
       <c r="F85" s="17" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1월</v>
       </c>
       <c r="G85" s="17">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1E+152</v>
       </c>
       <c r="H85" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="I85" s="16" t="str" cm="1">
@@ -12874,7 +13114,7 @@
         <v>월</v>
       </c>
       <c r="J85" s="16" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1E+152</v>
       </c>
       <c r="K85" s="22">
@@ -12890,15 +13130,15 @@
         <v>77</v>
       </c>
       <c r="F86" s="17" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>10월</v>
       </c>
       <c r="G86" s="17">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1E+153</v>
       </c>
       <c r="H86" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>10</v>
       </c>
       <c r="I86" s="16" t="str" cm="1">
@@ -12906,7 +13146,7 @@
         <v>월</v>
       </c>
       <c r="J86" s="16" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1E+152</v>
       </c>
       <c r="K86" s="22">
@@ -12922,15 +13162,15 @@
         <v>78</v>
       </c>
       <c r="F87" s="17" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>100월</v>
       </c>
       <c r="G87" s="17">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1E+154</v>
       </c>
       <c r="H87" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>100</v>
       </c>
       <c r="I87" s="16" t="str" cm="1">
@@ -12938,7 +13178,7 @@
         <v>월</v>
       </c>
       <c r="J87" s="16" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1E+152</v>
       </c>
       <c r="K87" s="22">
@@ -12954,15 +13194,15 @@
         <v>79</v>
       </c>
       <c r="F88" s="17" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1000월</v>
       </c>
       <c r="G88" s="17">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1E+155</v>
       </c>
       <c r="H88" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1000</v>
       </c>
       <c r="I88" s="16" t="str" cm="1">
@@ -12970,7 +13210,7 @@
         <v>월</v>
       </c>
       <c r="J88" s="16" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1E+152</v>
       </c>
       <c r="K88" s="22">
@@ -12986,15 +13226,15 @@
         <v>80</v>
       </c>
       <c r="F89" s="17" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1후</v>
       </c>
       <c r="G89" s="17">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>9.9999999999999998E+155</v>
       </c>
       <c r="H89" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="I89" s="16" t="str" cm="1">
@@ -13002,7 +13242,7 @@
         <v>후</v>
       </c>
       <c r="J89" s="16" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1E+156</v>
       </c>
       <c r="K89" s="22">
@@ -13018,15 +13258,15 @@
         <v>81</v>
       </c>
       <c r="F90" s="17" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>10후</v>
       </c>
       <c r="G90" s="17">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>9.9999999999999998E+156</v>
       </c>
       <c r="H90" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>10</v>
       </c>
       <c r="I90" s="16" t="str" cm="1">
@@ -13034,7 +13274,7 @@
         <v>후</v>
       </c>
       <c r="J90" s="16" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1E+156</v>
       </c>
       <c r="K90" s="22">
@@ -13050,15 +13290,15 @@
         <v>82</v>
       </c>
       <c r="F91" s="17" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>100후</v>
       </c>
       <c r="G91" s="17">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>9.9999999999999995E+157</v>
       </c>
       <c r="H91" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>100</v>
       </c>
       <c r="I91" s="16" t="str" cm="1">
@@ -13066,7 +13306,7 @@
         <v>후</v>
       </c>
       <c r="J91" s="16" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1E+156</v>
       </c>
       <c r="K91" s="22">
@@ -13082,15 +13322,15 @@
         <v>83</v>
       </c>
       <c r="F92" s="17" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1000후</v>
       </c>
       <c r="G92" s="17">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>9.9999999999999993E+158</v>
       </c>
       <c r="H92" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1000</v>
       </c>
       <c r="I92" s="16" t="str" cm="1">
@@ -13098,7 +13338,7 @@
         <v>후</v>
       </c>
       <c r="J92" s="16" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1E+156</v>
       </c>
       <c r="K92" s="22">
@@ -13114,15 +13354,15 @@
         <v>84</v>
       </c>
       <c r="F93" s="17" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1단</v>
       </c>
       <c r="G93" s="17">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1E+160</v>
       </c>
       <c r="H93" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="I93" s="16" t="str" cm="1">
@@ -13130,7 +13370,7 @@
         <v>단</v>
       </c>
       <c r="J93" s="16" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1E+160</v>
       </c>
       <c r="K93" s="22">
@@ -13146,15 +13386,15 @@
         <v>85</v>
       </c>
       <c r="F94" s="17" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>10단</v>
       </c>
       <c r="G94" s="17">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1E+161</v>
       </c>
       <c r="H94" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>10</v>
       </c>
       <c r="I94" s="16" t="str" cm="1">
@@ -13162,7 +13402,7 @@
         <v>단</v>
       </c>
       <c r="J94" s="16" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1E+160</v>
       </c>
       <c r="K94" s="22">
@@ -13178,15 +13418,15 @@
         <v>86</v>
       </c>
       <c r="F95" s="17" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>100단</v>
       </c>
       <c r="G95" s="17">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>9.9999999999999994E+161</v>
       </c>
       <c r="H95" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>100</v>
       </c>
       <c r="I95" s="16" t="str" cm="1">
@@ -13194,7 +13434,7 @@
         <v>단</v>
       </c>
       <c r="J95" s="16" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1E+160</v>
       </c>
       <c r="K95" s="22">
@@ -13210,15 +13450,15 @@
         <v>87</v>
       </c>
       <c r="F96" s="17" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1000단</v>
       </c>
       <c r="G96" s="17">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>9.9999999999999994E+162</v>
       </c>
       <c r="H96" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1000</v>
       </c>
       <c r="I96" s="16" t="str" cm="1">
@@ -13226,7 +13466,7 @@
         <v>단</v>
       </c>
       <c r="J96" s="16" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1E+160</v>
       </c>
       <c r="K96" s="22">
@@ -13242,15 +13482,15 @@
         <v>88</v>
       </c>
       <c r="F97" s="17" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1절</v>
       </c>
       <c r="G97" s="17">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1E+164</v>
       </c>
       <c r="H97" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="I97" s="16" t="str" cm="1">
@@ -13258,7 +13498,7 @@
         <v>절</v>
       </c>
       <c r="J97" s="16" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1E+164</v>
       </c>
       <c r="K97" s="22">
@@ -13274,15 +13514,15 @@
         <v>89</v>
       </c>
       <c r="F98" s="17" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>10절</v>
       </c>
       <c r="G98" s="17">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1.0000000000000001E+165</v>
       </c>
       <c r="H98" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>10</v>
       </c>
       <c r="I98" s="16" t="str" cm="1">
@@ -13290,7 +13530,7 @@
         <v>절</v>
       </c>
       <c r="J98" s="16" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1E+164</v>
       </c>
       <c r="K98" s="22">
@@ -13306,15 +13546,15 @@
         <v>90</v>
       </c>
       <c r="F99" s="17" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>100절</v>
       </c>
       <c r="G99" s="17">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>9.9999999999999994E+165</v>
       </c>
       <c r="H99" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>100</v>
       </c>
       <c r="I99" s="16" t="str" cm="1">
@@ -13322,7 +13562,7 @@
         <v>절</v>
       </c>
       <c r="J99" s="16" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1E+164</v>
       </c>
       <c r="K99" s="22">
@@ -13338,15 +13578,15 @@
         <v>91</v>
       </c>
       <c r="F100" s="17" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1000절</v>
       </c>
       <c r="G100" s="17">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1E+167</v>
       </c>
       <c r="H100" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1000</v>
       </c>
       <c r="I100" s="16" t="str" cm="1">
@@ -13354,7 +13594,7 @@
         <v>절</v>
       </c>
       <c r="J100" s="16" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1E+164</v>
       </c>
       <c r="K100" s="22">
@@ -13370,15 +13610,15 @@
         <v>92</v>
       </c>
       <c r="F101" s="17" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1격</v>
       </c>
       <c r="G101" s="17">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>9.9999999999999993E+167</v>
       </c>
       <c r="H101" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="I101" s="16" t="str" cm="1">
@@ -13386,7 +13626,7 @@
         <v>격</v>
       </c>
       <c r="J101" s="16" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1E+168</v>
       </c>
       <c r="K101" s="22">
@@ -13403,15 +13643,15 @@
         <v>93</v>
       </c>
       <c r="F102" s="17" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>10격</v>
       </c>
       <c r="G102" s="17">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>9.9999999999999993E+168</v>
       </c>
       <c r="H102" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>10</v>
       </c>
       <c r="I102" s="16" t="str" cm="1">
@@ -13419,11 +13659,11 @@
         <v>격</v>
       </c>
       <c r="J102" s="16" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1E+168</v>
       </c>
       <c r="K102" s="22">
-        <f t="shared" ref="K102:K168" si="50">K98+1000</f>
+        <f t="shared" ref="K102:K172" si="52">K98+1000</f>
         <v>24000</v>
       </c>
       <c r="L102" s="22">
@@ -13436,15 +13676,15 @@
         <v>94</v>
       </c>
       <c r="F103" s="17" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>100격</v>
       </c>
       <c r="G103" s="17">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>9.999999999999999E+169</v>
       </c>
       <c r="H103" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>100</v>
       </c>
       <c r="I103" s="16" t="str" cm="1">
@@ -13452,11 +13692,11 @@
         <v>격</v>
       </c>
       <c r="J103" s="16" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1E+168</v>
       </c>
       <c r="K103" s="22">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>24000</v>
       </c>
       <c r="L103" s="22">
@@ -13469,15 +13709,15 @@
         <v>95</v>
       </c>
       <c r="F104" s="17" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1000격</v>
       </c>
       <c r="G104" s="17">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>9.9999999999999995E+170</v>
       </c>
       <c r="H104" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1000</v>
       </c>
       <c r="I104" s="16" t="str" cm="1">
@@ -13485,11 +13725,11 @@
         <v>격</v>
       </c>
       <c r="J104" s="16" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1E+168</v>
       </c>
       <c r="K104" s="22">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>24000</v>
       </c>
       <c r="L104" s="22">
@@ -13502,15 +13742,15 @@
         <v>96</v>
       </c>
       <c r="F105" s="17" t="str">
-        <f t="shared" ref="F105:F112" si="51">H105&amp;I105</f>
+        <f t="shared" ref="F105:F112" si="53">H105&amp;I105</f>
         <v>1창</v>
       </c>
       <c r="G105" s="17">
-        <f t="shared" ref="G105:G112" si="52">H105*J105</f>
+        <f t="shared" ref="G105:G112" si="54">H105*J105</f>
         <v>1.0000000000000001E+172</v>
       </c>
       <c r="H105" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="I105" s="16" t="str" cm="1">
@@ -13518,11 +13758,11 @@
         <v>창</v>
       </c>
       <c r="J105" s="16" t="str">
-        <f t="shared" ref="J105:J112" si="53">VLOOKUP(I105,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J105:J112" si="55">VLOOKUP(I105,N:Q,4,FALSE)</f>
         <v>1E+172</v>
       </c>
       <c r="K105" s="22">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>25000</v>
       </c>
       <c r="L105" s="22">
@@ -13534,15 +13774,15 @@
         <v>97</v>
       </c>
       <c r="F106" s="17" t="str">
+        <f t="shared" si="53"/>
+        <v>10창</v>
+      </c>
+      <c r="G106" s="17">
+        <f t="shared" si="54"/>
+        <v>1E+173</v>
+      </c>
+      <c r="H106" s="17">
         <f t="shared" si="51"/>
-        <v>10창</v>
-      </c>
-      <c r="G106" s="17">
-        <f t="shared" si="52"/>
-        <v>1E+173</v>
-      </c>
-      <c r="H106" s="17">
-        <f t="shared" si="49"/>
         <v>10</v>
       </c>
       <c r="I106" s="16" t="str" cm="1">
@@ -13550,11 +13790,11 @@
         <v>창</v>
       </c>
       <c r="J106" s="16" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1E+172</v>
       </c>
       <c r="K106" s="22">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>25000</v>
       </c>
       <c r="L106" s="22">
@@ -13566,15 +13806,15 @@
         <v>98</v>
       </c>
       <c r="F107" s="17" t="str">
+        <f t="shared" si="53"/>
+        <v>100창</v>
+      </c>
+      <c r="G107" s="17">
+        <f t="shared" si="54"/>
+        <v>1.0000000000000001E+174</v>
+      </c>
+      <c r="H107" s="17">
         <f t="shared" si="51"/>
-        <v>100창</v>
-      </c>
-      <c r="G107" s="17">
-        <f t="shared" si="52"/>
-        <v>1.0000000000000001E+174</v>
-      </c>
-      <c r="H107" s="17">
-        <f t="shared" si="49"/>
         <v>100</v>
       </c>
       <c r="I107" s="16" t="str" cm="1">
@@ -13582,11 +13822,11 @@
         <v>창</v>
       </c>
       <c r="J107" s="16" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1E+172</v>
       </c>
       <c r="K107" s="22">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>25000</v>
       </c>
       <c r="L107" s="22">
@@ -13598,15 +13838,15 @@
         <v>99</v>
       </c>
       <c r="F108" s="17" t="str">
+        <f t="shared" si="53"/>
+        <v>1000창</v>
+      </c>
+      <c r="G108" s="17">
+        <f t="shared" si="54"/>
+        <v>1.0000000000000001E+175</v>
+      </c>
+      <c r="H108" s="17">
         <f t="shared" si="51"/>
-        <v>1000창</v>
-      </c>
-      <c r="G108" s="17">
-        <f t="shared" si="52"/>
-        <v>1.0000000000000001E+175</v>
-      </c>
-      <c r="H108" s="17">
-        <f t="shared" si="49"/>
         <v>1000</v>
       </c>
       <c r="I108" s="16" t="str" cm="1">
@@ -13614,11 +13854,11 @@
         <v>창</v>
       </c>
       <c r="J108" s="16" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1E+172</v>
       </c>
       <c r="K108" s="22">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>25000</v>
       </c>
       <c r="L108" s="22">
@@ -13630,15 +13870,15 @@
         <v>100</v>
       </c>
       <c r="F109" s="17" t="str">
+        <f t="shared" si="53"/>
+        <v>1공</v>
+      </c>
+      <c r="G109" s="17">
+        <f t="shared" si="54"/>
+        <v>1E+176</v>
+      </c>
+      <c r="H109" s="17">
         <f t="shared" si="51"/>
-        <v>1공</v>
-      </c>
-      <c r="G109" s="17">
-        <f t="shared" si="52"/>
-        <v>1E+176</v>
-      </c>
-      <c r="H109" s="17">
-        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="I109" s="16" t="str" cm="1">
@@ -13646,11 +13886,11 @@
         <v>공</v>
       </c>
       <c r="J109" s="16" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1E+176</v>
       </c>
       <c r="K109" s="22">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>26000</v>
       </c>
       <c r="L109" s="22">
@@ -13662,15 +13902,15 @@
         <v>101</v>
       </c>
       <c r="F110" s="17" t="str">
+        <f t="shared" si="53"/>
+        <v>10공</v>
+      </c>
+      <c r="G110" s="17">
+        <f t="shared" si="54"/>
+        <v>1E+177</v>
+      </c>
+      <c r="H110" s="17">
         <f t="shared" si="51"/>
-        <v>10공</v>
-      </c>
-      <c r="G110" s="17">
-        <f t="shared" si="52"/>
-        <v>1E+177</v>
-      </c>
-      <c r="H110" s="17">
-        <f t="shared" si="49"/>
         <v>10</v>
       </c>
       <c r="I110" s="16" t="str" cm="1">
@@ -13678,11 +13918,11 @@
         <v>공</v>
       </c>
       <c r="J110" s="16" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1E+176</v>
       </c>
       <c r="K110" s="22">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>26000</v>
       </c>
       <c r="L110" s="22">
@@ -13694,15 +13934,15 @@
         <v>102</v>
       </c>
       <c r="F111" s="17" t="str">
+        <f t="shared" si="53"/>
+        <v>100공</v>
+      </c>
+      <c r="G111" s="17">
+        <f t="shared" si="54"/>
+        <v>1.0000000000000001E+178</v>
+      </c>
+      <c r="H111" s="17">
         <f t="shared" si="51"/>
-        <v>100공</v>
-      </c>
-      <c r="G111" s="17">
-        <f t="shared" si="52"/>
-        <v>1.0000000000000001E+178</v>
-      </c>
-      <c r="H111" s="17">
-        <f t="shared" si="49"/>
         <v>100</v>
       </c>
       <c r="I111" s="16" t="str" cm="1">
@@ -13710,11 +13950,11 @@
         <v>공</v>
       </c>
       <c r="J111" s="16" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1E+176</v>
       </c>
       <c r="K111" s="22">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>26000</v>
       </c>
       <c r="L111" s="22">
@@ -13726,15 +13966,15 @@
         <v>103</v>
       </c>
       <c r="F112" s="17" t="str">
+        <f t="shared" si="53"/>
+        <v>1000공</v>
+      </c>
+      <c r="G112" s="17">
+        <f t="shared" si="54"/>
+        <v>9.9999999999999998E+178</v>
+      </c>
+      <c r="H112" s="17">
         <f t="shared" si="51"/>
-        <v>1000공</v>
-      </c>
-      <c r="G112" s="17">
-        <f t="shared" si="52"/>
-        <v>9.9999999999999998E+178</v>
-      </c>
-      <c r="H112" s="17">
-        <f t="shared" si="49"/>
         <v>1000</v>
       </c>
       <c r="I112" s="16" t="str" cm="1">
@@ -13742,11 +13982,11 @@
         <v>공</v>
       </c>
       <c r="J112" s="16" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1E+176</v>
       </c>
       <c r="K112" s="22">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>26000</v>
       </c>
       <c r="L112" s="22">
@@ -13758,15 +13998,15 @@
         <v>104</v>
       </c>
       <c r="F113" s="17" t="str">
-        <f t="shared" ref="F113:F120" si="54">H113&amp;I113</f>
+        <f t="shared" ref="F113:F120" si="56">H113&amp;I113</f>
         <v>1채</v>
       </c>
       <c r="G113" s="17">
-        <f t="shared" ref="G113:G120" si="55">H113*J113</f>
+        <f t="shared" ref="G113:G120" si="57">H113*J113</f>
         <v>1E+180</v>
       </c>
       <c r="H113" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="I113" s="16" t="str" cm="1">
@@ -13774,11 +14014,11 @@
         <v>채</v>
       </c>
       <c r="J113" s="16" t="str">
-        <f t="shared" ref="J113:J120" si="56">VLOOKUP(I113,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J113:J120" si="58">VLOOKUP(I113,N:Q,4,FALSE)</f>
         <v>1E+180</v>
       </c>
       <c r="K113" s="22">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>27000</v>
       </c>
       <c r="L113" s="22">
@@ -13790,15 +14030,15 @@
         <v>105</v>
       </c>
       <c r="F114" s="17" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>10채</v>
       </c>
       <c r="G114" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>9.9999999999999992E+180</v>
       </c>
       <c r="H114" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>10</v>
       </c>
       <c r="I114" s="16" t="str" cm="1">
@@ -13806,11 +14046,11 @@
         <v>채</v>
       </c>
       <c r="J114" s="16" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>1E+180</v>
       </c>
       <c r="K114" s="22">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>27000</v>
       </c>
       <c r="L114" s="22">
@@ -13822,15 +14062,15 @@
         <v>106</v>
       </c>
       <c r="F115" s="17" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>100채</v>
       </c>
       <c r="G115" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>1.0000000000000001E+182</v>
       </c>
       <c r="H115" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>100</v>
       </c>
       <c r="I115" s="16" t="str" cm="1">
@@ -13838,11 +14078,11 @@
         <v>채</v>
       </c>
       <c r="J115" s="16" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>1E+180</v>
       </c>
       <c r="K115" s="22">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>27000</v>
       </c>
       <c r="L115" s="22">
@@ -13854,15 +14094,15 @@
         <v>107</v>
       </c>
       <c r="F116" s="17" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>1000채</v>
       </c>
       <c r="G116" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>1.0000000000000001E+183</v>
       </c>
       <c r="H116" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1000</v>
       </c>
       <c r="I116" s="16" t="str" cm="1">
@@ -13870,11 +14110,11 @@
         <v>채</v>
       </c>
       <c r="J116" s="16" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>1E+180</v>
       </c>
       <c r="K116" s="22">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>27000</v>
       </c>
       <c r="L116" s="22">
@@ -13886,15 +14126,15 @@
         <v>108</v>
       </c>
       <c r="F117" s="17" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>1피</v>
       </c>
       <c r="G117" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>1E+184</v>
       </c>
       <c r="H117" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="I117" s="16" t="str" cm="1">
@@ -13902,11 +14142,11 @@
         <v>피</v>
       </c>
       <c r="J117" s="16" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>1E+184</v>
       </c>
       <c r="K117" s="22">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>28000</v>
       </c>
       <c r="L117" s="22">
@@ -13918,15 +14158,15 @@
         <v>109</v>
       </c>
       <c r="F118" s="17" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>10피</v>
       </c>
       <c r="G118" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>9.9999999999999998E+184</v>
       </c>
       <c r="H118" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>10</v>
       </c>
       <c r="I118" s="16" t="str" cm="1">
@@ -13934,11 +14174,11 @@
         <v>피</v>
       </c>
       <c r="J118" s="16" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>1E+184</v>
       </c>
       <c r="K118" s="22">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>28000</v>
       </c>
       <c r="L118" s="22">
@@ -13950,15 +14190,15 @@
         <v>110</v>
       </c>
       <c r="F119" s="17" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>100피</v>
       </c>
       <c r="G119" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>9.9999999999999998E+185</v>
       </c>
       <c r="H119" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>100</v>
       </c>
       <c r="I119" s="16" t="str" cm="1">
@@ -13966,11 +14206,11 @@
         <v>피</v>
       </c>
       <c r="J119" s="16" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>1E+184</v>
       </c>
       <c r="K119" s="22">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>28000</v>
       </c>
       <c r="L119" s="22">
@@ -13982,15 +14222,15 @@
         <v>111</v>
       </c>
       <c r="F120" s="17" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>1000피</v>
       </c>
       <c r="G120" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>1.0000000000000001E+187</v>
       </c>
       <c r="H120" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1000</v>
       </c>
       <c r="I120" s="16" t="str" cm="1">
@@ -13998,11 +14238,11 @@
         <v>피</v>
       </c>
       <c r="J120" s="16" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>1E+184</v>
       </c>
       <c r="K120" s="22">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>28000</v>
       </c>
       <c r="L120" s="22">
@@ -14014,15 +14254,15 @@
         <v>112</v>
       </c>
       <c r="F121" s="17" t="str">
-        <f t="shared" ref="F121:F124" si="57">H121&amp;I121</f>
+        <f t="shared" ref="F121:F124" si="59">H121&amp;I121</f>
         <v>1동</v>
       </c>
       <c r="G121" s="17">
-        <f t="shared" ref="G121:G124" si="58">H121*J121</f>
+        <f t="shared" ref="G121:G124" si="60">H121*J121</f>
         <v>1E+188</v>
       </c>
       <c r="H121" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="I121" s="16" t="str" cm="1">
@@ -14030,11 +14270,11 @@
         <v>동</v>
       </c>
       <c r="J121" s="16" t="str">
-        <f t="shared" ref="J121:J124" si="59">VLOOKUP(I121,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J121:J124" si="61">VLOOKUP(I121,N:Q,4,FALSE)</f>
         <v>1E+188</v>
       </c>
       <c r="K121" s="22">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>29000</v>
       </c>
       <c r="L121" s="22">
@@ -14046,15 +14286,15 @@
         <v>113</v>
       </c>
       <c r="F122" s="17" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>10동</v>
       </c>
       <c r="G122" s="17">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>1E+189</v>
       </c>
       <c r="H122" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>10</v>
       </c>
       <c r="I122" s="16" t="str" cm="1">
@@ -14062,11 +14302,11 @@
         <v>동</v>
       </c>
       <c r="J122" s="16" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>1E+188</v>
       </c>
       <c r="K122" s="22">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>29000</v>
       </c>
       <c r="L122" s="22">
@@ -14078,15 +14318,15 @@
         <v>114</v>
       </c>
       <c r="F123" s="17" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>100동</v>
       </c>
       <c r="G123" s="17">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>1.0000000000000001E+190</v>
       </c>
       <c r="H123" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>100</v>
       </c>
       <c r="I123" s="16" t="str" cm="1">
@@ -14094,11 +14334,11 @@
         <v>동</v>
       </c>
       <c r="J123" s="16" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>1E+188</v>
       </c>
       <c r="K123" s="22">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>29000</v>
       </c>
       <c r="L123" s="22">
@@ -14110,15 +14350,15 @@
         <v>115</v>
       </c>
       <c r="F124" s="17" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>1000동</v>
       </c>
       <c r="G124" s="17">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>1.0000000000000001E+191</v>
       </c>
       <c r="H124" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1000</v>
       </c>
       <c r="I124" s="16" t="str" cm="1">
@@ -14126,11 +14366,11 @@
         <v>동</v>
       </c>
       <c r="J124" s="16" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>1E+188</v>
       </c>
       <c r="K124" s="22">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>29000</v>
       </c>
       <c r="L124" s="22">
@@ -14142,15 +14382,15 @@
         <v>116</v>
       </c>
       <c r="F125" s="17" t="str">
-        <f t="shared" ref="F125:F128" si="60">H125&amp;I125</f>
+        <f t="shared" ref="F125:F128" si="62">H125&amp;I125</f>
         <v>1멸</v>
       </c>
       <c r="G125" s="17">
-        <f t="shared" ref="G125:G128" si="61">H125*J125</f>
+        <f t="shared" ref="G125:G128" si="63">H125*J125</f>
         <v>1E+192</v>
       </c>
       <c r="H125" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="I125" s="16" t="str" cm="1">
@@ -14158,11 +14398,11 @@
         <v>멸</v>
       </c>
       <c r="J125" s="16" t="str">
-        <f t="shared" ref="J125:J128" si="62">VLOOKUP(I125,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J125:J128" si="64">VLOOKUP(I125,N:Q,4,FALSE)</f>
         <v>1E+192</v>
       </c>
       <c r="K125" s="22">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>30000</v>
       </c>
       <c r="L125" s="22">
@@ -14174,15 +14414,15 @@
         <v>117</v>
       </c>
       <c r="F126" s="17" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>10멸</v>
       </c>
       <c r="G126" s="17">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>1.0000000000000001E+193</v>
       </c>
       <c r="H126" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>10</v>
       </c>
       <c r="I126" s="16" t="str" cm="1">
@@ -14190,11 +14430,11 @@
         <v>멸</v>
       </c>
       <c r="J126" s="16" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>1E+192</v>
       </c>
       <c r="K126" s="22">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>30000</v>
       </c>
       <c r="L126" s="22">
@@ -14206,15 +14446,15 @@
         <v>118</v>
       </c>
       <c r="F127" s="17" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>100멸</v>
       </c>
       <c r="G127" s="17">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>1.0000000000000001E+194</v>
       </c>
       <c r="H127" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>100</v>
       </c>
       <c r="I127" s="16" t="str" cm="1">
@@ -14222,11 +14462,11 @@
         <v>멸</v>
       </c>
       <c r="J127" s="16" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>1E+192</v>
       </c>
       <c r="K127" s="22">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>30000</v>
       </c>
       <c r="L127" s="22">
@@ -14238,15 +14478,15 @@
         <v>119</v>
       </c>
       <c r="F128" s="17" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>1000멸</v>
       </c>
       <c r="G128" s="17">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>9.9999999999999998E+194</v>
       </c>
       <c r="H128" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1000</v>
       </c>
       <c r="I128" s="16" t="str" cm="1">
@@ -14254,11 +14494,11 @@
         <v>멸</v>
       </c>
       <c r="J128" s="16" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>1E+192</v>
       </c>
       <c r="K128" s="22">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>30000</v>
       </c>
       <c r="L128" s="22">
@@ -14270,15 +14510,15 @@
         <v>120</v>
       </c>
       <c r="F129" s="17" t="str">
-        <f t="shared" ref="F129:F136" si="63">H129&amp;I129</f>
+        <f t="shared" ref="F129:F136" si="65">H129&amp;I129</f>
         <v>1향</v>
       </c>
       <c r="G129" s="17">
-        <f t="shared" ref="G129:G136" si="64">H129*J129</f>
+        <f t="shared" ref="G129:G136" si="66">H129*J129</f>
         <v>9.9999999999999995E+195</v>
       </c>
       <c r="H129" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="I129" s="16" t="str" cm="1">
@@ -14286,11 +14526,11 @@
         <v>향</v>
       </c>
       <c r="J129" s="16" t="str">
-        <f t="shared" ref="J129:J136" si="65">VLOOKUP(I129,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J129:J136" si="67">VLOOKUP(I129,N:Q,4,FALSE)</f>
         <v>1E+196</v>
       </c>
       <c r="K129" s="22">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>31000</v>
       </c>
       <c r="L129" s="22">
@@ -14302,15 +14542,15 @@
         <v>121</v>
       </c>
       <c r="F130" s="17" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>10향</v>
       </c>
       <c r="G130" s="17">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>9.9999999999999995E+196</v>
       </c>
       <c r="H130" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>10</v>
       </c>
       <c r="I130" s="16" t="str" cm="1">
@@ -14318,11 +14558,11 @@
         <v>향</v>
       </c>
       <c r="J130" s="16" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>1E+196</v>
       </c>
       <c r="K130" s="22">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>31000</v>
       </c>
       <c r="L130" s="22">
@@ -14334,15 +14574,15 @@
         <v>122</v>
       </c>
       <c r="F131" s="17" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>100향</v>
       </c>
       <c r="G131" s="17">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>9.9999999999999988E+197</v>
       </c>
       <c r="H131" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>100</v>
       </c>
       <c r="I131" s="16" t="str" cm="1">
@@ -14350,11 +14590,11 @@
         <v>향</v>
       </c>
       <c r="J131" s="16" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>1E+196</v>
       </c>
       <c r="K131" s="22">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>31000</v>
       </c>
       <c r="L131" s="22">
@@ -14366,15 +14606,15 @@
         <v>123</v>
       </c>
       <c r="F132" s="17" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>1000향</v>
       </c>
       <c r="G132" s="17">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>9.9999999999999988E+198</v>
       </c>
       <c r="H132" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1000</v>
       </c>
       <c r="I132" s="16" t="str" cm="1">
@@ -14382,11 +14622,11 @@
         <v>향</v>
       </c>
       <c r="J132" s="16" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>1E+196</v>
       </c>
       <c r="K132" s="22">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>31000</v>
       </c>
       <c r="L132" s="22">
@@ -14398,15 +14638,15 @@
         <v>124</v>
       </c>
       <c r="F133" s="17" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>1증</v>
       </c>
       <c r="G133" s="17">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>9.9999999999999997E+199</v>
       </c>
       <c r="H133" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="I133" s="16" t="str" cm="1">
@@ -14414,11 +14654,11 @@
         <v>증</v>
       </c>
       <c r="J133" s="16" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>1E+200</v>
       </c>
       <c r="K133" s="22">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>32000</v>
       </c>
       <c r="L133" s="22">
@@ -14430,15 +14670,15 @@
         <v>125</v>
       </c>
       <c r="F134" s="17" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>10증</v>
       </c>
       <c r="G134" s="17">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>9.999999999999999E+200</v>
       </c>
       <c r="H134" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>10</v>
       </c>
       <c r="I134" s="16" t="str" cm="1">
@@ -14446,11 +14686,11 @@
         <v>증</v>
       </c>
       <c r="J134" s="16" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>1E+200</v>
       </c>
       <c r="K134" s="22">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>32000</v>
       </c>
       <c r="L134" s="22">
@@ -14462,15 +14702,15 @@
         <v>126</v>
       </c>
       <c r="F135" s="17" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>100증</v>
       </c>
       <c r="G135" s="17">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>9.999999999999999E+201</v>
       </c>
       <c r="H135" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>100</v>
       </c>
       <c r="I135" s="16" t="str" cm="1">
@@ -14478,11 +14718,11 @@
         <v>증</v>
       </c>
       <c r="J135" s="16" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>1E+200</v>
       </c>
       <c r="K135" s="22">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>32000</v>
       </c>
       <c r="L135" s="22">
@@ -14494,15 +14734,15 @@
         <v>127</v>
       </c>
       <c r="F136" s="17" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>1000증</v>
       </c>
       <c r="G136" s="17">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>9.9999999999999999E+202</v>
       </c>
       <c r="H136" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1000</v>
       </c>
       <c r="I136" s="16" t="str" cm="1">
@@ -14510,11 +14750,11 @@
         <v>증</v>
       </c>
       <c r="J136" s="16" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>1E+200</v>
       </c>
       <c r="K136" s="22">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>32000</v>
       </c>
       <c r="L136" s="22">
@@ -14526,15 +14766,15 @@
         <v>128</v>
       </c>
       <c r="F137" s="17" t="str">
-        <f t="shared" ref="F137:F140" si="66">H137&amp;I137</f>
+        <f t="shared" ref="F137:F140" si="68">H137&amp;I137</f>
         <v>1쾌</v>
       </c>
       <c r="G137" s="17">
-        <f t="shared" ref="G137:G140" si="67">H137*J137</f>
+        <f t="shared" ref="G137:G140" si="69">H137*J137</f>
         <v>9.9999999999999999E+203</v>
       </c>
       <c r="H137" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="I137" s="16" t="str" cm="1">
@@ -14542,11 +14782,11 @@
         <v>쾌</v>
       </c>
       <c r="J137" s="16" t="str">
-        <f t="shared" ref="J137:J140" si="68">VLOOKUP(I137,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J137:J140" si="70">VLOOKUP(I137,N:Q,4,FALSE)</f>
         <v>1E+204</v>
       </c>
       <c r="K137" s="22">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>33000</v>
       </c>
       <c r="L137" s="22">
@@ -14558,15 +14798,15 @@
         <v>129</v>
       </c>
       <c r="F138" s="17" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>10쾌</v>
       </c>
       <c r="G138" s="17">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>1E+205</v>
       </c>
       <c r="H138" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>10</v>
       </c>
       <c r="I138" s="16" t="str" cm="1">
@@ -14574,11 +14814,11 @@
         <v>쾌</v>
       </c>
       <c r="J138" s="16" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>1E+204</v>
       </c>
       <c r="K138" s="22">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>33000</v>
       </c>
       <c r="L138" s="22">
@@ -14590,15 +14830,15 @@
         <v>130</v>
       </c>
       <c r="F139" s="17" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>100쾌</v>
       </c>
       <c r="G139" s="17">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>1E+206</v>
       </c>
       <c r="H139" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>100</v>
       </c>
       <c r="I139" s="16" t="str" cm="1">
@@ -14606,11 +14846,11 @@
         <v>쾌</v>
       </c>
       <c r="J139" s="16" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>1E+204</v>
       </c>
       <c r="K139" s="22">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>33000</v>
       </c>
       <c r="L139" s="22">
@@ -14622,15 +14862,15 @@
         <v>131</v>
       </c>
       <c r="F140" s="17" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>1000쾌</v>
       </c>
       <c r="G140" s="17">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>1E+207</v>
       </c>
       <c r="H140" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1000</v>
       </c>
       <c r="I140" s="16" t="str" cm="1">
@@ -14638,11 +14878,11 @@
         <v>쾌</v>
       </c>
       <c r="J140" s="16" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>1E+204</v>
       </c>
       <c r="K140" s="22">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>33000</v>
       </c>
       <c r="L140" s="22">
@@ -14654,15 +14894,15 @@
         <v>132</v>
       </c>
       <c r="F141" s="17" t="str">
-        <f t="shared" ref="F141:F144" si="69">H141&amp;I141</f>
+        <f t="shared" ref="F141:F144" si="71">H141&amp;I141</f>
         <v>1우</v>
       </c>
       <c r="G141" s="17">
-        <f t="shared" ref="G141:G144" si="70">H141*J141</f>
+        <f t="shared" ref="G141:G144" si="72">H141*J141</f>
         <v>9.9999999999999998E+207</v>
       </c>
       <c r="H141" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="I141" s="16" t="str" cm="1">
@@ -14670,11 +14910,11 @@
         <v>우</v>
       </c>
       <c r="J141" s="16" t="str">
-        <f t="shared" ref="J141:J144" si="71">VLOOKUP(I141,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J141:J144" si="73">VLOOKUP(I141,N:Q,4,FALSE)</f>
         <v>1E+208</v>
       </c>
       <c r="K141" s="22">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>34000</v>
       </c>
       <c r="L141" s="22">
@@ -14686,15 +14926,15 @@
         <v>133</v>
       </c>
       <c r="F142" s="17" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>10우</v>
       </c>
       <c r="G142" s="17">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>1.0000000000000001E+209</v>
       </c>
       <c r="H142" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>10</v>
       </c>
       <c r="I142" s="16" t="str" cm="1">
@@ -14702,11 +14942,11 @@
         <v>우</v>
       </c>
       <c r="J142" s="16" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>1E+208</v>
       </c>
       <c r="K142" s="22">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>34000</v>
       </c>
       <c r="L142" s="22">
@@ -14718,15 +14958,15 @@
         <v>134</v>
       </c>
       <c r="F143" s="17" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>100우</v>
       </c>
       <c r="G143" s="17">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>9.9999999999999993E+209</v>
       </c>
       <c r="H143" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>100</v>
       </c>
       <c r="I143" s="16" t="str" cm="1">
@@ -14734,11 +14974,11 @@
         <v>우</v>
       </c>
       <c r="J143" s="16" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>1E+208</v>
       </c>
       <c r="K143" s="22">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>34000</v>
       </c>
       <c r="L143" s="22">
@@ -14750,15 +14990,15 @@
         <v>135</v>
       </c>
       <c r="F144" s="17" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>1000우</v>
       </c>
       <c r="G144" s="17">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>9.9999999999999996E+210</v>
       </c>
       <c r="H144" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1000</v>
       </c>
       <c r="I144" s="16" t="str" cm="1">
@@ -14766,11 +15006,11 @@
         <v>우</v>
       </c>
       <c r="J144" s="16" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>1E+208</v>
       </c>
       <c r="K144" s="22">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>34000</v>
       </c>
       <c r="L144" s="22">
@@ -14782,15 +15022,15 @@
         <v>136</v>
       </c>
       <c r="F145" s="17" t="str">
-        <f t="shared" ref="F145:F151" si="72">H145&amp;I145</f>
+        <f t="shared" ref="F145:F151" si="74">H145&amp;I145</f>
         <v>1팽</v>
       </c>
       <c r="G145" s="17">
-        <f t="shared" ref="G145:G151" si="73">H145*J145</f>
+        <f t="shared" ref="G145:G151" si="75">H145*J145</f>
         <v>9.9999999999999991E+211</v>
       </c>
       <c r="H145" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="I145" s="16" t="str" cm="1">
@@ -14798,11 +15038,11 @@
         <v>팽</v>
       </c>
       <c r="J145" s="16" t="str">
-        <f t="shared" ref="J145:J151" si="74">VLOOKUP(I145,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J145:J151" si="76">VLOOKUP(I145,N:Q,4,FALSE)</f>
         <v>1E+212</v>
       </c>
       <c r="K145" s="22">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>35000</v>
       </c>
       <c r="L145" s="22">
@@ -14814,15 +15054,15 @@
         <v>137</v>
       </c>
       <c r="F146" s="17" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>10팽</v>
       </c>
       <c r="G146" s="17">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>9.9999999999999983E+212</v>
       </c>
       <c r="H146" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>10</v>
       </c>
       <c r="I146" s="16" t="str" cm="1">
@@ -14830,11 +15070,11 @@
         <v>팽</v>
       </c>
       <c r="J146" s="16" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>1E+212</v>
       </c>
       <c r="K146" s="22">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>35000</v>
       </c>
       <c r="L146" s="22">
@@ -14846,15 +15086,15 @@
         <v>138</v>
       </c>
       <c r="F147" s="17" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>100팽</v>
       </c>
       <c r="G147" s="17">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>9.9999999999999995E+213</v>
       </c>
       <c r="H147" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>100</v>
       </c>
       <c r="I147" s="16" t="str" cm="1">
@@ -14862,11 +15102,11 @@
         <v>팽</v>
       </c>
       <c r="J147" s="16" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>1E+212</v>
       </c>
       <c r="K147" s="22">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>35000</v>
       </c>
       <c r="L147" s="22">
@@ -14878,15 +15118,15 @@
         <v>139</v>
       </c>
       <c r="F148" s="17" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>1000팽</v>
       </c>
       <c r="G148" s="17">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>9.9999999999999991E+214</v>
       </c>
       <c r="H148" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1000</v>
       </c>
       <c r="I148" s="16" t="str" cm="1">
@@ -14894,11 +15134,11 @@
         <v>팽</v>
       </c>
       <c r="J148" s="16" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>1E+212</v>
       </c>
       <c r="K148" s="22">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>35000</v>
       </c>
       <c r="L148" s="22">
@@ -14910,15 +15150,15 @@
         <v>140</v>
       </c>
       <c r="F149" s="17" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>1관</v>
       </c>
       <c r="G149" s="17">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>1E+216</v>
       </c>
       <c r="H149" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="I149" s="16" t="str" cm="1">
@@ -14926,11 +15166,11 @@
         <v>관</v>
       </c>
       <c r="J149" s="16" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>1E+216</v>
       </c>
       <c r="K149" s="22">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>36000</v>
       </c>
       <c r="L149" s="22">
@@ -14942,15 +15182,15 @@
         <v>141</v>
       </c>
       <c r="F150" s="17" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>10관</v>
       </c>
       <c r="G150" s="17">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>1.0000000000000001E+217</v>
       </c>
       <c r="H150" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>10</v>
       </c>
       <c r="I150" s="16" t="str" cm="1">
@@ -14958,11 +15198,11 @@
         <v>관</v>
       </c>
       <c r="J150" s="16" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>1E+216</v>
       </c>
       <c r="K150" s="22">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>36000</v>
       </c>
       <c r="L150" s="22">
@@ -14974,15 +15214,15 @@
         <v>142</v>
       </c>
       <c r="F151" s="17" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>100관</v>
       </c>
       <c r="G151" s="17">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>1.0000000000000001E+218</v>
       </c>
       <c r="H151" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>100</v>
       </c>
       <c r="I151" s="16" t="str" cm="1">
@@ -14990,11 +15230,11 @@
         <v>관</v>
       </c>
       <c r="J151" s="16" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>1E+216</v>
       </c>
       <c r="K151" s="22">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>36000</v>
       </c>
       <c r="L151" s="22">
@@ -15006,15 +15246,15 @@
         <v>143</v>
       </c>
       <c r="F152" s="17" t="str">
-        <f t="shared" ref="F152:F156" si="75">H152&amp;I152</f>
+        <f t="shared" ref="F152:F156" si="77">H152&amp;I152</f>
         <v>1000관</v>
       </c>
       <c r="G152" s="17">
-        <f t="shared" ref="G152:G156" si="76">H152*J152</f>
+        <f t="shared" ref="G152:G156" si="78">H152*J152</f>
         <v>9.9999999999999997E+218</v>
       </c>
       <c r="H152" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1000</v>
       </c>
       <c r="I152" s="16" t="str" cm="1">
@@ -15022,11 +15262,11 @@
         <v>관</v>
       </c>
       <c r="J152" s="16" t="str">
-        <f t="shared" ref="J152:J156" si="77">VLOOKUP(I152,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J152:J156" si="79">VLOOKUP(I152,N:Q,4,FALSE)</f>
         <v>1E+216</v>
       </c>
       <c r="K152" s="22">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>36000</v>
       </c>
       <c r="L152" s="22">
@@ -15038,15 +15278,15 @@
         <v>144</v>
       </c>
       <c r="F153" s="17" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>1한</v>
       </c>
       <c r="G153" s="17">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>1E+220</v>
       </c>
       <c r="H153" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="I153" s="16" t="str" cm="1">
@@ -15054,11 +15294,11 @@
         <v>한</v>
       </c>
       <c r="J153" s="16" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>1E+220</v>
       </c>
       <c r="K153" s="22">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>37000</v>
       </c>
       <c r="L153" s="22">
@@ -15070,15 +15310,15 @@
         <v>145</v>
       </c>
       <c r="F154" s="17" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>10한</v>
       </c>
       <c r="G154" s="17">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>1E+221</v>
       </c>
       <c r="H154" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>10</v>
       </c>
       <c r="I154" s="16" t="str" cm="1">
@@ -15086,11 +15326,11 @@
         <v>한</v>
       </c>
       <c r="J154" s="16" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>1E+220</v>
       </c>
       <c r="K154" s="22">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>37000</v>
       </c>
       <c r="L154" s="22">
@@ -15102,15 +15342,15 @@
         <v>146</v>
       </c>
       <c r="F155" s="17" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>100한</v>
       </c>
       <c r="G155" s="17">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>1E+222</v>
       </c>
       <c r="H155" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>100</v>
       </c>
       <c r="I155" s="16" t="str" cm="1">
@@ -15118,11 +15358,11 @@
         <v>한</v>
       </c>
       <c r="J155" s="16" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>1E+220</v>
       </c>
       <c r="K155" s="22">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>37000</v>
       </c>
       <c r="L155" s="22">
@@ -15134,15 +15374,15 @@
         <v>147</v>
       </c>
       <c r="F156" s="17" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>1000한</v>
       </c>
       <c r="G156" s="17">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>1E+223</v>
       </c>
       <c r="H156" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1000</v>
       </c>
       <c r="I156" s="16" t="str" cm="1">
@@ -15150,11 +15390,11 @@
         <v>한</v>
       </c>
       <c r="J156" s="16" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>1E+220</v>
       </c>
       <c r="K156" s="22">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>37000</v>
       </c>
       <c r="L156" s="22">
@@ -15166,15 +15406,15 @@
         <v>148</v>
       </c>
       <c r="F157" s="17" t="str">
-        <f t="shared" ref="F157:F160" si="78">H157&amp;I157</f>
+        <f t="shared" ref="F157:F160" si="80">H157&amp;I157</f>
         <v>1혈</v>
       </c>
       <c r="G157" s="17">
-        <f t="shared" ref="G157:G160" si="79">H157*J157</f>
+        <f t="shared" ref="G157:G160" si="81">H157*J157</f>
         <v>9.9999999999999997E+223</v>
       </c>
       <c r="H157" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="I157" s="16" t="str" cm="1">
@@ -15182,11 +15422,11 @@
         <v>혈</v>
       </c>
       <c r="J157" s="16" t="str">
-        <f t="shared" ref="J157:J160" si="80">VLOOKUP(I157,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J157:J160" si="82">VLOOKUP(I157,N:Q,4,FALSE)</f>
         <v>1E+224</v>
       </c>
       <c r="K157" s="22">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>38000</v>
       </c>
       <c r="L157" s="22">
@@ -15198,15 +15438,15 @@
         <v>149</v>
       </c>
       <c r="F158" s="17" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>10혈</v>
       </c>
       <c r="G158" s="17">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>9.9999999999999993E+224</v>
       </c>
       <c r="H158" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>10</v>
       </c>
       <c r="I158" s="16" t="str" cm="1">
@@ -15214,11 +15454,11 @@
         <v>혈</v>
       </c>
       <c r="J158" s="16" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>1E+224</v>
       </c>
       <c r="K158" s="22">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>38000</v>
       </c>
       <c r="L158" s="22">
@@ -15230,15 +15470,15 @@
         <v>150</v>
       </c>
       <c r="F159" s="17" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>100혈</v>
       </c>
       <c r="G159" s="17">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>9.9999999999999996E+225</v>
       </c>
       <c r="H159" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>100</v>
       </c>
       <c r="I159" s="16" t="str" cm="1">
@@ -15246,11 +15486,11 @@
         <v>혈</v>
       </c>
       <c r="J159" s="16" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>1E+224</v>
       </c>
       <c r="K159" s="22">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>38000</v>
       </c>
       <c r="L159" s="22">
@@ -15262,15 +15502,15 @@
         <v>151</v>
       </c>
       <c r="F160" s="17" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>1000혈</v>
       </c>
       <c r="G160" s="17">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>9.9999999999999988E+226</v>
       </c>
       <c r="H160" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1000</v>
       </c>
       <c r="I160" s="16" t="str" cm="1">
@@ -15278,11 +15518,11 @@
         <v>혈</v>
       </c>
       <c r="J160" s="16" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>1E+224</v>
       </c>
       <c r="K160" s="22">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>38000</v>
       </c>
       <c r="L160" s="22">
@@ -15294,15 +15534,15 @@
         <v>152</v>
       </c>
       <c r="F161" s="17" t="str">
-        <f t="shared" ref="F161:F164" si="81">H161&amp;I161</f>
+        <f t="shared" ref="F161:F164" si="83">H161&amp;I161</f>
         <v>1연</v>
       </c>
       <c r="G161" s="17">
-        <f t="shared" ref="G161:G164" si="82">H161*J161</f>
+        <f t="shared" ref="G161:G164" si="84">H161*J161</f>
         <v>9.9999999999999992E+227</v>
       </c>
       <c r="H161" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="I161" s="16" t="str" cm="1">
@@ -15310,11 +15550,11 @@
         <v>연</v>
       </c>
       <c r="J161" s="16" t="str">
-        <f t="shared" ref="J161:J164" si="83">VLOOKUP(I161,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J161:J164" si="85">VLOOKUP(I161,N:Q,4,FALSE)</f>
         <v>1E+228</v>
       </c>
       <c r="K161" s="22">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>39000</v>
       </c>
       <c r="L161" s="22">
@@ -15326,15 +15566,15 @@
         <v>153</v>
       </c>
       <c r="F162" s="17" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>10연</v>
       </c>
       <c r="G162" s="17">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>9.9999999999999999E+228</v>
       </c>
       <c r="H162" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>10</v>
       </c>
       <c r="I162" s="16" t="str" cm="1">
@@ -15342,11 +15582,11 @@
         <v>연</v>
       </c>
       <c r="J162" s="16" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>1E+228</v>
       </c>
       <c r="K162" s="22">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>39000</v>
       </c>
       <c r="L162" s="22">
@@ -15358,15 +15598,15 @@
         <v>154</v>
       </c>
       <c r="F163" s="17" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>100연</v>
       </c>
       <c r="G163" s="17">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>9.9999999999999988E+229</v>
       </c>
       <c r="H163" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>100</v>
       </c>
       <c r="I163" s="16" t="str" cm="1">
@@ -15374,11 +15614,11 @@
         <v>연</v>
       </c>
       <c r="J163" s="16" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>1E+228</v>
       </c>
       <c r="K163" s="22">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>39000</v>
       </c>
       <c r="L163" s="22">
@@ -15390,15 +15630,15 @@
         <v>155</v>
       </c>
       <c r="F164" s="17" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>1000연</v>
       </c>
       <c r="G164" s="17">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>9.9999999999999988E+230</v>
       </c>
       <c r="H164" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1000</v>
       </c>
       <c r="I164" s="16" t="str" cm="1">
@@ -15406,11 +15646,11 @@
         <v>연</v>
       </c>
       <c r="J164" s="16" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>1E+228</v>
       </c>
       <c r="K164" s="22">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>39000</v>
       </c>
       <c r="L164" s="22">
@@ -15422,15 +15662,15 @@
         <v>156</v>
       </c>
       <c r="F165" s="17" t="str">
-        <f t="shared" ref="F165:F168" si="84">H165&amp;I165</f>
+        <f t="shared" ref="F165:F168" si="86">H165&amp;I165</f>
         <v>1난</v>
       </c>
       <c r="G165" s="17">
-        <f t="shared" ref="G165:G168" si="85">H165*J165</f>
+        <f t="shared" ref="G165:G168" si="87">H165*J165</f>
         <v>1.0000000000000001E+232</v>
       </c>
       <c r="H165" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="I165" s="16" t="str" cm="1">
@@ -15438,11 +15678,11 @@
         <v>난</v>
       </c>
       <c r="J165" s="16" t="str">
-        <f t="shared" ref="J165:J168" si="86">VLOOKUP(I165,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J165:J168" si="88">VLOOKUP(I165,N:Q,4,FALSE)</f>
         <v>1E+232</v>
       </c>
       <c r="K165" s="22">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>40000</v>
       </c>
       <c r="L165" s="22">
@@ -15454,15 +15694,15 @@
         <v>157</v>
       </c>
       <c r="F166" s="17" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>10난</v>
       </c>
       <c r="G166" s="17">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>9.9999999999999997E+232</v>
       </c>
       <c r="H166" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>10</v>
       </c>
       <c r="I166" s="16" t="str" cm="1">
@@ -15470,11 +15710,11 @@
         <v>난</v>
       </c>
       <c r="J166" s="16" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>1E+232</v>
       </c>
       <c r="K166" s="22">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>40000</v>
       </c>
       <c r="L166" s="22">
@@ -15486,15 +15726,15 @@
         <v>158</v>
       </c>
       <c r="F167" s="17" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>100난</v>
       </c>
       <c r="G167" s="17">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>1E+234</v>
       </c>
       <c r="H167" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>100</v>
       </c>
       <c r="I167" s="16" t="str" cm="1">
@@ -15502,11 +15742,11 @@
         <v>난</v>
       </c>
       <c r="J167" s="16" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>1E+232</v>
       </c>
       <c r="K167" s="22">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>40000</v>
       </c>
       <c r="L167" s="22">
@@ -15518,15 +15758,15 @@
         <v>159</v>
       </c>
       <c r="F168" s="17" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>1000난</v>
       </c>
       <c r="G168" s="17">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>1.0000000000000001E+235</v>
       </c>
       <c r="H168" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1000</v>
       </c>
       <c r="I168" s="16" t="str" cm="1">
@@ -15534,15 +15774,143 @@
         <v>난</v>
       </c>
       <c r="J168" s="16" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>1E+232</v>
       </c>
       <c r="K168" s="22">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>40000</v>
       </c>
       <c r="L168" s="22">
         <v>31800</v>
+      </c>
+    </row>
+    <row r="169" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E169" s="16">
+        <v>160</v>
+      </c>
+      <c r="F169" s="17" t="str">
+        <f t="shared" ref="F169:F172" si="89">H169&amp;I169</f>
+        <v>1군</v>
+      </c>
+      <c r="G169" s="17">
+        <f t="shared" ref="G169:G172" si="90">H169*J169</f>
+        <v>1.0000000000000001E+236</v>
+      </c>
+      <c r="H169" s="17">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="I169" s="16" t="str" cm="1">
+        <f t="array" ref="I169">IF(AND(H168&gt;=1000,H169&lt;2),INDEX(N:N,MATCH(I168,N:N,0)+1,0),I168)</f>
+        <v>군</v>
+      </c>
+      <c r="J169" s="16" t="str">
+        <f t="shared" ref="J169:J172" si="91">VLOOKUP(I169,N:Q,4,FALSE)</f>
+        <v>1E+236</v>
+      </c>
+      <c r="K169" s="22">
+        <f t="shared" si="52"/>
+        <v>41000</v>
+      </c>
+      <c r="L169" s="22">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="170" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E170" s="16">
+        <v>161</v>
+      </c>
+      <c r="F170" s="17" t="str">
+        <f t="shared" si="89"/>
+        <v>10군</v>
+      </c>
+      <c r="G170" s="17">
+        <f t="shared" si="90"/>
+        <v>1.0000000000000001E+237</v>
+      </c>
+      <c r="H170" s="17">
+        <f t="shared" si="51"/>
+        <v>10</v>
+      </c>
+      <c r="I170" s="16" t="str" cm="1">
+        <f t="array" ref="I170">IF(AND(H169&gt;=1000,H170&lt;2),INDEX(N:N,MATCH(I169,N:N,0)+1,0),I169)</f>
+        <v>군</v>
+      </c>
+      <c r="J170" s="16" t="str">
+        <f t="shared" si="91"/>
+        <v>1E+236</v>
+      </c>
+      <c r="K170" s="22">
+        <f t="shared" si="52"/>
+        <v>41000</v>
+      </c>
+      <c r="L170" s="22">
+        <v>32200</v>
+      </c>
+    </row>
+    <row r="171" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E171" s="16">
+        <v>162</v>
+      </c>
+      <c r="F171" s="17" t="str">
+        <f t="shared" si="89"/>
+        <v>100군</v>
+      </c>
+      <c r="G171" s="17">
+        <f t="shared" si="90"/>
+        <v>1E+238</v>
+      </c>
+      <c r="H171" s="17">
+        <f t="shared" si="51"/>
+        <v>100</v>
+      </c>
+      <c r="I171" s="16" t="str" cm="1">
+        <f t="array" ref="I171">IF(AND(H170&gt;=1000,H171&lt;2),INDEX(N:N,MATCH(I170,N:N,0)+1,0),I170)</f>
+        <v>군</v>
+      </c>
+      <c r="J171" s="16" t="str">
+        <f t="shared" si="91"/>
+        <v>1E+236</v>
+      </c>
+      <c r="K171" s="22">
+        <f t="shared" si="52"/>
+        <v>41000</v>
+      </c>
+      <c r="L171" s="22">
+        <v>32400</v>
+      </c>
+    </row>
+    <row r="172" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E172" s="16">
+        <v>163</v>
+      </c>
+      <c r="F172" s="17" t="str">
+        <f t="shared" si="89"/>
+        <v>1000군</v>
+      </c>
+      <c r="G172" s="17">
+        <f t="shared" si="90"/>
+        <v>1.0000000000000001E+239</v>
+      </c>
+      <c r="H172" s="17">
+        <f t="shared" si="51"/>
+        <v>1000</v>
+      </c>
+      <c r="I172" s="16" t="str" cm="1">
+        <f t="array" ref="I172">IF(AND(H171&gt;=1000,H172&lt;2),INDEX(N:N,MATCH(I171,N:N,0)+1,0),I171)</f>
+        <v>군</v>
+      </c>
+      <c r="J172" s="16" t="str">
+        <f t="shared" si="91"/>
+        <v>1E+236</v>
+      </c>
+      <c r="K172" s="22">
+        <f t="shared" si="52"/>
+        <v>41000</v>
+      </c>
+      <c r="L172" s="22">
+        <v>32600</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/ByeolhoTower.xlsx
+++ b/Assets/06.Table/ByeolhoTower.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E9E8184-E02C-4D46-8538-599B540462DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{014ACE6F-FF86-49B8-965B-15473EE7FAB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="93">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1018,11 +1018,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M165"/>
+  <dimension ref="A1:M169"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F162" sqref="F162"/>
+      <selection pane="bottomLeft" activeCell="G165" sqref="G165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6909,11 +6909,11 @@
         <v>30000</v>
       </c>
       <c r="E118">
-        <f t="shared" ref="E118:E165" si="84">E117</f>
+        <f t="shared" ref="E118:E169" si="84">E117</f>
         <v>1</v>
       </c>
       <c r="F118" s="2">
-        <f t="shared" ref="F118:F165" si="85">F117*10</f>
+        <f t="shared" ref="F118:F169" si="85">F117*10</f>
         <v>9.9999999999999991E+191</v>
       </c>
       <c r="G118">
@@ -6932,7 +6932,7 @@
         <v>57</v>
       </c>
       <c r="K118">
-        <f t="shared" ref="K118:K165" si="87">K117+200</f>
+        <f t="shared" ref="K118:K169" si="87">K117+200</f>
         <v>25200</v>
       </c>
       <c r="L118">
@@ -9340,9 +9340,213 @@
         <v>16300</v>
       </c>
     </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>164</v>
+      </c>
+      <c r="B166" s="1" t="str">
+        <f t="shared" ref="B166:C166" si="176">B165</f>
+        <v>1-1</v>
+      </c>
+      <c r="C166">
+        <f t="shared" si="176"/>
+        <v>9054</v>
+      </c>
+      <c r="D166">
+        <f>VLOOKUP(A166,Balance!E:K,7,FALSE)</f>
+        <v>42000</v>
+      </c>
+      <c r="E166">
+        <f t="shared" si="84"/>
+        <v>1</v>
+      </c>
+      <c r="F166" s="2">
+        <f t="shared" si="85"/>
+        <v>1.0000000000000002E+240</v>
+      </c>
+      <c r="G166">
+        <f t="shared" ref="G166:I166" si="177">G165</f>
+        <v>1000</v>
+      </c>
+      <c r="H166">
+        <f t="shared" si="177"/>
+        <v>8</v>
+      </c>
+      <c r="I166">
+        <f t="shared" si="177"/>
+        <v>0</v>
+      </c>
+      <c r="J166" t="s">
+        <v>57</v>
+      </c>
+      <c r="K166">
+        <f t="shared" si="87"/>
+        <v>34800</v>
+      </c>
+      <c r="L166">
+        <v>9054</v>
+      </c>
+      <c r="M166">
+        <f>VLOOKUP(A166,Balance!E:L,8,FALSE)/2</f>
+        <v>16400</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>165</v>
+      </c>
+      <c r="B167" s="1" t="str">
+        <f t="shared" ref="B167:C167" si="178">B166</f>
+        <v>1-1</v>
+      </c>
+      <c r="C167">
+        <f t="shared" si="178"/>
+        <v>9054</v>
+      </c>
+      <c r="D167">
+        <f>VLOOKUP(A167,Balance!E:K,7,FALSE)</f>
+        <v>42000</v>
+      </c>
+      <c r="E167">
+        <f t="shared" si="84"/>
+        <v>1</v>
+      </c>
+      <c r="F167" s="2">
+        <f t="shared" si="85"/>
+        <v>1.0000000000000002E+241</v>
+      </c>
+      <c r="G167">
+        <f t="shared" ref="G167:I167" si="179">G166</f>
+        <v>1000</v>
+      </c>
+      <c r="H167">
+        <f t="shared" si="179"/>
+        <v>8</v>
+      </c>
+      <c r="I167">
+        <f t="shared" si="179"/>
+        <v>0</v>
+      </c>
+      <c r="J167" t="s">
+        <v>57</v>
+      </c>
+      <c r="K167">
+        <f t="shared" si="87"/>
+        <v>35000</v>
+      </c>
+      <c r="L167">
+        <v>9054</v>
+      </c>
+      <c r="M167">
+        <f>VLOOKUP(A167,Balance!E:L,8,FALSE)/2</f>
+        <v>16500</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>166</v>
+      </c>
+      <c r="B168" s="1" t="str">
+        <f t="shared" ref="B168:C168" si="180">B167</f>
+        <v>1-1</v>
+      </c>
+      <c r="C168">
+        <f t="shared" si="180"/>
+        <v>9054</v>
+      </c>
+      <c r="D168">
+        <f>VLOOKUP(A168,Balance!E:K,7,FALSE)</f>
+        <v>42000</v>
+      </c>
+      <c r="E168">
+        <f t="shared" si="84"/>
+        <v>1</v>
+      </c>
+      <c r="F168" s="2">
+        <f t="shared" si="85"/>
+        <v>1.0000000000000002E+242</v>
+      </c>
+      <c r="G168">
+        <f t="shared" ref="G168:I168" si="181">G167</f>
+        <v>1000</v>
+      </c>
+      <c r="H168">
+        <f t="shared" si="181"/>
+        <v>8</v>
+      </c>
+      <c r="I168">
+        <f t="shared" si="181"/>
+        <v>0</v>
+      </c>
+      <c r="J168" t="s">
+        <v>57</v>
+      </c>
+      <c r="K168">
+        <f t="shared" si="87"/>
+        <v>35200</v>
+      </c>
+      <c r="L168">
+        <v>9054</v>
+      </c>
+      <c r="M168">
+        <f>VLOOKUP(A168,Balance!E:L,8,FALSE)/2</f>
+        <v>16600</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>167</v>
+      </c>
+      <c r="B169" s="1" t="str">
+        <f t="shared" ref="B169:C169" si="182">B168</f>
+        <v>1-1</v>
+      </c>
+      <c r="C169">
+        <f t="shared" si="182"/>
+        <v>9054</v>
+      </c>
+      <c r="D169">
+        <f>VLOOKUP(A169,Balance!E:K,7,FALSE)</f>
+        <v>42000</v>
+      </c>
+      <c r="E169">
+        <f t="shared" si="84"/>
+        <v>1</v>
+      </c>
+      <c r="F169" s="2">
+        <f t="shared" si="85"/>
+        <v>1.0000000000000001E+243</v>
+      </c>
+      <c r="G169">
+        <f t="shared" ref="G169:I169" si="183">G168</f>
+        <v>1000</v>
+      </c>
+      <c r="H169">
+        <f t="shared" si="183"/>
+        <v>8</v>
+      </c>
+      <c r="I169">
+        <f t="shared" si="183"/>
+        <v>0</v>
+      </c>
+      <c r="J169" t="s">
+        <v>57</v>
+      </c>
+      <c r="K169">
+        <f t="shared" si="87"/>
+        <v>35400</v>
+      </c>
+      <c r="L169">
+        <v>9054</v>
+      </c>
+      <c r="M169">
+        <f>VLOOKUP(A169,Balance!E:L,8,FALSE)/2</f>
+        <v>16700</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:K165">
+  <conditionalFormatting sqref="A2:K169">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
@@ -9354,10 +9558,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4C63F0-02E4-48AB-8F58-B57B021B5DE4}">
-  <dimension ref="A1:Z172"/>
+  <dimension ref="A1:Z176"/>
   <sheetViews>
-    <sheetView topLeftCell="B152" workbookViewId="0">
-      <selection activeCell="H169" sqref="H169"/>
+    <sheetView topLeftCell="B150" workbookViewId="0">
+      <selection activeCell="J171" sqref="J171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12882,7 +13086,7 @@
         <v>9.9999999999999999E+144</v>
       </c>
       <c r="H78" s="17">
-        <f t="shared" ref="H78:H172" si="51">H74</f>
+        <f t="shared" ref="H78:H176" si="51">H74</f>
         <v>10</v>
       </c>
       <c r="I78" s="16" t="str" cm="1">
@@ -13663,7 +13867,7 @@
         <v>1E+168</v>
       </c>
       <c r="K102" s="22">
-        <f t="shared" ref="K102:K172" si="52">K98+1000</f>
+        <f t="shared" ref="K102:K176" si="52">K98+1000</f>
         <v>24000</v>
       </c>
       <c r="L102" s="22">
@@ -15911,6 +16115,134 @@
       </c>
       <c r="L172" s="22">
         <v>32600</v>
+      </c>
+    </row>
+    <row r="173" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E173" s="16">
+        <v>164</v>
+      </c>
+      <c r="F173" s="17" t="str">
+        <f t="shared" ref="F173:F176" si="92">H173&amp;I173</f>
+        <v>1결</v>
+      </c>
+      <c r="G173" s="17">
+        <f t="shared" ref="G173:G176" si="93">H173*J173</f>
+        <v>1E+240</v>
+      </c>
+      <c r="H173" s="17">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="I173" s="16" t="str" cm="1">
+        <f t="array" ref="I173">IF(AND(H172&gt;=1000,H173&lt;2),INDEX(N:N,MATCH(I172,N:N,0)+1,0),I172)</f>
+        <v>결</v>
+      </c>
+      <c r="J173" s="16" t="str">
+        <f t="shared" ref="J173:J176" si="94">VLOOKUP(I173,N:Q,4,FALSE)</f>
+        <v>1E+240</v>
+      </c>
+      <c r="K173" s="22">
+        <f t="shared" si="52"/>
+        <v>42000</v>
+      </c>
+      <c r="L173" s="22">
+        <v>32800</v>
+      </c>
+    </row>
+    <row r="174" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E174" s="16">
+        <v>165</v>
+      </c>
+      <c r="F174" s="17" t="str">
+        <f t="shared" si="92"/>
+        <v>10결</v>
+      </c>
+      <c r="G174" s="17">
+        <f t="shared" si="93"/>
+        <v>1.0000000000000001E+241</v>
+      </c>
+      <c r="H174" s="17">
+        <f t="shared" si="51"/>
+        <v>10</v>
+      </c>
+      <c r="I174" s="16" t="str" cm="1">
+        <f t="array" ref="I174">IF(AND(H173&gt;=1000,H174&lt;2),INDEX(N:N,MATCH(I173,N:N,0)+1,0),I173)</f>
+        <v>결</v>
+      </c>
+      <c r="J174" s="16" t="str">
+        <f t="shared" si="94"/>
+        <v>1E+240</v>
+      </c>
+      <c r="K174" s="22">
+        <f t="shared" si="52"/>
+        <v>42000</v>
+      </c>
+      <c r="L174" s="22">
+        <v>33000</v>
+      </c>
+    </row>
+    <row r="175" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E175" s="16">
+        <v>166</v>
+      </c>
+      <c r="F175" s="17" t="str">
+        <f t="shared" si="92"/>
+        <v>100결</v>
+      </c>
+      <c r="G175" s="17">
+        <f t="shared" si="93"/>
+        <v>1.0000000000000001E+242</v>
+      </c>
+      <c r="H175" s="17">
+        <f t="shared" si="51"/>
+        <v>100</v>
+      </c>
+      <c r="I175" s="16" t="str" cm="1">
+        <f t="array" ref="I175">IF(AND(H174&gt;=1000,H175&lt;2),INDEX(N:N,MATCH(I174,N:N,0)+1,0),I174)</f>
+        <v>결</v>
+      </c>
+      <c r="J175" s="16" t="str">
+        <f t="shared" si="94"/>
+        <v>1E+240</v>
+      </c>
+      <c r="K175" s="22">
+        <f t="shared" si="52"/>
+        <v>42000</v>
+      </c>
+      <c r="L175" s="22">
+        <v>33200</v>
+      </c>
+    </row>
+    <row r="176" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E176" s="16">
+        <v>167</v>
+      </c>
+      <c r="F176" s="17" t="str">
+        <f t="shared" si="92"/>
+        <v>1000결</v>
+      </c>
+      <c r="G176" s="17">
+        <f t="shared" si="93"/>
+        <v>1.0000000000000001E+243</v>
+      </c>
+      <c r="H176" s="17">
+        <f t="shared" si="51"/>
+        <v>1000</v>
+      </c>
+      <c r="I176" s="16" t="str" cm="1">
+        <f t="array" ref="I176">IF(AND(H175&gt;=1000,H176&lt;2),INDEX(N:N,MATCH(I175,N:N,0)+1,0),I175)</f>
+        <v>결</v>
+      </c>
+      <c r="J176" s="16" t="str">
+        <f t="shared" si="94"/>
+        <v>1E+240</v>
+      </c>
+      <c r="K176" s="22">
+        <f t="shared" si="52"/>
+        <v>42000</v>
+      </c>
+      <c r="L176" s="22">
+        <v>33400</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/ByeolhoTower.xlsx
+++ b/Assets/06.Table/ByeolhoTower.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{014ACE6F-FF86-49B8-965B-15473EE7FAB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44619B9D-9A38-40F6-9673-54EFFDD6172C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="95">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -426,6 +426,14 @@
   </si>
   <si>
     <t>맥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1018,11 +1026,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M169"/>
+  <dimension ref="A1:M173"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G165" sqref="G165"/>
+      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E171" sqref="E171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6909,11 +6917,11 @@
         <v>30000</v>
       </c>
       <c r="E118">
-        <f t="shared" ref="E118:E169" si="84">E117</f>
+        <f t="shared" ref="E118:E173" si="84">E117</f>
         <v>1</v>
       </c>
       <c r="F118" s="2">
-        <f t="shared" ref="F118:F169" si="85">F117*10</f>
+        <f t="shared" ref="F118:F173" si="85">F117*10</f>
         <v>9.9999999999999991E+191</v>
       </c>
       <c r="G118">
@@ -6932,7 +6940,7 @@
         <v>57</v>
       </c>
       <c r="K118">
-        <f t="shared" ref="K118:K169" si="87">K117+200</f>
+        <f t="shared" ref="K118:K173" si="87">K117+200</f>
         <v>25200</v>
       </c>
       <c r="L118">
@@ -9544,9 +9552,213 @@
         <v>16700</v>
       </c>
     </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>168</v>
+      </c>
+      <c r="B170" s="1" t="str">
+        <f t="shared" ref="B170:C170" si="184">B169</f>
+        <v>1-1</v>
+      </c>
+      <c r="C170">
+        <f t="shared" si="184"/>
+        <v>9054</v>
+      </c>
+      <c r="D170">
+        <f>VLOOKUP(A170,Balance!E:K,7,FALSE)</f>
+        <v>43000</v>
+      </c>
+      <c r="E170">
+        <f t="shared" si="84"/>
+        <v>1</v>
+      </c>
+      <c r="F170" s="2">
+        <f t="shared" si="85"/>
+        <v>1.0000000000000001E+244</v>
+      </c>
+      <c r="G170">
+        <f t="shared" ref="G170:I170" si="185">G169</f>
+        <v>1000</v>
+      </c>
+      <c r="H170">
+        <f t="shared" si="185"/>
+        <v>8</v>
+      </c>
+      <c r="I170">
+        <f t="shared" si="185"/>
+        <v>0</v>
+      </c>
+      <c r="J170" t="s">
+        <v>57</v>
+      </c>
+      <c r="K170">
+        <f t="shared" si="87"/>
+        <v>35600</v>
+      </c>
+      <c r="L170">
+        <v>9054</v>
+      </c>
+      <c r="M170">
+        <f>VLOOKUP(A170,Balance!E:L,8,FALSE)/2</f>
+        <v>16800</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>169</v>
+      </c>
+      <c r="B171" s="1" t="str">
+        <f t="shared" ref="B171:C171" si="186">B170</f>
+        <v>1-1</v>
+      </c>
+      <c r="C171">
+        <f t="shared" si="186"/>
+        <v>9054</v>
+      </c>
+      <c r="D171">
+        <f>VLOOKUP(A171,Balance!E:K,7,FALSE)</f>
+        <v>43000</v>
+      </c>
+      <c r="E171">
+        <f t="shared" si="84"/>
+        <v>1</v>
+      </c>
+      <c r="F171" s="2">
+        <f t="shared" si="85"/>
+        <v>1E+245</v>
+      </c>
+      <c r="G171">
+        <f t="shared" ref="G171:I171" si="187">G170</f>
+        <v>1000</v>
+      </c>
+      <c r="H171">
+        <f t="shared" si="187"/>
+        <v>8</v>
+      </c>
+      <c r="I171">
+        <f t="shared" si="187"/>
+        <v>0</v>
+      </c>
+      <c r="J171" t="s">
+        <v>57</v>
+      </c>
+      <c r="K171">
+        <f t="shared" si="87"/>
+        <v>35800</v>
+      </c>
+      <c r="L171">
+        <v>9054</v>
+      </c>
+      <c r="M171">
+        <f>VLOOKUP(A171,Balance!E:L,8,FALSE)/2</f>
+        <v>16900</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>170</v>
+      </c>
+      <c r="B172" s="1" t="str">
+        <f t="shared" ref="B172:C172" si="188">B171</f>
+        <v>1-1</v>
+      </c>
+      <c r="C172">
+        <f t="shared" si="188"/>
+        <v>9054</v>
+      </c>
+      <c r="D172">
+        <f>VLOOKUP(A172,Balance!E:K,7,FALSE)</f>
+        <v>43000</v>
+      </c>
+      <c r="E172">
+        <f t="shared" si="84"/>
+        <v>1</v>
+      </c>
+      <c r="F172" s="2">
+        <f t="shared" si="85"/>
+        <v>1.0000000000000001E+246</v>
+      </c>
+      <c r="G172">
+        <f t="shared" ref="G172:I172" si="189">G171</f>
+        <v>1000</v>
+      </c>
+      <c r="H172">
+        <f t="shared" si="189"/>
+        <v>8</v>
+      </c>
+      <c r="I172">
+        <f t="shared" si="189"/>
+        <v>0</v>
+      </c>
+      <c r="J172" t="s">
+        <v>57</v>
+      </c>
+      <c r="K172">
+        <f t="shared" si="87"/>
+        <v>36000</v>
+      </c>
+      <c r="L172">
+        <v>9054</v>
+      </c>
+      <c r="M172">
+        <f>VLOOKUP(A172,Balance!E:L,8,FALSE)/2</f>
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>171</v>
+      </c>
+      <c r="B173" s="1" t="str">
+        <f t="shared" ref="B173:C173" si="190">B172</f>
+        <v>1-1</v>
+      </c>
+      <c r="C173">
+        <f t="shared" si="190"/>
+        <v>9054</v>
+      </c>
+      <c r="D173">
+        <f>VLOOKUP(A173,Balance!E:K,7,FALSE)</f>
+        <v>43000</v>
+      </c>
+      <c r="E173">
+        <f t="shared" si="84"/>
+        <v>1</v>
+      </c>
+      <c r="F173" s="2">
+        <f t="shared" si="85"/>
+        <v>1.0000000000000001E+247</v>
+      </c>
+      <c r="G173">
+        <f t="shared" ref="G173:I173" si="191">G172</f>
+        <v>1000</v>
+      </c>
+      <c r="H173">
+        <f t="shared" si="191"/>
+        <v>8</v>
+      </c>
+      <c r="I173">
+        <f t="shared" si="191"/>
+        <v>0</v>
+      </c>
+      <c r="J173" t="s">
+        <v>57</v>
+      </c>
+      <c r="K173">
+        <f t="shared" si="87"/>
+        <v>36200</v>
+      </c>
+      <c r="L173">
+        <v>9054</v>
+      </c>
+      <c r="M173">
+        <f>VLOOKUP(A173,Balance!E:L,8,FALSE)/2</f>
+        <v>17100</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:K169">
+  <conditionalFormatting sqref="A2:K173">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
@@ -9558,10 +9770,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4C63F0-02E4-48AB-8F58-B57B021B5DE4}">
-  <dimension ref="A1:Z176"/>
+  <dimension ref="A1:Z180"/>
   <sheetViews>
-    <sheetView topLeftCell="B150" workbookViewId="0">
-      <selection activeCell="J171" sqref="J171"/>
+    <sheetView topLeftCell="B163" workbookViewId="0">
+      <selection activeCell="K179" sqref="K179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12816,6 +13028,20 @@
         <v>16000</v>
       </c>
       <c r="M69" s="22"/>
+      <c r="N69" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="O69" s="16">
+        <v>248</v>
+      </c>
+      <c r="P69" s="17">
+        <f t="shared" ref="P69:P70" si="49">POWER(10,O69)</f>
+        <v>1E+248</v>
+      </c>
+      <c r="Q69" s="17" t="str">
+        <f t="shared" ref="Q69:Q70" si="50">RIGHT(P69,O69)</f>
+        <v>1E+248</v>
+      </c>
     </row>
     <row r="70" spans="5:26" x14ac:dyDescent="0.3">
       <c r="E70" s="16">
@@ -12848,6 +13074,20 @@
         <v>16100</v>
       </c>
       <c r="M70" s="22"/>
+      <c r="N70" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="O70" s="16">
+        <v>252</v>
+      </c>
+      <c r="P70" s="17">
+        <f t="shared" si="49"/>
+        <v>1.0000000000000001E+252</v>
+      </c>
+      <c r="Q70" s="17" t="str">
+        <f t="shared" si="50"/>
+        <v>1E+252</v>
+      </c>
     </row>
     <row r="71" spans="5:26" x14ac:dyDescent="0.3">
       <c r="E71" s="16">
@@ -12934,7 +13174,7 @@
         <v>고</v>
       </c>
       <c r="J73" s="16" t="str">
-        <f t="shared" ref="J73:J104" si="49">VLOOKUP(I73,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J73:J104" si="51">VLOOKUP(I73,N:Q,4,FALSE)</f>
         <v>1E+140</v>
       </c>
       <c r="K73" s="22">
@@ -12954,7 +13194,7 @@
         <v>10고</v>
       </c>
       <c r="G74" s="17">
-        <f t="shared" ref="G74:G104" si="50">H74*J74</f>
+        <f t="shared" ref="G74:G104" si="52">H74*J74</f>
         <v>1E+141</v>
       </c>
       <c r="H74" s="17">
@@ -12966,7 +13206,7 @@
         <v>고</v>
       </c>
       <c r="J74" s="16" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1E+140</v>
       </c>
       <c r="K74" s="22">
@@ -12986,7 +13226,7 @@
         <v>100고</v>
       </c>
       <c r="G75" s="17">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1.0000000000000001E+142</v>
       </c>
       <c r="H75" s="17">
@@ -12998,7 +13238,7 @@
         <v>고</v>
       </c>
       <c r="J75" s="16" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1E+140</v>
       </c>
       <c r="K75" s="22">
@@ -13018,7 +13258,7 @@
         <v>1000고</v>
       </c>
       <c r="G76" s="17">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1E+143</v>
       </c>
       <c r="H76" s="17">
@@ -13030,7 +13270,7 @@
         <v>고</v>
       </c>
       <c r="J76" s="16" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1E+140</v>
       </c>
       <c r="K76" s="22">
@@ -13050,7 +13290,7 @@
         <v>1화</v>
       </c>
       <c r="G77" s="17">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1E+144</v>
       </c>
       <c r="H77" s="17">
@@ -13062,7 +13302,7 @@
         <v>화</v>
       </c>
       <c r="J77" s="16" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1E+144</v>
       </c>
       <c r="K77" s="22">
@@ -13082,11 +13322,11 @@
         <v>10화</v>
       </c>
       <c r="G78" s="17">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>9.9999999999999999E+144</v>
       </c>
       <c r="H78" s="17">
-        <f t="shared" ref="H78:H176" si="51">H74</f>
+        <f t="shared" ref="H78:H180" si="53">H74</f>
         <v>10</v>
       </c>
       <c r="I78" s="16" t="str" cm="1">
@@ -13094,7 +13334,7 @@
         <v>화</v>
       </c>
       <c r="J78" s="16" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1E+144</v>
       </c>
       <c r="K78" s="22">
@@ -13114,11 +13354,11 @@
         <v>100화</v>
       </c>
       <c r="G79" s="17">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>9.9999999999999993E+145</v>
       </c>
       <c r="H79" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>100</v>
       </c>
       <c r="I79" s="16" t="str" cm="1">
@@ -13126,7 +13366,7 @@
         <v>화</v>
       </c>
       <c r="J79" s="16" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1E+144</v>
       </c>
       <c r="K79" s="22">
@@ -13146,11 +13386,11 @@
         <v>1000화</v>
       </c>
       <c r="G80" s="17">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>9.9999999999999998E+146</v>
       </c>
       <c r="H80" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1000</v>
       </c>
       <c r="I80" s="16" t="str" cm="1">
@@ -13158,7 +13398,7 @@
         <v>화</v>
       </c>
       <c r="J80" s="16" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1E+144</v>
       </c>
       <c r="K80" s="22">
@@ -13178,11 +13418,11 @@
         <v>1명</v>
       </c>
       <c r="G81" s="17">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1E+148</v>
       </c>
       <c r="H81" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1</v>
       </c>
       <c r="I81" s="16" t="str" cm="1">
@@ -13190,7 +13430,7 @@
         <v>명</v>
       </c>
       <c r="J81" s="16" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1E+148</v>
       </c>
       <c r="K81" s="22">
@@ -13210,11 +13450,11 @@
         <v>10명</v>
       </c>
       <c r="G82" s="17">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1E+149</v>
       </c>
       <c r="H82" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>10</v>
       </c>
       <c r="I82" s="16" t="str" cm="1">
@@ -13222,7 +13462,7 @@
         <v>명</v>
       </c>
       <c r="J82" s="16" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1E+148</v>
       </c>
       <c r="K82" s="22">
@@ -13242,11 +13482,11 @@
         <v>100명</v>
       </c>
       <c r="G83" s="17">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>9.9999999999999998E+149</v>
       </c>
       <c r="H83" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>100</v>
       </c>
       <c r="I83" s="16" t="str" cm="1">
@@ -13254,7 +13494,7 @@
         <v>명</v>
       </c>
       <c r="J83" s="16" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1E+148</v>
       </c>
       <c r="K83" s="22">
@@ -13274,11 +13514,11 @@
         <v>1000명</v>
       </c>
       <c r="G84" s="17">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1E+151</v>
       </c>
       <c r="H84" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1000</v>
       </c>
       <c r="I84" s="16" t="str" cm="1">
@@ -13286,7 +13526,7 @@
         <v>명</v>
       </c>
       <c r="J84" s="16" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1E+148</v>
       </c>
       <c r="K84" s="22">
@@ -13306,11 +13546,11 @@
         <v>1월</v>
       </c>
       <c r="G85" s="17">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1E+152</v>
       </c>
       <c r="H85" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1</v>
       </c>
       <c r="I85" s="16" t="str" cm="1">
@@ -13318,7 +13558,7 @@
         <v>월</v>
       </c>
       <c r="J85" s="16" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1E+152</v>
       </c>
       <c r="K85" s="22">
@@ -13338,11 +13578,11 @@
         <v>10월</v>
       </c>
       <c r="G86" s="17">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1E+153</v>
       </c>
       <c r="H86" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>10</v>
       </c>
       <c r="I86" s="16" t="str" cm="1">
@@ -13350,7 +13590,7 @@
         <v>월</v>
       </c>
       <c r="J86" s="16" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1E+152</v>
       </c>
       <c r="K86" s="22">
@@ -13370,11 +13610,11 @@
         <v>100월</v>
       </c>
       <c r="G87" s="17">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1E+154</v>
       </c>
       <c r="H87" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>100</v>
       </c>
       <c r="I87" s="16" t="str" cm="1">
@@ -13382,7 +13622,7 @@
         <v>월</v>
       </c>
       <c r="J87" s="16" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1E+152</v>
       </c>
       <c r="K87" s="22">
@@ -13402,11 +13642,11 @@
         <v>1000월</v>
       </c>
       <c r="G88" s="17">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1E+155</v>
       </c>
       <c r="H88" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1000</v>
       </c>
       <c r="I88" s="16" t="str" cm="1">
@@ -13414,7 +13654,7 @@
         <v>월</v>
       </c>
       <c r="J88" s="16" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1E+152</v>
       </c>
       <c r="K88" s="22">
@@ -13434,11 +13674,11 @@
         <v>1후</v>
       </c>
       <c r="G89" s="17">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>9.9999999999999998E+155</v>
       </c>
       <c r="H89" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1</v>
       </c>
       <c r="I89" s="16" t="str" cm="1">
@@ -13446,7 +13686,7 @@
         <v>후</v>
       </c>
       <c r="J89" s="16" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1E+156</v>
       </c>
       <c r="K89" s="22">
@@ -13466,11 +13706,11 @@
         <v>10후</v>
       </c>
       <c r="G90" s="17">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>9.9999999999999998E+156</v>
       </c>
       <c r="H90" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>10</v>
       </c>
       <c r="I90" s="16" t="str" cm="1">
@@ -13478,7 +13718,7 @@
         <v>후</v>
       </c>
       <c r="J90" s="16" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1E+156</v>
       </c>
       <c r="K90" s="22">
@@ -13498,11 +13738,11 @@
         <v>100후</v>
       </c>
       <c r="G91" s="17">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>9.9999999999999995E+157</v>
       </c>
       <c r="H91" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>100</v>
       </c>
       <c r="I91" s="16" t="str" cm="1">
@@ -13510,7 +13750,7 @@
         <v>후</v>
       </c>
       <c r="J91" s="16" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1E+156</v>
       </c>
       <c r="K91" s="22">
@@ -13530,11 +13770,11 @@
         <v>1000후</v>
       </c>
       <c r="G92" s="17">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>9.9999999999999993E+158</v>
       </c>
       <c r="H92" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1000</v>
       </c>
       <c r="I92" s="16" t="str" cm="1">
@@ -13542,7 +13782,7 @@
         <v>후</v>
       </c>
       <c r="J92" s="16" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1E+156</v>
       </c>
       <c r="K92" s="22">
@@ -13562,11 +13802,11 @@
         <v>1단</v>
       </c>
       <c r="G93" s="17">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1E+160</v>
       </c>
       <c r="H93" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1</v>
       </c>
       <c r="I93" s="16" t="str" cm="1">
@@ -13574,7 +13814,7 @@
         <v>단</v>
       </c>
       <c r="J93" s="16" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1E+160</v>
       </c>
       <c r="K93" s="22">
@@ -13594,11 +13834,11 @@
         <v>10단</v>
       </c>
       <c r="G94" s="17">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1E+161</v>
       </c>
       <c r="H94" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>10</v>
       </c>
       <c r="I94" s="16" t="str" cm="1">
@@ -13606,7 +13846,7 @@
         <v>단</v>
       </c>
       <c r="J94" s="16" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1E+160</v>
       </c>
       <c r="K94" s="22">
@@ -13626,11 +13866,11 @@
         <v>100단</v>
       </c>
       <c r="G95" s="17">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>9.9999999999999994E+161</v>
       </c>
       <c r="H95" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>100</v>
       </c>
       <c r="I95" s="16" t="str" cm="1">
@@ -13638,7 +13878,7 @@
         <v>단</v>
       </c>
       <c r="J95" s="16" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1E+160</v>
       </c>
       <c r="K95" s="22">
@@ -13658,11 +13898,11 @@
         <v>1000단</v>
       </c>
       <c r="G96" s="17">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>9.9999999999999994E+162</v>
       </c>
       <c r="H96" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1000</v>
       </c>
       <c r="I96" s="16" t="str" cm="1">
@@ -13670,7 +13910,7 @@
         <v>단</v>
       </c>
       <c r="J96" s="16" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1E+160</v>
       </c>
       <c r="K96" s="22">
@@ -13690,11 +13930,11 @@
         <v>1절</v>
       </c>
       <c r="G97" s="17">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1E+164</v>
       </c>
       <c r="H97" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1</v>
       </c>
       <c r="I97" s="16" t="str" cm="1">
@@ -13702,7 +13942,7 @@
         <v>절</v>
       </c>
       <c r="J97" s="16" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1E+164</v>
       </c>
       <c r="K97" s="22">
@@ -13722,11 +13962,11 @@
         <v>10절</v>
       </c>
       <c r="G98" s="17">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1.0000000000000001E+165</v>
       </c>
       <c r="H98" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>10</v>
       </c>
       <c r="I98" s="16" t="str" cm="1">
@@ -13734,7 +13974,7 @@
         <v>절</v>
       </c>
       <c r="J98" s="16" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1E+164</v>
       </c>
       <c r="K98" s="22">
@@ -13754,11 +13994,11 @@
         <v>100절</v>
       </c>
       <c r="G99" s="17">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>9.9999999999999994E+165</v>
       </c>
       <c r="H99" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>100</v>
       </c>
       <c r="I99" s="16" t="str" cm="1">
@@ -13766,7 +14006,7 @@
         <v>절</v>
       </c>
       <c r="J99" s="16" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1E+164</v>
       </c>
       <c r="K99" s="22">
@@ -13786,11 +14026,11 @@
         <v>1000절</v>
       </c>
       <c r="G100" s="17">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1E+167</v>
       </c>
       <c r="H100" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1000</v>
       </c>
       <c r="I100" s="16" t="str" cm="1">
@@ -13798,7 +14038,7 @@
         <v>절</v>
       </c>
       <c r="J100" s="16" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1E+164</v>
       </c>
       <c r="K100" s="22">
@@ -13818,11 +14058,11 @@
         <v>1격</v>
       </c>
       <c r="G101" s="17">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>9.9999999999999993E+167</v>
       </c>
       <c r="H101" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1</v>
       </c>
       <c r="I101" s="16" t="str" cm="1">
@@ -13830,7 +14070,7 @@
         <v>격</v>
       </c>
       <c r="J101" s="16" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1E+168</v>
       </c>
       <c r="K101" s="22">
@@ -13851,11 +14091,11 @@
         <v>10격</v>
       </c>
       <c r="G102" s="17">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>9.9999999999999993E+168</v>
       </c>
       <c r="H102" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>10</v>
       </c>
       <c r="I102" s="16" t="str" cm="1">
@@ -13863,11 +14103,11 @@
         <v>격</v>
       </c>
       <c r="J102" s="16" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1E+168</v>
       </c>
       <c r="K102" s="22">
-        <f t="shared" ref="K102:K176" si="52">K98+1000</f>
+        <f t="shared" ref="K102:K180" si="54">K98+1000</f>
         <v>24000</v>
       </c>
       <c r="L102" s="22">
@@ -13884,11 +14124,11 @@
         <v>100격</v>
       </c>
       <c r="G103" s="17">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>9.999999999999999E+169</v>
       </c>
       <c r="H103" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>100</v>
       </c>
       <c r="I103" s="16" t="str" cm="1">
@@ -13896,11 +14136,11 @@
         <v>격</v>
       </c>
       <c r="J103" s="16" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1E+168</v>
       </c>
       <c r="K103" s="22">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>24000</v>
       </c>
       <c r="L103" s="22">
@@ -13917,11 +14157,11 @@
         <v>1000격</v>
       </c>
       <c r="G104" s="17">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>9.9999999999999995E+170</v>
       </c>
       <c r="H104" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1000</v>
       </c>
       <c r="I104" s="16" t="str" cm="1">
@@ -13929,11 +14169,11 @@
         <v>격</v>
       </c>
       <c r="J104" s="16" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1E+168</v>
       </c>
       <c r="K104" s="22">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>24000</v>
       </c>
       <c r="L104" s="22">
@@ -13946,15 +14186,15 @@
         <v>96</v>
       </c>
       <c r="F105" s="17" t="str">
-        <f t="shared" ref="F105:F112" si="53">H105&amp;I105</f>
+        <f t="shared" ref="F105:F112" si="55">H105&amp;I105</f>
         <v>1창</v>
       </c>
       <c r="G105" s="17">
-        <f t="shared" ref="G105:G112" si="54">H105*J105</f>
+        <f t="shared" ref="G105:G112" si="56">H105*J105</f>
         <v>1.0000000000000001E+172</v>
       </c>
       <c r="H105" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1</v>
       </c>
       <c r="I105" s="16" t="str" cm="1">
@@ -13962,11 +14202,11 @@
         <v>창</v>
       </c>
       <c r="J105" s="16" t="str">
-        <f t="shared" ref="J105:J112" si="55">VLOOKUP(I105,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J105:J112" si="57">VLOOKUP(I105,N:Q,4,FALSE)</f>
         <v>1E+172</v>
       </c>
       <c r="K105" s="22">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>25000</v>
       </c>
       <c r="L105" s="22">
@@ -13978,15 +14218,15 @@
         <v>97</v>
       </c>
       <c r="F106" s="17" t="str">
+        <f t="shared" si="55"/>
+        <v>10창</v>
+      </c>
+      <c r="G106" s="17">
+        <f t="shared" si="56"/>
+        <v>1E+173</v>
+      </c>
+      <c r="H106" s="17">
         <f t="shared" si="53"/>
-        <v>10창</v>
-      </c>
-      <c r="G106" s="17">
-        <f t="shared" si="54"/>
-        <v>1E+173</v>
-      </c>
-      <c r="H106" s="17">
-        <f t="shared" si="51"/>
         <v>10</v>
       </c>
       <c r="I106" s="16" t="str" cm="1">
@@ -13994,11 +14234,11 @@
         <v>창</v>
       </c>
       <c r="J106" s="16" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>1E+172</v>
       </c>
       <c r="K106" s="22">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>25000</v>
       </c>
       <c r="L106" s="22">
@@ -14010,15 +14250,15 @@
         <v>98</v>
       </c>
       <c r="F107" s="17" t="str">
+        <f t="shared" si="55"/>
+        <v>100창</v>
+      </c>
+      <c r="G107" s="17">
+        <f t="shared" si="56"/>
+        <v>1.0000000000000001E+174</v>
+      </c>
+      <c r="H107" s="17">
         <f t="shared" si="53"/>
-        <v>100창</v>
-      </c>
-      <c r="G107" s="17">
-        <f t="shared" si="54"/>
-        <v>1.0000000000000001E+174</v>
-      </c>
-      <c r="H107" s="17">
-        <f t="shared" si="51"/>
         <v>100</v>
       </c>
       <c r="I107" s="16" t="str" cm="1">
@@ -14026,11 +14266,11 @@
         <v>창</v>
       </c>
       <c r="J107" s="16" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>1E+172</v>
       </c>
       <c r="K107" s="22">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>25000</v>
       </c>
       <c r="L107" s="22">
@@ -14042,15 +14282,15 @@
         <v>99</v>
       </c>
       <c r="F108" s="17" t="str">
+        <f t="shared" si="55"/>
+        <v>1000창</v>
+      </c>
+      <c r="G108" s="17">
+        <f t="shared" si="56"/>
+        <v>1.0000000000000001E+175</v>
+      </c>
+      <c r="H108" s="17">
         <f t="shared" si="53"/>
-        <v>1000창</v>
-      </c>
-      <c r="G108" s="17">
-        <f t="shared" si="54"/>
-        <v>1.0000000000000001E+175</v>
-      </c>
-      <c r="H108" s="17">
-        <f t="shared" si="51"/>
         <v>1000</v>
       </c>
       <c r="I108" s="16" t="str" cm="1">
@@ -14058,11 +14298,11 @@
         <v>창</v>
       </c>
       <c r="J108" s="16" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>1E+172</v>
       </c>
       <c r="K108" s="22">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>25000</v>
       </c>
       <c r="L108" s="22">
@@ -14074,15 +14314,15 @@
         <v>100</v>
       </c>
       <c r="F109" s="17" t="str">
+        <f t="shared" si="55"/>
+        <v>1공</v>
+      </c>
+      <c r="G109" s="17">
+        <f t="shared" si="56"/>
+        <v>1E+176</v>
+      </c>
+      <c r="H109" s="17">
         <f t="shared" si="53"/>
-        <v>1공</v>
-      </c>
-      <c r="G109" s="17">
-        <f t="shared" si="54"/>
-        <v>1E+176</v>
-      </c>
-      <c r="H109" s="17">
-        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="I109" s="16" t="str" cm="1">
@@ -14090,11 +14330,11 @@
         <v>공</v>
       </c>
       <c r="J109" s="16" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>1E+176</v>
       </c>
       <c r="K109" s="22">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>26000</v>
       </c>
       <c r="L109" s="22">
@@ -14106,15 +14346,15 @@
         <v>101</v>
       </c>
       <c r="F110" s="17" t="str">
+        <f t="shared" si="55"/>
+        <v>10공</v>
+      </c>
+      <c r="G110" s="17">
+        <f t="shared" si="56"/>
+        <v>1E+177</v>
+      </c>
+      <c r="H110" s="17">
         <f t="shared" si="53"/>
-        <v>10공</v>
-      </c>
-      <c r="G110" s="17">
-        <f t="shared" si="54"/>
-        <v>1E+177</v>
-      </c>
-      <c r="H110" s="17">
-        <f t="shared" si="51"/>
         <v>10</v>
       </c>
       <c r="I110" s="16" t="str" cm="1">
@@ -14122,11 +14362,11 @@
         <v>공</v>
       </c>
       <c r="J110" s="16" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>1E+176</v>
       </c>
       <c r="K110" s="22">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>26000</v>
       </c>
       <c r="L110" s="22">
@@ -14138,15 +14378,15 @@
         <v>102</v>
       </c>
       <c r="F111" s="17" t="str">
+        <f t="shared" si="55"/>
+        <v>100공</v>
+      </c>
+      <c r="G111" s="17">
+        <f t="shared" si="56"/>
+        <v>1.0000000000000001E+178</v>
+      </c>
+      <c r="H111" s="17">
         <f t="shared" si="53"/>
-        <v>100공</v>
-      </c>
-      <c r="G111" s="17">
-        <f t="shared" si="54"/>
-        <v>1.0000000000000001E+178</v>
-      </c>
-      <c r="H111" s="17">
-        <f t="shared" si="51"/>
         <v>100</v>
       </c>
       <c r="I111" s="16" t="str" cm="1">
@@ -14154,11 +14394,11 @@
         <v>공</v>
       </c>
       <c r="J111" s="16" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>1E+176</v>
       </c>
       <c r="K111" s="22">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>26000</v>
       </c>
       <c r="L111" s="22">
@@ -14170,15 +14410,15 @@
         <v>103</v>
       </c>
       <c r="F112" s="17" t="str">
+        <f t="shared" si="55"/>
+        <v>1000공</v>
+      </c>
+      <c r="G112" s="17">
+        <f t="shared" si="56"/>
+        <v>9.9999999999999998E+178</v>
+      </c>
+      <c r="H112" s="17">
         <f t="shared" si="53"/>
-        <v>1000공</v>
-      </c>
-      <c r="G112" s="17">
-        <f t="shared" si="54"/>
-        <v>9.9999999999999998E+178</v>
-      </c>
-      <c r="H112" s="17">
-        <f t="shared" si="51"/>
         <v>1000</v>
       </c>
       <c r="I112" s="16" t="str" cm="1">
@@ -14186,11 +14426,11 @@
         <v>공</v>
       </c>
       <c r="J112" s="16" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>1E+176</v>
       </c>
       <c r="K112" s="22">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>26000</v>
       </c>
       <c r="L112" s="22">
@@ -14202,15 +14442,15 @@
         <v>104</v>
       </c>
       <c r="F113" s="17" t="str">
-        <f t="shared" ref="F113:F120" si="56">H113&amp;I113</f>
+        <f t="shared" ref="F113:F120" si="58">H113&amp;I113</f>
         <v>1채</v>
       </c>
       <c r="G113" s="17">
-        <f t="shared" ref="G113:G120" si="57">H113*J113</f>
+        <f t="shared" ref="G113:G120" si="59">H113*J113</f>
         <v>1E+180</v>
       </c>
       <c r="H113" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1</v>
       </c>
       <c r="I113" s="16" t="str" cm="1">
@@ -14218,11 +14458,11 @@
         <v>채</v>
       </c>
       <c r="J113" s="16" t="str">
-        <f t="shared" ref="J113:J120" si="58">VLOOKUP(I113,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J113:J120" si="60">VLOOKUP(I113,N:Q,4,FALSE)</f>
         <v>1E+180</v>
       </c>
       <c r="K113" s="22">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>27000</v>
       </c>
       <c r="L113" s="22">
@@ -14234,15 +14474,15 @@
         <v>105</v>
       </c>
       <c r="F114" s="17" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>10채</v>
       </c>
       <c r="G114" s="17">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>9.9999999999999992E+180</v>
       </c>
       <c r="H114" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>10</v>
       </c>
       <c r="I114" s="16" t="str" cm="1">
@@ -14250,11 +14490,11 @@
         <v>채</v>
       </c>
       <c r="J114" s="16" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>1E+180</v>
       </c>
       <c r="K114" s="22">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>27000</v>
       </c>
       <c r="L114" s="22">
@@ -14266,15 +14506,15 @@
         <v>106</v>
       </c>
       <c r="F115" s="17" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>100채</v>
       </c>
       <c r="G115" s="17">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>1.0000000000000001E+182</v>
       </c>
       <c r="H115" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>100</v>
       </c>
       <c r="I115" s="16" t="str" cm="1">
@@ -14282,11 +14522,11 @@
         <v>채</v>
       </c>
       <c r="J115" s="16" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>1E+180</v>
       </c>
       <c r="K115" s="22">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>27000</v>
       </c>
       <c r="L115" s="22">
@@ -14298,15 +14538,15 @@
         <v>107</v>
       </c>
       <c r="F116" s="17" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>1000채</v>
       </c>
       <c r="G116" s="17">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>1.0000000000000001E+183</v>
       </c>
       <c r="H116" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1000</v>
       </c>
       <c r="I116" s="16" t="str" cm="1">
@@ -14314,11 +14554,11 @@
         <v>채</v>
       </c>
       <c r="J116" s="16" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>1E+180</v>
       </c>
       <c r="K116" s="22">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>27000</v>
       </c>
       <c r="L116" s="22">
@@ -14330,15 +14570,15 @@
         <v>108</v>
       </c>
       <c r="F117" s="17" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>1피</v>
       </c>
       <c r="G117" s="17">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>1E+184</v>
       </c>
       <c r="H117" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1</v>
       </c>
       <c r="I117" s="16" t="str" cm="1">
@@ -14346,11 +14586,11 @@
         <v>피</v>
       </c>
       <c r="J117" s="16" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>1E+184</v>
       </c>
       <c r="K117" s="22">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>28000</v>
       </c>
       <c r="L117" s="22">
@@ -14362,15 +14602,15 @@
         <v>109</v>
       </c>
       <c r="F118" s="17" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>10피</v>
       </c>
       <c r="G118" s="17">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>9.9999999999999998E+184</v>
       </c>
       <c r="H118" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>10</v>
       </c>
       <c r="I118" s="16" t="str" cm="1">
@@ -14378,11 +14618,11 @@
         <v>피</v>
       </c>
       <c r="J118" s="16" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>1E+184</v>
       </c>
       <c r="K118" s="22">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>28000</v>
       </c>
       <c r="L118" s="22">
@@ -14394,15 +14634,15 @@
         <v>110</v>
       </c>
       <c r="F119" s="17" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>100피</v>
       </c>
       <c r="G119" s="17">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>9.9999999999999998E+185</v>
       </c>
       <c r="H119" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>100</v>
       </c>
       <c r="I119" s="16" t="str" cm="1">
@@ -14410,11 +14650,11 @@
         <v>피</v>
       </c>
       <c r="J119" s="16" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>1E+184</v>
       </c>
       <c r="K119" s="22">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>28000</v>
       </c>
       <c r="L119" s="22">
@@ -14426,15 +14666,15 @@
         <v>111</v>
       </c>
       <c r="F120" s="17" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>1000피</v>
       </c>
       <c r="G120" s="17">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>1.0000000000000001E+187</v>
       </c>
       <c r="H120" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1000</v>
       </c>
       <c r="I120" s="16" t="str" cm="1">
@@ -14442,11 +14682,11 @@
         <v>피</v>
       </c>
       <c r="J120" s="16" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>1E+184</v>
       </c>
       <c r="K120" s="22">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>28000</v>
       </c>
       <c r="L120" s="22">
@@ -14458,15 +14698,15 @@
         <v>112</v>
       </c>
       <c r="F121" s="17" t="str">
-        <f t="shared" ref="F121:F124" si="59">H121&amp;I121</f>
+        <f t="shared" ref="F121:F124" si="61">H121&amp;I121</f>
         <v>1동</v>
       </c>
       <c r="G121" s="17">
-        <f t="shared" ref="G121:G124" si="60">H121*J121</f>
+        <f t="shared" ref="G121:G124" si="62">H121*J121</f>
         <v>1E+188</v>
       </c>
       <c r="H121" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1</v>
       </c>
       <c r="I121" s="16" t="str" cm="1">
@@ -14474,11 +14714,11 @@
         <v>동</v>
       </c>
       <c r="J121" s="16" t="str">
-        <f t="shared" ref="J121:J124" si="61">VLOOKUP(I121,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J121:J124" si="63">VLOOKUP(I121,N:Q,4,FALSE)</f>
         <v>1E+188</v>
       </c>
       <c r="K121" s="22">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>29000</v>
       </c>
       <c r="L121" s="22">
@@ -14490,15 +14730,15 @@
         <v>113</v>
       </c>
       <c r="F122" s="17" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>10동</v>
       </c>
       <c r="G122" s="17">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>1E+189</v>
       </c>
       <c r="H122" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>10</v>
       </c>
       <c r="I122" s="16" t="str" cm="1">
@@ -14506,11 +14746,11 @@
         <v>동</v>
       </c>
       <c r="J122" s="16" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>1E+188</v>
       </c>
       <c r="K122" s="22">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>29000</v>
       </c>
       <c r="L122" s="22">
@@ -14522,15 +14762,15 @@
         <v>114</v>
       </c>
       <c r="F123" s="17" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>100동</v>
       </c>
       <c r="G123" s="17">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>1.0000000000000001E+190</v>
       </c>
       <c r="H123" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>100</v>
       </c>
       <c r="I123" s="16" t="str" cm="1">
@@ -14538,11 +14778,11 @@
         <v>동</v>
       </c>
       <c r="J123" s="16" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>1E+188</v>
       </c>
       <c r="K123" s="22">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>29000</v>
       </c>
       <c r="L123" s="22">
@@ -14554,15 +14794,15 @@
         <v>115</v>
       </c>
       <c r="F124" s="17" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>1000동</v>
       </c>
       <c r="G124" s="17">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>1.0000000000000001E+191</v>
       </c>
       <c r="H124" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1000</v>
       </c>
       <c r="I124" s="16" t="str" cm="1">
@@ -14570,11 +14810,11 @@
         <v>동</v>
       </c>
       <c r="J124" s="16" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>1E+188</v>
       </c>
       <c r="K124" s="22">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>29000</v>
       </c>
       <c r="L124" s="22">
@@ -14586,15 +14826,15 @@
         <v>116</v>
       </c>
       <c r="F125" s="17" t="str">
-        <f t="shared" ref="F125:F128" si="62">H125&amp;I125</f>
+        <f t="shared" ref="F125:F128" si="64">H125&amp;I125</f>
         <v>1멸</v>
       </c>
       <c r="G125" s="17">
-        <f t="shared" ref="G125:G128" si="63">H125*J125</f>
+        <f t="shared" ref="G125:G128" si="65">H125*J125</f>
         <v>1E+192</v>
       </c>
       <c r="H125" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1</v>
       </c>
       <c r="I125" s="16" t="str" cm="1">
@@ -14602,11 +14842,11 @@
         <v>멸</v>
       </c>
       <c r="J125" s="16" t="str">
-        <f t="shared" ref="J125:J128" si="64">VLOOKUP(I125,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J125:J128" si="66">VLOOKUP(I125,N:Q,4,FALSE)</f>
         <v>1E+192</v>
       </c>
       <c r="K125" s="22">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>30000</v>
       </c>
       <c r="L125" s="22">
@@ -14618,15 +14858,15 @@
         <v>117</v>
       </c>
       <c r="F126" s="17" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>10멸</v>
       </c>
       <c r="G126" s="17">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>1.0000000000000001E+193</v>
       </c>
       <c r="H126" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>10</v>
       </c>
       <c r="I126" s="16" t="str" cm="1">
@@ -14634,11 +14874,11 @@
         <v>멸</v>
       </c>
       <c r="J126" s="16" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>1E+192</v>
       </c>
       <c r="K126" s="22">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>30000</v>
       </c>
       <c r="L126" s="22">
@@ -14650,15 +14890,15 @@
         <v>118</v>
       </c>
       <c r="F127" s="17" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>100멸</v>
       </c>
       <c r="G127" s="17">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>1.0000000000000001E+194</v>
       </c>
       <c r="H127" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>100</v>
       </c>
       <c r="I127" s="16" t="str" cm="1">
@@ -14666,11 +14906,11 @@
         <v>멸</v>
       </c>
       <c r="J127" s="16" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>1E+192</v>
       </c>
       <c r="K127" s="22">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>30000</v>
       </c>
       <c r="L127" s="22">
@@ -14682,15 +14922,15 @@
         <v>119</v>
       </c>
       <c r="F128" s="17" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>1000멸</v>
       </c>
       <c r="G128" s="17">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>9.9999999999999998E+194</v>
       </c>
       <c r="H128" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1000</v>
       </c>
       <c r="I128" s="16" t="str" cm="1">
@@ -14698,11 +14938,11 @@
         <v>멸</v>
       </c>
       <c r="J128" s="16" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>1E+192</v>
       </c>
       <c r="K128" s="22">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>30000</v>
       </c>
       <c r="L128" s="22">
@@ -14714,15 +14954,15 @@
         <v>120</v>
       </c>
       <c r="F129" s="17" t="str">
-        <f t="shared" ref="F129:F136" si="65">H129&amp;I129</f>
+        <f t="shared" ref="F129:F136" si="67">H129&amp;I129</f>
         <v>1향</v>
       </c>
       <c r="G129" s="17">
-        <f t="shared" ref="G129:G136" si="66">H129*J129</f>
+        <f t="shared" ref="G129:G136" si="68">H129*J129</f>
         <v>9.9999999999999995E+195</v>
       </c>
       <c r="H129" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1</v>
       </c>
       <c r="I129" s="16" t="str" cm="1">
@@ -14730,11 +14970,11 @@
         <v>향</v>
       </c>
       <c r="J129" s="16" t="str">
-        <f t="shared" ref="J129:J136" si="67">VLOOKUP(I129,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J129:J136" si="69">VLOOKUP(I129,N:Q,4,FALSE)</f>
         <v>1E+196</v>
       </c>
       <c r="K129" s="22">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>31000</v>
       </c>
       <c r="L129" s="22">
@@ -14746,15 +14986,15 @@
         <v>121</v>
       </c>
       <c r="F130" s="17" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>10향</v>
       </c>
       <c r="G130" s="17">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>9.9999999999999995E+196</v>
       </c>
       <c r="H130" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>10</v>
       </c>
       <c r="I130" s="16" t="str" cm="1">
@@ -14762,11 +15002,11 @@
         <v>향</v>
       </c>
       <c r="J130" s="16" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>1E+196</v>
       </c>
       <c r="K130" s="22">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>31000</v>
       </c>
       <c r="L130" s="22">
@@ -14778,15 +15018,15 @@
         <v>122</v>
       </c>
       <c r="F131" s="17" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>100향</v>
       </c>
       <c r="G131" s="17">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>9.9999999999999988E+197</v>
       </c>
       <c r="H131" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>100</v>
       </c>
       <c r="I131" s="16" t="str" cm="1">
@@ -14794,11 +15034,11 @@
         <v>향</v>
       </c>
       <c r="J131" s="16" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>1E+196</v>
       </c>
       <c r="K131" s="22">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>31000</v>
       </c>
       <c r="L131" s="22">
@@ -14810,15 +15050,15 @@
         <v>123</v>
       </c>
       <c r="F132" s="17" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>1000향</v>
       </c>
       <c r="G132" s="17">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>9.9999999999999988E+198</v>
       </c>
       <c r="H132" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1000</v>
       </c>
       <c r="I132" s="16" t="str" cm="1">
@@ -14826,11 +15066,11 @@
         <v>향</v>
       </c>
       <c r="J132" s="16" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>1E+196</v>
       </c>
       <c r="K132" s="22">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>31000</v>
       </c>
       <c r="L132" s="22">
@@ -14842,15 +15082,15 @@
         <v>124</v>
       </c>
       <c r="F133" s="17" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>1증</v>
       </c>
       <c r="G133" s="17">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>9.9999999999999997E+199</v>
       </c>
       <c r="H133" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1</v>
       </c>
       <c r="I133" s="16" t="str" cm="1">
@@ -14858,11 +15098,11 @@
         <v>증</v>
       </c>
       <c r="J133" s="16" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>1E+200</v>
       </c>
       <c r="K133" s="22">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>32000</v>
       </c>
       <c r="L133" s="22">
@@ -14874,15 +15114,15 @@
         <v>125</v>
       </c>
       <c r="F134" s="17" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>10증</v>
       </c>
       <c r="G134" s="17">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>9.999999999999999E+200</v>
       </c>
       <c r="H134" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>10</v>
       </c>
       <c r="I134" s="16" t="str" cm="1">
@@ -14890,11 +15130,11 @@
         <v>증</v>
       </c>
       <c r="J134" s="16" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>1E+200</v>
       </c>
       <c r="K134" s="22">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>32000</v>
       </c>
       <c r="L134" s="22">
@@ -14906,15 +15146,15 @@
         <v>126</v>
       </c>
       <c r="F135" s="17" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>100증</v>
       </c>
       <c r="G135" s="17">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>9.999999999999999E+201</v>
       </c>
       <c r="H135" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>100</v>
       </c>
       <c r="I135" s="16" t="str" cm="1">
@@ -14922,11 +15162,11 @@
         <v>증</v>
       </c>
       <c r="J135" s="16" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>1E+200</v>
       </c>
       <c r="K135" s="22">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>32000</v>
       </c>
       <c r="L135" s="22">
@@ -14938,15 +15178,15 @@
         <v>127</v>
       </c>
       <c r="F136" s="17" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>1000증</v>
       </c>
       <c r="G136" s="17">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>9.9999999999999999E+202</v>
       </c>
       <c r="H136" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1000</v>
       </c>
       <c r="I136" s="16" t="str" cm="1">
@@ -14954,11 +15194,11 @@
         <v>증</v>
       </c>
       <c r="J136" s="16" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>1E+200</v>
       </c>
       <c r="K136" s="22">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>32000</v>
       </c>
       <c r="L136" s="22">
@@ -14970,15 +15210,15 @@
         <v>128</v>
       </c>
       <c r="F137" s="17" t="str">
-        <f t="shared" ref="F137:F140" si="68">H137&amp;I137</f>
+        <f t="shared" ref="F137:F140" si="70">H137&amp;I137</f>
         <v>1쾌</v>
       </c>
       <c r="G137" s="17">
-        <f t="shared" ref="G137:G140" si="69">H137*J137</f>
+        <f t="shared" ref="G137:G140" si="71">H137*J137</f>
         <v>9.9999999999999999E+203</v>
       </c>
       <c r="H137" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1</v>
       </c>
       <c r="I137" s="16" t="str" cm="1">
@@ -14986,11 +15226,11 @@
         <v>쾌</v>
       </c>
       <c r="J137" s="16" t="str">
-        <f t="shared" ref="J137:J140" si="70">VLOOKUP(I137,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J137:J140" si="72">VLOOKUP(I137,N:Q,4,FALSE)</f>
         <v>1E+204</v>
       </c>
       <c r="K137" s="22">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>33000</v>
       </c>
       <c r="L137" s="22">
@@ -15002,15 +15242,15 @@
         <v>129</v>
       </c>
       <c r="F138" s="17" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>10쾌</v>
       </c>
       <c r="G138" s="17">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>1E+205</v>
       </c>
       <c r="H138" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>10</v>
       </c>
       <c r="I138" s="16" t="str" cm="1">
@@ -15018,11 +15258,11 @@
         <v>쾌</v>
       </c>
       <c r="J138" s="16" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>1E+204</v>
       </c>
       <c r="K138" s="22">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>33000</v>
       </c>
       <c r="L138" s="22">
@@ -15034,15 +15274,15 @@
         <v>130</v>
       </c>
       <c r="F139" s="17" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>100쾌</v>
       </c>
       <c r="G139" s="17">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>1E+206</v>
       </c>
       <c r="H139" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>100</v>
       </c>
       <c r="I139" s="16" t="str" cm="1">
@@ -15050,11 +15290,11 @@
         <v>쾌</v>
       </c>
       <c r="J139" s="16" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>1E+204</v>
       </c>
       <c r="K139" s="22">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>33000</v>
       </c>
       <c r="L139" s="22">
@@ -15066,15 +15306,15 @@
         <v>131</v>
       </c>
       <c r="F140" s="17" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>1000쾌</v>
       </c>
       <c r="G140" s="17">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>1E+207</v>
       </c>
       <c r="H140" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1000</v>
       </c>
       <c r="I140" s="16" t="str" cm="1">
@@ -15082,11 +15322,11 @@
         <v>쾌</v>
       </c>
       <c r="J140" s="16" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>1E+204</v>
       </c>
       <c r="K140" s="22">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>33000</v>
       </c>
       <c r="L140" s="22">
@@ -15098,15 +15338,15 @@
         <v>132</v>
       </c>
       <c r="F141" s="17" t="str">
-        <f t="shared" ref="F141:F144" si="71">H141&amp;I141</f>
+        <f t="shared" ref="F141:F144" si="73">H141&amp;I141</f>
         <v>1우</v>
       </c>
       <c r="G141" s="17">
-        <f t="shared" ref="G141:G144" si="72">H141*J141</f>
+        <f t="shared" ref="G141:G144" si="74">H141*J141</f>
         <v>9.9999999999999998E+207</v>
       </c>
       <c r="H141" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1</v>
       </c>
       <c r="I141" s="16" t="str" cm="1">
@@ -15114,11 +15354,11 @@
         <v>우</v>
       </c>
       <c r="J141" s="16" t="str">
-        <f t="shared" ref="J141:J144" si="73">VLOOKUP(I141,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J141:J144" si="75">VLOOKUP(I141,N:Q,4,FALSE)</f>
         <v>1E+208</v>
       </c>
       <c r="K141" s="22">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>34000</v>
       </c>
       <c r="L141" s="22">
@@ -15130,15 +15370,15 @@
         <v>133</v>
       </c>
       <c r="F142" s="17" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>10우</v>
       </c>
       <c r="G142" s="17">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>1.0000000000000001E+209</v>
       </c>
       <c r="H142" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>10</v>
       </c>
       <c r="I142" s="16" t="str" cm="1">
@@ -15146,11 +15386,11 @@
         <v>우</v>
       </c>
       <c r="J142" s="16" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>1E+208</v>
       </c>
       <c r="K142" s="22">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>34000</v>
       </c>
       <c r="L142" s="22">
@@ -15162,15 +15402,15 @@
         <v>134</v>
       </c>
       <c r="F143" s="17" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>100우</v>
       </c>
       <c r="G143" s="17">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>9.9999999999999993E+209</v>
       </c>
       <c r="H143" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>100</v>
       </c>
       <c r="I143" s="16" t="str" cm="1">
@@ -15178,11 +15418,11 @@
         <v>우</v>
       </c>
       <c r="J143" s="16" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>1E+208</v>
       </c>
       <c r="K143" s="22">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>34000</v>
       </c>
       <c r="L143" s="22">
@@ -15194,15 +15434,15 @@
         <v>135</v>
       </c>
       <c r="F144" s="17" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>1000우</v>
       </c>
       <c r="G144" s="17">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>9.9999999999999996E+210</v>
       </c>
       <c r="H144" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1000</v>
       </c>
       <c r="I144" s="16" t="str" cm="1">
@@ -15210,11 +15450,11 @@
         <v>우</v>
       </c>
       <c r="J144" s="16" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>1E+208</v>
       </c>
       <c r="K144" s="22">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>34000</v>
       </c>
       <c r="L144" s="22">
@@ -15226,15 +15466,15 @@
         <v>136</v>
       </c>
       <c r="F145" s="17" t="str">
-        <f t="shared" ref="F145:F151" si="74">H145&amp;I145</f>
+        <f t="shared" ref="F145:F151" si="76">H145&amp;I145</f>
         <v>1팽</v>
       </c>
       <c r="G145" s="17">
-        <f t="shared" ref="G145:G151" si="75">H145*J145</f>
+        <f t="shared" ref="G145:G151" si="77">H145*J145</f>
         <v>9.9999999999999991E+211</v>
       </c>
       <c r="H145" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1</v>
       </c>
       <c r="I145" s="16" t="str" cm="1">
@@ -15242,11 +15482,11 @@
         <v>팽</v>
       </c>
       <c r="J145" s="16" t="str">
-        <f t="shared" ref="J145:J151" si="76">VLOOKUP(I145,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J145:J151" si="78">VLOOKUP(I145,N:Q,4,FALSE)</f>
         <v>1E+212</v>
       </c>
       <c r="K145" s="22">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>35000</v>
       </c>
       <c r="L145" s="22">
@@ -15258,15 +15498,15 @@
         <v>137</v>
       </c>
       <c r="F146" s="17" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>10팽</v>
       </c>
       <c r="G146" s="17">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>9.9999999999999983E+212</v>
       </c>
       <c r="H146" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>10</v>
       </c>
       <c r="I146" s="16" t="str" cm="1">
@@ -15274,11 +15514,11 @@
         <v>팽</v>
       </c>
       <c r="J146" s="16" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>1E+212</v>
       </c>
       <c r="K146" s="22">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>35000</v>
       </c>
       <c r="L146" s="22">
@@ -15290,15 +15530,15 @@
         <v>138</v>
       </c>
       <c r="F147" s="17" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>100팽</v>
       </c>
       <c r="G147" s="17">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>9.9999999999999995E+213</v>
       </c>
       <c r="H147" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>100</v>
       </c>
       <c r="I147" s="16" t="str" cm="1">
@@ -15306,11 +15546,11 @@
         <v>팽</v>
       </c>
       <c r="J147" s="16" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>1E+212</v>
       </c>
       <c r="K147" s="22">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>35000</v>
       </c>
       <c r="L147" s="22">
@@ -15322,15 +15562,15 @@
         <v>139</v>
       </c>
       <c r="F148" s="17" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>1000팽</v>
       </c>
       <c r="G148" s="17">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>9.9999999999999991E+214</v>
       </c>
       <c r="H148" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1000</v>
       </c>
       <c r="I148" s="16" t="str" cm="1">
@@ -15338,11 +15578,11 @@
         <v>팽</v>
       </c>
       <c r="J148" s="16" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>1E+212</v>
       </c>
       <c r="K148" s="22">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>35000</v>
       </c>
       <c r="L148" s="22">
@@ -15354,15 +15594,15 @@
         <v>140</v>
       </c>
       <c r="F149" s="17" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>1관</v>
       </c>
       <c r="G149" s="17">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>1E+216</v>
       </c>
       <c r="H149" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1</v>
       </c>
       <c r="I149" s="16" t="str" cm="1">
@@ -15370,11 +15610,11 @@
         <v>관</v>
       </c>
       <c r="J149" s="16" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>1E+216</v>
       </c>
       <c r="K149" s="22">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>36000</v>
       </c>
       <c r="L149" s="22">
@@ -15386,15 +15626,15 @@
         <v>141</v>
       </c>
       <c r="F150" s="17" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>10관</v>
       </c>
       <c r="G150" s="17">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>1.0000000000000001E+217</v>
       </c>
       <c r="H150" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>10</v>
       </c>
       <c r="I150" s="16" t="str" cm="1">
@@ -15402,11 +15642,11 @@
         <v>관</v>
       </c>
       <c r="J150" s="16" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>1E+216</v>
       </c>
       <c r="K150" s="22">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>36000</v>
       </c>
       <c r="L150" s="22">
@@ -15418,15 +15658,15 @@
         <v>142</v>
       </c>
       <c r="F151" s="17" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>100관</v>
       </c>
       <c r="G151" s="17">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>1.0000000000000001E+218</v>
       </c>
       <c r="H151" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>100</v>
       </c>
       <c r="I151" s="16" t="str" cm="1">
@@ -15434,11 +15674,11 @@
         <v>관</v>
       </c>
       <c r="J151" s="16" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>1E+216</v>
       </c>
       <c r="K151" s="22">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>36000</v>
       </c>
       <c r="L151" s="22">
@@ -15450,15 +15690,15 @@
         <v>143</v>
       </c>
       <c r="F152" s="17" t="str">
-        <f t="shared" ref="F152:F156" si="77">H152&amp;I152</f>
+        <f t="shared" ref="F152:F156" si="79">H152&amp;I152</f>
         <v>1000관</v>
       </c>
       <c r="G152" s="17">
-        <f t="shared" ref="G152:G156" si="78">H152*J152</f>
+        <f t="shared" ref="G152:G156" si="80">H152*J152</f>
         <v>9.9999999999999997E+218</v>
       </c>
       <c r="H152" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1000</v>
       </c>
       <c r="I152" s="16" t="str" cm="1">
@@ -15466,11 +15706,11 @@
         <v>관</v>
       </c>
       <c r="J152" s="16" t="str">
-        <f t="shared" ref="J152:J156" si="79">VLOOKUP(I152,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J152:J156" si="81">VLOOKUP(I152,N:Q,4,FALSE)</f>
         <v>1E+216</v>
       </c>
       <c r="K152" s="22">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>36000</v>
       </c>
       <c r="L152" s="22">
@@ -15482,15 +15722,15 @@
         <v>144</v>
       </c>
       <c r="F153" s="17" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>1한</v>
       </c>
       <c r="G153" s="17">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>1E+220</v>
       </c>
       <c r="H153" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1</v>
       </c>
       <c r="I153" s="16" t="str" cm="1">
@@ -15498,11 +15738,11 @@
         <v>한</v>
       </c>
       <c r="J153" s="16" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>1E+220</v>
       </c>
       <c r="K153" s="22">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>37000</v>
       </c>
       <c r="L153" s="22">
@@ -15514,15 +15754,15 @@
         <v>145</v>
       </c>
       <c r="F154" s="17" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>10한</v>
       </c>
       <c r="G154" s="17">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>1E+221</v>
       </c>
       <c r="H154" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>10</v>
       </c>
       <c r="I154" s="16" t="str" cm="1">
@@ -15530,11 +15770,11 @@
         <v>한</v>
       </c>
       <c r="J154" s="16" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>1E+220</v>
       </c>
       <c r="K154" s="22">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>37000</v>
       </c>
       <c r="L154" s="22">
@@ -15546,15 +15786,15 @@
         <v>146</v>
       </c>
       <c r="F155" s="17" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>100한</v>
       </c>
       <c r="G155" s="17">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>1E+222</v>
       </c>
       <c r="H155" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>100</v>
       </c>
       <c r="I155" s="16" t="str" cm="1">
@@ -15562,11 +15802,11 @@
         <v>한</v>
       </c>
       <c r="J155" s="16" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>1E+220</v>
       </c>
       <c r="K155" s="22">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>37000</v>
       </c>
       <c r="L155" s="22">
@@ -15578,15 +15818,15 @@
         <v>147</v>
       </c>
       <c r="F156" s="17" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>1000한</v>
       </c>
       <c r="G156" s="17">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>1E+223</v>
       </c>
       <c r="H156" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1000</v>
       </c>
       <c r="I156" s="16" t="str" cm="1">
@@ -15594,11 +15834,11 @@
         <v>한</v>
       </c>
       <c r="J156" s="16" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>1E+220</v>
       </c>
       <c r="K156" s="22">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>37000</v>
       </c>
       <c r="L156" s="22">
@@ -15610,15 +15850,15 @@
         <v>148</v>
       </c>
       <c r="F157" s="17" t="str">
-        <f t="shared" ref="F157:F160" si="80">H157&amp;I157</f>
+        <f t="shared" ref="F157:F160" si="82">H157&amp;I157</f>
         <v>1혈</v>
       </c>
       <c r="G157" s="17">
-        <f t="shared" ref="G157:G160" si="81">H157*J157</f>
+        <f t="shared" ref="G157:G160" si="83">H157*J157</f>
         <v>9.9999999999999997E+223</v>
       </c>
       <c r="H157" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1</v>
       </c>
       <c r="I157" s="16" t="str" cm="1">
@@ -15626,11 +15866,11 @@
         <v>혈</v>
       </c>
       <c r="J157" s="16" t="str">
-        <f t="shared" ref="J157:J160" si="82">VLOOKUP(I157,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J157:J160" si="84">VLOOKUP(I157,N:Q,4,FALSE)</f>
         <v>1E+224</v>
       </c>
       <c r="K157" s="22">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>38000</v>
       </c>
       <c r="L157" s="22">
@@ -15642,15 +15882,15 @@
         <v>149</v>
       </c>
       <c r="F158" s="17" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>10혈</v>
       </c>
       <c r="G158" s="17">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>9.9999999999999993E+224</v>
       </c>
       <c r="H158" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>10</v>
       </c>
       <c r="I158" s="16" t="str" cm="1">
@@ -15658,11 +15898,11 @@
         <v>혈</v>
       </c>
       <c r="J158" s="16" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>1E+224</v>
       </c>
       <c r="K158" s="22">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>38000</v>
       </c>
       <c r="L158" s="22">
@@ -15674,15 +15914,15 @@
         <v>150</v>
       </c>
       <c r="F159" s="17" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>100혈</v>
       </c>
       <c r="G159" s="17">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>9.9999999999999996E+225</v>
       </c>
       <c r="H159" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>100</v>
       </c>
       <c r="I159" s="16" t="str" cm="1">
@@ -15690,11 +15930,11 @@
         <v>혈</v>
       </c>
       <c r="J159" s="16" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>1E+224</v>
       </c>
       <c r="K159" s="22">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>38000</v>
       </c>
       <c r="L159" s="22">
@@ -15706,15 +15946,15 @@
         <v>151</v>
       </c>
       <c r="F160" s="17" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>1000혈</v>
       </c>
       <c r="G160" s="17">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>9.9999999999999988E+226</v>
       </c>
       <c r="H160" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1000</v>
       </c>
       <c r="I160" s="16" t="str" cm="1">
@@ -15722,11 +15962,11 @@
         <v>혈</v>
       </c>
       <c r="J160" s="16" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>1E+224</v>
       </c>
       <c r="K160" s="22">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>38000</v>
       </c>
       <c r="L160" s="22">
@@ -15738,15 +15978,15 @@
         <v>152</v>
       </c>
       <c r="F161" s="17" t="str">
-        <f t="shared" ref="F161:F164" si="83">H161&amp;I161</f>
+        <f t="shared" ref="F161:F164" si="85">H161&amp;I161</f>
         <v>1연</v>
       </c>
       <c r="G161" s="17">
-        <f t="shared" ref="G161:G164" si="84">H161*J161</f>
+        <f t="shared" ref="G161:G164" si="86">H161*J161</f>
         <v>9.9999999999999992E+227</v>
       </c>
       <c r="H161" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1</v>
       </c>
       <c r="I161" s="16" t="str" cm="1">
@@ -15754,11 +15994,11 @@
         <v>연</v>
       </c>
       <c r="J161" s="16" t="str">
-        <f t="shared" ref="J161:J164" si="85">VLOOKUP(I161,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J161:J164" si="87">VLOOKUP(I161,N:Q,4,FALSE)</f>
         <v>1E+228</v>
       </c>
       <c r="K161" s="22">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>39000</v>
       </c>
       <c r="L161" s="22">
@@ -15770,15 +16010,15 @@
         <v>153</v>
       </c>
       <c r="F162" s="17" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>10연</v>
       </c>
       <c r="G162" s="17">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>9.9999999999999999E+228</v>
       </c>
       <c r="H162" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>10</v>
       </c>
       <c r="I162" s="16" t="str" cm="1">
@@ -15786,11 +16026,11 @@
         <v>연</v>
       </c>
       <c r="J162" s="16" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>1E+228</v>
       </c>
       <c r="K162" s="22">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>39000</v>
       </c>
       <c r="L162" s="22">
@@ -15802,15 +16042,15 @@
         <v>154</v>
       </c>
       <c r="F163" s="17" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>100연</v>
       </c>
       <c r="G163" s="17">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>9.9999999999999988E+229</v>
       </c>
       <c r="H163" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>100</v>
       </c>
       <c r="I163" s="16" t="str" cm="1">
@@ -15818,11 +16058,11 @@
         <v>연</v>
       </c>
       <c r="J163" s="16" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>1E+228</v>
       </c>
       <c r="K163" s="22">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>39000</v>
       </c>
       <c r="L163" s="22">
@@ -15834,15 +16074,15 @@
         <v>155</v>
       </c>
       <c r="F164" s="17" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>1000연</v>
       </c>
       <c r="G164" s="17">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>9.9999999999999988E+230</v>
       </c>
       <c r="H164" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1000</v>
       </c>
       <c r="I164" s="16" t="str" cm="1">
@@ -15850,11 +16090,11 @@
         <v>연</v>
       </c>
       <c r="J164" s="16" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>1E+228</v>
       </c>
       <c r="K164" s="22">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>39000</v>
       </c>
       <c r="L164" s="22">
@@ -15866,15 +16106,15 @@
         <v>156</v>
       </c>
       <c r="F165" s="17" t="str">
-        <f t="shared" ref="F165:F168" si="86">H165&amp;I165</f>
+        <f t="shared" ref="F165:F168" si="88">H165&amp;I165</f>
         <v>1난</v>
       </c>
       <c r="G165" s="17">
-        <f t="shared" ref="G165:G168" si="87">H165*J165</f>
+        <f t="shared" ref="G165:G168" si="89">H165*J165</f>
         <v>1.0000000000000001E+232</v>
       </c>
       <c r="H165" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1</v>
       </c>
       <c r="I165" s="16" t="str" cm="1">
@@ -15882,11 +16122,11 @@
         <v>난</v>
       </c>
       <c r="J165" s="16" t="str">
-        <f t="shared" ref="J165:J168" si="88">VLOOKUP(I165,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J165:J168" si="90">VLOOKUP(I165,N:Q,4,FALSE)</f>
         <v>1E+232</v>
       </c>
       <c r="K165" s="22">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>40000</v>
       </c>
       <c r="L165" s="22">
@@ -15898,15 +16138,15 @@
         <v>157</v>
       </c>
       <c r="F166" s="17" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>10난</v>
       </c>
       <c r="G166" s="17">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>9.9999999999999997E+232</v>
       </c>
       <c r="H166" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>10</v>
       </c>
       <c r="I166" s="16" t="str" cm="1">
@@ -15914,11 +16154,11 @@
         <v>난</v>
       </c>
       <c r="J166" s="16" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>1E+232</v>
       </c>
       <c r="K166" s="22">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>40000</v>
       </c>
       <c r="L166" s="22">
@@ -15930,15 +16170,15 @@
         <v>158</v>
       </c>
       <c r="F167" s="17" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>100난</v>
       </c>
       <c r="G167" s="17">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>1E+234</v>
       </c>
       <c r="H167" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>100</v>
       </c>
       <c r="I167" s="16" t="str" cm="1">
@@ -15946,11 +16186,11 @@
         <v>난</v>
       </c>
       <c r="J167" s="16" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>1E+232</v>
       </c>
       <c r="K167" s="22">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>40000</v>
       </c>
       <c r="L167" s="22">
@@ -15962,15 +16202,15 @@
         <v>159</v>
       </c>
       <c r="F168" s="17" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>1000난</v>
       </c>
       <c r="G168" s="17">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>1.0000000000000001E+235</v>
       </c>
       <c r="H168" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1000</v>
       </c>
       <c r="I168" s="16" t="str" cm="1">
@@ -15978,11 +16218,11 @@
         <v>난</v>
       </c>
       <c r="J168" s="16" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>1E+232</v>
       </c>
       <c r="K168" s="22">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>40000</v>
       </c>
       <c r="L168" s="22">
@@ -15994,15 +16234,15 @@
         <v>160</v>
       </c>
       <c r="F169" s="17" t="str">
-        <f t="shared" ref="F169:F172" si="89">H169&amp;I169</f>
+        <f t="shared" ref="F169:F172" si="91">H169&amp;I169</f>
         <v>1군</v>
       </c>
       <c r="G169" s="17">
-        <f t="shared" ref="G169:G172" si="90">H169*J169</f>
+        <f t="shared" ref="G169:G172" si="92">H169*J169</f>
         <v>1.0000000000000001E+236</v>
       </c>
       <c r="H169" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1</v>
       </c>
       <c r="I169" s="16" t="str" cm="1">
@@ -16010,11 +16250,11 @@
         <v>군</v>
       </c>
       <c r="J169" s="16" t="str">
-        <f t="shared" ref="J169:J172" si="91">VLOOKUP(I169,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J169:J172" si="93">VLOOKUP(I169,N:Q,4,FALSE)</f>
         <v>1E+236</v>
       </c>
       <c r="K169" s="22">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>41000</v>
       </c>
       <c r="L169" s="22">
@@ -16026,15 +16266,15 @@
         <v>161</v>
       </c>
       <c r="F170" s="17" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>10군</v>
       </c>
       <c r="G170" s="17">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>1.0000000000000001E+237</v>
       </c>
       <c r="H170" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>10</v>
       </c>
       <c r="I170" s="16" t="str" cm="1">
@@ -16042,11 +16282,11 @@
         <v>군</v>
       </c>
       <c r="J170" s="16" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>1E+236</v>
       </c>
       <c r="K170" s="22">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>41000</v>
       </c>
       <c r="L170" s="22">
@@ -16058,15 +16298,15 @@
         <v>162</v>
       </c>
       <c r="F171" s="17" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>100군</v>
       </c>
       <c r="G171" s="17">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>1E+238</v>
       </c>
       <c r="H171" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>100</v>
       </c>
       <c r="I171" s="16" t="str" cm="1">
@@ -16074,11 +16314,11 @@
         <v>군</v>
       </c>
       <c r="J171" s="16" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>1E+236</v>
       </c>
       <c r="K171" s="22">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>41000</v>
       </c>
       <c r="L171" s="22">
@@ -16090,15 +16330,15 @@
         <v>163</v>
       </c>
       <c r="F172" s="17" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>1000군</v>
       </c>
       <c r="G172" s="17">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>1.0000000000000001E+239</v>
       </c>
       <c r="H172" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1000</v>
       </c>
       <c r="I172" s="16" t="str" cm="1">
@@ -16106,11 +16346,11 @@
         <v>군</v>
       </c>
       <c r="J172" s="16" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>1E+236</v>
       </c>
       <c r="K172" s="22">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>41000</v>
       </c>
       <c r="L172" s="22">
@@ -16122,15 +16362,15 @@
         <v>164</v>
       </c>
       <c r="F173" s="17" t="str">
-        <f t="shared" ref="F173:F176" si="92">H173&amp;I173</f>
+        <f t="shared" ref="F173:F176" si="94">H173&amp;I173</f>
         <v>1결</v>
       </c>
       <c r="G173" s="17">
-        <f t="shared" ref="G173:G176" si="93">H173*J173</f>
+        <f t="shared" ref="G173:G176" si="95">H173*J173</f>
         <v>1E+240</v>
       </c>
       <c r="H173" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1</v>
       </c>
       <c r="I173" s="16" t="str" cm="1">
@@ -16138,11 +16378,11 @@
         <v>결</v>
       </c>
       <c r="J173" s="16" t="str">
-        <f t="shared" ref="J173:J176" si="94">VLOOKUP(I173,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J173:J176" si="96">VLOOKUP(I173,N:Q,4,FALSE)</f>
         <v>1E+240</v>
       </c>
       <c r="K173" s="22">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>42000</v>
       </c>
       <c r="L173" s="22">
@@ -16154,15 +16394,15 @@
         <v>165</v>
       </c>
       <c r="F174" s="17" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>10결</v>
       </c>
       <c r="G174" s="17">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>1.0000000000000001E+241</v>
       </c>
       <c r="H174" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>10</v>
       </c>
       <c r="I174" s="16" t="str" cm="1">
@@ -16170,11 +16410,11 @@
         <v>결</v>
       </c>
       <c r="J174" s="16" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>1E+240</v>
       </c>
       <c r="K174" s="22">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>42000</v>
       </c>
       <c r="L174" s="22">
@@ -16186,15 +16426,15 @@
         <v>166</v>
       </c>
       <c r="F175" s="17" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>100결</v>
       </c>
       <c r="G175" s="17">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>1.0000000000000001E+242</v>
       </c>
       <c r="H175" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>100</v>
       </c>
       <c r="I175" s="16" t="str" cm="1">
@@ -16202,11 +16442,11 @@
         <v>결</v>
       </c>
       <c r="J175" s="16" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>1E+240</v>
       </c>
       <c r="K175" s="22">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>42000</v>
       </c>
       <c r="L175" s="22">
@@ -16218,15 +16458,15 @@
         <v>167</v>
       </c>
       <c r="F176" s="17" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>1000결</v>
       </c>
       <c r="G176" s="17">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>1.0000000000000001E+243</v>
       </c>
       <c r="H176" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1000</v>
       </c>
       <c r="I176" s="16" t="str" cm="1">
@@ -16234,15 +16474,143 @@
         <v>결</v>
       </c>
       <c r="J176" s="16" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>1E+240</v>
       </c>
       <c r="K176" s="22">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>42000</v>
       </c>
       <c r="L176" s="22">
         <v>33400</v>
+      </c>
+    </row>
+    <row r="177" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E177" s="16">
+        <v>168</v>
+      </c>
+      <c r="F177" s="17" t="str">
+        <f t="shared" ref="F177:F180" si="97">H177&amp;I177</f>
+        <v>1맥</v>
+      </c>
+      <c r="G177" s="17">
+        <f t="shared" ref="G177:G180" si="98">H177*J177</f>
+        <v>1.0000000000000001E+244</v>
+      </c>
+      <c r="H177" s="17">
+        <f t="shared" si="53"/>
+        <v>1</v>
+      </c>
+      <c r="I177" s="16" t="str" cm="1">
+        <f t="array" ref="I177">IF(AND(H176&gt;=1000,H177&lt;2),INDEX(N:N,MATCH(I176,N:N,0)+1,0),I176)</f>
+        <v>맥</v>
+      </c>
+      <c r="J177" s="16" t="str">
+        <f t="shared" ref="J177:J180" si="99">VLOOKUP(I177,N:Q,4,FALSE)</f>
+        <v>1E+244</v>
+      </c>
+      <c r="K177" s="22">
+        <f t="shared" si="54"/>
+        <v>43000</v>
+      </c>
+      <c r="L177" s="22">
+        <v>33600</v>
+      </c>
+    </row>
+    <row r="178" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E178" s="16">
+        <v>169</v>
+      </c>
+      <c r="F178" s="17" t="str">
+        <f t="shared" si="97"/>
+        <v>10맥</v>
+      </c>
+      <c r="G178" s="17">
+        <f t="shared" si="98"/>
+        <v>1E+245</v>
+      </c>
+      <c r="H178" s="17">
+        <f t="shared" si="53"/>
+        <v>10</v>
+      </c>
+      <c r="I178" s="16" t="str" cm="1">
+        <f t="array" ref="I178">IF(AND(H177&gt;=1000,H178&lt;2),INDEX(N:N,MATCH(I177,N:N,0)+1,0),I177)</f>
+        <v>맥</v>
+      </c>
+      <c r="J178" s="16" t="str">
+        <f t="shared" si="99"/>
+        <v>1E+244</v>
+      </c>
+      <c r="K178" s="22">
+        <f t="shared" si="54"/>
+        <v>43000</v>
+      </c>
+      <c r="L178" s="22">
+        <v>33800</v>
+      </c>
+    </row>
+    <row r="179" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E179" s="16">
+        <v>170</v>
+      </c>
+      <c r="F179" s="17" t="str">
+        <f t="shared" si="97"/>
+        <v>100맥</v>
+      </c>
+      <c r="G179" s="17">
+        <f t="shared" si="98"/>
+        <v>1.0000000000000001E+246</v>
+      </c>
+      <c r="H179" s="17">
+        <f t="shared" si="53"/>
+        <v>100</v>
+      </c>
+      <c r="I179" s="16" t="str" cm="1">
+        <f t="array" ref="I179">IF(AND(H178&gt;=1000,H179&lt;2),INDEX(N:N,MATCH(I178,N:N,0)+1,0),I178)</f>
+        <v>맥</v>
+      </c>
+      <c r="J179" s="16" t="str">
+        <f t="shared" si="99"/>
+        <v>1E+244</v>
+      </c>
+      <c r="K179" s="22">
+        <f t="shared" si="54"/>
+        <v>43000</v>
+      </c>
+      <c r="L179" s="22">
+        <v>34000</v>
+      </c>
+    </row>
+    <row r="180" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E180" s="16">
+        <v>171</v>
+      </c>
+      <c r="F180" s="17" t="str">
+        <f t="shared" si="97"/>
+        <v>1000맥</v>
+      </c>
+      <c r="G180" s="17">
+        <f t="shared" si="98"/>
+        <v>1.0000000000000001E+247</v>
+      </c>
+      <c r="H180" s="17">
+        <f t="shared" si="53"/>
+        <v>1000</v>
+      </c>
+      <c r="I180" s="16" t="str" cm="1">
+        <f t="array" ref="I180">IF(AND(H179&gt;=1000,H180&lt;2),INDEX(N:N,MATCH(I179,N:N,0)+1,0),I179)</f>
+        <v>맥</v>
+      </c>
+      <c r="J180" s="16" t="str">
+        <f t="shared" si="99"/>
+        <v>1E+244</v>
+      </c>
+      <c r="K180" s="22">
+        <f t="shared" si="54"/>
+        <v>43000</v>
+      </c>
+      <c r="L180" s="22">
+        <v>34200</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/ByeolhoTower.xlsx
+++ b/Assets/06.Table/ByeolhoTower.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44619B9D-9A38-40F6-9673-54EFFDD6172C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B3978E-E380-43E2-A264-7AC490C70BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="95">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1026,11 +1026,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M173"/>
+  <dimension ref="A1:M177"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E171" sqref="E171"/>
+      <selection pane="bottomLeft" activeCell="E174" sqref="E174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6917,11 +6917,11 @@
         <v>30000</v>
       </c>
       <c r="E118">
-        <f t="shared" ref="E118:E173" si="84">E117</f>
+        <f t="shared" ref="E118:E177" si="84">E117</f>
         <v>1</v>
       </c>
       <c r="F118" s="2">
-        <f t="shared" ref="F118:F173" si="85">F117*10</f>
+        <f t="shared" ref="F118:F177" si="85">F117*10</f>
         <v>9.9999999999999991E+191</v>
       </c>
       <c r="G118">
@@ -6940,7 +6940,7 @@
         <v>57</v>
       </c>
       <c r="K118">
-        <f t="shared" ref="K118:K173" si="87">K117+200</f>
+        <f t="shared" ref="K118:K177" si="87">K117+200</f>
         <v>25200</v>
       </c>
       <c r="L118">
@@ -9756,9 +9756,213 @@
         <v>17100</v>
       </c>
     </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>172</v>
+      </c>
+      <c r="B174" s="1" t="str">
+        <f t="shared" ref="B174:C174" si="192">B173</f>
+        <v>1-1</v>
+      </c>
+      <c r="C174">
+        <f t="shared" si="192"/>
+        <v>9054</v>
+      </c>
+      <c r="D174">
+        <f>VLOOKUP(A174,Balance!E:K,7,FALSE)</f>
+        <v>44000</v>
+      </c>
+      <c r="E174">
+        <f t="shared" si="84"/>
+        <v>1</v>
+      </c>
+      <c r="F174" s="2">
+        <f t="shared" si="85"/>
+        <v>1.0000000000000002E+248</v>
+      </c>
+      <c r="G174">
+        <f t="shared" ref="G174:I174" si="193">G173</f>
+        <v>1000</v>
+      </c>
+      <c r="H174">
+        <f t="shared" si="193"/>
+        <v>8</v>
+      </c>
+      <c r="I174">
+        <f t="shared" si="193"/>
+        <v>0</v>
+      </c>
+      <c r="J174" t="s">
+        <v>57</v>
+      </c>
+      <c r="K174">
+        <f t="shared" si="87"/>
+        <v>36400</v>
+      </c>
+      <c r="L174">
+        <v>9054</v>
+      </c>
+      <c r="M174">
+        <f>VLOOKUP(A174,Balance!E:L,8,FALSE)/2</f>
+        <v>17200</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>173</v>
+      </c>
+      <c r="B175" s="1" t="str">
+        <f t="shared" ref="B175:C175" si="194">B174</f>
+        <v>1-1</v>
+      </c>
+      <c r="C175">
+        <f t="shared" si="194"/>
+        <v>9054</v>
+      </c>
+      <c r="D175">
+        <f>VLOOKUP(A175,Balance!E:K,7,FALSE)</f>
+        <v>44000</v>
+      </c>
+      <c r="E175">
+        <f t="shared" si="84"/>
+        <v>1</v>
+      </c>
+      <c r="F175" s="2">
+        <f t="shared" si="85"/>
+        <v>1.0000000000000001E+249</v>
+      </c>
+      <c r="G175">
+        <f t="shared" ref="G175:I175" si="195">G174</f>
+        <v>1000</v>
+      </c>
+      <c r="H175">
+        <f t="shared" si="195"/>
+        <v>8</v>
+      </c>
+      <c r="I175">
+        <f t="shared" si="195"/>
+        <v>0</v>
+      </c>
+      <c r="J175" t="s">
+        <v>57</v>
+      </c>
+      <c r="K175">
+        <f t="shared" si="87"/>
+        <v>36600</v>
+      </c>
+      <c r="L175">
+        <v>9054</v>
+      </c>
+      <c r="M175">
+        <f>VLOOKUP(A175,Balance!E:L,8,FALSE)/2</f>
+        <v>17300</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>174</v>
+      </c>
+      <c r="B176" s="1" t="str">
+        <f t="shared" ref="B176:C176" si="196">B175</f>
+        <v>1-1</v>
+      </c>
+      <c r="C176">
+        <f t="shared" si="196"/>
+        <v>9054</v>
+      </c>
+      <c r="D176">
+        <f>VLOOKUP(A176,Balance!E:K,7,FALSE)</f>
+        <v>44000</v>
+      </c>
+      <c r="E176">
+        <f t="shared" si="84"/>
+        <v>1</v>
+      </c>
+      <c r="F176" s="2">
+        <f t="shared" si="85"/>
+        <v>1.0000000000000001E+250</v>
+      </c>
+      <c r="G176">
+        <f t="shared" ref="G176:I176" si="197">G175</f>
+        <v>1000</v>
+      </c>
+      <c r="H176">
+        <f t="shared" si="197"/>
+        <v>8</v>
+      </c>
+      <c r="I176">
+        <f t="shared" si="197"/>
+        <v>0</v>
+      </c>
+      <c r="J176" t="s">
+        <v>57</v>
+      </c>
+      <c r="K176">
+        <f t="shared" si="87"/>
+        <v>36800</v>
+      </c>
+      <c r="L176">
+        <v>9054</v>
+      </c>
+      <c r="M176">
+        <f>VLOOKUP(A176,Balance!E:L,8,FALSE)/2</f>
+        <v>17400</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>175</v>
+      </c>
+      <c r="B177" s="1" t="str">
+        <f t="shared" ref="B177:C177" si="198">B176</f>
+        <v>1-1</v>
+      </c>
+      <c r="C177">
+        <f t="shared" si="198"/>
+        <v>9054</v>
+      </c>
+      <c r="D177">
+        <f>VLOOKUP(A177,Balance!E:K,7,FALSE)</f>
+        <v>44000</v>
+      </c>
+      <c r="E177">
+        <f t="shared" si="84"/>
+        <v>1</v>
+      </c>
+      <c r="F177" s="2">
+        <f t="shared" si="85"/>
+        <v>1E+251</v>
+      </c>
+      <c r="G177">
+        <f t="shared" ref="G177:I177" si="199">G176</f>
+        <v>1000</v>
+      </c>
+      <c r="H177">
+        <f t="shared" si="199"/>
+        <v>8</v>
+      </c>
+      <c r="I177">
+        <f t="shared" si="199"/>
+        <v>0</v>
+      </c>
+      <c r="J177" t="s">
+        <v>57</v>
+      </c>
+      <c r="K177">
+        <f t="shared" si="87"/>
+        <v>37000</v>
+      </c>
+      <c r="L177">
+        <v>9054</v>
+      </c>
+      <c r="M177">
+        <f>VLOOKUP(A177,Balance!E:L,8,FALSE)/2</f>
+        <v>17500</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:K173">
+  <conditionalFormatting sqref="A2:K177">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
@@ -9770,10 +9974,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4C63F0-02E4-48AB-8F58-B57B021B5DE4}">
-  <dimension ref="A1:Z180"/>
+  <dimension ref="A1:Z184"/>
   <sheetViews>
-    <sheetView topLeftCell="B163" workbookViewId="0">
-      <selection activeCell="K179" sqref="K179"/>
+    <sheetView topLeftCell="B166" workbookViewId="0">
+      <selection activeCell="I181" sqref="I181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13326,7 +13530,7 @@
         <v>9.9999999999999999E+144</v>
       </c>
       <c r="H78" s="17">
-        <f t="shared" ref="H78:H180" si="53">H74</f>
+        <f t="shared" ref="H78:H184" si="53">H74</f>
         <v>10</v>
       </c>
       <c r="I78" s="16" t="str" cm="1">
@@ -14107,7 +14311,7 @@
         <v>1E+168</v>
       </c>
       <c r="K102" s="22">
-        <f t="shared" ref="K102:K180" si="54">K98+1000</f>
+        <f t="shared" ref="K102:K184" si="54">K98+1000</f>
         <v>24000</v>
       </c>
       <c r="L102" s="22">
@@ -16611,6 +16815,134 @@
       </c>
       <c r="L180" s="22">
         <v>34200</v>
+      </c>
+    </row>
+    <row r="181" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E181" s="16">
+        <v>172</v>
+      </c>
+      <c r="F181" s="17" t="str">
+        <f t="shared" ref="F181:F184" si="100">H181&amp;I181</f>
+        <v>1토</v>
+      </c>
+      <c r="G181" s="17">
+        <f t="shared" ref="G181:G184" si="101">H181*J181</f>
+        <v>1E+248</v>
+      </c>
+      <c r="H181" s="17">
+        <f t="shared" si="53"/>
+        <v>1</v>
+      </c>
+      <c r="I181" s="16" t="str" cm="1">
+        <f t="array" ref="I181">IF(AND(H180&gt;=1000,H181&lt;2),INDEX(N:N,MATCH(I180,N:N,0)+1,0),I180)</f>
+        <v>토</v>
+      </c>
+      <c r="J181" s="16" t="str">
+        <f t="shared" ref="J181:J184" si="102">VLOOKUP(I181,N:Q,4,FALSE)</f>
+        <v>1E+248</v>
+      </c>
+      <c r="K181" s="22">
+        <f t="shared" si="54"/>
+        <v>44000</v>
+      </c>
+      <c r="L181" s="22">
+        <v>34400</v>
+      </c>
+    </row>
+    <row r="182" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E182" s="16">
+        <v>173</v>
+      </c>
+      <c r="F182" s="17" t="str">
+        <f t="shared" si="100"/>
+        <v>10토</v>
+      </c>
+      <c r="G182" s="17">
+        <f t="shared" si="101"/>
+        <v>1.0000000000000001E+249</v>
+      </c>
+      <c r="H182" s="17">
+        <f t="shared" si="53"/>
+        <v>10</v>
+      </c>
+      <c r="I182" s="16" t="str" cm="1">
+        <f t="array" ref="I182">IF(AND(H181&gt;=1000,H182&lt;2),INDEX(N:N,MATCH(I181,N:N,0)+1,0),I181)</f>
+        <v>토</v>
+      </c>
+      <c r="J182" s="16" t="str">
+        <f t="shared" si="102"/>
+        <v>1E+248</v>
+      </c>
+      <c r="K182" s="22">
+        <f t="shared" si="54"/>
+        <v>44000</v>
+      </c>
+      <c r="L182" s="22">
+        <v>34600</v>
+      </c>
+    </row>
+    <row r="183" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E183" s="16">
+        <v>174</v>
+      </c>
+      <c r="F183" s="17" t="str">
+        <f t="shared" si="100"/>
+        <v>100토</v>
+      </c>
+      <c r="G183" s="17">
+        <f t="shared" si="101"/>
+        <v>1.0000000000000001E+250</v>
+      </c>
+      <c r="H183" s="17">
+        <f t="shared" si="53"/>
+        <v>100</v>
+      </c>
+      <c r="I183" s="16" t="str" cm="1">
+        <f t="array" ref="I183">IF(AND(H182&gt;=1000,H183&lt;2),INDEX(N:N,MATCH(I182,N:N,0)+1,0),I182)</f>
+        <v>토</v>
+      </c>
+      <c r="J183" s="16" t="str">
+        <f t="shared" si="102"/>
+        <v>1E+248</v>
+      </c>
+      <c r="K183" s="22">
+        <f t="shared" si="54"/>
+        <v>44000</v>
+      </c>
+      <c r="L183" s="22">
+        <v>34800</v>
+      </c>
+    </row>
+    <row r="184" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E184" s="16">
+        <v>175</v>
+      </c>
+      <c r="F184" s="17" t="str">
+        <f t="shared" si="100"/>
+        <v>1000토</v>
+      </c>
+      <c r="G184" s="17">
+        <f t="shared" si="101"/>
+        <v>1E+251</v>
+      </c>
+      <c r="H184" s="17">
+        <f t="shared" si="53"/>
+        <v>1000</v>
+      </c>
+      <c r="I184" s="16" t="str" cm="1">
+        <f t="array" ref="I184">IF(AND(H183&gt;=1000,H184&lt;2),INDEX(N:N,MATCH(I183,N:N,0)+1,0),I183)</f>
+        <v>토</v>
+      </c>
+      <c r="J184" s="16" t="str">
+        <f t="shared" si="102"/>
+        <v>1E+248</v>
+      </c>
+      <c r="K184" s="22">
+        <f t="shared" si="54"/>
+        <v>44000</v>
+      </c>
+      <c r="L184" s="22">
+        <v>35000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/ByeolhoTower.xlsx
+++ b/Assets/06.Table/ByeolhoTower.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B3978E-E380-43E2-A264-7AC490C70BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC9ECE3-CFF7-41DE-B2EE-23ADAAF13EBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="96">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -434,6 +434,10 @@
   </si>
   <si>
     <t>산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1026,11 +1030,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M177"/>
+  <dimension ref="A1:M181"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E174" sqref="E174"/>
+      <selection pane="bottomLeft" activeCell="I171" sqref="I171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6917,11 +6921,11 @@
         <v>30000</v>
       </c>
       <c r="E118">
-        <f t="shared" ref="E118:E177" si="84">E117</f>
+        <f t="shared" ref="E118:E181" si="84">E117</f>
         <v>1</v>
       </c>
       <c r="F118" s="2">
-        <f t="shared" ref="F118:F177" si="85">F117*10</f>
+        <f t="shared" ref="F118:F181" si="85">F117*10</f>
         <v>9.9999999999999991E+191</v>
       </c>
       <c r="G118">
@@ -6940,7 +6944,7 @@
         <v>57</v>
       </c>
       <c r="K118">
-        <f t="shared" ref="K118:K177" si="87">K117+200</f>
+        <f t="shared" ref="K118:K181" si="87">K117+200</f>
         <v>25200</v>
       </c>
       <c r="L118">
@@ -9960,9 +9964,213 @@
         <v>17500</v>
       </c>
     </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>176</v>
+      </c>
+      <c r="B178" s="1" t="str">
+        <f t="shared" ref="B178:C178" si="200">B177</f>
+        <v>1-1</v>
+      </c>
+      <c r="C178">
+        <f t="shared" si="200"/>
+        <v>9054</v>
+      </c>
+      <c r="D178">
+        <f>VLOOKUP(A178,Balance!E:K,7,FALSE)</f>
+        <v>45000</v>
+      </c>
+      <c r="E178">
+        <f t="shared" si="84"/>
+        <v>1</v>
+      </c>
+      <c r="F178" s="2">
+        <f t="shared" si="85"/>
+        <v>1.0000000000000001E+252</v>
+      </c>
+      <c r="G178">
+        <f t="shared" ref="G178:I178" si="201">G177</f>
+        <v>1000</v>
+      </c>
+      <c r="H178">
+        <f t="shared" si="201"/>
+        <v>8</v>
+      </c>
+      <c r="I178">
+        <f t="shared" si="201"/>
+        <v>0</v>
+      </c>
+      <c r="J178" t="s">
+        <v>57</v>
+      </c>
+      <c r="K178">
+        <f t="shared" si="87"/>
+        <v>37200</v>
+      </c>
+      <c r="L178">
+        <v>9054</v>
+      </c>
+      <c r="M178">
+        <f>VLOOKUP(A178,Balance!E:L,8,FALSE)/2</f>
+        <v>17600</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>177</v>
+      </c>
+      <c r="B179" s="1" t="str">
+        <f t="shared" ref="B179:C179" si="202">B178</f>
+        <v>1-1</v>
+      </c>
+      <c r="C179">
+        <f t="shared" si="202"/>
+        <v>9054</v>
+      </c>
+      <c r="D179">
+        <f>VLOOKUP(A179,Balance!E:K,7,FALSE)</f>
+        <v>45000</v>
+      </c>
+      <c r="E179">
+        <f t="shared" si="84"/>
+        <v>1</v>
+      </c>
+      <c r="F179" s="2">
+        <f t="shared" si="85"/>
+        <v>1.0000000000000001E+253</v>
+      </c>
+      <c r="G179">
+        <f t="shared" ref="G179:I179" si="203">G178</f>
+        <v>1000</v>
+      </c>
+      <c r="H179">
+        <f t="shared" si="203"/>
+        <v>8</v>
+      </c>
+      <c r="I179">
+        <f t="shared" si="203"/>
+        <v>0</v>
+      </c>
+      <c r="J179" t="s">
+        <v>57</v>
+      </c>
+      <c r="K179">
+        <f t="shared" si="87"/>
+        <v>37400</v>
+      </c>
+      <c r="L179">
+        <v>9054</v>
+      </c>
+      <c r="M179">
+        <f>VLOOKUP(A179,Balance!E:L,8,FALSE)/2</f>
+        <v>17700</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>178</v>
+      </c>
+      <c r="B180" s="1" t="str">
+        <f t="shared" ref="B180:C180" si="204">B179</f>
+        <v>1-1</v>
+      </c>
+      <c r="C180">
+        <f t="shared" si="204"/>
+        <v>9054</v>
+      </c>
+      <c r="D180">
+        <f>VLOOKUP(A180,Balance!E:K,7,FALSE)</f>
+        <v>45000</v>
+      </c>
+      <c r="E180">
+        <f t="shared" si="84"/>
+        <v>1</v>
+      </c>
+      <c r="F180" s="2">
+        <f t="shared" si="85"/>
+        <v>1.0000000000000001E+254</v>
+      </c>
+      <c r="G180">
+        <f t="shared" ref="G180:I180" si="205">G179</f>
+        <v>1000</v>
+      </c>
+      <c r="H180">
+        <f t="shared" si="205"/>
+        <v>8</v>
+      </c>
+      <c r="I180">
+        <f t="shared" si="205"/>
+        <v>0</v>
+      </c>
+      <c r="J180" t="s">
+        <v>57</v>
+      </c>
+      <c r="K180">
+        <f t="shared" si="87"/>
+        <v>37600</v>
+      </c>
+      <c r="L180">
+        <v>9054</v>
+      </c>
+      <c r="M180">
+        <f>VLOOKUP(A180,Balance!E:L,8,FALSE)/2</f>
+        <v>17800</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>179</v>
+      </c>
+      <c r="B181" s="1" t="str">
+        <f t="shared" ref="B181:C181" si="206">B180</f>
+        <v>1-1</v>
+      </c>
+      <c r="C181">
+        <f t="shared" si="206"/>
+        <v>9054</v>
+      </c>
+      <c r="D181">
+        <f>VLOOKUP(A181,Balance!E:K,7,FALSE)</f>
+        <v>45000</v>
+      </c>
+      <c r="E181">
+        <f t="shared" si="84"/>
+        <v>1</v>
+      </c>
+      <c r="F181" s="2">
+        <f t="shared" si="85"/>
+        <v>9.9999999999999999E+254</v>
+      </c>
+      <c r="G181">
+        <f t="shared" ref="G181:I181" si="207">G180</f>
+        <v>1000</v>
+      </c>
+      <c r="H181">
+        <f t="shared" si="207"/>
+        <v>8</v>
+      </c>
+      <c r="I181">
+        <f t="shared" si="207"/>
+        <v>0</v>
+      </c>
+      <c r="J181" t="s">
+        <v>57</v>
+      </c>
+      <c r="K181">
+        <f t="shared" si="87"/>
+        <v>37800</v>
+      </c>
+      <c r="L181">
+        <v>9054</v>
+      </c>
+      <c r="M181">
+        <f>VLOOKUP(A181,Balance!E:L,8,FALSE)/2</f>
+        <v>17900</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:K177">
+  <conditionalFormatting sqref="A2:K181">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
@@ -9974,10 +10182,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4C63F0-02E4-48AB-8F58-B57B021B5DE4}">
-  <dimension ref="A1:Z184"/>
+  <dimension ref="A1:Z188"/>
   <sheetViews>
-    <sheetView topLeftCell="B166" workbookViewId="0">
-      <selection activeCell="I181" sqref="I181"/>
+    <sheetView topLeftCell="B168" workbookViewId="0">
+      <selection activeCell="H185" sqref="H185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13324,6 +13532,20 @@
         <v>16200</v>
       </c>
       <c r="M71" s="22"/>
+      <c r="N71" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="O71" s="16">
+        <v>256</v>
+      </c>
+      <c r="P71" s="17">
+        <f t="shared" ref="P71" si="51">POWER(10,O71)</f>
+        <v>1E+256</v>
+      </c>
+      <c r="Q71" s="17" t="str">
+        <f t="shared" ref="Q71" si="52">RIGHT(P71,O71)</f>
+        <v>1E+256</v>
+      </c>
     </row>
     <row r="72" spans="5:26" x14ac:dyDescent="0.3">
       <c r="E72" s="16">
@@ -13378,7 +13600,7 @@
         <v>고</v>
       </c>
       <c r="J73" s="16" t="str">
-        <f t="shared" ref="J73:J104" si="51">VLOOKUP(I73,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J73:J104" si="53">VLOOKUP(I73,N:Q,4,FALSE)</f>
         <v>1E+140</v>
       </c>
       <c r="K73" s="22">
@@ -13398,7 +13620,7 @@
         <v>10고</v>
       </c>
       <c r="G74" s="17">
-        <f t="shared" ref="G74:G104" si="52">H74*J74</f>
+        <f t="shared" ref="G74:G104" si="54">H74*J74</f>
         <v>1E+141</v>
       </c>
       <c r="H74" s="17">
@@ -13410,7 +13632,7 @@
         <v>고</v>
       </c>
       <c r="J74" s="16" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1E+140</v>
       </c>
       <c r="K74" s="22">
@@ -13430,7 +13652,7 @@
         <v>100고</v>
       </c>
       <c r="G75" s="17">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>1.0000000000000001E+142</v>
       </c>
       <c r="H75" s="17">
@@ -13442,7 +13664,7 @@
         <v>고</v>
       </c>
       <c r="J75" s="16" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1E+140</v>
       </c>
       <c r="K75" s="22">
@@ -13462,7 +13684,7 @@
         <v>1000고</v>
       </c>
       <c r="G76" s="17">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>1E+143</v>
       </c>
       <c r="H76" s="17">
@@ -13474,7 +13696,7 @@
         <v>고</v>
       </c>
       <c r="J76" s="16" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1E+140</v>
       </c>
       <c r="K76" s="22">
@@ -13494,7 +13716,7 @@
         <v>1화</v>
       </c>
       <c r="G77" s="17">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>1E+144</v>
       </c>
       <c r="H77" s="17">
@@ -13506,7 +13728,7 @@
         <v>화</v>
       </c>
       <c r="J77" s="16" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1E+144</v>
       </c>
       <c r="K77" s="22">
@@ -13526,11 +13748,11 @@
         <v>10화</v>
       </c>
       <c r="G78" s="17">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>9.9999999999999999E+144</v>
       </c>
       <c r="H78" s="17">
-        <f t="shared" ref="H78:H184" si="53">H74</f>
+        <f t="shared" ref="H78:H188" si="55">H74</f>
         <v>10</v>
       </c>
       <c r="I78" s="16" t="str" cm="1">
@@ -13538,7 +13760,7 @@
         <v>화</v>
       </c>
       <c r="J78" s="16" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1E+144</v>
       </c>
       <c r="K78" s="22">
@@ -13558,11 +13780,11 @@
         <v>100화</v>
       </c>
       <c r="G79" s="17">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>9.9999999999999993E+145</v>
       </c>
       <c r="H79" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>100</v>
       </c>
       <c r="I79" s="16" t="str" cm="1">
@@ -13570,7 +13792,7 @@
         <v>화</v>
       </c>
       <c r="J79" s="16" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1E+144</v>
       </c>
       <c r="K79" s="22">
@@ -13590,11 +13812,11 @@
         <v>1000화</v>
       </c>
       <c r="G80" s="17">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>9.9999999999999998E+146</v>
       </c>
       <c r="H80" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1000</v>
       </c>
       <c r="I80" s="16" t="str" cm="1">
@@ -13602,7 +13824,7 @@
         <v>화</v>
       </c>
       <c r="J80" s="16" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1E+144</v>
       </c>
       <c r="K80" s="22">
@@ -13622,11 +13844,11 @@
         <v>1명</v>
       </c>
       <c r="G81" s="17">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>1E+148</v>
       </c>
       <c r="H81" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1</v>
       </c>
       <c r="I81" s="16" t="str" cm="1">
@@ -13634,7 +13856,7 @@
         <v>명</v>
       </c>
       <c r="J81" s="16" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1E+148</v>
       </c>
       <c r="K81" s="22">
@@ -13654,11 +13876,11 @@
         <v>10명</v>
       </c>
       <c r="G82" s="17">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>1E+149</v>
       </c>
       <c r="H82" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>10</v>
       </c>
       <c r="I82" s="16" t="str" cm="1">
@@ -13666,7 +13888,7 @@
         <v>명</v>
       </c>
       <c r="J82" s="16" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1E+148</v>
       </c>
       <c r="K82" s="22">
@@ -13686,11 +13908,11 @@
         <v>100명</v>
       </c>
       <c r="G83" s="17">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>9.9999999999999998E+149</v>
       </c>
       <c r="H83" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>100</v>
       </c>
       <c r="I83" s="16" t="str" cm="1">
@@ -13698,7 +13920,7 @@
         <v>명</v>
       </c>
       <c r="J83" s="16" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1E+148</v>
       </c>
       <c r="K83" s="22">
@@ -13718,11 +13940,11 @@
         <v>1000명</v>
       </c>
       <c r="G84" s="17">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>1E+151</v>
       </c>
       <c r="H84" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1000</v>
       </c>
       <c r="I84" s="16" t="str" cm="1">
@@ -13730,7 +13952,7 @@
         <v>명</v>
       </c>
       <c r="J84" s="16" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1E+148</v>
       </c>
       <c r="K84" s="22">
@@ -13750,11 +13972,11 @@
         <v>1월</v>
       </c>
       <c r="G85" s="17">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>1E+152</v>
       </c>
       <c r="H85" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1</v>
       </c>
       <c r="I85" s="16" t="str" cm="1">
@@ -13762,7 +13984,7 @@
         <v>월</v>
       </c>
       <c r="J85" s="16" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1E+152</v>
       </c>
       <c r="K85" s="22">
@@ -13782,11 +14004,11 @@
         <v>10월</v>
       </c>
       <c r="G86" s="17">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>1E+153</v>
       </c>
       <c r="H86" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>10</v>
       </c>
       <c r="I86" s="16" t="str" cm="1">
@@ -13794,7 +14016,7 @@
         <v>월</v>
       </c>
       <c r="J86" s="16" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1E+152</v>
       </c>
       <c r="K86" s="22">
@@ -13814,11 +14036,11 @@
         <v>100월</v>
       </c>
       <c r="G87" s="17">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>1E+154</v>
       </c>
       <c r="H87" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>100</v>
       </c>
       <c r="I87" s="16" t="str" cm="1">
@@ -13826,7 +14048,7 @@
         <v>월</v>
       </c>
       <c r="J87" s="16" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1E+152</v>
       </c>
       <c r="K87" s="22">
@@ -13846,11 +14068,11 @@
         <v>1000월</v>
       </c>
       <c r="G88" s="17">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>1E+155</v>
       </c>
       <c r="H88" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1000</v>
       </c>
       <c r="I88" s="16" t="str" cm="1">
@@ -13858,7 +14080,7 @@
         <v>월</v>
       </c>
       <c r="J88" s="16" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1E+152</v>
       </c>
       <c r="K88" s="22">
@@ -13878,11 +14100,11 @@
         <v>1후</v>
       </c>
       <c r="G89" s="17">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>9.9999999999999998E+155</v>
       </c>
       <c r="H89" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1</v>
       </c>
       <c r="I89" s="16" t="str" cm="1">
@@ -13890,7 +14112,7 @@
         <v>후</v>
       </c>
       <c r="J89" s="16" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1E+156</v>
       </c>
       <c r="K89" s="22">
@@ -13910,11 +14132,11 @@
         <v>10후</v>
       </c>
       <c r="G90" s="17">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>9.9999999999999998E+156</v>
       </c>
       <c r="H90" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>10</v>
       </c>
       <c r="I90" s="16" t="str" cm="1">
@@ -13922,7 +14144,7 @@
         <v>후</v>
       </c>
       <c r="J90" s="16" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1E+156</v>
       </c>
       <c r="K90" s="22">
@@ -13942,11 +14164,11 @@
         <v>100후</v>
       </c>
       <c r="G91" s="17">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>9.9999999999999995E+157</v>
       </c>
       <c r="H91" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>100</v>
       </c>
       <c r="I91" s="16" t="str" cm="1">
@@ -13954,7 +14176,7 @@
         <v>후</v>
       </c>
       <c r="J91" s="16" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1E+156</v>
       </c>
       <c r="K91" s="22">
@@ -13974,11 +14196,11 @@
         <v>1000후</v>
       </c>
       <c r="G92" s="17">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>9.9999999999999993E+158</v>
       </c>
       <c r="H92" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1000</v>
       </c>
       <c r="I92" s="16" t="str" cm="1">
@@ -13986,7 +14208,7 @@
         <v>후</v>
       </c>
       <c r="J92" s="16" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1E+156</v>
       </c>
       <c r="K92" s="22">
@@ -14006,11 +14228,11 @@
         <v>1단</v>
       </c>
       <c r="G93" s="17">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>1E+160</v>
       </c>
       <c r="H93" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1</v>
       </c>
       <c r="I93" s="16" t="str" cm="1">
@@ -14018,7 +14240,7 @@
         <v>단</v>
       </c>
       <c r="J93" s="16" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1E+160</v>
       </c>
       <c r="K93" s="22">
@@ -14038,11 +14260,11 @@
         <v>10단</v>
       </c>
       <c r="G94" s="17">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>1E+161</v>
       </c>
       <c r="H94" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>10</v>
       </c>
       <c r="I94" s="16" t="str" cm="1">
@@ -14050,7 +14272,7 @@
         <v>단</v>
       </c>
       <c r="J94" s="16" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1E+160</v>
       </c>
       <c r="K94" s="22">
@@ -14070,11 +14292,11 @@
         <v>100단</v>
       </c>
       <c r="G95" s="17">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>9.9999999999999994E+161</v>
       </c>
       <c r="H95" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>100</v>
       </c>
       <c r="I95" s="16" t="str" cm="1">
@@ -14082,7 +14304,7 @@
         <v>단</v>
       </c>
       <c r="J95" s="16" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1E+160</v>
       </c>
       <c r="K95" s="22">
@@ -14102,11 +14324,11 @@
         <v>1000단</v>
       </c>
       <c r="G96" s="17">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>9.9999999999999994E+162</v>
       </c>
       <c r="H96" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1000</v>
       </c>
       <c r="I96" s="16" t="str" cm="1">
@@ -14114,7 +14336,7 @@
         <v>단</v>
       </c>
       <c r="J96" s="16" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1E+160</v>
       </c>
       <c r="K96" s="22">
@@ -14134,11 +14356,11 @@
         <v>1절</v>
       </c>
       <c r="G97" s="17">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>1E+164</v>
       </c>
       <c r="H97" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1</v>
       </c>
       <c r="I97" s="16" t="str" cm="1">
@@ -14146,7 +14368,7 @@
         <v>절</v>
       </c>
       <c r="J97" s="16" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1E+164</v>
       </c>
       <c r="K97" s="22">
@@ -14166,11 +14388,11 @@
         <v>10절</v>
       </c>
       <c r="G98" s="17">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>1.0000000000000001E+165</v>
       </c>
       <c r="H98" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>10</v>
       </c>
       <c r="I98" s="16" t="str" cm="1">
@@ -14178,7 +14400,7 @@
         <v>절</v>
       </c>
       <c r="J98" s="16" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1E+164</v>
       </c>
       <c r="K98" s="22">
@@ -14198,11 +14420,11 @@
         <v>100절</v>
       </c>
       <c r="G99" s="17">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>9.9999999999999994E+165</v>
       </c>
       <c r="H99" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>100</v>
       </c>
       <c r="I99" s="16" t="str" cm="1">
@@ -14210,7 +14432,7 @@
         <v>절</v>
       </c>
       <c r="J99" s="16" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1E+164</v>
       </c>
       <c r="K99" s="22">
@@ -14230,11 +14452,11 @@
         <v>1000절</v>
       </c>
       <c r="G100" s="17">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>1E+167</v>
       </c>
       <c r="H100" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1000</v>
       </c>
       <c r="I100" s="16" t="str" cm="1">
@@ -14242,7 +14464,7 @@
         <v>절</v>
       </c>
       <c r="J100" s="16" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1E+164</v>
       </c>
       <c r="K100" s="22">
@@ -14262,11 +14484,11 @@
         <v>1격</v>
       </c>
       <c r="G101" s="17">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>9.9999999999999993E+167</v>
       </c>
       <c r="H101" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1</v>
       </c>
       <c r="I101" s="16" t="str" cm="1">
@@ -14274,7 +14496,7 @@
         <v>격</v>
       </c>
       <c r="J101" s="16" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1E+168</v>
       </c>
       <c r="K101" s="22">
@@ -14295,11 +14517,11 @@
         <v>10격</v>
       </c>
       <c r="G102" s="17">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>9.9999999999999993E+168</v>
       </c>
       <c r="H102" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>10</v>
       </c>
       <c r="I102" s="16" t="str" cm="1">
@@ -14307,11 +14529,11 @@
         <v>격</v>
       </c>
       <c r="J102" s="16" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1E+168</v>
       </c>
       <c r="K102" s="22">
-        <f t="shared" ref="K102:K184" si="54">K98+1000</f>
+        <f t="shared" ref="K102:K188" si="56">K98+1000</f>
         <v>24000</v>
       </c>
       <c r="L102" s="22">
@@ -14328,11 +14550,11 @@
         <v>100격</v>
       </c>
       <c r="G103" s="17">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>9.999999999999999E+169</v>
       </c>
       <c r="H103" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>100</v>
       </c>
       <c r="I103" s="16" t="str" cm="1">
@@ -14340,11 +14562,11 @@
         <v>격</v>
       </c>
       <c r="J103" s="16" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1E+168</v>
       </c>
       <c r="K103" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>24000</v>
       </c>
       <c r="L103" s="22">
@@ -14361,11 +14583,11 @@
         <v>1000격</v>
       </c>
       <c r="G104" s="17">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>9.9999999999999995E+170</v>
       </c>
       <c r="H104" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1000</v>
       </c>
       <c r="I104" s="16" t="str" cm="1">
@@ -14373,11 +14595,11 @@
         <v>격</v>
       </c>
       <c r="J104" s="16" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1E+168</v>
       </c>
       <c r="K104" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>24000</v>
       </c>
       <c r="L104" s="22">
@@ -14390,15 +14612,15 @@
         <v>96</v>
       </c>
       <c r="F105" s="17" t="str">
-        <f t="shared" ref="F105:F112" si="55">H105&amp;I105</f>
+        <f t="shared" ref="F105:F112" si="57">H105&amp;I105</f>
         <v>1창</v>
       </c>
       <c r="G105" s="17">
-        <f t="shared" ref="G105:G112" si="56">H105*J105</f>
+        <f t="shared" ref="G105:G112" si="58">H105*J105</f>
         <v>1.0000000000000001E+172</v>
       </c>
       <c r="H105" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1</v>
       </c>
       <c r="I105" s="16" t="str" cm="1">
@@ -14406,11 +14628,11 @@
         <v>창</v>
       </c>
       <c r="J105" s="16" t="str">
-        <f t="shared" ref="J105:J112" si="57">VLOOKUP(I105,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J105:J112" si="59">VLOOKUP(I105,N:Q,4,FALSE)</f>
         <v>1E+172</v>
       </c>
       <c r="K105" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>25000</v>
       </c>
       <c r="L105" s="22">
@@ -14422,15 +14644,15 @@
         <v>97</v>
       </c>
       <c r="F106" s="17" t="str">
+        <f t="shared" si="57"/>
+        <v>10창</v>
+      </c>
+      <c r="G106" s="17">
+        <f t="shared" si="58"/>
+        <v>1E+173</v>
+      </c>
+      <c r="H106" s="17">
         <f t="shared" si="55"/>
-        <v>10창</v>
-      </c>
-      <c r="G106" s="17">
-        <f t="shared" si="56"/>
-        <v>1E+173</v>
-      </c>
-      <c r="H106" s="17">
-        <f t="shared" si="53"/>
         <v>10</v>
       </c>
       <c r="I106" s="16" t="str" cm="1">
@@ -14438,11 +14660,11 @@
         <v>창</v>
       </c>
       <c r="J106" s="16" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>1E+172</v>
       </c>
       <c r="K106" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>25000</v>
       </c>
       <c r="L106" s="22">
@@ -14454,15 +14676,15 @@
         <v>98</v>
       </c>
       <c r="F107" s="17" t="str">
+        <f t="shared" si="57"/>
+        <v>100창</v>
+      </c>
+      <c r="G107" s="17">
+        <f t="shared" si="58"/>
+        <v>1.0000000000000001E+174</v>
+      </c>
+      <c r="H107" s="17">
         <f t="shared" si="55"/>
-        <v>100창</v>
-      </c>
-      <c r="G107" s="17">
-        <f t="shared" si="56"/>
-        <v>1.0000000000000001E+174</v>
-      </c>
-      <c r="H107" s="17">
-        <f t="shared" si="53"/>
         <v>100</v>
       </c>
       <c r="I107" s="16" t="str" cm="1">
@@ -14470,11 +14692,11 @@
         <v>창</v>
       </c>
       <c r="J107" s="16" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>1E+172</v>
       </c>
       <c r="K107" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>25000</v>
       </c>
       <c r="L107" s="22">
@@ -14486,15 +14708,15 @@
         <v>99</v>
       </c>
       <c r="F108" s="17" t="str">
+        <f t="shared" si="57"/>
+        <v>1000창</v>
+      </c>
+      <c r="G108" s="17">
+        <f t="shared" si="58"/>
+        <v>1.0000000000000001E+175</v>
+      </c>
+      <c r="H108" s="17">
         <f t="shared" si="55"/>
-        <v>1000창</v>
-      </c>
-      <c r="G108" s="17">
-        <f t="shared" si="56"/>
-        <v>1.0000000000000001E+175</v>
-      </c>
-      <c r="H108" s="17">
-        <f t="shared" si="53"/>
         <v>1000</v>
       </c>
       <c r="I108" s="16" t="str" cm="1">
@@ -14502,11 +14724,11 @@
         <v>창</v>
       </c>
       <c r="J108" s="16" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>1E+172</v>
       </c>
       <c r="K108" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>25000</v>
       </c>
       <c r="L108" s="22">
@@ -14518,15 +14740,15 @@
         <v>100</v>
       </c>
       <c r="F109" s="17" t="str">
+        <f t="shared" si="57"/>
+        <v>1공</v>
+      </c>
+      <c r="G109" s="17">
+        <f t="shared" si="58"/>
+        <v>1E+176</v>
+      </c>
+      <c r="H109" s="17">
         <f t="shared" si="55"/>
-        <v>1공</v>
-      </c>
-      <c r="G109" s="17">
-        <f t="shared" si="56"/>
-        <v>1E+176</v>
-      </c>
-      <c r="H109" s="17">
-        <f t="shared" si="53"/>
         <v>1</v>
       </c>
       <c r="I109" s="16" t="str" cm="1">
@@ -14534,11 +14756,11 @@
         <v>공</v>
       </c>
       <c r="J109" s="16" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>1E+176</v>
       </c>
       <c r="K109" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>26000</v>
       </c>
       <c r="L109" s="22">
@@ -14550,15 +14772,15 @@
         <v>101</v>
       </c>
       <c r="F110" s="17" t="str">
+        <f t="shared" si="57"/>
+        <v>10공</v>
+      </c>
+      <c r="G110" s="17">
+        <f t="shared" si="58"/>
+        <v>1E+177</v>
+      </c>
+      <c r="H110" s="17">
         <f t="shared" si="55"/>
-        <v>10공</v>
-      </c>
-      <c r="G110" s="17">
-        <f t="shared" si="56"/>
-        <v>1E+177</v>
-      </c>
-      <c r="H110" s="17">
-        <f t="shared" si="53"/>
         <v>10</v>
       </c>
       <c r="I110" s="16" t="str" cm="1">
@@ -14566,11 +14788,11 @@
         <v>공</v>
       </c>
       <c r="J110" s="16" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>1E+176</v>
       </c>
       <c r="K110" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>26000</v>
       </c>
       <c r="L110" s="22">
@@ -14582,15 +14804,15 @@
         <v>102</v>
       </c>
       <c r="F111" s="17" t="str">
+        <f t="shared" si="57"/>
+        <v>100공</v>
+      </c>
+      <c r="G111" s="17">
+        <f t="shared" si="58"/>
+        <v>1.0000000000000001E+178</v>
+      </c>
+      <c r="H111" s="17">
         <f t="shared" si="55"/>
-        <v>100공</v>
-      </c>
-      <c r="G111" s="17">
-        <f t="shared" si="56"/>
-        <v>1.0000000000000001E+178</v>
-      </c>
-      <c r="H111" s="17">
-        <f t="shared" si="53"/>
         <v>100</v>
       </c>
       <c r="I111" s="16" t="str" cm="1">
@@ -14598,11 +14820,11 @@
         <v>공</v>
       </c>
       <c r="J111" s="16" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>1E+176</v>
       </c>
       <c r="K111" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>26000</v>
       </c>
       <c r="L111" s="22">
@@ -14614,15 +14836,15 @@
         <v>103</v>
       </c>
       <c r="F112" s="17" t="str">
+        <f t="shared" si="57"/>
+        <v>1000공</v>
+      </c>
+      <c r="G112" s="17">
+        <f t="shared" si="58"/>
+        <v>9.9999999999999998E+178</v>
+      </c>
+      <c r="H112" s="17">
         <f t="shared" si="55"/>
-        <v>1000공</v>
-      </c>
-      <c r="G112" s="17">
-        <f t="shared" si="56"/>
-        <v>9.9999999999999998E+178</v>
-      </c>
-      <c r="H112" s="17">
-        <f t="shared" si="53"/>
         <v>1000</v>
       </c>
       <c r="I112" s="16" t="str" cm="1">
@@ -14630,11 +14852,11 @@
         <v>공</v>
       </c>
       <c r="J112" s="16" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>1E+176</v>
       </c>
       <c r="K112" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>26000</v>
       </c>
       <c r="L112" s="22">
@@ -14646,15 +14868,15 @@
         <v>104</v>
       </c>
       <c r="F113" s="17" t="str">
-        <f t="shared" ref="F113:F120" si="58">H113&amp;I113</f>
+        <f t="shared" ref="F113:F120" si="60">H113&amp;I113</f>
         <v>1채</v>
       </c>
       <c r="G113" s="17">
-        <f t="shared" ref="G113:G120" si="59">H113*J113</f>
+        <f t="shared" ref="G113:G120" si="61">H113*J113</f>
         <v>1E+180</v>
       </c>
       <c r="H113" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1</v>
       </c>
       <c r="I113" s="16" t="str" cm="1">
@@ -14662,11 +14884,11 @@
         <v>채</v>
       </c>
       <c r="J113" s="16" t="str">
-        <f t="shared" ref="J113:J120" si="60">VLOOKUP(I113,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J113:J120" si="62">VLOOKUP(I113,N:Q,4,FALSE)</f>
         <v>1E+180</v>
       </c>
       <c r="K113" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>27000</v>
       </c>
       <c r="L113" s="22">
@@ -14678,15 +14900,15 @@
         <v>105</v>
       </c>
       <c r="F114" s="17" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>10채</v>
       </c>
       <c r="G114" s="17">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>9.9999999999999992E+180</v>
       </c>
       <c r="H114" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>10</v>
       </c>
       <c r="I114" s="16" t="str" cm="1">
@@ -14694,11 +14916,11 @@
         <v>채</v>
       </c>
       <c r="J114" s="16" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>1E+180</v>
       </c>
       <c r="K114" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>27000</v>
       </c>
       <c r="L114" s="22">
@@ -14710,15 +14932,15 @@
         <v>106</v>
       </c>
       <c r="F115" s="17" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>100채</v>
       </c>
       <c r="G115" s="17">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>1.0000000000000001E+182</v>
       </c>
       <c r="H115" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>100</v>
       </c>
       <c r="I115" s="16" t="str" cm="1">
@@ -14726,11 +14948,11 @@
         <v>채</v>
       </c>
       <c r="J115" s="16" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>1E+180</v>
       </c>
       <c r="K115" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>27000</v>
       </c>
       <c r="L115" s="22">
@@ -14742,15 +14964,15 @@
         <v>107</v>
       </c>
       <c r="F116" s="17" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>1000채</v>
       </c>
       <c r="G116" s="17">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>1.0000000000000001E+183</v>
       </c>
       <c r="H116" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1000</v>
       </c>
       <c r="I116" s="16" t="str" cm="1">
@@ -14758,11 +14980,11 @@
         <v>채</v>
       </c>
       <c r="J116" s="16" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>1E+180</v>
       </c>
       <c r="K116" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>27000</v>
       </c>
       <c r="L116" s="22">
@@ -14774,15 +14996,15 @@
         <v>108</v>
       </c>
       <c r="F117" s="17" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>1피</v>
       </c>
       <c r="G117" s="17">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>1E+184</v>
       </c>
       <c r="H117" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1</v>
       </c>
       <c r="I117" s="16" t="str" cm="1">
@@ -14790,11 +15012,11 @@
         <v>피</v>
       </c>
       <c r="J117" s="16" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>1E+184</v>
       </c>
       <c r="K117" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>28000</v>
       </c>
       <c r="L117" s="22">
@@ -14806,15 +15028,15 @@
         <v>109</v>
       </c>
       <c r="F118" s="17" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>10피</v>
       </c>
       <c r="G118" s="17">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>9.9999999999999998E+184</v>
       </c>
       <c r="H118" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>10</v>
       </c>
       <c r="I118" s="16" t="str" cm="1">
@@ -14822,11 +15044,11 @@
         <v>피</v>
       </c>
       <c r="J118" s="16" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>1E+184</v>
       </c>
       <c r="K118" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>28000</v>
       </c>
       <c r="L118" s="22">
@@ -14838,15 +15060,15 @@
         <v>110</v>
       </c>
       <c r="F119" s="17" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>100피</v>
       </c>
       <c r="G119" s="17">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>9.9999999999999998E+185</v>
       </c>
       <c r="H119" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>100</v>
       </c>
       <c r="I119" s="16" t="str" cm="1">
@@ -14854,11 +15076,11 @@
         <v>피</v>
       </c>
       <c r="J119" s="16" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>1E+184</v>
       </c>
       <c r="K119" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>28000</v>
       </c>
       <c r="L119" s="22">
@@ -14870,15 +15092,15 @@
         <v>111</v>
       </c>
       <c r="F120" s="17" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>1000피</v>
       </c>
       <c r="G120" s="17">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>1.0000000000000001E+187</v>
       </c>
       <c r="H120" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1000</v>
       </c>
       <c r="I120" s="16" t="str" cm="1">
@@ -14886,11 +15108,11 @@
         <v>피</v>
       </c>
       <c r="J120" s="16" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>1E+184</v>
       </c>
       <c r="K120" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>28000</v>
       </c>
       <c r="L120" s="22">
@@ -14902,15 +15124,15 @@
         <v>112</v>
       </c>
       <c r="F121" s="17" t="str">
-        <f t="shared" ref="F121:F124" si="61">H121&amp;I121</f>
+        <f t="shared" ref="F121:F124" si="63">H121&amp;I121</f>
         <v>1동</v>
       </c>
       <c r="G121" s="17">
-        <f t="shared" ref="G121:G124" si="62">H121*J121</f>
+        <f t="shared" ref="G121:G124" si="64">H121*J121</f>
         <v>1E+188</v>
       </c>
       <c r="H121" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1</v>
       </c>
       <c r="I121" s="16" t="str" cm="1">
@@ -14918,11 +15140,11 @@
         <v>동</v>
       </c>
       <c r="J121" s="16" t="str">
-        <f t="shared" ref="J121:J124" si="63">VLOOKUP(I121,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J121:J124" si="65">VLOOKUP(I121,N:Q,4,FALSE)</f>
         <v>1E+188</v>
       </c>
       <c r="K121" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>29000</v>
       </c>
       <c r="L121" s="22">
@@ -14934,15 +15156,15 @@
         <v>113</v>
       </c>
       <c r="F122" s="17" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>10동</v>
       </c>
       <c r="G122" s="17">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>1E+189</v>
       </c>
       <c r="H122" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>10</v>
       </c>
       <c r="I122" s="16" t="str" cm="1">
@@ -14950,11 +15172,11 @@
         <v>동</v>
       </c>
       <c r="J122" s="16" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>1E+188</v>
       </c>
       <c r="K122" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>29000</v>
       </c>
       <c r="L122" s="22">
@@ -14966,15 +15188,15 @@
         <v>114</v>
       </c>
       <c r="F123" s="17" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>100동</v>
       </c>
       <c r="G123" s="17">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>1.0000000000000001E+190</v>
       </c>
       <c r="H123" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>100</v>
       </c>
       <c r="I123" s="16" t="str" cm="1">
@@ -14982,11 +15204,11 @@
         <v>동</v>
       </c>
       <c r="J123" s="16" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>1E+188</v>
       </c>
       <c r="K123" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>29000</v>
       </c>
       <c r="L123" s="22">
@@ -14998,15 +15220,15 @@
         <v>115</v>
       </c>
       <c r="F124" s="17" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>1000동</v>
       </c>
       <c r="G124" s="17">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>1.0000000000000001E+191</v>
       </c>
       <c r="H124" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1000</v>
       </c>
       <c r="I124" s="16" t="str" cm="1">
@@ -15014,11 +15236,11 @@
         <v>동</v>
       </c>
       <c r="J124" s="16" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>1E+188</v>
       </c>
       <c r="K124" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>29000</v>
       </c>
       <c r="L124" s="22">
@@ -15030,15 +15252,15 @@
         <v>116</v>
       </c>
       <c r="F125" s="17" t="str">
-        <f t="shared" ref="F125:F128" si="64">H125&amp;I125</f>
+        <f t="shared" ref="F125:F128" si="66">H125&amp;I125</f>
         <v>1멸</v>
       </c>
       <c r="G125" s="17">
-        <f t="shared" ref="G125:G128" si="65">H125*J125</f>
+        <f t="shared" ref="G125:G128" si="67">H125*J125</f>
         <v>1E+192</v>
       </c>
       <c r="H125" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1</v>
       </c>
       <c r="I125" s="16" t="str" cm="1">
@@ -15046,11 +15268,11 @@
         <v>멸</v>
       </c>
       <c r="J125" s="16" t="str">
-        <f t="shared" ref="J125:J128" si="66">VLOOKUP(I125,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J125:J128" si="68">VLOOKUP(I125,N:Q,4,FALSE)</f>
         <v>1E+192</v>
       </c>
       <c r="K125" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>30000</v>
       </c>
       <c r="L125" s="22">
@@ -15062,15 +15284,15 @@
         <v>117</v>
       </c>
       <c r="F126" s="17" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>10멸</v>
       </c>
       <c r="G126" s="17">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>1.0000000000000001E+193</v>
       </c>
       <c r="H126" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>10</v>
       </c>
       <c r="I126" s="16" t="str" cm="1">
@@ -15078,11 +15300,11 @@
         <v>멸</v>
       </c>
       <c r="J126" s="16" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>1E+192</v>
       </c>
       <c r="K126" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>30000</v>
       </c>
       <c r="L126" s="22">
@@ -15094,15 +15316,15 @@
         <v>118</v>
       </c>
       <c r="F127" s="17" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>100멸</v>
       </c>
       <c r="G127" s="17">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>1.0000000000000001E+194</v>
       </c>
       <c r="H127" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>100</v>
       </c>
       <c r="I127" s="16" t="str" cm="1">
@@ -15110,11 +15332,11 @@
         <v>멸</v>
       </c>
       <c r="J127" s="16" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>1E+192</v>
       </c>
       <c r="K127" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>30000</v>
       </c>
       <c r="L127" s="22">
@@ -15126,15 +15348,15 @@
         <v>119</v>
       </c>
       <c r="F128" s="17" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>1000멸</v>
       </c>
       <c r="G128" s="17">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>9.9999999999999998E+194</v>
       </c>
       <c r="H128" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1000</v>
       </c>
       <c r="I128" s="16" t="str" cm="1">
@@ -15142,11 +15364,11 @@
         <v>멸</v>
       </c>
       <c r="J128" s="16" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>1E+192</v>
       </c>
       <c r="K128" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>30000</v>
       </c>
       <c r="L128" s="22">
@@ -15158,15 +15380,15 @@
         <v>120</v>
       </c>
       <c r="F129" s="17" t="str">
-        <f t="shared" ref="F129:F136" si="67">H129&amp;I129</f>
+        <f t="shared" ref="F129:F136" si="69">H129&amp;I129</f>
         <v>1향</v>
       </c>
       <c r="G129" s="17">
-        <f t="shared" ref="G129:G136" si="68">H129*J129</f>
+        <f t="shared" ref="G129:G136" si="70">H129*J129</f>
         <v>9.9999999999999995E+195</v>
       </c>
       <c r="H129" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1</v>
       </c>
       <c r="I129" s="16" t="str" cm="1">
@@ -15174,11 +15396,11 @@
         <v>향</v>
       </c>
       <c r="J129" s="16" t="str">
-        <f t="shared" ref="J129:J136" si="69">VLOOKUP(I129,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J129:J136" si="71">VLOOKUP(I129,N:Q,4,FALSE)</f>
         <v>1E+196</v>
       </c>
       <c r="K129" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>31000</v>
       </c>
       <c r="L129" s="22">
@@ -15190,15 +15412,15 @@
         <v>121</v>
       </c>
       <c r="F130" s="17" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>10향</v>
       </c>
       <c r="G130" s="17">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>9.9999999999999995E+196</v>
       </c>
       <c r="H130" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>10</v>
       </c>
       <c r="I130" s="16" t="str" cm="1">
@@ -15206,11 +15428,11 @@
         <v>향</v>
       </c>
       <c r="J130" s="16" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>1E+196</v>
       </c>
       <c r="K130" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>31000</v>
       </c>
       <c r="L130" s="22">
@@ -15222,15 +15444,15 @@
         <v>122</v>
       </c>
       <c r="F131" s="17" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>100향</v>
       </c>
       <c r="G131" s="17">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>9.9999999999999988E+197</v>
       </c>
       <c r="H131" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>100</v>
       </c>
       <c r="I131" s="16" t="str" cm="1">
@@ -15238,11 +15460,11 @@
         <v>향</v>
       </c>
       <c r="J131" s="16" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>1E+196</v>
       </c>
       <c r="K131" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>31000</v>
       </c>
       <c r="L131" s="22">
@@ -15254,15 +15476,15 @@
         <v>123</v>
       </c>
       <c r="F132" s="17" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>1000향</v>
       </c>
       <c r="G132" s="17">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>9.9999999999999988E+198</v>
       </c>
       <c r="H132" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1000</v>
       </c>
       <c r="I132" s="16" t="str" cm="1">
@@ -15270,11 +15492,11 @@
         <v>향</v>
       </c>
       <c r="J132" s="16" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>1E+196</v>
       </c>
       <c r="K132" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>31000</v>
       </c>
       <c r="L132" s="22">
@@ -15286,15 +15508,15 @@
         <v>124</v>
       </c>
       <c r="F133" s="17" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>1증</v>
       </c>
       <c r="G133" s="17">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>9.9999999999999997E+199</v>
       </c>
       <c r="H133" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1</v>
       </c>
       <c r="I133" s="16" t="str" cm="1">
@@ -15302,11 +15524,11 @@
         <v>증</v>
       </c>
       <c r="J133" s="16" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>1E+200</v>
       </c>
       <c r="K133" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>32000</v>
       </c>
       <c r="L133" s="22">
@@ -15318,15 +15540,15 @@
         <v>125</v>
       </c>
       <c r="F134" s="17" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>10증</v>
       </c>
       <c r="G134" s="17">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>9.999999999999999E+200</v>
       </c>
       <c r="H134" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>10</v>
       </c>
       <c r="I134" s="16" t="str" cm="1">
@@ -15334,11 +15556,11 @@
         <v>증</v>
       </c>
       <c r="J134" s="16" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>1E+200</v>
       </c>
       <c r="K134" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>32000</v>
       </c>
       <c r="L134" s="22">
@@ -15350,15 +15572,15 @@
         <v>126</v>
       </c>
       <c r="F135" s="17" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>100증</v>
       </c>
       <c r="G135" s="17">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>9.999999999999999E+201</v>
       </c>
       <c r="H135" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>100</v>
       </c>
       <c r="I135" s="16" t="str" cm="1">
@@ -15366,11 +15588,11 @@
         <v>증</v>
       </c>
       <c r="J135" s="16" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>1E+200</v>
       </c>
       <c r="K135" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>32000</v>
       </c>
       <c r="L135" s="22">
@@ -15382,15 +15604,15 @@
         <v>127</v>
       </c>
       <c r="F136" s="17" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>1000증</v>
       </c>
       <c r="G136" s="17">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>9.9999999999999999E+202</v>
       </c>
       <c r="H136" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1000</v>
       </c>
       <c r="I136" s="16" t="str" cm="1">
@@ -15398,11 +15620,11 @@
         <v>증</v>
       </c>
       <c r="J136" s="16" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>1E+200</v>
       </c>
       <c r="K136" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>32000</v>
       </c>
       <c r="L136" s="22">
@@ -15414,15 +15636,15 @@
         <v>128</v>
       </c>
       <c r="F137" s="17" t="str">
-        <f t="shared" ref="F137:F140" si="70">H137&amp;I137</f>
+        <f t="shared" ref="F137:F140" si="72">H137&amp;I137</f>
         <v>1쾌</v>
       </c>
       <c r="G137" s="17">
-        <f t="shared" ref="G137:G140" si="71">H137*J137</f>
+        <f t="shared" ref="G137:G140" si="73">H137*J137</f>
         <v>9.9999999999999999E+203</v>
       </c>
       <c r="H137" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1</v>
       </c>
       <c r="I137" s="16" t="str" cm="1">
@@ -15430,11 +15652,11 @@
         <v>쾌</v>
       </c>
       <c r="J137" s="16" t="str">
-        <f t="shared" ref="J137:J140" si="72">VLOOKUP(I137,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J137:J140" si="74">VLOOKUP(I137,N:Q,4,FALSE)</f>
         <v>1E+204</v>
       </c>
       <c r="K137" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>33000</v>
       </c>
       <c r="L137" s="22">
@@ -15446,15 +15668,15 @@
         <v>129</v>
       </c>
       <c r="F138" s="17" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>10쾌</v>
       </c>
       <c r="G138" s="17">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>1E+205</v>
       </c>
       <c r="H138" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>10</v>
       </c>
       <c r="I138" s="16" t="str" cm="1">
@@ -15462,11 +15684,11 @@
         <v>쾌</v>
       </c>
       <c r="J138" s="16" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>1E+204</v>
       </c>
       <c r="K138" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>33000</v>
       </c>
       <c r="L138" s="22">
@@ -15478,15 +15700,15 @@
         <v>130</v>
       </c>
       <c r="F139" s="17" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>100쾌</v>
       </c>
       <c r="G139" s="17">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>1E+206</v>
       </c>
       <c r="H139" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>100</v>
       </c>
       <c r="I139" s="16" t="str" cm="1">
@@ -15494,11 +15716,11 @@
         <v>쾌</v>
       </c>
       <c r="J139" s="16" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>1E+204</v>
       </c>
       <c r="K139" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>33000</v>
       </c>
       <c r="L139" s="22">
@@ -15510,15 +15732,15 @@
         <v>131</v>
       </c>
       <c r="F140" s="17" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>1000쾌</v>
       </c>
       <c r="G140" s="17">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>1E+207</v>
       </c>
       <c r="H140" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1000</v>
       </c>
       <c r="I140" s="16" t="str" cm="1">
@@ -15526,11 +15748,11 @@
         <v>쾌</v>
       </c>
       <c r="J140" s="16" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>1E+204</v>
       </c>
       <c r="K140" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>33000</v>
       </c>
       <c r="L140" s="22">
@@ -15542,15 +15764,15 @@
         <v>132</v>
       </c>
       <c r="F141" s="17" t="str">
-        <f t="shared" ref="F141:F144" si="73">H141&amp;I141</f>
+        <f t="shared" ref="F141:F144" si="75">H141&amp;I141</f>
         <v>1우</v>
       </c>
       <c r="G141" s="17">
-        <f t="shared" ref="G141:G144" si="74">H141*J141</f>
+        <f t="shared" ref="G141:G144" si="76">H141*J141</f>
         <v>9.9999999999999998E+207</v>
       </c>
       <c r="H141" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1</v>
       </c>
       <c r="I141" s="16" t="str" cm="1">
@@ -15558,11 +15780,11 @@
         <v>우</v>
       </c>
       <c r="J141" s="16" t="str">
-        <f t="shared" ref="J141:J144" si="75">VLOOKUP(I141,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J141:J144" si="77">VLOOKUP(I141,N:Q,4,FALSE)</f>
         <v>1E+208</v>
       </c>
       <c r="K141" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>34000</v>
       </c>
       <c r="L141" s="22">
@@ -15574,15 +15796,15 @@
         <v>133</v>
       </c>
       <c r="F142" s="17" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>10우</v>
       </c>
       <c r="G142" s="17">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>1.0000000000000001E+209</v>
       </c>
       <c r="H142" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>10</v>
       </c>
       <c r="I142" s="16" t="str" cm="1">
@@ -15590,11 +15812,11 @@
         <v>우</v>
       </c>
       <c r="J142" s="16" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>1E+208</v>
       </c>
       <c r="K142" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>34000</v>
       </c>
       <c r="L142" s="22">
@@ -15606,15 +15828,15 @@
         <v>134</v>
       </c>
       <c r="F143" s="17" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>100우</v>
       </c>
       <c r="G143" s="17">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>9.9999999999999993E+209</v>
       </c>
       <c r="H143" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>100</v>
       </c>
       <c r="I143" s="16" t="str" cm="1">
@@ -15622,11 +15844,11 @@
         <v>우</v>
       </c>
       <c r="J143" s="16" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>1E+208</v>
       </c>
       <c r="K143" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>34000</v>
       </c>
       <c r="L143" s="22">
@@ -15638,15 +15860,15 @@
         <v>135</v>
       </c>
       <c r="F144" s="17" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>1000우</v>
       </c>
       <c r="G144" s="17">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>9.9999999999999996E+210</v>
       </c>
       <c r="H144" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1000</v>
       </c>
       <c r="I144" s="16" t="str" cm="1">
@@ -15654,11 +15876,11 @@
         <v>우</v>
       </c>
       <c r="J144" s="16" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>1E+208</v>
       </c>
       <c r="K144" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>34000</v>
       </c>
       <c r="L144" s="22">
@@ -15670,15 +15892,15 @@
         <v>136</v>
       </c>
       <c r="F145" s="17" t="str">
-        <f t="shared" ref="F145:F151" si="76">H145&amp;I145</f>
+        <f t="shared" ref="F145:F151" si="78">H145&amp;I145</f>
         <v>1팽</v>
       </c>
       <c r="G145" s="17">
-        <f t="shared" ref="G145:G151" si="77">H145*J145</f>
+        <f t="shared" ref="G145:G151" si="79">H145*J145</f>
         <v>9.9999999999999991E+211</v>
       </c>
       <c r="H145" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1</v>
       </c>
       <c r="I145" s="16" t="str" cm="1">
@@ -15686,11 +15908,11 @@
         <v>팽</v>
       </c>
       <c r="J145" s="16" t="str">
-        <f t="shared" ref="J145:J151" si="78">VLOOKUP(I145,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J145:J151" si="80">VLOOKUP(I145,N:Q,4,FALSE)</f>
         <v>1E+212</v>
       </c>
       <c r="K145" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>35000</v>
       </c>
       <c r="L145" s="22">
@@ -15702,15 +15924,15 @@
         <v>137</v>
       </c>
       <c r="F146" s="17" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>10팽</v>
       </c>
       <c r="G146" s="17">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>9.9999999999999983E+212</v>
       </c>
       <c r="H146" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>10</v>
       </c>
       <c r="I146" s="16" t="str" cm="1">
@@ -15718,11 +15940,11 @@
         <v>팽</v>
       </c>
       <c r="J146" s="16" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>1E+212</v>
       </c>
       <c r="K146" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>35000</v>
       </c>
       <c r="L146" s="22">
@@ -15734,15 +15956,15 @@
         <v>138</v>
       </c>
       <c r="F147" s="17" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>100팽</v>
       </c>
       <c r="G147" s="17">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>9.9999999999999995E+213</v>
       </c>
       <c r="H147" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>100</v>
       </c>
       <c r="I147" s="16" t="str" cm="1">
@@ -15750,11 +15972,11 @@
         <v>팽</v>
       </c>
       <c r="J147" s="16" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>1E+212</v>
       </c>
       <c r="K147" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>35000</v>
       </c>
       <c r="L147" s="22">
@@ -15766,15 +15988,15 @@
         <v>139</v>
       </c>
       <c r="F148" s="17" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>1000팽</v>
       </c>
       <c r="G148" s="17">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>9.9999999999999991E+214</v>
       </c>
       <c r="H148" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1000</v>
       </c>
       <c r="I148" s="16" t="str" cm="1">
@@ -15782,11 +16004,11 @@
         <v>팽</v>
       </c>
       <c r="J148" s="16" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>1E+212</v>
       </c>
       <c r="K148" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>35000</v>
       </c>
       <c r="L148" s="22">
@@ -15798,15 +16020,15 @@
         <v>140</v>
       </c>
       <c r="F149" s="17" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>1관</v>
       </c>
       <c r="G149" s="17">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>1E+216</v>
       </c>
       <c r="H149" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1</v>
       </c>
       <c r="I149" s="16" t="str" cm="1">
@@ -15814,11 +16036,11 @@
         <v>관</v>
       </c>
       <c r="J149" s="16" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>1E+216</v>
       </c>
       <c r="K149" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>36000</v>
       </c>
       <c r="L149" s="22">
@@ -15830,15 +16052,15 @@
         <v>141</v>
       </c>
       <c r="F150" s="17" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>10관</v>
       </c>
       <c r="G150" s="17">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>1.0000000000000001E+217</v>
       </c>
       <c r="H150" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>10</v>
       </c>
       <c r="I150" s="16" t="str" cm="1">
@@ -15846,11 +16068,11 @@
         <v>관</v>
       </c>
       <c r="J150" s="16" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>1E+216</v>
       </c>
       <c r="K150" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>36000</v>
       </c>
       <c r="L150" s="22">
@@ -15862,15 +16084,15 @@
         <v>142</v>
       </c>
       <c r="F151" s="17" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>100관</v>
       </c>
       <c r="G151" s="17">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>1.0000000000000001E+218</v>
       </c>
       <c r="H151" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>100</v>
       </c>
       <c r="I151" s="16" t="str" cm="1">
@@ -15878,11 +16100,11 @@
         <v>관</v>
       </c>
       <c r="J151" s="16" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>1E+216</v>
       </c>
       <c r="K151" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>36000</v>
       </c>
       <c r="L151" s="22">
@@ -15894,15 +16116,15 @@
         <v>143</v>
       </c>
       <c r="F152" s="17" t="str">
-        <f t="shared" ref="F152:F156" si="79">H152&amp;I152</f>
+        <f t="shared" ref="F152:F156" si="81">H152&amp;I152</f>
         <v>1000관</v>
       </c>
       <c r="G152" s="17">
-        <f t="shared" ref="G152:G156" si="80">H152*J152</f>
+        <f t="shared" ref="G152:G156" si="82">H152*J152</f>
         <v>9.9999999999999997E+218</v>
       </c>
       <c r="H152" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1000</v>
       </c>
       <c r="I152" s="16" t="str" cm="1">
@@ -15910,11 +16132,11 @@
         <v>관</v>
       </c>
       <c r="J152" s="16" t="str">
-        <f t="shared" ref="J152:J156" si="81">VLOOKUP(I152,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J152:J156" si="83">VLOOKUP(I152,N:Q,4,FALSE)</f>
         <v>1E+216</v>
       </c>
       <c r="K152" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>36000</v>
       </c>
       <c r="L152" s="22">
@@ -15926,15 +16148,15 @@
         <v>144</v>
       </c>
       <c r="F153" s="17" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>1한</v>
       </c>
       <c r="G153" s="17">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>1E+220</v>
       </c>
       <c r="H153" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1</v>
       </c>
       <c r="I153" s="16" t="str" cm="1">
@@ -15942,11 +16164,11 @@
         <v>한</v>
       </c>
       <c r="J153" s="16" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>1E+220</v>
       </c>
       <c r="K153" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>37000</v>
       </c>
       <c r="L153" s="22">
@@ -15958,15 +16180,15 @@
         <v>145</v>
       </c>
       <c r="F154" s="17" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>10한</v>
       </c>
       <c r="G154" s="17">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>1E+221</v>
       </c>
       <c r="H154" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>10</v>
       </c>
       <c r="I154" s="16" t="str" cm="1">
@@ -15974,11 +16196,11 @@
         <v>한</v>
       </c>
       <c r="J154" s="16" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>1E+220</v>
       </c>
       <c r="K154" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>37000</v>
       </c>
       <c r="L154" s="22">
@@ -15990,15 +16212,15 @@
         <v>146</v>
       </c>
       <c r="F155" s="17" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>100한</v>
       </c>
       <c r="G155" s="17">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>1E+222</v>
       </c>
       <c r="H155" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>100</v>
       </c>
       <c r="I155" s="16" t="str" cm="1">
@@ -16006,11 +16228,11 @@
         <v>한</v>
       </c>
       <c r="J155" s="16" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>1E+220</v>
       </c>
       <c r="K155" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>37000</v>
       </c>
       <c r="L155" s="22">
@@ -16022,15 +16244,15 @@
         <v>147</v>
       </c>
       <c r="F156" s="17" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>1000한</v>
       </c>
       <c r="G156" s="17">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>1E+223</v>
       </c>
       <c r="H156" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1000</v>
       </c>
       <c r="I156" s="16" t="str" cm="1">
@@ -16038,11 +16260,11 @@
         <v>한</v>
       </c>
       <c r="J156" s="16" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>1E+220</v>
       </c>
       <c r="K156" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>37000</v>
       </c>
       <c r="L156" s="22">
@@ -16054,15 +16276,15 @@
         <v>148</v>
       </c>
       <c r="F157" s="17" t="str">
-        <f t="shared" ref="F157:F160" si="82">H157&amp;I157</f>
+        <f t="shared" ref="F157:F160" si="84">H157&amp;I157</f>
         <v>1혈</v>
       </c>
       <c r="G157" s="17">
-        <f t="shared" ref="G157:G160" si="83">H157*J157</f>
+        <f t="shared" ref="G157:G160" si="85">H157*J157</f>
         <v>9.9999999999999997E+223</v>
       </c>
       <c r="H157" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1</v>
       </c>
       <c r="I157" s="16" t="str" cm="1">
@@ -16070,11 +16292,11 @@
         <v>혈</v>
       </c>
       <c r="J157" s="16" t="str">
-        <f t="shared" ref="J157:J160" si="84">VLOOKUP(I157,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J157:J160" si="86">VLOOKUP(I157,N:Q,4,FALSE)</f>
         <v>1E+224</v>
       </c>
       <c r="K157" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>38000</v>
       </c>
       <c r="L157" s="22">
@@ -16086,15 +16308,15 @@
         <v>149</v>
       </c>
       <c r="F158" s="17" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>10혈</v>
       </c>
       <c r="G158" s="17">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>9.9999999999999993E+224</v>
       </c>
       <c r="H158" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>10</v>
       </c>
       <c r="I158" s="16" t="str" cm="1">
@@ -16102,11 +16324,11 @@
         <v>혈</v>
       </c>
       <c r="J158" s="16" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>1E+224</v>
       </c>
       <c r="K158" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>38000</v>
       </c>
       <c r="L158" s="22">
@@ -16118,15 +16340,15 @@
         <v>150</v>
       </c>
       <c r="F159" s="17" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>100혈</v>
       </c>
       <c r="G159" s="17">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>9.9999999999999996E+225</v>
       </c>
       <c r="H159" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>100</v>
       </c>
       <c r="I159" s="16" t="str" cm="1">
@@ -16134,11 +16356,11 @@
         <v>혈</v>
       </c>
       <c r="J159" s="16" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>1E+224</v>
       </c>
       <c r="K159" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>38000</v>
       </c>
       <c r="L159" s="22">
@@ -16150,15 +16372,15 @@
         <v>151</v>
       </c>
       <c r="F160" s="17" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>1000혈</v>
       </c>
       <c r="G160" s="17">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>9.9999999999999988E+226</v>
       </c>
       <c r="H160" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1000</v>
       </c>
       <c r="I160" s="16" t="str" cm="1">
@@ -16166,11 +16388,11 @@
         <v>혈</v>
       </c>
       <c r="J160" s="16" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>1E+224</v>
       </c>
       <c r="K160" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>38000</v>
       </c>
       <c r="L160" s="22">
@@ -16182,15 +16404,15 @@
         <v>152</v>
       </c>
       <c r="F161" s="17" t="str">
-        <f t="shared" ref="F161:F164" si="85">H161&amp;I161</f>
+        <f t="shared" ref="F161:F164" si="87">H161&amp;I161</f>
         <v>1연</v>
       </c>
       <c r="G161" s="17">
-        <f t="shared" ref="G161:G164" si="86">H161*J161</f>
+        <f t="shared" ref="G161:G164" si="88">H161*J161</f>
         <v>9.9999999999999992E+227</v>
       </c>
       <c r="H161" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1</v>
       </c>
       <c r="I161" s="16" t="str" cm="1">
@@ -16198,11 +16420,11 @@
         <v>연</v>
       </c>
       <c r="J161" s="16" t="str">
-        <f t="shared" ref="J161:J164" si="87">VLOOKUP(I161,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J161:J164" si="89">VLOOKUP(I161,N:Q,4,FALSE)</f>
         <v>1E+228</v>
       </c>
       <c r="K161" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>39000</v>
       </c>
       <c r="L161" s="22">
@@ -16214,15 +16436,15 @@
         <v>153</v>
       </c>
       <c r="F162" s="17" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>10연</v>
       </c>
       <c r="G162" s="17">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>9.9999999999999999E+228</v>
       </c>
       <c r="H162" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>10</v>
       </c>
       <c r="I162" s="16" t="str" cm="1">
@@ -16230,11 +16452,11 @@
         <v>연</v>
       </c>
       <c r="J162" s="16" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>1E+228</v>
       </c>
       <c r="K162" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>39000</v>
       </c>
       <c r="L162" s="22">
@@ -16246,15 +16468,15 @@
         <v>154</v>
       </c>
       <c r="F163" s="17" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>100연</v>
       </c>
       <c r="G163" s="17">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>9.9999999999999988E+229</v>
       </c>
       <c r="H163" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>100</v>
       </c>
       <c r="I163" s="16" t="str" cm="1">
@@ -16262,11 +16484,11 @@
         <v>연</v>
       </c>
       <c r="J163" s="16" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>1E+228</v>
       </c>
       <c r="K163" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>39000</v>
       </c>
       <c r="L163" s="22">
@@ -16278,15 +16500,15 @@
         <v>155</v>
       </c>
       <c r="F164" s="17" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>1000연</v>
       </c>
       <c r="G164" s="17">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>9.9999999999999988E+230</v>
       </c>
       <c r="H164" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1000</v>
       </c>
       <c r="I164" s="16" t="str" cm="1">
@@ -16294,11 +16516,11 @@
         <v>연</v>
       </c>
       <c r="J164" s="16" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>1E+228</v>
       </c>
       <c r="K164" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>39000</v>
       </c>
       <c r="L164" s="22">
@@ -16310,15 +16532,15 @@
         <v>156</v>
       </c>
       <c r="F165" s="17" t="str">
-        <f t="shared" ref="F165:F168" si="88">H165&amp;I165</f>
+        <f t="shared" ref="F165:F168" si="90">H165&amp;I165</f>
         <v>1난</v>
       </c>
       <c r="G165" s="17">
-        <f t="shared" ref="G165:G168" si="89">H165*J165</f>
+        <f t="shared" ref="G165:G168" si="91">H165*J165</f>
         <v>1.0000000000000001E+232</v>
       </c>
       <c r="H165" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1</v>
       </c>
       <c r="I165" s="16" t="str" cm="1">
@@ -16326,11 +16548,11 @@
         <v>난</v>
       </c>
       <c r="J165" s="16" t="str">
-        <f t="shared" ref="J165:J168" si="90">VLOOKUP(I165,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J165:J168" si="92">VLOOKUP(I165,N:Q,4,FALSE)</f>
         <v>1E+232</v>
       </c>
       <c r="K165" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>40000</v>
       </c>
       <c r="L165" s="22">
@@ -16342,15 +16564,15 @@
         <v>157</v>
       </c>
       <c r="F166" s="17" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>10난</v>
       </c>
       <c r="G166" s="17">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>9.9999999999999997E+232</v>
       </c>
       <c r="H166" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>10</v>
       </c>
       <c r="I166" s="16" t="str" cm="1">
@@ -16358,11 +16580,11 @@
         <v>난</v>
       </c>
       <c r="J166" s="16" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>1E+232</v>
       </c>
       <c r="K166" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>40000</v>
       </c>
       <c r="L166" s="22">
@@ -16374,15 +16596,15 @@
         <v>158</v>
       </c>
       <c r="F167" s="17" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>100난</v>
       </c>
       <c r="G167" s="17">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>1E+234</v>
       </c>
       <c r="H167" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>100</v>
       </c>
       <c r="I167" s="16" t="str" cm="1">
@@ -16390,11 +16612,11 @@
         <v>난</v>
       </c>
       <c r="J167" s="16" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>1E+232</v>
       </c>
       <c r="K167" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>40000</v>
       </c>
       <c r="L167" s="22">
@@ -16406,15 +16628,15 @@
         <v>159</v>
       </c>
       <c r="F168" s="17" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>1000난</v>
       </c>
       <c r="G168" s="17">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>1.0000000000000001E+235</v>
       </c>
       <c r="H168" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1000</v>
       </c>
       <c r="I168" s="16" t="str" cm="1">
@@ -16422,11 +16644,11 @@
         <v>난</v>
       </c>
       <c r="J168" s="16" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>1E+232</v>
       </c>
       <c r="K168" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>40000</v>
       </c>
       <c r="L168" s="22">
@@ -16438,15 +16660,15 @@
         <v>160</v>
       </c>
       <c r="F169" s="17" t="str">
-        <f t="shared" ref="F169:F172" si="91">H169&amp;I169</f>
+        <f t="shared" ref="F169:F172" si="93">H169&amp;I169</f>
         <v>1군</v>
       </c>
       <c r="G169" s="17">
-        <f t="shared" ref="G169:G172" si="92">H169*J169</f>
+        <f t="shared" ref="G169:G172" si="94">H169*J169</f>
         <v>1.0000000000000001E+236</v>
       </c>
       <c r="H169" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1</v>
       </c>
       <c r="I169" s="16" t="str" cm="1">
@@ -16454,11 +16676,11 @@
         <v>군</v>
       </c>
       <c r="J169" s="16" t="str">
-        <f t="shared" ref="J169:J172" si="93">VLOOKUP(I169,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J169:J172" si="95">VLOOKUP(I169,N:Q,4,FALSE)</f>
         <v>1E+236</v>
       </c>
       <c r="K169" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>41000</v>
       </c>
       <c r="L169" s="22">
@@ -16470,15 +16692,15 @@
         <v>161</v>
       </c>
       <c r="F170" s="17" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>10군</v>
       </c>
       <c r="G170" s="17">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>1.0000000000000001E+237</v>
       </c>
       <c r="H170" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>10</v>
       </c>
       <c r="I170" s="16" t="str" cm="1">
@@ -16486,11 +16708,11 @@
         <v>군</v>
       </c>
       <c r="J170" s="16" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>1E+236</v>
       </c>
       <c r="K170" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>41000</v>
       </c>
       <c r="L170" s="22">
@@ -16502,15 +16724,15 @@
         <v>162</v>
       </c>
       <c r="F171" s="17" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>100군</v>
       </c>
       <c r="G171" s="17">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>1E+238</v>
       </c>
       <c r="H171" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>100</v>
       </c>
       <c r="I171" s="16" t="str" cm="1">
@@ -16518,11 +16740,11 @@
         <v>군</v>
       </c>
       <c r="J171" s="16" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>1E+236</v>
       </c>
       <c r="K171" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>41000</v>
       </c>
       <c r="L171" s="22">
@@ -16534,15 +16756,15 @@
         <v>163</v>
       </c>
       <c r="F172" s="17" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>1000군</v>
       </c>
       <c r="G172" s="17">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>1.0000000000000001E+239</v>
       </c>
       <c r="H172" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1000</v>
       </c>
       <c r="I172" s="16" t="str" cm="1">
@@ -16550,11 +16772,11 @@
         <v>군</v>
       </c>
       <c r="J172" s="16" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>1E+236</v>
       </c>
       <c r="K172" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>41000</v>
       </c>
       <c r="L172" s="22">
@@ -16566,15 +16788,15 @@
         <v>164</v>
       </c>
       <c r="F173" s="17" t="str">
-        <f t="shared" ref="F173:F176" si="94">H173&amp;I173</f>
+        <f t="shared" ref="F173:F176" si="96">H173&amp;I173</f>
         <v>1결</v>
       </c>
       <c r="G173" s="17">
-        <f t="shared" ref="G173:G176" si="95">H173*J173</f>
+        <f t="shared" ref="G173:G176" si="97">H173*J173</f>
         <v>1E+240</v>
       </c>
       <c r="H173" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1</v>
       </c>
       <c r="I173" s="16" t="str" cm="1">
@@ -16582,11 +16804,11 @@
         <v>결</v>
       </c>
       <c r="J173" s="16" t="str">
-        <f t="shared" ref="J173:J176" si="96">VLOOKUP(I173,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J173:J176" si="98">VLOOKUP(I173,N:Q,4,FALSE)</f>
         <v>1E+240</v>
       </c>
       <c r="K173" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>42000</v>
       </c>
       <c r="L173" s="22">
@@ -16598,15 +16820,15 @@
         <v>165</v>
       </c>
       <c r="F174" s="17" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>10결</v>
       </c>
       <c r="G174" s="17">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>1.0000000000000001E+241</v>
       </c>
       <c r="H174" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>10</v>
       </c>
       <c r="I174" s="16" t="str" cm="1">
@@ -16614,11 +16836,11 @@
         <v>결</v>
       </c>
       <c r="J174" s="16" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>1E+240</v>
       </c>
       <c r="K174" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>42000</v>
       </c>
       <c r="L174" s="22">
@@ -16630,15 +16852,15 @@
         <v>166</v>
       </c>
       <c r="F175" s="17" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>100결</v>
       </c>
       <c r="G175" s="17">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>1.0000000000000001E+242</v>
       </c>
       <c r="H175" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>100</v>
       </c>
       <c r="I175" s="16" t="str" cm="1">
@@ -16646,11 +16868,11 @@
         <v>결</v>
       </c>
       <c r="J175" s="16" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>1E+240</v>
       </c>
       <c r="K175" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>42000</v>
       </c>
       <c r="L175" s="22">
@@ -16662,15 +16884,15 @@
         <v>167</v>
       </c>
       <c r="F176" s="17" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>1000결</v>
       </c>
       <c r="G176" s="17">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>1.0000000000000001E+243</v>
       </c>
       <c r="H176" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1000</v>
       </c>
       <c r="I176" s="16" t="str" cm="1">
@@ -16678,11 +16900,11 @@
         <v>결</v>
       </c>
       <c r="J176" s="16" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>1E+240</v>
       </c>
       <c r="K176" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>42000</v>
       </c>
       <c r="L176" s="22">
@@ -16694,15 +16916,15 @@
         <v>168</v>
       </c>
       <c r="F177" s="17" t="str">
-        <f t="shared" ref="F177:F180" si="97">H177&amp;I177</f>
+        <f t="shared" ref="F177:F180" si="99">H177&amp;I177</f>
         <v>1맥</v>
       </c>
       <c r="G177" s="17">
-        <f t="shared" ref="G177:G180" si="98">H177*J177</f>
+        <f t="shared" ref="G177:G180" si="100">H177*J177</f>
         <v>1.0000000000000001E+244</v>
       </c>
       <c r="H177" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1</v>
       </c>
       <c r="I177" s="16" t="str" cm="1">
@@ -16710,11 +16932,11 @@
         <v>맥</v>
       </c>
       <c r="J177" s="16" t="str">
-        <f t="shared" ref="J177:J180" si="99">VLOOKUP(I177,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J177:J180" si="101">VLOOKUP(I177,N:Q,4,FALSE)</f>
         <v>1E+244</v>
       </c>
       <c r="K177" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>43000</v>
       </c>
       <c r="L177" s="22">
@@ -16726,15 +16948,15 @@
         <v>169</v>
       </c>
       <c r="F178" s="17" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v>10맥</v>
       </c>
       <c r="G178" s="17">
-        <f t="shared" si="98"/>
+        <f t="shared" si="100"/>
         <v>1E+245</v>
       </c>
       <c r="H178" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>10</v>
       </c>
       <c r="I178" s="16" t="str" cm="1">
@@ -16742,11 +16964,11 @@
         <v>맥</v>
       </c>
       <c r="J178" s="16" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>1E+244</v>
       </c>
       <c r="K178" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>43000</v>
       </c>
       <c r="L178" s="22">
@@ -16758,15 +16980,15 @@
         <v>170</v>
       </c>
       <c r="F179" s="17" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v>100맥</v>
       </c>
       <c r="G179" s="17">
-        <f t="shared" si="98"/>
+        <f t="shared" si="100"/>
         <v>1.0000000000000001E+246</v>
       </c>
       <c r="H179" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>100</v>
       </c>
       <c r="I179" s="16" t="str" cm="1">
@@ -16774,11 +16996,11 @@
         <v>맥</v>
       </c>
       <c r="J179" s="16" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>1E+244</v>
       </c>
       <c r="K179" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>43000</v>
       </c>
       <c r="L179" s="22">
@@ -16790,15 +17012,15 @@
         <v>171</v>
       </c>
       <c r="F180" s="17" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v>1000맥</v>
       </c>
       <c r="G180" s="17">
-        <f t="shared" si="98"/>
+        <f t="shared" si="100"/>
         <v>1.0000000000000001E+247</v>
       </c>
       <c r="H180" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1000</v>
       </c>
       <c r="I180" s="16" t="str" cm="1">
@@ -16806,11 +17028,11 @@
         <v>맥</v>
       </c>
       <c r="J180" s="16" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>1E+244</v>
       </c>
       <c r="K180" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>43000</v>
       </c>
       <c r="L180" s="22">
@@ -16822,15 +17044,15 @@
         <v>172</v>
       </c>
       <c r="F181" s="17" t="str">
-        <f t="shared" ref="F181:F184" si="100">H181&amp;I181</f>
+        <f t="shared" ref="F181:F184" si="102">H181&amp;I181</f>
         <v>1토</v>
       </c>
       <c r="G181" s="17">
-        <f t="shared" ref="G181:G184" si="101">H181*J181</f>
+        <f t="shared" ref="G181:G184" si="103">H181*J181</f>
         <v>1E+248</v>
       </c>
       <c r="H181" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1</v>
       </c>
       <c r="I181" s="16" t="str" cm="1">
@@ -16838,11 +17060,11 @@
         <v>토</v>
       </c>
       <c r="J181" s="16" t="str">
-        <f t="shared" ref="J181:J184" si="102">VLOOKUP(I181,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J181:J184" si="104">VLOOKUP(I181,N:Q,4,FALSE)</f>
         <v>1E+248</v>
       </c>
       <c r="K181" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>44000</v>
       </c>
       <c r="L181" s="22">
@@ -16854,15 +17076,15 @@
         <v>173</v>
       </c>
       <c r="F182" s="17" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="102"/>
         <v>10토</v>
       </c>
       <c r="G182" s="17">
-        <f t="shared" si="101"/>
+        <f t="shared" si="103"/>
         <v>1.0000000000000001E+249</v>
       </c>
       <c r="H182" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>10</v>
       </c>
       <c r="I182" s="16" t="str" cm="1">
@@ -16870,11 +17092,11 @@
         <v>토</v>
       </c>
       <c r="J182" s="16" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="104"/>
         <v>1E+248</v>
       </c>
       <c r="K182" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>44000</v>
       </c>
       <c r="L182" s="22">
@@ -16886,15 +17108,15 @@
         <v>174</v>
       </c>
       <c r="F183" s="17" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="102"/>
         <v>100토</v>
       </c>
       <c r="G183" s="17">
-        <f t="shared" si="101"/>
+        <f t="shared" si="103"/>
         <v>1.0000000000000001E+250</v>
       </c>
       <c r="H183" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>100</v>
       </c>
       <c r="I183" s="16" t="str" cm="1">
@@ -16902,11 +17124,11 @@
         <v>토</v>
       </c>
       <c r="J183" s="16" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="104"/>
         <v>1E+248</v>
       </c>
       <c r="K183" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>44000</v>
       </c>
       <c r="L183" s="22">
@@ -16918,15 +17140,15 @@
         <v>175</v>
       </c>
       <c r="F184" s="17" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="102"/>
         <v>1000토</v>
       </c>
       <c r="G184" s="17">
-        <f t="shared" si="101"/>
+        <f t="shared" si="103"/>
         <v>1E+251</v>
       </c>
       <c r="H184" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1000</v>
       </c>
       <c r="I184" s="16" t="str" cm="1">
@@ -16934,15 +17156,143 @@
         <v>토</v>
       </c>
       <c r="J184" s="16" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="104"/>
         <v>1E+248</v>
       </c>
       <c r="K184" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>44000</v>
       </c>
       <c r="L184" s="22">
         <v>35000</v>
+      </c>
+    </row>
+    <row r="185" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E185" s="16">
+        <v>176</v>
+      </c>
+      <c r="F185" s="17" t="str">
+        <f t="shared" ref="F185:F188" si="105">H185&amp;I185</f>
+        <v>1산</v>
+      </c>
+      <c r="G185" s="17">
+        <f t="shared" ref="G185:G188" si="106">H185*J185</f>
+        <v>1.0000000000000001E+252</v>
+      </c>
+      <c r="H185" s="17">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="I185" s="16" t="str" cm="1">
+        <f t="array" ref="I185">IF(AND(H184&gt;=1000,H185&lt;2),INDEX(N:N,MATCH(I184,N:N,0)+1,0),I184)</f>
+        <v>산</v>
+      </c>
+      <c r="J185" s="16" t="str">
+        <f t="shared" ref="J185:J188" si="107">VLOOKUP(I185,N:Q,4,FALSE)</f>
+        <v>1E+252</v>
+      </c>
+      <c r="K185" s="22">
+        <f t="shared" si="56"/>
+        <v>45000</v>
+      </c>
+      <c r="L185" s="22">
+        <v>35200</v>
+      </c>
+    </row>
+    <row r="186" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E186" s="16">
+        <v>177</v>
+      </c>
+      <c r="F186" s="17" t="str">
+        <f t="shared" si="105"/>
+        <v>10산</v>
+      </c>
+      <c r="G186" s="17">
+        <f t="shared" si="106"/>
+        <v>1.0000000000000001E+253</v>
+      </c>
+      <c r="H186" s="17">
+        <f t="shared" si="55"/>
+        <v>10</v>
+      </c>
+      <c r="I186" s="16" t="str" cm="1">
+        <f t="array" ref="I186">IF(AND(H185&gt;=1000,H186&lt;2),INDEX(N:N,MATCH(I185,N:N,0)+1,0),I185)</f>
+        <v>산</v>
+      </c>
+      <c r="J186" s="16" t="str">
+        <f t="shared" si="107"/>
+        <v>1E+252</v>
+      </c>
+      <c r="K186" s="22">
+        <f t="shared" si="56"/>
+        <v>45000</v>
+      </c>
+      <c r="L186" s="22">
+        <v>35400</v>
+      </c>
+    </row>
+    <row r="187" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E187" s="16">
+        <v>178</v>
+      </c>
+      <c r="F187" s="17" t="str">
+        <f t="shared" si="105"/>
+        <v>100산</v>
+      </c>
+      <c r="G187" s="17">
+        <f t="shared" si="106"/>
+        <v>1.0000000000000001E+254</v>
+      </c>
+      <c r="H187" s="17">
+        <f t="shared" si="55"/>
+        <v>100</v>
+      </c>
+      <c r="I187" s="16" t="str" cm="1">
+        <f t="array" ref="I187">IF(AND(H186&gt;=1000,H187&lt;2),INDEX(N:N,MATCH(I186,N:N,0)+1,0),I186)</f>
+        <v>산</v>
+      </c>
+      <c r="J187" s="16" t="str">
+        <f t="shared" si="107"/>
+        <v>1E+252</v>
+      </c>
+      <c r="K187" s="22">
+        <f t="shared" si="56"/>
+        <v>45000</v>
+      </c>
+      <c r="L187" s="22">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="188" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E188" s="16">
+        <v>179</v>
+      </c>
+      <c r="F188" s="17" t="str">
+        <f t="shared" si="105"/>
+        <v>1000산</v>
+      </c>
+      <c r="G188" s="17">
+        <f t="shared" si="106"/>
+        <v>1.0000000000000002E+255</v>
+      </c>
+      <c r="H188" s="17">
+        <f t="shared" si="55"/>
+        <v>1000</v>
+      </c>
+      <c r="I188" s="16" t="str" cm="1">
+        <f t="array" ref="I188">IF(AND(H187&gt;=1000,H188&lt;2),INDEX(N:N,MATCH(I187,N:N,0)+1,0),I187)</f>
+        <v>산</v>
+      </c>
+      <c r="J188" s="16" t="str">
+        <f t="shared" si="107"/>
+        <v>1E+252</v>
+      </c>
+      <c r="K188" s="22">
+        <f t="shared" si="56"/>
+        <v>45000</v>
+      </c>
+      <c r="L188" s="22">
+        <v>35800</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/ByeolhoTower.xlsx
+++ b/Assets/06.Table/ByeolhoTower.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC9ECE3-CFF7-41DE-B2EE-23ADAAF13EBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DBB9C70-F51E-4E4A-B09A-C48A689CBE6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="100">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -438,6 +438,22 @@
   </si>
   <si>
     <t>강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>덕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1030,11 +1046,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M181"/>
+  <dimension ref="A1:M193"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I171" sqref="I171"/>
+      <pane ySplit="1" topLeftCell="A166" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E185" sqref="E185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6921,11 +6937,11 @@
         <v>30000</v>
       </c>
       <c r="E118">
-        <f t="shared" ref="E118:E181" si="84">E117</f>
+        <f t="shared" ref="E118:E182" si="84">E117</f>
         <v>1</v>
       </c>
       <c r="F118" s="2">
-        <f t="shared" ref="F118:F181" si="85">F117*10</f>
+        <f t="shared" ref="F118:F182" si="85">F117*10</f>
         <v>9.9999999999999991E+191</v>
       </c>
       <c r="G118">
@@ -6944,7 +6960,7 @@
         <v>57</v>
       </c>
       <c r="K118">
-        <f t="shared" ref="K118:K181" si="87">K117+200</f>
+        <f t="shared" ref="K118:K182" si="87">K117+200</f>
         <v>25200</v>
       </c>
       <c r="L118">
@@ -10168,9 +10184,621 @@
         <v>17900</v>
       </c>
     </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>180</v>
+      </c>
+      <c r="B182" s="1" t="str">
+        <f t="shared" ref="B182:C182" si="208">B181</f>
+        <v>1-1</v>
+      </c>
+      <c r="C182">
+        <f t="shared" si="208"/>
+        <v>9054</v>
+      </c>
+      <c r="D182">
+        <f>VLOOKUP(A182,Balance!E:K,7,FALSE)</f>
+        <v>46000</v>
+      </c>
+      <c r="E182">
+        <f t="shared" si="84"/>
+        <v>1</v>
+      </c>
+      <c r="F182" s="2">
+        <f t="shared" si="85"/>
+        <v>1E+256</v>
+      </c>
+      <c r="G182">
+        <f t="shared" ref="G182:I182" si="209">G181</f>
+        <v>1000</v>
+      </c>
+      <c r="H182">
+        <f t="shared" si="209"/>
+        <v>8</v>
+      </c>
+      <c r="I182">
+        <f t="shared" si="209"/>
+        <v>0</v>
+      </c>
+      <c r="J182" t="s">
+        <v>57</v>
+      </c>
+      <c r="K182">
+        <f t="shared" si="87"/>
+        <v>38000</v>
+      </c>
+      <c r="L182">
+        <v>9054</v>
+      </c>
+      <c r="M182">
+        <f>VLOOKUP(A182,Balance!E:L,8,FALSE)/2</f>
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>181</v>
+      </c>
+      <c r="B183" s="1" t="str">
+        <f t="shared" ref="B183:C183" si="210">B182</f>
+        <v>1-1</v>
+      </c>
+      <c r="C183">
+        <f t="shared" si="210"/>
+        <v>9054</v>
+      </c>
+      <c r="D183">
+        <f>VLOOKUP(A183,Balance!E:K,7,FALSE)</f>
+        <v>46000</v>
+      </c>
+      <c r="E183">
+        <f t="shared" ref="E183:E193" si="211">E182</f>
+        <v>1</v>
+      </c>
+      <c r="F183" s="2">
+        <f t="shared" ref="F183:F193" si="212">F182*10</f>
+        <v>1E+257</v>
+      </c>
+      <c r="G183">
+        <f t="shared" ref="G183:I183" si="213">G182</f>
+        <v>1000</v>
+      </c>
+      <c r="H183">
+        <f t="shared" si="213"/>
+        <v>8</v>
+      </c>
+      <c r="I183">
+        <f t="shared" si="213"/>
+        <v>0</v>
+      </c>
+      <c r="J183" t="s">
+        <v>57</v>
+      </c>
+      <c r="K183">
+        <f t="shared" ref="K183:K193" si="214">K182+200</f>
+        <v>38200</v>
+      </c>
+      <c r="L183">
+        <v>9054</v>
+      </c>
+      <c r="M183">
+        <f>VLOOKUP(A183,Balance!E:L,8,FALSE)/2</f>
+        <v>18100</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>182</v>
+      </c>
+      <c r="B184" s="1" t="str">
+        <f t="shared" ref="B184:C184" si="215">B183</f>
+        <v>1-1</v>
+      </c>
+      <c r="C184">
+        <f t="shared" si="215"/>
+        <v>9054</v>
+      </c>
+      <c r="D184">
+        <f>VLOOKUP(A184,Balance!E:K,7,FALSE)</f>
+        <v>46000</v>
+      </c>
+      <c r="E184">
+        <f t="shared" si="211"/>
+        <v>1</v>
+      </c>
+      <c r="F184" s="2">
+        <f t="shared" si="212"/>
+        <v>1.0000000000000001E+258</v>
+      </c>
+      <c r="G184">
+        <f t="shared" ref="G184:I184" si="216">G183</f>
+        <v>1000</v>
+      </c>
+      <c r="H184">
+        <f t="shared" si="216"/>
+        <v>8</v>
+      </c>
+      <c r="I184">
+        <f t="shared" si="216"/>
+        <v>0</v>
+      </c>
+      <c r="J184" t="s">
+        <v>57</v>
+      </c>
+      <c r="K184">
+        <f t="shared" si="214"/>
+        <v>38400</v>
+      </c>
+      <c r="L184">
+        <v>9054</v>
+      </c>
+      <c r="M184">
+        <f>VLOOKUP(A184,Balance!E:L,8,FALSE)/2</f>
+        <v>18200</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>183</v>
+      </c>
+      <c r="B185" s="1" t="str">
+        <f t="shared" ref="B185:C185" si="217">B184</f>
+        <v>1-1</v>
+      </c>
+      <c r="C185">
+        <f t="shared" si="217"/>
+        <v>9054</v>
+      </c>
+      <c r="D185">
+        <f>VLOOKUP(A185,Balance!E:K,7,FALSE)</f>
+        <v>46000</v>
+      </c>
+      <c r="E185">
+        <f t="shared" si="211"/>
+        <v>1</v>
+      </c>
+      <c r="F185" s="2">
+        <f t="shared" si="212"/>
+        <v>1.0000000000000001E+259</v>
+      </c>
+      <c r="G185">
+        <f t="shared" ref="G185:I185" si="218">G184</f>
+        <v>1000</v>
+      </c>
+      <c r="H185">
+        <f t="shared" si="218"/>
+        <v>8</v>
+      </c>
+      <c r="I185">
+        <f t="shared" si="218"/>
+        <v>0</v>
+      </c>
+      <c r="J185" t="s">
+        <v>57</v>
+      </c>
+      <c r="K185">
+        <f t="shared" si="214"/>
+        <v>38600</v>
+      </c>
+      <c r="L185">
+        <v>9054</v>
+      </c>
+      <c r="M185">
+        <f>VLOOKUP(A185,Balance!E:L,8,FALSE)/2</f>
+        <v>18300</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>184</v>
+      </c>
+      <c r="B186" s="1" t="str">
+        <f t="shared" ref="B186:C186" si="219">B185</f>
+        <v>1-1</v>
+      </c>
+      <c r="C186">
+        <f t="shared" si="219"/>
+        <v>9054</v>
+      </c>
+      <c r="D186">
+        <f>VLOOKUP(A186,Balance!E:K,7,FALSE)</f>
+        <v>47000</v>
+      </c>
+      <c r="E186">
+        <f t="shared" si="211"/>
+        <v>1</v>
+      </c>
+      <c r="F186" s="2">
+        <f t="shared" si="212"/>
+        <v>1.0000000000000001E+260</v>
+      </c>
+      <c r="G186">
+        <f t="shared" ref="G186:I186" si="220">G185</f>
+        <v>1000</v>
+      </c>
+      <c r="H186">
+        <f t="shared" si="220"/>
+        <v>8</v>
+      </c>
+      <c r="I186">
+        <f t="shared" si="220"/>
+        <v>0</v>
+      </c>
+      <c r="J186" t="s">
+        <v>57</v>
+      </c>
+      <c r="K186">
+        <f t="shared" si="214"/>
+        <v>38800</v>
+      </c>
+      <c r="L186">
+        <v>9054</v>
+      </c>
+      <c r="M186">
+        <f>VLOOKUP(A186,Balance!E:L,8,FALSE)/2</f>
+        <v>18400</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>185</v>
+      </c>
+      <c r="B187" s="1" t="str">
+        <f t="shared" ref="B187:C187" si="221">B186</f>
+        <v>1-1</v>
+      </c>
+      <c r="C187">
+        <f t="shared" si="221"/>
+        <v>9054</v>
+      </c>
+      <c r="D187">
+        <f>VLOOKUP(A187,Balance!E:K,7,FALSE)</f>
+        <v>47000</v>
+      </c>
+      <c r="E187">
+        <f t="shared" si="211"/>
+        <v>1</v>
+      </c>
+      <c r="F187" s="2">
+        <f t="shared" si="212"/>
+        <v>1.0000000000000001E+261</v>
+      </c>
+      <c r="G187">
+        <f t="shared" ref="G187:I187" si="222">G186</f>
+        <v>1000</v>
+      </c>
+      <c r="H187">
+        <f t="shared" si="222"/>
+        <v>8</v>
+      </c>
+      <c r="I187">
+        <f t="shared" si="222"/>
+        <v>0</v>
+      </c>
+      <c r="J187" t="s">
+        <v>57</v>
+      </c>
+      <c r="K187">
+        <f t="shared" si="214"/>
+        <v>39000</v>
+      </c>
+      <c r="L187">
+        <v>9054</v>
+      </c>
+      <c r="M187">
+        <f>VLOOKUP(A187,Balance!E:L,8,FALSE)/2</f>
+        <v>18500</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>186</v>
+      </c>
+      <c r="B188" s="1" t="str">
+        <f t="shared" ref="B188:C188" si="223">B187</f>
+        <v>1-1</v>
+      </c>
+      <c r="C188">
+        <f t="shared" si="223"/>
+        <v>9054</v>
+      </c>
+      <c r="D188">
+        <f>VLOOKUP(A188,Balance!E:K,7,FALSE)</f>
+        <v>47000</v>
+      </c>
+      <c r="E188">
+        <f t="shared" si="211"/>
+        <v>1</v>
+      </c>
+      <c r="F188" s="2">
+        <f t="shared" si="212"/>
+        <v>1.0000000000000002E+262</v>
+      </c>
+      <c r="G188">
+        <f t="shared" ref="G188:I188" si="224">G187</f>
+        <v>1000</v>
+      </c>
+      <c r="H188">
+        <f t="shared" si="224"/>
+        <v>8</v>
+      </c>
+      <c r="I188">
+        <f t="shared" si="224"/>
+        <v>0</v>
+      </c>
+      <c r="J188" t="s">
+        <v>57</v>
+      </c>
+      <c r="K188">
+        <f t="shared" si="214"/>
+        <v>39200</v>
+      </c>
+      <c r="L188">
+        <v>9054</v>
+      </c>
+      <c r="M188">
+        <f>VLOOKUP(A188,Balance!E:L,8,FALSE)/2</f>
+        <v>18600</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>187</v>
+      </c>
+      <c r="B189" s="1" t="str">
+        <f t="shared" ref="B189:C189" si="225">B188</f>
+        <v>1-1</v>
+      </c>
+      <c r="C189">
+        <f t="shared" si="225"/>
+        <v>9054</v>
+      </c>
+      <c r="D189">
+        <f>VLOOKUP(A189,Balance!E:K,7,FALSE)</f>
+        <v>47000</v>
+      </c>
+      <c r="E189">
+        <f t="shared" si="211"/>
+        <v>1</v>
+      </c>
+      <c r="F189" s="2">
+        <f t="shared" si="212"/>
+        <v>1.0000000000000002E+263</v>
+      </c>
+      <c r="G189">
+        <f t="shared" ref="G189:I189" si="226">G188</f>
+        <v>1000</v>
+      </c>
+      <c r="H189">
+        <f t="shared" si="226"/>
+        <v>8</v>
+      </c>
+      <c r="I189">
+        <f t="shared" si="226"/>
+        <v>0</v>
+      </c>
+      <c r="J189" t="s">
+        <v>57</v>
+      </c>
+      <c r="K189">
+        <f t="shared" si="214"/>
+        <v>39400</v>
+      </c>
+      <c r="L189">
+        <v>9054</v>
+      </c>
+      <c r="M189">
+        <f>VLOOKUP(A189,Balance!E:L,8,FALSE)/2</f>
+        <v>18700</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>188</v>
+      </c>
+      <c r="B190" s="1" t="str">
+        <f t="shared" ref="B190:C190" si="227">B189</f>
+        <v>1-1</v>
+      </c>
+      <c r="C190">
+        <f t="shared" si="227"/>
+        <v>9054</v>
+      </c>
+      <c r="D190">
+        <f>VLOOKUP(A190,Balance!E:K,7,FALSE)</f>
+        <v>48000</v>
+      </c>
+      <c r="E190">
+        <f t="shared" si="211"/>
+        <v>1</v>
+      </c>
+      <c r="F190" s="2">
+        <f t="shared" si="212"/>
+        <v>1.0000000000000002E+264</v>
+      </c>
+      <c r="G190">
+        <f t="shared" ref="G190:I190" si="228">G189</f>
+        <v>1000</v>
+      </c>
+      <c r="H190">
+        <f t="shared" si="228"/>
+        <v>8</v>
+      </c>
+      <c r="I190">
+        <f t="shared" si="228"/>
+        <v>0</v>
+      </c>
+      <c r="J190" t="s">
+        <v>57</v>
+      </c>
+      <c r="K190">
+        <f t="shared" si="214"/>
+        <v>39600</v>
+      </c>
+      <c r="L190">
+        <v>9054</v>
+      </c>
+      <c r="M190">
+        <f>VLOOKUP(A190,Balance!E:L,8,FALSE)/2</f>
+        <v>18800</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>189</v>
+      </c>
+      <c r="B191" s="1" t="str">
+        <f t="shared" ref="B191:C191" si="229">B190</f>
+        <v>1-1</v>
+      </c>
+      <c r="C191">
+        <f t="shared" si="229"/>
+        <v>9054</v>
+      </c>
+      <c r="D191">
+        <f>VLOOKUP(A191,Balance!E:K,7,FALSE)</f>
+        <v>48000</v>
+      </c>
+      <c r="E191">
+        <f t="shared" si="211"/>
+        <v>1</v>
+      </c>
+      <c r="F191" s="2">
+        <f t="shared" si="212"/>
+        <v>1.0000000000000002E+265</v>
+      </c>
+      <c r="G191">
+        <f t="shared" ref="G191:I191" si="230">G190</f>
+        <v>1000</v>
+      </c>
+      <c r="H191">
+        <f t="shared" si="230"/>
+        <v>8</v>
+      </c>
+      <c r="I191">
+        <f t="shared" si="230"/>
+        <v>0</v>
+      </c>
+      <c r="J191" t="s">
+        <v>57</v>
+      </c>
+      <c r="K191">
+        <f t="shared" si="214"/>
+        <v>39800</v>
+      </c>
+      <c r="L191">
+        <v>9054</v>
+      </c>
+      <c r="M191">
+        <f>VLOOKUP(A191,Balance!E:L,8,FALSE)/2</f>
+        <v>18900</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>190</v>
+      </c>
+      <c r="B192" s="1" t="str">
+        <f t="shared" ref="B192:C192" si="231">B191</f>
+        <v>1-1</v>
+      </c>
+      <c r="C192">
+        <f t="shared" si="231"/>
+        <v>9054</v>
+      </c>
+      <c r="D192">
+        <f>VLOOKUP(A192,Balance!E:K,7,FALSE)</f>
+        <v>48000</v>
+      </c>
+      <c r="E192">
+        <f t="shared" si="211"/>
+        <v>1</v>
+      </c>
+      <c r="F192" s="2">
+        <f t="shared" si="212"/>
+        <v>1.0000000000000003E+266</v>
+      </c>
+      <c r="G192">
+        <f t="shared" ref="G192:I192" si="232">G191</f>
+        <v>1000</v>
+      </c>
+      <c r="H192">
+        <f t="shared" si="232"/>
+        <v>8</v>
+      </c>
+      <c r="I192">
+        <f t="shared" si="232"/>
+        <v>0</v>
+      </c>
+      <c r="J192" t="s">
+        <v>57</v>
+      </c>
+      <c r="K192">
+        <f t="shared" si="214"/>
+        <v>40000</v>
+      </c>
+      <c r="L192">
+        <v>9054</v>
+      </c>
+      <c r="M192">
+        <f>VLOOKUP(A192,Balance!E:L,8,FALSE)/2</f>
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>191</v>
+      </c>
+      <c r="B193" s="1" t="str">
+        <f t="shared" ref="B193:C193" si="233">B192</f>
+        <v>1-1</v>
+      </c>
+      <c r="C193">
+        <f t="shared" si="233"/>
+        <v>9054</v>
+      </c>
+      <c r="D193">
+        <f>VLOOKUP(A193,Balance!E:K,7,FALSE)</f>
+        <v>48000</v>
+      </c>
+      <c r="E193">
+        <f t="shared" si="211"/>
+        <v>1</v>
+      </c>
+      <c r="F193" s="2">
+        <f t="shared" si="212"/>
+        <v>1.0000000000000003E+267</v>
+      </c>
+      <c r="G193">
+        <f t="shared" ref="G193:I193" si="234">G192</f>
+        <v>1000</v>
+      </c>
+      <c r="H193">
+        <f t="shared" si="234"/>
+        <v>8</v>
+      </c>
+      <c r="I193">
+        <f t="shared" si="234"/>
+        <v>0</v>
+      </c>
+      <c r="J193" t="s">
+        <v>57</v>
+      </c>
+      <c r="K193">
+        <f t="shared" si="214"/>
+        <v>40200</v>
+      </c>
+      <c r="L193">
+        <v>9054</v>
+      </c>
+      <c r="M193">
+        <f>VLOOKUP(A193,Balance!E:L,8,FALSE)/2</f>
+        <v>19100</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:K181">
+  <conditionalFormatting sqref="A2:K193">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
@@ -10182,10 +10810,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4C63F0-02E4-48AB-8F58-B57B021B5DE4}">
-  <dimension ref="A1:Z188"/>
+  <dimension ref="A1:Z200"/>
   <sheetViews>
-    <sheetView topLeftCell="B168" workbookViewId="0">
-      <selection activeCell="H185" sqref="H185"/>
+    <sheetView topLeftCell="B184" workbookViewId="0">
+      <selection activeCell="H196" sqref="H196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10354,7 +10982,7 @@
         <v>38</v>
       </c>
       <c r="J9" s="16" t="str">
-        <f t="shared" ref="J9:J40" si="0">VLOOKUP(I9,N:Q,4,FALSE)</f>
+        <f>VLOOKUP(I9,N:Q,4,FALSE)</f>
         <v>1E+76</v>
       </c>
       <c r="K9" s="22">
@@ -10371,7 +10999,7 @@
         <v>8</v>
       </c>
       <c r="P9" s="17">
-        <f t="shared" ref="P9:P38" si="1">POWER(10,O9)</f>
+        <f t="shared" ref="P9:P38" si="0">POWER(10,O9)</f>
         <v>100000000</v>
       </c>
       <c r="Q9" s="17" t="str">
@@ -10400,7 +11028,7 @@
         <v>겁</v>
       </c>
       <c r="J10" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I10,N:Q,4,FALSE)</f>
         <v>1E+76</v>
       </c>
       <c r="K10" s="22">
@@ -10417,7 +11045,7 @@
         <v>12</v>
       </c>
       <c r="P10" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1000000000000</v>
       </c>
       <c r="Q10" s="17" t="str">
@@ -10431,11 +11059,11 @@
         <v>2</v>
       </c>
       <c r="F11" s="17" t="str">
-        <f t="shared" ref="F11:F29" si="2">H11&amp;I11</f>
+        <f t="shared" ref="F11:F29" si="1">H11&amp;I11</f>
         <v>100겁</v>
       </c>
       <c r="G11" s="17">
-        <f t="shared" ref="G11:G73" si="3">H11*J11</f>
+        <f t="shared" ref="G11:G73" si="2">H11*J11</f>
         <v>1E+78</v>
       </c>
       <c r="H11" s="17">
@@ -10446,7 +11074,7 @@
         <v>겁</v>
       </c>
       <c r="J11" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I11,N:Q,4,FALSE)</f>
         <v>1E+76</v>
       </c>
       <c r="K11" s="22">
@@ -10463,7 +11091,7 @@
         <v>16</v>
       </c>
       <c r="P11" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1E+16</v>
       </c>
       <c r="Q11" s="17" t="str">
@@ -10477,11 +11105,11 @@
         <v>3</v>
       </c>
       <c r="F12" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>1000겁</v>
+      </c>
+      <c r="G12" s="17">
         <f t="shared" si="2"/>
-        <v>1000겁</v>
-      </c>
-      <c r="G12" s="17">
-        <f t="shared" si="3"/>
         <v>9.9999999999999997E+78</v>
       </c>
       <c r="H12" s="17">
@@ -10492,7 +11120,7 @@
         <v>겁</v>
       </c>
       <c r="J12" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I12,N:Q,4,FALSE)</f>
         <v>1E+76</v>
       </c>
       <c r="K12" s="22">
@@ -10509,11 +11137,11 @@
         <v>20</v>
       </c>
       <c r="P12" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1E+20</v>
       </c>
       <c r="Q12" s="17" t="str">
-        <f t="shared" ref="Q12:Q38" si="4">RIGHT(P12,O12)</f>
+        <f t="shared" ref="Q12:Q38" si="3">RIGHT(P12,O12)</f>
         <v>1E+20</v>
       </c>
     </row>
@@ -10523,11 +11151,11 @@
         <v>4</v>
       </c>
       <c r="F13" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>1업</v>
+      </c>
+      <c r="G13" s="17">
         <f t="shared" si="2"/>
-        <v>1업</v>
-      </c>
-      <c r="G13" s="17">
-        <f t="shared" si="3"/>
         <v>1E+80</v>
       </c>
       <c r="H13" s="17">
@@ -10539,7 +11167,7 @@
         <v>업</v>
       </c>
       <c r="J13" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I13,N:Q,4,FALSE)</f>
         <v>1E+80</v>
       </c>
       <c r="K13" s="22">
@@ -10556,11 +11184,11 @@
         <v>24</v>
       </c>
       <c r="P13" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9.9999999999999998E+23</v>
       </c>
       <c r="Q13" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1E+24</v>
       </c>
     </row>
@@ -10570,15 +11198,15 @@
         <v>5</v>
       </c>
       <c r="F14" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>10업</v>
+      </c>
+      <c r="G14" s="17">
         <f t="shared" si="2"/>
-        <v>10업</v>
-      </c>
-      <c r="G14" s="17">
-        <f t="shared" si="3"/>
         <v>9.9999999999999992E+80</v>
       </c>
       <c r="H14" s="17">
-        <f t="shared" ref="H14:H77" si="5">H10</f>
+        <f t="shared" ref="H14:H77" si="4">H10</f>
         <v>10</v>
       </c>
       <c r="I14" s="16" t="str" cm="1">
@@ -10586,7 +11214,7 @@
         <v>업</v>
       </c>
       <c r="J14" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I14,N:Q,4,FALSE)</f>
         <v>1E+80</v>
       </c>
       <c r="K14" s="22">
@@ -10603,11 +11231,11 @@
         <v>28</v>
       </c>
       <c r="P14" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9.9999999999999996E+27</v>
       </c>
       <c r="Q14" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1E+28</v>
       </c>
     </row>
@@ -10625,7 +11253,7 @@
         <v>9.9999999999999996E+81</v>
       </c>
       <c r="H15" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="I15" s="16" t="str" cm="1">
@@ -10633,7 +11261,7 @@
         <v>업</v>
       </c>
       <c r="J15" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I15,N:Q,4,FALSE)</f>
         <v>1E+80</v>
       </c>
       <c r="K15" s="22">
@@ -10650,11 +11278,11 @@
         <v>32</v>
       </c>
       <c r="P15" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.0000000000000001E+32</v>
       </c>
       <c r="Q15" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1E+32</v>
       </c>
     </row>
@@ -10672,7 +11300,7 @@
         <v>1E+83</v>
       </c>
       <c r="H16" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="I16" s="16" t="str" cm="1">
@@ -10680,7 +11308,7 @@
         <v>업</v>
       </c>
       <c r="J16" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I16,N:Q,4,FALSE)</f>
         <v>1E+80</v>
       </c>
       <c r="K16" s="22">
@@ -10697,11 +11325,11 @@
         <v>36</v>
       </c>
       <c r="P16" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1E+36</v>
       </c>
       <c r="Q16" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1E+36</v>
       </c>
     </row>
@@ -10711,15 +11339,15 @@
         <v>8</v>
       </c>
       <c r="F17" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>1긍</v>
+      </c>
+      <c r="G17" s="17">
         <f t="shared" si="2"/>
-        <v>1긍</v>
-      </c>
-      <c r="G17" s="17">
-        <f t="shared" si="3"/>
         <v>1.0000000000000001E+84</v>
       </c>
       <c r="H17" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I17" s="16" t="str" cm="1">
@@ -10727,7 +11355,7 @@
         <v>긍</v>
       </c>
       <c r="J17" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I17,N:Q,4,FALSE)</f>
         <v>1E+84</v>
       </c>
       <c r="K17" s="22">
@@ -10744,11 +11372,11 @@
         <v>40</v>
       </c>
       <c r="P17" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1E+40</v>
       </c>
       <c r="Q17" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1E+40</v>
       </c>
     </row>
@@ -10758,15 +11386,15 @@
         <v>9</v>
       </c>
       <c r="F18" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>10긍</v>
+      </c>
+      <c r="G18" s="17">
         <f t="shared" si="2"/>
-        <v>10긍</v>
-      </c>
-      <c r="G18" s="17">
-        <f t="shared" si="3"/>
         <v>1E+85</v>
       </c>
       <c r="H18" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="I18" s="16" t="str" cm="1">
@@ -10774,7 +11402,7 @@
         <v>긍</v>
       </c>
       <c r="J18" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I18,N:Q,4,FALSE)</f>
         <v>1E+84</v>
       </c>
       <c r="K18" s="22">
@@ -10791,11 +11419,11 @@
         <v>44</v>
       </c>
       <c r="P18" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.0000000000000001E+44</v>
       </c>
       <c r="Q18" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1E+44</v>
       </c>
     </row>
@@ -10805,15 +11433,15 @@
         <v>10</v>
       </c>
       <c r="F19" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>100긍</v>
+      </c>
+      <c r="G19" s="17">
         <f t="shared" si="2"/>
-        <v>100긍</v>
-      </c>
-      <c r="G19" s="17">
-        <f t="shared" si="3"/>
         <v>1E+86</v>
       </c>
       <c r="H19" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="I19" s="16" t="str" cm="1">
@@ -10821,7 +11449,7 @@
         <v>긍</v>
       </c>
       <c r="J19" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I19,N:Q,4,FALSE)</f>
         <v>1E+84</v>
       </c>
       <c r="K19" s="22">
@@ -10838,11 +11466,11 @@
         <v>48</v>
       </c>
       <c r="P19" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1E+48</v>
       </c>
       <c r="Q19" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1E+48</v>
       </c>
     </row>
@@ -10852,15 +11480,15 @@
         <v>11</v>
       </c>
       <c r="F20" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>1000긍</v>
+      </c>
+      <c r="G20" s="17">
         <f t="shared" si="2"/>
-        <v>1000긍</v>
-      </c>
-      <c r="G20" s="17">
-        <f t="shared" si="3"/>
         <v>9.9999999999999996E+86</v>
       </c>
       <c r="H20" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="I20" s="16" t="str" cm="1">
@@ -10868,7 +11496,7 @@
         <v>긍</v>
       </c>
       <c r="J20" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I20,N:Q,4,FALSE)</f>
         <v>1E+84</v>
       </c>
       <c r="K20" s="22">
@@ -10885,11 +11513,11 @@
         <v>52</v>
       </c>
       <c r="P20" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9.9999999999999999E+51</v>
       </c>
       <c r="Q20" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1E+52</v>
       </c>
     </row>
@@ -10899,15 +11527,15 @@
         <v>12</v>
       </c>
       <c r="F21" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>1갈</v>
+      </c>
+      <c r="G21" s="17">
         <f t="shared" si="2"/>
-        <v>1갈</v>
-      </c>
-      <c r="G21" s="17">
-        <f t="shared" si="3"/>
         <v>9.9999999999999996E+87</v>
       </c>
       <c r="H21" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I21" s="16" t="str" cm="1">
@@ -10915,7 +11543,7 @@
         <v>갈</v>
       </c>
       <c r="J21" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I21,N:Q,4,FALSE)</f>
         <v>1E+88</v>
       </c>
       <c r="K21" s="22">
@@ -10932,11 +11560,11 @@
         <v>56</v>
       </c>
       <c r="P21" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.0000000000000001E+56</v>
       </c>
       <c r="Q21" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1E+56</v>
       </c>
     </row>
@@ -10946,15 +11574,15 @@
         <v>13</v>
       </c>
       <c r="F22" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>10갈</v>
+      </c>
+      <c r="G22" s="17">
         <f t="shared" si="2"/>
-        <v>10갈</v>
-      </c>
-      <c r="G22" s="17">
-        <f t="shared" si="3"/>
         <v>9.9999999999999999E+88</v>
       </c>
       <c r="H22" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="I22" s="16" t="str" cm="1">
@@ -10962,7 +11590,7 @@
         <v>갈</v>
       </c>
       <c r="J22" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I22,N:Q,4,FALSE)</f>
         <v>1E+88</v>
       </c>
       <c r="K22" s="22">
@@ -10979,11 +11607,11 @@
         <v>60</v>
       </c>
       <c r="P22" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9.9999999999999995E+59</v>
       </c>
       <c r="Q22" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1E+60</v>
       </c>
     </row>
@@ -10992,15 +11620,15 @@
         <v>14</v>
       </c>
       <c r="F23" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>100갈</v>
+      </c>
+      <c r="G23" s="17">
         <f t="shared" si="2"/>
-        <v>100갈</v>
-      </c>
-      <c r="G23" s="17">
-        <f t="shared" si="3"/>
         <v>9.9999999999999997E+89</v>
       </c>
       <c r="H23" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="I23" s="16" t="str" cm="1">
@@ -11008,7 +11636,7 @@
         <v>갈</v>
       </c>
       <c r="J23" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I23,N:Q,4,FALSE)</f>
         <v>1E+88</v>
       </c>
       <c r="K23" s="22">
@@ -11025,11 +11653,11 @@
         <v>64</v>
       </c>
       <c r="P23" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1E+64</v>
       </c>
       <c r="Q23" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1E+64</v>
       </c>
     </row>
@@ -11038,15 +11666,15 @@
         <v>15</v>
       </c>
       <c r="F24" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>1000갈</v>
+      </c>
+      <c r="G24" s="17">
         <f t="shared" si="2"/>
-        <v>1000갈</v>
-      </c>
-      <c r="G24" s="17">
-        <f t="shared" si="3"/>
         <v>9.999999999999999E+90</v>
       </c>
       <c r="H24" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="I24" s="16" t="str" cm="1">
@@ -11054,7 +11682,7 @@
         <v>갈</v>
       </c>
       <c r="J24" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I24,N:Q,4,FALSE)</f>
         <v>1E+88</v>
       </c>
       <c r="K24" s="22">
@@ -11071,11 +11699,11 @@
         <v>68</v>
       </c>
       <c r="P24" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9.9999999999999995E+67</v>
       </c>
       <c r="Q24" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1E+68</v>
       </c>
     </row>
@@ -11084,15 +11712,15 @@
         <v>16</v>
       </c>
       <c r="F25" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>1라</v>
+      </c>
+      <c r="G25" s="17">
         <f t="shared" si="2"/>
-        <v>1라</v>
-      </c>
-      <c r="G25" s="17">
-        <f t="shared" si="3"/>
         <v>1E+92</v>
       </c>
       <c r="H25" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I25" s="16" t="str" cm="1">
@@ -11100,7 +11728,7 @@
         <v>라</v>
       </c>
       <c r="J25" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I25,N:Q,4,FALSE)</f>
         <v>1E+92</v>
       </c>
       <c r="K25" s="22">
@@ -11117,11 +11745,11 @@
         <v>72</v>
       </c>
       <c r="P25" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9.9999999999999994E+71</v>
       </c>
       <c r="Q25" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1E+72</v>
       </c>
     </row>
@@ -11130,15 +11758,15 @@
         <v>17</v>
       </c>
       <c r="F26" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>10라</v>
+      </c>
+      <c r="G26" s="17">
         <f t="shared" si="2"/>
-        <v>10라</v>
-      </c>
-      <c r="G26" s="17">
-        <f t="shared" si="3"/>
         <v>1E+93</v>
       </c>
       <c r="H26" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="I26" s="16" t="str" cm="1">
@@ -11146,7 +11774,7 @@
         <v>라</v>
       </c>
       <c r="J26" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I26,N:Q,4,FALSE)</f>
         <v>1E+92</v>
       </c>
       <c r="K26" s="22">
@@ -11163,11 +11791,11 @@
         <v>76</v>
       </c>
       <c r="P26" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1E+76</v>
       </c>
       <c r="Q26" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1E+76</v>
       </c>
     </row>
@@ -11176,15 +11804,15 @@
         <v>18</v>
       </c>
       <c r="F27" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>100라</v>
+      </c>
+      <c r="G27" s="17">
         <f t="shared" si="2"/>
-        <v>100라</v>
-      </c>
-      <c r="G27" s="17">
-        <f t="shared" si="3"/>
         <v>1E+94</v>
       </c>
       <c r="H27" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="I27" s="16" t="str" cm="1">
@@ -11192,7 +11820,7 @@
         <v>라</v>
       </c>
       <c r="J27" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I27,N:Q,4,FALSE)</f>
         <v>1E+92</v>
       </c>
       <c r="K27" s="22">
@@ -11209,11 +11837,11 @@
         <v>80</v>
       </c>
       <c r="P27" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1E+80</v>
       </c>
       <c r="Q27" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1E+80</v>
       </c>
     </row>
@@ -11222,15 +11850,15 @@
         <v>19</v>
       </c>
       <c r="F28" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>1000라</v>
+      </c>
+      <c r="G28" s="17">
         <f t="shared" si="2"/>
-        <v>1000라</v>
-      </c>
-      <c r="G28" s="17">
-        <f t="shared" si="3"/>
         <v>1E+95</v>
       </c>
       <c r="H28" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="I28" s="16" t="str" cm="1">
@@ -11238,7 +11866,7 @@
         <v>라</v>
       </c>
       <c r="J28" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I28,N:Q,4,FALSE)</f>
         <v>1E+92</v>
       </c>
       <c r="K28" s="22">
@@ -11255,11 +11883,11 @@
         <v>84</v>
       </c>
       <c r="P28" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.0000000000000001E+84</v>
       </c>
       <c r="Q28" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1E+84</v>
       </c>
     </row>
@@ -11268,15 +11896,15 @@
         <v>20</v>
       </c>
       <c r="F29" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>1가</v>
+      </c>
+      <c r="G29" s="17">
         <f t="shared" si="2"/>
-        <v>1가</v>
-      </c>
-      <c r="G29" s="17">
-        <f t="shared" si="3"/>
         <v>1E+96</v>
       </c>
       <c r="H29" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I29" s="16" t="str" cm="1">
@@ -11284,7 +11912,7 @@
         <v>가</v>
       </c>
       <c r="J29" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I29,N:Q,4,FALSE)</f>
         <v>1E+96</v>
       </c>
       <c r="K29" s="22">
@@ -11301,11 +11929,11 @@
         <v>88</v>
       </c>
       <c r="P29" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9.9999999999999996E+87</v>
       </c>
       <c r="Q29" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1E+88</v>
       </c>
     </row>
@@ -11318,11 +11946,11 @@
         <v>10가</v>
       </c>
       <c r="G30" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.0000000000000001E+97</v>
       </c>
       <c r="H30" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="I30" s="16" t="str" cm="1">
@@ -11330,7 +11958,7 @@
         <v>가</v>
       </c>
       <c r="J30" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I30,N:Q,4,FALSE)</f>
         <v>1E+96</v>
       </c>
       <c r="K30" s="22">
@@ -11347,11 +11975,11 @@
         <v>92</v>
       </c>
       <c r="P30" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1E+92</v>
       </c>
       <c r="Q30" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1E+92</v>
       </c>
     </row>
@@ -11360,15 +11988,15 @@
         <v>22</v>
       </c>
       <c r="F31" s="17" t="str">
-        <f t="shared" ref="F31:F67" si="6">H31&amp;I31</f>
+        <f t="shared" ref="F31:F67" si="5">H31&amp;I31</f>
         <v>100가</v>
       </c>
       <c r="G31" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1E+98</v>
       </c>
       <c r="H31" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="I31" s="16" t="str" cm="1">
@@ -11376,7 +12004,7 @@
         <v>가</v>
       </c>
       <c r="J31" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I31,N:Q,4,FALSE)</f>
         <v>1E+96</v>
       </c>
       <c r="K31" s="22">
@@ -11393,11 +12021,11 @@
         <v>96</v>
       </c>
       <c r="P31" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1E+96</v>
       </c>
       <c r="Q31" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1E+96</v>
       </c>
     </row>
@@ -11406,15 +12034,15 @@
         <v>23</v>
       </c>
       <c r="F32" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1000가</v>
       </c>
       <c r="G32" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.0000000000000001E+99</v>
       </c>
       <c r="H32" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="I32" s="16" t="str" cm="1">
@@ -11422,7 +12050,7 @@
         <v>가</v>
       </c>
       <c r="J32" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I32,N:Q,4,FALSE)</f>
         <v>1E+96</v>
       </c>
       <c r="K32" s="22">
@@ -11439,11 +12067,11 @@
         <v>100</v>
       </c>
       <c r="P32" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1E+100</v>
       </c>
       <c r="Q32" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1E+100</v>
       </c>
     </row>
@@ -11452,15 +12080,15 @@
         <v>24</v>
       </c>
       <c r="F33" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1언</v>
       </c>
       <c r="G33" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1E+100</v>
       </c>
       <c r="H33" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I33" s="16" t="str" cm="1">
@@ -11468,7 +12096,7 @@
         <v>언</v>
       </c>
       <c r="J33" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I33,N:Q,4,FALSE)</f>
         <v>1E+100</v>
       </c>
       <c r="K33" s="22">
@@ -11485,11 +12113,11 @@
         <v>104</v>
       </c>
       <c r="P33" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1E+104</v>
       </c>
       <c r="Q33" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1E+104</v>
       </c>
       <c r="R33" s="11"/>
@@ -11507,15 +12135,15 @@
         <v>25</v>
       </c>
       <c r="F34" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>10언</v>
       </c>
       <c r="G34" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999998E+100</v>
       </c>
       <c r="H34" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="I34" s="16" t="str" cm="1">
@@ -11523,7 +12151,7 @@
         <v>언</v>
       </c>
       <c r="J34" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I34,N:Q,4,FALSE)</f>
         <v>1E+100</v>
       </c>
       <c r="K34" s="22">
@@ -11540,11 +12168,11 @@
         <v>108</v>
       </c>
       <c r="P34" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1E+108</v>
       </c>
       <c r="Q34" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1E+108</v>
       </c>
       <c r="R34" s="11"/>
@@ -11562,15 +12190,15 @@
         <v>26</v>
       </c>
       <c r="F35" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>100언</v>
       </c>
       <c r="G35" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999998E+101</v>
       </c>
       <c r="H35" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="I35" s="16" t="str" cm="1">
@@ -11578,7 +12206,7 @@
         <v>언</v>
       </c>
       <c r="J35" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I35,N:Q,4,FALSE)</f>
         <v>1E+100</v>
       </c>
       <c r="K35" s="22">
@@ -11595,11 +12223,11 @@
         <v>112</v>
       </c>
       <c r="P35" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9.9999999999999993E+111</v>
       </c>
       <c r="Q35" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1E+112</v>
       </c>
       <c r="R35" s="11"/>
@@ -11617,15 +12245,15 @@
         <v>27</v>
       </c>
       <c r="F36" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1000언</v>
       </c>
       <c r="G36" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1E+103</v>
       </c>
       <c r="H36" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="I36" s="16" t="str" cm="1">
@@ -11633,7 +12261,7 @@
         <v>언</v>
       </c>
       <c r="J36" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I36,N:Q,4,FALSE)</f>
         <v>1E+100</v>
       </c>
       <c r="K36" s="22">
@@ -11650,11 +12278,11 @@
         <v>116</v>
       </c>
       <c r="P36" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1E+116</v>
       </c>
       <c r="Q36" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1E+116</v>
       </c>
       <c r="R36" s="11"/>
@@ -11672,15 +12300,15 @@
         <v>28</v>
       </c>
       <c r="F37" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1승</v>
       </c>
       <c r="G37" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1E+104</v>
       </c>
       <c r="H37" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I37" s="16" t="str" cm="1">
@@ -11688,7 +12316,7 @@
         <v>승</v>
       </c>
       <c r="J37" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I37,N:Q,4,FALSE)</f>
         <v>1E+104</v>
       </c>
       <c r="K37" s="22">
@@ -11705,11 +12333,11 @@
         <v>120</v>
       </c>
       <c r="P37" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9.9999999999999998E+119</v>
       </c>
       <c r="Q37" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1E+120</v>
       </c>
       <c r="R37" s="11"/>
@@ -11727,15 +12355,15 @@
         <v>29</v>
       </c>
       <c r="F38" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>10승</v>
       </c>
       <c r="G38" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999994E+104</v>
       </c>
       <c r="H38" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="I38" s="16" t="str" cm="1">
@@ -11743,7 +12371,7 @@
         <v>승</v>
       </c>
       <c r="J38" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I38,N:Q,4,FALSE)</f>
         <v>1E+104</v>
       </c>
       <c r="K38" s="22">
@@ -11760,11 +12388,11 @@
         <v>124</v>
       </c>
       <c r="P38" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9.9999999999999995E+123</v>
       </c>
       <c r="Q38" s="17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1E+124</v>
       </c>
       <c r="R38" s="11"/>
@@ -11782,15 +12410,15 @@
         <v>30</v>
       </c>
       <c r="F39" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>100승</v>
       </c>
       <c r="G39" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.0000000000000001E+106</v>
       </c>
       <c r="H39" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="I39" s="16" t="str" cm="1">
@@ -11798,7 +12426,7 @@
         <v>승</v>
       </c>
       <c r="J39" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I39,N:Q,4,FALSE)</f>
         <v>1E+104</v>
       </c>
       <c r="K39" s="22">
@@ -11815,11 +12443,11 @@
         <v>128</v>
       </c>
       <c r="P39" s="17">
-        <f t="shared" ref="P39" si="7">POWER(10,O39)</f>
+        <f t="shared" ref="P39" si="6">POWER(10,O39)</f>
         <v>1.0000000000000001E+128</v>
       </c>
       <c r="Q39" s="17" t="str">
-        <f t="shared" ref="Q39" si="8">RIGHT(P39,O39)</f>
+        <f t="shared" ref="Q39" si="7">RIGHT(P39,O39)</f>
         <v>1E+128</v>
       </c>
       <c r="R39" s="11"/>
@@ -11837,15 +12465,15 @@
         <v>31</v>
       </c>
       <c r="F40" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1000승</v>
       </c>
       <c r="G40" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999997E+106</v>
       </c>
       <c r="H40" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="I40" s="16" t="str" cm="1">
@@ -11853,7 +12481,7 @@
         <v>승</v>
       </c>
       <c r="J40" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I40,N:Q,4,FALSE)</f>
         <v>1E+104</v>
       </c>
       <c r="K40" s="22">
@@ -11870,11 +12498,11 @@
         <v>132</v>
       </c>
       <c r="P40" s="17">
-        <f t="shared" ref="P40:P41" si="9">POWER(10,O40)</f>
+        <f t="shared" ref="P40:P41" si="8">POWER(10,O40)</f>
         <v>9.9999999999999999E+131</v>
       </c>
       <c r="Q40" s="17" t="str">
-        <f t="shared" ref="Q40:Q41" si="10">RIGHT(P40,O40)</f>
+        <f t="shared" ref="Q40:Q41" si="9">RIGHT(P40,O40)</f>
         <v>1E+132</v>
       </c>
       <c r="R40" s="11"/>
@@ -11892,15 +12520,15 @@
         <v>32</v>
       </c>
       <c r="F41" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1마</v>
       </c>
       <c r="G41" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1E+108</v>
       </c>
       <c r="H41" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I41" s="16" t="str" cm="1">
@@ -11908,7 +12536,7 @@
         <v>마</v>
       </c>
       <c r="J41" s="16" t="str">
-        <f t="shared" ref="J41:J72" si="11">VLOOKUP(I41,N:Q,4,FALSE)</f>
+        <f>VLOOKUP(I41,N:Q,4,FALSE)</f>
         <v>1E+108</v>
       </c>
       <c r="K41" s="22">
@@ -11925,11 +12553,11 @@
         <v>136</v>
       </c>
       <c r="P41" s="17">
+        <f t="shared" si="8"/>
+        <v>1.0000000000000001E+136</v>
+      </c>
+      <c r="Q41" s="17" t="str">
         <f t="shared" si="9"/>
-        <v>1.0000000000000001E+136</v>
-      </c>
-      <c r="Q41" s="17" t="str">
-        <f t="shared" si="10"/>
         <v>1E+136</v>
       </c>
       <c r="R41" s="11"/>
@@ -11947,15 +12575,15 @@
         <v>33</v>
       </c>
       <c r="F42" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>10마</v>
       </c>
       <c r="G42" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999998E+108</v>
       </c>
       <c r="H42" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="I42" s="16" t="str" cm="1">
@@ -11963,7 +12591,7 @@
         <v>마</v>
       </c>
       <c r="J42" s="16" t="str">
-        <f t="shared" si="11"/>
+        <f>VLOOKUP(I42,N:Q,4,FALSE)</f>
         <v>1E+108</v>
       </c>
       <c r="K42" s="22">
@@ -11980,11 +12608,11 @@
         <v>140</v>
       </c>
       <c r="P42" s="17">
-        <f t="shared" ref="P42" si="12">POWER(10,O42)</f>
+        <f t="shared" ref="P42" si="10">POWER(10,O42)</f>
         <v>1.0000000000000001E+140</v>
       </c>
       <c r="Q42" s="17" t="str">
-        <f t="shared" ref="Q42" si="13">RIGHT(P42,O42)</f>
+        <f t="shared" ref="Q42" si="11">RIGHT(P42,O42)</f>
         <v>1E+140</v>
       </c>
       <c r="R42" s="11"/>
@@ -12002,15 +12630,15 @@
         <v>34</v>
       </c>
       <c r="F43" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>100마</v>
       </c>
       <c r="G43" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1E+110</v>
       </c>
       <c r="H43" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="I43" s="16" t="str" cm="1">
@@ -12018,7 +12646,7 @@
         <v>마</v>
       </c>
       <c r="J43" s="16" t="str">
-        <f t="shared" si="11"/>
+        <f>VLOOKUP(I43,N:Q,4,FALSE)</f>
         <v>1E+108</v>
       </c>
       <c r="K43" s="22">
@@ -12035,11 +12663,11 @@
         <v>144</v>
       </c>
       <c r="P43" s="17">
-        <f t="shared" ref="P43" si="14">POWER(10,O43)</f>
+        <f t="shared" ref="P43" si="12">POWER(10,O43)</f>
         <v>1E+144</v>
       </c>
       <c r="Q43" s="17" t="str">
-        <f t="shared" ref="Q43" si="15">RIGHT(P43,O43)</f>
+        <f t="shared" ref="Q43" si="13">RIGHT(P43,O43)</f>
         <v>1E+144</v>
       </c>
       <c r="R43" s="11"/>
@@ -12057,15 +12685,15 @@
         <v>35</v>
       </c>
       <c r="F44" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1000마</v>
       </c>
       <c r="G44" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.0000000000000001E+111</v>
       </c>
       <c r="H44" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="I44" s="16" t="str" cm="1">
@@ -12073,7 +12701,7 @@
         <v>마</v>
       </c>
       <c r="J44" s="16" t="str">
-        <f t="shared" si="11"/>
+        <f>VLOOKUP(I44,N:Q,4,FALSE)</f>
         <v>1E+108</v>
       </c>
       <c r="K44" s="22">
@@ -12090,11 +12718,11 @@
         <v>148</v>
       </c>
       <c r="P44" s="17">
-        <f t="shared" ref="P44" si="16">POWER(10,O44)</f>
+        <f t="shared" ref="P44" si="14">POWER(10,O44)</f>
         <v>1E+148</v>
       </c>
       <c r="Q44" s="17" t="str">
-        <f t="shared" ref="Q44" si="17">RIGHT(P44,O44)</f>
+        <f t="shared" ref="Q44" si="15">RIGHT(P44,O44)</f>
         <v>1E+148</v>
       </c>
       <c r="R44" s="11"/>
@@ -12112,15 +12740,15 @@
         <v>36</v>
       </c>
       <c r="F45" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1살</v>
       </c>
       <c r="G45" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999993E+111</v>
       </c>
       <c r="H45" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I45" s="16" t="str" cm="1">
@@ -12128,7 +12756,7 @@
         <v>살</v>
       </c>
       <c r="J45" s="16" t="str">
-        <f t="shared" si="11"/>
+        <f>VLOOKUP(I45,N:Q,4,FALSE)</f>
         <v>1E+112</v>
       </c>
       <c r="K45" s="22">
@@ -12145,11 +12773,11 @@
         <v>152</v>
       </c>
       <c r="P45" s="17">
-        <f t="shared" ref="P45" si="18">POWER(10,O45)</f>
+        <f t="shared" ref="P45" si="16">POWER(10,O45)</f>
         <v>1E+152</v>
       </c>
       <c r="Q45" s="17" t="str">
-        <f t="shared" ref="Q45" si="19">RIGHT(P45,O45)</f>
+        <f t="shared" ref="Q45" si="17">RIGHT(P45,O45)</f>
         <v>1E+152</v>
       </c>
       <c r="R45" s="11"/>
@@ -12167,15 +12795,15 @@
         <v>37</v>
       </c>
       <c r="F46" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>10살</v>
       </c>
       <c r="G46" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1E+113</v>
       </c>
       <c r="H46" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="I46" s="16" t="str" cm="1">
@@ -12183,7 +12811,7 @@
         <v>살</v>
       </c>
       <c r="J46" s="16" t="str">
-        <f t="shared" si="11"/>
+        <f>VLOOKUP(I46,N:Q,4,FALSE)</f>
         <v>1E+112</v>
       </c>
       <c r="K46" s="22">
@@ -12200,11 +12828,11 @@
         <v>156</v>
       </c>
       <c r="P46" s="17">
-        <f t="shared" ref="P46" si="20">POWER(10,O46)</f>
+        <f t="shared" ref="P46" si="18">POWER(10,O46)</f>
         <v>9.9999999999999998E+155</v>
       </c>
       <c r="Q46" s="17" t="str">
-        <f t="shared" ref="Q46" si="21">RIGHT(P46,O46)</f>
+        <f t="shared" ref="Q46" si="19">RIGHT(P46,O46)</f>
         <v>1E+156</v>
       </c>
       <c r="R46" s="11"/>
@@ -12222,15 +12850,15 @@
         <v>38</v>
       </c>
       <c r="F47" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>100살</v>
       </c>
       <c r="G47" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999988E+113</v>
       </c>
       <c r="H47" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="I47" s="16" t="str" cm="1">
@@ -12238,7 +12866,7 @@
         <v>살</v>
       </c>
       <c r="J47" s="16" t="str">
-        <f t="shared" si="11"/>
+        <f>VLOOKUP(I47,N:Q,4,FALSE)</f>
         <v>1E+112</v>
       </c>
       <c r="K47" s="22">
@@ -12255,11 +12883,11 @@
         <v>160</v>
       </c>
       <c r="P47" s="17">
-        <f t="shared" ref="P47:P48" si="22">POWER(10,O47)</f>
+        <f t="shared" ref="P47:P48" si="20">POWER(10,O47)</f>
         <v>1E+160</v>
       </c>
       <c r="Q47" s="17" t="str">
-        <f t="shared" ref="Q47:Q48" si="23">RIGHT(P47,O47)</f>
+        <f t="shared" ref="Q47:Q48" si="21">RIGHT(P47,O47)</f>
         <v>1E+160</v>
       </c>
       <c r="R47" s="11"/>
@@ -12277,15 +12905,15 @@
         <v>39</v>
       </c>
       <c r="F48" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1000살</v>
       </c>
       <c r="G48" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1E+115</v>
       </c>
       <c r="H48" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="I48" s="16" t="str" cm="1">
@@ -12293,7 +12921,7 @@
         <v>살</v>
       </c>
       <c r="J48" s="16" t="str">
-        <f t="shared" si="11"/>
+        <f>VLOOKUP(I48,N:Q,4,FALSE)</f>
         <v>1E+112</v>
       </c>
       <c r="K48" s="22">
@@ -12310,11 +12938,11 @@
         <v>164</v>
       </c>
       <c r="P48" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>1E+164</v>
       </c>
       <c r="Q48" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>1E+164</v>
       </c>
       <c r="R48" s="11"/>
@@ -12332,15 +12960,15 @@
         <v>40</v>
       </c>
       <c r="F49" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1섬</v>
       </c>
       <c r="G49" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1E+116</v>
       </c>
       <c r="H49" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I49" s="16" t="str" cm="1">
@@ -12348,7 +12976,7 @@
         <v>섬</v>
       </c>
       <c r="J49" s="16" t="str">
-        <f t="shared" si="11"/>
+        <f>VLOOKUP(I49,N:Q,4,FALSE)</f>
         <v>1E+116</v>
       </c>
       <c r="K49" s="22">
@@ -12365,11 +12993,11 @@
         <v>168</v>
       </c>
       <c r="P49" s="17">
-        <f t="shared" ref="P49:P50" si="24">POWER(10,O49)</f>
+        <f t="shared" ref="P49:P50" si="22">POWER(10,O49)</f>
         <v>9.9999999999999993E+167</v>
       </c>
       <c r="Q49" s="17" t="str">
-        <f t="shared" ref="Q49:Q50" si="25">RIGHT(P49,O49)</f>
+        <f t="shared" ref="Q49:Q50" si="23">RIGHT(P49,O49)</f>
         <v>1E+168</v>
       </c>
       <c r="R49" s="11"/>
@@ -12387,15 +13015,15 @@
         <v>41</v>
       </c>
       <c r="F50" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>10섬</v>
       </c>
       <c r="G50" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.0000000000000001E+117</v>
       </c>
       <c r="H50" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="I50" s="16" t="str" cm="1">
@@ -12403,7 +13031,7 @@
         <v>섬</v>
       </c>
       <c r="J50" s="16" t="str">
-        <f t="shared" si="11"/>
+        <f>VLOOKUP(I50,N:Q,4,FALSE)</f>
         <v>1E+116</v>
       </c>
       <c r="K50" s="22">
@@ -12420,11 +13048,11 @@
         <v>172</v>
       </c>
       <c r="P50" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>1.0000000000000001E+172</v>
       </c>
       <c r="Q50" s="17" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>1E+172</v>
       </c>
       <c r="R50" s="11"/>
@@ -12442,15 +13070,15 @@
         <v>42</v>
       </c>
       <c r="F51" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>100섬</v>
       </c>
       <c r="G51" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999997E+117</v>
       </c>
       <c r="H51" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="I51" s="16" t="str" cm="1">
@@ -12458,7 +13086,7 @@
         <v>섬</v>
       </c>
       <c r="J51" s="16" t="str">
-        <f t="shared" si="11"/>
+        <f>VLOOKUP(I51,N:Q,4,FALSE)</f>
         <v>1E+116</v>
       </c>
       <c r="K51" s="22">
@@ -12475,11 +13103,11 @@
         <v>176</v>
       </c>
       <c r="P51" s="17">
-        <f t="shared" ref="P51" si="26">POWER(10,O51)</f>
+        <f t="shared" ref="P51" si="24">POWER(10,O51)</f>
         <v>1E+176</v>
       </c>
       <c r="Q51" s="17" t="str">
-        <f t="shared" ref="Q51" si="27">RIGHT(P51,O51)</f>
+        <f t="shared" ref="Q51" si="25">RIGHT(P51,O51)</f>
         <v>1E+176</v>
       </c>
       <c r="R51" s="11"/>
@@ -12497,15 +13125,15 @@
         <v>43</v>
       </c>
       <c r="F52" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1000섬</v>
       </c>
       <c r="G52" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999994E+118</v>
       </c>
       <c r="H52" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="I52" s="16" t="str" cm="1">
@@ -12513,7 +13141,7 @@
         <v>섬</v>
       </c>
       <c r="J52" s="16" t="str">
-        <f t="shared" si="11"/>
+        <f>VLOOKUP(I52,N:Q,4,FALSE)</f>
         <v>1E+116</v>
       </c>
       <c r="K52" s="22">
@@ -12530,11 +13158,11 @@
         <v>180</v>
       </c>
       <c r="P52" s="17">
-        <f t="shared" ref="P52:P53" si="28">POWER(10,O52)</f>
+        <f t="shared" ref="P52:P53" si="26">POWER(10,O52)</f>
         <v>1E+180</v>
       </c>
       <c r="Q52" s="17" t="str">
-        <f t="shared" ref="Q52:Q53" si="29">RIGHT(P52,O52)</f>
+        <f t="shared" ref="Q52:Q53" si="27">RIGHT(P52,O52)</f>
         <v>1E+180</v>
       </c>
       <c r="R52" s="11"/>
@@ -12552,15 +13180,15 @@
         <v>44</v>
       </c>
       <c r="F53" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1찰</v>
       </c>
       <c r="G53" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999998E+119</v>
       </c>
       <c r="H53" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I53" s="16" t="str" cm="1">
@@ -12568,7 +13196,7 @@
         <v>찰</v>
       </c>
       <c r="J53" s="16" t="str">
-        <f t="shared" si="11"/>
+        <f>VLOOKUP(I53,N:Q,4,FALSE)</f>
         <v>1E+120</v>
       </c>
       <c r="K53" s="22">
@@ -12585,11 +13213,11 @@
         <v>184</v>
       </c>
       <c r="P53" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>1E+184</v>
       </c>
       <c r="Q53" s="17" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>1E+184</v>
       </c>
       <c r="R53" s="11"/>
@@ -12607,15 +13235,15 @@
         <v>45</v>
       </c>
       <c r="F54" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>10찰</v>
       </c>
       <c r="G54" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999992E+120</v>
       </c>
       <c r="H54" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="I54" s="16" t="str" cm="1">
@@ -12623,7 +13251,7 @@
         <v>찰</v>
       </c>
       <c r="J54" s="16" t="str">
-        <f t="shared" si="11"/>
+        <f>VLOOKUP(I54,N:Q,4,FALSE)</f>
         <v>1E+120</v>
       </c>
       <c r="K54" s="22">
@@ -12640,11 +13268,11 @@
         <v>188</v>
       </c>
       <c r="P54" s="17">
-        <f t="shared" ref="P54" si="30">POWER(10,O54)</f>
+        <f t="shared" ref="P54" si="28">POWER(10,O54)</f>
         <v>1E+188</v>
       </c>
       <c r="Q54" s="17" t="str">
-        <f t="shared" ref="Q54" si="31">RIGHT(P54,O54)</f>
+        <f t="shared" ref="Q54" si="29">RIGHT(P54,O54)</f>
         <v>1E+188</v>
       </c>
       <c r="R54" s="11"/>
@@ -12662,15 +13290,15 @@
         <v>46</v>
       </c>
       <c r="F55" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>100찰</v>
       </c>
       <c r="G55" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1E+122</v>
       </c>
       <c r="H55" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="I55" s="16" t="str" cm="1">
@@ -12678,7 +13306,7 @@
         <v>찰</v>
       </c>
       <c r="J55" s="16" t="str">
-        <f t="shared" si="11"/>
+        <f>VLOOKUP(I55,N:Q,4,FALSE)</f>
         <v>1E+120</v>
       </c>
       <c r="K55" s="22">
@@ -12695,11 +13323,11 @@
         <v>192</v>
       </c>
       <c r="P55" s="17">
-        <f t="shared" ref="P55" si="32">POWER(10,O55)</f>
+        <f t="shared" ref="P55" si="30">POWER(10,O55)</f>
         <v>1E+192</v>
       </c>
       <c r="Q55" s="17" t="str">
-        <f t="shared" ref="Q55" si="33">RIGHT(P55,O55)</f>
+        <f t="shared" ref="Q55" si="31">RIGHT(P55,O55)</f>
         <v>1E+192</v>
       </c>
       <c r="R55" s="11"/>
@@ -12717,15 +13345,15 @@
         <v>47</v>
       </c>
       <c r="F56" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1000찰</v>
       </c>
       <c r="G56" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999998E+122</v>
       </c>
       <c r="H56" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="I56" s="16" t="str" cm="1">
@@ -12733,7 +13361,7 @@
         <v>찰</v>
       </c>
       <c r="J56" s="16" t="str">
-        <f t="shared" si="11"/>
+        <f>VLOOKUP(I56,N:Q,4,FALSE)</f>
         <v>1E+120</v>
       </c>
       <c r="K56" s="22">
@@ -12750,11 +13378,11 @@
         <v>196</v>
       </c>
       <c r="P56" s="17">
-        <f t="shared" ref="P56:P57" si="34">POWER(10,O56)</f>
+        <f t="shared" ref="P56:P57" si="32">POWER(10,O56)</f>
         <v>9.9999999999999995E+195</v>
       </c>
       <c r="Q56" s="17" t="str">
-        <f t="shared" ref="Q56:Q57" si="35">RIGHT(P56,O56)</f>
+        <f t="shared" ref="Q56:Q57" si="33">RIGHT(P56,O56)</f>
         <v>1E+196</v>
       </c>
       <c r="R56" s="11"/>
@@ -12772,15 +13400,15 @@
         <v>48</v>
       </c>
       <c r="F57" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1교</v>
       </c>
       <c r="G57" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999995E+123</v>
       </c>
       <c r="H57" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I57" s="16" t="str" cm="1">
@@ -12788,7 +13416,7 @@
         <v>교</v>
       </c>
       <c r="J57" s="16" t="str">
-        <f t="shared" si="11"/>
+        <f>VLOOKUP(I57,N:Q,4,FALSE)</f>
         <v>1E+124</v>
       </c>
       <c r="K57" s="22">
@@ -12805,11 +13433,11 @@
         <v>200</v>
       </c>
       <c r="P57" s="17">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>9.9999999999999997E+199</v>
       </c>
       <c r="Q57" s="17" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>1E+200</v>
       </c>
       <c r="R57" s="11"/>
@@ -12827,15 +13455,15 @@
         <v>49</v>
       </c>
       <c r="F58" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>10교</v>
       </c>
       <c r="G58" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999992E+124</v>
       </c>
       <c r="H58" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="I58" s="16" t="str" cm="1">
@@ -12843,7 +13471,7 @@
         <v>교</v>
       </c>
       <c r="J58" s="16" t="str">
-        <f t="shared" si="11"/>
+        <f>VLOOKUP(I58,N:Q,4,FALSE)</f>
         <v>1E+124</v>
       </c>
       <c r="K58" s="22">
@@ -12860,11 +13488,11 @@
         <v>204</v>
       </c>
       <c r="P58" s="17">
-        <f t="shared" ref="P58:P59" si="36">POWER(10,O58)</f>
+        <f t="shared" ref="P58:P59" si="34">POWER(10,O58)</f>
         <v>9.9999999999999999E+203</v>
       </c>
       <c r="Q58" s="17" t="str">
-        <f t="shared" ref="Q58:Q59" si="37">RIGHT(P58,O58)</f>
+        <f t="shared" ref="Q58:Q59" si="35">RIGHT(P58,O58)</f>
         <v>1E+204</v>
       </c>
       <c r="R58" s="11"/>
@@ -12882,15 +13510,15 @@
         <v>50</v>
       </c>
       <c r="F59" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>100교</v>
       </c>
       <c r="G59" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999992E+125</v>
       </c>
       <c r="H59" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="I59" s="16" t="str" cm="1">
@@ -12898,7 +13526,7 @@
         <v>교</v>
       </c>
       <c r="J59" s="16" t="str">
-        <f t="shared" si="11"/>
+        <f>VLOOKUP(I59,N:Q,4,FALSE)</f>
         <v>1E+124</v>
       </c>
       <c r="K59" s="22">
@@ -12915,11 +13543,11 @@
         <v>208</v>
       </c>
       <c r="P59" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>9.9999999999999998E+207</v>
       </c>
       <c r="Q59" s="17" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>1E+208</v>
       </c>
       <c r="R59" s="11"/>
@@ -12937,15 +13565,15 @@
         <v>51</v>
       </c>
       <c r="F60" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1000교</v>
       </c>
       <c r="G60" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999995E+126</v>
       </c>
       <c r="H60" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="I60" s="16" t="str" cm="1">
@@ -12953,7 +13581,7 @@
         <v>교</v>
       </c>
       <c r="J60" s="16" t="str">
-        <f t="shared" si="11"/>
+        <f>VLOOKUP(I60,N:Q,4,FALSE)</f>
         <v>1E+124</v>
       </c>
       <c r="K60" s="22">
@@ -12970,11 +13598,11 @@
         <v>212</v>
       </c>
       <c r="P60" s="17">
-        <f t="shared" ref="P60" si="38">POWER(10,O60)</f>
+        <f t="shared" ref="P60" si="36">POWER(10,O60)</f>
         <v>9.9999999999999991E+211</v>
       </c>
       <c r="Q60" s="17" t="str">
-        <f t="shared" ref="Q60" si="39">RIGHT(P60,O60)</f>
+        <f t="shared" ref="Q60" si="37">RIGHT(P60,O60)</f>
         <v>1E+212</v>
       </c>
       <c r="R60" s="11"/>
@@ -12992,15 +13620,15 @@
         <v>52</v>
       </c>
       <c r="F61" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1위</v>
       </c>
       <c r="G61" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.0000000000000001E+128</v>
       </c>
       <c r="H61" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I61" s="16" t="str" cm="1">
@@ -13008,7 +13636,7 @@
         <v>위</v>
       </c>
       <c r="J61" s="16" t="str">
-        <f t="shared" si="11"/>
+        <f>VLOOKUP(I61,N:Q,4,FALSE)</f>
         <v>1E+128</v>
       </c>
       <c r="K61" s="22">
@@ -13025,11 +13653,11 @@
         <v>216</v>
       </c>
       <c r="P61" s="17">
-        <f t="shared" ref="P61:P62" si="40">POWER(10,O61)</f>
+        <f t="shared" ref="P61:P62" si="38">POWER(10,O61)</f>
         <v>1E+216</v>
       </c>
       <c r="Q61" s="17" t="str">
-        <f t="shared" ref="Q61:Q62" si="41">RIGHT(P61,O61)</f>
+        <f t="shared" ref="Q61:Q62" si="39">RIGHT(P61,O61)</f>
         <v>1E+216</v>
       </c>
       <c r="R61" s="11"/>
@@ -13047,15 +13675,15 @@
         <v>53</v>
       </c>
       <c r="F62" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>10위</v>
       </c>
       <c r="G62" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1E+129</v>
       </c>
       <c r="H62" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="I62" s="16" t="str" cm="1">
@@ -13063,7 +13691,7 @@
         <v>위</v>
       </c>
       <c r="J62" s="16" t="str">
-        <f t="shared" si="11"/>
+        <f>VLOOKUP(I62,N:Q,4,FALSE)</f>
         <v>1E+128</v>
       </c>
       <c r="K62" s="22">
@@ -13080,11 +13708,11 @@
         <v>220</v>
       </c>
       <c r="P62" s="17">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>1E+220</v>
       </c>
       <c r="Q62" s="17" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>1E+220</v>
       </c>
       <c r="R62" s="11"/>
@@ -13102,15 +13730,15 @@
         <v>54</v>
       </c>
       <c r="F63" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>100위</v>
       </c>
       <c r="G63" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.0000000000000001E+130</v>
       </c>
       <c r="H63" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="I63" s="16" t="str" cm="1">
@@ -13118,7 +13746,7 @@
         <v>위</v>
       </c>
       <c r="J63" s="16" t="str">
-        <f t="shared" si="11"/>
+        <f>VLOOKUP(I63,N:Q,4,FALSE)</f>
         <v>1E+128</v>
       </c>
       <c r="K63" s="22">
@@ -13135,11 +13763,11 @@
         <v>224</v>
       </c>
       <c r="P63" s="17">
-        <f t="shared" ref="P63:P64" si="42">POWER(10,O63)</f>
+        <f t="shared" ref="P63:P64" si="40">POWER(10,O63)</f>
         <v>9.9999999999999997E+223</v>
       </c>
       <c r="Q63" s="17" t="str">
-        <f t="shared" ref="Q63:Q64" si="43">RIGHT(P63,O63)</f>
+        <f t="shared" ref="Q63:Q64" si="41">RIGHT(P63,O63)</f>
         <v>1E+224</v>
       </c>
       <c r="R63" s="11"/>
@@ -13157,15 +13785,15 @@
         <v>55</v>
       </c>
       <c r="F64" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1000위</v>
       </c>
       <c r="G64" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.0000000000000001E+131</v>
       </c>
       <c r="H64" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="I64" s="16" t="str" cm="1">
@@ -13173,7 +13801,7 @@
         <v>위</v>
       </c>
       <c r="J64" s="16" t="str">
-        <f t="shared" si="11"/>
+        <f>VLOOKUP(I64,N:Q,4,FALSE)</f>
         <v>1E+128</v>
       </c>
       <c r="K64" s="22">
@@ -13190,11 +13818,11 @@
         <v>228</v>
       </c>
       <c r="P64" s="17">
-        <f t="shared" si="42"/>
+        <f t="shared" si="40"/>
         <v>9.9999999999999992E+227</v>
       </c>
       <c r="Q64" s="17" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>1E+228</v>
       </c>
       <c r="R64" s="11"/>
@@ -13212,15 +13840,15 @@
         <v>56</v>
       </c>
       <c r="F65" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1설</v>
       </c>
       <c r="G65" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999999E+131</v>
       </c>
       <c r="H65" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I65" s="16" t="str" cm="1">
@@ -13228,7 +13856,7 @@
         <v>설</v>
       </c>
       <c r="J65" s="16" t="str">
-        <f t="shared" si="11"/>
+        <f>VLOOKUP(I65,N:Q,4,FALSE)</f>
         <v>1E+132</v>
       </c>
       <c r="K65" s="22">
@@ -13245,11 +13873,11 @@
         <v>232</v>
       </c>
       <c r="P65" s="17">
-        <f t="shared" ref="P65:P66" si="44">POWER(10,O65)</f>
+        <f t="shared" ref="P65:P66" si="42">POWER(10,O65)</f>
         <v>1.0000000000000001E+232</v>
       </c>
       <c r="Q65" s="17" t="str">
-        <f t="shared" ref="Q65:Q66" si="45">RIGHT(P65,O65)</f>
+        <f t="shared" ref="Q65:Q66" si="43">RIGHT(P65,O65)</f>
         <v>1E+232</v>
       </c>
       <c r="R65" s="11"/>
@@ -13267,15 +13895,15 @@
         <v>57</v>
       </c>
       <c r="F66" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>10설</v>
       </c>
       <c r="G66" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1E+133</v>
       </c>
       <c r="H66" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="I66" s="16" t="str" cm="1">
@@ -13283,7 +13911,7 @@
         <v>설</v>
       </c>
       <c r="J66" s="16" t="str">
-        <f t="shared" si="11"/>
+        <f>VLOOKUP(I66,N:Q,4,FALSE)</f>
         <v>1E+132</v>
       </c>
       <c r="K66" s="22">
@@ -13300,11 +13928,11 @@
         <v>236</v>
       </c>
       <c r="P66" s="17">
-        <f t="shared" si="44"/>
+        <f t="shared" si="42"/>
         <v>1.0000000000000001E+236</v>
       </c>
       <c r="Q66" s="17" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v>1E+236</v>
       </c>
       <c r="R66" s="11"/>
@@ -13322,15 +13950,15 @@
         <v>58</v>
       </c>
       <c r="F67" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>100설</v>
       </c>
       <c r="G67" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999992E+133</v>
       </c>
       <c r="H67" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="I67" s="16" t="str" cm="1">
@@ -13338,7 +13966,7 @@
         <v>설</v>
       </c>
       <c r="J67" s="16" t="str">
-        <f t="shared" si="11"/>
+        <f>VLOOKUP(I67,N:Q,4,FALSE)</f>
         <v>1E+132</v>
       </c>
       <c r="K67" s="22">
@@ -13355,11 +13983,11 @@
         <v>240</v>
       </c>
       <c r="P67" s="17">
-        <f t="shared" ref="P67:P68" si="46">POWER(10,O67)</f>
+        <f t="shared" ref="P67:P68" si="44">POWER(10,O67)</f>
         <v>1E+240</v>
       </c>
       <c r="Q67" s="17" t="str">
-        <f t="shared" ref="Q67:Q68" si="47">RIGHT(P67,O67)</f>
+        <f t="shared" ref="Q67:Q68" si="45">RIGHT(P67,O67)</f>
         <v>1E+240</v>
       </c>
     </row>
@@ -13372,11 +14000,11 @@
         <v>1000설</v>
       </c>
       <c r="G68" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999996E+134</v>
       </c>
       <c r="H68" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="I68" s="16" t="str" cm="1">
@@ -13384,7 +14012,7 @@
         <v>설</v>
       </c>
       <c r="J68" s="16" t="str">
-        <f t="shared" si="11"/>
+        <f>VLOOKUP(I68,N:Q,4,FALSE)</f>
         <v>1E+132</v>
       </c>
       <c r="K68" s="22">
@@ -13401,11 +14029,11 @@
         <v>244</v>
       </c>
       <c r="P68" s="17">
-        <f t="shared" si="46"/>
+        <f t="shared" si="44"/>
         <v>1.0000000000000001E+244</v>
       </c>
       <c r="Q68" s="17" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="45"/>
         <v>1E+244</v>
       </c>
     </row>
@@ -13414,15 +14042,15 @@
         <v>60</v>
       </c>
       <c r="F69" s="17" t="str">
-        <f t="shared" ref="F69:F104" si="48">H69&amp;I69</f>
+        <f t="shared" ref="F69:F104" si="46">H69&amp;I69</f>
         <v>1적</v>
       </c>
       <c r="G69" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.0000000000000001E+136</v>
       </c>
       <c r="H69" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I69" s="16" t="str" cm="1">
@@ -13430,7 +14058,7 @@
         <v>적</v>
       </c>
       <c r="J69" s="16" t="str">
-        <f t="shared" si="11"/>
+        <f>VLOOKUP(I69,N:Q,4,FALSE)</f>
         <v>1E+136</v>
       </c>
       <c r="K69" s="22">
@@ -13447,11 +14075,11 @@
         <v>248</v>
       </c>
       <c r="P69" s="17">
-        <f t="shared" ref="P69:P70" si="49">POWER(10,O69)</f>
+        <f t="shared" ref="P69:P70" si="47">POWER(10,O69)</f>
         <v>1E+248</v>
       </c>
       <c r="Q69" s="17" t="str">
-        <f t="shared" ref="Q69:Q70" si="50">RIGHT(P69,O69)</f>
+        <f t="shared" ref="Q69:Q70" si="48">RIGHT(P69,O69)</f>
         <v>1E+248</v>
       </c>
     </row>
@@ -13460,15 +14088,15 @@
         <v>61</v>
       </c>
       <c r="F70" s="17" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v>10적</v>
       </c>
       <c r="G70" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1E+137</v>
       </c>
       <c r="H70" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="I70" s="16" t="str" cm="1">
@@ -13476,7 +14104,7 @@
         <v>적</v>
       </c>
       <c r="J70" s="16" t="str">
-        <f t="shared" si="11"/>
+        <f>VLOOKUP(I70,N:Q,4,FALSE)</f>
         <v>1E+136</v>
       </c>
       <c r="K70" s="22">
@@ -13493,11 +14121,11 @@
         <v>252</v>
       </c>
       <c r="P70" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="47"/>
         <v>1.0000000000000001E+252</v>
       </c>
       <c r="Q70" s="17" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="48"/>
         <v>1E+252</v>
       </c>
     </row>
@@ -13506,15 +14134,15 @@
         <v>62</v>
       </c>
       <c r="F71" s="17" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v>100적</v>
       </c>
       <c r="G71" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1E+138</v>
       </c>
       <c r="H71" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="I71" s="16" t="str" cm="1">
@@ -13522,7 +14150,7 @@
         <v>적</v>
       </c>
       <c r="J71" s="16" t="str">
-        <f t="shared" si="11"/>
+        <f>VLOOKUP(I71,N:Q,4,FALSE)</f>
         <v>1E+136</v>
       </c>
       <c r="K71" s="22">
@@ -13539,11 +14167,11 @@
         <v>256</v>
       </c>
       <c r="P71" s="17">
-        <f t="shared" ref="P71" si="51">POWER(10,O71)</f>
+        <f t="shared" ref="P71" si="49">POWER(10,O71)</f>
         <v>1E+256</v>
       </c>
       <c r="Q71" s="17" t="str">
-        <f t="shared" ref="Q71" si="52">RIGHT(P71,O71)</f>
+        <f t="shared" ref="Q71" si="50">RIGHT(P71,O71)</f>
         <v>1E+256</v>
       </c>
     </row>
@@ -13552,15 +14180,15 @@
         <v>63</v>
       </c>
       <c r="F72" s="17" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v>1000적</v>
       </c>
       <c r="G72" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1E+139</v>
       </c>
       <c r="H72" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="I72" s="16" t="str" cm="1">
@@ -13568,7 +14196,7 @@
         <v>적</v>
       </c>
       <c r="J72" s="16" t="str">
-        <f t="shared" si="11"/>
+        <f>VLOOKUP(I72,N:Q,4,FALSE)</f>
         <v>1E+136</v>
       </c>
       <c r="K72" s="22">
@@ -13578,21 +14206,35 @@
         <v>16300</v>
       </c>
       <c r="M72" s="22"/>
+      <c r="N72" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="O72" s="16">
+        <v>260</v>
+      </c>
+      <c r="P72" s="17">
+        <f t="shared" ref="P72:P75" si="51">POWER(10,O72)</f>
+        <v>1.0000000000000001E+260</v>
+      </c>
+      <c r="Q72" s="17" t="str">
+        <f t="shared" ref="Q72:Q75" si="52">RIGHT(P72,O72)</f>
+        <v>1E+260</v>
+      </c>
     </row>
     <row r="73" spans="5:26" x14ac:dyDescent="0.3">
       <c r="E73" s="16">
         <v>64</v>
       </c>
       <c r="F73" s="17" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v>1고</v>
       </c>
       <c r="G73" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.0000000000000001E+140</v>
       </c>
       <c r="H73" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I73" s="16" t="str" cm="1">
@@ -13600,7 +14242,7 @@
         <v>고</v>
       </c>
       <c r="J73" s="16" t="str">
-        <f t="shared" ref="J73:J104" si="53">VLOOKUP(I73,N:Q,4,FALSE)</f>
+        <f>VLOOKUP(I73,N:Q,4,FALSE)</f>
         <v>1E+140</v>
       </c>
       <c r="K73" s="22">
@@ -13610,21 +14252,35 @@
         <v>16400</v>
       </c>
       <c r="M73" s="22"/>
+      <c r="N73" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="O73" s="16">
+        <v>264</v>
+      </c>
+      <c r="P73" s="17">
+        <f t="shared" si="51"/>
+        <v>1E+264</v>
+      </c>
+      <c r="Q73" s="17" t="str">
+        <f t="shared" si="52"/>
+        <v>1E+264</v>
+      </c>
     </row>
     <row r="74" spans="5:26" x14ac:dyDescent="0.3">
       <c r="E74" s="16">
         <v>65</v>
       </c>
       <c r="F74" s="17" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v>10고</v>
       </c>
       <c r="G74" s="17">
-        <f t="shared" ref="G74:G104" si="54">H74*J74</f>
+        <f t="shared" ref="G74:G104" si="53">H74*J74</f>
         <v>1E+141</v>
       </c>
       <c r="H74" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="I74" s="16" t="str" cm="1">
@@ -13632,7 +14288,7 @@
         <v>고</v>
       </c>
       <c r="J74" s="16" t="str">
-        <f t="shared" si="53"/>
+        <f>VLOOKUP(I74,N:Q,4,FALSE)</f>
         <v>1E+140</v>
       </c>
       <c r="K74" s="22">
@@ -13642,21 +14298,35 @@
         <v>16500</v>
       </c>
       <c r="M74" s="22"/>
+      <c r="N74" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="O74" s="16">
+        <v>268</v>
+      </c>
+      <c r="P74" s="17">
+        <f t="shared" si="51"/>
+        <v>9.9999999999999997E+267</v>
+      </c>
+      <c r="Q74" s="17" t="str">
+        <f t="shared" si="52"/>
+        <v>1E+268</v>
+      </c>
     </row>
     <row r="75" spans="5:26" x14ac:dyDescent="0.3">
       <c r="E75" s="16">
         <v>66</v>
       </c>
       <c r="F75" s="17" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v>100고</v>
       </c>
       <c r="G75" s="17">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>1.0000000000000001E+142</v>
       </c>
       <c r="H75" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="I75" s="16" t="str" cm="1">
@@ -13664,7 +14334,7 @@
         <v>고</v>
       </c>
       <c r="J75" s="16" t="str">
-        <f t="shared" si="53"/>
+        <f>VLOOKUP(I75,N:Q,4,FALSE)</f>
         <v>1E+140</v>
       </c>
       <c r="K75" s="22">
@@ -13674,21 +14344,35 @@
         <v>16600</v>
       </c>
       <c r="M75" s="22"/>
+      <c r="N75" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="O75" s="16">
+        <v>272</v>
+      </c>
+      <c r="P75" s="17">
+        <f t="shared" si="51"/>
+        <v>1.0000000000000001E+272</v>
+      </c>
+      <c r="Q75" s="17" t="str">
+        <f t="shared" si="52"/>
+        <v>1E+272</v>
+      </c>
     </row>
     <row r="76" spans="5:26" x14ac:dyDescent="0.3">
       <c r="E76" s="16">
         <v>67</v>
       </c>
       <c r="F76" s="17" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v>1000고</v>
       </c>
       <c r="G76" s="17">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>1E+143</v>
       </c>
       <c r="H76" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="I76" s="16" t="str" cm="1">
@@ -13696,7 +14380,7 @@
         <v>고</v>
       </c>
       <c r="J76" s="16" t="str">
-        <f t="shared" si="53"/>
+        <f>VLOOKUP(I76,N:Q,4,FALSE)</f>
         <v>1E+140</v>
       </c>
       <c r="K76" s="22">
@@ -13712,15 +14396,15 @@
         <v>68</v>
       </c>
       <c r="F77" s="17" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v>1화</v>
       </c>
       <c r="G77" s="17">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>1E+144</v>
       </c>
       <c r="H77" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I77" s="16" t="str" cm="1">
@@ -13728,7 +14412,7 @@
         <v>화</v>
       </c>
       <c r="J77" s="16" t="str">
-        <f t="shared" si="53"/>
+        <f>VLOOKUP(I77,N:Q,4,FALSE)</f>
         <v>1E+144</v>
       </c>
       <c r="K77" s="22">
@@ -13744,15 +14428,15 @@
         <v>69</v>
       </c>
       <c r="F78" s="17" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v>10화</v>
       </c>
       <c r="G78" s="17">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>9.9999999999999999E+144</v>
       </c>
       <c r="H78" s="17">
-        <f t="shared" ref="H78:H188" si="55">H74</f>
+        <f t="shared" ref="H78:H200" si="54">H74</f>
         <v>10</v>
       </c>
       <c r="I78" s="16" t="str" cm="1">
@@ -13760,7 +14444,7 @@
         <v>화</v>
       </c>
       <c r="J78" s="16" t="str">
-        <f t="shared" si="53"/>
+        <f>VLOOKUP(I78,N:Q,4,FALSE)</f>
         <v>1E+144</v>
       </c>
       <c r="K78" s="22">
@@ -13776,15 +14460,15 @@
         <v>70</v>
       </c>
       <c r="F79" s="17" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v>100화</v>
       </c>
       <c r="G79" s="17">
+        <f t="shared" si="53"/>
+        <v>9.9999999999999993E+145</v>
+      </c>
+      <c r="H79" s="17">
         <f t="shared" si="54"/>
-        <v>9.9999999999999993E+145</v>
-      </c>
-      <c r="H79" s="17">
-        <f t="shared" si="55"/>
         <v>100</v>
       </c>
       <c r="I79" s="16" t="str" cm="1">
@@ -13792,7 +14476,7 @@
         <v>화</v>
       </c>
       <c r="J79" s="16" t="str">
-        <f t="shared" si="53"/>
+        <f>VLOOKUP(I79,N:Q,4,FALSE)</f>
         <v>1E+144</v>
       </c>
       <c r="K79" s="22">
@@ -13808,15 +14492,15 @@
         <v>71</v>
       </c>
       <c r="F80" s="17" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v>1000화</v>
       </c>
       <c r="G80" s="17">
+        <f t="shared" si="53"/>
+        <v>9.9999999999999998E+146</v>
+      </c>
+      <c r="H80" s="17">
         <f t="shared" si="54"/>
-        <v>9.9999999999999998E+146</v>
-      </c>
-      <c r="H80" s="17">
-        <f t="shared" si="55"/>
         <v>1000</v>
       </c>
       <c r="I80" s="16" t="str" cm="1">
@@ -13824,7 +14508,7 @@
         <v>화</v>
       </c>
       <c r="J80" s="16" t="str">
-        <f t="shared" si="53"/>
+        <f>VLOOKUP(I80,N:Q,4,FALSE)</f>
         <v>1E+144</v>
       </c>
       <c r="K80" s="22">
@@ -13840,15 +14524,15 @@
         <v>72</v>
       </c>
       <c r="F81" s="17" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v>1명</v>
       </c>
       <c r="G81" s="17">
+        <f t="shared" si="53"/>
+        <v>1E+148</v>
+      </c>
+      <c r="H81" s="17">
         <f t="shared" si="54"/>
-        <v>1E+148</v>
-      </c>
-      <c r="H81" s="17">
-        <f t="shared" si="55"/>
         <v>1</v>
       </c>
       <c r="I81" s="16" t="str" cm="1">
@@ -13856,7 +14540,7 @@
         <v>명</v>
       </c>
       <c r="J81" s="16" t="str">
-        <f t="shared" si="53"/>
+        <f>VLOOKUP(I81,N:Q,4,FALSE)</f>
         <v>1E+148</v>
       </c>
       <c r="K81" s="22">
@@ -13872,15 +14556,15 @@
         <v>73</v>
       </c>
       <c r="F82" s="17" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v>10명</v>
       </c>
       <c r="G82" s="17">
+        <f t="shared" si="53"/>
+        <v>1E+149</v>
+      </c>
+      <c r="H82" s="17">
         <f t="shared" si="54"/>
-        <v>1E+149</v>
-      </c>
-      <c r="H82" s="17">
-        <f t="shared" si="55"/>
         <v>10</v>
       </c>
       <c r="I82" s="16" t="str" cm="1">
@@ -13888,7 +14572,7 @@
         <v>명</v>
       </c>
       <c r="J82" s="16" t="str">
-        <f t="shared" si="53"/>
+        <f>VLOOKUP(I82,N:Q,4,FALSE)</f>
         <v>1E+148</v>
       </c>
       <c r="K82" s="22">
@@ -13904,15 +14588,15 @@
         <v>74</v>
       </c>
       <c r="F83" s="17" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v>100명</v>
       </c>
       <c r="G83" s="17">
+        <f t="shared" si="53"/>
+        <v>9.9999999999999998E+149</v>
+      </c>
+      <c r="H83" s="17">
         <f t="shared" si="54"/>
-        <v>9.9999999999999998E+149</v>
-      </c>
-      <c r="H83" s="17">
-        <f t="shared" si="55"/>
         <v>100</v>
       </c>
       <c r="I83" s="16" t="str" cm="1">
@@ -13920,7 +14604,7 @@
         <v>명</v>
       </c>
       <c r="J83" s="16" t="str">
-        <f t="shared" si="53"/>
+        <f>VLOOKUP(I83,N:Q,4,FALSE)</f>
         <v>1E+148</v>
       </c>
       <c r="K83" s="22">
@@ -13936,15 +14620,15 @@
         <v>75</v>
       </c>
       <c r="F84" s="17" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v>1000명</v>
       </c>
       <c r="G84" s="17">
+        <f t="shared" si="53"/>
+        <v>1E+151</v>
+      </c>
+      <c r="H84" s="17">
         <f t="shared" si="54"/>
-        <v>1E+151</v>
-      </c>
-      <c r="H84" s="17">
-        <f t="shared" si="55"/>
         <v>1000</v>
       </c>
       <c r="I84" s="16" t="str" cm="1">
@@ -13952,7 +14636,7 @@
         <v>명</v>
       </c>
       <c r="J84" s="16" t="str">
-        <f t="shared" si="53"/>
+        <f>VLOOKUP(I84,N:Q,4,FALSE)</f>
         <v>1E+148</v>
       </c>
       <c r="K84" s="22">
@@ -13968,15 +14652,15 @@
         <v>76</v>
       </c>
       <c r="F85" s="17" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v>1월</v>
       </c>
       <c r="G85" s="17">
+        <f t="shared" si="53"/>
+        <v>1E+152</v>
+      </c>
+      <c r="H85" s="17">
         <f t="shared" si="54"/>
-        <v>1E+152</v>
-      </c>
-      <c r="H85" s="17">
-        <f t="shared" si="55"/>
         <v>1</v>
       </c>
       <c r="I85" s="16" t="str" cm="1">
@@ -13984,7 +14668,7 @@
         <v>월</v>
       </c>
       <c r="J85" s="16" t="str">
-        <f t="shared" si="53"/>
+        <f>VLOOKUP(I85,N:Q,4,FALSE)</f>
         <v>1E+152</v>
       </c>
       <c r="K85" s="22">
@@ -14000,15 +14684,15 @@
         <v>77</v>
       </c>
       <c r="F86" s="17" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v>10월</v>
       </c>
       <c r="G86" s="17">
+        <f t="shared" si="53"/>
+        <v>1E+153</v>
+      </c>
+      <c r="H86" s="17">
         <f t="shared" si="54"/>
-        <v>1E+153</v>
-      </c>
-      <c r="H86" s="17">
-        <f t="shared" si="55"/>
         <v>10</v>
       </c>
       <c r="I86" s="16" t="str" cm="1">
@@ -14016,7 +14700,7 @@
         <v>월</v>
       </c>
       <c r="J86" s="16" t="str">
-        <f t="shared" si="53"/>
+        <f>VLOOKUP(I86,N:Q,4,FALSE)</f>
         <v>1E+152</v>
       </c>
       <c r="K86" s="22">
@@ -14032,15 +14716,15 @@
         <v>78</v>
       </c>
       <c r="F87" s="17" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v>100월</v>
       </c>
       <c r="G87" s="17">
+        <f t="shared" si="53"/>
+        <v>1E+154</v>
+      </c>
+      <c r="H87" s="17">
         <f t="shared" si="54"/>
-        <v>1E+154</v>
-      </c>
-      <c r="H87" s="17">
-        <f t="shared" si="55"/>
         <v>100</v>
       </c>
       <c r="I87" s="16" t="str" cm="1">
@@ -14048,7 +14732,7 @@
         <v>월</v>
       </c>
       <c r="J87" s="16" t="str">
-        <f t="shared" si="53"/>
+        <f>VLOOKUP(I87,N:Q,4,FALSE)</f>
         <v>1E+152</v>
       </c>
       <c r="K87" s="22">
@@ -14064,15 +14748,15 @@
         <v>79</v>
       </c>
       <c r="F88" s="17" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v>1000월</v>
       </c>
       <c r="G88" s="17">
+        <f t="shared" si="53"/>
+        <v>1E+155</v>
+      </c>
+      <c r="H88" s="17">
         <f t="shared" si="54"/>
-        <v>1E+155</v>
-      </c>
-      <c r="H88" s="17">
-        <f t="shared" si="55"/>
         <v>1000</v>
       </c>
       <c r="I88" s="16" t="str" cm="1">
@@ -14080,7 +14764,7 @@
         <v>월</v>
       </c>
       <c r="J88" s="16" t="str">
-        <f t="shared" si="53"/>
+        <f>VLOOKUP(I88,N:Q,4,FALSE)</f>
         <v>1E+152</v>
       </c>
       <c r="K88" s="22">
@@ -14096,15 +14780,15 @@
         <v>80</v>
       </c>
       <c r="F89" s="17" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v>1후</v>
       </c>
       <c r="G89" s="17">
+        <f t="shared" si="53"/>
+        <v>9.9999999999999998E+155</v>
+      </c>
+      <c r="H89" s="17">
         <f t="shared" si="54"/>
-        <v>9.9999999999999998E+155</v>
-      </c>
-      <c r="H89" s="17">
-        <f t="shared" si="55"/>
         <v>1</v>
       </c>
       <c r="I89" s="16" t="str" cm="1">
@@ -14112,7 +14796,7 @@
         <v>후</v>
       </c>
       <c r="J89" s="16" t="str">
-        <f t="shared" si="53"/>
+        <f>VLOOKUP(I89,N:Q,4,FALSE)</f>
         <v>1E+156</v>
       </c>
       <c r="K89" s="22">
@@ -14128,15 +14812,15 @@
         <v>81</v>
       </c>
       <c r="F90" s="17" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v>10후</v>
       </c>
       <c r="G90" s="17">
+        <f t="shared" si="53"/>
+        <v>9.9999999999999998E+156</v>
+      </c>
+      <c r="H90" s="17">
         <f t="shared" si="54"/>
-        <v>9.9999999999999998E+156</v>
-      </c>
-      <c r="H90" s="17">
-        <f t="shared" si="55"/>
         <v>10</v>
       </c>
       <c r="I90" s="16" t="str" cm="1">
@@ -14144,7 +14828,7 @@
         <v>후</v>
       </c>
       <c r="J90" s="16" t="str">
-        <f t="shared" si="53"/>
+        <f>VLOOKUP(I90,N:Q,4,FALSE)</f>
         <v>1E+156</v>
       </c>
       <c r="K90" s="22">
@@ -14160,15 +14844,15 @@
         <v>82</v>
       </c>
       <c r="F91" s="17" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v>100후</v>
       </c>
       <c r="G91" s="17">
+        <f t="shared" si="53"/>
+        <v>9.9999999999999995E+157</v>
+      </c>
+      <c r="H91" s="17">
         <f t="shared" si="54"/>
-        <v>9.9999999999999995E+157</v>
-      </c>
-      <c r="H91" s="17">
-        <f t="shared" si="55"/>
         <v>100</v>
       </c>
       <c r="I91" s="16" t="str" cm="1">
@@ -14176,7 +14860,7 @@
         <v>후</v>
       </c>
       <c r="J91" s="16" t="str">
-        <f t="shared" si="53"/>
+        <f>VLOOKUP(I91,N:Q,4,FALSE)</f>
         <v>1E+156</v>
       </c>
       <c r="K91" s="22">
@@ -14192,15 +14876,15 @@
         <v>83</v>
       </c>
       <c r="F92" s="17" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v>1000후</v>
       </c>
       <c r="G92" s="17">
+        <f t="shared" si="53"/>
+        <v>9.9999999999999993E+158</v>
+      </c>
+      <c r="H92" s="17">
         <f t="shared" si="54"/>
-        <v>9.9999999999999993E+158</v>
-      </c>
-      <c r="H92" s="17">
-        <f t="shared" si="55"/>
         <v>1000</v>
       </c>
       <c r="I92" s="16" t="str" cm="1">
@@ -14208,7 +14892,7 @@
         <v>후</v>
       </c>
       <c r="J92" s="16" t="str">
-        <f t="shared" si="53"/>
+        <f>VLOOKUP(I92,N:Q,4,FALSE)</f>
         <v>1E+156</v>
       </c>
       <c r="K92" s="22">
@@ -14224,15 +14908,15 @@
         <v>84</v>
       </c>
       <c r="F93" s="17" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v>1단</v>
       </c>
       <c r="G93" s="17">
+        <f t="shared" si="53"/>
+        <v>1E+160</v>
+      </c>
+      <c r="H93" s="17">
         <f t="shared" si="54"/>
-        <v>1E+160</v>
-      </c>
-      <c r="H93" s="17">
-        <f t="shared" si="55"/>
         <v>1</v>
       </c>
       <c r="I93" s="16" t="str" cm="1">
@@ -14240,7 +14924,7 @@
         <v>단</v>
       </c>
       <c r="J93" s="16" t="str">
-        <f t="shared" si="53"/>
+        <f>VLOOKUP(I93,N:Q,4,FALSE)</f>
         <v>1E+160</v>
       </c>
       <c r="K93" s="22">
@@ -14256,15 +14940,15 @@
         <v>85</v>
       </c>
       <c r="F94" s="17" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v>10단</v>
       </c>
       <c r="G94" s="17">
+        <f t="shared" si="53"/>
+        <v>1E+161</v>
+      </c>
+      <c r="H94" s="17">
         <f t="shared" si="54"/>
-        <v>1E+161</v>
-      </c>
-      <c r="H94" s="17">
-        <f t="shared" si="55"/>
         <v>10</v>
       </c>
       <c r="I94" s="16" t="str" cm="1">
@@ -14272,7 +14956,7 @@
         <v>단</v>
       </c>
       <c r="J94" s="16" t="str">
-        <f t="shared" si="53"/>
+        <f>VLOOKUP(I94,N:Q,4,FALSE)</f>
         <v>1E+160</v>
       </c>
       <c r="K94" s="22">
@@ -14288,15 +14972,15 @@
         <v>86</v>
       </c>
       <c r="F95" s="17" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v>100단</v>
       </c>
       <c r="G95" s="17">
+        <f t="shared" si="53"/>
+        <v>9.9999999999999994E+161</v>
+      </c>
+      <c r="H95" s="17">
         <f t="shared" si="54"/>
-        <v>9.9999999999999994E+161</v>
-      </c>
-      <c r="H95" s="17">
-        <f t="shared" si="55"/>
         <v>100</v>
       </c>
       <c r="I95" s="16" t="str" cm="1">
@@ -14304,7 +14988,7 @@
         <v>단</v>
       </c>
       <c r="J95" s="16" t="str">
-        <f t="shared" si="53"/>
+        <f>VLOOKUP(I95,N:Q,4,FALSE)</f>
         <v>1E+160</v>
       </c>
       <c r="K95" s="22">
@@ -14320,15 +15004,15 @@
         <v>87</v>
       </c>
       <c r="F96" s="17" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v>1000단</v>
       </c>
       <c r="G96" s="17">
+        <f t="shared" si="53"/>
+        <v>9.9999999999999994E+162</v>
+      </c>
+      <c r="H96" s="17">
         <f t="shared" si="54"/>
-        <v>9.9999999999999994E+162</v>
-      </c>
-      <c r="H96" s="17">
-        <f t="shared" si="55"/>
         <v>1000</v>
       </c>
       <c r="I96" s="16" t="str" cm="1">
@@ -14336,7 +15020,7 @@
         <v>단</v>
       </c>
       <c r="J96" s="16" t="str">
-        <f t="shared" si="53"/>
+        <f>VLOOKUP(I96,N:Q,4,FALSE)</f>
         <v>1E+160</v>
       </c>
       <c r="K96" s="22">
@@ -14352,15 +15036,15 @@
         <v>88</v>
       </c>
       <c r="F97" s="17" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v>1절</v>
       </c>
       <c r="G97" s="17">
+        <f t="shared" si="53"/>
+        <v>1E+164</v>
+      </c>
+      <c r="H97" s="17">
         <f t="shared" si="54"/>
-        <v>1E+164</v>
-      </c>
-      <c r="H97" s="17">
-        <f t="shared" si="55"/>
         <v>1</v>
       </c>
       <c r="I97" s="16" t="str" cm="1">
@@ -14368,7 +15052,7 @@
         <v>절</v>
       </c>
       <c r="J97" s="16" t="str">
-        <f t="shared" si="53"/>
+        <f>VLOOKUP(I97,N:Q,4,FALSE)</f>
         <v>1E+164</v>
       </c>
       <c r="K97" s="22">
@@ -14384,15 +15068,15 @@
         <v>89</v>
       </c>
       <c r="F98" s="17" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v>10절</v>
       </c>
       <c r="G98" s="17">
+        <f t="shared" si="53"/>
+        <v>1.0000000000000001E+165</v>
+      </c>
+      <c r="H98" s="17">
         <f t="shared" si="54"/>
-        <v>1.0000000000000001E+165</v>
-      </c>
-      <c r="H98" s="17">
-        <f t="shared" si="55"/>
         <v>10</v>
       </c>
       <c r="I98" s="16" t="str" cm="1">
@@ -14400,7 +15084,7 @@
         <v>절</v>
       </c>
       <c r="J98" s="16" t="str">
-        <f t="shared" si="53"/>
+        <f>VLOOKUP(I98,N:Q,4,FALSE)</f>
         <v>1E+164</v>
       </c>
       <c r="K98" s="22">
@@ -14416,15 +15100,15 @@
         <v>90</v>
       </c>
       <c r="F99" s="17" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v>100절</v>
       </c>
       <c r="G99" s="17">
+        <f t="shared" si="53"/>
+        <v>9.9999999999999994E+165</v>
+      </c>
+      <c r="H99" s="17">
         <f t="shared" si="54"/>
-        <v>9.9999999999999994E+165</v>
-      </c>
-      <c r="H99" s="17">
-        <f t="shared" si="55"/>
         <v>100</v>
       </c>
       <c r="I99" s="16" t="str" cm="1">
@@ -14432,7 +15116,7 @@
         <v>절</v>
       </c>
       <c r="J99" s="16" t="str">
-        <f t="shared" si="53"/>
+        <f>VLOOKUP(I99,N:Q,4,FALSE)</f>
         <v>1E+164</v>
       </c>
       <c r="K99" s="22">
@@ -14448,15 +15132,15 @@
         <v>91</v>
       </c>
       <c r="F100" s="17" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v>1000절</v>
       </c>
       <c r="G100" s="17">
+        <f t="shared" si="53"/>
+        <v>1E+167</v>
+      </c>
+      <c r="H100" s="17">
         <f t="shared" si="54"/>
-        <v>1E+167</v>
-      </c>
-      <c r="H100" s="17">
-        <f t="shared" si="55"/>
         <v>1000</v>
       </c>
       <c r="I100" s="16" t="str" cm="1">
@@ -14464,7 +15148,7 @@
         <v>절</v>
       </c>
       <c r="J100" s="16" t="str">
-        <f t="shared" si="53"/>
+        <f>VLOOKUP(I100,N:Q,4,FALSE)</f>
         <v>1E+164</v>
       </c>
       <c r="K100" s="22">
@@ -14480,15 +15164,15 @@
         <v>92</v>
       </c>
       <c r="F101" s="17" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v>1격</v>
       </c>
       <c r="G101" s="17">
+        <f t="shared" si="53"/>
+        <v>9.9999999999999993E+167</v>
+      </c>
+      <c r="H101" s="17">
         <f t="shared" si="54"/>
-        <v>9.9999999999999993E+167</v>
-      </c>
-      <c r="H101" s="17">
-        <f t="shared" si="55"/>
         <v>1</v>
       </c>
       <c r="I101" s="16" t="str" cm="1">
@@ -14496,7 +15180,7 @@
         <v>격</v>
       </c>
       <c r="J101" s="16" t="str">
-        <f t="shared" si="53"/>
+        <f>VLOOKUP(I101,N:Q,4,FALSE)</f>
         <v>1E+168</v>
       </c>
       <c r="K101" s="22">
@@ -14513,15 +15197,15 @@
         <v>93</v>
       </c>
       <c r="F102" s="17" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v>10격</v>
       </c>
       <c r="G102" s="17">
+        <f t="shared" si="53"/>
+        <v>9.9999999999999993E+168</v>
+      </c>
+      <c r="H102" s="17">
         <f t="shared" si="54"/>
-        <v>9.9999999999999993E+168</v>
-      </c>
-      <c r="H102" s="17">
-        <f t="shared" si="55"/>
         <v>10</v>
       </c>
       <c r="I102" s="16" t="str" cm="1">
@@ -14529,11 +15213,11 @@
         <v>격</v>
       </c>
       <c r="J102" s="16" t="str">
-        <f t="shared" si="53"/>
+        <f>VLOOKUP(I102,N:Q,4,FALSE)</f>
         <v>1E+168</v>
       </c>
       <c r="K102" s="22">
-        <f t="shared" ref="K102:K188" si="56">K98+1000</f>
+        <f t="shared" ref="K102:K200" si="55">K98+1000</f>
         <v>24000</v>
       </c>
       <c r="L102" s="22">
@@ -14546,15 +15230,15 @@
         <v>94</v>
       </c>
       <c r="F103" s="17" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v>100격</v>
       </c>
       <c r="G103" s="17">
+        <f t="shared" si="53"/>
+        <v>9.999999999999999E+169</v>
+      </c>
+      <c r="H103" s="17">
         <f t="shared" si="54"/>
-        <v>9.999999999999999E+169</v>
-      </c>
-      <c r="H103" s="17">
-        <f t="shared" si="55"/>
         <v>100</v>
       </c>
       <c r="I103" s="16" t="str" cm="1">
@@ -14562,11 +15246,11 @@
         <v>격</v>
       </c>
       <c r="J103" s="16" t="str">
-        <f t="shared" si="53"/>
+        <f>VLOOKUP(I103,N:Q,4,FALSE)</f>
         <v>1E+168</v>
       </c>
       <c r="K103" s="22">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>24000</v>
       </c>
       <c r="L103" s="22">
@@ -14579,15 +15263,15 @@
         <v>95</v>
       </c>
       <c r="F104" s="17" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v>1000격</v>
       </c>
       <c r="G104" s="17">
+        <f t="shared" si="53"/>
+        <v>9.9999999999999995E+170</v>
+      </c>
+      <c r="H104" s="17">
         <f t="shared" si="54"/>
-        <v>9.9999999999999995E+170</v>
-      </c>
-      <c r="H104" s="17">
-        <f t="shared" si="55"/>
         <v>1000</v>
       </c>
       <c r="I104" s="16" t="str" cm="1">
@@ -14595,11 +15279,11 @@
         <v>격</v>
       </c>
       <c r="J104" s="16" t="str">
-        <f t="shared" si="53"/>
+        <f>VLOOKUP(I104,N:Q,4,FALSE)</f>
         <v>1E+168</v>
       </c>
       <c r="K104" s="22">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>24000</v>
       </c>
       <c r="L104" s="22">
@@ -14612,15 +15296,15 @@
         <v>96</v>
       </c>
       <c r="F105" s="17" t="str">
-        <f t="shared" ref="F105:F112" si="57">H105&amp;I105</f>
+        <f t="shared" ref="F105:F112" si="56">H105&amp;I105</f>
         <v>1창</v>
       </c>
       <c r="G105" s="17">
-        <f t="shared" ref="G105:G112" si="58">H105*J105</f>
+        <f t="shared" ref="G105:G112" si="57">H105*J105</f>
         <v>1.0000000000000001E+172</v>
       </c>
       <c r="H105" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>1</v>
       </c>
       <c r="I105" s="16" t="str" cm="1">
@@ -14628,11 +15312,11 @@
         <v>창</v>
       </c>
       <c r="J105" s="16" t="str">
-        <f t="shared" ref="J105:J112" si="59">VLOOKUP(I105,N:Q,4,FALSE)</f>
+        <f>VLOOKUP(I105,N:Q,4,FALSE)</f>
         <v>1E+172</v>
       </c>
       <c r="K105" s="22">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>25000</v>
       </c>
       <c r="L105" s="22">
@@ -14644,15 +15328,15 @@
         <v>97</v>
       </c>
       <c r="F106" s="17" t="str">
+        <f t="shared" si="56"/>
+        <v>10창</v>
+      </c>
+      <c r="G106" s="17">
         <f t="shared" si="57"/>
-        <v>10창</v>
-      </c>
-      <c r="G106" s="17">
-        <f t="shared" si="58"/>
         <v>1E+173</v>
       </c>
       <c r="H106" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>10</v>
       </c>
       <c r="I106" s="16" t="str" cm="1">
@@ -14660,11 +15344,11 @@
         <v>창</v>
       </c>
       <c r="J106" s="16" t="str">
-        <f t="shared" si="59"/>
+        <f>VLOOKUP(I106,N:Q,4,FALSE)</f>
         <v>1E+172</v>
       </c>
       <c r="K106" s="22">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>25000</v>
       </c>
       <c r="L106" s="22">
@@ -14676,15 +15360,15 @@
         <v>98</v>
       </c>
       <c r="F107" s="17" t="str">
+        <f t="shared" si="56"/>
+        <v>100창</v>
+      </c>
+      <c r="G107" s="17">
         <f t="shared" si="57"/>
-        <v>100창</v>
-      </c>
-      <c r="G107" s="17">
-        <f t="shared" si="58"/>
         <v>1.0000000000000001E+174</v>
       </c>
       <c r="H107" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>100</v>
       </c>
       <c r="I107" s="16" t="str" cm="1">
@@ -14692,11 +15376,11 @@
         <v>창</v>
       </c>
       <c r="J107" s="16" t="str">
-        <f t="shared" si="59"/>
+        <f>VLOOKUP(I107,N:Q,4,FALSE)</f>
         <v>1E+172</v>
       </c>
       <c r="K107" s="22">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>25000</v>
       </c>
       <c r="L107" s="22">
@@ -14708,15 +15392,15 @@
         <v>99</v>
       </c>
       <c r="F108" s="17" t="str">
+        <f t="shared" si="56"/>
+        <v>1000창</v>
+      </c>
+      <c r="G108" s="17">
         <f t="shared" si="57"/>
-        <v>1000창</v>
-      </c>
-      <c r="G108" s="17">
-        <f t="shared" si="58"/>
         <v>1.0000000000000001E+175</v>
       </c>
       <c r="H108" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>1000</v>
       </c>
       <c r="I108" s="16" t="str" cm="1">
@@ -14724,11 +15408,11 @@
         <v>창</v>
       </c>
       <c r="J108" s="16" t="str">
-        <f t="shared" si="59"/>
+        <f>VLOOKUP(I108,N:Q,4,FALSE)</f>
         <v>1E+172</v>
       </c>
       <c r="K108" s="22">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>25000</v>
       </c>
       <c r="L108" s="22">
@@ -14740,15 +15424,15 @@
         <v>100</v>
       </c>
       <c r="F109" s="17" t="str">
+        <f t="shared" si="56"/>
+        <v>1공</v>
+      </c>
+      <c r="G109" s="17">
         <f t="shared" si="57"/>
-        <v>1공</v>
-      </c>
-      <c r="G109" s="17">
-        <f t="shared" si="58"/>
         <v>1E+176</v>
       </c>
       <c r="H109" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>1</v>
       </c>
       <c r="I109" s="16" t="str" cm="1">
@@ -14756,11 +15440,11 @@
         <v>공</v>
       </c>
       <c r="J109" s="16" t="str">
-        <f t="shared" si="59"/>
+        <f>VLOOKUP(I109,N:Q,4,FALSE)</f>
         <v>1E+176</v>
       </c>
       <c r="K109" s="22">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>26000</v>
       </c>
       <c r="L109" s="22">
@@ -14772,15 +15456,15 @@
         <v>101</v>
       </c>
       <c r="F110" s="17" t="str">
+        <f t="shared" si="56"/>
+        <v>10공</v>
+      </c>
+      <c r="G110" s="17">
         <f t="shared" si="57"/>
-        <v>10공</v>
-      </c>
-      <c r="G110" s="17">
-        <f t="shared" si="58"/>
         <v>1E+177</v>
       </c>
       <c r="H110" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>10</v>
       </c>
       <c r="I110" s="16" t="str" cm="1">
@@ -14788,11 +15472,11 @@
         <v>공</v>
       </c>
       <c r="J110" s="16" t="str">
-        <f t="shared" si="59"/>
+        <f>VLOOKUP(I110,N:Q,4,FALSE)</f>
         <v>1E+176</v>
       </c>
       <c r="K110" s="22">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>26000</v>
       </c>
       <c r="L110" s="22">
@@ -14804,15 +15488,15 @@
         <v>102</v>
       </c>
       <c r="F111" s="17" t="str">
+        <f t="shared" si="56"/>
+        <v>100공</v>
+      </c>
+      <c r="G111" s="17">
         <f t="shared" si="57"/>
-        <v>100공</v>
-      </c>
-      <c r="G111" s="17">
-        <f t="shared" si="58"/>
         <v>1.0000000000000001E+178</v>
       </c>
       <c r="H111" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>100</v>
       </c>
       <c r="I111" s="16" t="str" cm="1">
@@ -14820,11 +15504,11 @@
         <v>공</v>
       </c>
       <c r="J111" s="16" t="str">
-        <f t="shared" si="59"/>
+        <f>VLOOKUP(I111,N:Q,4,FALSE)</f>
         <v>1E+176</v>
       </c>
       <c r="K111" s="22">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>26000</v>
       </c>
       <c r="L111" s="22">
@@ -14836,15 +15520,15 @@
         <v>103</v>
       </c>
       <c r="F112" s="17" t="str">
+        <f t="shared" si="56"/>
+        <v>1000공</v>
+      </c>
+      <c r="G112" s="17">
         <f t="shared" si="57"/>
-        <v>1000공</v>
-      </c>
-      <c r="G112" s="17">
-        <f t="shared" si="58"/>
         <v>9.9999999999999998E+178</v>
       </c>
       <c r="H112" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>1000</v>
       </c>
       <c r="I112" s="16" t="str" cm="1">
@@ -14852,11 +15536,11 @@
         <v>공</v>
       </c>
       <c r="J112" s="16" t="str">
-        <f t="shared" si="59"/>
+        <f>VLOOKUP(I112,N:Q,4,FALSE)</f>
         <v>1E+176</v>
       </c>
       <c r="K112" s="22">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>26000</v>
       </c>
       <c r="L112" s="22">
@@ -14868,15 +15552,15 @@
         <v>104</v>
       </c>
       <c r="F113" s="17" t="str">
-        <f t="shared" ref="F113:F120" si="60">H113&amp;I113</f>
+        <f t="shared" ref="F113:F120" si="58">H113&amp;I113</f>
         <v>1채</v>
       </c>
       <c r="G113" s="17">
-        <f t="shared" ref="G113:G120" si="61">H113*J113</f>
+        <f t="shared" ref="G113:G120" si="59">H113*J113</f>
         <v>1E+180</v>
       </c>
       <c r="H113" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>1</v>
       </c>
       <c r="I113" s="16" t="str" cm="1">
@@ -14884,11 +15568,11 @@
         <v>채</v>
       </c>
       <c r="J113" s="16" t="str">
-        <f t="shared" ref="J113:J120" si="62">VLOOKUP(I113,N:Q,4,FALSE)</f>
+        <f>VLOOKUP(I113,N:Q,4,FALSE)</f>
         <v>1E+180</v>
       </c>
       <c r="K113" s="22">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>27000</v>
       </c>
       <c r="L113" s="22">
@@ -14900,15 +15584,15 @@
         <v>105</v>
       </c>
       <c r="F114" s="17" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="58"/>
         <v>10채</v>
       </c>
       <c r="G114" s="17">
-        <f t="shared" si="61"/>
+        <f t="shared" si="59"/>
         <v>9.9999999999999992E+180</v>
       </c>
       <c r="H114" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>10</v>
       </c>
       <c r="I114" s="16" t="str" cm="1">
@@ -14916,11 +15600,11 @@
         <v>채</v>
       </c>
       <c r="J114" s="16" t="str">
-        <f t="shared" si="62"/>
+        <f>VLOOKUP(I114,N:Q,4,FALSE)</f>
         <v>1E+180</v>
       </c>
       <c r="K114" s="22">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>27000</v>
       </c>
       <c r="L114" s="22">
@@ -14932,15 +15616,15 @@
         <v>106</v>
       </c>
       <c r="F115" s="17" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="58"/>
         <v>100채</v>
       </c>
       <c r="G115" s="17">
-        <f t="shared" si="61"/>
+        <f t="shared" si="59"/>
         <v>1.0000000000000001E+182</v>
       </c>
       <c r="H115" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>100</v>
       </c>
       <c r="I115" s="16" t="str" cm="1">
@@ -14948,11 +15632,11 @@
         <v>채</v>
       </c>
       <c r="J115" s="16" t="str">
-        <f t="shared" si="62"/>
+        <f>VLOOKUP(I115,N:Q,4,FALSE)</f>
         <v>1E+180</v>
       </c>
       <c r="K115" s="22">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>27000</v>
       </c>
       <c r="L115" s="22">
@@ -14964,15 +15648,15 @@
         <v>107</v>
       </c>
       <c r="F116" s="17" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="58"/>
         <v>1000채</v>
       </c>
       <c r="G116" s="17">
-        <f t="shared" si="61"/>
+        <f t="shared" si="59"/>
         <v>1.0000000000000001E+183</v>
       </c>
       <c r="H116" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>1000</v>
       </c>
       <c r="I116" s="16" t="str" cm="1">
@@ -14980,11 +15664,11 @@
         <v>채</v>
       </c>
       <c r="J116" s="16" t="str">
-        <f t="shared" si="62"/>
+        <f>VLOOKUP(I116,N:Q,4,FALSE)</f>
         <v>1E+180</v>
       </c>
       <c r="K116" s="22">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>27000</v>
       </c>
       <c r="L116" s="22">
@@ -14996,15 +15680,15 @@
         <v>108</v>
       </c>
       <c r="F117" s="17" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="58"/>
         <v>1피</v>
       </c>
       <c r="G117" s="17">
-        <f t="shared" si="61"/>
+        <f t="shared" si="59"/>
         <v>1E+184</v>
       </c>
       <c r="H117" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>1</v>
       </c>
       <c r="I117" s="16" t="str" cm="1">
@@ -15012,11 +15696,11 @@
         <v>피</v>
       </c>
       <c r="J117" s="16" t="str">
-        <f t="shared" si="62"/>
+        <f>VLOOKUP(I117,N:Q,4,FALSE)</f>
         <v>1E+184</v>
       </c>
       <c r="K117" s="22">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>28000</v>
       </c>
       <c r="L117" s="22">
@@ -15028,15 +15712,15 @@
         <v>109</v>
       </c>
       <c r="F118" s="17" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="58"/>
         <v>10피</v>
       </c>
       <c r="G118" s="17">
-        <f t="shared" si="61"/>
+        <f t="shared" si="59"/>
         <v>9.9999999999999998E+184</v>
       </c>
       <c r="H118" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>10</v>
       </c>
       <c r="I118" s="16" t="str" cm="1">
@@ -15044,11 +15728,11 @@
         <v>피</v>
       </c>
       <c r="J118" s="16" t="str">
-        <f t="shared" si="62"/>
+        <f>VLOOKUP(I118,N:Q,4,FALSE)</f>
         <v>1E+184</v>
       </c>
       <c r="K118" s="22">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>28000</v>
       </c>
       <c r="L118" s="22">
@@ -15060,15 +15744,15 @@
         <v>110</v>
       </c>
       <c r="F119" s="17" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="58"/>
         <v>100피</v>
       </c>
       <c r="G119" s="17">
-        <f t="shared" si="61"/>
+        <f t="shared" si="59"/>
         <v>9.9999999999999998E+185</v>
       </c>
       <c r="H119" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>100</v>
       </c>
       <c r="I119" s="16" t="str" cm="1">
@@ -15076,11 +15760,11 @@
         <v>피</v>
       </c>
       <c r="J119" s="16" t="str">
-        <f t="shared" si="62"/>
+        <f>VLOOKUP(I119,N:Q,4,FALSE)</f>
         <v>1E+184</v>
       </c>
       <c r="K119" s="22">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>28000</v>
       </c>
       <c r="L119" s="22">
@@ -15092,15 +15776,15 @@
         <v>111</v>
       </c>
       <c r="F120" s="17" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="58"/>
         <v>1000피</v>
       </c>
       <c r="G120" s="17">
-        <f t="shared" si="61"/>
+        <f t="shared" si="59"/>
         <v>1.0000000000000001E+187</v>
       </c>
       <c r="H120" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>1000</v>
       </c>
       <c r="I120" s="16" t="str" cm="1">
@@ -15108,11 +15792,11 @@
         <v>피</v>
       </c>
       <c r="J120" s="16" t="str">
-        <f t="shared" si="62"/>
+        <f>VLOOKUP(I120,N:Q,4,FALSE)</f>
         <v>1E+184</v>
       </c>
       <c r="K120" s="22">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>28000</v>
       </c>
       <c r="L120" s="22">
@@ -15124,15 +15808,15 @@
         <v>112</v>
       </c>
       <c r="F121" s="17" t="str">
-        <f t="shared" ref="F121:F124" si="63">H121&amp;I121</f>
+        <f t="shared" ref="F121:F124" si="60">H121&amp;I121</f>
         <v>1동</v>
       </c>
       <c r="G121" s="17">
-        <f t="shared" ref="G121:G124" si="64">H121*J121</f>
+        <f t="shared" ref="G121:G124" si="61">H121*J121</f>
         <v>1E+188</v>
       </c>
       <c r="H121" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>1</v>
       </c>
       <c r="I121" s="16" t="str" cm="1">
@@ -15140,11 +15824,11 @@
         <v>동</v>
       </c>
       <c r="J121" s="16" t="str">
-        <f t="shared" ref="J121:J124" si="65">VLOOKUP(I121,N:Q,4,FALSE)</f>
+        <f>VLOOKUP(I121,N:Q,4,FALSE)</f>
         <v>1E+188</v>
       </c>
       <c r="K121" s="22">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>29000</v>
       </c>
       <c r="L121" s="22">
@@ -15156,15 +15840,15 @@
         <v>113</v>
       </c>
       <c r="F122" s="17" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="60"/>
         <v>10동</v>
       </c>
       <c r="G122" s="17">
-        <f t="shared" si="64"/>
+        <f t="shared" si="61"/>
         <v>1E+189</v>
       </c>
       <c r="H122" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>10</v>
       </c>
       <c r="I122" s="16" t="str" cm="1">
@@ -15172,11 +15856,11 @@
         <v>동</v>
       </c>
       <c r="J122" s="16" t="str">
-        <f t="shared" si="65"/>
+        <f>VLOOKUP(I122,N:Q,4,FALSE)</f>
         <v>1E+188</v>
       </c>
       <c r="K122" s="22">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>29000</v>
       </c>
       <c r="L122" s="22">
@@ -15188,15 +15872,15 @@
         <v>114</v>
       </c>
       <c r="F123" s="17" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="60"/>
         <v>100동</v>
       </c>
       <c r="G123" s="17">
-        <f t="shared" si="64"/>
+        <f t="shared" si="61"/>
         <v>1.0000000000000001E+190</v>
       </c>
       <c r="H123" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>100</v>
       </c>
       <c r="I123" s="16" t="str" cm="1">
@@ -15204,11 +15888,11 @@
         <v>동</v>
       </c>
       <c r="J123" s="16" t="str">
-        <f t="shared" si="65"/>
+        <f>VLOOKUP(I123,N:Q,4,FALSE)</f>
         <v>1E+188</v>
       </c>
       <c r="K123" s="22">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>29000</v>
       </c>
       <c r="L123" s="22">
@@ -15220,15 +15904,15 @@
         <v>115</v>
       </c>
       <c r="F124" s="17" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="60"/>
         <v>1000동</v>
       </c>
       <c r="G124" s="17">
-        <f t="shared" si="64"/>
+        <f t="shared" si="61"/>
         <v>1.0000000000000001E+191</v>
       </c>
       <c r="H124" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>1000</v>
       </c>
       <c r="I124" s="16" t="str" cm="1">
@@ -15236,11 +15920,11 @@
         <v>동</v>
       </c>
       <c r="J124" s="16" t="str">
-        <f t="shared" si="65"/>
+        <f>VLOOKUP(I124,N:Q,4,FALSE)</f>
         <v>1E+188</v>
       </c>
       <c r="K124" s="22">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>29000</v>
       </c>
       <c r="L124" s="22">
@@ -15252,15 +15936,15 @@
         <v>116</v>
       </c>
       <c r="F125" s="17" t="str">
-        <f t="shared" ref="F125:F128" si="66">H125&amp;I125</f>
+        <f t="shared" ref="F125:F128" si="62">H125&amp;I125</f>
         <v>1멸</v>
       </c>
       <c r="G125" s="17">
-        <f t="shared" ref="G125:G128" si="67">H125*J125</f>
+        <f t="shared" ref="G125:G128" si="63">H125*J125</f>
         <v>1E+192</v>
       </c>
       <c r="H125" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>1</v>
       </c>
       <c r="I125" s="16" t="str" cm="1">
@@ -15268,11 +15952,11 @@
         <v>멸</v>
       </c>
       <c r="J125" s="16" t="str">
-        <f t="shared" ref="J125:J128" si="68">VLOOKUP(I125,N:Q,4,FALSE)</f>
+        <f>VLOOKUP(I125,N:Q,4,FALSE)</f>
         <v>1E+192</v>
       </c>
       <c r="K125" s="22">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>30000</v>
       </c>
       <c r="L125" s="22">
@@ -15284,15 +15968,15 @@
         <v>117</v>
       </c>
       <c r="F126" s="17" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="62"/>
         <v>10멸</v>
       </c>
       <c r="G126" s="17">
-        <f t="shared" si="67"/>
+        <f t="shared" si="63"/>
         <v>1.0000000000000001E+193</v>
       </c>
       <c r="H126" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>10</v>
       </c>
       <c r="I126" s="16" t="str" cm="1">
@@ -15300,11 +15984,11 @@
         <v>멸</v>
       </c>
       <c r="J126" s="16" t="str">
-        <f t="shared" si="68"/>
+        <f>VLOOKUP(I126,N:Q,4,FALSE)</f>
         <v>1E+192</v>
       </c>
       <c r="K126" s="22">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>30000</v>
       </c>
       <c r="L126" s="22">
@@ -15316,15 +16000,15 @@
         <v>118</v>
       </c>
       <c r="F127" s="17" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="62"/>
         <v>100멸</v>
       </c>
       <c r="G127" s="17">
-        <f t="shared" si="67"/>
+        <f t="shared" si="63"/>
         <v>1.0000000000000001E+194</v>
       </c>
       <c r="H127" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>100</v>
       </c>
       <c r="I127" s="16" t="str" cm="1">
@@ -15332,11 +16016,11 @@
         <v>멸</v>
       </c>
       <c r="J127" s="16" t="str">
-        <f t="shared" si="68"/>
+        <f>VLOOKUP(I127,N:Q,4,FALSE)</f>
         <v>1E+192</v>
       </c>
       <c r="K127" s="22">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>30000</v>
       </c>
       <c r="L127" s="22">
@@ -15348,15 +16032,15 @@
         <v>119</v>
       </c>
       <c r="F128" s="17" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="62"/>
         <v>1000멸</v>
       </c>
       <c r="G128" s="17">
-        <f t="shared" si="67"/>
+        <f t="shared" si="63"/>
         <v>9.9999999999999998E+194</v>
       </c>
       <c r="H128" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>1000</v>
       </c>
       <c r="I128" s="16" t="str" cm="1">
@@ -15364,11 +16048,11 @@
         <v>멸</v>
       </c>
       <c r="J128" s="16" t="str">
-        <f t="shared" si="68"/>
+        <f>VLOOKUP(I128,N:Q,4,FALSE)</f>
         <v>1E+192</v>
       </c>
       <c r="K128" s="22">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>30000</v>
       </c>
       <c r="L128" s="22">
@@ -15380,15 +16064,15 @@
         <v>120</v>
       </c>
       <c r="F129" s="17" t="str">
-        <f t="shared" ref="F129:F136" si="69">H129&amp;I129</f>
+        <f t="shared" ref="F129:F136" si="64">H129&amp;I129</f>
         <v>1향</v>
       </c>
       <c r="G129" s="17">
-        <f t="shared" ref="G129:G136" si="70">H129*J129</f>
+        <f t="shared" ref="G129:G136" si="65">H129*J129</f>
         <v>9.9999999999999995E+195</v>
       </c>
       <c r="H129" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>1</v>
       </c>
       <c r="I129" s="16" t="str" cm="1">
@@ -15396,11 +16080,11 @@
         <v>향</v>
       </c>
       <c r="J129" s="16" t="str">
-        <f t="shared" ref="J129:J136" si="71">VLOOKUP(I129,N:Q,4,FALSE)</f>
+        <f>VLOOKUP(I129,N:Q,4,FALSE)</f>
         <v>1E+196</v>
       </c>
       <c r="K129" s="22">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>31000</v>
       </c>
       <c r="L129" s="22">
@@ -15412,15 +16096,15 @@
         <v>121</v>
       </c>
       <c r="F130" s="17" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="64"/>
         <v>10향</v>
       </c>
       <c r="G130" s="17">
-        <f t="shared" si="70"/>
+        <f t="shared" si="65"/>
         <v>9.9999999999999995E+196</v>
       </c>
       <c r="H130" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>10</v>
       </c>
       <c r="I130" s="16" t="str" cm="1">
@@ -15428,11 +16112,11 @@
         <v>향</v>
       </c>
       <c r="J130" s="16" t="str">
-        <f t="shared" si="71"/>
+        <f>VLOOKUP(I130,N:Q,4,FALSE)</f>
         <v>1E+196</v>
       </c>
       <c r="K130" s="22">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>31000</v>
       </c>
       <c r="L130" s="22">
@@ -15444,15 +16128,15 @@
         <v>122</v>
       </c>
       <c r="F131" s="17" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="64"/>
         <v>100향</v>
       </c>
       <c r="G131" s="17">
-        <f t="shared" si="70"/>
+        <f t="shared" si="65"/>
         <v>9.9999999999999988E+197</v>
       </c>
       <c r="H131" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>100</v>
       </c>
       <c r="I131" s="16" t="str" cm="1">
@@ -15460,11 +16144,11 @@
         <v>향</v>
       </c>
       <c r="J131" s="16" t="str">
-        <f t="shared" si="71"/>
+        <f>VLOOKUP(I131,N:Q,4,FALSE)</f>
         <v>1E+196</v>
       </c>
       <c r="K131" s="22">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>31000</v>
       </c>
       <c r="L131" s="22">
@@ -15476,15 +16160,15 @@
         <v>123</v>
       </c>
       <c r="F132" s="17" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="64"/>
         <v>1000향</v>
       </c>
       <c r="G132" s="17">
-        <f t="shared" si="70"/>
+        <f t="shared" si="65"/>
         <v>9.9999999999999988E+198</v>
       </c>
       <c r="H132" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>1000</v>
       </c>
       <c r="I132" s="16" t="str" cm="1">
@@ -15492,11 +16176,11 @@
         <v>향</v>
       </c>
       <c r="J132" s="16" t="str">
-        <f t="shared" si="71"/>
+        <f>VLOOKUP(I132,N:Q,4,FALSE)</f>
         <v>1E+196</v>
       </c>
       <c r="K132" s="22">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>31000</v>
       </c>
       <c r="L132" s="22">
@@ -15508,15 +16192,15 @@
         <v>124</v>
       </c>
       <c r="F133" s="17" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="64"/>
         <v>1증</v>
       </c>
       <c r="G133" s="17">
-        <f t="shared" si="70"/>
+        <f t="shared" si="65"/>
         <v>9.9999999999999997E+199</v>
       </c>
       <c r="H133" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>1</v>
       </c>
       <c r="I133" s="16" t="str" cm="1">
@@ -15524,11 +16208,11 @@
         <v>증</v>
       </c>
       <c r="J133" s="16" t="str">
-        <f t="shared" si="71"/>
+        <f>VLOOKUP(I133,N:Q,4,FALSE)</f>
         <v>1E+200</v>
       </c>
       <c r="K133" s="22">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>32000</v>
       </c>
       <c r="L133" s="22">
@@ -15540,15 +16224,15 @@
         <v>125</v>
       </c>
       <c r="F134" s="17" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="64"/>
         <v>10증</v>
       </c>
       <c r="G134" s="17">
-        <f t="shared" si="70"/>
+        <f t="shared" si="65"/>
         <v>9.999999999999999E+200</v>
       </c>
       <c r="H134" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>10</v>
       </c>
       <c r="I134" s="16" t="str" cm="1">
@@ -15556,11 +16240,11 @@
         <v>증</v>
       </c>
       <c r="J134" s="16" t="str">
-        <f t="shared" si="71"/>
+        <f>VLOOKUP(I134,N:Q,4,FALSE)</f>
         <v>1E+200</v>
       </c>
       <c r="K134" s="22">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>32000</v>
       </c>
       <c r="L134" s="22">
@@ -15572,15 +16256,15 @@
         <v>126</v>
       </c>
       <c r="F135" s="17" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="64"/>
         <v>100증</v>
       </c>
       <c r="G135" s="17">
-        <f t="shared" si="70"/>
+        <f t="shared" si="65"/>
         <v>9.999999999999999E+201</v>
       </c>
       <c r="H135" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>100</v>
       </c>
       <c r="I135" s="16" t="str" cm="1">
@@ -15588,11 +16272,11 @@
         <v>증</v>
       </c>
       <c r="J135" s="16" t="str">
-        <f t="shared" si="71"/>
+        <f>VLOOKUP(I135,N:Q,4,FALSE)</f>
         <v>1E+200</v>
       </c>
       <c r="K135" s="22">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>32000</v>
       </c>
       <c r="L135" s="22">
@@ -15604,15 +16288,15 @@
         <v>127</v>
       </c>
       <c r="F136" s="17" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="64"/>
         <v>1000증</v>
       </c>
       <c r="G136" s="17">
-        <f t="shared" si="70"/>
+        <f t="shared" si="65"/>
         <v>9.9999999999999999E+202</v>
       </c>
       <c r="H136" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>1000</v>
       </c>
       <c r="I136" s="16" t="str" cm="1">
@@ -15620,11 +16304,11 @@
         <v>증</v>
       </c>
       <c r="J136" s="16" t="str">
-        <f t="shared" si="71"/>
+        <f>VLOOKUP(I136,N:Q,4,FALSE)</f>
         <v>1E+200</v>
       </c>
       <c r="K136" s="22">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>32000</v>
       </c>
       <c r="L136" s="22">
@@ -15636,15 +16320,15 @@
         <v>128</v>
       </c>
       <c r="F137" s="17" t="str">
-        <f t="shared" ref="F137:F140" si="72">H137&amp;I137</f>
+        <f t="shared" ref="F137:F140" si="66">H137&amp;I137</f>
         <v>1쾌</v>
       </c>
       <c r="G137" s="17">
-        <f t="shared" ref="G137:G140" si="73">H137*J137</f>
+        <f t="shared" ref="G137:G140" si="67">H137*J137</f>
         <v>9.9999999999999999E+203</v>
       </c>
       <c r="H137" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>1</v>
       </c>
       <c r="I137" s="16" t="str" cm="1">
@@ -15652,11 +16336,11 @@
         <v>쾌</v>
       </c>
       <c r="J137" s="16" t="str">
-        <f t="shared" ref="J137:J140" si="74">VLOOKUP(I137,N:Q,4,FALSE)</f>
+        <f>VLOOKUP(I137,N:Q,4,FALSE)</f>
         <v>1E+204</v>
       </c>
       <c r="K137" s="22">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>33000</v>
       </c>
       <c r="L137" s="22">
@@ -15668,15 +16352,15 @@
         <v>129</v>
       </c>
       <c r="F138" s="17" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="66"/>
         <v>10쾌</v>
       </c>
       <c r="G138" s="17">
-        <f t="shared" si="73"/>
+        <f t="shared" si="67"/>
         <v>1E+205</v>
       </c>
       <c r="H138" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>10</v>
       </c>
       <c r="I138" s="16" t="str" cm="1">
@@ -15684,11 +16368,11 @@
         <v>쾌</v>
       </c>
       <c r="J138" s="16" t="str">
-        <f t="shared" si="74"/>
+        <f>VLOOKUP(I138,N:Q,4,FALSE)</f>
         <v>1E+204</v>
       </c>
       <c r="K138" s="22">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>33000</v>
       </c>
       <c r="L138" s="22">
@@ -15700,15 +16384,15 @@
         <v>130</v>
       </c>
       <c r="F139" s="17" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="66"/>
         <v>100쾌</v>
       </c>
       <c r="G139" s="17">
-        <f t="shared" si="73"/>
+        <f t="shared" si="67"/>
         <v>1E+206</v>
       </c>
       <c r="H139" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>100</v>
       </c>
       <c r="I139" s="16" t="str" cm="1">
@@ -15716,11 +16400,11 @@
         <v>쾌</v>
       </c>
       <c r="J139" s="16" t="str">
-        <f t="shared" si="74"/>
+        <f>VLOOKUP(I139,N:Q,4,FALSE)</f>
         <v>1E+204</v>
       </c>
       <c r="K139" s="22">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>33000</v>
       </c>
       <c r="L139" s="22">
@@ -15732,15 +16416,15 @@
         <v>131</v>
       </c>
       <c r="F140" s="17" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="66"/>
         <v>1000쾌</v>
       </c>
       <c r="G140" s="17">
-        <f t="shared" si="73"/>
+        <f t="shared" si="67"/>
         <v>1E+207</v>
       </c>
       <c r="H140" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>1000</v>
       </c>
       <c r="I140" s="16" t="str" cm="1">
@@ -15748,11 +16432,11 @@
         <v>쾌</v>
       </c>
       <c r="J140" s="16" t="str">
-        <f t="shared" si="74"/>
+        <f>VLOOKUP(I140,N:Q,4,FALSE)</f>
         <v>1E+204</v>
       </c>
       <c r="K140" s="22">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>33000</v>
       </c>
       <c r="L140" s="22">
@@ -15764,15 +16448,15 @@
         <v>132</v>
       </c>
       <c r="F141" s="17" t="str">
-        <f t="shared" ref="F141:F144" si="75">H141&amp;I141</f>
+        <f t="shared" ref="F141:F144" si="68">H141&amp;I141</f>
         <v>1우</v>
       </c>
       <c r="G141" s="17">
-        <f t="shared" ref="G141:G144" si="76">H141*J141</f>
+        <f t="shared" ref="G141:G144" si="69">H141*J141</f>
         <v>9.9999999999999998E+207</v>
       </c>
       <c r="H141" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>1</v>
       </c>
       <c r="I141" s="16" t="str" cm="1">
@@ -15780,11 +16464,11 @@
         <v>우</v>
       </c>
       <c r="J141" s="16" t="str">
-        <f t="shared" ref="J141:J144" si="77">VLOOKUP(I141,N:Q,4,FALSE)</f>
+        <f>VLOOKUP(I141,N:Q,4,FALSE)</f>
         <v>1E+208</v>
       </c>
       <c r="K141" s="22">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>34000</v>
       </c>
       <c r="L141" s="22">
@@ -15796,15 +16480,15 @@
         <v>133</v>
       </c>
       <c r="F142" s="17" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="68"/>
         <v>10우</v>
       </c>
       <c r="G142" s="17">
-        <f t="shared" si="76"/>
+        <f t="shared" si="69"/>
         <v>1.0000000000000001E+209</v>
       </c>
       <c r="H142" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>10</v>
       </c>
       <c r="I142" s="16" t="str" cm="1">
@@ -15812,11 +16496,11 @@
         <v>우</v>
       </c>
       <c r="J142" s="16" t="str">
-        <f t="shared" si="77"/>
+        <f>VLOOKUP(I142,N:Q,4,FALSE)</f>
         <v>1E+208</v>
       </c>
       <c r="K142" s="22">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>34000</v>
       </c>
       <c r="L142" s="22">
@@ -15828,15 +16512,15 @@
         <v>134</v>
       </c>
       <c r="F143" s="17" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="68"/>
         <v>100우</v>
       </c>
       <c r="G143" s="17">
-        <f t="shared" si="76"/>
+        <f t="shared" si="69"/>
         <v>9.9999999999999993E+209</v>
       </c>
       <c r="H143" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>100</v>
       </c>
       <c r="I143" s="16" t="str" cm="1">
@@ -15844,11 +16528,11 @@
         <v>우</v>
       </c>
       <c r="J143" s="16" t="str">
-        <f t="shared" si="77"/>
+        <f>VLOOKUP(I143,N:Q,4,FALSE)</f>
         <v>1E+208</v>
       </c>
       <c r="K143" s="22">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>34000</v>
       </c>
       <c r="L143" s="22">
@@ -15860,15 +16544,15 @@
         <v>135</v>
       </c>
       <c r="F144" s="17" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="68"/>
         <v>1000우</v>
       </c>
       <c r="G144" s="17">
-        <f t="shared" si="76"/>
+        <f t="shared" si="69"/>
         <v>9.9999999999999996E+210</v>
       </c>
       <c r="H144" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>1000</v>
       </c>
       <c r="I144" s="16" t="str" cm="1">
@@ -15876,11 +16560,11 @@
         <v>우</v>
       </c>
       <c r="J144" s="16" t="str">
-        <f t="shared" si="77"/>
+        <f>VLOOKUP(I144,N:Q,4,FALSE)</f>
         <v>1E+208</v>
       </c>
       <c r="K144" s="22">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>34000</v>
       </c>
       <c r="L144" s="22">
@@ -15892,15 +16576,15 @@
         <v>136</v>
       </c>
       <c r="F145" s="17" t="str">
-        <f t="shared" ref="F145:F151" si="78">H145&amp;I145</f>
+        <f t="shared" ref="F145:F151" si="70">H145&amp;I145</f>
         <v>1팽</v>
       </c>
       <c r="G145" s="17">
-        <f t="shared" ref="G145:G151" si="79">H145*J145</f>
+        <f t="shared" ref="G145:G151" si="71">H145*J145</f>
         <v>9.9999999999999991E+211</v>
       </c>
       <c r="H145" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>1</v>
       </c>
       <c r="I145" s="16" t="str" cm="1">
@@ -15908,11 +16592,11 @@
         <v>팽</v>
       </c>
       <c r="J145" s="16" t="str">
-        <f t="shared" ref="J145:J151" si="80">VLOOKUP(I145,N:Q,4,FALSE)</f>
+        <f>VLOOKUP(I145,N:Q,4,FALSE)</f>
         <v>1E+212</v>
       </c>
       <c r="K145" s="22">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>35000</v>
       </c>
       <c r="L145" s="22">
@@ -15924,15 +16608,15 @@
         <v>137</v>
       </c>
       <c r="F146" s="17" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="70"/>
         <v>10팽</v>
       </c>
       <c r="G146" s="17">
-        <f t="shared" si="79"/>
+        <f t="shared" si="71"/>
         <v>9.9999999999999983E+212</v>
       </c>
       <c r="H146" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>10</v>
       </c>
       <c r="I146" s="16" t="str" cm="1">
@@ -15940,11 +16624,11 @@
         <v>팽</v>
       </c>
       <c r="J146" s="16" t="str">
-        <f t="shared" si="80"/>
+        <f>VLOOKUP(I146,N:Q,4,FALSE)</f>
         <v>1E+212</v>
       </c>
       <c r="K146" s="22">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>35000</v>
       </c>
       <c r="L146" s="22">
@@ -15956,15 +16640,15 @@
         <v>138</v>
       </c>
       <c r="F147" s="17" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="70"/>
         <v>100팽</v>
       </c>
       <c r="G147" s="17">
-        <f t="shared" si="79"/>
+        <f t="shared" si="71"/>
         <v>9.9999999999999995E+213</v>
       </c>
       <c r="H147" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>100</v>
       </c>
       <c r="I147" s="16" t="str" cm="1">
@@ -15972,11 +16656,11 @@
         <v>팽</v>
       </c>
       <c r="J147" s="16" t="str">
-        <f t="shared" si="80"/>
+        <f>VLOOKUP(I147,N:Q,4,FALSE)</f>
         <v>1E+212</v>
       </c>
       <c r="K147" s="22">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>35000</v>
       </c>
       <c r="L147" s="22">
@@ -15988,15 +16672,15 @@
         <v>139</v>
       </c>
       <c r="F148" s="17" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="70"/>
         <v>1000팽</v>
       </c>
       <c r="G148" s="17">
-        <f t="shared" si="79"/>
+        <f t="shared" si="71"/>
         <v>9.9999999999999991E+214</v>
       </c>
       <c r="H148" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>1000</v>
       </c>
       <c r="I148" s="16" t="str" cm="1">
@@ -16004,11 +16688,11 @@
         <v>팽</v>
       </c>
       <c r="J148" s="16" t="str">
-        <f t="shared" si="80"/>
+        <f>VLOOKUP(I148,N:Q,4,FALSE)</f>
         <v>1E+212</v>
       </c>
       <c r="K148" s="22">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>35000</v>
       </c>
       <c r="L148" s="22">
@@ -16020,15 +16704,15 @@
         <v>140</v>
       </c>
       <c r="F149" s="17" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="70"/>
         <v>1관</v>
       </c>
       <c r="G149" s="17">
-        <f t="shared" si="79"/>
+        <f t="shared" si="71"/>
         <v>1E+216</v>
       </c>
       <c r="H149" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>1</v>
       </c>
       <c r="I149" s="16" t="str" cm="1">
@@ -16036,11 +16720,11 @@
         <v>관</v>
       </c>
       <c r="J149" s="16" t="str">
-        <f t="shared" si="80"/>
+        <f>VLOOKUP(I149,N:Q,4,FALSE)</f>
         <v>1E+216</v>
       </c>
       <c r="K149" s="22">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>36000</v>
       </c>
       <c r="L149" s="22">
@@ -16052,15 +16736,15 @@
         <v>141</v>
       </c>
       <c r="F150" s="17" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="70"/>
         <v>10관</v>
       </c>
       <c r="G150" s="17">
-        <f t="shared" si="79"/>
+        <f t="shared" si="71"/>
         <v>1.0000000000000001E+217</v>
       </c>
       <c r="H150" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>10</v>
       </c>
       <c r="I150" s="16" t="str" cm="1">
@@ -16068,11 +16752,11 @@
         <v>관</v>
       </c>
       <c r="J150" s="16" t="str">
-        <f t="shared" si="80"/>
+        <f>VLOOKUP(I150,N:Q,4,FALSE)</f>
         <v>1E+216</v>
       </c>
       <c r="K150" s="22">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>36000</v>
       </c>
       <c r="L150" s="22">
@@ -16084,15 +16768,15 @@
         <v>142</v>
       </c>
       <c r="F151" s="17" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="70"/>
         <v>100관</v>
       </c>
       <c r="G151" s="17">
-        <f t="shared" si="79"/>
+        <f t="shared" si="71"/>
         <v>1.0000000000000001E+218</v>
       </c>
       <c r="H151" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>100</v>
       </c>
       <c r="I151" s="16" t="str" cm="1">
@@ -16100,11 +16784,11 @@
         <v>관</v>
       </c>
       <c r="J151" s="16" t="str">
-        <f t="shared" si="80"/>
+        <f>VLOOKUP(I151,N:Q,4,FALSE)</f>
         <v>1E+216</v>
       </c>
       <c r="K151" s="22">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>36000</v>
       </c>
       <c r="L151" s="22">
@@ -16116,15 +16800,15 @@
         <v>143</v>
       </c>
       <c r="F152" s="17" t="str">
-        <f t="shared" ref="F152:F156" si="81">H152&amp;I152</f>
+        <f t="shared" ref="F152:F156" si="72">H152&amp;I152</f>
         <v>1000관</v>
       </c>
       <c r="G152" s="17">
-        <f t="shared" ref="G152:G156" si="82">H152*J152</f>
+        <f t="shared" ref="G152:G156" si="73">H152*J152</f>
         <v>9.9999999999999997E+218</v>
       </c>
       <c r="H152" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>1000</v>
       </c>
       <c r="I152" s="16" t="str" cm="1">
@@ -16132,11 +16816,11 @@
         <v>관</v>
       </c>
       <c r="J152" s="16" t="str">
-        <f t="shared" ref="J152:J156" si="83">VLOOKUP(I152,N:Q,4,FALSE)</f>
+        <f>VLOOKUP(I152,N:Q,4,FALSE)</f>
         <v>1E+216</v>
       </c>
       <c r="K152" s="22">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>36000</v>
       </c>
       <c r="L152" s="22">
@@ -16148,15 +16832,15 @@
         <v>144</v>
       </c>
       <c r="F153" s="17" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="72"/>
         <v>1한</v>
       </c>
       <c r="G153" s="17">
-        <f t="shared" si="82"/>
+        <f t="shared" si="73"/>
         <v>1E+220</v>
       </c>
       <c r="H153" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>1</v>
       </c>
       <c r="I153" s="16" t="str" cm="1">
@@ -16164,11 +16848,11 @@
         <v>한</v>
       </c>
       <c r="J153" s="16" t="str">
-        <f t="shared" si="83"/>
+        <f>VLOOKUP(I153,N:Q,4,FALSE)</f>
         <v>1E+220</v>
       </c>
       <c r="K153" s="22">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>37000</v>
       </c>
       <c r="L153" s="22">
@@ -16180,15 +16864,15 @@
         <v>145</v>
       </c>
       <c r="F154" s="17" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="72"/>
         <v>10한</v>
       </c>
       <c r="G154" s="17">
-        <f t="shared" si="82"/>
+        <f t="shared" si="73"/>
         <v>1E+221</v>
       </c>
       <c r="H154" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>10</v>
       </c>
       <c r="I154" s="16" t="str" cm="1">
@@ -16196,11 +16880,11 @@
         <v>한</v>
       </c>
       <c r="J154" s="16" t="str">
-        <f t="shared" si="83"/>
+        <f>VLOOKUP(I154,N:Q,4,FALSE)</f>
         <v>1E+220</v>
       </c>
       <c r="K154" s="22">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>37000</v>
       </c>
       <c r="L154" s="22">
@@ -16212,15 +16896,15 @@
         <v>146</v>
       </c>
       <c r="F155" s="17" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="72"/>
         <v>100한</v>
       </c>
       <c r="G155" s="17">
-        <f t="shared" si="82"/>
+        <f t="shared" si="73"/>
         <v>1E+222</v>
       </c>
       <c r="H155" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>100</v>
       </c>
       <c r="I155" s="16" t="str" cm="1">
@@ -16228,11 +16912,11 @@
         <v>한</v>
       </c>
       <c r="J155" s="16" t="str">
-        <f t="shared" si="83"/>
+        <f>VLOOKUP(I155,N:Q,4,FALSE)</f>
         <v>1E+220</v>
       </c>
       <c r="K155" s="22">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>37000</v>
       </c>
       <c r="L155" s="22">
@@ -16244,15 +16928,15 @@
         <v>147</v>
       </c>
       <c r="F156" s="17" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="72"/>
         <v>1000한</v>
       </c>
       <c r="G156" s="17">
-        <f t="shared" si="82"/>
+        <f t="shared" si="73"/>
         <v>1E+223</v>
       </c>
       <c r="H156" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>1000</v>
       </c>
       <c r="I156" s="16" t="str" cm="1">
@@ -16260,11 +16944,11 @@
         <v>한</v>
       </c>
       <c r="J156" s="16" t="str">
-        <f t="shared" si="83"/>
+        <f>VLOOKUP(I156,N:Q,4,FALSE)</f>
         <v>1E+220</v>
       </c>
       <c r="K156" s="22">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>37000</v>
       </c>
       <c r="L156" s="22">
@@ -16276,15 +16960,15 @@
         <v>148</v>
       </c>
       <c r="F157" s="17" t="str">
-        <f t="shared" ref="F157:F160" si="84">H157&amp;I157</f>
+        <f t="shared" ref="F157:F160" si="74">H157&amp;I157</f>
         <v>1혈</v>
       </c>
       <c r="G157" s="17">
-        <f t="shared" ref="G157:G160" si="85">H157*J157</f>
+        <f t="shared" ref="G157:G160" si="75">H157*J157</f>
         <v>9.9999999999999997E+223</v>
       </c>
       <c r="H157" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>1</v>
       </c>
       <c r="I157" s="16" t="str" cm="1">
@@ -16292,11 +16976,11 @@
         <v>혈</v>
       </c>
       <c r="J157" s="16" t="str">
-        <f t="shared" ref="J157:J160" si="86">VLOOKUP(I157,N:Q,4,FALSE)</f>
+        <f>VLOOKUP(I157,N:Q,4,FALSE)</f>
         <v>1E+224</v>
       </c>
       <c r="K157" s="22">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>38000</v>
       </c>
       <c r="L157" s="22">
@@ -16308,15 +16992,15 @@
         <v>149</v>
       </c>
       <c r="F158" s="17" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="74"/>
         <v>10혈</v>
       </c>
       <c r="G158" s="17">
-        <f t="shared" si="85"/>
+        <f t="shared" si="75"/>
         <v>9.9999999999999993E+224</v>
       </c>
       <c r="H158" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>10</v>
       </c>
       <c r="I158" s="16" t="str" cm="1">
@@ -16324,11 +17008,11 @@
         <v>혈</v>
       </c>
       <c r="J158" s="16" t="str">
-        <f t="shared" si="86"/>
+        <f>VLOOKUP(I158,N:Q,4,FALSE)</f>
         <v>1E+224</v>
       </c>
       <c r="K158" s="22">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>38000</v>
       </c>
       <c r="L158" s="22">
@@ -16340,15 +17024,15 @@
         <v>150</v>
       </c>
       <c r="F159" s="17" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="74"/>
         <v>100혈</v>
       </c>
       <c r="G159" s="17">
-        <f t="shared" si="85"/>
+        <f t="shared" si="75"/>
         <v>9.9999999999999996E+225</v>
       </c>
       <c r="H159" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>100</v>
       </c>
       <c r="I159" s="16" t="str" cm="1">
@@ -16356,11 +17040,11 @@
         <v>혈</v>
       </c>
       <c r="J159" s="16" t="str">
-        <f t="shared" si="86"/>
+        <f>VLOOKUP(I159,N:Q,4,FALSE)</f>
         <v>1E+224</v>
       </c>
       <c r="K159" s="22">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>38000</v>
       </c>
       <c r="L159" s="22">
@@ -16372,15 +17056,15 @@
         <v>151</v>
       </c>
       <c r="F160" s="17" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="74"/>
         <v>1000혈</v>
       </c>
       <c r="G160" s="17">
-        <f t="shared" si="85"/>
+        <f t="shared" si="75"/>
         <v>9.9999999999999988E+226</v>
       </c>
       <c r="H160" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>1000</v>
       </c>
       <c r="I160" s="16" t="str" cm="1">
@@ -16388,11 +17072,11 @@
         <v>혈</v>
       </c>
       <c r="J160" s="16" t="str">
-        <f t="shared" si="86"/>
+        <f>VLOOKUP(I160,N:Q,4,FALSE)</f>
         <v>1E+224</v>
       </c>
       <c r="K160" s="22">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>38000</v>
       </c>
       <c r="L160" s="22">
@@ -16404,15 +17088,15 @@
         <v>152</v>
       </c>
       <c r="F161" s="17" t="str">
-        <f t="shared" ref="F161:F164" si="87">H161&amp;I161</f>
+        <f t="shared" ref="F161:F164" si="76">H161&amp;I161</f>
         <v>1연</v>
       </c>
       <c r="G161" s="17">
-        <f t="shared" ref="G161:G164" si="88">H161*J161</f>
+        <f t="shared" ref="G161:G164" si="77">H161*J161</f>
         <v>9.9999999999999992E+227</v>
       </c>
       <c r="H161" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>1</v>
       </c>
       <c r="I161" s="16" t="str" cm="1">
@@ -16420,11 +17104,11 @@
         <v>연</v>
       </c>
       <c r="J161" s="16" t="str">
-        <f t="shared" ref="J161:J164" si="89">VLOOKUP(I161,N:Q,4,FALSE)</f>
+        <f>VLOOKUP(I161,N:Q,4,FALSE)</f>
         <v>1E+228</v>
       </c>
       <c r="K161" s="22">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>39000</v>
       </c>
       <c r="L161" s="22">
@@ -16436,15 +17120,15 @@
         <v>153</v>
       </c>
       <c r="F162" s="17" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="76"/>
         <v>10연</v>
       </c>
       <c r="G162" s="17">
-        <f t="shared" si="88"/>
+        <f t="shared" si="77"/>
         <v>9.9999999999999999E+228</v>
       </c>
       <c r="H162" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>10</v>
       </c>
       <c r="I162" s="16" t="str" cm="1">
@@ -16452,11 +17136,11 @@
         <v>연</v>
       </c>
       <c r="J162" s="16" t="str">
-        <f t="shared" si="89"/>
+        <f>VLOOKUP(I162,N:Q,4,FALSE)</f>
         <v>1E+228</v>
       </c>
       <c r="K162" s="22">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>39000</v>
       </c>
       <c r="L162" s="22">
@@ -16468,15 +17152,15 @@
         <v>154</v>
       </c>
       <c r="F163" s="17" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="76"/>
         <v>100연</v>
       </c>
       <c r="G163" s="17">
-        <f t="shared" si="88"/>
+        <f t="shared" si="77"/>
         <v>9.9999999999999988E+229</v>
       </c>
       <c r="H163" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>100</v>
       </c>
       <c r="I163" s="16" t="str" cm="1">
@@ -16484,11 +17168,11 @@
         <v>연</v>
       </c>
       <c r="J163" s="16" t="str">
-        <f t="shared" si="89"/>
+        <f>VLOOKUP(I163,N:Q,4,FALSE)</f>
         <v>1E+228</v>
       </c>
       <c r="K163" s="22">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>39000</v>
       </c>
       <c r="L163" s="22">
@@ -16500,15 +17184,15 @@
         <v>155</v>
       </c>
       <c r="F164" s="17" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="76"/>
         <v>1000연</v>
       </c>
       <c r="G164" s="17">
-        <f t="shared" si="88"/>
+        <f t="shared" si="77"/>
         <v>9.9999999999999988E+230</v>
       </c>
       <c r="H164" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>1000</v>
       </c>
       <c r="I164" s="16" t="str" cm="1">
@@ -16516,11 +17200,11 @@
         <v>연</v>
       </c>
       <c r="J164" s="16" t="str">
-        <f t="shared" si="89"/>
+        <f>VLOOKUP(I164,N:Q,4,FALSE)</f>
         <v>1E+228</v>
       </c>
       <c r="K164" s="22">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>39000</v>
       </c>
       <c r="L164" s="22">
@@ -16532,15 +17216,15 @@
         <v>156</v>
       </c>
       <c r="F165" s="17" t="str">
-        <f t="shared" ref="F165:F168" si="90">H165&amp;I165</f>
+        <f t="shared" ref="F165:F168" si="78">H165&amp;I165</f>
         <v>1난</v>
       </c>
       <c r="G165" s="17">
-        <f t="shared" ref="G165:G168" si="91">H165*J165</f>
+        <f t="shared" ref="G165:G168" si="79">H165*J165</f>
         <v>1.0000000000000001E+232</v>
       </c>
       <c r="H165" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>1</v>
       </c>
       <c r="I165" s="16" t="str" cm="1">
@@ -16548,11 +17232,11 @@
         <v>난</v>
       </c>
       <c r="J165" s="16" t="str">
-        <f t="shared" ref="J165:J168" si="92">VLOOKUP(I165,N:Q,4,FALSE)</f>
+        <f>VLOOKUP(I165,N:Q,4,FALSE)</f>
         <v>1E+232</v>
       </c>
       <c r="K165" s="22">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>40000</v>
       </c>
       <c r="L165" s="22">
@@ -16564,15 +17248,15 @@
         <v>157</v>
       </c>
       <c r="F166" s="17" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="78"/>
         <v>10난</v>
       </c>
       <c r="G166" s="17">
-        <f t="shared" si="91"/>
+        <f t="shared" si="79"/>
         <v>9.9999999999999997E+232</v>
       </c>
       <c r="H166" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>10</v>
       </c>
       <c r="I166" s="16" t="str" cm="1">
@@ -16580,11 +17264,11 @@
         <v>난</v>
       </c>
       <c r="J166" s="16" t="str">
-        <f t="shared" si="92"/>
+        <f>VLOOKUP(I166,N:Q,4,FALSE)</f>
         <v>1E+232</v>
       </c>
       <c r="K166" s="22">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>40000</v>
       </c>
       <c r="L166" s="22">
@@ -16596,15 +17280,15 @@
         <v>158</v>
       </c>
       <c r="F167" s="17" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="78"/>
         <v>100난</v>
       </c>
       <c r="G167" s="17">
-        <f t="shared" si="91"/>
+        <f t="shared" si="79"/>
         <v>1E+234</v>
       </c>
       <c r="H167" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>100</v>
       </c>
       <c r="I167" s="16" t="str" cm="1">
@@ -16612,11 +17296,11 @@
         <v>난</v>
       </c>
       <c r="J167" s="16" t="str">
-        <f t="shared" si="92"/>
+        <f>VLOOKUP(I167,N:Q,4,FALSE)</f>
         <v>1E+232</v>
       </c>
       <c r="K167" s="22">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>40000</v>
       </c>
       <c r="L167" s="22">
@@ -16628,15 +17312,15 @@
         <v>159</v>
       </c>
       <c r="F168" s="17" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="78"/>
         <v>1000난</v>
       </c>
       <c r="G168" s="17">
-        <f t="shared" si="91"/>
+        <f t="shared" si="79"/>
         <v>1.0000000000000001E+235</v>
       </c>
       <c r="H168" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>1000</v>
       </c>
       <c r="I168" s="16" t="str" cm="1">
@@ -16644,11 +17328,11 @@
         <v>난</v>
       </c>
       <c r="J168" s="16" t="str">
-        <f t="shared" si="92"/>
+        <f>VLOOKUP(I168,N:Q,4,FALSE)</f>
         <v>1E+232</v>
       </c>
       <c r="K168" s="22">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>40000</v>
       </c>
       <c r="L168" s="22">
@@ -16660,15 +17344,15 @@
         <v>160</v>
       </c>
       <c r="F169" s="17" t="str">
-        <f t="shared" ref="F169:F172" si="93">H169&amp;I169</f>
+        <f t="shared" ref="F169:F172" si="80">H169&amp;I169</f>
         <v>1군</v>
       </c>
       <c r="G169" s="17">
-        <f t="shared" ref="G169:G172" si="94">H169*J169</f>
+        <f t="shared" ref="G169:G172" si="81">H169*J169</f>
         <v>1.0000000000000001E+236</v>
       </c>
       <c r="H169" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>1</v>
       </c>
       <c r="I169" s="16" t="str" cm="1">
@@ -16676,11 +17360,11 @@
         <v>군</v>
       </c>
       <c r="J169" s="16" t="str">
-        <f t="shared" ref="J169:J172" si="95">VLOOKUP(I169,N:Q,4,FALSE)</f>
+        <f>VLOOKUP(I169,N:Q,4,FALSE)</f>
         <v>1E+236</v>
       </c>
       <c r="K169" s="22">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>41000</v>
       </c>
       <c r="L169" s="22">
@@ -16692,15 +17376,15 @@
         <v>161</v>
       </c>
       <c r="F170" s="17" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="80"/>
         <v>10군</v>
       </c>
       <c r="G170" s="17">
-        <f t="shared" si="94"/>
+        <f t="shared" si="81"/>
         <v>1.0000000000000001E+237</v>
       </c>
       <c r="H170" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>10</v>
       </c>
       <c r="I170" s="16" t="str" cm="1">
@@ -16708,11 +17392,11 @@
         <v>군</v>
       </c>
       <c r="J170" s="16" t="str">
-        <f t="shared" si="95"/>
+        <f>VLOOKUP(I170,N:Q,4,FALSE)</f>
         <v>1E+236</v>
       </c>
       <c r="K170" s="22">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>41000</v>
       </c>
       <c r="L170" s="22">
@@ -16724,15 +17408,15 @@
         <v>162</v>
       </c>
       <c r="F171" s="17" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="80"/>
         <v>100군</v>
       </c>
       <c r="G171" s="17">
-        <f t="shared" si="94"/>
+        <f t="shared" si="81"/>
         <v>1E+238</v>
       </c>
       <c r="H171" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>100</v>
       </c>
       <c r="I171" s="16" t="str" cm="1">
@@ -16740,11 +17424,11 @@
         <v>군</v>
       </c>
       <c r="J171" s="16" t="str">
-        <f t="shared" si="95"/>
+        <f>VLOOKUP(I171,N:Q,4,FALSE)</f>
         <v>1E+236</v>
       </c>
       <c r="K171" s="22">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>41000</v>
       </c>
       <c r="L171" s="22">
@@ -16756,15 +17440,15 @@
         <v>163</v>
       </c>
       <c r="F172" s="17" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="80"/>
         <v>1000군</v>
       </c>
       <c r="G172" s="17">
-        <f t="shared" si="94"/>
+        <f t="shared" si="81"/>
         <v>1.0000000000000001E+239</v>
       </c>
       <c r="H172" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>1000</v>
       </c>
       <c r="I172" s="16" t="str" cm="1">
@@ -16772,11 +17456,11 @@
         <v>군</v>
       </c>
       <c r="J172" s="16" t="str">
-        <f t="shared" si="95"/>
+        <f>VLOOKUP(I172,N:Q,4,FALSE)</f>
         <v>1E+236</v>
       </c>
       <c r="K172" s="22">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>41000</v>
       </c>
       <c r="L172" s="22">
@@ -16788,15 +17472,15 @@
         <v>164</v>
       </c>
       <c r="F173" s="17" t="str">
-        <f t="shared" ref="F173:F176" si="96">H173&amp;I173</f>
+        <f t="shared" ref="F173:F176" si="82">H173&amp;I173</f>
         <v>1결</v>
       </c>
       <c r="G173" s="17">
-        <f t="shared" ref="G173:G176" si="97">H173*J173</f>
+        <f t="shared" ref="G173:G176" si="83">H173*J173</f>
         <v>1E+240</v>
       </c>
       <c r="H173" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>1</v>
       </c>
       <c r="I173" s="16" t="str" cm="1">
@@ -16804,11 +17488,11 @@
         <v>결</v>
       </c>
       <c r="J173" s="16" t="str">
-        <f t="shared" ref="J173:J176" si="98">VLOOKUP(I173,N:Q,4,FALSE)</f>
+        <f>VLOOKUP(I173,N:Q,4,FALSE)</f>
         <v>1E+240</v>
       </c>
       <c r="K173" s="22">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>42000</v>
       </c>
       <c r="L173" s="22">
@@ -16820,15 +17504,15 @@
         <v>165</v>
       </c>
       <c r="F174" s="17" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="82"/>
         <v>10결</v>
       </c>
       <c r="G174" s="17">
-        <f t="shared" si="97"/>
+        <f t="shared" si="83"/>
         <v>1.0000000000000001E+241</v>
       </c>
       <c r="H174" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>10</v>
       </c>
       <c r="I174" s="16" t="str" cm="1">
@@ -16836,11 +17520,11 @@
         <v>결</v>
       </c>
       <c r="J174" s="16" t="str">
-        <f t="shared" si="98"/>
+        <f>VLOOKUP(I174,N:Q,4,FALSE)</f>
         <v>1E+240</v>
       </c>
       <c r="K174" s="22">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>42000</v>
       </c>
       <c r="L174" s="22">
@@ -16852,15 +17536,15 @@
         <v>166</v>
       </c>
       <c r="F175" s="17" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="82"/>
         <v>100결</v>
       </c>
       <c r="G175" s="17">
-        <f t="shared" si="97"/>
+        <f t="shared" si="83"/>
         <v>1.0000000000000001E+242</v>
       </c>
       <c r="H175" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>100</v>
       </c>
       <c r="I175" s="16" t="str" cm="1">
@@ -16868,11 +17552,11 @@
         <v>결</v>
       </c>
       <c r="J175" s="16" t="str">
-        <f t="shared" si="98"/>
+        <f>VLOOKUP(I175,N:Q,4,FALSE)</f>
         <v>1E+240</v>
       </c>
       <c r="K175" s="22">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>42000</v>
       </c>
       <c r="L175" s="22">
@@ -16884,15 +17568,15 @@
         <v>167</v>
       </c>
       <c r="F176" s="17" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="82"/>
         <v>1000결</v>
       </c>
       <c r="G176" s="17">
-        <f t="shared" si="97"/>
+        <f t="shared" si="83"/>
         <v>1.0000000000000001E+243</v>
       </c>
       <c r="H176" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>1000</v>
       </c>
       <c r="I176" s="16" t="str" cm="1">
@@ -16900,11 +17584,11 @@
         <v>결</v>
       </c>
       <c r="J176" s="16" t="str">
-        <f t="shared" si="98"/>
+        <f>VLOOKUP(I176,N:Q,4,FALSE)</f>
         <v>1E+240</v>
       </c>
       <c r="K176" s="22">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>42000</v>
       </c>
       <c r="L176" s="22">
@@ -16916,15 +17600,15 @@
         <v>168</v>
       </c>
       <c r="F177" s="17" t="str">
-        <f t="shared" ref="F177:F180" si="99">H177&amp;I177</f>
+        <f t="shared" ref="F177:F180" si="84">H177&amp;I177</f>
         <v>1맥</v>
       </c>
       <c r="G177" s="17">
-        <f t="shared" ref="G177:G180" si="100">H177*J177</f>
+        <f t="shared" ref="G177:G180" si="85">H177*J177</f>
         <v>1.0000000000000001E+244</v>
       </c>
       <c r="H177" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>1</v>
       </c>
       <c r="I177" s="16" t="str" cm="1">
@@ -16932,11 +17616,11 @@
         <v>맥</v>
       </c>
       <c r="J177" s="16" t="str">
-        <f t="shared" ref="J177:J180" si="101">VLOOKUP(I177,N:Q,4,FALSE)</f>
+        <f>VLOOKUP(I177,N:Q,4,FALSE)</f>
         <v>1E+244</v>
       </c>
       <c r="K177" s="22">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>43000</v>
       </c>
       <c r="L177" s="22">
@@ -16948,15 +17632,15 @@
         <v>169</v>
       </c>
       <c r="F178" s="17" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="84"/>
         <v>10맥</v>
       </c>
       <c r="G178" s="17">
-        <f t="shared" si="100"/>
+        <f t="shared" si="85"/>
         <v>1E+245</v>
       </c>
       <c r="H178" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>10</v>
       </c>
       <c r="I178" s="16" t="str" cm="1">
@@ -16964,11 +17648,11 @@
         <v>맥</v>
       </c>
       <c r="J178" s="16" t="str">
-        <f t="shared" si="101"/>
+        <f>VLOOKUP(I178,N:Q,4,FALSE)</f>
         <v>1E+244</v>
       </c>
       <c r="K178" s="22">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>43000</v>
       </c>
       <c r="L178" s="22">
@@ -16980,15 +17664,15 @@
         <v>170</v>
       </c>
       <c r="F179" s="17" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="84"/>
         <v>100맥</v>
       </c>
       <c r="G179" s="17">
-        <f t="shared" si="100"/>
+        <f t="shared" si="85"/>
         <v>1.0000000000000001E+246</v>
       </c>
       <c r="H179" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>100</v>
       </c>
       <c r="I179" s="16" t="str" cm="1">
@@ -16996,11 +17680,11 @@
         <v>맥</v>
       </c>
       <c r="J179" s="16" t="str">
-        <f t="shared" si="101"/>
+        <f>VLOOKUP(I179,N:Q,4,FALSE)</f>
         <v>1E+244</v>
       </c>
       <c r="K179" s="22">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>43000</v>
       </c>
       <c r="L179" s="22">
@@ -17012,15 +17696,15 @@
         <v>171</v>
       </c>
       <c r="F180" s="17" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="84"/>
         <v>1000맥</v>
       </c>
       <c r="G180" s="17">
-        <f t="shared" si="100"/>
+        <f t="shared" si="85"/>
         <v>1.0000000000000001E+247</v>
       </c>
       <c r="H180" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>1000</v>
       </c>
       <c r="I180" s="16" t="str" cm="1">
@@ -17028,11 +17712,11 @@
         <v>맥</v>
       </c>
       <c r="J180" s="16" t="str">
-        <f t="shared" si="101"/>
+        <f>VLOOKUP(I180,N:Q,4,FALSE)</f>
         <v>1E+244</v>
       </c>
       <c r="K180" s="22">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>43000</v>
       </c>
       <c r="L180" s="22">
@@ -17044,15 +17728,15 @@
         <v>172</v>
       </c>
       <c r="F181" s="17" t="str">
-        <f t="shared" ref="F181:F184" si="102">H181&amp;I181</f>
+        <f t="shared" ref="F181:F184" si="86">H181&amp;I181</f>
         <v>1토</v>
       </c>
       <c r="G181" s="17">
-        <f t="shared" ref="G181:G184" si="103">H181*J181</f>
+        <f t="shared" ref="G181:G184" si="87">H181*J181</f>
         <v>1E+248</v>
       </c>
       <c r="H181" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>1</v>
       </c>
       <c r="I181" s="16" t="str" cm="1">
@@ -17060,11 +17744,11 @@
         <v>토</v>
       </c>
       <c r="J181" s="16" t="str">
-        <f t="shared" ref="J181:J184" si="104">VLOOKUP(I181,N:Q,4,FALSE)</f>
+        <f>VLOOKUP(I181,N:Q,4,FALSE)</f>
         <v>1E+248</v>
       </c>
       <c r="K181" s="22">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>44000</v>
       </c>
       <c r="L181" s="22">
@@ -17076,15 +17760,15 @@
         <v>173</v>
       </c>
       <c r="F182" s="17" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="86"/>
         <v>10토</v>
       </c>
       <c r="G182" s="17">
-        <f t="shared" si="103"/>
+        <f t="shared" si="87"/>
         <v>1.0000000000000001E+249</v>
       </c>
       <c r="H182" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>10</v>
       </c>
       <c r="I182" s="16" t="str" cm="1">
@@ -17092,11 +17776,11 @@
         <v>토</v>
       </c>
       <c r="J182" s="16" t="str">
-        <f t="shared" si="104"/>
+        <f>VLOOKUP(I182,N:Q,4,FALSE)</f>
         <v>1E+248</v>
       </c>
       <c r="K182" s="22">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>44000</v>
       </c>
       <c r="L182" s="22">
@@ -17108,15 +17792,15 @@
         <v>174</v>
       </c>
       <c r="F183" s="17" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="86"/>
         <v>100토</v>
       </c>
       <c r="G183" s="17">
-        <f t="shared" si="103"/>
+        <f t="shared" si="87"/>
         <v>1.0000000000000001E+250</v>
       </c>
       <c r="H183" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>100</v>
       </c>
       <c r="I183" s="16" t="str" cm="1">
@@ -17124,11 +17808,11 @@
         <v>토</v>
       </c>
       <c r="J183" s="16" t="str">
-        <f t="shared" si="104"/>
+        <f>VLOOKUP(I183,N:Q,4,FALSE)</f>
         <v>1E+248</v>
       </c>
       <c r="K183" s="22">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>44000</v>
       </c>
       <c r="L183" s="22">
@@ -17140,15 +17824,15 @@
         <v>175</v>
       </c>
       <c r="F184" s="17" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="86"/>
         <v>1000토</v>
       </c>
       <c r="G184" s="17">
-        <f t="shared" si="103"/>
+        <f t="shared" si="87"/>
         <v>1E+251</v>
       </c>
       <c r="H184" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>1000</v>
       </c>
       <c r="I184" s="16" t="str" cm="1">
@@ -17156,11 +17840,11 @@
         <v>토</v>
       </c>
       <c r="J184" s="16" t="str">
-        <f t="shared" si="104"/>
+        <f>VLOOKUP(I184,N:Q,4,FALSE)</f>
         <v>1E+248</v>
       </c>
       <c r="K184" s="22">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>44000</v>
       </c>
       <c r="L184" s="22">
@@ -17172,15 +17856,15 @@
         <v>176</v>
       </c>
       <c r="F185" s="17" t="str">
-        <f t="shared" ref="F185:F188" si="105">H185&amp;I185</f>
+        <f t="shared" ref="F185:F192" si="88">H185&amp;I185</f>
         <v>1산</v>
       </c>
       <c r="G185" s="17">
-        <f t="shared" ref="G185:G188" si="106">H185*J185</f>
+        <f t="shared" ref="G185:G192" si="89">H185*J185</f>
         <v>1.0000000000000001E+252</v>
       </c>
       <c r="H185" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>1</v>
       </c>
       <c r="I185" s="16" t="str" cm="1">
@@ -17188,11 +17872,11 @@
         <v>산</v>
       </c>
       <c r="J185" s="16" t="str">
-        <f t="shared" ref="J185:J188" si="107">VLOOKUP(I185,N:Q,4,FALSE)</f>
+        <f>VLOOKUP(I185,N:Q,4,FALSE)</f>
         <v>1E+252</v>
       </c>
       <c r="K185" s="22">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>45000</v>
       </c>
       <c r="L185" s="22">
@@ -17204,15 +17888,15 @@
         <v>177</v>
       </c>
       <c r="F186" s="17" t="str">
-        <f t="shared" si="105"/>
+        <f t="shared" si="88"/>
         <v>10산</v>
       </c>
       <c r="G186" s="17">
-        <f t="shared" si="106"/>
+        <f t="shared" si="89"/>
         <v>1.0000000000000001E+253</v>
       </c>
       <c r="H186" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>10</v>
       </c>
       <c r="I186" s="16" t="str" cm="1">
@@ -17220,11 +17904,11 @@
         <v>산</v>
       </c>
       <c r="J186" s="16" t="str">
-        <f t="shared" si="107"/>
+        <f>VLOOKUP(I186,N:Q,4,FALSE)</f>
         <v>1E+252</v>
       </c>
       <c r="K186" s="22">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>45000</v>
       </c>
       <c r="L186" s="22">
@@ -17236,15 +17920,15 @@
         <v>178</v>
       </c>
       <c r="F187" s="17" t="str">
-        <f t="shared" si="105"/>
+        <f t="shared" si="88"/>
         <v>100산</v>
       </c>
       <c r="G187" s="17">
-        <f t="shared" si="106"/>
+        <f t="shared" si="89"/>
         <v>1.0000000000000001E+254</v>
       </c>
       <c r="H187" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>100</v>
       </c>
       <c r="I187" s="16" t="str" cm="1">
@@ -17252,11 +17936,11 @@
         <v>산</v>
       </c>
       <c r="J187" s="16" t="str">
-        <f t="shared" si="107"/>
+        <f>VLOOKUP(I187,N:Q,4,FALSE)</f>
         <v>1E+252</v>
       </c>
       <c r="K187" s="22">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>45000</v>
       </c>
       <c r="L187" s="22">
@@ -17268,15 +17952,15 @@
         <v>179</v>
       </c>
       <c r="F188" s="17" t="str">
-        <f t="shared" si="105"/>
+        <f t="shared" si="88"/>
         <v>1000산</v>
       </c>
       <c r="G188" s="17">
-        <f t="shared" si="106"/>
+        <f t="shared" si="89"/>
         <v>1.0000000000000002E+255</v>
       </c>
       <c r="H188" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>1000</v>
       </c>
       <c r="I188" s="16" t="str" cm="1">
@@ -17284,15 +17968,399 @@
         <v>산</v>
       </c>
       <c r="J188" s="16" t="str">
-        <f t="shared" si="107"/>
+        <f>VLOOKUP(I188,N:Q,4,FALSE)</f>
         <v>1E+252</v>
       </c>
       <c r="K188" s="22">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>45000</v>
       </c>
       <c r="L188" s="22">
         <v>35800</v>
+      </c>
+    </row>
+    <row r="189" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E189" s="16">
+        <v>180</v>
+      </c>
+      <c r="F189" s="17" t="str">
+        <f t="shared" si="88"/>
+        <v>1강</v>
+      </c>
+      <c r="G189" s="17">
+        <f t="shared" si="89"/>
+        <v>1E+256</v>
+      </c>
+      <c r="H189" s="17">
+        <f t="shared" si="54"/>
+        <v>1</v>
+      </c>
+      <c r="I189" s="16" t="str" cm="1">
+        <f t="array" ref="I189">IF(AND(H188&gt;=1000,H189&lt;2),INDEX(N:N,MATCH(I188,N:N,0)+1,0),I188)</f>
+        <v>강</v>
+      </c>
+      <c r="J189" s="16" t="str">
+        <f>VLOOKUP(I189,N:Q,4,FALSE)</f>
+        <v>1E+256</v>
+      </c>
+      <c r="K189" s="22">
+        <f t="shared" si="55"/>
+        <v>46000</v>
+      </c>
+      <c r="L189" s="22">
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="190" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E190" s="16">
+        <v>181</v>
+      </c>
+      <c r="F190" s="17" t="str">
+        <f t="shared" si="88"/>
+        <v>10강</v>
+      </c>
+      <c r="G190" s="17">
+        <f t="shared" si="89"/>
+        <v>1E+257</v>
+      </c>
+      <c r="H190" s="17">
+        <f t="shared" si="54"/>
+        <v>10</v>
+      </c>
+      <c r="I190" s="16" t="str" cm="1">
+        <f t="array" ref="I190">IF(AND(H189&gt;=1000,H190&lt;2),INDEX(N:N,MATCH(I189,N:N,0)+1,0),I189)</f>
+        <v>강</v>
+      </c>
+      <c r="J190" s="16" t="str">
+        <f>VLOOKUP(I190,N:Q,4,FALSE)</f>
+        <v>1E+256</v>
+      </c>
+      <c r="K190" s="22">
+        <f t="shared" si="55"/>
+        <v>46000</v>
+      </c>
+      <c r="L190" s="22">
+        <v>36200</v>
+      </c>
+    </row>
+    <row r="191" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E191" s="16">
+        <v>182</v>
+      </c>
+      <c r="F191" s="17" t="str">
+        <f t="shared" si="88"/>
+        <v>100강</v>
+      </c>
+      <c r="G191" s="17">
+        <f t="shared" si="89"/>
+        <v>1.0000000000000001E+258</v>
+      </c>
+      <c r="H191" s="17">
+        <f t="shared" si="54"/>
+        <v>100</v>
+      </c>
+      <c r="I191" s="16" t="str" cm="1">
+        <f t="array" ref="I191">IF(AND(H190&gt;=1000,H191&lt;2),INDEX(N:N,MATCH(I190,N:N,0)+1,0),I190)</f>
+        <v>강</v>
+      </c>
+      <c r="J191" s="16" t="str">
+        <f>VLOOKUP(I191,N:Q,4,FALSE)</f>
+        <v>1E+256</v>
+      </c>
+      <c r="K191" s="22">
+        <f t="shared" si="55"/>
+        <v>46000</v>
+      </c>
+      <c r="L191" s="22">
+        <v>36400</v>
+      </c>
+    </row>
+    <row r="192" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E192" s="16">
+        <v>183</v>
+      </c>
+      <c r="F192" s="17" t="str">
+        <f t="shared" si="88"/>
+        <v>1000강</v>
+      </c>
+      <c r="G192" s="17">
+        <f t="shared" si="89"/>
+        <v>1.0000000000000001E+259</v>
+      </c>
+      <c r="H192" s="17">
+        <f t="shared" si="54"/>
+        <v>1000</v>
+      </c>
+      <c r="I192" s="16" t="str" cm="1">
+        <f t="array" ref="I192">IF(AND(H191&gt;=1000,H192&lt;2),INDEX(N:N,MATCH(I191,N:N,0)+1,0),I191)</f>
+        <v>강</v>
+      </c>
+      <c r="J192" s="16" t="str">
+        <f>VLOOKUP(I192,N:Q,4,FALSE)</f>
+        <v>1E+256</v>
+      </c>
+      <c r="K192" s="22">
+        <f t="shared" si="55"/>
+        <v>46000</v>
+      </c>
+      <c r="L192" s="22">
+        <v>36600</v>
+      </c>
+    </row>
+    <row r="193" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E193" s="16">
+        <v>184</v>
+      </c>
+      <c r="F193" s="17" t="str">
+        <f t="shared" ref="F193:F200" si="90">H193&amp;I193</f>
+        <v>1환</v>
+      </c>
+      <c r="G193" s="17">
+        <f t="shared" ref="G193:G200" si="91">H193*J193</f>
+        <v>1.0000000000000001E+260</v>
+      </c>
+      <c r="H193" s="17">
+        <f t="shared" si="54"/>
+        <v>1</v>
+      </c>
+      <c r="I193" s="16" t="str" cm="1">
+        <f t="array" ref="I193">IF(AND(H192&gt;=1000,H193&lt;2),INDEX(N:N,MATCH(I192,N:N,0)+1,0),I192)</f>
+        <v>환</v>
+      </c>
+      <c r="J193" s="16" t="str">
+        <f>VLOOKUP(I193,N:Q,4,FALSE)</f>
+        <v>1E+260</v>
+      </c>
+      <c r="K193" s="22">
+        <f t="shared" si="55"/>
+        <v>47000</v>
+      </c>
+      <c r="L193" s="22">
+        <v>36800</v>
+      </c>
+    </row>
+    <row r="194" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E194" s="16">
+        <v>185</v>
+      </c>
+      <c r="F194" s="17" t="str">
+        <f t="shared" si="90"/>
+        <v>10환</v>
+      </c>
+      <c r="G194" s="17">
+        <f t="shared" si="91"/>
+        <v>1.0000000000000001E+261</v>
+      </c>
+      <c r="H194" s="17">
+        <f t="shared" si="54"/>
+        <v>10</v>
+      </c>
+      <c r="I194" s="16" t="str" cm="1">
+        <f t="array" ref="I194">IF(AND(H193&gt;=1000,H194&lt;2),INDEX(N:N,MATCH(I193,N:N,0)+1,0),I193)</f>
+        <v>환</v>
+      </c>
+      <c r="J194" s="16" t="str">
+        <f>VLOOKUP(I194,N:Q,4,FALSE)</f>
+        <v>1E+260</v>
+      </c>
+      <c r="K194" s="22">
+        <f t="shared" si="55"/>
+        <v>47000</v>
+      </c>
+      <c r="L194" s="22">
+        <v>37000</v>
+      </c>
+    </row>
+    <row r="195" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E195" s="16">
+        <v>186</v>
+      </c>
+      <c r="F195" s="17" t="str">
+        <f t="shared" si="90"/>
+        <v>100환</v>
+      </c>
+      <c r="G195" s="17">
+        <f t="shared" si="91"/>
+        <v>1E+262</v>
+      </c>
+      <c r="H195" s="17">
+        <f t="shared" si="54"/>
+        <v>100</v>
+      </c>
+      <c r="I195" s="16" t="str" cm="1">
+        <f t="array" ref="I195">IF(AND(H194&gt;=1000,H195&lt;2),INDEX(N:N,MATCH(I194,N:N,0)+1,0),I194)</f>
+        <v>환</v>
+      </c>
+      <c r="J195" s="16" t="str">
+        <f>VLOOKUP(I195,N:Q,4,FALSE)</f>
+        <v>1E+260</v>
+      </c>
+      <c r="K195" s="22">
+        <f t="shared" si="55"/>
+        <v>47000</v>
+      </c>
+      <c r="L195" s="22">
+        <v>37200</v>
+      </c>
+    </row>
+    <row r="196" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E196" s="16">
+        <v>187</v>
+      </c>
+      <c r="F196" s="17" t="str">
+        <f t="shared" si="90"/>
+        <v>1000환</v>
+      </c>
+      <c r="G196" s="17">
+        <f t="shared" si="91"/>
+        <v>1E+263</v>
+      </c>
+      <c r="H196" s="17">
+        <f t="shared" si="54"/>
+        <v>1000</v>
+      </c>
+      <c r="I196" s="16" t="str" cm="1">
+        <f t="array" ref="I196">IF(AND(H195&gt;=1000,H196&lt;2),INDEX(N:N,MATCH(I195,N:N,0)+1,0),I195)</f>
+        <v>환</v>
+      </c>
+      <c r="J196" s="16" t="str">
+        <f>VLOOKUP(I196,N:Q,4,FALSE)</f>
+        <v>1E+260</v>
+      </c>
+      <c r="K196" s="22">
+        <f t="shared" si="55"/>
+        <v>47000</v>
+      </c>
+      <c r="L196" s="22">
+        <v>37400</v>
+      </c>
+    </row>
+    <row r="197" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E197" s="16">
+        <v>188</v>
+      </c>
+      <c r="F197" s="17" t="str">
+        <f t="shared" si="90"/>
+        <v>1종</v>
+      </c>
+      <c r="G197" s="17">
+        <f t="shared" si="91"/>
+        <v>1E+264</v>
+      </c>
+      <c r="H197" s="17">
+        <f t="shared" si="54"/>
+        <v>1</v>
+      </c>
+      <c r="I197" s="16" t="str" cm="1">
+        <f t="array" ref="I197">IF(AND(H196&gt;=1000,H197&lt;2),INDEX(N:N,MATCH(I196,N:N,0)+1,0),I196)</f>
+        <v>종</v>
+      </c>
+      <c r="J197" s="16" t="str">
+        <f>VLOOKUP(I197,N:Q,4,FALSE)</f>
+        <v>1E+264</v>
+      </c>
+      <c r="K197" s="22">
+        <f t="shared" si="55"/>
+        <v>48000</v>
+      </c>
+      <c r="L197" s="22">
+        <v>37600</v>
+      </c>
+    </row>
+    <row r="198" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E198" s="16">
+        <v>189</v>
+      </c>
+      <c r="F198" s="17" t="str">
+        <f t="shared" si="90"/>
+        <v>10종</v>
+      </c>
+      <c r="G198" s="17">
+        <f t="shared" si="91"/>
+        <v>1.0000000000000001E+265</v>
+      </c>
+      <c r="H198" s="17">
+        <f t="shared" si="54"/>
+        <v>10</v>
+      </c>
+      <c r="I198" s="16" t="str" cm="1">
+        <f t="array" ref="I198">IF(AND(H197&gt;=1000,H198&lt;2),INDEX(N:N,MATCH(I197,N:N,0)+1,0),I197)</f>
+        <v>종</v>
+      </c>
+      <c r="J198" s="16" t="str">
+        <f>VLOOKUP(I198,N:Q,4,FALSE)</f>
+        <v>1E+264</v>
+      </c>
+      <c r="K198" s="22">
+        <f t="shared" si="55"/>
+        <v>48000</v>
+      </c>
+      <c r="L198" s="22">
+        <v>37800</v>
+      </c>
+    </row>
+    <row r="199" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E199" s="16">
+        <v>190</v>
+      </c>
+      <c r="F199" s="17" t="str">
+        <f t="shared" si="90"/>
+        <v>100종</v>
+      </c>
+      <c r="G199" s="17">
+        <f t="shared" si="91"/>
+        <v>1E+266</v>
+      </c>
+      <c r="H199" s="17">
+        <f t="shared" si="54"/>
+        <v>100</v>
+      </c>
+      <c r="I199" s="16" t="str" cm="1">
+        <f t="array" ref="I199">IF(AND(H198&gt;=1000,H199&lt;2),INDEX(N:N,MATCH(I198,N:N,0)+1,0),I198)</f>
+        <v>종</v>
+      </c>
+      <c r="J199" s="16" t="str">
+        <f>VLOOKUP(I199,N:Q,4,FALSE)</f>
+        <v>1E+264</v>
+      </c>
+      <c r="K199" s="22">
+        <f t="shared" si="55"/>
+        <v>48000</v>
+      </c>
+      <c r="L199" s="22">
+        <v>38000</v>
+      </c>
+    </row>
+    <row r="200" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E200" s="16">
+        <v>191</v>
+      </c>
+      <c r="F200" s="17" t="str">
+        <f t="shared" si="90"/>
+        <v>1000종</v>
+      </c>
+      <c r="G200" s="17">
+        <f t="shared" si="91"/>
+        <v>1.0000000000000001E+267</v>
+      </c>
+      <c r="H200" s="17">
+        <f t="shared" si="54"/>
+        <v>1000</v>
+      </c>
+      <c r="I200" s="16" t="str" cm="1">
+        <f t="array" ref="I200">IF(AND(H199&gt;=1000,H200&lt;2),INDEX(N:N,MATCH(I199,N:N,0)+1,0),I199)</f>
+        <v>종</v>
+      </c>
+      <c r="J200" s="16" t="str">
+        <f>VLOOKUP(I200,N:Q,4,FALSE)</f>
+        <v>1E+264</v>
+      </c>
+      <c r="K200" s="22">
+        <f t="shared" si="55"/>
+        <v>48000</v>
+      </c>
+      <c r="L200" s="22">
+        <v>38200</v>
       </c>
     </row>
   </sheetData>
